--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -348,6 +348,42 @@
   </si>
   <si>
     <t>'626402.175.522119.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AB.001077</t>
+  </si>
+  <si>
+    <t>2024-01-19</t>
+  </si>
+  <si>
+    <t>'00026T</t>
+  </si>
+  <si>
+    <t>'241751303000213</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.348,B.349/BPPSDM.1/KP.440/I/2024 Tgl.16-1-2024</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AA.001066</t>
+  </si>
+  <si>
+    <t>'00027T</t>
+  </si>
+  <si>
+    <t>'241751303000212</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.AA.000256</t>
+  </si>
+  <si>
+    <t>2024-01-18</t>
+  </si>
+  <si>
+    <t>'00029T</t>
+  </si>
+  <si>
+    <t>'241751303000204</t>
+  </si>
+  <si>
+    <t>Penggantian Uang Persediaan KKP Untuk keperluan Belanja Barang (BPP 001 SET BRSDMKP)</t>
   </si>
 </sst>
 </file>
@@ -689,7 +725,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L53"/>
+  <dimension ref="A1:L56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -2641,6 +2677,120 @@
       </c>
       <c r="L53">
         <v>266514</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
+      <c r="A54">
+        <v>51</v>
+      </c>
+      <c r="B54">
+        <v>626402</v>
+      </c>
+      <c r="C54" t="s">
+        <v>13</v>
+      </c>
+      <c r="D54" t="s">
+        <v>111</v>
+      </c>
+      <c r="E54" t="s">
+        <v>112</v>
+      </c>
+      <c r="F54" t="s">
+        <v>113</v>
+      </c>
+      <c r="G54" t="s">
+        <v>114</v>
+      </c>
+      <c r="H54" t="s">
+        <v>115</v>
+      </c>
+      <c r="I54" t="s">
+        <v>19</v>
+      </c>
+      <c r="J54">
+        <v>1</v>
+      </c>
+      <c r="K54">
+        <v>39160000</v>
+      </c>
+      <c r="L54">
+        <v>39160000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
+      <c r="A55">
+        <v>52</v>
+      </c>
+      <c r="B55">
+        <v>626402</v>
+      </c>
+      <c r="C55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>111</v>
+      </c>
+      <c r="E55" t="s">
+        <v>116</v>
+      </c>
+      <c r="F55" t="s">
+        <v>117</v>
+      </c>
+      <c r="G55" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" t="s">
+        <v>118</v>
+      </c>
+      <c r="I55" t="s">
+        <v>19</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>33460000</v>
+      </c>
+      <c r="L55">
+        <v>33460000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
+      <c r="A56">
+        <v>53</v>
+      </c>
+      <c r="B56">
+        <v>626402</v>
+      </c>
+      <c r="C56" t="s">
+        <v>13</v>
+      </c>
+      <c r="D56" t="s">
+        <v>119</v>
+      </c>
+      <c r="E56" t="s">
+        <v>120</v>
+      </c>
+      <c r="F56" t="s">
+        <v>121</v>
+      </c>
+      <c r="G56" t="s">
+        <v>122</v>
+      </c>
+      <c r="H56" t="s">
+        <v>115</v>
+      </c>
+      <c r="I56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>5618285</v>
+      </c>
+      <c r="L56">
+        <v>5618285</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -206,6 +206,45 @@
     <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:0006/AGA.04.02/020700/2024 Tgl.3 Januari 2024 Pembayaran Rekening Listrik Bulan Januari 2024 Untuk pemakaian Listrik Bulan Desember 2023 Gd. Arsip Depok</t>
   </si>
   <si>
+    <t>2024-02-01</t>
+  </si>
+  <si>
+    <t>'00011T</t>
+  </si>
+  <si>
+    <t>'241751504000088</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji induk pegawai Sekretariat BRSDM bulan Februari 2024 untuk 73 pegawai/194 Jiwa )</t>
+  </si>
+  <si>
+    <t>'00012T</t>
+  </si>
+  <si>
+    <t>'241751504000072</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji pegawai Pusat pendidikan bulan Februari 2024 untuk 42 pegawai/115 Jiwa)</t>
+  </si>
+  <si>
+    <t>'00013T</t>
+  </si>
+  <si>
+    <t>'241751504000073</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji pegawai Pusat Pelatihan bulan Februari 2024 untuk 37 pegawai/105 Jiwa)</t>
+  </si>
+  <si>
+    <t>'00014T</t>
+  </si>
+  <si>
+    <t>'241751508000060</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji pegawai Sekretariat BRSDM bulan Februari 2024 untuk 2 pegawai/5 Jiwa)</t>
+  </si>
+  <si>
     <t>2024-01-15</t>
   </si>
   <si>
@@ -384,6 +423,291 @@
   </si>
   <si>
     <t>Penggantian Uang Persediaan KKP Untuk keperluan Belanja Barang (BPP 001 SET BRSDMKP)</t>
+  </si>
+  <si>
+    <t>2024-01-25</t>
+  </si>
+  <si>
+    <t>'00031T</t>
+  </si>
+  <si>
+    <t>'241751303000450</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai (pembayaran uang makan pegawai Pusdik bulan Nopember 2023 untuk 1 orang)</t>
+  </si>
+  <si>
+    <t>'00032T</t>
+  </si>
+  <si>
+    <t>'241751303000451</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Pusdik bulan Desember 2023 untuk 1 pegawai)</t>
+  </si>
+  <si>
+    <t>'00033T</t>
+  </si>
+  <si>
+    <t>'241751303000448</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan KKP untuk keperluan belanja barang (BPP 001 Set BRSDM)</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AA.000432</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AA.000433</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0B.000890</t>
+  </si>
+  <si>
+    <t>2024-01-29</t>
+  </si>
+  <si>
+    <t>'00034T</t>
+  </si>
+  <si>
+    <t>'241751303000457</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai dengan Surat Tugas No.31,33/BPPSDM.5/KP.440/I/2024.Tanggal 09 Januari 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0A.000959</t>
+  </si>
+  <si>
+    <t>'00035T</t>
+  </si>
+  <si>
+    <t>'241751303000449</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran kekurangan gaji pegawai Sekretariat BRSDM an. Ari Setyawan bulan Desember 2023)</t>
+  </si>
+  <si>
+    <t>'00036T</t>
+  </si>
+  <si>
+    <t>'241751303000458</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai dengan surat tugas,ST.B 14/BRSDM.5/KP.440/I/2024.Tanggal 4 Januari 2024.</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0D.000169</t>
+  </si>
+  <si>
+    <t>'00037T</t>
+  </si>
+  <si>
+    <t>'241751504000129</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Berupa Honor PPNPN Bulan Januari Tahun 2024 untuk 31 Pegawai.Sesuai SK No:1/KPA/BPPSDM/I/2024 tgl.2-1 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000463</t>
+  </si>
+  <si>
+    <t>'00038T</t>
+  </si>
+  <si>
+    <t>'241751504000131</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Berupa Honor PPNPN Bulan Januari Tahun 2024 untuk 2 Pegawai.Sesuai SK No:1/KPA/BPPSDM/I/2024 tgl.2-1 2024</t>
+  </si>
+  <si>
+    <t>'00039T</t>
+  </si>
+  <si>
+    <t>'241751504000142</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang-Honor PPNPN Bulan Januari Tahun 2024 untuk 11 Pegawai.Sesuai dengan SK.No KEP.14/KPA/BPPSDM/I/2024.Tanggal 2 Januari 2024.</t>
+  </si>
+  <si>
+    <t>'00040T</t>
+  </si>
+  <si>
+    <t>'241751504000141</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang-Honor PPNPN Bulan Januari Tahun 2024 untuk 3 Pegawai.Sesuai dengan SK.No KEP.14/KPA/BPPSDM/I/2024.Tanggal 2 Januari 2024. </t>
+  </si>
+  <si>
+    <t>2024-01-31</t>
+  </si>
+  <si>
+    <t>'00042T</t>
+  </si>
+  <si>
+    <t>'241751303000730</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan KKP untuk keperluan belanja barang (BPP PuslatluhKP)</t>
+  </si>
+  <si>
+    <t>'626402.175.522119.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DB.000542</t>
+  </si>
+  <si>
+    <t>'00043T</t>
+  </si>
+  <si>
+    <t>'241751303000696</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.327/BPPSDM.1/KP.440/I/2024 Tgl.16 Januari 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.974.101.0C.001044</t>
+  </si>
+  <si>
+    <t>'00044T</t>
+  </si>
+  <si>
+    <t>'241751303000695</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.827/BPPSDM.1/TU.350/I/2024 Tgl.26 Januari 2024 (PERDIN LN)</t>
+  </si>
+  <si>
+    <t>'626402.175.524211.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.106.0A.000366</t>
+  </si>
+  <si>
+    <t>2024-02-02</t>
+  </si>
+  <si>
+    <t>'00045T</t>
+  </si>
+  <si>
+    <t>'241751303000882</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Serang (PP) tgl 11-12 Januari 2024 an.Sutrisno dan Adityo Bayu sesuai ST No B.88/BPSDM.4/KP.440/I/2024 Tgl 10/1/2024, keg. Koordinasi pelaksanaan dan lounching SFV-UPT</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.306.0A.000387</t>
+  </si>
+  <si>
+    <t>'00046T</t>
+  </si>
+  <si>
+    <t>'241751303000860</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Serang(PP) tgl 11-12 Jan 2023 an. Luh Dewi, dkk sesuai ST No B.84/BRSDM.4/KP.440/I/2024 Tgl 10/1/2023, keg. Melakukan kunjungan ke SFV UPT Politeknik Ahli Usaha Perikanan Kampus Serang</t>
+  </si>
+  <si>
+    <t>'00047T</t>
+  </si>
+  <si>
+    <t>'241751301001178</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:009-01/BTA/I/2024 Tgl.16-1-2024</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AA.000428</t>
+  </si>
+  <si>
+    <t>'00048T</t>
+  </si>
+  <si>
+    <t>'241751301001171</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai Kuitansi Nomor:123 Tgl.10-1-2024 </t>
+  </si>
+  <si>
+    <t>'00049T</t>
+  </si>
+  <si>
+    <t>'241751303000840</t>
+  </si>
+  <si>
+    <t>Penggantian Uang Persediaan untuk Keperluan Belanja Barang (BPP 002 Pusat Pendidikan KP)</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.306.0A.000380</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0B.000996</t>
+  </si>
+  <si>
+    <t>'626402.175.521219.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.306.0A.000382</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2376ABW.A000000001.00000.1.0151.2.000000.000000.001.051.0A.001378</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0A.000208</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0A.001152</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0C.001165</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.4345EBC.A000000001.00000.1.0151.2.000000.000000.996.301.0A.001337</t>
+  </si>
+  <si>
+    <t>'626402.175.524119.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0A.001381</t>
+  </si>
+  <si>
+    <t>'00050T</t>
+  </si>
+  <si>
+    <t>'241751303000861</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.65/BPPSDM.5/KP.440/I/2024 Tgl.15 Januari 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.524119.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0C.000977</t>
+  </si>
+  <si>
+    <t>'00053T</t>
+  </si>
+  <si>
+    <t>'241751303000862</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.171/BPPSDM.5/KP.440/I/2024 Tgl.29 Januari 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0A.000102</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0A.000103</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0A.001431</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0A.001432</t>
+  </si>
+  <si>
+    <t>'00054T</t>
+  </si>
+  <si>
+    <t>'241751303000863</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0B.000113</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0B.000114</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0B.001433</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0B.001434</t>
   </si>
 </sst>
 </file>
@@ -725,7 +1049,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L56"/>
+  <dimension ref="A1:L132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -2170,7 +2494,7 @@
         <v>66</v>
       </c>
       <c r="H40" t="s">
-        <v>67</v>
+        <v>18</v>
       </c>
       <c r="I40" t="s">
         <v>19</v>
@@ -2179,10 +2503,10 @@
         <v>1</v>
       </c>
       <c r="K40">
-        <v>86718779</v>
+        <v>260757140</v>
       </c>
       <c r="L40">
-        <v>86718779</v>
+        <v>260757140</v>
       </c>
     </row>
     <row r="41" spans="1:12">
@@ -2196,19 +2520,19 @@
         <v>13</v>
       </c>
       <c r="D41" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="F41" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="G41" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="H41" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="I41" t="s">
         <v>19</v>
@@ -2217,10 +2541,10 @@
         <v>1</v>
       </c>
       <c r="K41">
-        <v>14428000</v>
+        <v>3790</v>
       </c>
       <c r="L41">
-        <v>14428000</v>
+        <v>3790</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2237,16 +2561,16 @@
         <v>63</v>
       </c>
       <c r="E42" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="F42" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="G42" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="H42" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="I42" t="s">
         <v>19</v>
@@ -2255,10 +2579,10 @@
         <v>1</v>
       </c>
       <c r="K42">
-        <v>5074000</v>
+        <v>15669430</v>
       </c>
       <c r="L42">
-        <v>5074000</v>
+        <v>15669430</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2272,19 +2596,19 @@
         <v>13</v>
       </c>
       <c r="D43" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E43" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="F43" t="s">
-        <v>78</v>
+        <v>65</v>
       </c>
       <c r="G43" t="s">
-        <v>79</v>
+        <v>66</v>
       </c>
       <c r="H43" t="s">
-        <v>80</v>
+        <v>22</v>
       </c>
       <c r="I43" t="s">
         <v>19</v>
@@ -2293,10 +2617,10 @@
         <v>1</v>
       </c>
       <c r="K43">
-        <v>14000000</v>
+        <v>5644768</v>
       </c>
       <c r="L43">
-        <v>14000000</v>
+        <v>5644768</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2310,19 +2634,19 @@
         <v>13</v>
       </c>
       <c r="D44" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E44" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="F44" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="H44" t="s">
-        <v>84</v>
+        <v>29</v>
       </c>
       <c r="I44" t="s">
         <v>19</v>
@@ -2331,10 +2655,10 @@
         <v>1</v>
       </c>
       <c r="K44">
-        <v>12741699</v>
+        <v>8750000</v>
       </c>
       <c r="L44">
-        <v>12741699</v>
+        <v>8750000</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2348,19 +2672,19 @@
         <v>13</v>
       </c>
       <c r="D45" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E45" t="s">
-        <v>85</v>
+        <v>64</v>
       </c>
       <c r="F45" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
       <c r="G45" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
       <c r="H45" t="s">
-        <v>88</v>
+        <v>23</v>
       </c>
       <c r="I45" t="s">
         <v>19</v>
@@ -2369,10 +2693,10 @@
         <v>1</v>
       </c>
       <c r="K45">
-        <v>4377162</v>
+        <v>26177000</v>
       </c>
       <c r="L45">
-        <v>4377162</v>
+        <v>26177000</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2386,19 +2710,19 @@
         <v>13</v>
       </c>
       <c r="D46" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>64</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="G46" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="H46" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="I46" t="s">
         <v>19</v>
@@ -2407,10 +2731,10 @@
         <v>1</v>
       </c>
       <c r="K46">
-        <v>49500000</v>
+        <v>509699</v>
       </c>
       <c r="L46">
-        <v>49500000</v>
+        <v>509699</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2424,19 +2748,19 @@
         <v>13</v>
       </c>
       <c r="D47" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E47" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F47" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G47" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="H47" t="s">
-        <v>96</v>
+        <v>25</v>
       </c>
       <c r="I47" t="s">
         <v>19</v>
@@ -2445,10 +2769,10 @@
         <v>1</v>
       </c>
       <c r="K47">
-        <v>29700000</v>
+        <v>14049480</v>
       </c>
       <c r="L47">
-        <v>29700000</v>
+        <v>14049480</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2462,19 +2786,19 @@
         <v>13</v>
       </c>
       <c r="D48" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>64</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="G48" t="s">
-        <v>95</v>
+        <v>66</v>
       </c>
       <c r="H48" t="s">
-        <v>97</v>
+        <v>30</v>
       </c>
       <c r="I48" t="s">
         <v>19</v>
@@ -2483,10 +2807,10 @@
         <v>1</v>
       </c>
       <c r="K48">
-        <v>8250000</v>
+        <v>7030000</v>
       </c>
       <c r="L48">
-        <v>8250000</v>
+        <v>7030000</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2500,19 +2824,19 @@
         <v>13</v>
       </c>
       <c r="D49" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E49" t="s">
-        <v>98</v>
+        <v>67</v>
       </c>
       <c r="F49" t="s">
-        <v>99</v>
+        <v>68</v>
       </c>
       <c r="G49" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="H49" t="s">
-        <v>101</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
         <v>19</v>
@@ -2521,10 +2845,10 @@
         <v>1</v>
       </c>
       <c r="K49">
-        <v>37452000</v>
+        <v>151639300</v>
       </c>
       <c r="L49">
-        <v>37452000</v>
+        <v>151639300</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2538,19 +2862,19 @@
         <v>13</v>
       </c>
       <c r="D50" t="s">
-        <v>92</v>
+        <v>63</v>
       </c>
       <c r="E50" t="s">
-        <v>102</v>
+        <v>67</v>
       </c>
       <c r="F50" t="s">
-        <v>103</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="H50" t="s">
-        <v>105</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
         <v>19</v>
@@ -2559,10 +2883,10 @@
         <v>1</v>
       </c>
       <c r="K50">
-        <v>20581340</v>
+        <v>2287</v>
       </c>
       <c r="L50">
-        <v>20581340</v>
+        <v>2287</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2576,19 +2900,19 @@
         <v>13</v>
       </c>
       <c r="D51" t="s">
+        <v>63</v>
+      </c>
+      <c r="E51" t="s">
+        <v>67</v>
+      </c>
+      <c r="F51" t="s">
         <v>68</v>
       </c>
-      <c r="E51" t="s">
-        <v>106</v>
-      </c>
-      <c r="F51" t="s">
-        <v>107</v>
-      </c>
       <c r="G51" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="H51" t="s">
-        <v>76</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
         <v>19</v>
@@ -2597,10 +2921,10 @@
         <v>1</v>
       </c>
       <c r="K51">
-        <v>24726460</v>
+        <v>10272060</v>
       </c>
       <c r="L51">
-        <v>24726460</v>
+        <v>10272060</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2614,19 +2938,19 @@
         <v>13</v>
       </c>
       <c r="D52" t="s">
+        <v>63</v>
+      </c>
+      <c r="E52" t="s">
+        <v>67</v>
+      </c>
+      <c r="F52" t="s">
         <v>68</v>
       </c>
-      <c r="E52" t="s">
-        <v>106</v>
-      </c>
-      <c r="F52" t="s">
-        <v>107</v>
-      </c>
       <c r="G52" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="H52" t="s">
-        <v>109</v>
+        <v>49</v>
       </c>
       <c r="I52" t="s">
         <v>19</v>
@@ -2635,10 +2959,10 @@
         <v>1</v>
       </c>
       <c r="K52">
-        <v>429372</v>
+        <v>3188432</v>
       </c>
       <c r="L52">
-        <v>429372</v>
+        <v>3188432</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2652,19 +2976,19 @@
         <v>13</v>
       </c>
       <c r="D53" t="s">
+        <v>63</v>
+      </c>
+      <c r="E53" t="s">
+        <v>67</v>
+      </c>
+      <c r="F53" t="s">
         <v>68</v>
       </c>
-      <c r="E53" t="s">
-        <v>106</v>
-      </c>
-      <c r="F53" t="s">
-        <v>107</v>
-      </c>
       <c r="G53" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="H53" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="I53" t="s">
         <v>19</v>
@@ -2673,10 +2997,10 @@
         <v>1</v>
       </c>
       <c r="K53">
-        <v>266514</v>
+        <v>2520000</v>
       </c>
       <c r="L53">
-        <v>266514</v>
+        <v>2520000</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2690,19 +3014,19 @@
         <v>13</v>
       </c>
       <c r="D54" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="E54" t="s">
-        <v>112</v>
+        <v>67</v>
       </c>
       <c r="F54" t="s">
-        <v>113</v>
+        <v>68</v>
       </c>
       <c r="G54" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="H54" t="s">
-        <v>115</v>
+        <v>51</v>
       </c>
       <c r="I54" t="s">
         <v>19</v>
@@ -2711,10 +3035,10 @@
         <v>1</v>
       </c>
       <c r="K54">
-        <v>39160000</v>
+        <v>11960000</v>
       </c>
       <c r="L54">
-        <v>39160000</v>
+        <v>11960000</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2728,19 +3052,19 @@
         <v>13</v>
       </c>
       <c r="D55" t="s">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="E55" t="s">
-        <v>116</v>
+        <v>67</v>
       </c>
       <c r="F55" t="s">
-        <v>117</v>
+        <v>68</v>
       </c>
       <c r="G55" t="s">
-        <v>114</v>
+        <v>69</v>
       </c>
       <c r="H55" t="s">
-        <v>118</v>
+        <v>52</v>
       </c>
       <c r="I55" t="s">
         <v>19</v>
@@ -2749,10 +3073,10 @@
         <v>1</v>
       </c>
       <c r="K55">
-        <v>33460000</v>
+        <v>156201</v>
       </c>
       <c r="L55">
-        <v>33460000</v>
+        <v>156201</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2766,31 +3090,2919 @@
         <v>13</v>
       </c>
       <c r="D56" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" t="s">
+        <v>67</v>
+      </c>
+      <c r="F56" t="s">
+        <v>68</v>
+      </c>
+      <c r="G56" t="s">
+        <v>69</v>
+      </c>
+      <c r="H56" t="s">
+        <v>53</v>
+      </c>
+      <c r="I56" t="s">
+        <v>19</v>
+      </c>
+      <c r="J56">
+        <v>1</v>
+      </c>
+      <c r="K56">
+        <v>8328300</v>
+      </c>
+      <c r="L56">
+        <v>8328300</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
+      <c r="A57">
+        <v>54</v>
+      </c>
+      <c r="B57">
+        <v>626402</v>
+      </c>
+      <c r="C57" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" t="s">
+        <v>63</v>
+      </c>
+      <c r="E57" t="s">
+        <v>67</v>
+      </c>
+      <c r="F57" t="s">
+        <v>68</v>
+      </c>
+      <c r="G57" t="s">
+        <v>69</v>
+      </c>
+      <c r="H57" t="s">
+        <v>54</v>
+      </c>
+      <c r="I57" t="s">
+        <v>19</v>
+      </c>
+      <c r="J57">
+        <v>1</v>
+      </c>
+      <c r="K57">
+        <v>4620000</v>
+      </c>
+      <c r="L57">
+        <v>4620000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
+      <c r="A58">
+        <v>55</v>
+      </c>
+      <c r="B58">
+        <v>626402</v>
+      </c>
+      <c r="C58" t="s">
+        <v>13</v>
+      </c>
+      <c r="D58" t="s">
+        <v>63</v>
+      </c>
+      <c r="E58" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" t="s">
+        <v>71</v>
+      </c>
+      <c r="G58" t="s">
+        <v>72</v>
+      </c>
+      <c r="H58" t="s">
+        <v>34</v>
+      </c>
+      <c r="I58" t="s">
+        <v>19</v>
+      </c>
+      <c r="J58">
+        <v>1</v>
+      </c>
+      <c r="K58">
+        <v>146434000</v>
+      </c>
+      <c r="L58">
+        <v>146434000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
+      <c r="A59">
+        <v>56</v>
+      </c>
+      <c r="B59">
+        <v>626402</v>
+      </c>
+      <c r="C59" t="s">
+        <v>13</v>
+      </c>
+      <c r="D59" t="s">
+        <v>63</v>
+      </c>
+      <c r="E59" t="s">
+        <v>70</v>
+      </c>
+      <c r="F59" t="s">
+        <v>71</v>
+      </c>
+      <c r="G59" t="s">
+        <v>72</v>
+      </c>
+      <c r="H59" t="s">
+        <v>35</v>
+      </c>
+      <c r="I59" t="s">
+        <v>19</v>
+      </c>
+      <c r="J59">
+        <v>1</v>
+      </c>
+      <c r="K59">
+        <v>1662</v>
+      </c>
+      <c r="L59">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
+      <c r="A60">
+        <v>57</v>
+      </c>
+      <c r="B60">
+        <v>626402</v>
+      </c>
+      <c r="C60" t="s">
+        <v>13</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E60" t="s">
+        <v>70</v>
+      </c>
+      <c r="F60" t="s">
+        <v>71</v>
+      </c>
+      <c r="G60" t="s">
+        <v>72</v>
+      </c>
+      <c r="H60" t="s">
+        <v>36</v>
+      </c>
+      <c r="I60" t="s">
+        <v>19</v>
+      </c>
+      <c r="J60">
+        <v>1</v>
+      </c>
+      <c r="K60">
+        <v>10770030</v>
+      </c>
+      <c r="L60">
+        <v>10770030</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
+      <c r="A61">
+        <v>58</v>
+      </c>
+      <c r="B61">
+        <v>626402</v>
+      </c>
+      <c r="C61" t="s">
+        <v>13</v>
+      </c>
+      <c r="D61" t="s">
+        <v>63</v>
+      </c>
+      <c r="E61" t="s">
+        <v>70</v>
+      </c>
+      <c r="F61" t="s">
+        <v>71</v>
+      </c>
+      <c r="G61" t="s">
+        <v>72</v>
+      </c>
+      <c r="H61" t="s">
+        <v>37</v>
+      </c>
+      <c r="I61" t="s">
+        <v>19</v>
+      </c>
+      <c r="J61">
+        <v>1</v>
+      </c>
+      <c r="K61">
+        <v>3213758</v>
+      </c>
+      <c r="L61">
+        <v>3213758</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
+      <c r="A62">
+        <v>59</v>
+      </c>
+      <c r="B62">
+        <v>626402</v>
+      </c>
+      <c r="C62" t="s">
+        <v>13</v>
+      </c>
+      <c r="D62" t="s">
+        <v>63</v>
+      </c>
+      <c r="E62" t="s">
+        <v>70</v>
+      </c>
+      <c r="F62" t="s">
+        <v>71</v>
+      </c>
+      <c r="G62" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" t="s">
+        <v>19</v>
+      </c>
+      <c r="J62">
+        <v>1</v>
+      </c>
+      <c r="K62">
+        <v>3250000</v>
+      </c>
+      <c r="L62">
+        <v>3250000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
+      <c r="A63">
+        <v>60</v>
+      </c>
+      <c r="B63">
+        <v>626402</v>
+      </c>
+      <c r="C63" t="s">
+        <v>13</v>
+      </c>
+      <c r="D63" t="s">
+        <v>63</v>
+      </c>
+      <c r="E63" t="s">
+        <v>70</v>
+      </c>
+      <c r="F63" t="s">
+        <v>71</v>
+      </c>
+      <c r="G63" t="s">
+        <v>72</v>
+      </c>
+      <c r="H63" t="s">
+        <v>39</v>
+      </c>
+      <c r="I63" t="s">
+        <v>19</v>
+      </c>
+      <c r="J63">
+        <v>1</v>
+      </c>
+      <c r="K63">
+        <v>15660000</v>
+      </c>
+      <c r="L63">
+        <v>15660000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
+      <c r="A64">
+        <v>61</v>
+      </c>
+      <c r="B64">
+        <v>626402</v>
+      </c>
+      <c r="C64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>70</v>
+      </c>
+      <c r="F64" t="s">
+        <v>71</v>
+      </c>
+      <c r="G64" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" t="s">
+        <v>40</v>
+      </c>
+      <c r="I64" t="s">
+        <v>19</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+      <c r="K64">
+        <v>461168</v>
+      </c>
+      <c r="L64">
+        <v>461168</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12">
+      <c r="A65">
+        <v>62</v>
+      </c>
+      <c r="B65">
+        <v>626402</v>
+      </c>
+      <c r="C65" t="s">
+        <v>13</v>
+      </c>
+      <c r="D65" t="s">
+        <v>63</v>
+      </c>
+      <c r="E65" t="s">
+        <v>70</v>
+      </c>
+      <c r="F65" t="s">
+        <v>71</v>
+      </c>
+      <c r="G65" t="s">
+        <v>72</v>
+      </c>
+      <c r="H65" t="s">
+        <v>41</v>
+      </c>
+      <c r="I65" t="s">
+        <v>19</v>
+      </c>
+      <c r="J65">
+        <v>1</v>
+      </c>
+      <c r="K65">
+        <v>7604100</v>
+      </c>
+      <c r="L65">
+        <v>7604100</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12">
+      <c r="A66">
+        <v>63</v>
+      </c>
+      <c r="B66">
+        <v>626402</v>
+      </c>
+      <c r="C66" t="s">
+        <v>13</v>
+      </c>
+      <c r="D66" t="s">
+        <v>63</v>
+      </c>
+      <c r="E66" t="s">
+        <v>70</v>
+      </c>
+      <c r="F66" t="s">
+        <v>71</v>
+      </c>
+      <c r="G66" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" t="s">
+        <v>42</v>
+      </c>
+      <c r="I66" t="s">
+        <v>19</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+      <c r="K66">
+        <v>3150000</v>
+      </c>
+      <c r="L66">
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12">
+      <c r="A67">
+        <v>64</v>
+      </c>
+      <c r="B67">
+        <v>626402</v>
+      </c>
+      <c r="C67" t="s">
+        <v>13</v>
+      </c>
+      <c r="D67" t="s">
+        <v>63</v>
+      </c>
+      <c r="E67" t="s">
+        <v>73</v>
+      </c>
+      <c r="F67" t="s">
+        <v>74</v>
+      </c>
+      <c r="G67" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67" t="s">
+        <v>18</v>
+      </c>
+      <c r="I67" t="s">
+        <v>19</v>
+      </c>
+      <c r="J67">
+        <v>1</v>
+      </c>
+      <c r="K67">
+        <v>7605200</v>
+      </c>
+      <c r="L67">
+        <v>7605200</v>
+      </c>
+    </row>
+    <row r="68" spans="1:12">
+      <c r="A68">
+        <v>65</v>
+      </c>
+      <c r="B68">
+        <v>626402</v>
+      </c>
+      <c r="C68" t="s">
+        <v>13</v>
+      </c>
+      <c r="D68" t="s">
+        <v>63</v>
+      </c>
+      <c r="E68" t="s">
+        <v>73</v>
+      </c>
+      <c r="F68" t="s">
+        <v>74</v>
+      </c>
+      <c r="G68" t="s">
+        <v>75</v>
+      </c>
+      <c r="H68" t="s">
+        <v>20</v>
+      </c>
+      <c r="I68" t="s">
+        <v>19</v>
+      </c>
+      <c r="J68">
+        <v>1</v>
+      </c>
+      <c r="K68">
+        <v>102</v>
+      </c>
+      <c r="L68">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12">
+      <c r="A69">
+        <v>66</v>
+      </c>
+      <c r="B69">
+        <v>626402</v>
+      </c>
+      <c r="C69" t="s">
+        <v>13</v>
+      </c>
+      <c r="D69" t="s">
+        <v>63</v>
+      </c>
+      <c r="E69" t="s">
+        <v>73</v>
+      </c>
+      <c r="F69" t="s">
+        <v>74</v>
+      </c>
+      <c r="G69" t="s">
+        <v>75</v>
+      </c>
+      <c r="H69" t="s">
+        <v>21</v>
+      </c>
+      <c r="I69" t="s">
+        <v>19</v>
+      </c>
+      <c r="J69">
+        <v>1</v>
+      </c>
+      <c r="K69">
+        <v>341060</v>
+      </c>
+      <c r="L69">
+        <v>341060</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12">
+      <c r="A70">
+        <v>67</v>
+      </c>
+      <c r="B70">
+        <v>626402</v>
+      </c>
+      <c r="C70" t="s">
+        <v>13</v>
+      </c>
+      <c r="D70" t="s">
+        <v>63</v>
+      </c>
+      <c r="E70" t="s">
+        <v>73</v>
+      </c>
+      <c r="F70" t="s">
+        <v>74</v>
+      </c>
+      <c r="G70" t="s">
+        <v>75</v>
+      </c>
+      <c r="H70" t="s">
+        <v>22</v>
+      </c>
+      <c r="I70" t="s">
+        <v>19</v>
+      </c>
+      <c r="J70">
+        <v>1</v>
+      </c>
+      <c r="K70">
+        <v>136424</v>
+      </c>
+      <c r="L70">
+        <v>136424</v>
+      </c>
+    </row>
+    <row r="71" spans="1:12">
+      <c r="A71">
+        <v>68</v>
+      </c>
+      <c r="B71">
+        <v>626402</v>
+      </c>
+      <c r="C71" t="s">
+        <v>13</v>
+      </c>
+      <c r="D71" t="s">
+        <v>63</v>
+      </c>
+      <c r="E71" t="s">
+        <v>73</v>
+      </c>
+      <c r="F71" t="s">
+        <v>74</v>
+      </c>
+      <c r="G71" t="s">
+        <v>75</v>
+      </c>
+      <c r="H71" t="s">
+        <v>23</v>
+      </c>
+      <c r="I71" t="s">
+        <v>19</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+      <c r="K71">
+        <v>2180000</v>
+      </c>
+      <c r="L71">
+        <v>2180000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:12">
+      <c r="A72">
+        <v>69</v>
+      </c>
+      <c r="B72">
+        <v>626402</v>
+      </c>
+      <c r="C72" t="s">
+        <v>13</v>
+      </c>
+      <c r="D72" t="s">
+        <v>63</v>
+      </c>
+      <c r="E72" t="s">
+        <v>73</v>
+      </c>
+      <c r="F72" t="s">
+        <v>74</v>
+      </c>
+      <c r="G72" t="s">
+        <v>75</v>
+      </c>
+      <c r="H72" t="s">
+        <v>24</v>
+      </c>
+      <c r="I72" t="s">
+        <v>19</v>
+      </c>
+      <c r="J72">
+        <v>1</v>
+      </c>
+      <c r="K72">
+        <v>33270</v>
+      </c>
+      <c r="L72">
+        <v>33270</v>
+      </c>
+    </row>
+    <row r="73" spans="1:12">
+      <c r="A73">
+        <v>70</v>
+      </c>
+      <c r="B73">
+        <v>626402</v>
+      </c>
+      <c r="C73" t="s">
+        <v>13</v>
+      </c>
+      <c r="D73" t="s">
+        <v>63</v>
+      </c>
+      <c r="E73" t="s">
+        <v>73</v>
+      </c>
+      <c r="F73" t="s">
+        <v>74</v>
+      </c>
+      <c r="G73" t="s">
+        <v>75</v>
+      </c>
+      <c r="H73" t="s">
+        <v>25</v>
+      </c>
+      <c r="I73" t="s">
+        <v>19</v>
+      </c>
+      <c r="J73">
+        <v>1</v>
+      </c>
+      <c r="K73">
+        <v>362100</v>
+      </c>
+      <c r="L73">
+        <v>362100</v>
+      </c>
+    </row>
+    <row r="74" spans="1:12">
+      <c r="A74">
+        <v>71</v>
+      </c>
+      <c r="B74">
+        <v>626402</v>
+      </c>
+      <c r="C74" t="s">
+        <v>13</v>
+      </c>
+      <c r="D74" t="s">
+        <v>76</v>
+      </c>
+      <c r="E74" t="s">
+        <v>77</v>
+      </c>
+      <c r="F74" t="s">
+        <v>78</v>
+      </c>
+      <c r="G74" t="s">
+        <v>79</v>
+      </c>
+      <c r="H74" t="s">
+        <v>80</v>
+      </c>
+      <c r="I74" t="s">
+        <v>19</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+      <c r="K74">
+        <v>86718779</v>
+      </c>
+      <c r="L74">
+        <v>86718779</v>
+      </c>
+    </row>
+    <row r="75" spans="1:12">
+      <c r="A75">
+        <v>72</v>
+      </c>
+      <c r="B75">
+        <v>626402</v>
+      </c>
+      <c r="C75" t="s">
+        <v>13</v>
+      </c>
+      <c r="D75" t="s">
+        <v>81</v>
+      </c>
+      <c r="E75" t="s">
+        <v>82</v>
+      </c>
+      <c r="F75" t="s">
+        <v>83</v>
+      </c>
+      <c r="G75" t="s">
+        <v>84</v>
+      </c>
+      <c r="H75" t="s">
+        <v>85</v>
+      </c>
+      <c r="I75" t="s">
+        <v>19</v>
+      </c>
+      <c r="J75">
+        <v>1</v>
+      </c>
+      <c r="K75">
+        <v>14428000</v>
+      </c>
+      <c r="L75">
+        <v>14428000</v>
+      </c>
+    </row>
+    <row r="76" spans="1:12">
+      <c r="A76">
+        <v>73</v>
+      </c>
+      <c r="B76">
+        <v>626402</v>
+      </c>
+      <c r="C76" t="s">
+        <v>13</v>
+      </c>
+      <c r="D76" t="s">
+        <v>76</v>
+      </c>
+      <c r="E76" t="s">
+        <v>86</v>
+      </c>
+      <c r="F76" t="s">
+        <v>87</v>
+      </c>
+      <c r="G76" t="s">
+        <v>88</v>
+      </c>
+      <c r="H76" t="s">
+        <v>89</v>
+      </c>
+      <c r="I76" t="s">
+        <v>19</v>
+      </c>
+      <c r="J76">
+        <v>1</v>
+      </c>
+      <c r="K76">
+        <v>5074000</v>
+      </c>
+      <c r="L76">
+        <v>5074000</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12">
+      <c r="A77">
+        <v>74</v>
+      </c>
+      <c r="B77">
+        <v>626402</v>
+      </c>
+      <c r="C77" t="s">
+        <v>13</v>
+      </c>
+      <c r="D77" t="s">
+        <v>81</v>
+      </c>
+      <c r="E77" t="s">
+        <v>90</v>
+      </c>
+      <c r="F77" t="s">
+        <v>91</v>
+      </c>
+      <c r="G77" t="s">
+        <v>92</v>
+      </c>
+      <c r="H77" t="s">
+        <v>93</v>
+      </c>
+      <c r="I77" t="s">
+        <v>19</v>
+      </c>
+      <c r="J77">
+        <v>1</v>
+      </c>
+      <c r="K77">
+        <v>14000000</v>
+      </c>
+      <c r="L77">
+        <v>14000000</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12">
+      <c r="A78">
+        <v>75</v>
+      </c>
+      <c r="B78">
+        <v>626402</v>
+      </c>
+      <c r="C78" t="s">
+        <v>13</v>
+      </c>
+      <c r="D78" t="s">
+        <v>81</v>
+      </c>
+      <c r="E78" t="s">
+        <v>94</v>
+      </c>
+      <c r="F78" t="s">
+        <v>95</v>
+      </c>
+      <c r="G78" t="s">
+        <v>96</v>
+      </c>
+      <c r="H78" t="s">
+        <v>97</v>
+      </c>
+      <c r="I78" t="s">
+        <v>19</v>
+      </c>
+      <c r="J78">
+        <v>1</v>
+      </c>
+      <c r="K78">
+        <v>12741699</v>
+      </c>
+      <c r="L78">
+        <v>12741699</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12">
+      <c r="A79">
+        <v>76</v>
+      </c>
+      <c r="B79">
+        <v>626402</v>
+      </c>
+      <c r="C79" t="s">
+        <v>13</v>
+      </c>
+      <c r="D79" t="s">
+        <v>81</v>
+      </c>
+      <c r="E79" t="s">
+        <v>98</v>
+      </c>
+      <c r="F79" t="s">
+        <v>99</v>
+      </c>
+      <c r="G79" t="s">
+        <v>100</v>
+      </c>
+      <c r="H79" t="s">
+        <v>101</v>
+      </c>
+      <c r="I79" t="s">
+        <v>19</v>
+      </c>
+      <c r="J79">
+        <v>1</v>
+      </c>
+      <c r="K79">
+        <v>4377162</v>
+      </c>
+      <c r="L79">
+        <v>4377162</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12">
+      <c r="A80">
+        <v>77</v>
+      </c>
+      <c r="B80">
+        <v>626402</v>
+      </c>
+      <c r="C80" t="s">
+        <v>13</v>
+      </c>
+      <c r="D80" t="s">
+        <v>81</v>
+      </c>
+      <c r="E80" t="s">
+        <v>102</v>
+      </c>
+      <c r="F80" t="s">
+        <v>103</v>
+      </c>
+      <c r="G80" t="s">
+        <v>104</v>
+      </c>
+      <c r="H80" t="s">
+        <v>93</v>
+      </c>
+      <c r="I80" t="s">
+        <v>19</v>
+      </c>
+      <c r="J80">
+        <v>1</v>
+      </c>
+      <c r="K80">
+        <v>49500000</v>
+      </c>
+      <c r="L80">
+        <v>49500000</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12">
+      <c r="A81">
+        <v>78</v>
+      </c>
+      <c r="B81">
+        <v>626402</v>
+      </c>
+      <c r="C81" t="s">
+        <v>13</v>
+      </c>
+      <c r="D81" t="s">
+        <v>105</v>
+      </c>
+      <c r="E81" t="s">
+        <v>106</v>
+      </c>
+      <c r="F81" t="s">
+        <v>107</v>
+      </c>
+      <c r="G81" t="s">
+        <v>108</v>
+      </c>
+      <c r="H81" t="s">
+        <v>109</v>
+      </c>
+      <c r="I81" t="s">
+        <v>19</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>29700000</v>
+      </c>
+      <c r="L81">
+        <v>29700000</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82">
+        <v>79</v>
+      </c>
+      <c r="B82">
+        <v>626402</v>
+      </c>
+      <c r="C82" t="s">
+        <v>13</v>
+      </c>
+      <c r="D82" t="s">
+        <v>105</v>
+      </c>
+      <c r="E82" t="s">
+        <v>106</v>
+      </c>
+      <c r="F82" t="s">
+        <v>107</v>
+      </c>
+      <c r="G82" t="s">
+        <v>108</v>
+      </c>
+      <c r="H82" t="s">
+        <v>110</v>
+      </c>
+      <c r="I82" t="s">
+        <v>19</v>
+      </c>
+      <c r="J82">
+        <v>1</v>
+      </c>
+      <c r="K82">
+        <v>8250000</v>
+      </c>
+      <c r="L82">
+        <v>8250000</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83">
+        <v>80</v>
+      </c>
+      <c r="B83">
+        <v>626402</v>
+      </c>
+      <c r="C83" t="s">
+        <v>13</v>
+      </c>
+      <c r="D83" t="s">
+        <v>105</v>
+      </c>
+      <c r="E83" t="s">
+        <v>111</v>
+      </c>
+      <c r="F83" t="s">
+        <v>112</v>
+      </c>
+      <c r="G83" t="s">
+        <v>113</v>
+      </c>
+      <c r="H83" t="s">
+        <v>114</v>
+      </c>
+      <c r="I83" t="s">
+        <v>19</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+      <c r="K83">
+        <v>37452000</v>
+      </c>
+      <c r="L83">
+        <v>37452000</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84">
+        <v>81</v>
+      </c>
+      <c r="B84">
+        <v>626402</v>
+      </c>
+      <c r="C84" t="s">
+        <v>13</v>
+      </c>
+      <c r="D84" t="s">
+        <v>105</v>
+      </c>
+      <c r="E84" t="s">
+        <v>115</v>
+      </c>
+      <c r="F84" t="s">
+        <v>116</v>
+      </c>
+      <c r="G84" t="s">
+        <v>117</v>
+      </c>
+      <c r="H84" t="s">
+        <v>118</v>
+      </c>
+      <c r="I84" t="s">
+        <v>19</v>
+      </c>
+      <c r="J84">
+        <v>1</v>
+      </c>
+      <c r="K84">
+        <v>20581340</v>
+      </c>
+      <c r="L84">
+        <v>20581340</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85">
+        <v>82</v>
+      </c>
+      <c r="B85">
+        <v>626402</v>
+      </c>
+      <c r="C85" t="s">
+        <v>13</v>
+      </c>
+      <c r="D85" t="s">
+        <v>81</v>
+      </c>
+      <c r="E85" t="s">
         <v>119</v>
       </c>
-      <c r="E56" t="s">
+      <c r="F85" t="s">
         <v>120</v>
       </c>
-      <c r="F56" t="s">
+      <c r="G85" t="s">
         <v>121</v>
       </c>
-      <c r="G56" t="s">
+      <c r="H85" t="s">
+        <v>89</v>
+      </c>
+      <c r="I85" t="s">
+        <v>19</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+      <c r="K85">
+        <v>24726460</v>
+      </c>
+      <c r="L85">
+        <v>24726460</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86">
+        <v>83</v>
+      </c>
+      <c r="B86">
+        <v>626402</v>
+      </c>
+      <c r="C86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>81</v>
+      </c>
+      <c r="E86" t="s">
+        <v>119</v>
+      </c>
+      <c r="F86" t="s">
+        <v>120</v>
+      </c>
+      <c r="G86" t="s">
+        <v>121</v>
+      </c>
+      <c r="H86" t="s">
         <v>122</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I86" t="s">
+        <v>19</v>
+      </c>
+      <c r="J86">
+        <v>1</v>
+      </c>
+      <c r="K86">
+        <v>429372</v>
+      </c>
+      <c r="L86">
+        <v>429372</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87">
+        <v>84</v>
+      </c>
+      <c r="B87">
+        <v>626402</v>
+      </c>
+      <c r="C87" t="s">
+        <v>13</v>
+      </c>
+      <c r="D87" t="s">
+        <v>81</v>
+      </c>
+      <c r="E87" t="s">
+        <v>119</v>
+      </c>
+      <c r="F87" t="s">
+        <v>120</v>
+      </c>
+      <c r="G87" t="s">
+        <v>121</v>
+      </c>
+      <c r="H87" t="s">
+        <v>123</v>
+      </c>
+      <c r="I87" t="s">
+        <v>19</v>
+      </c>
+      <c r="J87">
+        <v>1</v>
+      </c>
+      <c r="K87">
+        <v>266514</v>
+      </c>
+      <c r="L87">
+        <v>266514</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88">
+        <v>85</v>
+      </c>
+      <c r="B88">
+        <v>626402</v>
+      </c>
+      <c r="C88" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" t="s">
+        <v>124</v>
+      </c>
+      <c r="E88" t="s">
+        <v>125</v>
+      </c>
+      <c r="F88" t="s">
+        <v>126</v>
+      </c>
+      <c r="G88" t="s">
+        <v>127</v>
+      </c>
+      <c r="H88" t="s">
+        <v>128</v>
+      </c>
+      <c r="I88" t="s">
+        <v>19</v>
+      </c>
+      <c r="J88">
+        <v>1</v>
+      </c>
+      <c r="K88">
+        <v>39160000</v>
+      </c>
+      <c r="L88">
+        <v>39160000</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89">
+        <v>86</v>
+      </c>
+      <c r="B89">
+        <v>626402</v>
+      </c>
+      <c r="C89" t="s">
+        <v>13</v>
+      </c>
+      <c r="D89" t="s">
+        <v>124</v>
+      </c>
+      <c r="E89" t="s">
+        <v>129</v>
+      </c>
+      <c r="F89" t="s">
+        <v>130</v>
+      </c>
+      <c r="G89" t="s">
+        <v>127</v>
+      </c>
+      <c r="H89" t="s">
+        <v>131</v>
+      </c>
+      <c r="I89" t="s">
+        <v>19</v>
+      </c>
+      <c r="J89">
+        <v>1</v>
+      </c>
+      <c r="K89">
+        <v>33460000</v>
+      </c>
+      <c r="L89">
+        <v>33460000</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90">
+        <v>87</v>
+      </c>
+      <c r="B90">
+        <v>626402</v>
+      </c>
+      <c r="C90" t="s">
+        <v>13</v>
+      </c>
+      <c r="D90" t="s">
+        <v>132</v>
+      </c>
+      <c r="E90" t="s">
+        <v>133</v>
+      </c>
+      <c r="F90" t="s">
+        <v>134</v>
+      </c>
+      <c r="G90" t="s">
+        <v>135</v>
+      </c>
+      <c r="H90" t="s">
+        <v>128</v>
+      </c>
+      <c r="I90" t="s">
+        <v>19</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+      <c r="K90">
+        <v>5618285</v>
+      </c>
+      <c r="L90">
+        <v>5618285</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91">
+        <v>88</v>
+      </c>
+      <c r="B91">
+        <v>626402</v>
+      </c>
+      <c r="C91" t="s">
+        <v>13</v>
+      </c>
+      <c r="D91" t="s">
+        <v>136</v>
+      </c>
+      <c r="E91" t="s">
+        <v>137</v>
+      </c>
+      <c r="F91" t="s">
+        <v>138</v>
+      </c>
+      <c r="G91" t="s">
+        <v>139</v>
+      </c>
+      <c r="H91" t="s">
+        <v>85</v>
+      </c>
+      <c r="I91" t="s">
+        <v>19</v>
+      </c>
+      <c r="J91">
+        <v>1</v>
+      </c>
+      <c r="K91">
+        <v>595000</v>
+      </c>
+      <c r="L91">
+        <v>595000</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92">
+        <v>89</v>
+      </c>
+      <c r="B92">
+        <v>626402</v>
+      </c>
+      <c r="C92" t="s">
+        <v>13</v>
+      </c>
+      <c r="D92" t="s">
+        <v>136</v>
+      </c>
+      <c r="E92" t="s">
+        <v>140</v>
+      </c>
+      <c r="F92" t="s">
+        <v>141</v>
+      </c>
+      <c r="G92" t="s">
+        <v>142</v>
+      </c>
+      <c r="H92" t="s">
+        <v>85</v>
+      </c>
+      <c r="I92" t="s">
+        <v>19</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
+      </c>
+      <c r="K92">
+        <v>385000</v>
+      </c>
+      <c r="L92">
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93">
+        <v>90</v>
+      </c>
+      <c r="B93">
+        <v>626402</v>
+      </c>
+      <c r="C93" t="s">
+        <v>13</v>
+      </c>
+      <c r="D93" t="s">
+        <v>136</v>
+      </c>
+      <c r="E93" t="s">
+        <v>143</v>
+      </c>
+      <c r="F93" t="s">
+        <v>144</v>
+      </c>
+      <c r="G93" t="s">
+        <v>145</v>
+      </c>
+      <c r="H93" t="s">
+        <v>146</v>
+      </c>
+      <c r="I93" t="s">
+        <v>19</v>
+      </c>
+      <c r="J93">
+        <v>1</v>
+      </c>
+      <c r="K93">
+        <v>10888600</v>
+      </c>
+      <c r="L93">
+        <v>10888600</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94">
+        <v>91</v>
+      </c>
+      <c r="B94">
+        <v>626402</v>
+      </c>
+      <c r="C94" t="s">
+        <v>13</v>
+      </c>
+      <c r="D94" t="s">
+        <v>136</v>
+      </c>
+      <c r="E94" t="s">
+        <v>143</v>
+      </c>
+      <c r="F94" t="s">
+        <v>144</v>
+      </c>
+      <c r="G94" t="s">
+        <v>145</v>
+      </c>
+      <c r="H94" t="s">
+        <v>147</v>
+      </c>
+      <c r="I94" t="s">
+        <v>19</v>
+      </c>
+      <c r="J94">
+        <v>1</v>
+      </c>
+      <c r="K94">
+        <v>2737000</v>
+      </c>
+      <c r="L94">
+        <v>2737000</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95">
+        <v>92</v>
+      </c>
+      <c r="B95">
+        <v>626402</v>
+      </c>
+      <c r="C95" t="s">
+        <v>13</v>
+      </c>
+      <c r="D95" t="s">
+        <v>136</v>
+      </c>
+      <c r="E95" t="s">
+        <v>143</v>
+      </c>
+      <c r="F95" t="s">
+        <v>144</v>
+      </c>
+      <c r="G95" t="s">
+        <v>145</v>
+      </c>
+      <c r="H95" t="s">
+        <v>148</v>
+      </c>
+      <c r="I95" t="s">
+        <v>19</v>
+      </c>
+      <c r="J95">
+        <v>1</v>
+      </c>
+      <c r="K95">
+        <v>1436000</v>
+      </c>
+      <c r="L95">
+        <v>1436000</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="A96">
+        <v>93</v>
+      </c>
+      <c r="B96">
+        <v>626402</v>
+      </c>
+      <c r="C96" t="s">
+        <v>13</v>
+      </c>
+      <c r="D96" t="s">
+        <v>136</v>
+      </c>
+      <c r="E96" t="s">
+        <v>143</v>
+      </c>
+      <c r="F96" t="s">
+        <v>144</v>
+      </c>
+      <c r="G96" t="s">
+        <v>145</v>
+      </c>
+      <c r="H96" t="s">
+        <v>128</v>
+      </c>
+      <c r="I96" t="s">
+        <v>19</v>
+      </c>
+      <c r="J96">
+        <v>1</v>
+      </c>
+      <c r="K96">
+        <v>2258800</v>
+      </c>
+      <c r="L96">
+        <v>2258800</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12">
+      <c r="A97">
+        <v>94</v>
+      </c>
+      <c r="B97">
+        <v>626402</v>
+      </c>
+      <c r="C97" t="s">
+        <v>13</v>
+      </c>
+      <c r="D97" t="s">
+        <v>149</v>
+      </c>
+      <c r="E97" t="s">
+        <v>150</v>
+      </c>
+      <c r="F97" t="s">
+        <v>151</v>
+      </c>
+      <c r="G97" t="s">
+        <v>152</v>
+      </c>
+      <c r="H97" t="s">
+        <v>153</v>
+      </c>
+      <c r="I97" t="s">
+        <v>19</v>
+      </c>
+      <c r="J97">
+        <v>1</v>
+      </c>
+      <c r="K97">
+        <v>17281700</v>
+      </c>
+      <c r="L97">
+        <v>17281700</v>
+      </c>
+    </row>
+    <row r="98" spans="1:12">
+      <c r="A98">
+        <v>95</v>
+      </c>
+      <c r="B98">
+        <v>626402</v>
+      </c>
+      <c r="C98" t="s">
+        <v>13</v>
+      </c>
+      <c r="D98" t="s">
+        <v>136</v>
+      </c>
+      <c r="E98" t="s">
+        <v>154</v>
+      </c>
+      <c r="F98" t="s">
+        <v>155</v>
+      </c>
+      <c r="G98" t="s">
+        <v>156</v>
+      </c>
+      <c r="H98" t="s">
+        <v>18</v>
+      </c>
+      <c r="I98" t="s">
+        <v>19</v>
+      </c>
+      <c r="J98">
+        <v>1</v>
+      </c>
+      <c r="K98">
+        <v>121600</v>
+      </c>
+      <c r="L98">
+        <v>121600</v>
+      </c>
+    </row>
+    <row r="99" spans="1:12">
+      <c r="A99">
+        <v>96</v>
+      </c>
+      <c r="B99">
+        <v>626402</v>
+      </c>
+      <c r="C99" t="s">
+        <v>13</v>
+      </c>
+      <c r="D99" t="s">
+        <v>136</v>
+      </c>
+      <c r="E99" t="s">
+        <v>154</v>
+      </c>
+      <c r="F99" t="s">
+        <v>155</v>
+      </c>
+      <c r="G99" t="s">
+        <v>156</v>
+      </c>
+      <c r="H99" t="s">
+        <v>20</v>
+      </c>
+      <c r="I99" t="s">
+        <v>19</v>
+      </c>
+      <c r="J99">
+        <v>1</v>
+      </c>
+      <c r="K99">
+        <v>164</v>
+      </c>
+      <c r="L99">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="100" spans="1:12">
+      <c r="A100">
+        <v>97</v>
+      </c>
+      <c r="B100">
+        <v>626402</v>
+      </c>
+      <c r="C100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D100" t="s">
+        <v>136</v>
+      </c>
+      <c r="E100" t="s">
+        <v>154</v>
+      </c>
+      <c r="F100" t="s">
+        <v>155</v>
+      </c>
+      <c r="G100" t="s">
+        <v>156</v>
+      </c>
+      <c r="H100" t="s">
+        <v>21</v>
+      </c>
+      <c r="I100" t="s">
+        <v>19</v>
+      </c>
+      <c r="J100">
+        <v>1</v>
+      </c>
+      <c r="K100">
+        <v>12160</v>
+      </c>
+      <c r="L100">
+        <v>12160</v>
+      </c>
+    </row>
+    <row r="101" spans="1:12">
+      <c r="A101">
+        <v>98</v>
+      </c>
+      <c r="B101">
+        <v>626402</v>
+      </c>
+      <c r="C101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D101" t="s">
+        <v>136</v>
+      </c>
+      <c r="E101" t="s">
+        <v>154</v>
+      </c>
+      <c r="F101" t="s">
+        <v>155</v>
+      </c>
+      <c r="G101" t="s">
+        <v>156</v>
+      </c>
+      <c r="H101" t="s">
+        <v>22</v>
+      </c>
+      <c r="I101" t="s">
+        <v>19</v>
+      </c>
+      <c r="J101">
+        <v>1</v>
+      </c>
+      <c r="K101">
+        <v>2432</v>
+      </c>
+      <c r="L101">
+        <v>2432</v>
+      </c>
+    </row>
+    <row r="102" spans="1:12">
+      <c r="A102">
+        <v>99</v>
+      </c>
+      <c r="B102">
+        <v>626402</v>
+      </c>
+      <c r="C102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D102" t="s">
+        <v>149</v>
+      </c>
+      <c r="E102" t="s">
+        <v>157</v>
+      </c>
+      <c r="F102" t="s">
+        <v>158</v>
+      </c>
+      <c r="G102" t="s">
+        <v>159</v>
+      </c>
+      <c r="H102" t="s">
+        <v>160</v>
+      </c>
+      <c r="I102" t="s">
+        <v>19</v>
+      </c>
+      <c r="J102">
+        <v>1</v>
+      </c>
+      <c r="K102">
+        <v>4266500</v>
+      </c>
+      <c r="L102">
+        <v>4266500</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12">
+      <c r="A103">
+        <v>100</v>
+      </c>
+      <c r="B103">
+        <v>626402</v>
+      </c>
+      <c r="C103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D103" t="s">
+        <v>63</v>
+      </c>
+      <c r="E103" t="s">
+        <v>161</v>
+      </c>
+      <c r="F103" t="s">
+        <v>162</v>
+      </c>
+      <c r="G103" t="s">
+        <v>163</v>
+      </c>
+      <c r="H103" t="s">
+        <v>164</v>
+      </c>
+      <c r="I103" t="s">
+        <v>19</v>
+      </c>
+      <c r="J103">
+        <v>1</v>
+      </c>
+      <c r="K103">
+        <v>158224000</v>
+      </c>
+      <c r="L103">
+        <v>158224000</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12">
+      <c r="A104">
+        <v>101</v>
+      </c>
+      <c r="B104">
+        <v>626402</v>
+      </c>
+      <c r="C104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D104" t="s">
+        <v>63</v>
+      </c>
+      <c r="E104" t="s">
+        <v>165</v>
+      </c>
+      <c r="F104" t="s">
+        <v>166</v>
+      </c>
+      <c r="G104" t="s">
+        <v>167</v>
+      </c>
+      <c r="H104" t="s">
+        <v>164</v>
+      </c>
+      <c r="I104" t="s">
+        <v>19</v>
+      </c>
+      <c r="J104">
+        <v>1</v>
+      </c>
+      <c r="K104">
+        <v>10208000</v>
+      </c>
+      <c r="L104">
+        <v>10208000</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12">
+      <c r="A105">
+        <v>102</v>
+      </c>
+      <c r="B105">
+        <v>626402</v>
+      </c>
+      <c r="C105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D105" t="s">
+        <v>63</v>
+      </c>
+      <c r="E105" t="s">
+        <v>168</v>
+      </c>
+      <c r="F105" t="s">
+        <v>169</v>
+      </c>
+      <c r="G105" t="s">
+        <v>170</v>
+      </c>
+      <c r="H105" t="s">
+        <v>164</v>
+      </c>
+      <c r="I105" t="s">
+        <v>19</v>
+      </c>
+      <c r="J105">
+        <v>1</v>
+      </c>
+      <c r="K105">
+        <v>56144000</v>
+      </c>
+      <c r="L105">
+        <v>56144000</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12">
+      <c r="A106">
+        <v>103</v>
+      </c>
+      <c r="B106">
+        <v>626402</v>
+      </c>
+      <c r="C106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D106" t="s">
+        <v>63</v>
+      </c>
+      <c r="E106" t="s">
+        <v>171</v>
+      </c>
+      <c r="F106" t="s">
+        <v>172</v>
+      </c>
+      <c r="G106" t="s">
+        <v>173</v>
+      </c>
+      <c r="H106" t="s">
+        <v>164</v>
+      </c>
+      <c r="I106" t="s">
+        <v>19</v>
+      </c>
+      <c r="J106">
+        <v>1</v>
+      </c>
+      <c r="K106">
+        <v>15312000</v>
+      </c>
+      <c r="L106">
+        <v>15312000</v>
+      </c>
+    </row>
+    <row r="107" spans="1:12">
+      <c r="A107">
+        <v>104</v>
+      </c>
+      <c r="B107">
+        <v>626402</v>
+      </c>
+      <c r="C107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D107" t="s">
+        <v>174</v>
+      </c>
+      <c r="E107" t="s">
+        <v>175</v>
+      </c>
+      <c r="F107" t="s">
+        <v>176</v>
+      </c>
+      <c r="G107" t="s">
+        <v>177</v>
+      </c>
+      <c r="H107" t="s">
+        <v>178</v>
+      </c>
+      <c r="I107" t="s">
+        <v>19</v>
+      </c>
+      <c r="J107">
+        <v>1</v>
+      </c>
+      <c r="K107">
+        <v>2412514</v>
+      </c>
+      <c r="L107">
+        <v>2412514</v>
+      </c>
+    </row>
+    <row r="108" spans="1:12">
+      <c r="A108">
+        <v>105</v>
+      </c>
+      <c r="B108">
+        <v>626402</v>
+      </c>
+      <c r="C108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D108" t="s">
+        <v>63</v>
+      </c>
+      <c r="E108" t="s">
+        <v>179</v>
+      </c>
+      <c r="F108" t="s">
+        <v>180</v>
+      </c>
+      <c r="G108" t="s">
+        <v>181</v>
+      </c>
+      <c r="H108" t="s">
+        <v>182</v>
+      </c>
+      <c r="I108" t="s">
+        <v>19</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>19247944</v>
+      </c>
+      <c r="L108">
+        <v>19247944</v>
+      </c>
+    </row>
+    <row r="109" spans="1:12">
+      <c r="A109">
+        <v>106</v>
+      </c>
+      <c r="B109">
+        <v>626402</v>
+      </c>
+      <c r="C109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>63</v>
+      </c>
+      <c r="E109" t="s">
+        <v>183</v>
+      </c>
+      <c r="F109" t="s">
+        <v>184</v>
+      </c>
+      <c r="G109" t="s">
+        <v>185</v>
+      </c>
+      <c r="H109" t="s">
+        <v>186</v>
+      </c>
+      <c r="I109" t="s">
+        <v>19</v>
+      </c>
+      <c r="J109">
+        <v>1</v>
+      </c>
+      <c r="K109">
+        <v>484491206</v>
+      </c>
+      <c r="L109">
+        <v>484491206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:12">
+      <c r="A110">
+        <v>107</v>
+      </c>
+      <c r="B110">
+        <v>626402</v>
+      </c>
+      <c r="C110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D110" t="s">
+        <v>187</v>
+      </c>
+      <c r="E110" t="s">
+        <v>188</v>
+      </c>
+      <c r="F110" t="s">
+        <v>189</v>
+      </c>
+      <c r="G110" t="s">
+        <v>190</v>
+      </c>
+      <c r="H110" t="s">
+        <v>191</v>
+      </c>
+      <c r="I110" t="s">
+        <v>19</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>3808600</v>
+      </c>
+      <c r="L110">
+        <v>3808600</v>
+      </c>
+    </row>
+    <row r="111" spans="1:12">
+      <c r="A111">
+        <v>108</v>
+      </c>
+      <c r="B111">
+        <v>626402</v>
+      </c>
+      <c r="C111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D111" t="s">
+        <v>187</v>
+      </c>
+      <c r="E111" t="s">
+        <v>192</v>
+      </c>
+      <c r="F111" t="s">
+        <v>193</v>
+      </c>
+      <c r="G111" t="s">
+        <v>194</v>
+      </c>
+      <c r="H111" t="s">
+        <v>191</v>
+      </c>
+      <c r="I111" t="s">
+        <v>19</v>
+      </c>
+      <c r="J111">
+        <v>1</v>
+      </c>
+      <c r="K111">
+        <v>4090700</v>
+      </c>
+      <c r="L111">
+        <v>4090700</v>
+      </c>
+    </row>
+    <row r="112" spans="1:12">
+      <c r="A112">
+        <v>109</v>
+      </c>
+      <c r="B112">
+        <v>626402</v>
+      </c>
+      <c r="C112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D112" t="s">
+        <v>187</v>
+      </c>
+      <c r="E112" t="s">
+        <v>195</v>
+      </c>
+      <c r="F112" t="s">
+        <v>196</v>
+      </c>
+      <c r="G112" t="s">
+        <v>197</v>
+      </c>
+      <c r="H112" t="s">
+        <v>198</v>
+      </c>
+      <c r="I112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>46320300</v>
+      </c>
+      <c r="L112">
+        <v>46320300</v>
+      </c>
+    </row>
+    <row r="113" spans="1:12">
+      <c r="A113">
+        <v>110</v>
+      </c>
+      <c r="B113">
+        <v>626402</v>
+      </c>
+      <c r="C113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D113" t="s">
+        <v>187</v>
+      </c>
+      <c r="E113" t="s">
+        <v>199</v>
+      </c>
+      <c r="F113" t="s">
+        <v>200</v>
+      </c>
+      <c r="G113" t="s">
+        <v>201</v>
+      </c>
+      <c r="H113" t="s">
+        <v>198</v>
+      </c>
+      <c r="I113" t="s">
+        <v>19</v>
+      </c>
+      <c r="J113">
+        <v>1</v>
+      </c>
+      <c r="K113">
+        <v>18326100</v>
+      </c>
+      <c r="L113">
+        <v>18326100</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12">
+      <c r="A114">
+        <v>111</v>
+      </c>
+      <c r="B114">
+        <v>626402</v>
+      </c>
+      <c r="C114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D114" t="s">
+        <v>63</v>
+      </c>
+      <c r="E114" t="s">
+        <v>202</v>
+      </c>
+      <c r="F114" t="s">
+        <v>203</v>
+      </c>
+      <c r="G114" t="s">
+        <v>204</v>
+      </c>
+      <c r="H114" t="s">
+        <v>205</v>
+      </c>
+      <c r="I114" t="s">
+        <v>19</v>
+      </c>
+      <c r="J114">
+        <v>1</v>
+      </c>
+      <c r="K114">
+        <v>2740500</v>
+      </c>
+      <c r="L114">
+        <v>2740500</v>
+      </c>
+    </row>
+    <row r="115" spans="1:12">
+      <c r="A115">
+        <v>112</v>
+      </c>
+      <c r="B115">
+        <v>626402</v>
+      </c>
+      <c r="C115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D115" t="s">
+        <v>63</v>
+      </c>
+      <c r="E115" t="s">
+        <v>202</v>
+      </c>
+      <c r="F115" t="s">
+        <v>203</v>
+      </c>
+      <c r="G115" t="s">
+        <v>204</v>
+      </c>
+      <c r="H115" t="s">
+        <v>206</v>
+      </c>
+      <c r="I115" t="s">
+        <v>19</v>
+      </c>
+      <c r="J115">
+        <v>1</v>
+      </c>
+      <c r="K115">
+        <v>1500000</v>
+      </c>
+      <c r="L115">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="116" spans="1:12">
+      <c r="A116">
+        <v>113</v>
+      </c>
+      <c r="B116">
+        <v>626402</v>
+      </c>
+      <c r="C116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D116" t="s">
+        <v>63</v>
+      </c>
+      <c r="E116" t="s">
+        <v>202</v>
+      </c>
+      <c r="F116" t="s">
+        <v>203</v>
+      </c>
+      <c r="G116" t="s">
+        <v>204</v>
+      </c>
+      <c r="H116" t="s">
+        <v>207</v>
+      </c>
+      <c r="I116" t="s">
+        <v>19</v>
+      </c>
+      <c r="J116">
+        <v>1</v>
+      </c>
+      <c r="K116">
+        <v>1615470</v>
+      </c>
+      <c r="L116">
+        <v>1615470</v>
+      </c>
+    </row>
+    <row r="117" spans="1:12">
+      <c r="A117">
+        <v>114</v>
+      </c>
+      <c r="B117">
+        <v>626402</v>
+      </c>
+      <c r="C117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D117" t="s">
+        <v>63</v>
+      </c>
+      <c r="E117" t="s">
+        <v>202</v>
+      </c>
+      <c r="F117" t="s">
+        <v>203</v>
+      </c>
+      <c r="G117" t="s">
+        <v>204</v>
+      </c>
+      <c r="H117" t="s">
+        <v>208</v>
+      </c>
+      <c r="I117" t="s">
+        <v>19</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>16523260</v>
+      </c>
+      <c r="L117">
+        <v>16523260</v>
+      </c>
+    </row>
+    <row r="118" spans="1:12">
+      <c r="A118">
         <v>115</v>
       </c>
-      <c r="I56" t="s">
-        <v>19</v>
-      </c>
-      <c r="J56">
-        <v>1</v>
-      </c>
-      <c r="K56">
-        <v>5618285</v>
-      </c>
-      <c r="L56">
-        <v>5618285</v>
+      <c r="B118">
+        <v>626402</v>
+      </c>
+      <c r="C118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D118" t="s">
+        <v>63</v>
+      </c>
+      <c r="E118" t="s">
+        <v>202</v>
+      </c>
+      <c r="F118" t="s">
+        <v>203</v>
+      </c>
+      <c r="G118" t="s">
+        <v>204</v>
+      </c>
+      <c r="H118" t="s">
+        <v>209</v>
+      </c>
+      <c r="I118" t="s">
+        <v>19</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>818500</v>
+      </c>
+      <c r="L118">
+        <v>818500</v>
+      </c>
+    </row>
+    <row r="119" spans="1:12">
+      <c r="A119">
+        <v>116</v>
+      </c>
+      <c r="B119">
+        <v>626402</v>
+      </c>
+      <c r="C119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D119" t="s">
+        <v>63</v>
+      </c>
+      <c r="E119" t="s">
+        <v>202</v>
+      </c>
+      <c r="F119" t="s">
+        <v>203</v>
+      </c>
+      <c r="G119" t="s">
+        <v>204</v>
+      </c>
+      <c r="H119" t="s">
+        <v>191</v>
+      </c>
+      <c r="I119" t="s">
+        <v>19</v>
+      </c>
+      <c r="J119">
+        <v>1</v>
+      </c>
+      <c r="K119">
+        <v>7000500</v>
+      </c>
+      <c r="L119">
+        <v>7000500</v>
+      </c>
+    </row>
+    <row r="120" spans="1:12">
+      <c r="A120">
+        <v>117</v>
+      </c>
+      <c r="B120">
+        <v>626402</v>
+      </c>
+      <c r="C120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D120" t="s">
+        <v>63</v>
+      </c>
+      <c r="E120" t="s">
+        <v>202</v>
+      </c>
+      <c r="F120" t="s">
+        <v>203</v>
+      </c>
+      <c r="G120" t="s">
+        <v>204</v>
+      </c>
+      <c r="H120" t="s">
+        <v>210</v>
+      </c>
+      <c r="I120" t="s">
+        <v>19</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>6756655</v>
+      </c>
+      <c r="L120">
+        <v>6756655</v>
+      </c>
+    </row>
+    <row r="121" spans="1:12">
+      <c r="A121">
+        <v>118</v>
+      </c>
+      <c r="B121">
+        <v>626402</v>
+      </c>
+      <c r="C121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D121" t="s">
+        <v>63</v>
+      </c>
+      <c r="E121" t="s">
+        <v>202</v>
+      </c>
+      <c r="F121" t="s">
+        <v>203</v>
+      </c>
+      <c r="G121" t="s">
+        <v>204</v>
+      </c>
+      <c r="H121" t="s">
+        <v>211</v>
+      </c>
+      <c r="I121" t="s">
+        <v>19</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>5285500</v>
+      </c>
+      <c r="L121">
+        <v>5285500</v>
+      </c>
+    </row>
+    <row r="122" spans="1:12">
+      <c r="A122">
+        <v>119</v>
+      </c>
+      <c r="B122">
+        <v>626402</v>
+      </c>
+      <c r="C122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D122" t="s">
+        <v>63</v>
+      </c>
+      <c r="E122" t="s">
+        <v>202</v>
+      </c>
+      <c r="F122" t="s">
+        <v>203</v>
+      </c>
+      <c r="G122" t="s">
+        <v>204</v>
+      </c>
+      <c r="H122" t="s">
+        <v>212</v>
+      </c>
+      <c r="I122" t="s">
+        <v>19</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>14478054</v>
+      </c>
+      <c r="L122">
+        <v>14478054</v>
+      </c>
+    </row>
+    <row r="123" spans="1:12">
+      <c r="A123">
+        <v>120</v>
+      </c>
+      <c r="B123">
+        <v>626402</v>
+      </c>
+      <c r="C123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D123" t="s">
+        <v>63</v>
+      </c>
+      <c r="E123" t="s">
+        <v>202</v>
+      </c>
+      <c r="F123" t="s">
+        <v>203</v>
+      </c>
+      <c r="G123" t="s">
+        <v>204</v>
+      </c>
+      <c r="H123" t="s">
+        <v>213</v>
+      </c>
+      <c r="I123" t="s">
+        <v>19</v>
+      </c>
+      <c r="J123">
+        <v>1</v>
+      </c>
+      <c r="K123">
+        <v>43014384</v>
+      </c>
+      <c r="L123">
+        <v>43014384</v>
+      </c>
+    </row>
+    <row r="124" spans="1:12">
+      <c r="A124">
+        <v>121</v>
+      </c>
+      <c r="B124">
+        <v>626402</v>
+      </c>
+      <c r="C124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D124" t="s">
+        <v>187</v>
+      </c>
+      <c r="E124" t="s">
+        <v>214</v>
+      </c>
+      <c r="F124" t="s">
+        <v>215</v>
+      </c>
+      <c r="G124" t="s">
+        <v>216</v>
+      </c>
+      <c r="H124" t="s">
+        <v>217</v>
+      </c>
+      <c r="I124" t="s">
+        <v>19</v>
+      </c>
+      <c r="J124">
+        <v>1</v>
+      </c>
+      <c r="K124">
+        <v>10892300</v>
+      </c>
+      <c r="L124">
+        <v>10892300</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12">
+      <c r="A125">
+        <v>122</v>
+      </c>
+      <c r="B125">
+        <v>626402</v>
+      </c>
+      <c r="C125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D125" t="s">
+        <v>187</v>
+      </c>
+      <c r="E125" t="s">
+        <v>218</v>
+      </c>
+      <c r="F125" t="s">
+        <v>219</v>
+      </c>
+      <c r="G125" t="s">
+        <v>220</v>
+      </c>
+      <c r="H125" t="s">
+        <v>221</v>
+      </c>
+      <c r="I125" t="s">
+        <v>19</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>1800000</v>
+      </c>
+      <c r="L125">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:12">
+      <c r="A126">
+        <v>123</v>
+      </c>
+      <c r="B126">
+        <v>626402</v>
+      </c>
+      <c r="C126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D126" t="s">
+        <v>187</v>
+      </c>
+      <c r="E126" t="s">
+        <v>218</v>
+      </c>
+      <c r="F126" t="s">
+        <v>219</v>
+      </c>
+      <c r="G126" t="s">
+        <v>220</v>
+      </c>
+      <c r="H126" t="s">
+        <v>222</v>
+      </c>
+      <c r="I126" t="s">
+        <v>19</v>
+      </c>
+      <c r="J126">
+        <v>1</v>
+      </c>
+      <c r="K126">
+        <v>4800000</v>
+      </c>
+      <c r="L126">
+        <v>4800000</v>
+      </c>
+    </row>
+    <row r="127" spans="1:12">
+      <c r="A127">
+        <v>124</v>
+      </c>
+      <c r="B127">
+        <v>626402</v>
+      </c>
+      <c r="C127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>187</v>
+      </c>
+      <c r="E127" t="s">
+        <v>218</v>
+      </c>
+      <c r="F127" t="s">
+        <v>219</v>
+      </c>
+      <c r="G127" t="s">
+        <v>220</v>
+      </c>
+      <c r="H127" t="s">
+        <v>223</v>
+      </c>
+      <c r="I127" t="s">
+        <v>19</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>4070000</v>
+      </c>
+      <c r="L127">
+        <v>4070000</v>
+      </c>
+    </row>
+    <row r="128" spans="1:12">
+      <c r="A128">
+        <v>125</v>
+      </c>
+      <c r="B128">
+        <v>626402</v>
+      </c>
+      <c r="C128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D128" t="s">
+        <v>187</v>
+      </c>
+      <c r="E128" t="s">
+        <v>218</v>
+      </c>
+      <c r="F128" t="s">
+        <v>219</v>
+      </c>
+      <c r="G128" t="s">
+        <v>220</v>
+      </c>
+      <c r="H128" t="s">
+        <v>224</v>
+      </c>
+      <c r="I128" t="s">
+        <v>19</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>450000</v>
+      </c>
+      <c r="L128">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="129" spans="1:12">
+      <c r="A129">
+        <v>126</v>
+      </c>
+      <c r="B129">
+        <v>626402</v>
+      </c>
+      <c r="C129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D129" t="s">
+        <v>187</v>
+      </c>
+      <c r="E129" t="s">
+        <v>225</v>
+      </c>
+      <c r="F129" t="s">
+        <v>226</v>
+      </c>
+      <c r="G129" t="s">
+        <v>220</v>
+      </c>
+      <c r="H129" t="s">
+        <v>227</v>
+      </c>
+      <c r="I129" t="s">
+        <v>19</v>
+      </c>
+      <c r="J129">
+        <v>1</v>
+      </c>
+      <c r="K129">
+        <v>1200000</v>
+      </c>
+      <c r="L129">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="130" spans="1:12">
+      <c r="A130">
+        <v>127</v>
+      </c>
+      <c r="B130">
+        <v>626402</v>
+      </c>
+      <c r="C130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D130" t="s">
+        <v>187</v>
+      </c>
+      <c r="E130" t="s">
+        <v>225</v>
+      </c>
+      <c r="F130" t="s">
+        <v>226</v>
+      </c>
+      <c r="G130" t="s">
+        <v>220</v>
+      </c>
+      <c r="H130" t="s">
+        <v>228</v>
+      </c>
+      <c r="I130" t="s">
+        <v>19</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>3600000</v>
+      </c>
+      <c r="L130">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="131" spans="1:12">
+      <c r="A131">
+        <v>128</v>
+      </c>
+      <c r="B131">
+        <v>626402</v>
+      </c>
+      <c r="C131" t="s">
+        <v>13</v>
+      </c>
+      <c r="D131" t="s">
+        <v>187</v>
+      </c>
+      <c r="E131" t="s">
+        <v>225</v>
+      </c>
+      <c r="F131" t="s">
+        <v>226</v>
+      </c>
+      <c r="G131" t="s">
+        <v>220</v>
+      </c>
+      <c r="H131" t="s">
+        <v>229</v>
+      </c>
+      <c r="I131" t="s">
+        <v>19</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>2960000</v>
+      </c>
+      <c r="L131">
+        <v>2960000</v>
+      </c>
+    </row>
+    <row r="132" spans="1:12">
+      <c r="A132">
+        <v>129</v>
+      </c>
+      <c r="B132">
+        <v>626402</v>
+      </c>
+      <c r="C132" t="s">
+        <v>13</v>
+      </c>
+      <c r="D132" t="s">
+        <v>187</v>
+      </c>
+      <c r="E132" t="s">
+        <v>225</v>
+      </c>
+      <c r="F132" t="s">
+        <v>226</v>
+      </c>
+      <c r="G132" t="s">
+        <v>220</v>
+      </c>
+      <c r="H132" t="s">
+        <v>230</v>
+      </c>
+      <c r="I132" t="s">
+        <v>19</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>300000</v>
+      </c>
+      <c r="L132">
+        <v>300000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -671,6 +671,27 @@
     <t>'626402.175.524119.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0C.000977</t>
   </si>
   <si>
+    <t>'00051T</t>
+  </si>
+  <si>
+    <t>'241751303000909</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran kekurangan gaji pegawai Pusdik bulan Januari 2024 an. Gelora wijayanto untuk 1 pegawai)</t>
+  </si>
+  <si>
+    <t>'00052T</t>
+  </si>
+  <si>
+    <t>'241751303000908</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Honor Susulan PPNPN Pusdik KP bulan Januari 2024 sebanyak 7 pegawai an. M. Arif Mustaqim dkk sesuai SK Nomor :KEP.13/KPA/BPPSDM/I/2024 tgl 02 Januari 2024.</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GA.000563</t>
+  </si>
+  <si>
     <t>'00053T</t>
   </si>
   <si>
@@ -708,6 +729,177 @@
   </si>
   <si>
     <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0B.001434</t>
+  </si>
+  <si>
+    <t>'00055T</t>
+  </si>
+  <si>
+    <t>'241751303000907</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Honor Susulan PPNPN Pusdik KP bulan Januari 2024 sebanyak 3 pegawai an. Joko Pitoyo,dkk sesuai SK Nomor KEP.13/KPA/BPPSDM/I/2024 tgl 02 Januari 2024.</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GA.000564</t>
+  </si>
+  <si>
+    <t>'00056T</t>
+  </si>
+  <si>
+    <t>'241751303000910</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji susulan pegawai PPPK Sekretariat BRSDM bulan Januari-Februari 2024 untuk 2 pegawai/5 Jiwa)</t>
+  </si>
+  <si>
+    <t>'626402.175.511611.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.AA.001359</t>
+  </si>
+  <si>
+    <t>'626402.175.511619.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.AA.001360</t>
+  </si>
+  <si>
+    <t>'626402.175.511621.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.AA.001361</t>
+  </si>
+  <si>
+    <t>'626402.175.511622.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.AA.001362</t>
+  </si>
+  <si>
+    <t>'626402.175.511624.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.AA.001363</t>
+  </si>
+  <si>
+    <t>'626402.175.511625.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.AA.001364</t>
+  </si>
+  <si>
+    <t>'00057T</t>
+  </si>
+  <si>
+    <t>'241751303000912</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan untuk keperluan belanja barang (BPP001 Set.BRSDM)</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AA.000423</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AA.000426</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AA.000427</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000465</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000466</t>
+  </si>
+  <si>
+    <t>'626402.175.521114.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AB.000441</t>
+  </si>
+  <si>
+    <t>'626402.175.521119.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AA.000430</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AA.001057</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AA.001060</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AA.001061</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.106.0A.000361</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.106.0B.000368</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000496</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AB.001076</t>
+  </si>
+  <si>
+    <t>'626402.175.522191.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.101.0A.000343</t>
+  </si>
+  <si>
+    <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AC.000446</t>
+  </si>
+  <si>
+    <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AC.000449</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.AC.000266</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.101.0A.000344</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AB.001081</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.974.101.0A.001033</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.101.0A.000346</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.101.0A.000347</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.106.0A.000364</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.106.0A.000365</t>
+  </si>
+  <si>
+    <t>2024-02-05</t>
+  </si>
+  <si>
+    <t>'00058T</t>
+  </si>
+  <si>
+    <t>'241751303000971</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.330/BPPSDM.1/KP.440/I/2024 Tanggal 15 Januari 2024 a.n Untung Januar, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AC.001091</t>
+  </si>
+  <si>
+    <t>'00059T</t>
+  </si>
+  <si>
+    <t>'241751303000972</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.37,B.45,B.107,B.374,B.700/BPPSDM.1/KP.440/I/2024 Tanggal 9,16,17 Januari 2024 a.n I Nyoman Radiarta, dkk</t>
+  </si>
+  <si>
+    <t>'00060T</t>
+  </si>
+  <si>
+    <t>'241751303000973</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.89/BPPSDM.1/KP.440/I/2024 Tanggal 3 Januari 2024 a.n Tri Yuwono, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.101.0B.001515</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.101.0B.001516</t>
+  </si>
+  <si>
+    <t>'00061T</t>
+  </si>
+  <si>
+    <t>'241751303000970</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.829/BPPSDM.1/KP.440/I/2024 Tanggal 26 Januari 2024 a.n Rizky Hendriansyah, dkk</t>
   </si>
 </sst>
 </file>
@@ -1049,7 +1241,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L132"/>
+  <dimension ref="A1:L179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -5712,7 +5904,7 @@
         <v>13</v>
       </c>
       <c r="D125" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="E125" t="s">
         <v>218</v>
@@ -5724,7 +5916,7 @@
         <v>220</v>
       </c>
       <c r="H125" t="s">
-        <v>221</v>
+        <v>46</v>
       </c>
       <c r="I125" t="s">
         <v>19</v>
@@ -5733,10 +5925,10 @@
         <v>1</v>
       </c>
       <c r="K125">
-        <v>1800000</v>
+        <v>205000</v>
       </c>
       <c r="L125">
-        <v>1800000</v>
+        <v>205000</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -5750,7 +5942,7 @@
         <v>13</v>
       </c>
       <c r="D126" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="E126" t="s">
         <v>218</v>
@@ -5762,7 +5954,7 @@
         <v>220</v>
       </c>
       <c r="H126" t="s">
-        <v>222</v>
+        <v>52</v>
       </c>
       <c r="I126" t="s">
         <v>19</v>
@@ -5771,10 +5963,10 @@
         <v>1</v>
       </c>
       <c r="K126">
-        <v>4800000</v>
+        <v>9750</v>
       </c>
       <c r="L126">
-        <v>4800000</v>
+        <v>9750</v>
       </c>
     </row>
     <row r="127" spans="1:12">
@@ -5788,19 +5980,19 @@
         <v>13</v>
       </c>
       <c r="D127" t="s">
-        <v>187</v>
+        <v>63</v>
       </c>
       <c r="E127" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="F127" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="G127" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H127" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="I127" t="s">
         <v>19</v>
@@ -5809,10 +6001,10 @@
         <v>1</v>
       </c>
       <c r="K127">
-        <v>4070000</v>
+        <v>35728000</v>
       </c>
       <c r="L127">
-        <v>4070000</v>
+        <v>35728000</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -5829,16 +6021,16 @@
         <v>187</v>
       </c>
       <c r="E128" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="F128" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="G128" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H128" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="I128" t="s">
         <v>19</v>
@@ -5847,10 +6039,10 @@
         <v>1</v>
       </c>
       <c r="K128">
-        <v>450000</v>
+        <v>1800000</v>
       </c>
       <c r="L128">
-        <v>450000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="129" spans="1:12">
@@ -5873,10 +6065,10 @@
         <v>226</v>
       </c>
       <c r="G129" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H129" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="I129" t="s">
         <v>19</v>
@@ -5885,10 +6077,10 @@
         <v>1</v>
       </c>
       <c r="K129">
-        <v>1200000</v>
+        <v>4800000</v>
       </c>
       <c r="L129">
-        <v>1200000</v>
+        <v>4800000</v>
       </c>
     </row>
     <row r="130" spans="1:12">
@@ -5911,10 +6103,10 @@
         <v>226</v>
       </c>
       <c r="G130" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H130" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="I130" t="s">
         <v>19</v>
@@ -5923,10 +6115,10 @@
         <v>1</v>
       </c>
       <c r="K130">
-        <v>3600000</v>
+        <v>4070000</v>
       </c>
       <c r="L130">
-        <v>3600000</v>
+        <v>4070000</v>
       </c>
     </row>
     <row r="131" spans="1:12">
@@ -5949,10 +6141,10 @@
         <v>226</v>
       </c>
       <c r="G131" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H131" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I131" t="s">
         <v>19</v>
@@ -5961,10 +6153,10 @@
         <v>1</v>
       </c>
       <c r="K131">
-        <v>2960000</v>
+        <v>450000</v>
       </c>
       <c r="L131">
-        <v>2960000</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="132" spans="1:12">
@@ -5981,16 +6173,16 @@
         <v>187</v>
       </c>
       <c r="E132" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F132" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="G132" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="H132" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="I132" t="s">
         <v>19</v>
@@ -5999,10 +6191,1796 @@
         <v>1</v>
       </c>
       <c r="K132">
+        <v>1200000</v>
+      </c>
+      <c r="L132">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="133" spans="1:12">
+      <c r="A133">
+        <v>130</v>
+      </c>
+      <c r="B133">
+        <v>626402</v>
+      </c>
+      <c r="C133" t="s">
+        <v>13</v>
+      </c>
+      <c r="D133" t="s">
+        <v>187</v>
+      </c>
+      <c r="E133" t="s">
+        <v>232</v>
+      </c>
+      <c r="F133" t="s">
+        <v>233</v>
+      </c>
+      <c r="G133" t="s">
+        <v>227</v>
+      </c>
+      <c r="H133" t="s">
+        <v>235</v>
+      </c>
+      <c r="I133" t="s">
+        <v>19</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>3600000</v>
+      </c>
+      <c r="L133">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="134" spans="1:12">
+      <c r="A134">
+        <v>131</v>
+      </c>
+      <c r="B134">
+        <v>626402</v>
+      </c>
+      <c r="C134" t="s">
+        <v>13</v>
+      </c>
+      <c r="D134" t="s">
+        <v>187</v>
+      </c>
+      <c r="E134" t="s">
+        <v>232</v>
+      </c>
+      <c r="F134" t="s">
+        <v>233</v>
+      </c>
+      <c r="G134" t="s">
+        <v>227</v>
+      </c>
+      <c r="H134" t="s">
+        <v>236</v>
+      </c>
+      <c r="I134" t="s">
+        <v>19</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>2960000</v>
+      </c>
+      <c r="L134">
+        <v>2960000</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12">
+      <c r="A135">
+        <v>132</v>
+      </c>
+      <c r="B135">
+        <v>626402</v>
+      </c>
+      <c r="C135" t="s">
+        <v>13</v>
+      </c>
+      <c r="D135" t="s">
+        <v>187</v>
+      </c>
+      <c r="E135" t="s">
+        <v>232</v>
+      </c>
+      <c r="F135" t="s">
+        <v>233</v>
+      </c>
+      <c r="G135" t="s">
+        <v>227</v>
+      </c>
+      <c r="H135" t="s">
+        <v>237</v>
+      </c>
+      <c r="I135" t="s">
+        <v>19</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
         <v>300000</v>
       </c>
-      <c r="L132">
+      <c r="L135">
         <v>300000</v>
+      </c>
+    </row>
+    <row r="136" spans="1:12">
+      <c r="A136">
+        <v>133</v>
+      </c>
+      <c r="B136">
+        <v>626402</v>
+      </c>
+      <c r="C136" t="s">
+        <v>13</v>
+      </c>
+      <c r="D136" t="s">
+        <v>63</v>
+      </c>
+      <c r="E136" t="s">
+        <v>238</v>
+      </c>
+      <c r="F136" t="s">
+        <v>239</v>
+      </c>
+      <c r="G136" t="s">
+        <v>240</v>
+      </c>
+      <c r="H136" t="s">
+        <v>224</v>
+      </c>
+      <c r="I136" t="s">
+        <v>19</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>10208000</v>
+      </c>
+      <c r="L136">
+        <v>10208000</v>
+      </c>
+    </row>
+    <row r="137" spans="1:12">
+      <c r="A137">
+        <v>134</v>
+      </c>
+      <c r="B137">
+        <v>626402</v>
+      </c>
+      <c r="C137" t="s">
+        <v>13</v>
+      </c>
+      <c r="D137" t="s">
+        <v>63</v>
+      </c>
+      <c r="E137" t="s">
+        <v>238</v>
+      </c>
+      <c r="F137" t="s">
+        <v>239</v>
+      </c>
+      <c r="G137" t="s">
+        <v>240</v>
+      </c>
+      <c r="H137" t="s">
+        <v>241</v>
+      </c>
+      <c r="I137" t="s">
+        <v>19</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>5615000</v>
+      </c>
+      <c r="L137">
+        <v>5615000</v>
+      </c>
+    </row>
+    <row r="138" spans="1:12">
+      <c r="A138">
+        <v>135</v>
+      </c>
+      <c r="B138">
+        <v>626402</v>
+      </c>
+      <c r="C138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>63</v>
+      </c>
+      <c r="E138" t="s">
+        <v>242</v>
+      </c>
+      <c r="F138" t="s">
+        <v>243</v>
+      </c>
+      <c r="G138" t="s">
+        <v>244</v>
+      </c>
+      <c r="H138" t="s">
+        <v>245</v>
+      </c>
+      <c r="I138" t="s">
+        <v>19</v>
+      </c>
+      <c r="J138">
+        <v>1</v>
+      </c>
+      <c r="K138">
+        <v>11866000</v>
+      </c>
+      <c r="L138">
+        <v>11866000</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12">
+      <c r="A139">
+        <v>136</v>
+      </c>
+      <c r="B139">
+        <v>626402</v>
+      </c>
+      <c r="C139" t="s">
+        <v>13</v>
+      </c>
+      <c r="D139" t="s">
+        <v>63</v>
+      </c>
+      <c r="E139" t="s">
+        <v>242</v>
+      </c>
+      <c r="F139" t="s">
+        <v>243</v>
+      </c>
+      <c r="G139" t="s">
+        <v>244</v>
+      </c>
+      <c r="H139" t="s">
+        <v>246</v>
+      </c>
+      <c r="I139" t="s">
+        <v>19</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>150</v>
+      </c>
+      <c r="L139">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="140" spans="1:12">
+      <c r="A140">
+        <v>137</v>
+      </c>
+      <c r="B140">
+        <v>626402</v>
+      </c>
+      <c r="C140" t="s">
+        <v>13</v>
+      </c>
+      <c r="D140" t="s">
+        <v>63</v>
+      </c>
+      <c r="E140" t="s">
+        <v>242</v>
+      </c>
+      <c r="F140" t="s">
+        <v>243</v>
+      </c>
+      <c r="G140" t="s">
+        <v>244</v>
+      </c>
+      <c r="H140" t="s">
+        <v>247</v>
+      </c>
+      <c r="I140" t="s">
+        <v>19</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>593300</v>
+      </c>
+      <c r="L140">
+        <v>593300</v>
+      </c>
+    </row>
+    <row r="141" spans="1:12">
+      <c r="A141">
+        <v>138</v>
+      </c>
+      <c r="B141">
+        <v>626402</v>
+      </c>
+      <c r="C141" t="s">
+        <v>13</v>
+      </c>
+      <c r="D141" t="s">
+        <v>63</v>
+      </c>
+      <c r="E141" t="s">
+        <v>242</v>
+      </c>
+      <c r="F141" t="s">
+        <v>243</v>
+      </c>
+      <c r="G141" t="s">
+        <v>244</v>
+      </c>
+      <c r="H141" t="s">
+        <v>248</v>
+      </c>
+      <c r="I141" t="s">
+        <v>19</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>237320</v>
+      </c>
+      <c r="L141">
+        <v>237320</v>
+      </c>
+    </row>
+    <row r="142" spans="1:12">
+      <c r="A142">
+        <v>139</v>
+      </c>
+      <c r="B142">
+        <v>626402</v>
+      </c>
+      <c r="C142" t="s">
+        <v>13</v>
+      </c>
+      <c r="D142" t="s">
+        <v>63</v>
+      </c>
+      <c r="E142" t="s">
+        <v>242</v>
+      </c>
+      <c r="F142" t="s">
+        <v>243</v>
+      </c>
+      <c r="G142" t="s">
+        <v>244</v>
+      </c>
+      <c r="H142" t="s">
+        <v>249</v>
+      </c>
+      <c r="I142" t="s">
+        <v>19</v>
+      </c>
+      <c r="J142">
+        <v>1</v>
+      </c>
+      <c r="K142">
+        <v>2160000</v>
+      </c>
+      <c r="L142">
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:12">
+      <c r="A143">
+        <v>140</v>
+      </c>
+      <c r="B143">
+        <v>626402</v>
+      </c>
+      <c r="C143" t="s">
+        <v>13</v>
+      </c>
+      <c r="D143" t="s">
+        <v>63</v>
+      </c>
+      <c r="E143" t="s">
+        <v>242</v>
+      </c>
+      <c r="F143" t="s">
+        <v>243</v>
+      </c>
+      <c r="G143" t="s">
+        <v>244</v>
+      </c>
+      <c r="H143" t="s">
+        <v>250</v>
+      </c>
+      <c r="I143" t="s">
+        <v>19</v>
+      </c>
+      <c r="J143">
+        <v>1</v>
+      </c>
+      <c r="K143">
+        <v>724200</v>
+      </c>
+      <c r="L143">
+        <v>724200</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12">
+      <c r="A144">
+        <v>141</v>
+      </c>
+      <c r="B144">
+        <v>626402</v>
+      </c>
+      <c r="C144" t="s">
+        <v>13</v>
+      </c>
+      <c r="D144" t="s">
+        <v>63</v>
+      </c>
+      <c r="E144" t="s">
+        <v>251</v>
+      </c>
+      <c r="F144" t="s">
+        <v>252</v>
+      </c>
+      <c r="G144" t="s">
+        <v>253</v>
+      </c>
+      <c r="H144" t="s">
+        <v>254</v>
+      </c>
+      <c r="I144" t="s">
+        <v>19</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>28290250</v>
+      </c>
+      <c r="L144">
+        <v>28290250</v>
+      </c>
+    </row>
+    <row r="145" spans="1:12">
+      <c r="A145">
+        <v>142</v>
+      </c>
+      <c r="B145">
+        <v>626402</v>
+      </c>
+      <c r="C145" t="s">
+        <v>13</v>
+      </c>
+      <c r="D145" t="s">
+        <v>63</v>
+      </c>
+      <c r="E145" t="s">
+        <v>251</v>
+      </c>
+      <c r="F145" t="s">
+        <v>252</v>
+      </c>
+      <c r="G145" t="s">
+        <v>253</v>
+      </c>
+      <c r="H145" t="s">
+        <v>255</v>
+      </c>
+      <c r="I145" t="s">
+        <v>19</v>
+      </c>
+      <c r="J145">
+        <v>1</v>
+      </c>
+      <c r="K145">
+        <v>490000</v>
+      </c>
+      <c r="L145">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="146" spans="1:12">
+      <c r="A146">
+        <v>143</v>
+      </c>
+      <c r="B146">
+        <v>626402</v>
+      </c>
+      <c r="C146" t="s">
+        <v>13</v>
+      </c>
+      <c r="D146" t="s">
+        <v>63</v>
+      </c>
+      <c r="E146" t="s">
+        <v>251</v>
+      </c>
+      <c r="F146" t="s">
+        <v>252</v>
+      </c>
+      <c r="G146" t="s">
+        <v>253</v>
+      </c>
+      <c r="H146" t="s">
+        <v>256</v>
+      </c>
+      <c r="I146" t="s">
+        <v>19</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>8486722</v>
+      </c>
+      <c r="L146">
+        <v>8486722</v>
+      </c>
+    </row>
+    <row r="147" spans="1:12">
+      <c r="A147">
+        <v>144</v>
+      </c>
+      <c r="B147">
+        <v>626402</v>
+      </c>
+      <c r="C147" t="s">
+        <v>13</v>
+      </c>
+      <c r="D147" t="s">
+        <v>63</v>
+      </c>
+      <c r="E147" t="s">
+        <v>251</v>
+      </c>
+      <c r="F147" t="s">
+        <v>252</v>
+      </c>
+      <c r="G147" t="s">
+        <v>253</v>
+      </c>
+      <c r="H147" t="s">
+        <v>198</v>
+      </c>
+      <c r="I147" t="s">
+        <v>19</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1630000</v>
+      </c>
+      <c r="L147">
+        <v>1630000</v>
+      </c>
+    </row>
+    <row r="148" spans="1:12">
+      <c r="A148">
+        <v>145</v>
+      </c>
+      <c r="B148">
+        <v>626402</v>
+      </c>
+      <c r="C148" t="s">
+        <v>13</v>
+      </c>
+      <c r="D148" t="s">
+        <v>63</v>
+      </c>
+      <c r="E148" t="s">
+        <v>251</v>
+      </c>
+      <c r="F148" t="s">
+        <v>252</v>
+      </c>
+      <c r="G148" t="s">
+        <v>253</v>
+      </c>
+      <c r="H148" t="s">
+        <v>257</v>
+      </c>
+      <c r="I148" t="s">
+        <v>19</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1130026</v>
+      </c>
+      <c r="L148">
+        <v>1130026</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12">
+      <c r="A149">
+        <v>146</v>
+      </c>
+      <c r="B149">
+        <v>626402</v>
+      </c>
+      <c r="C149" t="s">
+        <v>13</v>
+      </c>
+      <c r="D149" t="s">
+        <v>63</v>
+      </c>
+      <c r="E149" t="s">
+        <v>251</v>
+      </c>
+      <c r="F149" t="s">
+        <v>252</v>
+      </c>
+      <c r="G149" t="s">
+        <v>253</v>
+      </c>
+      <c r="H149" t="s">
+        <v>258</v>
+      </c>
+      <c r="I149" t="s">
+        <v>19</v>
+      </c>
+      <c r="J149">
+        <v>1</v>
+      </c>
+      <c r="K149">
+        <v>121284</v>
+      </c>
+      <c r="L149">
+        <v>121284</v>
+      </c>
+    </row>
+    <row r="150" spans="1:12">
+      <c r="A150">
+        <v>147</v>
+      </c>
+      <c r="B150">
+        <v>626402</v>
+      </c>
+      <c r="C150" t="s">
+        <v>13</v>
+      </c>
+      <c r="D150" t="s">
+        <v>63</v>
+      </c>
+      <c r="E150" t="s">
+        <v>251</v>
+      </c>
+      <c r="F150" t="s">
+        <v>252</v>
+      </c>
+      <c r="G150" t="s">
+        <v>253</v>
+      </c>
+      <c r="H150" t="s">
+        <v>259</v>
+      </c>
+      <c r="I150" t="s">
+        <v>19</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>744936</v>
+      </c>
+      <c r="L150">
+        <v>744936</v>
+      </c>
+    </row>
+    <row r="151" spans="1:12">
+      <c r="A151">
+        <v>148</v>
+      </c>
+      <c r="B151">
+        <v>626402</v>
+      </c>
+      <c r="C151" t="s">
+        <v>13</v>
+      </c>
+      <c r="D151" t="s">
+        <v>63</v>
+      </c>
+      <c r="E151" t="s">
+        <v>251</v>
+      </c>
+      <c r="F151" t="s">
+        <v>252</v>
+      </c>
+      <c r="G151" t="s">
+        <v>253</v>
+      </c>
+      <c r="H151" t="s">
+        <v>260</v>
+      </c>
+      <c r="I151" t="s">
+        <v>19</v>
+      </c>
+      <c r="J151">
+        <v>1</v>
+      </c>
+      <c r="K151">
+        <v>594000</v>
+      </c>
+      <c r="L151">
+        <v>594000</v>
+      </c>
+    </row>
+    <row r="152" spans="1:12">
+      <c r="A152">
+        <v>149</v>
+      </c>
+      <c r="B152">
+        <v>626402</v>
+      </c>
+      <c r="C152" t="s">
+        <v>13</v>
+      </c>
+      <c r="D152" t="s">
+        <v>63</v>
+      </c>
+      <c r="E152" t="s">
+        <v>251</v>
+      </c>
+      <c r="F152" t="s">
+        <v>252</v>
+      </c>
+      <c r="G152" t="s">
+        <v>253</v>
+      </c>
+      <c r="H152" t="s">
+        <v>261</v>
+      </c>
+      <c r="I152" t="s">
+        <v>19</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>24000</v>
+      </c>
+      <c r="L152">
+        <v>24000</v>
+      </c>
+    </row>
+    <row r="153" spans="1:12">
+      <c r="A153">
+        <v>150</v>
+      </c>
+      <c r="B153">
+        <v>626402</v>
+      </c>
+      <c r="C153" t="s">
+        <v>13</v>
+      </c>
+      <c r="D153" t="s">
+        <v>63</v>
+      </c>
+      <c r="E153" t="s">
+        <v>251</v>
+      </c>
+      <c r="F153" t="s">
+        <v>252</v>
+      </c>
+      <c r="G153" t="s">
+        <v>253</v>
+      </c>
+      <c r="H153" t="s">
+        <v>262</v>
+      </c>
+      <c r="I153" t="s">
+        <v>19</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>402280</v>
+      </c>
+      <c r="L153">
+        <v>402280</v>
+      </c>
+    </row>
+    <row r="154" spans="1:12">
+      <c r="A154">
+        <v>151</v>
+      </c>
+      <c r="B154">
+        <v>626402</v>
+      </c>
+      <c r="C154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>63</v>
+      </c>
+      <c r="E154" t="s">
+        <v>251</v>
+      </c>
+      <c r="F154" t="s">
+        <v>252</v>
+      </c>
+      <c r="G154" t="s">
+        <v>253</v>
+      </c>
+      <c r="H154" t="s">
+        <v>263</v>
+      </c>
+      <c r="I154" t="s">
+        <v>19</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>215400</v>
+      </c>
+      <c r="L154">
+        <v>215400</v>
+      </c>
+    </row>
+    <row r="155" spans="1:12">
+      <c r="A155">
+        <v>152</v>
+      </c>
+      <c r="B155">
+        <v>626402</v>
+      </c>
+      <c r="C155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" t="s">
+        <v>63</v>
+      </c>
+      <c r="E155" t="s">
+        <v>251</v>
+      </c>
+      <c r="F155" t="s">
+        <v>252</v>
+      </c>
+      <c r="G155" t="s">
+        <v>253</v>
+      </c>
+      <c r="H155" t="s">
+        <v>264</v>
+      </c>
+      <c r="I155" t="s">
+        <v>19</v>
+      </c>
+      <c r="J155">
+        <v>1</v>
+      </c>
+      <c r="K155">
+        <v>977500</v>
+      </c>
+      <c r="L155">
+        <v>977500</v>
+      </c>
+    </row>
+    <row r="156" spans="1:12">
+      <c r="A156">
+        <v>153</v>
+      </c>
+      <c r="B156">
+        <v>626402</v>
+      </c>
+      <c r="C156" t="s">
+        <v>13</v>
+      </c>
+      <c r="D156" t="s">
+        <v>63</v>
+      </c>
+      <c r="E156" t="s">
+        <v>251</v>
+      </c>
+      <c r="F156" t="s">
+        <v>252</v>
+      </c>
+      <c r="G156" t="s">
+        <v>253</v>
+      </c>
+      <c r="H156" t="s">
+        <v>265</v>
+      </c>
+      <c r="I156" t="s">
+        <v>19</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>930800</v>
+      </c>
+      <c r="L156">
+        <v>930800</v>
+      </c>
+    </row>
+    <row r="157" spans="1:12">
+      <c r="A157">
+        <v>154</v>
+      </c>
+      <c r="B157">
+        <v>626402</v>
+      </c>
+      <c r="C157" t="s">
+        <v>13</v>
+      </c>
+      <c r="D157" t="s">
+        <v>63</v>
+      </c>
+      <c r="E157" t="s">
+        <v>251</v>
+      </c>
+      <c r="F157" t="s">
+        <v>252</v>
+      </c>
+      <c r="G157" t="s">
+        <v>253</v>
+      </c>
+      <c r="H157" t="s">
+        <v>266</v>
+      </c>
+      <c r="I157" t="s">
+        <v>19</v>
+      </c>
+      <c r="J157">
+        <v>1</v>
+      </c>
+      <c r="K157">
+        <v>1713000</v>
+      </c>
+      <c r="L157">
+        <v>1713000</v>
+      </c>
+    </row>
+    <row r="158" spans="1:12">
+      <c r="A158">
+        <v>155</v>
+      </c>
+      <c r="B158">
+        <v>626402</v>
+      </c>
+      <c r="C158" t="s">
+        <v>13</v>
+      </c>
+      <c r="D158" t="s">
+        <v>63</v>
+      </c>
+      <c r="E158" t="s">
+        <v>251</v>
+      </c>
+      <c r="F158" t="s">
+        <v>252</v>
+      </c>
+      <c r="G158" t="s">
+        <v>253</v>
+      </c>
+      <c r="H158" t="s">
+        <v>267</v>
+      </c>
+      <c r="I158" t="s">
+        <v>19</v>
+      </c>
+      <c r="J158">
+        <v>1</v>
+      </c>
+      <c r="K158">
+        <v>1400000</v>
+      </c>
+      <c r="L158">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="159" spans="1:12">
+      <c r="A159">
+        <v>156</v>
+      </c>
+      <c r="B159">
+        <v>626402</v>
+      </c>
+      <c r="C159" t="s">
+        <v>13</v>
+      </c>
+      <c r="D159" t="s">
+        <v>63</v>
+      </c>
+      <c r="E159" t="s">
+        <v>251</v>
+      </c>
+      <c r="F159" t="s">
+        <v>252</v>
+      </c>
+      <c r="G159" t="s">
+        <v>253</v>
+      </c>
+      <c r="H159" t="s">
+        <v>122</v>
+      </c>
+      <c r="I159" t="s">
+        <v>19</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>571650</v>
+      </c>
+      <c r="L159">
+        <v>571650</v>
+      </c>
+    </row>
+    <row r="160" spans="1:12">
+      <c r="A160">
+        <v>157</v>
+      </c>
+      <c r="B160">
+        <v>626402</v>
+      </c>
+      <c r="C160" t="s">
+        <v>13</v>
+      </c>
+      <c r="D160" t="s">
+        <v>63</v>
+      </c>
+      <c r="E160" t="s">
+        <v>251</v>
+      </c>
+      <c r="F160" t="s">
+        <v>252</v>
+      </c>
+      <c r="G160" t="s">
+        <v>253</v>
+      </c>
+      <c r="H160" t="s">
+        <v>268</v>
+      </c>
+      <c r="I160" t="s">
+        <v>19</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>624736</v>
+      </c>
+      <c r="L160">
+        <v>624736</v>
+      </c>
+    </row>
+    <row r="161" spans="1:12">
+      <c r="A161">
+        <v>158</v>
+      </c>
+      <c r="B161">
+        <v>626402</v>
+      </c>
+      <c r="C161" t="s">
+        <v>13</v>
+      </c>
+      <c r="D161" t="s">
+        <v>63</v>
+      </c>
+      <c r="E161" t="s">
+        <v>251</v>
+      </c>
+      <c r="F161" t="s">
+        <v>252</v>
+      </c>
+      <c r="G161" t="s">
+        <v>253</v>
+      </c>
+      <c r="H161" t="s">
+        <v>269</v>
+      </c>
+      <c r="I161" t="s">
+        <v>19</v>
+      </c>
+      <c r="J161">
+        <v>1</v>
+      </c>
+      <c r="K161">
+        <v>288800</v>
+      </c>
+      <c r="L161">
+        <v>288800</v>
+      </c>
+    </row>
+    <row r="162" spans="1:12">
+      <c r="A162">
+        <v>159</v>
+      </c>
+      <c r="B162">
+        <v>626402</v>
+      </c>
+      <c r="C162" t="s">
+        <v>13</v>
+      </c>
+      <c r="D162" t="s">
+        <v>63</v>
+      </c>
+      <c r="E162" t="s">
+        <v>251</v>
+      </c>
+      <c r="F162" t="s">
+        <v>252</v>
+      </c>
+      <c r="G162" t="s">
+        <v>253</v>
+      </c>
+      <c r="H162" t="s">
+        <v>270</v>
+      </c>
+      <c r="I162" t="s">
+        <v>19</v>
+      </c>
+      <c r="J162">
+        <v>1</v>
+      </c>
+      <c r="K162">
+        <v>2200000</v>
+      </c>
+      <c r="L162">
+        <v>2200000</v>
+      </c>
+    </row>
+    <row r="163" spans="1:12">
+      <c r="A163">
+        <v>160</v>
+      </c>
+      <c r="B163">
+        <v>626402</v>
+      </c>
+      <c r="C163" t="s">
+        <v>13</v>
+      </c>
+      <c r="D163" t="s">
+        <v>63</v>
+      </c>
+      <c r="E163" t="s">
+        <v>251</v>
+      </c>
+      <c r="F163" t="s">
+        <v>252</v>
+      </c>
+      <c r="G163" t="s">
+        <v>253</v>
+      </c>
+      <c r="H163" t="s">
+        <v>131</v>
+      </c>
+      <c r="I163" t="s">
+        <v>19</v>
+      </c>
+      <c r="J163">
+        <v>1</v>
+      </c>
+      <c r="K163">
+        <v>2432400</v>
+      </c>
+      <c r="L163">
+        <v>2432400</v>
+      </c>
+    </row>
+    <row r="164" spans="1:12">
+      <c r="A164">
+        <v>161</v>
+      </c>
+      <c r="B164">
+        <v>626402</v>
+      </c>
+      <c r="C164" t="s">
+        <v>13</v>
+      </c>
+      <c r="D164" t="s">
+        <v>63</v>
+      </c>
+      <c r="E164" t="s">
+        <v>251</v>
+      </c>
+      <c r="F164" t="s">
+        <v>252</v>
+      </c>
+      <c r="G164" t="s">
+        <v>253</v>
+      </c>
+      <c r="H164" t="s">
+        <v>271</v>
+      </c>
+      <c r="I164" t="s">
+        <v>19</v>
+      </c>
+      <c r="J164">
+        <v>1</v>
+      </c>
+      <c r="K164">
+        <v>1676236</v>
+      </c>
+      <c r="L164">
+        <v>1676236</v>
+      </c>
+    </row>
+    <row r="165" spans="1:12">
+      <c r="A165">
+        <v>162</v>
+      </c>
+      <c r="B165">
+        <v>626402</v>
+      </c>
+      <c r="C165" t="s">
+        <v>13</v>
+      </c>
+      <c r="D165" t="s">
+        <v>63</v>
+      </c>
+      <c r="E165" t="s">
+        <v>251</v>
+      </c>
+      <c r="F165" t="s">
+        <v>252</v>
+      </c>
+      <c r="G165" t="s">
+        <v>253</v>
+      </c>
+      <c r="H165" t="s">
+        <v>272</v>
+      </c>
+      <c r="I165" t="s">
+        <v>19</v>
+      </c>
+      <c r="J165">
+        <v>1</v>
+      </c>
+      <c r="K165">
+        <v>12905381</v>
+      </c>
+      <c r="L165">
+        <v>12905381</v>
+      </c>
+    </row>
+    <row r="166" spans="1:12">
+      <c r="A166">
+        <v>163</v>
+      </c>
+      <c r="B166">
+        <v>626402</v>
+      </c>
+      <c r="C166" t="s">
+        <v>13</v>
+      </c>
+      <c r="D166" t="s">
+        <v>63</v>
+      </c>
+      <c r="E166" t="s">
+        <v>251</v>
+      </c>
+      <c r="F166" t="s">
+        <v>252</v>
+      </c>
+      <c r="G166" t="s">
+        <v>253</v>
+      </c>
+      <c r="H166" t="s">
+        <v>148</v>
+      </c>
+      <c r="I166" t="s">
+        <v>19</v>
+      </c>
+      <c r="J166">
+        <v>1</v>
+      </c>
+      <c r="K166">
+        <v>1600500</v>
+      </c>
+      <c r="L166">
+        <v>1600500</v>
+      </c>
+    </row>
+    <row r="167" spans="1:12">
+      <c r="A167">
+        <v>164</v>
+      </c>
+      <c r="B167">
+        <v>626402</v>
+      </c>
+      <c r="C167" t="s">
+        <v>13</v>
+      </c>
+      <c r="D167" t="s">
+        <v>63</v>
+      </c>
+      <c r="E167" t="s">
+        <v>251</v>
+      </c>
+      <c r="F167" t="s">
+        <v>252</v>
+      </c>
+      <c r="G167" t="s">
+        <v>253</v>
+      </c>
+      <c r="H167" t="s">
+        <v>128</v>
+      </c>
+      <c r="I167" t="s">
+        <v>19</v>
+      </c>
+      <c r="J167">
+        <v>1</v>
+      </c>
+      <c r="K167">
+        <v>5495500</v>
+      </c>
+      <c r="L167">
+        <v>5495500</v>
+      </c>
+    </row>
+    <row r="168" spans="1:12">
+      <c r="A168">
+        <v>165</v>
+      </c>
+      <c r="B168">
+        <v>626402</v>
+      </c>
+      <c r="C168" t="s">
+        <v>13</v>
+      </c>
+      <c r="D168" t="s">
+        <v>63</v>
+      </c>
+      <c r="E168" t="s">
+        <v>251</v>
+      </c>
+      <c r="F168" t="s">
+        <v>252</v>
+      </c>
+      <c r="G168" t="s">
+        <v>253</v>
+      </c>
+      <c r="H168" t="s">
+        <v>273</v>
+      </c>
+      <c r="I168" t="s">
+        <v>19</v>
+      </c>
+      <c r="J168">
+        <v>1</v>
+      </c>
+      <c r="K168">
+        <v>600000</v>
+      </c>
+      <c r="L168">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="169" spans="1:12">
+      <c r="A169">
+        <v>166</v>
+      </c>
+      <c r="B169">
+        <v>626402</v>
+      </c>
+      <c r="C169" t="s">
+        <v>13</v>
+      </c>
+      <c r="D169" t="s">
+        <v>63</v>
+      </c>
+      <c r="E169" t="s">
+        <v>251</v>
+      </c>
+      <c r="F169" t="s">
+        <v>252</v>
+      </c>
+      <c r="G169" t="s">
+        <v>253</v>
+      </c>
+      <c r="H169" t="s">
+        <v>274</v>
+      </c>
+      <c r="I169" t="s">
+        <v>19</v>
+      </c>
+      <c r="J169">
+        <v>1</v>
+      </c>
+      <c r="K169">
+        <v>2090000</v>
+      </c>
+      <c r="L169">
+        <v>2090000</v>
+      </c>
+    </row>
+    <row r="170" spans="1:12">
+      <c r="A170">
+        <v>167</v>
+      </c>
+      <c r="B170">
+        <v>626402</v>
+      </c>
+      <c r="C170" t="s">
+        <v>13</v>
+      </c>
+      <c r="D170" t="s">
+        <v>63</v>
+      </c>
+      <c r="E170" t="s">
+        <v>251</v>
+      </c>
+      <c r="F170" t="s">
+        <v>252</v>
+      </c>
+      <c r="G170" t="s">
+        <v>253</v>
+      </c>
+      <c r="H170" t="s">
+        <v>182</v>
+      </c>
+      <c r="I170" t="s">
+        <v>19</v>
+      </c>
+      <c r="J170">
+        <v>1</v>
+      </c>
+      <c r="K170">
+        <v>9495062</v>
+      </c>
+      <c r="L170">
+        <v>9495062</v>
+      </c>
+    </row>
+    <row r="171" spans="1:12">
+      <c r="A171">
+        <v>168</v>
+      </c>
+      <c r="B171">
+        <v>626402</v>
+      </c>
+      <c r="C171" t="s">
+        <v>13</v>
+      </c>
+      <c r="D171" t="s">
+        <v>63</v>
+      </c>
+      <c r="E171" t="s">
+        <v>251</v>
+      </c>
+      <c r="F171" t="s">
+        <v>252</v>
+      </c>
+      <c r="G171" t="s">
+        <v>253</v>
+      </c>
+      <c r="H171" t="s">
+        <v>275</v>
+      </c>
+      <c r="I171" t="s">
+        <v>19</v>
+      </c>
+      <c r="J171">
+        <v>1</v>
+      </c>
+      <c r="K171">
+        <v>320000</v>
+      </c>
+      <c r="L171">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="172" spans="1:12">
+      <c r="A172">
+        <v>169</v>
+      </c>
+      <c r="B172">
+        <v>626402</v>
+      </c>
+      <c r="C172" t="s">
+        <v>13</v>
+      </c>
+      <c r="D172" t="s">
+        <v>63</v>
+      </c>
+      <c r="E172" t="s">
+        <v>251</v>
+      </c>
+      <c r="F172" t="s">
+        <v>252</v>
+      </c>
+      <c r="G172" t="s">
+        <v>253</v>
+      </c>
+      <c r="H172" t="s">
+        <v>276</v>
+      </c>
+      <c r="I172" t="s">
+        <v>19</v>
+      </c>
+      <c r="J172">
+        <v>1</v>
+      </c>
+      <c r="K172">
+        <v>260000</v>
+      </c>
+      <c r="L172">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="173" spans="1:12">
+      <c r="A173">
+        <v>170</v>
+      </c>
+      <c r="B173">
+        <v>626402</v>
+      </c>
+      <c r="C173" t="s">
+        <v>13</v>
+      </c>
+      <c r="D173" t="s">
+        <v>63</v>
+      </c>
+      <c r="E173" t="s">
+        <v>251</v>
+      </c>
+      <c r="F173" t="s">
+        <v>252</v>
+      </c>
+      <c r="G173" t="s">
+        <v>253</v>
+      </c>
+      <c r="H173" t="s">
+        <v>277</v>
+      </c>
+      <c r="I173" t="s">
+        <v>19</v>
+      </c>
+      <c r="J173">
+        <v>1</v>
+      </c>
+      <c r="K173">
+        <v>390000</v>
+      </c>
+      <c r="L173">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="174" spans="1:12">
+      <c r="A174">
+        <v>171</v>
+      </c>
+      <c r="B174">
+        <v>626402</v>
+      </c>
+      <c r="C174" t="s">
+        <v>13</v>
+      </c>
+      <c r="D174" t="s">
+        <v>63</v>
+      </c>
+      <c r="E174" t="s">
+        <v>251</v>
+      </c>
+      <c r="F174" t="s">
+        <v>252</v>
+      </c>
+      <c r="G174" t="s">
+        <v>253</v>
+      </c>
+      <c r="H174" t="s">
+        <v>278</v>
+      </c>
+      <c r="I174" t="s">
+        <v>19</v>
+      </c>
+      <c r="J174">
+        <v>1</v>
+      </c>
+      <c r="K174">
+        <v>450000</v>
+      </c>
+      <c r="L174">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="175" spans="1:12">
+      <c r="A175">
+        <v>172</v>
+      </c>
+      <c r="B175">
+        <v>626402</v>
+      </c>
+      <c r="C175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" t="s">
+        <v>279</v>
+      </c>
+      <c r="E175" t="s">
+        <v>280</v>
+      </c>
+      <c r="F175" t="s">
+        <v>281</v>
+      </c>
+      <c r="G175" t="s">
+        <v>282</v>
+      </c>
+      <c r="H175" t="s">
+        <v>283</v>
+      </c>
+      <c r="I175" t="s">
+        <v>19</v>
+      </c>
+      <c r="J175">
+        <v>1</v>
+      </c>
+      <c r="K175">
+        <v>7440500</v>
+      </c>
+      <c r="L175">
+        <v>7440500</v>
+      </c>
+    </row>
+    <row r="176" spans="1:12">
+      <c r="A176">
+        <v>173</v>
+      </c>
+      <c r="B176">
+        <v>626402</v>
+      </c>
+      <c r="C176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" t="s">
+        <v>279</v>
+      </c>
+      <c r="E176" t="s">
+        <v>284</v>
+      </c>
+      <c r="F176" t="s">
+        <v>285</v>
+      </c>
+      <c r="G176" t="s">
+        <v>286</v>
+      </c>
+      <c r="H176" t="s">
+        <v>274</v>
+      </c>
+      <c r="I176" t="s">
+        <v>19</v>
+      </c>
+      <c r="J176">
+        <v>1</v>
+      </c>
+      <c r="K176">
+        <v>12092580</v>
+      </c>
+      <c r="L176">
+        <v>12092580</v>
+      </c>
+    </row>
+    <row r="177" spans="1:12">
+      <c r="A177">
+        <v>174</v>
+      </c>
+      <c r="B177">
+        <v>626402</v>
+      </c>
+      <c r="C177" t="s">
+        <v>13</v>
+      </c>
+      <c r="D177" t="s">
+        <v>279</v>
+      </c>
+      <c r="E177" t="s">
+        <v>287</v>
+      </c>
+      <c r="F177" t="s">
+        <v>288</v>
+      </c>
+      <c r="G177" t="s">
+        <v>289</v>
+      </c>
+      <c r="H177" t="s">
+        <v>290</v>
+      </c>
+      <c r="I177" t="s">
+        <v>19</v>
+      </c>
+      <c r="J177">
+        <v>1</v>
+      </c>
+      <c r="K177">
+        <v>1560000</v>
+      </c>
+      <c r="L177">
+        <v>1560000</v>
+      </c>
+    </row>
+    <row r="178" spans="1:12">
+      <c r="A178">
+        <v>175</v>
+      </c>
+      <c r="B178">
+        <v>626402</v>
+      </c>
+      <c r="C178" t="s">
+        <v>13</v>
+      </c>
+      <c r="D178" t="s">
+        <v>279</v>
+      </c>
+      <c r="E178" t="s">
+        <v>287</v>
+      </c>
+      <c r="F178" t="s">
+        <v>288</v>
+      </c>
+      <c r="G178" t="s">
+        <v>289</v>
+      </c>
+      <c r="H178" t="s">
+        <v>291</v>
+      </c>
+      <c r="I178" t="s">
+        <v>19</v>
+      </c>
+      <c r="J178">
+        <v>1</v>
+      </c>
+      <c r="K178">
+        <v>2040000</v>
+      </c>
+      <c r="L178">
+        <v>2040000</v>
+      </c>
+    </row>
+    <row r="179" spans="1:12">
+      <c r="A179">
+        <v>176</v>
+      </c>
+      <c r="B179">
+        <v>626402</v>
+      </c>
+      <c r="C179" t="s">
+        <v>13</v>
+      </c>
+      <c r="D179" t="s">
+        <v>279</v>
+      </c>
+      <c r="E179" t="s">
+        <v>292</v>
+      </c>
+      <c r="F179" t="s">
+        <v>293</v>
+      </c>
+      <c r="G179" t="s">
+        <v>294</v>
+      </c>
+      <c r="H179" t="s">
+        <v>274</v>
+      </c>
+      <c r="I179" t="s">
+        <v>19</v>
+      </c>
+      <c r="J179">
+        <v>1</v>
+      </c>
+      <c r="K179">
+        <v>1410000</v>
+      </c>
+      <c r="L179">
+        <v>1410000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="295">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="376">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -900,6 +900,249 @@
   </si>
   <si>
     <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.829/BPPSDM.1/KP.440/I/2024 Tanggal 26 Januari 2024 a.n Rizky Hendriansyah, dkk</t>
+  </si>
+  <si>
+    <t>2024-02-06</t>
+  </si>
+  <si>
+    <t>'00063T</t>
+  </si>
+  <si>
+    <t>'241751303001087</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barangberupa biaya perjadin sesuai STNo.B.309,B.356,B.729/BPPSDM.1/KP.440/I/2024 Tanggal 15,16 dan 19 Januari 2024 a.n Achmad Irfansyah, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.957.101.0A.000311</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.957.101.0B.000322</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.957.101.0B.000323</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.957.101.0B.000324</t>
+  </si>
+  <si>
+    <t>'00064T</t>
+  </si>
+  <si>
+    <t>'241751303001088</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.206,B.261,B.278,B.704/BRSDM.1/KP.440/I/2023 Tgl.9,11,12,17 Januari 2024 Perjadin an.Andriawan Doni Purnama,DKK.</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0A.000602</t>
+  </si>
+  <si>
+    <t>'00065T</t>
+  </si>
+  <si>
+    <t>'241751303001091</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.49,B.258/BRSDM.1/KP.440/I/2024 Tgl.9,11 Januari 2024 Perjadin an.Rudi Alek Wahyudin, DKK. </t>
+  </si>
+  <si>
+    <t>'00066T</t>
+  </si>
+  <si>
+    <t>'241751303001092</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.235, B.698, B.728/BPPSDM.1/KP.440/I/2024 Tanggal 10, 17 dan 19 Januari 2024 a.n Niken Financia</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0D.000941</t>
+  </si>
+  <si>
+    <t>'00067T</t>
+  </si>
+  <si>
+    <t>'241751303001093</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.342/BRSDM.1/KP.440/I/2024 Tgl.16 Januari 2024 Perjadin an.Wawan Nurliansyah,DKK.</t>
+  </si>
+  <si>
+    <t>'00068T</t>
+  </si>
+  <si>
+    <t>'241751303001094</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.158, B.297 /BPPSDM.1/KP.440/I/2024 Tanggal 8 dan 15 Januari 2024 a.n Nurkholis Abellian, dkk</t>
+  </si>
+  <si>
+    <t>'00069T</t>
+  </si>
+  <si>
+    <t>'241751303001095</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.263, B.728/BPPSDM.1/KP.440/I/2024 Tanggal 10 dan 19 Januari 2024 a.n Setyawati, dkk</t>
+  </si>
+  <si>
+    <t>'00070T</t>
+  </si>
+  <si>
+    <t>'241751303001086</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.311/BPPSDM.1/KP.440/I/2024 Tanggal 15 Januari 2024 a.n Rudi Alek Wahyudin, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0D.000943</t>
+  </si>
+  <si>
+    <t>'00071T</t>
+  </si>
+  <si>
+    <t>'241751301001456</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai Kuitansi Nomor:042/NNI/I/24 Tgl.29 Januari 2024 </t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AA.000425</t>
+  </si>
+  <si>
+    <t>'00072T</t>
+  </si>
+  <si>
+    <t>'241751301001452</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:011/PO-Sales/Kompas.com/I/2024 tgl.29 Januari 2024</t>
+  </si>
+  <si>
+    <t>2024-02-07</t>
+  </si>
+  <si>
+    <t>'00073T</t>
+  </si>
+  <si>
+    <t>'241751301001568</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang-Sesuai SPK No:1230/SPK/PPBJ/BPPSDM.5/XII/2023 Tgl.29-12-2023,BAST No:BAST.1231/PPBJ.PL/BPPSDM.5/I/2024.Tgl.31-1-2024,BAP No:1231/PPBJ.PL/BPPSDM.5/II/2024 Tgl.01-02-2024.Pembayaran Bulan Januari 2024  </t>
+  </si>
+  <si>
+    <t>'626402.175.522191.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DA.000539</t>
+  </si>
+  <si>
+    <t>'00074T</t>
+  </si>
+  <si>
+    <t>'241751302001394</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang-Sesuai SPK No:1220/SPK/PPBJ/BPPSDM.5/XII/2023 Tgl.29-12-2023,BAST No:BAST.1221/PPBJ.PL/BPPSDM.5/I/2024.Tgl.31-1-2024,BAP No:1221/PPBJ.PL/BPPSDM.5/II/2024 Tgl.01-02-2024.Pembayaran Bulan Januari 2024 </t>
+  </si>
+  <si>
+    <t>'626402.175.522191.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DA.000540</t>
+  </si>
+  <si>
+    <t>'00075T</t>
+  </si>
+  <si>
+    <t>'241751302001395</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang-Sesuai SPK No:1210/SPK/PPBJ/BPPSDM.5/XII/2023 Tgl.29-12-2023,BAST No:BAST.1211/PPBJ.PL/BPPSDM.5/I/2024.Tgl.31-1-2024,BAP No:1211/PPBJ.PL/BPPSDM.5/II/2024 Tgl.01-02-2024.Pembayaran Bulan Januari 2024 </t>
+  </si>
+  <si>
+    <t>2024-02-12</t>
+  </si>
+  <si>
+    <t>'00076T</t>
+  </si>
+  <si>
+    <t>'241751302001665</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:021/KW-AH/I/2024 Tanggal 30 Januari 2024</t>
+  </si>
+  <si>
+    <t>'00077T</t>
+  </si>
+  <si>
+    <t>'241751303001168</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.271/BPPSDM.1/KP.440/I/2024 Tgl. 12 Januari 2024 Perjadin an.Ollyvia Maria Christy, DKK.</t>
+  </si>
+  <si>
+    <t>'00078T</t>
+  </si>
+  <si>
+    <t>'241751303001420</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0F.001423</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0B.001473</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0D.001478</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0D.001479</t>
+  </si>
+  <si>
+    <t>'00083T</t>
+  </si>
+  <si>
+    <t>'241751303001234</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No. B.135,B.277,B.332,B.688,B.712/BPPSDM.1/KP.440/I/2024 Tanggal 4,12,16,17, dan 18 Januari 2024 a.n Hari Purwanto, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.960.101.0A.000788</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.960.102.0A.000805</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.103.0A.000860</t>
+  </si>
+  <si>
+    <t>'00085T</t>
+  </si>
+  <si>
+    <t>'241751303001528</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan Pusluh bulan Januari tahun 2024 untuk 33 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'626402.175.512411.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.DA.000410</t>
+  </si>
+  <si>
+    <t>'00086T</t>
+  </si>
+  <si>
+    <t>'241751303001563</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan Pegawai Sekretariat BRSDM bulan Januari tahun 2024 untuk 74 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'626402.175.512411.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.AA.000399</t>
+  </si>
+  <si>
+    <t>'00087T</t>
+  </si>
+  <si>
+    <t>'241751303001562</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan bulan Januari tahun 2024 untuk 40 Pegawai/Anggota Polri/Prajurit TNI (Pusdik KP)</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1484,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L179"/>
+  <dimension ref="A1:L209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -7981,6 +8224,1146 @@
       </c>
       <c r="L179">
         <v>1410000</v>
+      </c>
+    </row>
+    <row r="180" spans="1:12">
+      <c r="A180">
+        <v>177</v>
+      </c>
+      <c r="B180">
+        <v>626402</v>
+      </c>
+      <c r="C180" t="s">
+        <v>13</v>
+      </c>
+      <c r="D180" t="s">
+        <v>295</v>
+      </c>
+      <c r="E180" t="s">
+        <v>296</v>
+      </c>
+      <c r="F180" t="s">
+        <v>297</v>
+      </c>
+      <c r="G180" t="s">
+        <v>298</v>
+      </c>
+      <c r="H180" t="s">
+        <v>299</v>
+      </c>
+      <c r="I180" t="s">
+        <v>19</v>
+      </c>
+      <c r="J180">
+        <v>1</v>
+      </c>
+      <c r="K180">
+        <v>2316500</v>
+      </c>
+      <c r="L180">
+        <v>2316500</v>
+      </c>
+    </row>
+    <row r="181" spans="1:12">
+      <c r="A181">
+        <v>178</v>
+      </c>
+      <c r="B181">
+        <v>626402</v>
+      </c>
+      <c r="C181" t="s">
+        <v>13</v>
+      </c>
+      <c r="D181" t="s">
+        <v>295</v>
+      </c>
+      <c r="E181" t="s">
+        <v>296</v>
+      </c>
+      <c r="F181" t="s">
+        <v>297</v>
+      </c>
+      <c r="G181" t="s">
+        <v>298</v>
+      </c>
+      <c r="H181" t="s">
+        <v>300</v>
+      </c>
+      <c r="I181" t="s">
+        <v>19</v>
+      </c>
+      <c r="J181">
+        <v>1</v>
+      </c>
+      <c r="K181">
+        <v>1205000</v>
+      </c>
+      <c r="L181">
+        <v>1205000</v>
+      </c>
+    </row>
+    <row r="182" spans="1:12">
+      <c r="A182">
+        <v>179</v>
+      </c>
+      <c r="B182">
+        <v>626402</v>
+      </c>
+      <c r="C182" t="s">
+        <v>13</v>
+      </c>
+      <c r="D182" t="s">
+        <v>295</v>
+      </c>
+      <c r="E182" t="s">
+        <v>296</v>
+      </c>
+      <c r="F182" t="s">
+        <v>297</v>
+      </c>
+      <c r="G182" t="s">
+        <v>298</v>
+      </c>
+      <c r="H182" t="s">
+        <v>301</v>
+      </c>
+      <c r="I182" t="s">
+        <v>19</v>
+      </c>
+      <c r="J182">
+        <v>1</v>
+      </c>
+      <c r="K182">
+        <v>630000</v>
+      </c>
+      <c r="L182">
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="183" spans="1:12">
+      <c r="A183">
+        <v>180</v>
+      </c>
+      <c r="B183">
+        <v>626402</v>
+      </c>
+      <c r="C183" t="s">
+        <v>13</v>
+      </c>
+      <c r="D183" t="s">
+        <v>295</v>
+      </c>
+      <c r="E183" t="s">
+        <v>296</v>
+      </c>
+      <c r="F183" t="s">
+        <v>297</v>
+      </c>
+      <c r="G183" t="s">
+        <v>298</v>
+      </c>
+      <c r="H183" t="s">
+        <v>302</v>
+      </c>
+      <c r="I183" t="s">
+        <v>19</v>
+      </c>
+      <c r="J183">
+        <v>1</v>
+      </c>
+      <c r="K183">
+        <v>510000</v>
+      </c>
+      <c r="L183">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12">
+      <c r="A184">
+        <v>181</v>
+      </c>
+      <c r="B184">
+        <v>626402</v>
+      </c>
+      <c r="C184" t="s">
+        <v>13</v>
+      </c>
+      <c r="D184" t="s">
+        <v>295</v>
+      </c>
+      <c r="E184" t="s">
+        <v>303</v>
+      </c>
+      <c r="F184" t="s">
+        <v>304</v>
+      </c>
+      <c r="G184" t="s">
+        <v>305</v>
+      </c>
+      <c r="H184" t="s">
+        <v>306</v>
+      </c>
+      <c r="I184" t="s">
+        <v>19</v>
+      </c>
+      <c r="J184">
+        <v>1</v>
+      </c>
+      <c r="K184">
+        <v>1700000</v>
+      </c>
+      <c r="L184">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="185" spans="1:12">
+      <c r="A185">
+        <v>182</v>
+      </c>
+      <c r="B185">
+        <v>626402</v>
+      </c>
+      <c r="C185" t="s">
+        <v>13</v>
+      </c>
+      <c r="D185" t="s">
+        <v>295</v>
+      </c>
+      <c r="E185" t="s">
+        <v>307</v>
+      </c>
+      <c r="F185" t="s">
+        <v>308</v>
+      </c>
+      <c r="G185" t="s">
+        <v>309</v>
+      </c>
+      <c r="H185" t="s">
+        <v>274</v>
+      </c>
+      <c r="I185" t="s">
+        <v>19</v>
+      </c>
+      <c r="J185">
+        <v>1</v>
+      </c>
+      <c r="K185">
+        <v>5907000</v>
+      </c>
+      <c r="L185">
+        <v>5907000</v>
+      </c>
+    </row>
+    <row r="186" spans="1:12">
+      <c r="A186">
+        <v>183</v>
+      </c>
+      <c r="B186">
+        <v>626402</v>
+      </c>
+      <c r="C186" t="s">
+        <v>13</v>
+      </c>
+      <c r="D186" t="s">
+        <v>295</v>
+      </c>
+      <c r="E186" t="s">
+        <v>310</v>
+      </c>
+      <c r="F186" t="s">
+        <v>311</v>
+      </c>
+      <c r="G186" t="s">
+        <v>312</v>
+      </c>
+      <c r="H186" t="s">
+        <v>313</v>
+      </c>
+      <c r="I186" t="s">
+        <v>19</v>
+      </c>
+      <c r="J186">
+        <v>1</v>
+      </c>
+      <c r="K186">
+        <v>3897000</v>
+      </c>
+      <c r="L186">
+        <v>3897000</v>
+      </c>
+    </row>
+    <row r="187" spans="1:12">
+      <c r="A187">
+        <v>184</v>
+      </c>
+      <c r="B187">
+        <v>626402</v>
+      </c>
+      <c r="C187" t="s">
+        <v>13</v>
+      </c>
+      <c r="D187" t="s">
+        <v>295</v>
+      </c>
+      <c r="E187" t="s">
+        <v>314</v>
+      </c>
+      <c r="F187" t="s">
+        <v>315</v>
+      </c>
+      <c r="G187" t="s">
+        <v>316</v>
+      </c>
+      <c r="H187" t="s">
+        <v>131</v>
+      </c>
+      <c r="I187" t="s">
+        <v>19</v>
+      </c>
+      <c r="J187">
+        <v>1</v>
+      </c>
+      <c r="K187">
+        <v>5410000</v>
+      </c>
+      <c r="L187">
+        <v>5410000</v>
+      </c>
+    </row>
+    <row r="188" spans="1:12">
+      <c r="A188">
+        <v>185</v>
+      </c>
+      <c r="B188">
+        <v>626402</v>
+      </c>
+      <c r="C188" t="s">
+        <v>13</v>
+      </c>
+      <c r="D188" t="s">
+        <v>295</v>
+      </c>
+      <c r="E188" t="s">
+        <v>317</v>
+      </c>
+      <c r="F188" t="s">
+        <v>318</v>
+      </c>
+      <c r="G188" t="s">
+        <v>319</v>
+      </c>
+      <c r="H188" t="s">
+        <v>290</v>
+      </c>
+      <c r="I188" t="s">
+        <v>19</v>
+      </c>
+      <c r="J188">
+        <v>1</v>
+      </c>
+      <c r="K188">
+        <v>520000</v>
+      </c>
+      <c r="L188">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="189" spans="1:12">
+      <c r="A189">
+        <v>186</v>
+      </c>
+      <c r="B189">
+        <v>626402</v>
+      </c>
+      <c r="C189" t="s">
+        <v>13</v>
+      </c>
+      <c r="D189" t="s">
+        <v>295</v>
+      </c>
+      <c r="E189" t="s">
+        <v>317</v>
+      </c>
+      <c r="F189" t="s">
+        <v>318</v>
+      </c>
+      <c r="G189" t="s">
+        <v>319</v>
+      </c>
+      <c r="H189" t="s">
+        <v>291</v>
+      </c>
+      <c r="I189" t="s">
+        <v>19</v>
+      </c>
+      <c r="J189">
+        <v>1</v>
+      </c>
+      <c r="K189">
+        <v>850000</v>
+      </c>
+      <c r="L189">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="190" spans="1:12">
+      <c r="A190">
+        <v>187</v>
+      </c>
+      <c r="B190">
+        <v>626402</v>
+      </c>
+      <c r="C190" t="s">
+        <v>13</v>
+      </c>
+      <c r="D190" t="s">
+        <v>295</v>
+      </c>
+      <c r="E190" t="s">
+        <v>320</v>
+      </c>
+      <c r="F190" t="s">
+        <v>321</v>
+      </c>
+      <c r="G190" t="s">
+        <v>322</v>
+      </c>
+      <c r="H190" t="s">
+        <v>118</v>
+      </c>
+      <c r="I190" t="s">
+        <v>19</v>
+      </c>
+      <c r="J190">
+        <v>1</v>
+      </c>
+      <c r="K190">
+        <v>29064400</v>
+      </c>
+      <c r="L190">
+        <v>29064400</v>
+      </c>
+    </row>
+    <row r="191" spans="1:12">
+      <c r="A191">
+        <v>188</v>
+      </c>
+      <c r="B191">
+        <v>626402</v>
+      </c>
+      <c r="C191" t="s">
+        <v>13</v>
+      </c>
+      <c r="D191" t="s">
+        <v>295</v>
+      </c>
+      <c r="E191" t="s">
+        <v>323</v>
+      </c>
+      <c r="F191" t="s">
+        <v>324</v>
+      </c>
+      <c r="G191" t="s">
+        <v>325</v>
+      </c>
+      <c r="H191" t="s">
+        <v>326</v>
+      </c>
+      <c r="I191" t="s">
+        <v>19</v>
+      </c>
+      <c r="J191">
+        <v>1</v>
+      </c>
+      <c r="K191">
+        <v>40120000</v>
+      </c>
+      <c r="L191">
+        <v>40120000</v>
+      </c>
+    </row>
+    <row r="192" spans="1:12">
+      <c r="A192">
+        <v>189</v>
+      </c>
+      <c r="B192">
+        <v>626402</v>
+      </c>
+      <c r="C192" t="s">
+        <v>13</v>
+      </c>
+      <c r="D192" t="s">
+        <v>295</v>
+      </c>
+      <c r="E192" t="s">
+        <v>323</v>
+      </c>
+      <c r="F192" t="s">
+        <v>324</v>
+      </c>
+      <c r="G192" t="s">
+        <v>325</v>
+      </c>
+      <c r="H192" t="s">
+        <v>109</v>
+      </c>
+      <c r="I192" t="s">
+        <v>19</v>
+      </c>
+      <c r="J192">
+        <v>1</v>
+      </c>
+      <c r="K192">
+        <v>17650000</v>
+      </c>
+      <c r="L192">
+        <v>17650000</v>
+      </c>
+    </row>
+    <row r="193" spans="1:12">
+      <c r="A193">
+        <v>190</v>
+      </c>
+      <c r="B193">
+        <v>626402</v>
+      </c>
+      <c r="C193" t="s">
+        <v>13</v>
+      </c>
+      <c r="D193" t="s">
+        <v>295</v>
+      </c>
+      <c r="E193" t="s">
+        <v>327</v>
+      </c>
+      <c r="F193" t="s">
+        <v>328</v>
+      </c>
+      <c r="G193" t="s">
+        <v>329</v>
+      </c>
+      <c r="H193" t="s">
+        <v>330</v>
+      </c>
+      <c r="I193" t="s">
+        <v>19</v>
+      </c>
+      <c r="J193">
+        <v>1</v>
+      </c>
+      <c r="K193">
+        <v>20000000</v>
+      </c>
+      <c r="L193">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="194" spans="1:12">
+      <c r="A194">
+        <v>191</v>
+      </c>
+      <c r="B194">
+        <v>626402</v>
+      </c>
+      <c r="C194" t="s">
+        <v>13</v>
+      </c>
+      <c r="D194" t="s">
+        <v>295</v>
+      </c>
+      <c r="E194" t="s">
+        <v>331</v>
+      </c>
+      <c r="F194" t="s">
+        <v>332</v>
+      </c>
+      <c r="G194" t="s">
+        <v>333</v>
+      </c>
+      <c r="H194" t="s">
+        <v>268</v>
+      </c>
+      <c r="I194" t="s">
+        <v>19</v>
+      </c>
+      <c r="J194">
+        <v>1</v>
+      </c>
+      <c r="K194">
+        <v>23931600</v>
+      </c>
+      <c r="L194">
+        <v>23931600</v>
+      </c>
+    </row>
+    <row r="195" spans="1:12">
+      <c r="A195">
+        <v>192</v>
+      </c>
+      <c r="B195">
+        <v>626402</v>
+      </c>
+      <c r="C195" t="s">
+        <v>13</v>
+      </c>
+      <c r="D195" t="s">
+        <v>334</v>
+      </c>
+      <c r="E195" t="s">
+        <v>335</v>
+      </c>
+      <c r="F195" t="s">
+        <v>336</v>
+      </c>
+      <c r="G195" t="s">
+        <v>337</v>
+      </c>
+      <c r="H195" t="s">
+        <v>338</v>
+      </c>
+      <c r="I195" t="s">
+        <v>19</v>
+      </c>
+      <c r="J195">
+        <v>1</v>
+      </c>
+      <c r="K195">
+        <v>28720670</v>
+      </c>
+      <c r="L195">
+        <v>28720670</v>
+      </c>
+    </row>
+    <row r="196" spans="1:12">
+      <c r="A196">
+        <v>193</v>
+      </c>
+      <c r="B196">
+        <v>626402</v>
+      </c>
+      <c r="C196" t="s">
+        <v>13</v>
+      </c>
+      <c r="D196" t="s">
+        <v>334</v>
+      </c>
+      <c r="E196" t="s">
+        <v>339</v>
+      </c>
+      <c r="F196" t="s">
+        <v>340</v>
+      </c>
+      <c r="G196" t="s">
+        <v>341</v>
+      </c>
+      <c r="H196" t="s">
+        <v>342</v>
+      </c>
+      <c r="I196" t="s">
+        <v>19</v>
+      </c>
+      <c r="J196">
+        <v>1</v>
+      </c>
+      <c r="K196">
+        <v>28720670</v>
+      </c>
+      <c r="L196">
+        <v>28720670</v>
+      </c>
+    </row>
+    <row r="197" spans="1:12">
+      <c r="A197">
+        <v>194</v>
+      </c>
+      <c r="B197">
+        <v>626402</v>
+      </c>
+      <c r="C197" t="s">
+        <v>13</v>
+      </c>
+      <c r="D197" t="s">
+        <v>334</v>
+      </c>
+      <c r="E197" t="s">
+        <v>343</v>
+      </c>
+      <c r="F197" t="s">
+        <v>344</v>
+      </c>
+      <c r="G197" t="s">
+        <v>345</v>
+      </c>
+      <c r="H197" t="s">
+        <v>342</v>
+      </c>
+      <c r="I197" t="s">
+        <v>19</v>
+      </c>
+      <c r="J197">
+        <v>1</v>
+      </c>
+      <c r="K197">
+        <v>7428768</v>
+      </c>
+      <c r="L197">
+        <v>7428768</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12">
+      <c r="A198">
+        <v>195</v>
+      </c>
+      <c r="B198">
+        <v>626402</v>
+      </c>
+      <c r="C198" t="s">
+        <v>13</v>
+      </c>
+      <c r="D198" t="s">
+        <v>346</v>
+      </c>
+      <c r="E198" t="s">
+        <v>347</v>
+      </c>
+      <c r="F198" t="s">
+        <v>348</v>
+      </c>
+      <c r="G198" t="s">
+        <v>349</v>
+      </c>
+      <c r="H198" t="s">
+        <v>198</v>
+      </c>
+      <c r="I198" t="s">
+        <v>19</v>
+      </c>
+      <c r="J198">
+        <v>1</v>
+      </c>
+      <c r="K198">
+        <v>14600000</v>
+      </c>
+      <c r="L198">
+        <v>14600000</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12">
+      <c r="A199">
+        <v>196</v>
+      </c>
+      <c r="B199">
+        <v>626402</v>
+      </c>
+      <c r="C199" t="s">
+        <v>13</v>
+      </c>
+      <c r="D199" t="s">
+        <v>334</v>
+      </c>
+      <c r="E199" t="s">
+        <v>350</v>
+      </c>
+      <c r="F199" t="s">
+        <v>351</v>
+      </c>
+      <c r="G199" t="s">
+        <v>352</v>
+      </c>
+      <c r="H199" t="s">
+        <v>128</v>
+      </c>
+      <c r="I199" t="s">
+        <v>19</v>
+      </c>
+      <c r="J199">
+        <v>1</v>
+      </c>
+      <c r="K199">
+        <v>1356500</v>
+      </c>
+      <c r="L199">
+        <v>1356500</v>
+      </c>
+    </row>
+    <row r="200" spans="1:12">
+      <c r="A200">
+        <v>197</v>
+      </c>
+      <c r="B200">
+        <v>626402</v>
+      </c>
+      <c r="C200" t="s">
+        <v>13</v>
+      </c>
+      <c r="D200" t="s">
+        <v>334</v>
+      </c>
+      <c r="E200" t="s">
+        <v>353</v>
+      </c>
+      <c r="F200" t="s">
+        <v>354</v>
+      </c>
+      <c r="G200" t="s">
+        <v>177</v>
+      </c>
+      <c r="H200" t="s">
+        <v>355</v>
+      </c>
+      <c r="I200" t="s">
+        <v>19</v>
+      </c>
+      <c r="J200">
+        <v>1</v>
+      </c>
+      <c r="K200">
+        <v>8099000</v>
+      </c>
+      <c r="L200">
+        <v>8099000</v>
+      </c>
+    </row>
+    <row r="201" spans="1:12">
+      <c r="A201">
+        <v>198</v>
+      </c>
+      <c r="B201">
+        <v>626402</v>
+      </c>
+      <c r="C201" t="s">
+        <v>13</v>
+      </c>
+      <c r="D201" t="s">
+        <v>334</v>
+      </c>
+      <c r="E201" t="s">
+        <v>353</v>
+      </c>
+      <c r="F201" t="s">
+        <v>354</v>
+      </c>
+      <c r="G201" t="s">
+        <v>177</v>
+      </c>
+      <c r="H201" t="s">
+        <v>356</v>
+      </c>
+      <c r="I201" t="s">
+        <v>19</v>
+      </c>
+      <c r="J201">
+        <v>1</v>
+      </c>
+      <c r="K201">
+        <v>2054100</v>
+      </c>
+      <c r="L201">
+        <v>2054100</v>
+      </c>
+    </row>
+    <row r="202" spans="1:12">
+      <c r="A202">
+        <v>199</v>
+      </c>
+      <c r="B202">
+        <v>626402</v>
+      </c>
+      <c r="C202" t="s">
+        <v>13</v>
+      </c>
+      <c r="D202" t="s">
+        <v>334</v>
+      </c>
+      <c r="E202" t="s">
+        <v>353</v>
+      </c>
+      <c r="F202" t="s">
+        <v>354</v>
+      </c>
+      <c r="G202" t="s">
+        <v>177</v>
+      </c>
+      <c r="H202" t="s">
+        <v>357</v>
+      </c>
+      <c r="I202" t="s">
+        <v>19</v>
+      </c>
+      <c r="J202">
+        <v>1</v>
+      </c>
+      <c r="K202">
+        <v>3485000</v>
+      </c>
+      <c r="L202">
+        <v>3485000</v>
+      </c>
+    </row>
+    <row r="203" spans="1:12">
+      <c r="A203">
+        <v>200</v>
+      </c>
+      <c r="B203">
+        <v>626402</v>
+      </c>
+      <c r="C203" t="s">
+        <v>13</v>
+      </c>
+      <c r="D203" t="s">
+        <v>334</v>
+      </c>
+      <c r="E203" t="s">
+        <v>353</v>
+      </c>
+      <c r="F203" t="s">
+        <v>354</v>
+      </c>
+      <c r="G203" t="s">
+        <v>177</v>
+      </c>
+      <c r="H203" t="s">
+        <v>358</v>
+      </c>
+      <c r="I203" t="s">
+        <v>19</v>
+      </c>
+      <c r="J203">
+        <v>1</v>
+      </c>
+      <c r="K203">
+        <v>1560000</v>
+      </c>
+      <c r="L203">
+        <v>1560000</v>
+      </c>
+    </row>
+    <row r="204" spans="1:12">
+      <c r="A204">
+        <v>201</v>
+      </c>
+      <c r="B204">
+        <v>626402</v>
+      </c>
+      <c r="C204" t="s">
+        <v>13</v>
+      </c>
+      <c r="D204" t="s">
+        <v>346</v>
+      </c>
+      <c r="E204" t="s">
+        <v>359</v>
+      </c>
+      <c r="F204" t="s">
+        <v>360</v>
+      </c>
+      <c r="G204" t="s">
+        <v>361</v>
+      </c>
+      <c r="H204" t="s">
+        <v>362</v>
+      </c>
+      <c r="I204" t="s">
+        <v>19</v>
+      </c>
+      <c r="J204">
+        <v>1</v>
+      </c>
+      <c r="K204">
+        <v>2935600</v>
+      </c>
+      <c r="L204">
+        <v>2935600</v>
+      </c>
+    </row>
+    <row r="205" spans="1:12">
+      <c r="A205">
+        <v>202</v>
+      </c>
+      <c r="B205">
+        <v>626402</v>
+      </c>
+      <c r="C205" t="s">
+        <v>13</v>
+      </c>
+      <c r="D205" t="s">
+        <v>346</v>
+      </c>
+      <c r="E205" t="s">
+        <v>359</v>
+      </c>
+      <c r="F205" t="s">
+        <v>360</v>
+      </c>
+      <c r="G205" t="s">
+        <v>361</v>
+      </c>
+      <c r="H205" t="s">
+        <v>363</v>
+      </c>
+      <c r="I205" t="s">
+        <v>19</v>
+      </c>
+      <c r="J205">
+        <v>1</v>
+      </c>
+      <c r="K205">
+        <v>108631940</v>
+      </c>
+      <c r="L205">
+        <v>108631940</v>
+      </c>
+    </row>
+    <row r="206" spans="1:12">
+      <c r="A206">
+        <v>203</v>
+      </c>
+      <c r="B206">
+        <v>626402</v>
+      </c>
+      <c r="C206" t="s">
+        <v>13</v>
+      </c>
+      <c r="D206" t="s">
+        <v>346</v>
+      </c>
+      <c r="E206" t="s">
+        <v>359</v>
+      </c>
+      <c r="F206" t="s">
+        <v>360</v>
+      </c>
+      <c r="G206" t="s">
+        <v>361</v>
+      </c>
+      <c r="H206" t="s">
+        <v>364</v>
+      </c>
+      <c r="I206" t="s">
+        <v>19</v>
+      </c>
+      <c r="J206">
+        <v>1</v>
+      </c>
+      <c r="K206">
+        <v>150000</v>
+      </c>
+      <c r="L206">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="207" spans="1:12">
+      <c r="A207">
+        <v>204</v>
+      </c>
+      <c r="B207">
+        <v>626402</v>
+      </c>
+      <c r="C207" t="s">
+        <v>13</v>
+      </c>
+      <c r="D207" t="s">
+        <v>346</v>
+      </c>
+      <c r="E207" t="s">
+        <v>365</v>
+      </c>
+      <c r="F207" t="s">
+        <v>366</v>
+      </c>
+      <c r="G207" t="s">
+        <v>367</v>
+      </c>
+      <c r="H207" t="s">
+        <v>368</v>
+      </c>
+      <c r="I207" t="s">
+        <v>19</v>
+      </c>
+      <c r="J207">
+        <v>1</v>
+      </c>
+      <c r="K207">
+        <v>198871146</v>
+      </c>
+      <c r="L207">
+        <v>198871146</v>
+      </c>
+    </row>
+    <row r="208" spans="1:12">
+      <c r="A208">
+        <v>205</v>
+      </c>
+      <c r="B208">
+        <v>626402</v>
+      </c>
+      <c r="C208" t="s">
+        <v>13</v>
+      </c>
+      <c r="D208" t="s">
+        <v>346</v>
+      </c>
+      <c r="E208" t="s">
+        <v>369</v>
+      </c>
+      <c r="F208" t="s">
+        <v>370</v>
+      </c>
+      <c r="G208" t="s">
+        <v>371</v>
+      </c>
+      <c r="H208" t="s">
+        <v>372</v>
+      </c>
+      <c r="I208" t="s">
+        <v>19</v>
+      </c>
+      <c r="J208">
+        <v>1</v>
+      </c>
+      <c r="K208">
+        <v>412680289</v>
+      </c>
+      <c r="L208">
+        <v>412680289</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12">
+      <c r="A209">
+        <v>206</v>
+      </c>
+      <c r="B209">
+        <v>626402</v>
+      </c>
+      <c r="C209" t="s">
+        <v>13</v>
+      </c>
+      <c r="D209" t="s">
+        <v>346</v>
+      </c>
+      <c r="E209" t="s">
+        <v>373</v>
+      </c>
+      <c r="F209" t="s">
+        <v>374</v>
+      </c>
+      <c r="G209" t="s">
+        <v>375</v>
+      </c>
+      <c r="H209" t="s">
+        <v>80</v>
+      </c>
+      <c r="I209" t="s">
+        <v>19</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>203211317</v>
+      </c>
+      <c r="L209">
+        <v>203211317</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="494">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -902,6 +902,21 @@
     <t>Pembayaran belanja barang berupa biaya perjadin sesuai ST No. B.829/BPPSDM.1/KP.440/I/2024 Tanggal 26 Januari 2024 a.n Rizky Hendriansyah, dkk</t>
   </si>
   <si>
+    <t>2024-02-13</t>
+  </si>
+  <si>
+    <t>'00062T</t>
+  </si>
+  <si>
+    <t>'241751303001743</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang.Prog Dr FITB-ITB Serdik KKP Sem 2 TA 2023/2024,Sem 1 TA 2024/2025 an.Freshty,dkk,SPK No:531/PPK.PUSDIK/PL.530/I/2024 tgl 19-1-2024,BAST No:85/PPK.PUSDIK/PL.530/I/2024 tgl 31-1-2024,BAP No:86/PPK.PUSDIK/PL.530/I/2024 tgl 31-1-2024</t>
+  </si>
+  <si>
+    <t>'626402.175.521219.03212WA.4345EBC.A000000001.00000.1.0151.2.000000.000000.996.301.0A.001332</t>
+  </si>
+  <si>
     <t>2024-02-06</t>
   </si>
   <si>
@@ -1094,6 +1109,60 @@
     <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0D.001479</t>
   </si>
   <si>
+    <t>2024-02-15</t>
+  </si>
+  <si>
+    <t>'00079T</t>
+  </si>
+  <si>
+    <t>'241751303001768</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.92/BPPSDM.5/KP.440/I/2024 Tgl.18 Januari 2024 </t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0D.001477</t>
+  </si>
+  <si>
+    <t>'00080T</t>
+  </si>
+  <si>
+    <t>'241751303001796</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.115/BPPSDM.5/KP.440/I/2024 Tgl.23 Januari 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0D.000987</t>
+  </si>
+  <si>
+    <t>'00081T</t>
+  </si>
+  <si>
+    <t>'241751303001797</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.122/BPPSDM.5/KP.440/I/2024 Tgl.23 Januari 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0B.000964</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0B.001471</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0B.001472</t>
+  </si>
+  <si>
+    <t>'00082T</t>
+  </si>
+  <si>
+    <t>'241751303001798</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.121/BPPSDM.5/KP.440/I/2024 Tgl.23 Januari 2024</t>
+  </si>
+  <si>
     <t>'00083T</t>
   </si>
   <si>
@@ -1112,6 +1181,18 @@
     <t>'626402.175.524114.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.103.0A.000860</t>
   </si>
   <si>
+    <t>'00084T</t>
+  </si>
+  <si>
+    <t>'241751301002101</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:009/PE/KWT/I/2024 Tgl.30-1-2024</t>
+  </si>
+  <si>
+    <t>'626402.175.523111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BC.000508</t>
+  </si>
+  <si>
     <t>'00085T</t>
   </si>
   <si>
@@ -1143,6 +1224,279 @@
   </si>
   <si>
     <t>Pembayaran tunjangan kinerja susulan bulan Januari tahun 2024 untuk 40 Pegawai/Anggota Polri/Prajurit TNI (Pusdik KP)</t>
+  </si>
+  <si>
+    <t>'00088T</t>
+  </si>
+  <si>
+    <t>'241751303001715</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan KKP untuk keperluan belanja barang (BPP 001 Set. BRSDM)</t>
+  </si>
+  <si>
+    <t>'00089T</t>
+  </si>
+  <si>
+    <t>'241751302001895</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:3/PPK/BRSDM.1/I/2024 Tgl.2-1-2024,BAST No:BAST.221/PPK/BRSDM.1/I/2024 Tgl.31-1-2024,BAP No:222/PPK/BRSDM.1/I/2024 Tgl.31-1-2024 Pengadaan Jasa tenaga kebersihan sekretariat BRSDM TA 2024 Termin 1</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BA.000499</t>
+  </si>
+  <si>
+    <t>'00090T</t>
+  </si>
+  <si>
+    <t>'241751301002103</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:4/PPK/BRSDM.1/I/2024 Tgl.2-1-2024,BAST No:BAST.223/PPK/BRSDM.1/I/2024 Tgl.31-1-2024,BAP No:224/PPK/BRSDM.1/I/2024 Tgl.31-1-2024 Pengadaan jasa satuan pegamanan sekretariat BRSDM TA 2024 Termin 1</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BA.000498</t>
+  </si>
+  <si>
+    <t>'00091T</t>
+  </si>
+  <si>
+    <t>'241751303001727</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No. B.226,B.311/BPPSDM.1/KP.440/I/2024 Tanggal 10 dan 15 Januari 2024 a.n Don Bapkas Nisnoni, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0A.000879</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0A.000881</t>
+  </si>
+  <si>
+    <t>'00092T</t>
+  </si>
+  <si>
+    <t>'241751303001737</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 001/KWT-2/AMA/I/2024 Tanggal 31 Januari 2024</t>
+  </si>
+  <si>
+    <t>'00093T</t>
+  </si>
+  <si>
+    <t>'241751303001738</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 002/KWT-2/AMA/I/2024 Tanggal 31 Januari 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AC.000453</t>
+  </si>
+  <si>
+    <t>'00094T</t>
+  </si>
+  <si>
+    <t>'241751303001714</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan untuk keperluan belanja barang (BPP 001 Set.BRSDM)</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BA.001607</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BA.001608</t>
+  </si>
+  <si>
+    <t>'626402.175.522191.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AA.000440</t>
+  </si>
+  <si>
+    <t>'00097T</t>
+  </si>
+  <si>
+    <t>'241751303001934</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan untuk keperluan belanja barang (BPP001 Puslatluh KP)</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DA.000528</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DD.000553</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0D.000044</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0F.000061</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0E.000090</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0A.000096</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0B.000109</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0C.000155</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0D.000979</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0E.000091</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0E.000092</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0B.001428</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0B.001429</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0E.001455</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0E.001456</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.201.0C.001143</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.201.0C.001500</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.201.0C.001501</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0B.000079</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0E.000093</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0A.000104</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0B.000115</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0C.000162</t>
+  </si>
+  <si>
+    <t>'626402.175.524119.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0C.000976</t>
+  </si>
+  <si>
+    <t>'00098T</t>
+  </si>
+  <si>
+    <t>'241751303001799</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.247/BRSDM/KP.440/I/2024 Tgl.15 Januari 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0A.000603</t>
+  </si>
+  <si>
+    <t>'00099T</t>
+  </si>
+  <si>
+    <t>'241751302001937</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:003 Tanggal 02 Februari 2024</t>
+  </si>
+  <si>
+    <t>'00100T</t>
+  </si>
+  <si>
+    <t>'241751301002187</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:2/PPK/BRSDM.1/I/2024 Tgl.2-1-2024,BAST No:BAST.225/BRSDM.1/I/2024 Tgl.31-1-2024,BAP No:226/PPK/BRSDM.1/I/2024 Tgl.31-1-2024 Pengadaan jasa internet provider sekretariat BRSDM TA 2024 Termin 1</t>
+  </si>
+  <si>
+    <t>'626402.175.522119.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BB.000503</t>
+  </si>
+  <si>
+    <t>'00101T</t>
+  </si>
+  <si>
+    <t>'241751301002182</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai SPK No:161/PPK/BRSDM.1/I/2024 Tgl.23-1-2024,BAST No:BAST.191//PPK/BRSDM.1/I/2024 Tgl.26-1-2024,BAP No:192/PPK/BRSDM.1/I/2024 Tgl.26-1-2024 </t>
+  </si>
+  <si>
+    <t>'626402.175.524119.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AA.001367</t>
+  </si>
+  <si>
+    <t>'00102T</t>
+  </si>
+  <si>
+    <t>'241751301002183</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:162/PPK/BRSDM.1/I/2024 Tgl.23-1-2024,BAST No:BAST.193/PPK/BRSDM.1/I/2024 Tgl.26-1-2024,BAP No:194/PPK/BRSDM.1/I/2024 Tgl.26-1-2024 Paket Fullboard Meeting Pengelolaan Kepegawaian dan PNBP Lingkup BPPSDM</t>
+  </si>
+  <si>
+    <t>'626402.175.524119.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.101.0B.000836</t>
+  </si>
+  <si>
+    <t>'00103T</t>
+  </si>
+  <si>
+    <t>'241751302001917</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK NO:171/PPK/BRSDM.1/I/2024 Tgl.24-1-2024,BAST NO:BAST.194/PPK/BRSDM.1/I/2024 Tgl.26-1-2024, BAP No:195/PPK/BRSDM.1/I/2024 Tgl.26-1-2024 Jasa Penyelenggaraan Kegiatan Peningkatan Kapasitas Pegawai BRSDM</t>
+  </si>
+  <si>
+    <t>'626402.175.522191.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.101.0B.000834</t>
+  </si>
+  <si>
+    <t>'00104T</t>
+  </si>
+  <si>
+    <t>'241751303001852</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan KKP untuk keperluan belanja modal (BPP 001 Set.BRSDM)</t>
+  </si>
+  <si>
+    <t>'626402.175.532111.03212WA.2378EBB.A000000001.00000.1.0151.2.000000.000000.951.103.0A.000818</t>
+  </si>
+  <si>
+    <t>'00105T</t>
+  </si>
+  <si>
+    <t>'241751303001851</t>
+  </si>
+  <si>
+    <t>Penggantian Uang Persediaan KKP Untuk Keperluan Pembayaran Belanja Barang (BPP 001 Set.BRSDM)</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AC.001085</t>
+  </si>
+  <si>
+    <t>'626402.175.522119.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AB.000443</t>
+  </si>
+  <si>
+    <t>'00110T</t>
+  </si>
+  <si>
+    <t>'241751303001935</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AC.001090</t>
   </si>
 </sst>
 </file>
@@ -1484,7 +1838,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L209"/>
+  <dimension ref="A1:L284"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -8258,10 +8612,10 @@
         <v>1</v>
       </c>
       <c r="K180">
-        <v>2316500</v>
+        <v>360000000</v>
       </c>
       <c r="L180">
-        <v>2316500</v>
+        <v>360000000</v>
       </c>
     </row>
     <row r="181" spans="1:12">
@@ -8275,19 +8629,19 @@
         <v>13</v>
       </c>
       <c r="D181" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E181" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F181" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G181" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H181" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="I181" t="s">
         <v>19</v>
@@ -8296,10 +8650,10 @@
         <v>1</v>
       </c>
       <c r="K181">
-        <v>1205000</v>
+        <v>2316500</v>
       </c>
       <c r="L181">
-        <v>1205000</v>
+        <v>2316500</v>
       </c>
     </row>
     <row r="182" spans="1:12">
@@ -8313,19 +8667,19 @@
         <v>13</v>
       </c>
       <c r="D182" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E182" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F182" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G182" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H182" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="I182" t="s">
         <v>19</v>
@@ -8334,10 +8688,10 @@
         <v>1</v>
       </c>
       <c r="K182">
-        <v>630000</v>
+        <v>1205000</v>
       </c>
       <c r="L182">
-        <v>630000</v>
+        <v>1205000</v>
       </c>
     </row>
     <row r="183" spans="1:12">
@@ -8351,19 +8705,19 @@
         <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E183" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="F183" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="G183" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="H183" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="I183" t="s">
         <v>19</v>
@@ -8372,10 +8726,10 @@
         <v>1</v>
       </c>
       <c r="K183">
-        <v>510000</v>
+        <v>630000</v>
       </c>
       <c r="L183">
-        <v>510000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="184" spans="1:12">
@@ -8389,19 +8743,19 @@
         <v>13</v>
       </c>
       <c r="D184" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E184" t="s">
+        <v>301</v>
+      </c>
+      <c r="F184" t="s">
+        <v>302</v>
+      </c>
+      <c r="G184" t="s">
         <v>303</v>
       </c>
-      <c r="F184" t="s">
-        <v>304</v>
-      </c>
-      <c r="G184" t="s">
-        <v>305</v>
-      </c>
       <c r="H184" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I184" t="s">
         <v>19</v>
@@ -8410,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="K184">
-        <v>1700000</v>
+        <v>510000</v>
       </c>
       <c r="L184">
-        <v>1700000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="185" spans="1:12">
@@ -8427,19 +8781,19 @@
         <v>13</v>
       </c>
       <c r="D185" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E185" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="F185" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G185" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H185" t="s">
-        <v>274</v>
+        <v>311</v>
       </c>
       <c r="I185" t="s">
         <v>19</v>
@@ -8448,10 +8802,10 @@
         <v>1</v>
       </c>
       <c r="K185">
-        <v>5907000</v>
+        <v>1700000</v>
       </c>
       <c r="L185">
-        <v>5907000</v>
+        <v>1700000</v>
       </c>
     </row>
     <row r="186" spans="1:12">
@@ -8465,19 +8819,19 @@
         <v>13</v>
       </c>
       <c r="D186" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E186" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F186" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G186" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="H186" t="s">
-        <v>313</v>
+        <v>274</v>
       </c>
       <c r="I186" t="s">
         <v>19</v>
@@ -8486,10 +8840,10 @@
         <v>1</v>
       </c>
       <c r="K186">
-        <v>3897000</v>
+        <v>5907000</v>
       </c>
       <c r="L186">
-        <v>3897000</v>
+        <v>5907000</v>
       </c>
     </row>
     <row r="187" spans="1:12">
@@ -8503,19 +8857,19 @@
         <v>13</v>
       </c>
       <c r="D187" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E187" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F187" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="G187" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="H187" t="s">
-        <v>131</v>
+        <v>318</v>
       </c>
       <c r="I187" t="s">
         <v>19</v>
@@ -8524,10 +8878,10 @@
         <v>1</v>
       </c>
       <c r="K187">
-        <v>5410000</v>
+        <v>3897000</v>
       </c>
       <c r="L187">
-        <v>5410000</v>
+        <v>3897000</v>
       </c>
     </row>
     <row r="188" spans="1:12">
@@ -8541,19 +8895,19 @@
         <v>13</v>
       </c>
       <c r="D188" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E188" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F188" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G188" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H188" t="s">
-        <v>290</v>
+        <v>131</v>
       </c>
       <c r="I188" t="s">
         <v>19</v>
@@ -8562,10 +8916,10 @@
         <v>1</v>
       </c>
       <c r="K188">
-        <v>520000</v>
+        <v>5410000</v>
       </c>
       <c r="L188">
-        <v>520000</v>
+        <v>5410000</v>
       </c>
     </row>
     <row r="189" spans="1:12">
@@ -8579,19 +8933,19 @@
         <v>13</v>
       </c>
       <c r="D189" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E189" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F189" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="G189" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="H189" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I189" t="s">
         <v>19</v>
@@ -8600,10 +8954,10 @@
         <v>1</v>
       </c>
       <c r="K189">
-        <v>850000</v>
+        <v>520000</v>
       </c>
       <c r="L189">
-        <v>850000</v>
+        <v>520000</v>
       </c>
     </row>
     <row r="190" spans="1:12">
@@ -8617,19 +8971,19 @@
         <v>13</v>
       </c>
       <c r="D190" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E190" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="F190" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="G190" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="H190" t="s">
-        <v>118</v>
+        <v>291</v>
       </c>
       <c r="I190" t="s">
         <v>19</v>
@@ -8638,10 +8992,10 @@
         <v>1</v>
       </c>
       <c r="K190">
-        <v>29064400</v>
+        <v>850000</v>
       </c>
       <c r="L190">
-        <v>29064400</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="191" spans="1:12">
@@ -8655,19 +9009,19 @@
         <v>13</v>
       </c>
       <c r="D191" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E191" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="F191" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="G191" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="H191" t="s">
-        <v>326</v>
+        <v>118</v>
       </c>
       <c r="I191" t="s">
         <v>19</v>
@@ -8676,10 +9030,10 @@
         <v>1</v>
       </c>
       <c r="K191">
-        <v>40120000</v>
+        <v>29064400</v>
       </c>
       <c r="L191">
-        <v>40120000</v>
+        <v>29064400</v>
       </c>
     </row>
     <row r="192" spans="1:12">
@@ -8693,19 +9047,19 @@
         <v>13</v>
       </c>
       <c r="D192" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E192" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F192" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="G192" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="H192" t="s">
-        <v>109</v>
+        <v>331</v>
       </c>
       <c r="I192" t="s">
         <v>19</v>
@@ -8714,10 +9068,10 @@
         <v>1</v>
       </c>
       <c r="K192">
-        <v>17650000</v>
+        <v>40120000</v>
       </c>
       <c r="L192">
-        <v>17650000</v>
+        <v>40120000</v>
       </c>
     </row>
     <row r="193" spans="1:12">
@@ -8731,19 +9085,19 @@
         <v>13</v>
       </c>
       <c r="D193" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E193" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="F193" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="G193" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="H193" t="s">
-        <v>330</v>
+        <v>109</v>
       </c>
       <c r="I193" t="s">
         <v>19</v>
@@ -8752,10 +9106,10 @@
         <v>1</v>
       </c>
       <c r="K193">
-        <v>20000000</v>
+        <v>17650000</v>
       </c>
       <c r="L193">
-        <v>20000000</v>
+        <v>17650000</v>
       </c>
     </row>
     <row r="194" spans="1:12">
@@ -8769,19 +9123,19 @@
         <v>13</v>
       </c>
       <c r="D194" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E194" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F194" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="G194" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="H194" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="I194" t="s">
         <v>19</v>
@@ -8790,10 +9144,10 @@
         <v>1</v>
       </c>
       <c r="K194">
-        <v>23931600</v>
+        <v>20000000</v>
       </c>
       <c r="L194">
-        <v>23931600</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="195" spans="1:12">
@@ -8807,19 +9161,19 @@
         <v>13</v>
       </c>
       <c r="D195" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
       <c r="E195" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="F195" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G195" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="H195" t="s">
-        <v>338</v>
+        <v>268</v>
       </c>
       <c r="I195" t="s">
         <v>19</v>
@@ -8828,10 +9182,10 @@
         <v>1</v>
       </c>
       <c r="K195">
-        <v>28720670</v>
+        <v>23931600</v>
       </c>
       <c r="L195">
-        <v>28720670</v>
+        <v>23931600</v>
       </c>
     </row>
     <row r="196" spans="1:12">
@@ -8845,19 +9199,19 @@
         <v>13</v>
       </c>
       <c r="D196" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E196" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F196" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="G196" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="H196" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I196" t="s">
         <v>19</v>
@@ -8883,19 +9237,19 @@
         <v>13</v>
       </c>
       <c r="D197" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E197" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F197" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="G197" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="H197" t="s">
-        <v>342</v>
+        <v>347</v>
       </c>
       <c r="I197" t="s">
         <v>19</v>
@@ -8904,10 +9258,10 @@
         <v>1</v>
       </c>
       <c r="K197">
-        <v>7428768</v>
+        <v>28720670</v>
       </c>
       <c r="L197">
-        <v>7428768</v>
+        <v>28720670</v>
       </c>
     </row>
     <row r="198" spans="1:12">
@@ -8921,20 +9275,20 @@
         <v>13</v>
       </c>
       <c r="D198" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E198" t="s">
+        <v>348</v>
+      </c>
+      <c r="F198" t="s">
+        <v>349</v>
+      </c>
+      <c r="G198" t="s">
+        <v>350</v>
+      </c>
+      <c r="H198" t="s">
         <v>347</v>
       </c>
-      <c r="F198" t="s">
-        <v>348</v>
-      </c>
-      <c r="G198" t="s">
-        <v>349</v>
-      </c>
-      <c r="H198" t="s">
-        <v>198</v>
-      </c>
       <c r="I198" t="s">
         <v>19</v>
       </c>
@@ -8942,10 +9296,10 @@
         <v>1</v>
       </c>
       <c r="K198">
-        <v>14600000</v>
+        <v>7428768</v>
       </c>
       <c r="L198">
-        <v>14600000</v>
+        <v>7428768</v>
       </c>
     </row>
     <row r="199" spans="1:12">
@@ -8959,19 +9313,19 @@
         <v>13</v>
       </c>
       <c r="D199" t="s">
-        <v>334</v>
+        <v>351</v>
       </c>
       <c r="E199" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F199" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="G199" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="H199" t="s">
-        <v>128</v>
+        <v>198</v>
       </c>
       <c r="I199" t="s">
         <v>19</v>
@@ -8980,10 +9334,10 @@
         <v>1</v>
       </c>
       <c r="K199">
-        <v>1356500</v>
+        <v>14600000</v>
       </c>
       <c r="L199">
-        <v>1356500</v>
+        <v>14600000</v>
       </c>
     </row>
     <row r="200" spans="1:12">
@@ -8997,19 +9351,19 @@
         <v>13</v>
       </c>
       <c r="D200" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E200" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F200" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="G200" t="s">
-        <v>177</v>
+        <v>357</v>
       </c>
       <c r="H200" t="s">
-        <v>355</v>
+        <v>128</v>
       </c>
       <c r="I200" t="s">
         <v>19</v>
@@ -9018,10 +9372,10 @@
         <v>1</v>
       </c>
       <c r="K200">
-        <v>8099000</v>
+        <v>1356500</v>
       </c>
       <c r="L200">
-        <v>8099000</v>
+        <v>1356500</v>
       </c>
     </row>
     <row r="201" spans="1:12">
@@ -9035,19 +9389,19 @@
         <v>13</v>
       </c>
       <c r="D201" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E201" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F201" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G201" t="s">
         <v>177</v>
       </c>
       <c r="H201" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="I201" t="s">
         <v>19</v>
@@ -9056,10 +9410,10 @@
         <v>1</v>
       </c>
       <c r="K201">
-        <v>2054100</v>
+        <v>8099000</v>
       </c>
       <c r="L201">
-        <v>2054100</v>
+        <v>8099000</v>
       </c>
     </row>
     <row r="202" spans="1:12">
@@ -9073,19 +9427,19 @@
         <v>13</v>
       </c>
       <c r="D202" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E202" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F202" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G202" t="s">
         <v>177</v>
       </c>
       <c r="H202" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="I202" t="s">
         <v>19</v>
@@ -9094,10 +9448,10 @@
         <v>1</v>
       </c>
       <c r="K202">
-        <v>3485000</v>
+        <v>2054100</v>
       </c>
       <c r="L202">
-        <v>3485000</v>
+        <v>2054100</v>
       </c>
     </row>
     <row r="203" spans="1:12">
@@ -9111,19 +9465,19 @@
         <v>13</v>
       </c>
       <c r="D203" t="s">
-        <v>334</v>
+        <v>339</v>
       </c>
       <c r="E203" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="F203" t="s">
-        <v>354</v>
+        <v>359</v>
       </c>
       <c r="G203" t="s">
         <v>177</v>
       </c>
       <c r="H203" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="I203" t="s">
         <v>19</v>
@@ -9132,10 +9486,10 @@
         <v>1</v>
       </c>
       <c r="K203">
-        <v>1560000</v>
+        <v>3485000</v>
       </c>
       <c r="L203">
-        <v>1560000</v>
+        <v>3485000</v>
       </c>
     </row>
     <row r="204" spans="1:12">
@@ -9149,19 +9503,19 @@
         <v>13</v>
       </c>
       <c r="D204" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E204" t="s">
+        <v>358</v>
+      </c>
+      <c r="F204" t="s">
         <v>359</v>
       </c>
-      <c r="F204" t="s">
-        <v>360</v>
-      </c>
       <c r="G204" t="s">
-        <v>361</v>
+        <v>177</v>
       </c>
       <c r="H204" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I204" t="s">
         <v>19</v>
@@ -9170,10 +9524,10 @@
         <v>1</v>
       </c>
       <c r="K204">
-        <v>2935600</v>
+        <v>1560000</v>
       </c>
       <c r="L204">
-        <v>2935600</v>
+        <v>1560000</v>
       </c>
     </row>
     <row r="205" spans="1:12">
@@ -9187,19 +9541,19 @@
         <v>13</v>
       </c>
       <c r="D205" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="E205" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F205" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G205" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H205" t="s">
-        <v>363</v>
+        <v>368</v>
       </c>
       <c r="I205" t="s">
         <v>19</v>
@@ -9208,10 +9562,10 @@
         <v>1</v>
       </c>
       <c r="K205">
-        <v>108631940</v>
+        <v>1110000</v>
       </c>
       <c r="L205">
-        <v>108631940</v>
+        <v>1110000</v>
       </c>
     </row>
     <row r="206" spans="1:12">
@@ -9225,19 +9579,19 @@
         <v>13</v>
       </c>
       <c r="D206" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="E206" t="s">
-        <v>359</v>
+        <v>365</v>
       </c>
       <c r="F206" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="G206" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="H206" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="I206" t="s">
         <v>19</v>
@@ -9246,10 +9600,10 @@
         <v>1</v>
       </c>
       <c r="K206">
-        <v>150000</v>
+        <v>1498000</v>
       </c>
       <c r="L206">
-        <v>150000</v>
+        <v>1498000</v>
       </c>
     </row>
     <row r="207" spans="1:12">
@@ -9263,7 +9617,7 @@
         <v>13</v>
       </c>
       <c r="D207" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="E207" t="s">
         <v>365</v>
@@ -9275,7 +9629,7 @@
         <v>367</v>
       </c>
       <c r="H207" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="I207" t="s">
         <v>19</v>
@@ -9284,10 +9638,10 @@
         <v>1</v>
       </c>
       <c r="K207">
-        <v>198871146</v>
+        <v>691700</v>
       </c>
       <c r="L207">
-        <v>198871146</v>
+        <v>691700</v>
       </c>
     </row>
     <row r="208" spans="1:12">
@@ -9301,7 +9655,7 @@
         <v>13</v>
       </c>
       <c r="D208" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="E208" t="s">
         <v>369</v>
@@ -9322,10 +9676,10 @@
         <v>1</v>
       </c>
       <c r="K208">
-        <v>412680289</v>
+        <v>590000</v>
       </c>
       <c r="L208">
-        <v>412680289</v>
+        <v>590000</v>
       </c>
     </row>
     <row r="209" spans="1:12">
@@ -9339,31 +9693,2881 @@
         <v>13</v>
       </c>
       <c r="D209" t="s">
-        <v>346</v>
+        <v>364</v>
       </c>
       <c r="E209" t="s">
+        <v>369</v>
+      </c>
+      <c r="F209" t="s">
+        <v>370</v>
+      </c>
+      <c r="G209" t="s">
+        <v>371</v>
+      </c>
+      <c r="H209" t="s">
+        <v>368</v>
+      </c>
+      <c r="I209" t="s">
+        <v>19</v>
+      </c>
+      <c r="J209">
+        <v>1</v>
+      </c>
+      <c r="K209">
+        <v>1850000</v>
+      </c>
+      <c r="L209">
+        <v>1850000</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12">
+      <c r="A210">
+        <v>207</v>
+      </c>
+      <c r="B210">
+        <v>626402</v>
+      </c>
+      <c r="C210" t="s">
+        <v>13</v>
+      </c>
+      <c r="D210" t="s">
+        <v>364</v>
+      </c>
+      <c r="E210" t="s">
+        <v>369</v>
+      </c>
+      <c r="F210" t="s">
+        <v>370</v>
+      </c>
+      <c r="G210" t="s">
+        <v>371</v>
+      </c>
+      <c r="H210" t="s">
+        <v>362</v>
+      </c>
+      <c r="I210" t="s">
+        <v>19</v>
+      </c>
+      <c r="J210">
+        <v>1</v>
+      </c>
+      <c r="K210">
+        <v>2067000</v>
+      </c>
+      <c r="L210">
+        <v>2067000</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12">
+      <c r="A211">
+        <v>208</v>
+      </c>
+      <c r="B211">
+        <v>626402</v>
+      </c>
+      <c r="C211" t="s">
+        <v>13</v>
+      </c>
+      <c r="D211" t="s">
+        <v>364</v>
+      </c>
+      <c r="E211" t="s">
+        <v>369</v>
+      </c>
+      <c r="F211" t="s">
+        <v>370</v>
+      </c>
+      <c r="G211" t="s">
+        <v>371</v>
+      </c>
+      <c r="H211" t="s">
+        <v>363</v>
+      </c>
+      <c r="I211" t="s">
+        <v>19</v>
+      </c>
+      <c r="J211">
+        <v>1</v>
+      </c>
+      <c r="K211">
+        <v>574500</v>
+      </c>
+      <c r="L211">
+        <v>574500</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12">
+      <c r="A212">
+        <v>209</v>
+      </c>
+      <c r="B212">
+        <v>626402</v>
+      </c>
+      <c r="C212" t="s">
+        <v>13</v>
+      </c>
+      <c r="D212" t="s">
+        <v>364</v>
+      </c>
+      <c r="E212" t="s">
         <v>373</v>
       </c>
-      <c r="F209" t="s">
+      <c r="F212" t="s">
         <v>374</v>
       </c>
-      <c r="G209" t="s">
+      <c r="G212" t="s">
         <v>375</v>
       </c>
-      <c r="H209" t="s">
+      <c r="H212" t="s">
+        <v>376</v>
+      </c>
+      <c r="I212" t="s">
+        <v>19</v>
+      </c>
+      <c r="J212">
+        <v>1</v>
+      </c>
+      <c r="K212">
+        <v>1110300</v>
+      </c>
+      <c r="L212">
+        <v>1110300</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12">
+      <c r="A213">
+        <v>210</v>
+      </c>
+      <c r="B213">
+        <v>626402</v>
+      </c>
+      <c r="C213" t="s">
+        <v>13</v>
+      </c>
+      <c r="D213" t="s">
+        <v>364</v>
+      </c>
+      <c r="E213" t="s">
+        <v>373</v>
+      </c>
+      <c r="F213" t="s">
+        <v>374</v>
+      </c>
+      <c r="G213" t="s">
+        <v>375</v>
+      </c>
+      <c r="H213" t="s">
+        <v>377</v>
+      </c>
+      <c r="I213" t="s">
+        <v>19</v>
+      </c>
+      <c r="J213">
+        <v>1</v>
+      </c>
+      <c r="K213">
+        <v>760000</v>
+      </c>
+      <c r="L213">
+        <v>760000</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12">
+      <c r="A214">
+        <v>211</v>
+      </c>
+      <c r="B214">
+        <v>626402</v>
+      </c>
+      <c r="C214" t="s">
+        <v>13</v>
+      </c>
+      <c r="D214" t="s">
+        <v>364</v>
+      </c>
+      <c r="E214" t="s">
+        <v>373</v>
+      </c>
+      <c r="F214" t="s">
+        <v>374</v>
+      </c>
+      <c r="G214" t="s">
+        <v>375</v>
+      </c>
+      <c r="H214" t="s">
+        <v>378</v>
+      </c>
+      <c r="I214" t="s">
+        <v>19</v>
+      </c>
+      <c r="J214">
+        <v>1</v>
+      </c>
+      <c r="K214">
+        <v>750000</v>
+      </c>
+      <c r="L214">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12">
+      <c r="A215">
+        <v>212</v>
+      </c>
+      <c r="B215">
+        <v>626402</v>
+      </c>
+      <c r="C215" t="s">
+        <v>13</v>
+      </c>
+      <c r="D215" t="s">
+        <v>364</v>
+      </c>
+      <c r="E215" t="s">
+        <v>379</v>
+      </c>
+      <c r="F215" t="s">
+        <v>380</v>
+      </c>
+      <c r="G215" t="s">
+        <v>381</v>
+      </c>
+      <c r="H215" t="s">
+        <v>376</v>
+      </c>
+      <c r="I215" t="s">
+        <v>19</v>
+      </c>
+      <c r="J215">
+        <v>1</v>
+      </c>
+      <c r="K215">
+        <v>1466300</v>
+      </c>
+      <c r="L215">
+        <v>1466300</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12">
+      <c r="A216">
+        <v>213</v>
+      </c>
+      <c r="B216">
+        <v>626402</v>
+      </c>
+      <c r="C216" t="s">
+        <v>13</v>
+      </c>
+      <c r="D216" t="s">
+        <v>364</v>
+      </c>
+      <c r="E216" t="s">
+        <v>379</v>
+      </c>
+      <c r="F216" t="s">
+        <v>380</v>
+      </c>
+      <c r="G216" t="s">
+        <v>381</v>
+      </c>
+      <c r="H216" t="s">
+        <v>377</v>
+      </c>
+      <c r="I216" t="s">
+        <v>19</v>
+      </c>
+      <c r="J216">
+        <v>1</v>
+      </c>
+      <c r="K216">
+        <v>2960000</v>
+      </c>
+      <c r="L216">
+        <v>2960000</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
+      <c r="A217">
+        <v>214</v>
+      </c>
+      <c r="B217">
+        <v>626402</v>
+      </c>
+      <c r="C217" t="s">
+        <v>13</v>
+      </c>
+      <c r="D217" t="s">
+        <v>364</v>
+      </c>
+      <c r="E217" t="s">
+        <v>379</v>
+      </c>
+      <c r="F217" t="s">
+        <v>380</v>
+      </c>
+      <c r="G217" t="s">
+        <v>381</v>
+      </c>
+      <c r="H217" t="s">
+        <v>378</v>
+      </c>
+      <c r="I217" t="s">
+        <v>19</v>
+      </c>
+      <c r="J217">
+        <v>1</v>
+      </c>
+      <c r="K217">
+        <v>3576000</v>
+      </c>
+      <c r="L217">
+        <v>3576000</v>
+      </c>
+    </row>
+    <row r="218" spans="1:12">
+      <c r="A218">
+        <v>215</v>
+      </c>
+      <c r="B218">
+        <v>626402</v>
+      </c>
+      <c r="C218" t="s">
+        <v>13</v>
+      </c>
+      <c r="D218" t="s">
+        <v>364</v>
+      </c>
+      <c r="E218" t="s">
+        <v>379</v>
+      </c>
+      <c r="F218" t="s">
+        <v>380</v>
+      </c>
+      <c r="G218" t="s">
+        <v>381</v>
+      </c>
+      <c r="H218" t="s">
+        <v>361</v>
+      </c>
+      <c r="I218" t="s">
+        <v>19</v>
+      </c>
+      <c r="J218">
+        <v>1</v>
+      </c>
+      <c r="K218">
+        <v>210000</v>
+      </c>
+      <c r="L218">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="A219">
+        <v>216</v>
+      </c>
+      <c r="B219">
+        <v>626402</v>
+      </c>
+      <c r="C219" t="s">
+        <v>13</v>
+      </c>
+      <c r="D219" t="s">
+        <v>351</v>
+      </c>
+      <c r="E219" t="s">
+        <v>382</v>
+      </c>
+      <c r="F219" t="s">
+        <v>383</v>
+      </c>
+      <c r="G219" t="s">
+        <v>384</v>
+      </c>
+      <c r="H219" t="s">
+        <v>385</v>
+      </c>
+      <c r="I219" t="s">
+        <v>19</v>
+      </c>
+      <c r="J219">
+        <v>1</v>
+      </c>
+      <c r="K219">
+        <v>2935600</v>
+      </c>
+      <c r="L219">
+        <v>2935600</v>
+      </c>
+    </row>
+    <row r="220" spans="1:12">
+      <c r="A220">
+        <v>217</v>
+      </c>
+      <c r="B220">
+        <v>626402</v>
+      </c>
+      <c r="C220" t="s">
+        <v>13</v>
+      </c>
+      <c r="D220" t="s">
+        <v>351</v>
+      </c>
+      <c r="E220" t="s">
+        <v>382</v>
+      </c>
+      <c r="F220" t="s">
+        <v>383</v>
+      </c>
+      <c r="G220" t="s">
+        <v>384</v>
+      </c>
+      <c r="H220" t="s">
+        <v>386</v>
+      </c>
+      <c r="I220" t="s">
+        <v>19</v>
+      </c>
+      <c r="J220">
+        <v>1</v>
+      </c>
+      <c r="K220">
+        <v>108631940</v>
+      </c>
+      <c r="L220">
+        <v>108631940</v>
+      </c>
+    </row>
+    <row r="221" spans="1:12">
+      <c r="A221">
+        <v>218</v>
+      </c>
+      <c r="B221">
+        <v>626402</v>
+      </c>
+      <c r="C221" t="s">
+        <v>13</v>
+      </c>
+      <c r="D221" t="s">
+        <v>351</v>
+      </c>
+      <c r="E221" t="s">
+        <v>382</v>
+      </c>
+      <c r="F221" t="s">
+        <v>383</v>
+      </c>
+      <c r="G221" t="s">
+        <v>384</v>
+      </c>
+      <c r="H221" t="s">
+        <v>387</v>
+      </c>
+      <c r="I221" t="s">
+        <v>19</v>
+      </c>
+      <c r="J221">
+        <v>1</v>
+      </c>
+      <c r="K221">
+        <v>150000</v>
+      </c>
+      <c r="L221">
+        <v>150000</v>
+      </c>
+    </row>
+    <row r="222" spans="1:12">
+      <c r="A222">
+        <v>219</v>
+      </c>
+      <c r="B222">
+        <v>626402</v>
+      </c>
+      <c r="C222" t="s">
+        <v>13</v>
+      </c>
+      <c r="D222" t="s">
+        <v>364</v>
+      </c>
+      <c r="E222" t="s">
+        <v>388</v>
+      </c>
+      <c r="F222" t="s">
+        <v>389</v>
+      </c>
+      <c r="G222" t="s">
+        <v>390</v>
+      </c>
+      <c r="H222" t="s">
+        <v>391</v>
+      </c>
+      <c r="I222" t="s">
+        <v>19</v>
+      </c>
+      <c r="J222">
+        <v>1</v>
+      </c>
+      <c r="K222">
+        <v>5311350</v>
+      </c>
+      <c r="L222">
+        <v>5311350</v>
+      </c>
+    </row>
+    <row r="223" spans="1:12">
+      <c r="A223">
+        <v>220</v>
+      </c>
+      <c r="B223">
+        <v>626402</v>
+      </c>
+      <c r="C223" t="s">
+        <v>13</v>
+      </c>
+      <c r="D223" t="s">
+        <v>351</v>
+      </c>
+      <c r="E223" t="s">
+        <v>392</v>
+      </c>
+      <c r="F223" t="s">
+        <v>393</v>
+      </c>
+      <c r="G223" t="s">
+        <v>394</v>
+      </c>
+      <c r="H223" t="s">
+        <v>395</v>
+      </c>
+      <c r="I223" t="s">
+        <v>19</v>
+      </c>
+      <c r="J223">
+        <v>1</v>
+      </c>
+      <c r="K223">
+        <v>198871146</v>
+      </c>
+      <c r="L223">
+        <v>198871146</v>
+      </c>
+    </row>
+    <row r="224" spans="1:12">
+      <c r="A224">
+        <v>221</v>
+      </c>
+      <c r="B224">
+        <v>626402</v>
+      </c>
+      <c r="C224" t="s">
+        <v>13</v>
+      </c>
+      <c r="D224" t="s">
+        <v>351</v>
+      </c>
+      <c r="E224" t="s">
+        <v>396</v>
+      </c>
+      <c r="F224" t="s">
+        <v>397</v>
+      </c>
+      <c r="G224" t="s">
+        <v>398</v>
+      </c>
+      <c r="H224" t="s">
+        <v>399</v>
+      </c>
+      <c r="I224" t="s">
+        <v>19</v>
+      </c>
+      <c r="J224">
+        <v>1</v>
+      </c>
+      <c r="K224">
+        <v>412680289</v>
+      </c>
+      <c r="L224">
+        <v>412680289</v>
+      </c>
+    </row>
+    <row r="225" spans="1:12">
+      <c r="A225">
+        <v>222</v>
+      </c>
+      <c r="B225">
+        <v>626402</v>
+      </c>
+      <c r="C225" t="s">
+        <v>13</v>
+      </c>
+      <c r="D225" t="s">
+        <v>351</v>
+      </c>
+      <c r="E225" t="s">
+        <v>400</v>
+      </c>
+      <c r="F225" t="s">
+        <v>401</v>
+      </c>
+      <c r="G225" t="s">
+        <v>402</v>
+      </c>
+      <c r="H225" t="s">
         <v>80</v>
       </c>
-      <c r="I209" t="s">
-        <v>19</v>
-      </c>
-      <c r="J209">
-        <v>1</v>
-      </c>
-      <c r="K209">
+      <c r="I225" t="s">
+        <v>19</v>
+      </c>
+      <c r="J225">
+        <v>1</v>
+      </c>
+      <c r="K225">
         <v>203211317</v>
       </c>
-      <c r="L209">
+      <c r="L225">
         <v>203211317</v>
+      </c>
+    </row>
+    <row r="226" spans="1:12">
+      <c r="A226">
+        <v>223</v>
+      </c>
+      <c r="B226">
+        <v>626402</v>
+      </c>
+      <c r="C226" t="s">
+        <v>13</v>
+      </c>
+      <c r="D226" t="s">
+        <v>351</v>
+      </c>
+      <c r="E226" t="s">
+        <v>403</v>
+      </c>
+      <c r="F226" t="s">
+        <v>404</v>
+      </c>
+      <c r="G226" t="s">
+        <v>405</v>
+      </c>
+      <c r="H226" t="s">
+        <v>318</v>
+      </c>
+      <c r="I226" t="s">
+        <v>19</v>
+      </c>
+      <c r="J226">
+        <v>1</v>
+      </c>
+      <c r="K226">
+        <v>4931320</v>
+      </c>
+      <c r="L226">
+        <v>4931320</v>
+      </c>
+    </row>
+    <row r="227" spans="1:12">
+      <c r="A227">
+        <v>224</v>
+      </c>
+      <c r="B227">
+        <v>626402</v>
+      </c>
+      <c r="C227" t="s">
+        <v>13</v>
+      </c>
+      <c r="D227" t="s">
+        <v>351</v>
+      </c>
+      <c r="E227" t="s">
+        <v>403</v>
+      </c>
+      <c r="F227" t="s">
+        <v>404</v>
+      </c>
+      <c r="G227" t="s">
+        <v>405</v>
+      </c>
+      <c r="H227" t="s">
+        <v>274</v>
+      </c>
+      <c r="I227" t="s">
+        <v>19</v>
+      </c>
+      <c r="J227">
+        <v>1</v>
+      </c>
+      <c r="K227">
+        <v>27862906</v>
+      </c>
+      <c r="L227">
+        <v>27862906</v>
+      </c>
+    </row>
+    <row r="228" spans="1:12">
+      <c r="A228">
+        <v>225</v>
+      </c>
+      <c r="B228">
+        <v>626402</v>
+      </c>
+      <c r="C228" t="s">
+        <v>13</v>
+      </c>
+      <c r="D228" t="s">
+        <v>364</v>
+      </c>
+      <c r="E228" t="s">
+        <v>406</v>
+      </c>
+      <c r="F228" t="s">
+        <v>407</v>
+      </c>
+      <c r="G228" t="s">
+        <v>408</v>
+      </c>
+      <c r="H228" t="s">
+        <v>409</v>
+      </c>
+      <c r="I228" t="s">
+        <v>19</v>
+      </c>
+      <c r="J228">
+        <v>1</v>
+      </c>
+      <c r="K228">
+        <v>219712619</v>
+      </c>
+      <c r="L228">
+        <v>219712619</v>
+      </c>
+    </row>
+    <row r="229" spans="1:12">
+      <c r="A229">
+        <v>226</v>
+      </c>
+      <c r="B229">
+        <v>626402</v>
+      </c>
+      <c r="C229" t="s">
+        <v>13</v>
+      </c>
+      <c r="D229" t="s">
+        <v>364</v>
+      </c>
+      <c r="E229" t="s">
+        <v>410</v>
+      </c>
+      <c r="F229" t="s">
+        <v>411</v>
+      </c>
+      <c r="G229" t="s">
+        <v>412</v>
+      </c>
+      <c r="H229" t="s">
+        <v>413</v>
+      </c>
+      <c r="I229" t="s">
+        <v>19</v>
+      </c>
+      <c r="J229">
+        <v>1</v>
+      </c>
+      <c r="K229">
+        <v>162678384</v>
+      </c>
+      <c r="L229">
+        <v>162678384</v>
+      </c>
+    </row>
+    <row r="230" spans="1:12">
+      <c r="A230">
+        <v>227</v>
+      </c>
+      <c r="B230">
+        <v>626402</v>
+      </c>
+      <c r="C230" t="s">
+        <v>13</v>
+      </c>
+      <c r="D230" t="s">
+        <v>364</v>
+      </c>
+      <c r="E230" t="s">
+        <v>414</v>
+      </c>
+      <c r="F230" t="s">
+        <v>415</v>
+      </c>
+      <c r="G230" t="s">
+        <v>416</v>
+      </c>
+      <c r="H230" t="s">
+        <v>417</v>
+      </c>
+      <c r="I230" t="s">
+        <v>19</v>
+      </c>
+      <c r="J230">
+        <v>1</v>
+      </c>
+      <c r="K230">
+        <v>680000</v>
+      </c>
+      <c r="L230">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="231" spans="1:12">
+      <c r="A231">
+        <v>228</v>
+      </c>
+      <c r="B231">
+        <v>626402</v>
+      </c>
+      <c r="C231" t="s">
+        <v>13</v>
+      </c>
+      <c r="D231" t="s">
+        <v>364</v>
+      </c>
+      <c r="E231" t="s">
+        <v>414</v>
+      </c>
+      <c r="F231" t="s">
+        <v>415</v>
+      </c>
+      <c r="G231" t="s">
+        <v>416</v>
+      </c>
+      <c r="H231" t="s">
+        <v>418</v>
+      </c>
+      <c r="I231" t="s">
+        <v>19</v>
+      </c>
+      <c r="J231">
+        <v>1</v>
+      </c>
+      <c r="K231">
+        <v>520000</v>
+      </c>
+      <c r="L231">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="232" spans="1:12">
+      <c r="A232">
+        <v>229</v>
+      </c>
+      <c r="B232">
+        <v>626402</v>
+      </c>
+      <c r="C232" t="s">
+        <v>13</v>
+      </c>
+      <c r="D232" t="s">
+        <v>364</v>
+      </c>
+      <c r="E232" t="s">
+        <v>414</v>
+      </c>
+      <c r="F232" t="s">
+        <v>415</v>
+      </c>
+      <c r="G232" t="s">
+        <v>416</v>
+      </c>
+      <c r="H232" t="s">
+        <v>331</v>
+      </c>
+      <c r="I232" t="s">
+        <v>19</v>
+      </c>
+      <c r="J232">
+        <v>1</v>
+      </c>
+      <c r="K232">
+        <v>23600000</v>
+      </c>
+      <c r="L232">
+        <v>23600000</v>
+      </c>
+    </row>
+    <row r="233" spans="1:12">
+      <c r="A233">
+        <v>230</v>
+      </c>
+      <c r="B233">
+        <v>626402</v>
+      </c>
+      <c r="C233" t="s">
+        <v>13</v>
+      </c>
+      <c r="D233" t="s">
+        <v>364</v>
+      </c>
+      <c r="E233" t="s">
+        <v>414</v>
+      </c>
+      <c r="F233" t="s">
+        <v>415</v>
+      </c>
+      <c r="G233" t="s">
+        <v>416</v>
+      </c>
+      <c r="H233" t="s">
+        <v>109</v>
+      </c>
+      <c r="I233" t="s">
+        <v>19</v>
+      </c>
+      <c r="J233">
+        <v>1</v>
+      </c>
+      <c r="K233">
+        <v>6610000</v>
+      </c>
+      <c r="L233">
+        <v>6610000</v>
+      </c>
+    </row>
+    <row r="234" spans="1:12">
+      <c r="A234">
+        <v>231</v>
+      </c>
+      <c r="B234">
+        <v>626402</v>
+      </c>
+      <c r="C234" t="s">
+        <v>13</v>
+      </c>
+      <c r="D234" t="s">
+        <v>364</v>
+      </c>
+      <c r="E234" t="s">
+        <v>419</v>
+      </c>
+      <c r="F234" t="s">
+        <v>420</v>
+      </c>
+      <c r="G234" t="s">
+        <v>421</v>
+      </c>
+      <c r="H234" t="s">
+        <v>269</v>
+      </c>
+      <c r="I234" t="s">
+        <v>19</v>
+      </c>
+      <c r="J234">
+        <v>1</v>
+      </c>
+      <c r="K234">
+        <v>4828500</v>
+      </c>
+      <c r="L234">
+        <v>4828500</v>
+      </c>
+    </row>
+    <row r="235" spans="1:12">
+      <c r="A235">
+        <v>232</v>
+      </c>
+      <c r="B235">
+        <v>626402</v>
+      </c>
+      <c r="C235" t="s">
+        <v>13</v>
+      </c>
+      <c r="D235" t="s">
+        <v>364</v>
+      </c>
+      <c r="E235" t="s">
+        <v>422</v>
+      </c>
+      <c r="F235" t="s">
+        <v>423</v>
+      </c>
+      <c r="G235" t="s">
+        <v>424</v>
+      </c>
+      <c r="H235" t="s">
+        <v>425</v>
+      </c>
+      <c r="I235" t="s">
+        <v>19</v>
+      </c>
+      <c r="J235">
+        <v>1</v>
+      </c>
+      <c r="K235">
+        <v>825000</v>
+      </c>
+      <c r="L235">
+        <v>825000</v>
+      </c>
+    </row>
+    <row r="236" spans="1:12">
+      <c r="A236">
+        <v>233</v>
+      </c>
+      <c r="B236">
+        <v>626402</v>
+      </c>
+      <c r="C236" t="s">
+        <v>13</v>
+      </c>
+      <c r="D236" t="s">
+        <v>351</v>
+      </c>
+      <c r="E236" t="s">
+        <v>426</v>
+      </c>
+      <c r="F236" t="s">
+        <v>427</v>
+      </c>
+      <c r="G236" t="s">
+        <v>428</v>
+      </c>
+      <c r="H236" t="s">
+        <v>254</v>
+      </c>
+      <c r="I236" t="s">
+        <v>19</v>
+      </c>
+      <c r="J236">
+        <v>1</v>
+      </c>
+      <c r="K236">
+        <v>23400000</v>
+      </c>
+      <c r="L236">
+        <v>23400000</v>
+      </c>
+    </row>
+    <row r="237" spans="1:12">
+      <c r="A237">
+        <v>234</v>
+      </c>
+      <c r="B237">
+        <v>626402</v>
+      </c>
+      <c r="C237" t="s">
+        <v>13</v>
+      </c>
+      <c r="D237" t="s">
+        <v>351</v>
+      </c>
+      <c r="E237" t="s">
+        <v>426</v>
+      </c>
+      <c r="F237" t="s">
+        <v>427</v>
+      </c>
+      <c r="G237" t="s">
+        <v>428</v>
+      </c>
+      <c r="H237" t="s">
+        <v>429</v>
+      </c>
+      <c r="I237" t="s">
+        <v>19</v>
+      </c>
+      <c r="J237">
+        <v>1</v>
+      </c>
+      <c r="K237">
+        <v>22460000</v>
+      </c>
+      <c r="L237">
+        <v>22460000</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12">
+      <c r="A238">
+        <v>235</v>
+      </c>
+      <c r="B238">
+        <v>626402</v>
+      </c>
+      <c r="C238" t="s">
+        <v>13</v>
+      </c>
+      <c r="D238" t="s">
+        <v>351</v>
+      </c>
+      <c r="E238" t="s">
+        <v>426</v>
+      </c>
+      <c r="F238" t="s">
+        <v>427</v>
+      </c>
+      <c r="G238" t="s">
+        <v>428</v>
+      </c>
+      <c r="H238" t="s">
+        <v>430</v>
+      </c>
+      <c r="I238" t="s">
+        <v>19</v>
+      </c>
+      <c r="J238">
+        <v>1</v>
+      </c>
+      <c r="K238">
+        <v>40832000</v>
+      </c>
+      <c r="L238">
+        <v>40832000</v>
+      </c>
+    </row>
+    <row r="239" spans="1:12">
+      <c r="A239">
+        <v>236</v>
+      </c>
+      <c r="B239">
+        <v>626402</v>
+      </c>
+      <c r="C239" t="s">
+        <v>13</v>
+      </c>
+      <c r="D239" t="s">
+        <v>351</v>
+      </c>
+      <c r="E239" t="s">
+        <v>426</v>
+      </c>
+      <c r="F239" t="s">
+        <v>427</v>
+      </c>
+      <c r="G239" t="s">
+        <v>428</v>
+      </c>
+      <c r="H239" t="s">
+        <v>431</v>
+      </c>
+      <c r="I239" t="s">
+        <v>19</v>
+      </c>
+      <c r="J239">
+        <v>1</v>
+      </c>
+      <c r="K239">
+        <v>750000</v>
+      </c>
+      <c r="L239">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="240" spans="1:12">
+      <c r="A240">
+        <v>237</v>
+      </c>
+      <c r="B240">
+        <v>626402</v>
+      </c>
+      <c r="C240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D240" t="s">
+        <v>351</v>
+      </c>
+      <c r="E240" t="s">
+        <v>426</v>
+      </c>
+      <c r="F240" t="s">
+        <v>427</v>
+      </c>
+      <c r="G240" t="s">
+        <v>428</v>
+      </c>
+      <c r="H240" t="s">
+        <v>391</v>
+      </c>
+      <c r="I240" t="s">
+        <v>19</v>
+      </c>
+      <c r="J240">
+        <v>1</v>
+      </c>
+      <c r="K240">
+        <v>12243300</v>
+      </c>
+      <c r="L240">
+        <v>12243300</v>
+      </c>
+    </row>
+    <row r="241" spans="1:12">
+      <c r="A241">
+        <v>238</v>
+      </c>
+      <c r="B241">
+        <v>626402</v>
+      </c>
+      <c r="C241" t="s">
+        <v>13</v>
+      </c>
+      <c r="D241" t="s">
+        <v>351</v>
+      </c>
+      <c r="E241" t="s">
+        <v>426</v>
+      </c>
+      <c r="F241" t="s">
+        <v>427</v>
+      </c>
+      <c r="G241" t="s">
+        <v>428</v>
+      </c>
+      <c r="H241" t="s">
+        <v>269</v>
+      </c>
+      <c r="I241" t="s">
+        <v>19</v>
+      </c>
+      <c r="J241">
+        <v>1</v>
+      </c>
+      <c r="K241">
+        <v>152000</v>
+      </c>
+      <c r="L241">
+        <v>152000</v>
+      </c>
+    </row>
+    <row r="242" spans="1:12">
+      <c r="A242">
+        <v>239</v>
+      </c>
+      <c r="B242">
+        <v>626402</v>
+      </c>
+      <c r="C242" t="s">
+        <v>13</v>
+      </c>
+      <c r="D242" t="s">
+        <v>364</v>
+      </c>
+      <c r="E242" t="s">
+        <v>432</v>
+      </c>
+      <c r="F242" t="s">
+        <v>433</v>
+      </c>
+      <c r="G242" t="s">
+        <v>434</v>
+      </c>
+      <c r="H242" t="s">
+        <v>435</v>
+      </c>
+      <c r="I242" t="s">
+        <v>19</v>
+      </c>
+      <c r="J242">
+        <v>1</v>
+      </c>
+      <c r="K242">
+        <v>4828000</v>
+      </c>
+      <c r="L242">
+        <v>4828000</v>
+      </c>
+    </row>
+    <row r="243" spans="1:12">
+      <c r="A243">
+        <v>240</v>
+      </c>
+      <c r="B243">
+        <v>626402</v>
+      </c>
+      <c r="C243" t="s">
+        <v>13</v>
+      </c>
+      <c r="D243" t="s">
+        <v>364</v>
+      </c>
+      <c r="E243" t="s">
+        <v>432</v>
+      </c>
+      <c r="F243" t="s">
+        <v>433</v>
+      </c>
+      <c r="G243" t="s">
+        <v>434</v>
+      </c>
+      <c r="H243" t="s">
+        <v>436</v>
+      </c>
+      <c r="I243" t="s">
+        <v>19</v>
+      </c>
+      <c r="J243">
+        <v>1</v>
+      </c>
+      <c r="K243">
+        <v>516000</v>
+      </c>
+      <c r="L243">
+        <v>516000</v>
+      </c>
+    </row>
+    <row r="244" spans="1:12">
+      <c r="A244">
+        <v>241</v>
+      </c>
+      <c r="B244">
+        <v>626402</v>
+      </c>
+      <c r="C244" t="s">
+        <v>13</v>
+      </c>
+      <c r="D244" t="s">
+        <v>364</v>
+      </c>
+      <c r="E244" t="s">
+        <v>432</v>
+      </c>
+      <c r="F244" t="s">
+        <v>433</v>
+      </c>
+      <c r="G244" t="s">
+        <v>434</v>
+      </c>
+      <c r="H244" t="s">
+        <v>437</v>
+      </c>
+      <c r="I244" t="s">
+        <v>19</v>
+      </c>
+      <c r="J244">
+        <v>1</v>
+      </c>
+      <c r="K244">
+        <v>220000</v>
+      </c>
+      <c r="L244">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="245" spans="1:12">
+      <c r="A245">
+        <v>242</v>
+      </c>
+      <c r="B245">
+        <v>626402</v>
+      </c>
+      <c r="C245" t="s">
+        <v>13</v>
+      </c>
+      <c r="D245" t="s">
+        <v>364</v>
+      </c>
+      <c r="E245" t="s">
+        <v>432</v>
+      </c>
+      <c r="F245" t="s">
+        <v>433</v>
+      </c>
+      <c r="G245" t="s">
+        <v>434</v>
+      </c>
+      <c r="H245" t="s">
+        <v>438</v>
+      </c>
+      <c r="I245" t="s">
+        <v>19</v>
+      </c>
+      <c r="J245">
+        <v>1</v>
+      </c>
+      <c r="K245">
+        <v>1680000</v>
+      </c>
+      <c r="L245">
+        <v>1680000</v>
+      </c>
+    </row>
+    <row r="246" spans="1:12">
+      <c r="A246">
+        <v>243</v>
+      </c>
+      <c r="B246">
+        <v>626402</v>
+      </c>
+      <c r="C246" t="s">
+        <v>13</v>
+      </c>
+      <c r="D246" t="s">
+        <v>364</v>
+      </c>
+      <c r="E246" t="s">
+        <v>432</v>
+      </c>
+      <c r="F246" t="s">
+        <v>433</v>
+      </c>
+      <c r="G246" t="s">
+        <v>434</v>
+      </c>
+      <c r="H246" t="s">
+        <v>439</v>
+      </c>
+      <c r="I246" t="s">
+        <v>19</v>
+      </c>
+      <c r="J246">
+        <v>1</v>
+      </c>
+      <c r="K246">
+        <v>3000000</v>
+      </c>
+      <c r="L246">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="247" spans="1:12">
+      <c r="A247">
+        <v>244</v>
+      </c>
+      <c r="B247">
+        <v>626402</v>
+      </c>
+      <c r="C247" t="s">
+        <v>13</v>
+      </c>
+      <c r="D247" t="s">
+        <v>364</v>
+      </c>
+      <c r="E247" t="s">
+        <v>432</v>
+      </c>
+      <c r="F247" t="s">
+        <v>433</v>
+      </c>
+      <c r="G247" t="s">
+        <v>434</v>
+      </c>
+      <c r="H247" t="s">
+        <v>440</v>
+      </c>
+      <c r="I247" t="s">
+        <v>19</v>
+      </c>
+      <c r="J247">
+        <v>1</v>
+      </c>
+      <c r="K247">
+        <v>1870000</v>
+      </c>
+      <c r="L247">
+        <v>1870000</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12">
+      <c r="A248">
+        <v>245</v>
+      </c>
+      <c r="B248">
+        <v>626402</v>
+      </c>
+      <c r="C248" t="s">
+        <v>13</v>
+      </c>
+      <c r="D248" t="s">
+        <v>364</v>
+      </c>
+      <c r="E248" t="s">
+        <v>432</v>
+      </c>
+      <c r="F248" t="s">
+        <v>433</v>
+      </c>
+      <c r="G248" t="s">
+        <v>434</v>
+      </c>
+      <c r="H248" t="s">
+        <v>441</v>
+      </c>
+      <c r="I248" t="s">
+        <v>19</v>
+      </c>
+      <c r="J248">
+        <v>1</v>
+      </c>
+      <c r="K248">
+        <v>876000</v>
+      </c>
+      <c r="L248">
+        <v>876000</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12">
+      <c r="A249">
+        <v>246</v>
+      </c>
+      <c r="B249">
+        <v>626402</v>
+      </c>
+      <c r="C249" t="s">
+        <v>13</v>
+      </c>
+      <c r="D249" t="s">
+        <v>364</v>
+      </c>
+      <c r="E249" t="s">
+        <v>432</v>
+      </c>
+      <c r="F249" t="s">
+        <v>433</v>
+      </c>
+      <c r="G249" t="s">
+        <v>434</v>
+      </c>
+      <c r="H249" t="s">
+        <v>442</v>
+      </c>
+      <c r="I249" t="s">
+        <v>19</v>
+      </c>
+      <c r="J249">
+        <v>1</v>
+      </c>
+      <c r="K249">
+        <v>1077500</v>
+      </c>
+      <c r="L249">
+        <v>1077500</v>
+      </c>
+    </row>
+    <row r="250" spans="1:12">
+      <c r="A250">
+        <v>247</v>
+      </c>
+      <c r="B250">
+        <v>626402</v>
+      </c>
+      <c r="C250" t="s">
+        <v>13</v>
+      </c>
+      <c r="D250" t="s">
+        <v>364</v>
+      </c>
+      <c r="E250" t="s">
+        <v>432</v>
+      </c>
+      <c r="F250" t="s">
+        <v>433</v>
+      </c>
+      <c r="G250" t="s">
+        <v>434</v>
+      </c>
+      <c r="H250" t="s">
+        <v>443</v>
+      </c>
+      <c r="I250" t="s">
+        <v>19</v>
+      </c>
+      <c r="J250">
+        <v>1</v>
+      </c>
+      <c r="K250">
+        <v>2360000</v>
+      </c>
+      <c r="L250">
+        <v>2360000</v>
+      </c>
+    </row>
+    <row r="251" spans="1:12">
+      <c r="A251">
+        <v>248</v>
+      </c>
+      <c r="B251">
+        <v>626402</v>
+      </c>
+      <c r="C251" t="s">
+        <v>13</v>
+      </c>
+      <c r="D251" t="s">
+        <v>364</v>
+      </c>
+      <c r="E251" t="s">
+        <v>432</v>
+      </c>
+      <c r="F251" t="s">
+        <v>433</v>
+      </c>
+      <c r="G251" t="s">
+        <v>434</v>
+      </c>
+      <c r="H251" t="s">
+        <v>444</v>
+      </c>
+      <c r="I251" t="s">
+        <v>19</v>
+      </c>
+      <c r="J251">
+        <v>1</v>
+      </c>
+      <c r="K251">
+        <v>990000</v>
+      </c>
+      <c r="L251">
+        <v>990000</v>
+      </c>
+    </row>
+    <row r="252" spans="1:12">
+      <c r="A252">
+        <v>249</v>
+      </c>
+      <c r="B252">
+        <v>626402</v>
+      </c>
+      <c r="C252" t="s">
+        <v>13</v>
+      </c>
+      <c r="D252" t="s">
+        <v>364</v>
+      </c>
+      <c r="E252" t="s">
+        <v>432</v>
+      </c>
+      <c r="F252" t="s">
+        <v>433</v>
+      </c>
+      <c r="G252" t="s">
+        <v>434</v>
+      </c>
+      <c r="H252" t="s">
+        <v>445</v>
+      </c>
+      <c r="I252" t="s">
+        <v>19</v>
+      </c>
+      <c r="J252">
+        <v>1</v>
+      </c>
+      <c r="K252">
+        <v>1000000</v>
+      </c>
+      <c r="L252">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="253" spans="1:12">
+      <c r="A253">
+        <v>250</v>
+      </c>
+      <c r="B253">
+        <v>626402</v>
+      </c>
+      <c r="C253" t="s">
+        <v>13</v>
+      </c>
+      <c r="D253" t="s">
+        <v>364</v>
+      </c>
+      <c r="E253" t="s">
+        <v>432</v>
+      </c>
+      <c r="F253" t="s">
+        <v>433</v>
+      </c>
+      <c r="G253" t="s">
+        <v>434</v>
+      </c>
+      <c r="H253" t="s">
+        <v>446</v>
+      </c>
+      <c r="I253" t="s">
+        <v>19</v>
+      </c>
+      <c r="J253">
+        <v>1</v>
+      </c>
+      <c r="K253">
+        <v>1720000</v>
+      </c>
+      <c r="L253">
+        <v>1720000</v>
+      </c>
+    </row>
+    <row r="254" spans="1:12">
+      <c r="A254">
+        <v>251</v>
+      </c>
+      <c r="B254">
+        <v>626402</v>
+      </c>
+      <c r="C254" t="s">
+        <v>13</v>
+      </c>
+      <c r="D254" t="s">
+        <v>364</v>
+      </c>
+      <c r="E254" t="s">
+        <v>432</v>
+      </c>
+      <c r="F254" t="s">
+        <v>433</v>
+      </c>
+      <c r="G254" t="s">
+        <v>434</v>
+      </c>
+      <c r="H254" t="s">
+        <v>447</v>
+      </c>
+      <c r="I254" t="s">
+        <v>19</v>
+      </c>
+      <c r="J254">
+        <v>1</v>
+      </c>
+      <c r="K254">
+        <v>798900</v>
+      </c>
+      <c r="L254">
+        <v>798900</v>
+      </c>
+    </row>
+    <row r="255" spans="1:12">
+      <c r="A255">
+        <v>252</v>
+      </c>
+      <c r="B255">
+        <v>626402</v>
+      </c>
+      <c r="C255" t="s">
+        <v>13</v>
+      </c>
+      <c r="D255" t="s">
+        <v>364</v>
+      </c>
+      <c r="E255" t="s">
+        <v>432</v>
+      </c>
+      <c r="F255" t="s">
+        <v>433</v>
+      </c>
+      <c r="G255" t="s">
+        <v>434</v>
+      </c>
+      <c r="H255" t="s">
+        <v>234</v>
+      </c>
+      <c r="I255" t="s">
+        <v>19</v>
+      </c>
+      <c r="J255">
+        <v>1</v>
+      </c>
+      <c r="K255">
+        <v>2496920</v>
+      </c>
+      <c r="L255">
+        <v>2496920</v>
+      </c>
+    </row>
+    <row r="256" spans="1:12">
+      <c r="A256">
+        <v>253</v>
+      </c>
+      <c r="B256">
+        <v>626402</v>
+      </c>
+      <c r="C256" t="s">
+        <v>13</v>
+      </c>
+      <c r="D256" t="s">
+        <v>364</v>
+      </c>
+      <c r="E256" t="s">
+        <v>432</v>
+      </c>
+      <c r="F256" t="s">
+        <v>433</v>
+      </c>
+      <c r="G256" t="s">
+        <v>434</v>
+      </c>
+      <c r="H256" t="s">
+        <v>236</v>
+      </c>
+      <c r="I256" t="s">
+        <v>19</v>
+      </c>
+      <c r="J256">
+        <v>1</v>
+      </c>
+      <c r="K256">
+        <v>1080000</v>
+      </c>
+      <c r="L256">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="257" spans="1:12">
+      <c r="A257">
+        <v>254</v>
+      </c>
+      <c r="B257">
+        <v>626402</v>
+      </c>
+      <c r="C257" t="s">
+        <v>13</v>
+      </c>
+      <c r="D257" t="s">
+        <v>364</v>
+      </c>
+      <c r="E257" t="s">
+        <v>432</v>
+      </c>
+      <c r="F257" t="s">
+        <v>433</v>
+      </c>
+      <c r="G257" t="s">
+        <v>434</v>
+      </c>
+      <c r="H257" t="s">
+        <v>237</v>
+      </c>
+      <c r="I257" t="s">
+        <v>19</v>
+      </c>
+      <c r="J257">
+        <v>1</v>
+      </c>
+      <c r="K257">
+        <v>205500</v>
+      </c>
+      <c r="L257">
+        <v>205500</v>
+      </c>
+    </row>
+    <row r="258" spans="1:12">
+      <c r="A258">
+        <v>255</v>
+      </c>
+      <c r="B258">
+        <v>626402</v>
+      </c>
+      <c r="C258" t="s">
+        <v>13</v>
+      </c>
+      <c r="D258" t="s">
+        <v>364</v>
+      </c>
+      <c r="E258" t="s">
+        <v>432</v>
+      </c>
+      <c r="F258" t="s">
+        <v>433</v>
+      </c>
+      <c r="G258" t="s">
+        <v>434</v>
+      </c>
+      <c r="H258" t="s">
+        <v>448</v>
+      </c>
+      <c r="I258" t="s">
+        <v>19</v>
+      </c>
+      <c r="J258">
+        <v>1</v>
+      </c>
+      <c r="K258">
+        <v>370000</v>
+      </c>
+      <c r="L258">
+        <v>370000</v>
+      </c>
+    </row>
+    <row r="259" spans="1:12">
+      <c r="A259">
+        <v>256</v>
+      </c>
+      <c r="B259">
+        <v>626402</v>
+      </c>
+      <c r="C259" t="s">
+        <v>13</v>
+      </c>
+      <c r="D259" t="s">
+        <v>364</v>
+      </c>
+      <c r="E259" t="s">
+        <v>432</v>
+      </c>
+      <c r="F259" t="s">
+        <v>433</v>
+      </c>
+      <c r="G259" t="s">
+        <v>434</v>
+      </c>
+      <c r="H259" t="s">
+        <v>449</v>
+      </c>
+      <c r="I259" t="s">
+        <v>19</v>
+      </c>
+      <c r="J259">
+        <v>1</v>
+      </c>
+      <c r="K259">
+        <v>517500</v>
+      </c>
+      <c r="L259">
+        <v>517500</v>
+      </c>
+    </row>
+    <row r="260" spans="1:12">
+      <c r="A260">
+        <v>257</v>
+      </c>
+      <c r="B260">
+        <v>626402</v>
+      </c>
+      <c r="C260" t="s">
+        <v>13</v>
+      </c>
+      <c r="D260" t="s">
+        <v>364</v>
+      </c>
+      <c r="E260" t="s">
+        <v>432</v>
+      </c>
+      <c r="F260" t="s">
+        <v>433</v>
+      </c>
+      <c r="G260" t="s">
+        <v>434</v>
+      </c>
+      <c r="H260" t="s">
+        <v>368</v>
+      </c>
+      <c r="I260" t="s">
+        <v>19</v>
+      </c>
+      <c r="J260">
+        <v>1</v>
+      </c>
+      <c r="K260">
+        <v>2340000</v>
+      </c>
+      <c r="L260">
+        <v>2340000</v>
+      </c>
+    </row>
+    <row r="261" spans="1:12">
+      <c r="A261">
+        <v>258</v>
+      </c>
+      <c r="B261">
+        <v>626402</v>
+      </c>
+      <c r="C261" t="s">
+        <v>13</v>
+      </c>
+      <c r="D261" t="s">
+        <v>364</v>
+      </c>
+      <c r="E261" t="s">
+        <v>432</v>
+      </c>
+      <c r="F261" t="s">
+        <v>433</v>
+      </c>
+      <c r="G261" t="s">
+        <v>434</v>
+      </c>
+      <c r="H261" t="s">
+        <v>363</v>
+      </c>
+      <c r="I261" t="s">
+        <v>19</v>
+      </c>
+      <c r="J261">
+        <v>1</v>
+      </c>
+      <c r="K261">
+        <v>3060000</v>
+      </c>
+      <c r="L261">
+        <v>3060000</v>
+      </c>
+    </row>
+    <row r="262" spans="1:12">
+      <c r="A262">
+        <v>259</v>
+      </c>
+      <c r="B262">
+        <v>626402</v>
+      </c>
+      <c r="C262" t="s">
+        <v>13</v>
+      </c>
+      <c r="D262" t="s">
+        <v>364</v>
+      </c>
+      <c r="E262" t="s">
+        <v>432</v>
+      </c>
+      <c r="F262" t="s">
+        <v>433</v>
+      </c>
+      <c r="G262" t="s">
+        <v>434</v>
+      </c>
+      <c r="H262" t="s">
+        <v>450</v>
+      </c>
+      <c r="I262" t="s">
+        <v>19</v>
+      </c>
+      <c r="J262">
+        <v>1</v>
+      </c>
+      <c r="K262">
+        <v>3430000</v>
+      </c>
+      <c r="L262">
+        <v>3430000</v>
+      </c>
+    </row>
+    <row r="263" spans="1:12">
+      <c r="A263">
+        <v>260</v>
+      </c>
+      <c r="B263">
+        <v>626402</v>
+      </c>
+      <c r="C263" t="s">
+        <v>13</v>
+      </c>
+      <c r="D263" t="s">
+        <v>364</v>
+      </c>
+      <c r="E263" t="s">
+        <v>432</v>
+      </c>
+      <c r="F263" t="s">
+        <v>433</v>
+      </c>
+      <c r="G263" t="s">
+        <v>434</v>
+      </c>
+      <c r="H263" t="s">
+        <v>451</v>
+      </c>
+      <c r="I263" t="s">
+        <v>19</v>
+      </c>
+      <c r="J263">
+        <v>1</v>
+      </c>
+      <c r="K263">
+        <v>3000000</v>
+      </c>
+      <c r="L263">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="264" spans="1:12">
+      <c r="A264">
+        <v>261</v>
+      </c>
+      <c r="B264">
+        <v>626402</v>
+      </c>
+      <c r="C264" t="s">
+        <v>13</v>
+      </c>
+      <c r="D264" t="s">
+        <v>364</v>
+      </c>
+      <c r="E264" t="s">
+        <v>432</v>
+      </c>
+      <c r="F264" t="s">
+        <v>433</v>
+      </c>
+      <c r="G264" t="s">
+        <v>434</v>
+      </c>
+      <c r="H264" t="s">
+        <v>452</v>
+      </c>
+      <c r="I264" t="s">
+        <v>19</v>
+      </c>
+      <c r="J264">
+        <v>1</v>
+      </c>
+      <c r="K264">
+        <v>4618753</v>
+      </c>
+      <c r="L264">
+        <v>4618753</v>
+      </c>
+    </row>
+    <row r="265" spans="1:12">
+      <c r="A265">
+        <v>262</v>
+      </c>
+      <c r="B265">
+        <v>626402</v>
+      </c>
+      <c r="C265" t="s">
+        <v>13</v>
+      </c>
+      <c r="D265" t="s">
+        <v>364</v>
+      </c>
+      <c r="E265" t="s">
+        <v>432</v>
+      </c>
+      <c r="F265" t="s">
+        <v>433</v>
+      </c>
+      <c r="G265" t="s">
+        <v>434</v>
+      </c>
+      <c r="H265" t="s">
+        <v>453</v>
+      </c>
+      <c r="I265" t="s">
+        <v>19</v>
+      </c>
+      <c r="J265">
+        <v>1</v>
+      </c>
+      <c r="K265">
+        <v>510000</v>
+      </c>
+      <c r="L265">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="266" spans="1:12">
+      <c r="A266">
+        <v>263</v>
+      </c>
+      <c r="B266">
+        <v>626402</v>
+      </c>
+      <c r="C266" t="s">
+        <v>13</v>
+      </c>
+      <c r="D266" t="s">
+        <v>364</v>
+      </c>
+      <c r="E266" t="s">
+        <v>432</v>
+      </c>
+      <c r="F266" t="s">
+        <v>433</v>
+      </c>
+      <c r="G266" t="s">
+        <v>434</v>
+      </c>
+      <c r="H266" t="s">
+        <v>454</v>
+      </c>
+      <c r="I266" t="s">
+        <v>19</v>
+      </c>
+      <c r="J266">
+        <v>1</v>
+      </c>
+      <c r="K266">
+        <v>9081490</v>
+      </c>
+      <c r="L266">
+        <v>9081490</v>
+      </c>
+    </row>
+    <row r="267" spans="1:12">
+      <c r="A267">
+        <v>264</v>
+      </c>
+      <c r="B267">
+        <v>626402</v>
+      </c>
+      <c r="C267" t="s">
+        <v>13</v>
+      </c>
+      <c r="D267" t="s">
+        <v>364</v>
+      </c>
+      <c r="E267" t="s">
+        <v>432</v>
+      </c>
+      <c r="F267" t="s">
+        <v>433</v>
+      </c>
+      <c r="G267" t="s">
+        <v>434</v>
+      </c>
+      <c r="H267" t="s">
+        <v>455</v>
+      </c>
+      <c r="I267" t="s">
+        <v>19</v>
+      </c>
+      <c r="J267">
+        <v>1</v>
+      </c>
+      <c r="K267">
+        <v>2380000</v>
+      </c>
+      <c r="L267">
+        <v>2380000</v>
+      </c>
+    </row>
+    <row r="268" spans="1:12">
+      <c r="A268">
+        <v>265</v>
+      </c>
+      <c r="B268">
+        <v>626402</v>
+      </c>
+      <c r="C268" t="s">
+        <v>13</v>
+      </c>
+      <c r="D268" t="s">
+        <v>364</v>
+      </c>
+      <c r="E268" t="s">
+        <v>432</v>
+      </c>
+      <c r="F268" t="s">
+        <v>433</v>
+      </c>
+      <c r="G268" t="s">
+        <v>434</v>
+      </c>
+      <c r="H268" t="s">
+        <v>456</v>
+      </c>
+      <c r="I268" t="s">
+        <v>19</v>
+      </c>
+      <c r="J268">
+        <v>1</v>
+      </c>
+      <c r="K268">
+        <v>680000</v>
+      </c>
+      <c r="L268">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="269" spans="1:12">
+      <c r="A269">
+        <v>266</v>
+      </c>
+      <c r="B269">
+        <v>626402</v>
+      </c>
+      <c r="C269" t="s">
+        <v>13</v>
+      </c>
+      <c r="D269" t="s">
+        <v>364</v>
+      </c>
+      <c r="E269" t="s">
+        <v>432</v>
+      </c>
+      <c r="F269" t="s">
+        <v>433</v>
+      </c>
+      <c r="G269" t="s">
+        <v>434</v>
+      </c>
+      <c r="H269" t="s">
+        <v>457</v>
+      </c>
+      <c r="I269" t="s">
+        <v>19</v>
+      </c>
+      <c r="J269">
+        <v>1</v>
+      </c>
+      <c r="K269">
+        <v>1190000</v>
+      </c>
+      <c r="L269">
+        <v>1190000</v>
+      </c>
+    </row>
+    <row r="270" spans="1:12">
+      <c r="A270">
+        <v>267</v>
+      </c>
+      <c r="B270">
+        <v>626402</v>
+      </c>
+      <c r="C270" t="s">
+        <v>13</v>
+      </c>
+      <c r="D270" t="s">
+        <v>364</v>
+      </c>
+      <c r="E270" t="s">
+        <v>432</v>
+      </c>
+      <c r="F270" t="s">
+        <v>433</v>
+      </c>
+      <c r="G270" t="s">
+        <v>434</v>
+      </c>
+      <c r="H270" t="s">
+        <v>458</v>
+      </c>
+      <c r="I270" t="s">
+        <v>19</v>
+      </c>
+      <c r="J270">
+        <v>1</v>
+      </c>
+      <c r="K270">
+        <v>34500000</v>
+      </c>
+      <c r="L270">
+        <v>34500000</v>
+      </c>
+    </row>
+    <row r="271" spans="1:12">
+      <c r="A271">
+        <v>268</v>
+      </c>
+      <c r="B271">
+        <v>626402</v>
+      </c>
+      <c r="C271" t="s">
+        <v>13</v>
+      </c>
+      <c r="D271" t="s">
+        <v>364</v>
+      </c>
+      <c r="E271" t="s">
+        <v>459</v>
+      </c>
+      <c r="F271" t="s">
+        <v>460</v>
+      </c>
+      <c r="G271" t="s">
+        <v>461</v>
+      </c>
+      <c r="H271" t="s">
+        <v>311</v>
+      </c>
+      <c r="I271" t="s">
+        <v>19</v>
+      </c>
+      <c r="J271">
+        <v>1</v>
+      </c>
+      <c r="K271">
+        <v>510000</v>
+      </c>
+      <c r="L271">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="272" spans="1:12">
+      <c r="A272">
+        <v>269</v>
+      </c>
+      <c r="B272">
+        <v>626402</v>
+      </c>
+      <c r="C272" t="s">
+        <v>13</v>
+      </c>
+      <c r="D272" t="s">
+        <v>364</v>
+      </c>
+      <c r="E272" t="s">
+        <v>459</v>
+      </c>
+      <c r="F272" t="s">
+        <v>460</v>
+      </c>
+      <c r="G272" t="s">
+        <v>461</v>
+      </c>
+      <c r="H272" t="s">
+        <v>462</v>
+      </c>
+      <c r="I272" t="s">
+        <v>19</v>
+      </c>
+      <c r="J272">
+        <v>1</v>
+      </c>
+      <c r="K272">
+        <v>630000</v>
+      </c>
+      <c r="L272">
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="273" spans="1:12">
+      <c r="A273">
+        <v>270</v>
+      </c>
+      <c r="B273">
+        <v>626402</v>
+      </c>
+      <c r="C273" t="s">
+        <v>13</v>
+      </c>
+      <c r="D273" t="s">
+        <v>364</v>
+      </c>
+      <c r="E273" t="s">
+        <v>463</v>
+      </c>
+      <c r="F273" t="s">
+        <v>464</v>
+      </c>
+      <c r="G273" t="s">
+        <v>465</v>
+      </c>
+      <c r="H273" t="s">
+        <v>198</v>
+      </c>
+      <c r="I273" t="s">
+        <v>19</v>
+      </c>
+      <c r="J273">
+        <v>1</v>
+      </c>
+      <c r="K273">
+        <v>23018070</v>
+      </c>
+      <c r="L273">
+        <v>23018070</v>
+      </c>
+    </row>
+    <row r="274" spans="1:12">
+      <c r="A274">
+        <v>271</v>
+      </c>
+      <c r="B274">
+        <v>626402</v>
+      </c>
+      <c r="C274" t="s">
+        <v>13</v>
+      </c>
+      <c r="D274" t="s">
+        <v>364</v>
+      </c>
+      <c r="E274" t="s">
+        <v>466</v>
+      </c>
+      <c r="F274" t="s">
+        <v>467</v>
+      </c>
+      <c r="G274" t="s">
+        <v>468</v>
+      </c>
+      <c r="H274" t="s">
+        <v>469</v>
+      </c>
+      <c r="I274" t="s">
+        <v>19</v>
+      </c>
+      <c r="J274">
+        <v>1</v>
+      </c>
+      <c r="K274">
+        <v>53000000</v>
+      </c>
+      <c r="L274">
+        <v>53000000</v>
+      </c>
+    </row>
+    <row r="275" spans="1:12">
+      <c r="A275">
+        <v>272</v>
+      </c>
+      <c r="B275">
+        <v>626402</v>
+      </c>
+      <c r="C275" t="s">
+        <v>13</v>
+      </c>
+      <c r="D275" t="s">
+        <v>364</v>
+      </c>
+      <c r="E275" t="s">
+        <v>470</v>
+      </c>
+      <c r="F275" t="s">
+        <v>471</v>
+      </c>
+      <c r="G275" t="s">
+        <v>472</v>
+      </c>
+      <c r="H275" t="s">
+        <v>473</v>
+      </c>
+      <c r="I275" t="s">
+        <v>19</v>
+      </c>
+      <c r="J275">
+        <v>1</v>
+      </c>
+      <c r="K275">
+        <v>336000000</v>
+      </c>
+      <c r="L275">
+        <v>336000000</v>
+      </c>
+    </row>
+    <row r="276" spans="1:12">
+      <c r="A276">
+        <v>273</v>
+      </c>
+      <c r="B276">
+        <v>626402</v>
+      </c>
+      <c r="C276" t="s">
+        <v>13</v>
+      </c>
+      <c r="D276" t="s">
+        <v>364</v>
+      </c>
+      <c r="E276" t="s">
+        <v>474</v>
+      </c>
+      <c r="F276" t="s">
+        <v>475</v>
+      </c>
+      <c r="G276" t="s">
+        <v>476</v>
+      </c>
+      <c r="H276" t="s">
+        <v>477</v>
+      </c>
+      <c r="I276" t="s">
+        <v>19</v>
+      </c>
+      <c r="J276">
+        <v>1</v>
+      </c>
+      <c r="K276">
+        <v>182000000</v>
+      </c>
+      <c r="L276">
+        <v>182000000</v>
+      </c>
+    </row>
+    <row r="277" spans="1:12">
+      <c r="A277">
+        <v>274</v>
+      </c>
+      <c r="B277">
+        <v>626402</v>
+      </c>
+      <c r="C277" t="s">
+        <v>13</v>
+      </c>
+      <c r="D277" t="s">
+        <v>364</v>
+      </c>
+      <c r="E277" t="s">
+        <v>478</v>
+      </c>
+      <c r="F277" t="s">
+        <v>479</v>
+      </c>
+      <c r="G277" t="s">
+        <v>480</v>
+      </c>
+      <c r="H277" t="s">
+        <v>481</v>
+      </c>
+      <c r="I277" t="s">
+        <v>19</v>
+      </c>
+      <c r="J277">
+        <v>1</v>
+      </c>
+      <c r="K277">
+        <v>196700000</v>
+      </c>
+      <c r="L277">
+        <v>196700000</v>
+      </c>
+    </row>
+    <row r="278" spans="1:12">
+      <c r="A278">
+        <v>275</v>
+      </c>
+      <c r="B278">
+        <v>626402</v>
+      </c>
+      <c r="C278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D278" t="s">
+        <v>295</v>
+      </c>
+      <c r="E278" t="s">
+        <v>482</v>
+      </c>
+      <c r="F278" t="s">
+        <v>483</v>
+      </c>
+      <c r="G278" t="s">
+        <v>484</v>
+      </c>
+      <c r="H278" t="s">
+        <v>485</v>
+      </c>
+      <c r="I278" t="s">
+        <v>19</v>
+      </c>
+      <c r="J278">
+        <v>1</v>
+      </c>
+      <c r="K278">
+        <v>1129000</v>
+      </c>
+      <c r="L278">
+        <v>1129000</v>
+      </c>
+    </row>
+    <row r="279" spans="1:12">
+      <c r="A279">
+        <v>276</v>
+      </c>
+      <c r="B279">
+        <v>626402</v>
+      </c>
+      <c r="C279" t="s">
+        <v>13</v>
+      </c>
+      <c r="D279" t="s">
+        <v>295</v>
+      </c>
+      <c r="E279" t="s">
+        <v>486</v>
+      </c>
+      <c r="F279" t="s">
+        <v>487</v>
+      </c>
+      <c r="G279" t="s">
+        <v>488</v>
+      </c>
+      <c r="H279" t="s">
+        <v>254</v>
+      </c>
+      <c r="I279" t="s">
+        <v>19</v>
+      </c>
+      <c r="J279">
+        <v>1</v>
+      </c>
+      <c r="K279">
+        <v>8145611</v>
+      </c>
+      <c r="L279">
+        <v>8145611</v>
+      </c>
+    </row>
+    <row r="280" spans="1:12">
+      <c r="A280">
+        <v>277</v>
+      </c>
+      <c r="B280">
+        <v>626402</v>
+      </c>
+      <c r="C280" t="s">
+        <v>13</v>
+      </c>
+      <c r="D280" t="s">
+        <v>295</v>
+      </c>
+      <c r="E280" t="s">
+        <v>486</v>
+      </c>
+      <c r="F280" t="s">
+        <v>487</v>
+      </c>
+      <c r="G280" t="s">
+        <v>488</v>
+      </c>
+      <c r="H280" t="s">
+        <v>489</v>
+      </c>
+      <c r="I280" t="s">
+        <v>19</v>
+      </c>
+      <c r="J280">
+        <v>1</v>
+      </c>
+      <c r="K280">
+        <v>391600</v>
+      </c>
+      <c r="L280">
+        <v>391600</v>
+      </c>
+    </row>
+    <row r="281" spans="1:12">
+      <c r="A281">
+        <v>278</v>
+      </c>
+      <c r="B281">
+        <v>626402</v>
+      </c>
+      <c r="C281" t="s">
+        <v>13</v>
+      </c>
+      <c r="D281" t="s">
+        <v>295</v>
+      </c>
+      <c r="E281" t="s">
+        <v>486</v>
+      </c>
+      <c r="F281" t="s">
+        <v>487</v>
+      </c>
+      <c r="G281" t="s">
+        <v>488</v>
+      </c>
+      <c r="H281" t="s">
+        <v>490</v>
+      </c>
+      <c r="I281" t="s">
+        <v>19</v>
+      </c>
+      <c r="J281">
+        <v>1</v>
+      </c>
+      <c r="K281">
+        <v>22121588</v>
+      </c>
+      <c r="L281">
+        <v>22121588</v>
+      </c>
+    </row>
+    <row r="282" spans="1:12">
+      <c r="A282">
+        <v>279</v>
+      </c>
+      <c r="B282">
+        <v>626402</v>
+      </c>
+      <c r="C282" t="s">
+        <v>13</v>
+      </c>
+      <c r="D282" t="s">
+        <v>295</v>
+      </c>
+      <c r="E282" t="s">
+        <v>486</v>
+      </c>
+      <c r="F282" t="s">
+        <v>487</v>
+      </c>
+      <c r="G282" t="s">
+        <v>488</v>
+      </c>
+      <c r="H282" t="s">
+        <v>274</v>
+      </c>
+      <c r="I282" t="s">
+        <v>19</v>
+      </c>
+      <c r="J282">
+        <v>1</v>
+      </c>
+      <c r="K282">
+        <v>436583</v>
+      </c>
+      <c r="L282">
+        <v>436583</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12">
+      <c r="A283">
+        <v>280</v>
+      </c>
+      <c r="B283">
+        <v>626402</v>
+      </c>
+      <c r="C283" t="s">
+        <v>13</v>
+      </c>
+      <c r="D283" t="s">
+        <v>364</v>
+      </c>
+      <c r="E283" t="s">
+        <v>491</v>
+      </c>
+      <c r="F283" t="s">
+        <v>492</v>
+      </c>
+      <c r="G283" t="s">
+        <v>121</v>
+      </c>
+      <c r="H283" t="s">
+        <v>128</v>
+      </c>
+      <c r="I283" t="s">
+        <v>19</v>
+      </c>
+      <c r="J283">
+        <v>1</v>
+      </c>
+      <c r="K283">
+        <v>6893713</v>
+      </c>
+      <c r="L283">
+        <v>6893713</v>
+      </c>
+    </row>
+    <row r="284" spans="1:12">
+      <c r="A284">
+        <v>281</v>
+      </c>
+      <c r="B284">
+        <v>626402</v>
+      </c>
+      <c r="C284" t="s">
+        <v>13</v>
+      </c>
+      <c r="D284" t="s">
+        <v>364</v>
+      </c>
+      <c r="E284" t="s">
+        <v>491</v>
+      </c>
+      <c r="F284" t="s">
+        <v>492</v>
+      </c>
+      <c r="G284" t="s">
+        <v>121</v>
+      </c>
+      <c r="H284" t="s">
+        <v>493</v>
+      </c>
+      <c r="I284" t="s">
+        <v>19</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284">
+        <v>2187190</v>
+      </c>
+      <c r="L284">
+        <v>2187190</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -1313,6 +1313,30 @@
     <t>'626402.175.522191.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AA.000440</t>
   </si>
   <si>
+    <t>2024-02-16</t>
+  </si>
+  <si>
+    <t>'00095T</t>
+  </si>
+  <si>
+    <t>'241751303002023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai Surat Tugas Nomor:B.83/BPPSDM.5/KP.440/I/2024 Tgl.18 Januari 2024 </t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.201.0B.001139</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.201.0B.001497</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.201.0B.001498</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.201.0B.001499</t>
+  </si>
+  <si>
     <t>'00097T</t>
   </si>
   <si>
@@ -1488,6 +1512,39 @@
   </si>
   <si>
     <t>'626402.175.522119.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AB.000443</t>
+  </si>
+  <si>
+    <t>'00106T</t>
+  </si>
+  <si>
+    <t>'241751303002064</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang.Fullboard Meeting Ev.Penyelenggaraan PTKL dan Lemb. Pemerintah Non Kementerian, SPK No:33/PPK.PUSDIK/PL.430/I/2024 tgl.12/1/2024,BAST No:50/PPK.PUSDIK/PL.450/I/2024 tgl 18/1/2024,BAP No:51/PPK.PUSDIK/PL.450/I/2024 tgl 18/1/2024</t>
+  </si>
+  <si>
+    <t>'626402.175.524119.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0A.001380</t>
+  </si>
+  <si>
+    <t>'00107T</t>
+  </si>
+  <si>
+    <t>'241751305000184</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan Pegawai Sekretariat bulan Januari tahun 2024 untuk 1 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00108T</t>
+  </si>
+  <si>
+    <t>'241751303002198</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan bulan Januari tahun 2024 untuk 2 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'626402.175.512414.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.AA.001366</t>
   </si>
   <si>
     <t>'00110T</t>
@@ -1838,7 +1895,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L284"/>
+  <dimension ref="A1:L291"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -10947,19 +11004,19 @@
         <v>13</v>
       </c>
       <c r="D242" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="E242" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F242" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G242" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H242" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="I242" t="s">
         <v>19</v>
@@ -10968,10 +11025,10 @@
         <v>1</v>
       </c>
       <c r="K242">
-        <v>4828000</v>
+        <v>5097100</v>
       </c>
       <c r="L242">
-        <v>4828000</v>
+        <v>5097100</v>
       </c>
     </row>
     <row r="243" spans="1:12">
@@ -10985,19 +11042,19 @@
         <v>13</v>
       </c>
       <c r="D243" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="E243" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F243" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G243" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H243" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I243" t="s">
         <v>19</v>
@@ -11006,10 +11063,10 @@
         <v>1</v>
       </c>
       <c r="K243">
-        <v>516000</v>
+        <v>3010000</v>
       </c>
       <c r="L243">
-        <v>516000</v>
+        <v>3010000</v>
       </c>
     </row>
     <row r="244" spans="1:12">
@@ -11023,19 +11080,19 @@
         <v>13</v>
       </c>
       <c r="D244" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="E244" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F244" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G244" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H244" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I244" t="s">
         <v>19</v>
@@ -11044,10 +11101,10 @@
         <v>1</v>
       </c>
       <c r="K244">
-        <v>220000</v>
+        <v>2300000</v>
       </c>
       <c r="L244">
-        <v>220000</v>
+        <v>2300000</v>
       </c>
     </row>
     <row r="245" spans="1:12">
@@ -11061,19 +11118,19 @@
         <v>13</v>
       </c>
       <c r="D245" t="s">
-        <v>364</v>
+        <v>432</v>
       </c>
       <c r="E245" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F245" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="G245" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H245" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I245" t="s">
         <v>19</v>
@@ -11082,10 +11139,10 @@
         <v>1</v>
       </c>
       <c r="K245">
-        <v>1680000</v>
+        <v>245500</v>
       </c>
       <c r="L245">
-        <v>1680000</v>
+        <v>245500</v>
       </c>
     </row>
     <row r="246" spans="1:12">
@@ -11102,16 +11159,16 @@
         <v>364</v>
       </c>
       <c r="E246" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F246" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G246" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H246" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="I246" t="s">
         <v>19</v>
@@ -11120,10 +11177,10 @@
         <v>1</v>
       </c>
       <c r="K246">
-        <v>3000000</v>
+        <v>4828000</v>
       </c>
       <c r="L246">
-        <v>3000000</v>
+        <v>4828000</v>
       </c>
     </row>
     <row r="247" spans="1:12">
@@ -11140,16 +11197,16 @@
         <v>364</v>
       </c>
       <c r="E247" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F247" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G247" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H247" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="I247" t="s">
         <v>19</v>
@@ -11158,10 +11215,10 @@
         <v>1</v>
       </c>
       <c r="K247">
-        <v>1870000</v>
+        <v>516000</v>
       </c>
       <c r="L247">
-        <v>1870000</v>
+        <v>516000</v>
       </c>
     </row>
     <row r="248" spans="1:12">
@@ -11178,16 +11235,16 @@
         <v>364</v>
       </c>
       <c r="E248" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F248" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G248" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H248" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="I248" t="s">
         <v>19</v>
@@ -11196,10 +11253,10 @@
         <v>1</v>
       </c>
       <c r="K248">
-        <v>876000</v>
+        <v>220000</v>
       </c>
       <c r="L248">
-        <v>876000</v>
+        <v>220000</v>
       </c>
     </row>
     <row r="249" spans="1:12">
@@ -11216,16 +11273,16 @@
         <v>364</v>
       </c>
       <c r="E249" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F249" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G249" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H249" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="I249" t="s">
         <v>19</v>
@@ -11234,10 +11291,10 @@
         <v>1</v>
       </c>
       <c r="K249">
-        <v>1077500</v>
+        <v>1680000</v>
       </c>
       <c r="L249">
-        <v>1077500</v>
+        <v>1680000</v>
       </c>
     </row>
     <row r="250" spans="1:12">
@@ -11254,16 +11311,16 @@
         <v>364</v>
       </c>
       <c r="E250" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F250" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G250" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H250" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="I250" t="s">
         <v>19</v>
@@ -11272,10 +11329,10 @@
         <v>1</v>
       </c>
       <c r="K250">
-        <v>2360000</v>
+        <v>3000000</v>
       </c>
       <c r="L250">
-        <v>2360000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="251" spans="1:12">
@@ -11292,16 +11349,16 @@
         <v>364</v>
       </c>
       <c r="E251" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F251" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G251" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H251" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="I251" t="s">
         <v>19</v>
@@ -11310,10 +11367,10 @@
         <v>1</v>
       </c>
       <c r="K251">
-        <v>990000</v>
+        <v>1870000</v>
       </c>
       <c r="L251">
-        <v>990000</v>
+        <v>1870000</v>
       </c>
     </row>
     <row r="252" spans="1:12">
@@ -11330,16 +11387,16 @@
         <v>364</v>
       </c>
       <c r="E252" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F252" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G252" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H252" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="I252" t="s">
         <v>19</v>
@@ -11348,10 +11405,10 @@
         <v>1</v>
       </c>
       <c r="K252">
-        <v>1000000</v>
+        <v>876000</v>
       </c>
       <c r="L252">
-        <v>1000000</v>
+        <v>876000</v>
       </c>
     </row>
     <row r="253" spans="1:12">
@@ -11368,16 +11425,16 @@
         <v>364</v>
       </c>
       <c r="E253" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F253" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G253" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H253" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="I253" t="s">
         <v>19</v>
@@ -11386,10 +11443,10 @@
         <v>1</v>
       </c>
       <c r="K253">
-        <v>1720000</v>
+        <v>1077500</v>
       </c>
       <c r="L253">
-        <v>1720000</v>
+        <v>1077500</v>
       </c>
     </row>
     <row r="254" spans="1:12">
@@ -11406,16 +11463,16 @@
         <v>364</v>
       </c>
       <c r="E254" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F254" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G254" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H254" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="I254" t="s">
         <v>19</v>
@@ -11424,10 +11481,10 @@
         <v>1</v>
       </c>
       <c r="K254">
-        <v>798900</v>
+        <v>2360000</v>
       </c>
       <c r="L254">
-        <v>798900</v>
+        <v>2360000</v>
       </c>
     </row>
     <row r="255" spans="1:12">
@@ -11444,16 +11501,16 @@
         <v>364</v>
       </c>
       <c r="E255" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F255" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G255" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H255" t="s">
-        <v>234</v>
+        <v>452</v>
       </c>
       <c r="I255" t="s">
         <v>19</v>
@@ -11462,10 +11519,10 @@
         <v>1</v>
       </c>
       <c r="K255">
-        <v>2496920</v>
+        <v>990000</v>
       </c>
       <c r="L255">
-        <v>2496920</v>
+        <v>990000</v>
       </c>
     </row>
     <row r="256" spans="1:12">
@@ -11482,16 +11539,16 @@
         <v>364</v>
       </c>
       <c r="E256" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F256" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G256" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H256" t="s">
-        <v>236</v>
+        <v>453</v>
       </c>
       <c r="I256" t="s">
         <v>19</v>
@@ -11500,10 +11557,10 @@
         <v>1</v>
       </c>
       <c r="K256">
-        <v>1080000</v>
+        <v>1000000</v>
       </c>
       <c r="L256">
-        <v>1080000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="257" spans="1:12">
@@ -11520,16 +11577,16 @@
         <v>364</v>
       </c>
       <c r="E257" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F257" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G257" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H257" t="s">
-        <v>237</v>
+        <v>454</v>
       </c>
       <c r="I257" t="s">
         <v>19</v>
@@ -11538,10 +11595,10 @@
         <v>1</v>
       </c>
       <c r="K257">
-        <v>205500</v>
+        <v>1720000</v>
       </c>
       <c r="L257">
-        <v>205500</v>
+        <v>1720000</v>
       </c>
     </row>
     <row r="258" spans="1:12">
@@ -11558,16 +11615,16 @@
         <v>364</v>
       </c>
       <c r="E258" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F258" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G258" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H258" t="s">
-        <v>448</v>
+        <v>455</v>
       </c>
       <c r="I258" t="s">
         <v>19</v>
@@ -11576,10 +11633,10 @@
         <v>1</v>
       </c>
       <c r="K258">
-        <v>370000</v>
+        <v>798900</v>
       </c>
       <c r="L258">
-        <v>370000</v>
+        <v>798900</v>
       </c>
     </row>
     <row r="259" spans="1:12">
@@ -11596,16 +11653,16 @@
         <v>364</v>
       </c>
       <c r="E259" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F259" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G259" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H259" t="s">
-        <v>449</v>
+        <v>234</v>
       </c>
       <c r="I259" t="s">
         <v>19</v>
@@ -11614,10 +11671,10 @@
         <v>1</v>
       </c>
       <c r="K259">
-        <v>517500</v>
+        <v>2496920</v>
       </c>
       <c r="L259">
-        <v>517500</v>
+        <v>2496920</v>
       </c>
     </row>
     <row r="260" spans="1:12">
@@ -11634,16 +11691,16 @@
         <v>364</v>
       </c>
       <c r="E260" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F260" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G260" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H260" t="s">
-        <v>368</v>
+        <v>236</v>
       </c>
       <c r="I260" t="s">
         <v>19</v>
@@ -11652,10 +11709,10 @@
         <v>1</v>
       </c>
       <c r="K260">
-        <v>2340000</v>
+        <v>1080000</v>
       </c>
       <c r="L260">
-        <v>2340000</v>
+        <v>1080000</v>
       </c>
     </row>
     <row r="261" spans="1:12">
@@ -11672,16 +11729,16 @@
         <v>364</v>
       </c>
       <c r="E261" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F261" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G261" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H261" t="s">
-        <v>363</v>
+        <v>237</v>
       </c>
       <c r="I261" t="s">
         <v>19</v>
@@ -11690,10 +11747,10 @@
         <v>1</v>
       </c>
       <c r="K261">
-        <v>3060000</v>
+        <v>205500</v>
       </c>
       <c r="L261">
-        <v>3060000</v>
+        <v>205500</v>
       </c>
     </row>
     <row r="262" spans="1:12">
@@ -11710,16 +11767,16 @@
         <v>364</v>
       </c>
       <c r="E262" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F262" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G262" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H262" t="s">
-        <v>450</v>
+        <v>456</v>
       </c>
       <c r="I262" t="s">
         <v>19</v>
@@ -11728,10 +11785,10 @@
         <v>1</v>
       </c>
       <c r="K262">
-        <v>3430000</v>
+        <v>370000</v>
       </c>
       <c r="L262">
-        <v>3430000</v>
+        <v>370000</v>
       </c>
     </row>
     <row r="263" spans="1:12">
@@ -11748,16 +11805,16 @@
         <v>364</v>
       </c>
       <c r="E263" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F263" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G263" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H263" t="s">
-        <v>451</v>
+        <v>457</v>
       </c>
       <c r="I263" t="s">
         <v>19</v>
@@ -11766,10 +11823,10 @@
         <v>1</v>
       </c>
       <c r="K263">
-        <v>3000000</v>
+        <v>517500</v>
       </c>
       <c r="L263">
-        <v>3000000</v>
+        <v>517500</v>
       </c>
     </row>
     <row r="264" spans="1:12">
@@ -11786,16 +11843,16 @@
         <v>364</v>
       </c>
       <c r="E264" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F264" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G264" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H264" t="s">
-        <v>452</v>
+        <v>368</v>
       </c>
       <c r="I264" t="s">
         <v>19</v>
@@ -11804,10 +11861,10 @@
         <v>1</v>
       </c>
       <c r="K264">
-        <v>4618753</v>
+        <v>2340000</v>
       </c>
       <c r="L264">
-        <v>4618753</v>
+        <v>2340000</v>
       </c>
     </row>
     <row r="265" spans="1:12">
@@ -11824,16 +11881,16 @@
         <v>364</v>
       </c>
       <c r="E265" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F265" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G265" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H265" t="s">
-        <v>453</v>
+        <v>363</v>
       </c>
       <c r="I265" t="s">
         <v>19</v>
@@ -11842,10 +11899,10 @@
         <v>1</v>
       </c>
       <c r="K265">
-        <v>510000</v>
+        <v>3060000</v>
       </c>
       <c r="L265">
-        <v>510000</v>
+        <v>3060000</v>
       </c>
     </row>
     <row r="266" spans="1:12">
@@ -11862,16 +11919,16 @@
         <v>364</v>
       </c>
       <c r="E266" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F266" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G266" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H266" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="I266" t="s">
         <v>19</v>
@@ -11880,10 +11937,10 @@
         <v>1</v>
       </c>
       <c r="K266">
-        <v>9081490</v>
+        <v>3430000</v>
       </c>
       <c r="L266">
-        <v>9081490</v>
+        <v>3430000</v>
       </c>
     </row>
     <row r="267" spans="1:12">
@@ -11900,16 +11957,16 @@
         <v>364</v>
       </c>
       <c r="E267" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F267" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G267" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H267" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="I267" t="s">
         <v>19</v>
@@ -11918,10 +11975,10 @@
         <v>1</v>
       </c>
       <c r="K267">
-        <v>2380000</v>
+        <v>3000000</v>
       </c>
       <c r="L267">
-        <v>2380000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="268" spans="1:12">
@@ -11938,16 +11995,16 @@
         <v>364</v>
       </c>
       <c r="E268" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F268" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G268" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H268" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="I268" t="s">
         <v>19</v>
@@ -11956,10 +12013,10 @@
         <v>1</v>
       </c>
       <c r="K268">
-        <v>680000</v>
+        <v>4618753</v>
       </c>
       <c r="L268">
-        <v>680000</v>
+        <v>4618753</v>
       </c>
     </row>
     <row r="269" spans="1:12">
@@ -11976,16 +12033,16 @@
         <v>364</v>
       </c>
       <c r="E269" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F269" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G269" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H269" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="I269" t="s">
         <v>19</v>
@@ -11994,10 +12051,10 @@
         <v>1</v>
       </c>
       <c r="K269">
-        <v>1190000</v>
+        <v>510000</v>
       </c>
       <c r="L269">
-        <v>1190000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="270" spans="1:12">
@@ -12014,16 +12071,16 @@
         <v>364</v>
       </c>
       <c r="E270" t="s">
-        <v>432</v>
+        <v>440</v>
       </c>
       <c r="F270" t="s">
-        <v>433</v>
+        <v>441</v>
       </c>
       <c r="G270" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="H270" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="I270" t="s">
         <v>19</v>
@@ -12032,10 +12089,10 @@
         <v>1</v>
       </c>
       <c r="K270">
-        <v>34500000</v>
+        <v>9081490</v>
       </c>
       <c r="L270">
-        <v>34500000</v>
+        <v>9081490</v>
       </c>
     </row>
     <row r="271" spans="1:12">
@@ -12052,16 +12109,16 @@
         <v>364</v>
       </c>
       <c r="E271" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="F271" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="G271" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="H271" t="s">
-        <v>311</v>
+        <v>463</v>
       </c>
       <c r="I271" t="s">
         <v>19</v>
@@ -12070,10 +12127,10 @@
         <v>1</v>
       </c>
       <c r="K271">
-        <v>510000</v>
+        <v>2380000</v>
       </c>
       <c r="L271">
-        <v>510000</v>
+        <v>2380000</v>
       </c>
     </row>
     <row r="272" spans="1:12">
@@ -12090,16 +12147,16 @@
         <v>364</v>
       </c>
       <c r="E272" t="s">
-        <v>459</v>
+        <v>440</v>
       </c>
       <c r="F272" t="s">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="G272" t="s">
-        <v>461</v>
+        <v>442</v>
       </c>
       <c r="H272" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="I272" t="s">
         <v>19</v>
@@ -12108,10 +12165,10 @@
         <v>1</v>
       </c>
       <c r="K272">
-        <v>630000</v>
+        <v>680000</v>
       </c>
       <c r="L272">
-        <v>630000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="273" spans="1:12">
@@ -12128,17 +12185,17 @@
         <v>364</v>
       </c>
       <c r="E273" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="F273" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="G273" t="s">
+        <v>442</v>
+      </c>
+      <c r="H273" t="s">
         <v>465</v>
       </c>
-      <c r="H273" t="s">
-        <v>198</v>
-      </c>
       <c r="I273" t="s">
         <v>19</v>
       </c>
@@ -12146,10 +12203,10 @@
         <v>1</v>
       </c>
       <c r="K273">
-        <v>23018070</v>
+        <v>1190000</v>
       </c>
       <c r="L273">
-        <v>23018070</v>
+        <v>1190000</v>
       </c>
     </row>
     <row r="274" spans="1:12">
@@ -12166,17 +12223,17 @@
         <v>364</v>
       </c>
       <c r="E274" t="s">
+        <v>440</v>
+      </c>
+      <c r="F274" t="s">
+        <v>441</v>
+      </c>
+      <c r="G274" t="s">
+        <v>442</v>
+      </c>
+      <c r="H274" t="s">
         <v>466</v>
       </c>
-      <c r="F274" t="s">
-        <v>467</v>
-      </c>
-      <c r="G274" t="s">
-        <v>468</v>
-      </c>
-      <c r="H274" t="s">
-        <v>469</v>
-      </c>
       <c r="I274" t="s">
         <v>19</v>
       </c>
@@ -12184,10 +12241,10 @@
         <v>1</v>
       </c>
       <c r="K274">
-        <v>53000000</v>
+        <v>34500000</v>
       </c>
       <c r="L274">
-        <v>53000000</v>
+        <v>34500000</v>
       </c>
     </row>
     <row r="275" spans="1:12">
@@ -12204,16 +12261,16 @@
         <v>364</v>
       </c>
       <c r="E275" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F275" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="G275" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="H275" t="s">
-        <v>473</v>
+        <v>311</v>
       </c>
       <c r="I275" t="s">
         <v>19</v>
@@ -12222,10 +12279,10 @@
         <v>1</v>
       </c>
       <c r="K275">
-        <v>336000000</v>
+        <v>510000</v>
       </c>
       <c r="L275">
-        <v>336000000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="276" spans="1:12">
@@ -12242,16 +12299,16 @@
         <v>364</v>
       </c>
       <c r="E276" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="F276" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
       <c r="G276" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="H276" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="I276" t="s">
         <v>19</v>
@@ -12260,10 +12317,10 @@
         <v>1</v>
       </c>
       <c r="K276">
-        <v>182000000</v>
+        <v>630000</v>
       </c>
       <c r="L276">
-        <v>182000000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="277" spans="1:12">
@@ -12280,16 +12337,16 @@
         <v>364</v>
       </c>
       <c r="E277" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="F277" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
       <c r="G277" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="H277" t="s">
-        <v>481</v>
+        <v>198</v>
       </c>
       <c r="I277" t="s">
         <v>19</v>
@@ -12298,10 +12355,10 @@
         <v>1</v>
       </c>
       <c r="K277">
-        <v>196700000</v>
+        <v>23018070</v>
       </c>
       <c r="L277">
-        <v>196700000</v>
+        <v>23018070</v>
       </c>
     </row>
     <row r="278" spans="1:12">
@@ -12315,19 +12372,19 @@
         <v>13</v>
       </c>
       <c r="D278" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="E278" t="s">
-        <v>482</v>
+        <v>474</v>
       </c>
       <c r="F278" t="s">
-        <v>483</v>
+        <v>475</v>
       </c>
       <c r="G278" t="s">
-        <v>484</v>
+        <v>476</v>
       </c>
       <c r="H278" t="s">
-        <v>485</v>
+        <v>477</v>
       </c>
       <c r="I278" t="s">
         <v>19</v>
@@ -12336,10 +12393,10 @@
         <v>1</v>
       </c>
       <c r="K278">
-        <v>1129000</v>
+        <v>53000000</v>
       </c>
       <c r="L278">
-        <v>1129000</v>
+        <v>53000000</v>
       </c>
     </row>
     <row r="279" spans="1:12">
@@ -12353,19 +12410,19 @@
         <v>13</v>
       </c>
       <c r="D279" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="E279" t="s">
-        <v>486</v>
+        <v>478</v>
       </c>
       <c r="F279" t="s">
-        <v>487</v>
+        <v>479</v>
       </c>
       <c r="G279" t="s">
-        <v>488</v>
+        <v>480</v>
       </c>
       <c r="H279" t="s">
-        <v>254</v>
+        <v>481</v>
       </c>
       <c r="I279" t="s">
         <v>19</v>
@@ -12374,10 +12431,10 @@
         <v>1</v>
       </c>
       <c r="K279">
-        <v>8145611</v>
+        <v>336000000</v>
       </c>
       <c r="L279">
-        <v>8145611</v>
+        <v>336000000</v>
       </c>
     </row>
     <row r="280" spans="1:12">
@@ -12391,19 +12448,19 @@
         <v>13</v>
       </c>
       <c r="D280" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="E280" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="F280" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="G280" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="H280" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="I280" t="s">
         <v>19</v>
@@ -12412,10 +12469,10 @@
         <v>1</v>
       </c>
       <c r="K280">
-        <v>391600</v>
+        <v>182000000</v>
       </c>
       <c r="L280">
-        <v>391600</v>
+        <v>182000000</v>
       </c>
     </row>
     <row r="281" spans="1:12">
@@ -12429,7 +12486,7 @@
         <v>13</v>
       </c>
       <c r="D281" t="s">
-        <v>295</v>
+        <v>364</v>
       </c>
       <c r="E281" t="s">
         <v>486</v>
@@ -12441,7 +12498,7 @@
         <v>488</v>
       </c>
       <c r="H281" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="I281" t="s">
         <v>19</v>
@@ -12450,10 +12507,10 @@
         <v>1</v>
       </c>
       <c r="K281">
-        <v>22121588</v>
+        <v>196700000</v>
       </c>
       <c r="L281">
-        <v>22121588</v>
+        <v>196700000</v>
       </c>
     </row>
     <row r="282" spans="1:12">
@@ -12470,16 +12527,16 @@
         <v>295</v>
       </c>
       <c r="E282" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="F282" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="G282" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="H282" t="s">
-        <v>274</v>
+        <v>493</v>
       </c>
       <c r="I282" t="s">
         <v>19</v>
@@ -12488,10 +12545,10 @@
         <v>1</v>
       </c>
       <c r="K282">
-        <v>436583</v>
+        <v>1129000</v>
       </c>
       <c r="L282">
-        <v>436583</v>
+        <v>1129000</v>
       </c>
     </row>
     <row r="283" spans="1:12">
@@ -12505,19 +12562,19 @@
         <v>13</v>
       </c>
       <c r="D283" t="s">
-        <v>364</v>
+        <v>295</v>
       </c>
       <c r="E283" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F283" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="G283" t="s">
-        <v>121</v>
+        <v>496</v>
       </c>
       <c r="H283" t="s">
-        <v>128</v>
+        <v>254</v>
       </c>
       <c r="I283" t="s">
         <v>19</v>
@@ -12526,10 +12583,10 @@
         <v>1</v>
       </c>
       <c r="K283">
-        <v>6893713</v>
+        <v>8145611</v>
       </c>
       <c r="L283">
-        <v>6893713</v>
+        <v>8145611</v>
       </c>
     </row>
     <row r="284" spans="1:12">
@@ -12543,30 +12600,296 @@
         <v>13</v>
       </c>
       <c r="D284" t="s">
+        <v>295</v>
+      </c>
+      <c r="E284" t="s">
+        <v>494</v>
+      </c>
+      <c r="F284" t="s">
+        <v>495</v>
+      </c>
+      <c r="G284" t="s">
+        <v>496</v>
+      </c>
+      <c r="H284" t="s">
+        <v>497</v>
+      </c>
+      <c r="I284" t="s">
+        <v>19</v>
+      </c>
+      <c r="J284">
+        <v>1</v>
+      </c>
+      <c r="K284">
+        <v>391600</v>
+      </c>
+      <c r="L284">
+        <v>391600</v>
+      </c>
+    </row>
+    <row r="285" spans="1:12">
+      <c r="A285">
+        <v>282</v>
+      </c>
+      <c r="B285">
+        <v>626402</v>
+      </c>
+      <c r="C285" t="s">
+        <v>13</v>
+      </c>
+      <c r="D285" t="s">
+        <v>295</v>
+      </c>
+      <c r="E285" t="s">
+        <v>494</v>
+      </c>
+      <c r="F285" t="s">
+        <v>495</v>
+      </c>
+      <c r="G285" t="s">
+        <v>496</v>
+      </c>
+      <c r="H285" t="s">
+        <v>498</v>
+      </c>
+      <c r="I285" t="s">
+        <v>19</v>
+      </c>
+      <c r="J285">
+        <v>1</v>
+      </c>
+      <c r="K285">
+        <v>22121588</v>
+      </c>
+      <c r="L285">
+        <v>22121588</v>
+      </c>
+    </row>
+    <row r="286" spans="1:12">
+      <c r="A286">
+        <v>283</v>
+      </c>
+      <c r="B286">
+        <v>626402</v>
+      </c>
+      <c r="C286" t="s">
+        <v>13</v>
+      </c>
+      <c r="D286" t="s">
+        <v>295</v>
+      </c>
+      <c r="E286" t="s">
+        <v>494</v>
+      </c>
+      <c r="F286" t="s">
+        <v>495</v>
+      </c>
+      <c r="G286" t="s">
+        <v>496</v>
+      </c>
+      <c r="H286" t="s">
+        <v>274</v>
+      </c>
+      <c r="I286" t="s">
+        <v>19</v>
+      </c>
+      <c r="J286">
+        <v>1</v>
+      </c>
+      <c r="K286">
+        <v>436583</v>
+      </c>
+      <c r="L286">
+        <v>436583</v>
+      </c>
+    </row>
+    <row r="287" spans="1:12">
+      <c r="A287">
+        <v>284</v>
+      </c>
+      <c r="B287">
+        <v>626402</v>
+      </c>
+      <c r="C287" t="s">
+        <v>13</v>
+      </c>
+      <c r="D287" t="s">
+        <v>432</v>
+      </c>
+      <c r="E287" t="s">
+        <v>499</v>
+      </c>
+      <c r="F287" t="s">
+        <v>500</v>
+      </c>
+      <c r="G287" t="s">
+        <v>501</v>
+      </c>
+      <c r="H287" t="s">
+        <v>502</v>
+      </c>
+      <c r="I287" t="s">
+        <v>19</v>
+      </c>
+      <c r="J287">
+        <v>1</v>
+      </c>
+      <c r="K287">
+        <v>268240000</v>
+      </c>
+      <c r="L287">
+        <v>268240000</v>
+      </c>
+    </row>
+    <row r="288" spans="1:12">
+      <c r="A288">
+        <v>285</v>
+      </c>
+      <c r="B288">
+        <v>626402</v>
+      </c>
+      <c r="C288" t="s">
+        <v>13</v>
+      </c>
+      <c r="D288" t="s">
+        <v>432</v>
+      </c>
+      <c r="E288" t="s">
+        <v>503</v>
+      </c>
+      <c r="F288" t="s">
+        <v>504</v>
+      </c>
+      <c r="G288" t="s">
+        <v>505</v>
+      </c>
+      <c r="H288" t="s">
+        <v>399</v>
+      </c>
+      <c r="I288" t="s">
+        <v>19</v>
+      </c>
+      <c r="J288">
+        <v>1</v>
+      </c>
+      <c r="K288">
+        <v>5305483</v>
+      </c>
+      <c r="L288">
+        <v>5305483</v>
+      </c>
+    </row>
+    <row r="289" spans="1:12">
+      <c r="A289">
+        <v>286</v>
+      </c>
+      <c r="B289">
+        <v>626402</v>
+      </c>
+      <c r="C289" t="s">
+        <v>13</v>
+      </c>
+      <c r="D289" t="s">
+        <v>432</v>
+      </c>
+      <c r="E289" t="s">
+        <v>506</v>
+      </c>
+      <c r="F289" t="s">
+        <v>507</v>
+      </c>
+      <c r="G289" t="s">
+        <v>508</v>
+      </c>
+      <c r="H289" t="s">
+        <v>509</v>
+      </c>
+      <c r="I289" t="s">
+        <v>19</v>
+      </c>
+      <c r="J289">
+        <v>1</v>
+      </c>
+      <c r="K289">
+        <v>9190300</v>
+      </c>
+      <c r="L289">
+        <v>9190300</v>
+      </c>
+    </row>
+    <row r="290" spans="1:12">
+      <c r="A290">
+        <v>287</v>
+      </c>
+      <c r="B290">
+        <v>626402</v>
+      </c>
+      <c r="C290" t="s">
+        <v>13</v>
+      </c>
+      <c r="D290" t="s">
         <v>364</v>
       </c>
-      <c r="E284" t="s">
-        <v>491</v>
-      </c>
-      <c r="F284" t="s">
-        <v>492</v>
-      </c>
-      <c r="G284" t="s">
+      <c r="E290" t="s">
+        <v>510</v>
+      </c>
+      <c r="F290" t="s">
+        <v>511</v>
+      </c>
+      <c r="G290" t="s">
         <v>121</v>
       </c>
-      <c r="H284" t="s">
-        <v>493</v>
-      </c>
-      <c r="I284" t="s">
-        <v>19</v>
-      </c>
-      <c r="J284">
-        <v>1</v>
-      </c>
-      <c r="K284">
+      <c r="H290" t="s">
+        <v>128</v>
+      </c>
+      <c r="I290" t="s">
+        <v>19</v>
+      </c>
+      <c r="J290">
+        <v>1</v>
+      </c>
+      <c r="K290">
+        <v>6893713</v>
+      </c>
+      <c r="L290">
+        <v>6893713</v>
+      </c>
+    </row>
+    <row r="291" spans="1:12">
+      <c r="A291">
+        <v>288</v>
+      </c>
+      <c r="B291">
+        <v>626402</v>
+      </c>
+      <c r="C291" t="s">
+        <v>13</v>
+      </c>
+      <c r="D291" t="s">
+        <v>364</v>
+      </c>
+      <c r="E291" t="s">
+        <v>510</v>
+      </c>
+      <c r="F291" t="s">
+        <v>511</v>
+      </c>
+      <c r="G291" t="s">
+        <v>121</v>
+      </c>
+      <c r="H291" t="s">
+        <v>512</v>
+      </c>
+      <c r="I291" t="s">
+        <v>19</v>
+      </c>
+      <c r="J291">
+        <v>1</v>
+      </c>
+      <c r="K291">
         <v>2187190</v>
       </c>
-      <c r="L284">
+      <c r="L291">
         <v>2187190</v>
       </c>
     </row>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="513">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="518">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -530,6 +530,9 @@
     <t>Pembayaran Belanja Barang-Honor PPNPN Bulan Januari Tahun 2024 untuk 11 Pegawai.Sesuai dengan SK.No KEP.14/KPA/BPPSDM/I/2024.Tanggal 2 Januari 2024.</t>
   </si>
   <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DA.000529</t>
+  </si>
+  <si>
     <t>'00040T</t>
   </si>
   <si>
@@ -1554,6 +1557,18 @@
   </si>
   <si>
     <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AC.001090</t>
+  </si>
+  <si>
+    <t>2024-02-19</t>
+  </si>
+  <si>
+    <t>'00117T</t>
+  </si>
+  <si>
+    <t>'241751301002640</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai SPK No:121/PPK/BRSDM.1/I/2023 Tgl.17-1-2024,BAST No:BAST.141/PPK/BRSDM.1/I/2024 Tgl.19-1-2024,BAP No:142/PPK/BRSDM.1/I/2024 Tgl.19-1-2024 </t>
   </si>
 </sst>
 </file>
@@ -1895,7 +1910,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L291"/>
+  <dimension ref="A1:L292"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -5810,7 +5825,7 @@
         <v>170</v>
       </c>
       <c r="H105" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="I105" t="s">
         <v>19</v>
@@ -5839,16 +5854,16 @@
         <v>63</v>
       </c>
       <c r="E106" t="s">
+        <v>172</v>
+      </c>
+      <c r="F106" t="s">
+        <v>173</v>
+      </c>
+      <c r="G106" t="s">
+        <v>174</v>
+      </c>
+      <c r="H106" t="s">
         <v>171</v>
-      </c>
-      <c r="F106" t="s">
-        <v>172</v>
-      </c>
-      <c r="G106" t="s">
-        <v>173</v>
-      </c>
-      <c r="H106" t="s">
-        <v>164</v>
       </c>
       <c r="I106" t="s">
         <v>19</v>
@@ -5874,19 +5889,19 @@
         <v>13</v>
       </c>
       <c r="D107" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E107" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="F107" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G107" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H107" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="I107" t="s">
         <v>19</v>
@@ -5915,16 +5930,16 @@
         <v>63</v>
       </c>
       <c r="E108" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F108" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G108" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="H108" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I108" t="s">
         <v>19</v>
@@ -5953,16 +5968,16 @@
         <v>63</v>
       </c>
       <c r="E109" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="F109" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="G109" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="H109" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="I109" t="s">
         <v>19</v>
@@ -5988,19 +6003,19 @@
         <v>13</v>
       </c>
       <c r="D110" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E110" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="F110" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="G110" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="H110" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I110" t="s">
         <v>19</v>
@@ -6026,19 +6041,19 @@
         <v>13</v>
       </c>
       <c r="D111" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E111" t="s">
+        <v>193</v>
+      </c>
+      <c r="F111" t="s">
+        <v>194</v>
+      </c>
+      <c r="G111" t="s">
+        <v>195</v>
+      </c>
+      <c r="H111" t="s">
         <v>192</v>
-      </c>
-      <c r="F111" t="s">
-        <v>193</v>
-      </c>
-      <c r="G111" t="s">
-        <v>194</v>
-      </c>
-      <c r="H111" t="s">
-        <v>191</v>
       </c>
       <c r="I111" t="s">
         <v>19</v>
@@ -6064,19 +6079,19 @@
         <v>13</v>
       </c>
       <c r="D112" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E112" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F112" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G112" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H112" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I112" t="s">
         <v>19</v>
@@ -6102,19 +6117,19 @@
         <v>13</v>
       </c>
       <c r="D113" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E113" t="s">
+        <v>200</v>
+      </c>
+      <c r="F113" t="s">
+        <v>201</v>
+      </c>
+      <c r="G113" t="s">
+        <v>202</v>
+      </c>
+      <c r="H113" t="s">
         <v>199</v>
-      </c>
-      <c r="F113" t="s">
-        <v>200</v>
-      </c>
-      <c r="G113" t="s">
-        <v>201</v>
-      </c>
-      <c r="H113" t="s">
-        <v>198</v>
       </c>
       <c r="I113" t="s">
         <v>19</v>
@@ -6143,16 +6158,16 @@
         <v>63</v>
       </c>
       <c r="E114" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F114" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G114" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H114" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="I114" t="s">
         <v>19</v>
@@ -6181,16 +6196,16 @@
         <v>63</v>
       </c>
       <c r="E115" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F115" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G115" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H115" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="I115" t="s">
         <v>19</v>
@@ -6219,16 +6234,16 @@
         <v>63</v>
       </c>
       <c r="E116" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F116" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G116" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="I116" t="s">
         <v>19</v>
@@ -6257,16 +6272,16 @@
         <v>63</v>
       </c>
       <c r="E117" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F117" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G117" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H117" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="I117" t="s">
         <v>19</v>
@@ -6295,16 +6310,16 @@
         <v>63</v>
       </c>
       <c r="E118" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F118" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G118" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H118" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="I118" t="s">
         <v>19</v>
@@ -6333,16 +6348,16 @@
         <v>63</v>
       </c>
       <c r="E119" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F119" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G119" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H119" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="I119" t="s">
         <v>19</v>
@@ -6371,16 +6386,16 @@
         <v>63</v>
       </c>
       <c r="E120" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F120" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G120" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H120" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="I120" t="s">
         <v>19</v>
@@ -6409,16 +6424,16 @@
         <v>63</v>
       </c>
       <c r="E121" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F121" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G121" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H121" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="I121" t="s">
         <v>19</v>
@@ -6447,16 +6462,16 @@
         <v>63</v>
       </c>
       <c r="E122" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F122" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G122" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H122" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="I122" t="s">
         <v>19</v>
@@ -6485,16 +6500,16 @@
         <v>63</v>
       </c>
       <c r="E123" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="F123" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G123" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H123" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="I123" t="s">
         <v>19</v>
@@ -6520,19 +6535,19 @@
         <v>13</v>
       </c>
       <c r="D124" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E124" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F124" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G124" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H124" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="I124" t="s">
         <v>19</v>
@@ -6561,13 +6576,13 @@
         <v>63</v>
       </c>
       <c r="E125" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F125" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G125" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H125" t="s">
         <v>46</v>
@@ -6599,13 +6614,13 @@
         <v>63</v>
       </c>
       <c r="E126" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="F126" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G126" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H126" t="s">
         <v>52</v>
@@ -6637,16 +6652,16 @@
         <v>63</v>
       </c>
       <c r="E127" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="F127" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G127" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H127" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I127" t="s">
         <v>19</v>
@@ -6672,19 +6687,19 @@
         <v>13</v>
       </c>
       <c r="D128" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E128" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F128" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G128" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H128" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="I128" t="s">
         <v>19</v>
@@ -6710,19 +6725,19 @@
         <v>13</v>
       </c>
       <c r="D129" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E129" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F129" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G129" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H129" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="I129" t="s">
         <v>19</v>
@@ -6748,19 +6763,19 @@
         <v>13</v>
       </c>
       <c r="D130" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E130" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F130" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G130" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H130" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="I130" t="s">
         <v>19</v>
@@ -6786,19 +6801,19 @@
         <v>13</v>
       </c>
       <c r="D131" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E131" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="F131" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G131" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H131" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="I131" t="s">
         <v>19</v>
@@ -6824,19 +6839,19 @@
         <v>13</v>
       </c>
       <c r="D132" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E132" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F132" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G132" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H132" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I132" t="s">
         <v>19</v>
@@ -6862,19 +6877,19 @@
         <v>13</v>
       </c>
       <c r="D133" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E133" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F133" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G133" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="I133" t="s">
         <v>19</v>
@@ -6900,19 +6915,19 @@
         <v>13</v>
       </c>
       <c r="D134" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E134" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F134" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G134" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H134" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I134" t="s">
         <v>19</v>
@@ -6938,19 +6953,19 @@
         <v>13</v>
       </c>
       <c r="D135" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="E135" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F135" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G135" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H135" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I135" t="s">
         <v>19</v>
@@ -6979,16 +6994,16 @@
         <v>63</v>
       </c>
       <c r="E136" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F136" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G136" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H136" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="I136" t="s">
         <v>19</v>
@@ -7017,16 +7032,16 @@
         <v>63</v>
       </c>
       <c r="E137" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F137" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G137" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H137" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="I137" t="s">
         <v>19</v>
@@ -7055,16 +7070,16 @@
         <v>63</v>
       </c>
       <c r="E138" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F138" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G138" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="I138" t="s">
         <v>19</v>
@@ -7093,16 +7108,16 @@
         <v>63</v>
       </c>
       <c r="E139" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F139" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G139" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="I139" t="s">
         <v>19</v>
@@ -7131,16 +7146,16 @@
         <v>63</v>
       </c>
       <c r="E140" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F140" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G140" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H140" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="I140" t="s">
         <v>19</v>
@@ -7169,16 +7184,16 @@
         <v>63</v>
       </c>
       <c r="E141" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F141" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G141" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H141" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="I141" t="s">
         <v>19</v>
@@ -7207,16 +7222,16 @@
         <v>63</v>
       </c>
       <c r="E142" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F142" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G142" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H142" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I142" t="s">
         <v>19</v>
@@ -7245,16 +7260,16 @@
         <v>63</v>
       </c>
       <c r="E143" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="F143" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="G143" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H143" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I143" t="s">
         <v>19</v>
@@ -7283,16 +7298,16 @@
         <v>63</v>
       </c>
       <c r="E144" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F144" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G144" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H144" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I144" t="s">
         <v>19</v>
@@ -7321,16 +7336,16 @@
         <v>63</v>
       </c>
       <c r="E145" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F145" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G145" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H145" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="I145" t="s">
         <v>19</v>
@@ -7359,16 +7374,16 @@
         <v>63</v>
       </c>
       <c r="E146" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F146" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G146" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H146" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="I146" t="s">
         <v>19</v>
@@ -7397,16 +7412,16 @@
         <v>63</v>
       </c>
       <c r="E147" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F147" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G147" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H147" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I147" t="s">
         <v>19</v>
@@ -7435,16 +7450,16 @@
         <v>63</v>
       </c>
       <c r="E148" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F148" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G148" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H148" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I148" t="s">
         <v>19</v>
@@ -7473,16 +7488,16 @@
         <v>63</v>
       </c>
       <c r="E149" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F149" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G149" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H149" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="I149" t="s">
         <v>19</v>
@@ -7511,16 +7526,16 @@
         <v>63</v>
       </c>
       <c r="E150" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F150" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G150" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H150" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I150" t="s">
         <v>19</v>
@@ -7549,16 +7564,16 @@
         <v>63</v>
       </c>
       <c r="E151" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F151" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G151" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H151" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="I151" t="s">
         <v>19</v>
@@ -7587,16 +7602,16 @@
         <v>63</v>
       </c>
       <c r="E152" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F152" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G152" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H152" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="I152" t="s">
         <v>19</v>
@@ -7625,16 +7640,16 @@
         <v>63</v>
       </c>
       <c r="E153" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F153" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G153" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H153" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I153" t="s">
         <v>19</v>
@@ -7663,16 +7678,16 @@
         <v>63</v>
       </c>
       <c r="E154" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F154" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G154" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H154" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="I154" t="s">
         <v>19</v>
@@ -7701,16 +7716,16 @@
         <v>63</v>
       </c>
       <c r="E155" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F155" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G155" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H155" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="I155" t="s">
         <v>19</v>
@@ -7739,16 +7754,16 @@
         <v>63</v>
       </c>
       <c r="E156" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F156" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G156" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I156" t="s">
         <v>19</v>
@@ -7777,16 +7792,16 @@
         <v>63</v>
       </c>
       <c r="E157" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F157" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G157" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H157" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="I157" t="s">
         <v>19</v>
@@ -7815,16 +7830,16 @@
         <v>63</v>
       </c>
       <c r="E158" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F158" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G158" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H158" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="I158" t="s">
         <v>19</v>
@@ -7853,13 +7868,13 @@
         <v>63</v>
       </c>
       <c r="E159" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F159" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G159" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H159" t="s">
         <v>122</v>
@@ -7891,16 +7906,16 @@
         <v>63</v>
       </c>
       <c r="E160" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F160" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G160" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H160" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I160" t="s">
         <v>19</v>
@@ -7929,16 +7944,16 @@
         <v>63</v>
       </c>
       <c r="E161" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F161" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G161" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H161" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I161" t="s">
         <v>19</v>
@@ -7967,16 +7982,16 @@
         <v>63</v>
       </c>
       <c r="E162" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F162" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G162" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H162" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="I162" t="s">
         <v>19</v>
@@ -8005,13 +8020,13 @@
         <v>63</v>
       </c>
       <c r="E163" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F163" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G163" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H163" t="s">
         <v>131</v>
@@ -8043,16 +8058,16 @@
         <v>63</v>
       </c>
       <c r="E164" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F164" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G164" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H164" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="I164" t="s">
         <v>19</v>
@@ -8081,16 +8096,16 @@
         <v>63</v>
       </c>
       <c r="E165" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F165" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G165" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H165" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="I165" t="s">
         <v>19</v>
@@ -8119,13 +8134,13 @@
         <v>63</v>
       </c>
       <c r="E166" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F166" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G166" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H166" t="s">
         <v>148</v>
@@ -8157,13 +8172,13 @@
         <v>63</v>
       </c>
       <c r="E167" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F167" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G167" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H167" t="s">
         <v>128</v>
@@ -8195,16 +8210,16 @@
         <v>63</v>
       </c>
       <c r="E168" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F168" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G168" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H168" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="I168" t="s">
         <v>19</v>
@@ -8233,16 +8248,16 @@
         <v>63</v>
       </c>
       <c r="E169" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F169" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G169" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H169" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I169" t="s">
         <v>19</v>
@@ -8271,16 +8286,16 @@
         <v>63</v>
       </c>
       <c r="E170" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F170" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G170" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H170" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="I170" t="s">
         <v>19</v>
@@ -8309,16 +8324,16 @@
         <v>63</v>
       </c>
       <c r="E171" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F171" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G171" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H171" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="I171" t="s">
         <v>19</v>
@@ -8347,16 +8362,16 @@
         <v>63</v>
       </c>
       <c r="E172" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F172" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G172" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H172" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I172" t="s">
         <v>19</v>
@@ -8385,16 +8400,16 @@
         <v>63</v>
       </c>
       <c r="E173" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F173" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G173" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H173" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I173" t="s">
         <v>19</v>
@@ -8423,16 +8438,16 @@
         <v>63</v>
       </c>
       <c r="E174" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="F174" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="G174" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H174" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="I174" t="s">
         <v>19</v>
@@ -8458,19 +8473,19 @@
         <v>13</v>
       </c>
       <c r="D175" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E175" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F175" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="G175" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="H175" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="I175" t="s">
         <v>19</v>
@@ -8496,19 +8511,19 @@
         <v>13</v>
       </c>
       <c r="D176" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E176" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="F176" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="G176" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H176" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I176" t="s">
         <v>19</v>
@@ -8534,19 +8549,19 @@
         <v>13</v>
       </c>
       <c r="D177" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E177" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F177" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G177" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H177" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I177" t="s">
         <v>19</v>
@@ -8572,19 +8587,19 @@
         <v>13</v>
       </c>
       <c r="D178" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E178" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F178" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="G178" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H178" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I178" t="s">
         <v>19</v>
@@ -8610,19 +8625,19 @@
         <v>13</v>
       </c>
       <c r="D179" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E179" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F179" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G179" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H179" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I179" t="s">
         <v>19</v>
@@ -8648,19 +8663,19 @@
         <v>13</v>
       </c>
       <c r="D180" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E180" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F180" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G180" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="H180" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="I180" t="s">
         <v>19</v>
@@ -8686,19 +8701,19 @@
         <v>13</v>
       </c>
       <c r="D181" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E181" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F181" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G181" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H181" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="I181" t="s">
         <v>19</v>
@@ -8724,19 +8739,19 @@
         <v>13</v>
       </c>
       <c r="D182" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E182" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F182" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G182" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H182" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="I182" t="s">
         <v>19</v>
@@ -8762,19 +8777,19 @@
         <v>13</v>
       </c>
       <c r="D183" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E183" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F183" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G183" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H183" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="I183" t="s">
         <v>19</v>
@@ -8800,19 +8815,19 @@
         <v>13</v>
       </c>
       <c r="D184" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E184" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="F184" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="G184" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="H184" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="I184" t="s">
         <v>19</v>
@@ -8838,19 +8853,19 @@
         <v>13</v>
       </c>
       <c r="D185" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E185" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F185" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="G185" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="H185" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I185" t="s">
         <v>19</v>
@@ -8876,19 +8891,19 @@
         <v>13</v>
       </c>
       <c r="D186" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E186" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F186" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G186" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H186" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I186" t="s">
         <v>19</v>
@@ -8914,19 +8929,19 @@
         <v>13</v>
       </c>
       <c r="D187" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E187" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F187" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G187" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H187" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I187" t="s">
         <v>19</v>
@@ -8952,16 +8967,16 @@
         <v>13</v>
       </c>
       <c r="D188" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E188" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F188" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G188" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H188" t="s">
         <v>131</v>
@@ -8990,19 +9005,19 @@
         <v>13</v>
       </c>
       <c r="D189" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E189" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F189" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G189" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H189" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="I189" t="s">
         <v>19</v>
@@ -9028,19 +9043,19 @@
         <v>13</v>
       </c>
       <c r="D190" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E190" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="F190" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G190" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H190" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I190" t="s">
         <v>19</v>
@@ -9066,16 +9081,16 @@
         <v>13</v>
       </c>
       <c r="D191" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E191" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F191" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G191" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="H191" t="s">
         <v>118</v>
@@ -9104,19 +9119,19 @@
         <v>13</v>
       </c>
       <c r="D192" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E192" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F192" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G192" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H192" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I192" t="s">
         <v>19</v>
@@ -9142,16 +9157,16 @@
         <v>13</v>
       </c>
       <c r="D193" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E193" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F193" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G193" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H193" t="s">
         <v>109</v>
@@ -9180,19 +9195,19 @@
         <v>13</v>
       </c>
       <c r="D194" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E194" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F194" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G194" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H194" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="I194" t="s">
         <v>19</v>
@@ -9218,19 +9233,19 @@
         <v>13</v>
       </c>
       <c r="D195" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="E195" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="F195" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="G195" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="H195" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="I195" t="s">
         <v>19</v>
@@ -9256,19 +9271,19 @@
         <v>13</v>
       </c>
       <c r="D196" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E196" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F196" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G196" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H196" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I196" t="s">
         <v>19</v>
@@ -9294,19 +9309,19 @@
         <v>13</v>
       </c>
       <c r="D197" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E197" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F197" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="G197" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="H197" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="I197" t="s">
         <v>19</v>
@@ -9332,19 +9347,19 @@
         <v>13</v>
       </c>
       <c r="D198" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E198" t="s">
+        <v>349</v>
+      </c>
+      <c r="F198" t="s">
+        <v>350</v>
+      </c>
+      <c r="G198" t="s">
+        <v>351</v>
+      </c>
+      <c r="H198" t="s">
         <v>348</v>
-      </c>
-      <c r="F198" t="s">
-        <v>349</v>
-      </c>
-      <c r="G198" t="s">
-        <v>350</v>
-      </c>
-      <c r="H198" t="s">
-        <v>347</v>
       </c>
       <c r="I198" t="s">
         <v>19</v>
@@ -9370,19 +9385,19 @@
         <v>13</v>
       </c>
       <c r="D199" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E199" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F199" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="G199" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="H199" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I199" t="s">
         <v>19</v>
@@ -9408,16 +9423,16 @@
         <v>13</v>
       </c>
       <c r="D200" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E200" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F200" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="G200" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H200" t="s">
         <v>128</v>
@@ -9446,19 +9461,19 @@
         <v>13</v>
       </c>
       <c r="D201" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E201" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F201" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G201" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H201" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="I201" t="s">
         <v>19</v>
@@ -9484,19 +9499,19 @@
         <v>13</v>
       </c>
       <c r="D202" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E202" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F202" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G202" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H202" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I202" t="s">
         <v>19</v>
@@ -9522,19 +9537,19 @@
         <v>13</v>
       </c>
       <c r="D203" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E203" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F203" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G203" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H203" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I203" t="s">
         <v>19</v>
@@ -9560,19 +9575,19 @@
         <v>13</v>
       </c>
       <c r="D204" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="E204" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F204" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G204" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="H204" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="I204" t="s">
         <v>19</v>
@@ -9598,19 +9613,19 @@
         <v>13</v>
       </c>
       <c r="D205" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E205" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F205" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G205" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H205" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I205" t="s">
         <v>19</v>
@@ -9636,19 +9651,19 @@
         <v>13</v>
       </c>
       <c r="D206" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E206" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F206" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G206" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="H206" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I206" t="s">
         <v>19</v>
@@ -9674,19 +9689,19 @@
         <v>13</v>
       </c>
       <c r="D207" t="s">
+        <v>365</v>
+      </c>
+      <c r="E207" t="s">
+        <v>366</v>
+      </c>
+      <c r="F207" t="s">
+        <v>367</v>
+      </c>
+      <c r="G207" t="s">
+        <v>368</v>
+      </c>
+      <c r="H207" t="s">
         <v>364</v>
-      </c>
-      <c r="E207" t="s">
-        <v>365</v>
-      </c>
-      <c r="F207" t="s">
-        <v>366</v>
-      </c>
-      <c r="G207" t="s">
-        <v>367</v>
-      </c>
-      <c r="H207" t="s">
-        <v>363</v>
       </c>
       <c r="I207" t="s">
         <v>19</v>
@@ -9712,19 +9727,19 @@
         <v>13</v>
       </c>
       <c r="D208" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E208" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F208" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G208" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H208" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="I208" t="s">
         <v>19</v>
@@ -9750,19 +9765,19 @@
         <v>13</v>
       </c>
       <c r="D209" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E209" t="s">
+        <v>370</v>
+      </c>
+      <c r="F209" t="s">
+        <v>371</v>
+      </c>
+      <c r="G209" t="s">
+        <v>372</v>
+      </c>
+      <c r="H209" t="s">
         <v>369</v>
-      </c>
-      <c r="F209" t="s">
-        <v>370</v>
-      </c>
-      <c r="G209" t="s">
-        <v>371</v>
-      </c>
-      <c r="H209" t="s">
-        <v>368</v>
       </c>
       <c r="I209" t="s">
         <v>19</v>
@@ -9788,19 +9803,19 @@
         <v>13</v>
       </c>
       <c r="D210" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E210" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F210" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="G210" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="H210" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="I210" t="s">
         <v>19</v>
@@ -9826,19 +9841,19 @@
         <v>13</v>
       </c>
       <c r="D211" t="s">
+        <v>365</v>
+      </c>
+      <c r="E211" t="s">
+        <v>370</v>
+      </c>
+      <c r="F211" t="s">
+        <v>371</v>
+      </c>
+      <c r="G211" t="s">
+        <v>372</v>
+      </c>
+      <c r="H211" t="s">
         <v>364</v>
-      </c>
-      <c r="E211" t="s">
-        <v>369</v>
-      </c>
-      <c r="F211" t="s">
-        <v>370</v>
-      </c>
-      <c r="G211" t="s">
-        <v>371</v>
-      </c>
-      <c r="H211" t="s">
-        <v>363</v>
       </c>
       <c r="I211" t="s">
         <v>19</v>
@@ -9864,19 +9879,19 @@
         <v>13</v>
       </c>
       <c r="D212" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E212" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F212" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G212" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H212" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I212" t="s">
         <v>19</v>
@@ -9902,19 +9917,19 @@
         <v>13</v>
       </c>
       <c r="D213" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E213" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F213" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G213" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H213" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I213" t="s">
         <v>19</v>
@@ -9940,19 +9955,19 @@
         <v>13</v>
       </c>
       <c r="D214" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E214" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F214" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G214" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H214" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="I214" t="s">
         <v>19</v>
@@ -9978,19 +9993,19 @@
         <v>13</v>
       </c>
       <c r="D215" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E215" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F215" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G215" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H215" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="I215" t="s">
         <v>19</v>
@@ -10016,19 +10031,19 @@
         <v>13</v>
       </c>
       <c r="D216" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E216" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F216" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G216" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H216" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="I216" t="s">
         <v>19</v>
@@ -10054,19 +10069,19 @@
         <v>13</v>
       </c>
       <c r="D217" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E217" t="s">
+        <v>380</v>
+      </c>
+      <c r="F217" t="s">
+        <v>381</v>
+      </c>
+      <c r="G217" t="s">
+        <v>382</v>
+      </c>
+      <c r="H217" t="s">
         <v>379</v>
-      </c>
-      <c r="F217" t="s">
-        <v>380</v>
-      </c>
-      <c r="G217" t="s">
-        <v>381</v>
-      </c>
-      <c r="H217" t="s">
-        <v>378</v>
       </c>
       <c r="I217" t="s">
         <v>19</v>
@@ -10092,19 +10107,19 @@
         <v>13</v>
       </c>
       <c r="D218" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E218" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F218" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G218" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H218" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="I218" t="s">
         <v>19</v>
@@ -10130,19 +10145,19 @@
         <v>13</v>
       </c>
       <c r="D219" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E219" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F219" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G219" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H219" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="I219" t="s">
         <v>19</v>
@@ -10168,19 +10183,19 @@
         <v>13</v>
       </c>
       <c r="D220" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E220" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F220" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G220" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H220" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="I220" t="s">
         <v>19</v>
@@ -10206,19 +10221,19 @@
         <v>13</v>
       </c>
       <c r="D221" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E221" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F221" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G221" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H221" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I221" t="s">
         <v>19</v>
@@ -10244,19 +10259,19 @@
         <v>13</v>
       </c>
       <c r="D222" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E222" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F222" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="G222" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="H222" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I222" t="s">
         <v>19</v>
@@ -10282,19 +10297,19 @@
         <v>13</v>
       </c>
       <c r="D223" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E223" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F223" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G223" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H223" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I223" t="s">
         <v>19</v>
@@ -10320,19 +10335,19 @@
         <v>13</v>
       </c>
       <c r="D224" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E224" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F224" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="G224" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="H224" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I224" t="s">
         <v>19</v>
@@ -10358,16 +10373,16 @@
         <v>13</v>
       </c>
       <c r="D225" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E225" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F225" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G225" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H225" t="s">
         <v>80</v>
@@ -10396,19 +10411,19 @@
         <v>13</v>
       </c>
       <c r="D226" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E226" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F226" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G226" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H226" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="I226" t="s">
         <v>19</v>
@@ -10434,19 +10449,19 @@
         <v>13</v>
       </c>
       <c r="D227" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E227" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F227" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G227" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="H227" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I227" t="s">
         <v>19</v>
@@ -10472,19 +10487,19 @@
         <v>13</v>
       </c>
       <c r="D228" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E228" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F228" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G228" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H228" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="I228" t="s">
         <v>19</v>
@@ -10510,19 +10525,19 @@
         <v>13</v>
       </c>
       <c r="D229" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E229" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F229" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="G229" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H229" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="I229" t="s">
         <v>19</v>
@@ -10548,19 +10563,19 @@
         <v>13</v>
       </c>
       <c r="D230" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E230" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F230" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G230" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H230" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="I230" t="s">
         <v>19</v>
@@ -10586,19 +10601,19 @@
         <v>13</v>
       </c>
       <c r="D231" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E231" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F231" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G231" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H231" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="I231" t="s">
         <v>19</v>
@@ -10624,19 +10639,19 @@
         <v>13</v>
       </c>
       <c r="D232" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E232" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F232" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G232" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H232" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="I232" t="s">
         <v>19</v>
@@ -10662,16 +10677,16 @@
         <v>13</v>
       </c>
       <c r="D233" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E233" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F233" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="G233" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="H233" t="s">
         <v>109</v>
@@ -10700,19 +10715,19 @@
         <v>13</v>
       </c>
       <c r="D234" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E234" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F234" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="G234" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="H234" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I234" t="s">
         <v>19</v>
@@ -10738,19 +10753,19 @@
         <v>13</v>
       </c>
       <c r="D235" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E235" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F235" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="G235" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="H235" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="I235" t="s">
         <v>19</v>
@@ -10776,19 +10791,19 @@
         <v>13</v>
       </c>
       <c r="D236" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E236" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F236" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G236" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H236" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I236" t="s">
         <v>19</v>
@@ -10814,19 +10829,19 @@
         <v>13</v>
       </c>
       <c r="D237" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E237" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F237" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G237" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H237" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="I237" t="s">
         <v>19</v>
@@ -10852,19 +10867,19 @@
         <v>13</v>
       </c>
       <c r="D238" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E238" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F238" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G238" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H238" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="I238" t="s">
         <v>19</v>
@@ -10890,19 +10905,19 @@
         <v>13</v>
       </c>
       <c r="D239" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E239" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F239" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G239" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H239" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="I239" t="s">
         <v>19</v>
@@ -10928,19 +10943,19 @@
         <v>13</v>
       </c>
       <c r="D240" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E240" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F240" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G240" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H240" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="I240" t="s">
         <v>19</v>
@@ -10966,19 +10981,19 @@
         <v>13</v>
       </c>
       <c r="D241" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="E241" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F241" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="G241" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="H241" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="I241" t="s">
         <v>19</v>
@@ -11004,19 +11019,19 @@
         <v>13</v>
       </c>
       <c r="D242" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E242" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F242" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G242" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H242" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="I242" t="s">
         <v>19</v>
@@ -11042,19 +11057,19 @@
         <v>13</v>
       </c>
       <c r="D243" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E243" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F243" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G243" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H243" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="I243" t="s">
         <v>19</v>
@@ -11080,19 +11095,19 @@
         <v>13</v>
       </c>
       <c r="D244" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E244" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F244" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G244" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H244" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I244" t="s">
         <v>19</v>
@@ -11118,19 +11133,19 @@
         <v>13</v>
       </c>
       <c r="D245" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E245" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F245" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="G245" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H245" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="I245" t="s">
         <v>19</v>
@@ -11156,19 +11171,19 @@
         <v>13</v>
       </c>
       <c r="D246" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E246" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F246" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G246" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H246" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="I246" t="s">
         <v>19</v>
@@ -11194,19 +11209,19 @@
         <v>13</v>
       </c>
       <c r="D247" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E247" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F247" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G247" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H247" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="I247" t="s">
         <v>19</v>
@@ -11232,19 +11247,19 @@
         <v>13</v>
       </c>
       <c r="D248" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E248" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F248" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G248" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H248" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="I248" t="s">
         <v>19</v>
@@ -11270,19 +11285,19 @@
         <v>13</v>
       </c>
       <c r="D249" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E249" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F249" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G249" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H249" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="I249" t="s">
         <v>19</v>
@@ -11308,19 +11323,19 @@
         <v>13</v>
       </c>
       <c r="D250" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E250" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F250" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G250" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H250" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="I250" t="s">
         <v>19</v>
@@ -11346,19 +11361,19 @@
         <v>13</v>
       </c>
       <c r="D251" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E251" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F251" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G251" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H251" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="I251" t="s">
         <v>19</v>
@@ -11384,19 +11399,19 @@
         <v>13</v>
       </c>
       <c r="D252" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E252" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F252" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G252" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H252" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I252" t="s">
         <v>19</v>
@@ -11422,19 +11437,19 @@
         <v>13</v>
       </c>
       <c r="D253" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E253" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F253" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G253" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H253" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="I253" t="s">
         <v>19</v>
@@ -11460,19 +11475,19 @@
         <v>13</v>
       </c>
       <c r="D254" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E254" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F254" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G254" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H254" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="I254" t="s">
         <v>19</v>
@@ -11498,19 +11513,19 @@
         <v>13</v>
       </c>
       <c r="D255" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E255" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F255" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G255" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H255" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="I255" t="s">
         <v>19</v>
@@ -11536,19 +11551,19 @@
         <v>13</v>
       </c>
       <c r="D256" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E256" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F256" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G256" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H256" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="I256" t="s">
         <v>19</v>
@@ -11574,19 +11589,19 @@
         <v>13</v>
       </c>
       <c r="D257" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E257" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F257" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G257" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H257" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="I257" t="s">
         <v>19</v>
@@ -11612,19 +11627,19 @@
         <v>13</v>
       </c>
       <c r="D258" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E258" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F258" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G258" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H258" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="I258" t="s">
         <v>19</v>
@@ -11650,19 +11665,19 @@
         <v>13</v>
       </c>
       <c r="D259" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E259" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F259" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G259" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H259" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I259" t="s">
         <v>19</v>
@@ -11688,19 +11703,19 @@
         <v>13</v>
       </c>
       <c r="D260" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E260" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F260" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G260" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H260" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I260" t="s">
         <v>19</v>
@@ -11726,19 +11741,19 @@
         <v>13</v>
       </c>
       <c r="D261" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E261" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F261" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G261" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H261" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I261" t="s">
         <v>19</v>
@@ -11764,19 +11779,19 @@
         <v>13</v>
       </c>
       <c r="D262" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E262" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F262" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G262" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H262" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="I262" t="s">
         <v>19</v>
@@ -11802,19 +11817,19 @@
         <v>13</v>
       </c>
       <c r="D263" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E263" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F263" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G263" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H263" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="I263" t="s">
         <v>19</v>
@@ -11840,19 +11855,19 @@
         <v>13</v>
       </c>
       <c r="D264" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E264" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F264" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G264" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H264" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="I264" t="s">
         <v>19</v>
@@ -11878,19 +11893,19 @@
         <v>13</v>
       </c>
       <c r="D265" t="s">
+        <v>365</v>
+      </c>
+      <c r="E265" t="s">
+        <v>441</v>
+      </c>
+      <c r="F265" t="s">
+        <v>442</v>
+      </c>
+      <c r="G265" t="s">
+        <v>443</v>
+      </c>
+      <c r="H265" t="s">
         <v>364</v>
-      </c>
-      <c r="E265" t="s">
-        <v>440</v>
-      </c>
-      <c r="F265" t="s">
-        <v>441</v>
-      </c>
-      <c r="G265" t="s">
-        <v>442</v>
-      </c>
-      <c r="H265" t="s">
-        <v>363</v>
       </c>
       <c r="I265" t="s">
         <v>19</v>
@@ -11916,19 +11931,19 @@
         <v>13</v>
       </c>
       <c r="D266" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E266" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F266" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G266" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H266" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="I266" t="s">
         <v>19</v>
@@ -11954,19 +11969,19 @@
         <v>13</v>
       </c>
       <c r="D267" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E267" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F267" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G267" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H267" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="I267" t="s">
         <v>19</v>
@@ -11992,19 +12007,19 @@
         <v>13</v>
       </c>
       <c r="D268" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E268" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F268" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G268" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H268" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="I268" t="s">
         <v>19</v>
@@ -12030,19 +12045,19 @@
         <v>13</v>
       </c>
       <c r="D269" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E269" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F269" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G269" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H269" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="I269" t="s">
         <v>19</v>
@@ -12068,19 +12083,19 @@
         <v>13</v>
       </c>
       <c r="D270" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E270" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F270" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G270" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H270" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="I270" t="s">
         <v>19</v>
@@ -12106,19 +12121,19 @@
         <v>13</v>
       </c>
       <c r="D271" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E271" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F271" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G271" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H271" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="I271" t="s">
         <v>19</v>
@@ -12144,19 +12159,19 @@
         <v>13</v>
       </c>
       <c r="D272" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E272" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F272" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G272" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H272" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="I272" t="s">
         <v>19</v>
@@ -12182,19 +12197,19 @@
         <v>13</v>
       </c>
       <c r="D273" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E273" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F273" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G273" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H273" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="I273" t="s">
         <v>19</v>
@@ -12220,19 +12235,19 @@
         <v>13</v>
       </c>
       <c r="D274" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E274" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F274" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="G274" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="H274" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="I274" t="s">
         <v>19</v>
@@ -12258,19 +12273,19 @@
         <v>13</v>
       </c>
       <c r="D275" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E275" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F275" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G275" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H275" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I275" t="s">
         <v>19</v>
@@ -12296,19 +12311,19 @@
         <v>13</v>
       </c>
       <c r="D276" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E276" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F276" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="G276" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="H276" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="I276" t="s">
         <v>19</v>
@@ -12334,19 +12349,19 @@
         <v>13</v>
       </c>
       <c r="D277" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E277" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F277" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G277" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="H277" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="I277" t="s">
         <v>19</v>
@@ -12372,19 +12387,19 @@
         <v>13</v>
       </c>
       <c r="D278" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E278" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F278" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="G278" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H278" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="I278" t="s">
         <v>19</v>
@@ -12410,19 +12425,19 @@
         <v>13</v>
       </c>
       <c r="D279" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E279" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F279" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G279" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="H279" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="I279" t="s">
         <v>19</v>
@@ -12448,19 +12463,19 @@
         <v>13</v>
       </c>
       <c r="D280" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E280" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F280" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="G280" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="H280" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="I280" t="s">
         <v>19</v>
@@ -12486,19 +12501,19 @@
         <v>13</v>
       </c>
       <c r="D281" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E281" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F281" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="G281" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="H281" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="I281" t="s">
         <v>19</v>
@@ -12524,19 +12539,19 @@
         <v>13</v>
       </c>
       <c r="D282" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E282" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F282" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="G282" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="H282" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="I282" t="s">
         <v>19</v>
@@ -12562,19 +12577,19 @@
         <v>13</v>
       </c>
       <c r="D283" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E283" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F283" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G283" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H283" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I283" t="s">
         <v>19</v>
@@ -12600,19 +12615,19 @@
         <v>13</v>
       </c>
       <c r="D284" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E284" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F284" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G284" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H284" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="I284" t="s">
         <v>19</v>
@@ -12638,19 +12653,19 @@
         <v>13</v>
       </c>
       <c r="D285" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E285" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F285" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G285" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H285" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="I285" t="s">
         <v>19</v>
@@ -12676,19 +12691,19 @@
         <v>13</v>
       </c>
       <c r="D286" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="E286" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F286" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="G286" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="H286" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="I286" t="s">
         <v>19</v>
@@ -12714,19 +12729,19 @@
         <v>13</v>
       </c>
       <c r="D287" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E287" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F287" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="G287" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H287" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I287" t="s">
         <v>19</v>
@@ -12752,19 +12767,19 @@
         <v>13</v>
       </c>
       <c r="D288" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E288" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F288" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="G288" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="H288" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="I288" t="s">
         <v>19</v>
@@ -12790,19 +12805,19 @@
         <v>13</v>
       </c>
       <c r="D289" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="E289" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F289" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="G289" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="H289" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="I289" t="s">
         <v>19</v>
@@ -12828,13 +12843,13 @@
         <v>13</v>
       </c>
       <c r="D290" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E290" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F290" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G290" t="s">
         <v>121</v>
@@ -12866,19 +12881,19 @@
         <v>13</v>
       </c>
       <c r="D291" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="E291" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F291" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="G291" t="s">
         <v>121</v>
       </c>
       <c r="H291" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="I291" t="s">
         <v>19</v>
@@ -12891,6 +12906,44 @@
       </c>
       <c r="L291">
         <v>2187190</v>
+      </c>
+    </row>
+    <row r="292" spans="1:12">
+      <c r="A292">
+        <v>289</v>
+      </c>
+      <c r="B292">
+        <v>626402</v>
+      </c>
+      <c r="C292" t="s">
+        <v>13</v>
+      </c>
+      <c r="D292" t="s">
+        <v>514</v>
+      </c>
+      <c r="E292" t="s">
+        <v>515</v>
+      </c>
+      <c r="F292" t="s">
+        <v>516</v>
+      </c>
+      <c r="G292" t="s">
+        <v>517</v>
+      </c>
+      <c r="H292" t="s">
+        <v>332</v>
+      </c>
+      <c r="I292" t="s">
+        <v>19</v>
+      </c>
+      <c r="J292">
+        <v>1</v>
+      </c>
+      <c r="K292">
+        <v>188800000</v>
+      </c>
+      <c r="L292">
+        <v>188800000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="799">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="826">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -1952,6 +1952,9 @@
     <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.102.0A.000353</t>
   </si>
   <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.106.0B.000374</t>
+  </si>
+  <si>
     <t>'626402.175.524111.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.101.0A.000828</t>
   </si>
   <si>
@@ -2412,6 +2415,84 @@
   </si>
   <si>
     <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.AB.000259</t>
+  </si>
+  <si>
+    <t>2024-02-29</t>
+  </si>
+  <si>
+    <t>'00170T</t>
+  </si>
+  <si>
+    <t>'241751303003676</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya hidup (Jan-Juni 2024) peserta tubel S3 UB an. Mumpuni Uji Kawedar sesuai SK KPA No 757/KPA.BRSDM/VIII/2021 Tgl 13 Agustus 2021 dan SK PPK No KEP 16/BPPSDM.4/I/2024 Tgl 3 Januari 2024</t>
+  </si>
+  <si>
+    <t>'00171T</t>
+  </si>
+  <si>
+    <t>'241751303003677</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya hidup (Jan-Juni 2024) peserta tubel S2 dan S3 IPB, UNPAD, UNDIP, UNS, UB, AUP, an. Moh Yasir, dkk sesuai SK KaBRSDMKP No 520 Tahun 2022 Tgl 11 Agst 2022 dan SK PPK No KEP 16/BPPSD M.4/I/2024 Tgl 3 Januari 2024</t>
+  </si>
+  <si>
+    <t>'00172T</t>
+  </si>
+  <si>
+    <t>'241751303003678</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya hidup (Jan-Juni 2024) peserta tubel S2 dan S3 IPB,UB,UB,UNDIP,UNAIR,UGM,ITS,UNJ,UNSRAT,AUP,UNS an.Dinarti, dkk sesuai SK KaBRSDMKP No 380 Tahun 2023 Tgl 1 Agst 2023 dan SK PPK NoKEP16/BPPSDM.4/I/2024 Tgl 3 JAN 2024</t>
+  </si>
+  <si>
+    <t>'00176T</t>
+  </si>
+  <si>
+    <t>'241751303003679</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor TKI-FIN/2024-I/SO14841/02 Tanggal 28 Januari 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.522191.03212WA.2378FAB.A000000001.00000.1.0151.2.000000.000000.001.101.0A.001329</t>
+  </si>
+  <si>
+    <t>2024-02-28</t>
+  </si>
+  <si>
+    <t>'00178T</t>
+  </si>
+  <si>
+    <t>'241751303003813</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AA.000424</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BA.001609</t>
+  </si>
+  <si>
+    <t>'626402.175.521111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BA.001610</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.AE.000277</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.AE.000278</t>
+  </si>
+  <si>
+    <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AC.000448</t>
+  </si>
+  <si>
+    <t>'00179T</t>
+  </si>
+  <si>
+    <t>'241751303003814</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan untuk keperluan belanja modal (BPP 001 Set.BRSDM)</t>
   </si>
 </sst>
 </file>
@@ -2753,7 +2834,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L533"/>
+  <dimension ref="A1:L556"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -16662,7 +16743,7 @@
         <v>641</v>
       </c>
       <c r="H368" t="s">
-        <v>305</v>
+        <v>273</v>
       </c>
       <c r="I368" t="s">
         <v>19</v>
@@ -16671,10 +16752,10 @@
         <v>1</v>
       </c>
       <c r="K368">
-        <v>12973080</v>
+        <v>65468328</v>
       </c>
       <c r="L368">
-        <v>12973080</v>
+        <v>65468328</v>
       </c>
     </row>
     <row r="369" spans="1:12">
@@ -16700,7 +16781,7 @@
         <v>641</v>
       </c>
       <c r="H369" t="s">
-        <v>273</v>
+        <v>644</v>
       </c>
       <c r="I369" t="s">
         <v>19</v>
@@ -16709,10 +16790,10 @@
         <v>1</v>
       </c>
       <c r="K369">
-        <v>65468328</v>
+        <v>7457860</v>
       </c>
       <c r="L369">
-        <v>65468328</v>
+        <v>7457860</v>
       </c>
     </row>
     <row r="370" spans="1:12">
@@ -16738,7 +16819,7 @@
         <v>641</v>
       </c>
       <c r="H370" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="I370" t="s">
         <v>19</v>
@@ -16747,10 +16828,10 @@
         <v>1</v>
       </c>
       <c r="K370">
-        <v>7457860</v>
+        <v>12973080</v>
       </c>
       <c r="L370">
-        <v>7457860</v>
+        <v>12973080</v>
       </c>
     </row>
     <row r="371" spans="1:12">
@@ -16814,7 +16895,7 @@
         <v>641</v>
       </c>
       <c r="H372" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="I372" t="s">
         <v>19</v>
@@ -16957,16 +17038,16 @@
         <v>638</v>
       </c>
       <c r="E376" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F376" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G376" t="s">
         <v>641</v>
       </c>
       <c r="H376" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="I376" t="s">
         <v>19</v>
@@ -16995,10 +17076,10 @@
         <v>638</v>
       </c>
       <c r="E377" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F377" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G377" t="s">
         <v>641</v>
@@ -17033,10 +17114,10 @@
         <v>638</v>
       </c>
       <c r="E378" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F378" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G378" t="s">
         <v>641</v>
@@ -17071,16 +17152,16 @@
         <v>638</v>
       </c>
       <c r="E379" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F379" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G379" t="s">
         <v>641</v>
       </c>
       <c r="H379" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="I379" t="s">
         <v>19</v>
@@ -17109,16 +17190,16 @@
         <v>638</v>
       </c>
       <c r="E380" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F380" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G380" t="s">
         <v>641</v>
       </c>
       <c r="H380" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="I380" t="s">
         <v>19</v>
@@ -17147,16 +17228,16 @@
         <v>638</v>
       </c>
       <c r="E381" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F381" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G381" t="s">
         <v>641</v>
       </c>
       <c r="H381" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="I381" t="s">
         <v>19</v>
@@ -17185,16 +17266,16 @@
         <v>638</v>
       </c>
       <c r="E382" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F382" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G382" t="s">
         <v>641</v>
       </c>
       <c r="H382" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="I382" t="s">
         <v>19</v>
@@ -17223,16 +17304,16 @@
         <v>638</v>
       </c>
       <c r="E383" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F383" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G383" t="s">
         <v>641</v>
       </c>
       <c r="H383" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="I383" t="s">
         <v>19</v>
@@ -17261,10 +17342,10 @@
         <v>638</v>
       </c>
       <c r="E384" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F384" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G384" t="s">
         <v>641</v>
@@ -17299,10 +17380,10 @@
         <v>638</v>
       </c>
       <c r="E385" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F385" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G385" t="s">
         <v>641</v>
@@ -17337,10 +17418,10 @@
         <v>638</v>
       </c>
       <c r="E386" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F386" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G386" t="s">
         <v>641</v>
@@ -17375,10 +17456,10 @@
         <v>638</v>
       </c>
       <c r="E387" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F387" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G387" t="s">
         <v>641</v>
@@ -17413,10 +17494,10 @@
         <v>638</v>
       </c>
       <c r="E388" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F388" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G388" t="s">
         <v>641</v>
@@ -17451,16 +17532,16 @@
         <v>638</v>
       </c>
       <c r="E389" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F389" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G389" t="s">
         <v>641</v>
       </c>
       <c r="H389" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="I389" t="s">
         <v>19</v>
@@ -17489,16 +17570,16 @@
         <v>638</v>
       </c>
       <c r="E390" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F390" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G390" t="s">
         <v>641</v>
       </c>
       <c r="H390" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="I390" t="s">
         <v>19</v>
@@ -17527,10 +17608,10 @@
         <v>638</v>
       </c>
       <c r="E391" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="F391" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="G391" t="s">
         <v>641</v>
@@ -17562,16 +17643,16 @@
         <v>13</v>
       </c>
       <c r="D392" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E392" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="F392" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="G392" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="H392" t="s">
         <v>272</v>
@@ -17603,16 +17684,16 @@
         <v>511</v>
       </c>
       <c r="E393" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F393" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G393" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H393" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="I393" t="s">
         <v>19</v>
@@ -17641,16 +17722,16 @@
         <v>511</v>
       </c>
       <c r="E394" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F394" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G394" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H394" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="I394" t="s">
         <v>19</v>
@@ -17679,16 +17760,16 @@
         <v>511</v>
       </c>
       <c r="E395" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F395" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G395" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H395" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="I395" t="s">
         <v>19</v>
@@ -17717,16 +17798,16 @@
         <v>511</v>
       </c>
       <c r="E396" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F396" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G396" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H396" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="I396" t="s">
         <v>19</v>
@@ -17755,16 +17836,16 @@
         <v>511</v>
       </c>
       <c r="E397" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F397" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G397" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H397" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="I397" t="s">
         <v>19</v>
@@ -17793,16 +17874,16 @@
         <v>511</v>
       </c>
       <c r="E398" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F398" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G398" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H398" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="I398" t="s">
         <v>19</v>
@@ -17831,16 +17912,16 @@
         <v>511</v>
       </c>
       <c r="E399" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F399" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G399" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H399" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="I399" t="s">
         <v>19</v>
@@ -17869,16 +17950,16 @@
         <v>511</v>
       </c>
       <c r="E400" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F400" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G400" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H400" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="I400" t="s">
         <v>19</v>
@@ -17907,16 +17988,16 @@
         <v>511</v>
       </c>
       <c r="E401" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F401" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G401" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H401" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="I401" t="s">
         <v>19</v>
@@ -17945,13 +18026,13 @@
         <v>511</v>
       </c>
       <c r="E402" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F402" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G402" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H402" t="s">
         <v>206</v>
@@ -17983,16 +18064,16 @@
         <v>511</v>
       </c>
       <c r="E403" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F403" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G403" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H403" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="I403" t="s">
         <v>19</v>
@@ -18021,16 +18102,16 @@
         <v>511</v>
       </c>
       <c r="E404" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F404" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G404" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H404" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="I404" t="s">
         <v>19</v>
@@ -18059,16 +18140,16 @@
         <v>511</v>
       </c>
       <c r="E405" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F405" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G405" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H405" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="I405" t="s">
         <v>19</v>
@@ -18097,16 +18178,16 @@
         <v>511</v>
       </c>
       <c r="E406" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F406" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G406" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H406" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="I406" t="s">
         <v>19</v>
@@ -18135,16 +18216,16 @@
         <v>511</v>
       </c>
       <c r="E407" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F407" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G407" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H407" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="I407" t="s">
         <v>19</v>
@@ -18173,16 +18254,16 @@
         <v>511</v>
       </c>
       <c r="E408" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F408" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G408" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H408" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="I408" t="s">
         <v>19</v>
@@ -18211,16 +18292,16 @@
         <v>511</v>
       </c>
       <c r="E409" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F409" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G409" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H409" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="I409" t="s">
         <v>19</v>
@@ -18249,16 +18330,16 @@
         <v>511</v>
       </c>
       <c r="E410" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F410" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G410" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H410" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="I410" t="s">
         <v>19</v>
@@ -18287,16 +18368,16 @@
         <v>511</v>
       </c>
       <c r="E411" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F411" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G411" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H411" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="I411" t="s">
         <v>19</v>
@@ -18325,16 +18406,16 @@
         <v>511</v>
       </c>
       <c r="E412" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F412" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G412" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H412" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="I412" t="s">
         <v>19</v>
@@ -18363,16 +18444,16 @@
         <v>511</v>
       </c>
       <c r="E413" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F413" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G413" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H413" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="I413" t="s">
         <v>19</v>
@@ -18401,16 +18482,16 @@
         <v>511</v>
       </c>
       <c r="E414" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F414" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G414" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H414" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="I414" t="s">
         <v>19</v>
@@ -18439,13 +18520,13 @@
         <v>511</v>
       </c>
       <c r="E415" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F415" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G415" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H415" t="s">
         <v>529</v>
@@ -18477,16 +18558,16 @@
         <v>511</v>
       </c>
       <c r="E416" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F416" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G416" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H416" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="I416" t="s">
         <v>19</v>
@@ -18515,16 +18596,16 @@
         <v>511</v>
       </c>
       <c r="E417" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F417" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G417" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H417" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="I417" t="s">
         <v>19</v>
@@ -18553,16 +18634,16 @@
         <v>511</v>
       </c>
       <c r="E418" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F418" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G418" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H418" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="I418" t="s">
         <v>19</v>
@@ -18591,16 +18672,16 @@
         <v>511</v>
       </c>
       <c r="E419" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F419" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G419" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H419" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="I419" t="s">
         <v>19</v>
@@ -18629,16 +18710,16 @@
         <v>511</v>
       </c>
       <c r="E420" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F420" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G420" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H420" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="I420" t="s">
         <v>19</v>
@@ -18667,13 +18748,13 @@
         <v>511</v>
       </c>
       <c r="E421" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F421" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G421" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H421" t="s">
         <v>209</v>
@@ -18705,16 +18786,16 @@
         <v>511</v>
       </c>
       <c r="E422" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F422" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G422" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H422" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="I422" t="s">
         <v>19</v>
@@ -18743,13 +18824,13 @@
         <v>511</v>
       </c>
       <c r="E423" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F423" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G423" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H423" t="s">
         <v>210</v>
@@ -18781,16 +18862,16 @@
         <v>511</v>
       </c>
       <c r="E424" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F424" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G424" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H424" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="I424" t="s">
         <v>19</v>
@@ -18819,13 +18900,13 @@
         <v>511</v>
       </c>
       <c r="E425" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F425" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G425" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H425" t="s">
         <v>515</v>
@@ -18857,13 +18938,13 @@
         <v>511</v>
       </c>
       <c r="E426" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F426" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G426" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H426" t="s">
         <v>192</v>
@@ -18895,16 +18976,16 @@
         <v>511</v>
       </c>
       <c r="E427" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F427" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G427" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H427" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="I427" t="s">
         <v>19</v>
@@ -18933,13 +19014,13 @@
         <v>511</v>
       </c>
       <c r="E428" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F428" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G428" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H428" t="s">
         <v>211</v>
@@ -18971,13 +19052,13 @@
         <v>511</v>
       </c>
       <c r="E429" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F429" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G429" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H429" t="s">
         <v>212</v>
@@ -19009,16 +19090,16 @@
         <v>511</v>
       </c>
       <c r="E430" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F430" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G430" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H430" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="I430" t="s">
         <v>19</v>
@@ -19047,13 +19128,13 @@
         <v>511</v>
       </c>
       <c r="E431" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F431" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G431" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H431" t="s">
         <v>213</v>
@@ -19085,16 +19166,16 @@
         <v>511</v>
       </c>
       <c r="E432" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F432" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G432" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H432" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="I432" t="s">
         <v>19</v>
@@ -19123,16 +19204,16 @@
         <v>511</v>
       </c>
       <c r="E433" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F433" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G433" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H433" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="I433" t="s">
         <v>19</v>
@@ -19161,16 +19242,16 @@
         <v>511</v>
       </c>
       <c r="E434" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="F434" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="G434" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="H434" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="I434" t="s">
         <v>19</v>
@@ -19199,16 +19280,16 @@
         <v>511</v>
       </c>
       <c r="E435" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F435" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G435" t="s">
         <v>641</v>
       </c>
       <c r="H435" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="I435" t="s">
         <v>19</v>
@@ -19237,16 +19318,16 @@
         <v>511</v>
       </c>
       <c r="E436" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F436" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G436" t="s">
         <v>641</v>
       </c>
       <c r="H436" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="I436" t="s">
         <v>19</v>
@@ -19275,16 +19356,16 @@
         <v>511</v>
       </c>
       <c r="E437" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F437" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G437" t="s">
         <v>641</v>
       </c>
       <c r="H437" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="I437" t="s">
         <v>19</v>
@@ -19313,16 +19394,16 @@
         <v>511</v>
       </c>
       <c r="E438" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F438" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G438" t="s">
         <v>641</v>
       </c>
       <c r="H438" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="I438" t="s">
         <v>19</v>
@@ -19351,16 +19432,16 @@
         <v>511</v>
       </c>
       <c r="E439" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F439" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G439" t="s">
         <v>641</v>
       </c>
       <c r="H439" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="I439" t="s">
         <v>19</v>
@@ -19389,16 +19470,16 @@
         <v>511</v>
       </c>
       <c r="E440" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F440" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G440" t="s">
         <v>641</v>
       </c>
       <c r="H440" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="I440" t="s">
         <v>19</v>
@@ -19427,16 +19508,16 @@
         <v>511</v>
       </c>
       <c r="E441" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F441" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G441" t="s">
         <v>641</v>
       </c>
       <c r="H441" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="I441" t="s">
         <v>19</v>
@@ -19465,10 +19546,10 @@
         <v>511</v>
       </c>
       <c r="E442" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F442" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G442" t="s">
         <v>641</v>
@@ -19503,10 +19584,10 @@
         <v>511</v>
       </c>
       <c r="E443" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F443" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G443" t="s">
         <v>641</v>
@@ -19541,10 +19622,10 @@
         <v>511</v>
       </c>
       <c r="E444" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F444" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G444" t="s">
         <v>641</v>
@@ -19579,16 +19660,16 @@
         <v>511</v>
       </c>
       <c r="E445" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F445" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G445" t="s">
         <v>641</v>
       </c>
       <c r="H445" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="I445" t="s">
         <v>19</v>
@@ -19617,10 +19698,10 @@
         <v>511</v>
       </c>
       <c r="E446" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F446" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G446" t="s">
         <v>641</v>
@@ -19655,10 +19736,10 @@
         <v>511</v>
       </c>
       <c r="E447" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F447" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G447" t="s">
         <v>641</v>
@@ -19693,16 +19774,16 @@
         <v>511</v>
       </c>
       <c r="E448" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F448" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G448" t="s">
         <v>641</v>
       </c>
       <c r="H448" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="I448" t="s">
         <v>19</v>
@@ -19731,10 +19812,10 @@
         <v>511</v>
       </c>
       <c r="E449" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F449" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G449" t="s">
         <v>641</v>
@@ -19769,16 +19850,16 @@
         <v>511</v>
       </c>
       <c r="E450" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F450" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G450" t="s">
         <v>641</v>
       </c>
       <c r="H450" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="I450" t="s">
         <v>19</v>
@@ -19807,16 +19888,16 @@
         <v>511</v>
       </c>
       <c r="E451" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="F451" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="G451" t="s">
         <v>641</v>
       </c>
       <c r="H451" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="I451" t="s">
         <v>19</v>
@@ -19845,16 +19926,16 @@
         <v>511</v>
       </c>
       <c r="E452" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F452" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G452" t="s">
         <v>641</v>
       </c>
       <c r="H452" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="I452" t="s">
         <v>19</v>
@@ -19883,16 +19964,16 @@
         <v>511</v>
       </c>
       <c r="E453" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F453" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G453" t="s">
         <v>641</v>
       </c>
       <c r="H453" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="I453" t="s">
         <v>19</v>
@@ -19921,10 +20002,10 @@
         <v>511</v>
       </c>
       <c r="E454" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F454" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G454" t="s">
         <v>641</v>
@@ -19959,10 +20040,10 @@
         <v>511</v>
       </c>
       <c r="E455" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F455" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G455" t="s">
         <v>641</v>
@@ -19997,16 +20078,16 @@
         <v>511</v>
       </c>
       <c r="E456" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F456" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G456" t="s">
         <v>641</v>
       </c>
       <c r="H456" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="I456" t="s">
         <v>19</v>
@@ -20035,10 +20116,10 @@
         <v>511</v>
       </c>
       <c r="E457" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F457" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G457" t="s">
         <v>641</v>
@@ -20053,10 +20134,10 @@
         <v>1</v>
       </c>
       <c r="K457">
-        <v>42140121</v>
+        <v>27317300</v>
       </c>
       <c r="L457">
-        <v>42140121</v>
+        <v>27317300</v>
       </c>
     </row>
     <row r="458" spans="1:12">
@@ -20073,16 +20154,16 @@
         <v>511</v>
       </c>
       <c r="E458" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F458" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G458" t="s">
         <v>641</v>
       </c>
       <c r="H458" t="s">
-        <v>386</v>
+        <v>645</v>
       </c>
       <c r="I458" t="s">
         <v>19</v>
@@ -20091,10 +20172,10 @@
         <v>1</v>
       </c>
       <c r="K458">
-        <v>28417357</v>
+        <v>14822821</v>
       </c>
       <c r="L458">
-        <v>28417357</v>
+        <v>14822821</v>
       </c>
     </row>
     <row r="459" spans="1:12">
@@ -20111,16 +20192,16 @@
         <v>511</v>
       </c>
       <c r="E459" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F459" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G459" t="s">
         <v>641</v>
       </c>
       <c r="H459" t="s">
-        <v>714</v>
+        <v>386</v>
       </c>
       <c r="I459" t="s">
         <v>19</v>
@@ -20129,10 +20210,10 @@
         <v>1</v>
       </c>
       <c r="K459">
-        <v>54865576</v>
+        <v>28417357</v>
       </c>
       <c r="L459">
-        <v>54865576</v>
+        <v>28417357</v>
       </c>
     </row>
     <row r="460" spans="1:12">
@@ -20149,10 +20230,10 @@
         <v>511</v>
       </c>
       <c r="E460" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F460" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G460" t="s">
         <v>641</v>
@@ -20167,10 +20248,10 @@
         <v>1</v>
       </c>
       <c r="K460">
-        <v>170000</v>
+        <v>54865576</v>
       </c>
       <c r="L460">
-        <v>170000</v>
+        <v>54865576</v>
       </c>
     </row>
     <row r="461" spans="1:12">
@@ -20187,10 +20268,10 @@
         <v>511</v>
       </c>
       <c r="E461" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F461" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G461" t="s">
         <v>641</v>
@@ -20205,10 +20286,10 @@
         <v>1</v>
       </c>
       <c r="K461">
-        <v>1020000</v>
+        <v>170000</v>
       </c>
       <c r="L461">
-        <v>1020000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="462" spans="1:12">
@@ -20225,10 +20306,10 @@
         <v>511</v>
       </c>
       <c r="E462" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F462" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G462" t="s">
         <v>641</v>
@@ -20243,10 +20324,10 @@
         <v>1</v>
       </c>
       <c r="K462">
-        <v>170000</v>
+        <v>1020000</v>
       </c>
       <c r="L462">
-        <v>170000</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="463" spans="1:12">
@@ -20263,10 +20344,10 @@
         <v>511</v>
       </c>
       <c r="E463" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F463" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G463" t="s">
         <v>641</v>
@@ -20281,10 +20362,10 @@
         <v>1</v>
       </c>
       <c r="K463">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="L463">
-        <v>130000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="464" spans="1:12">
@@ -20301,16 +20382,16 @@
         <v>511</v>
       </c>
       <c r="E464" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F464" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G464" t="s">
         <v>641</v>
       </c>
       <c r="H464" t="s">
-        <v>312</v>
+        <v>719</v>
       </c>
       <c r="I464" t="s">
         <v>19</v>
@@ -20319,10 +20400,10 @@
         <v>1</v>
       </c>
       <c r="K464">
-        <v>1530000</v>
+        <v>130000</v>
       </c>
       <c r="L464">
-        <v>1530000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="465" spans="1:12">
@@ -20339,16 +20420,16 @@
         <v>511</v>
       </c>
       <c r="E465" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="F465" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G465" t="s">
         <v>641</v>
       </c>
       <c r="H465" t="s">
-        <v>471</v>
+        <v>312</v>
       </c>
       <c r="I465" t="s">
         <v>19</v>
@@ -20357,10 +20438,10 @@
         <v>1</v>
       </c>
       <c r="K465">
-        <v>1890000</v>
+        <v>1530000</v>
       </c>
       <c r="L465">
-        <v>1890000</v>
+        <v>1530000</v>
       </c>
     </row>
     <row r="466" spans="1:12">
@@ -20377,16 +20458,16 @@
         <v>511</v>
       </c>
       <c r="E466" t="s">
-        <v>719</v>
+        <v>710</v>
       </c>
       <c r="F466" t="s">
-        <v>720</v>
+        <v>711</v>
       </c>
       <c r="G466" t="s">
         <v>641</v>
       </c>
       <c r="H466" t="s">
-        <v>721</v>
+        <v>471</v>
       </c>
       <c r="I466" t="s">
         <v>19</v>
@@ -20395,10 +20476,10 @@
         <v>1</v>
       </c>
       <c r="K466">
-        <v>43750000</v>
+        <v>1890000</v>
       </c>
       <c r="L466">
-        <v>43750000</v>
+        <v>1890000</v>
       </c>
     </row>
     <row r="467" spans="1:12">
@@ -20415,16 +20496,16 @@
         <v>511</v>
       </c>
       <c r="E467" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F467" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G467" t="s">
         <v>641</v>
       </c>
       <c r="H467" t="s">
-        <v>263</v>
+        <v>722</v>
       </c>
       <c r="I467" t="s">
         <v>19</v>
@@ -20433,10 +20514,10 @@
         <v>1</v>
       </c>
       <c r="K467">
-        <v>550000</v>
+        <v>43750000</v>
       </c>
       <c r="L467">
-        <v>550000</v>
+        <v>43750000</v>
       </c>
     </row>
     <row r="468" spans="1:12">
@@ -20453,16 +20534,16 @@
         <v>511</v>
       </c>
       <c r="E468" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F468" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G468" t="s">
         <v>641</v>
       </c>
       <c r="H468" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="I468" t="s">
         <v>19</v>
@@ -20471,10 +20552,10 @@
         <v>1</v>
       </c>
       <c r="K468">
-        <v>766560</v>
+        <v>550000</v>
       </c>
       <c r="L468">
-        <v>766560</v>
+        <v>550000</v>
       </c>
     </row>
     <row r="469" spans="1:12">
@@ -20491,16 +20572,16 @@
         <v>511</v>
       </c>
       <c r="E469" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F469" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G469" t="s">
         <v>641</v>
       </c>
       <c r="H469" t="s">
-        <v>722</v>
+        <v>264</v>
       </c>
       <c r="I469" t="s">
         <v>19</v>
@@ -20509,10 +20590,10 @@
         <v>1</v>
       </c>
       <c r="K469">
-        <v>2700000</v>
+        <v>766560</v>
       </c>
       <c r="L469">
-        <v>2700000</v>
+        <v>766560</v>
       </c>
     </row>
     <row r="470" spans="1:12">
@@ -20529,10 +20610,10 @@
         <v>511</v>
       </c>
       <c r="E470" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F470" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G470" t="s">
         <v>641</v>
@@ -20547,10 +20628,10 @@
         <v>1</v>
       </c>
       <c r="K470">
-        <v>6000000</v>
+        <v>2700000</v>
       </c>
       <c r="L470">
-        <v>6000000</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="471" spans="1:12">
@@ -20567,10 +20648,10 @@
         <v>511</v>
       </c>
       <c r="E471" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F471" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G471" t="s">
         <v>641</v>
@@ -20585,10 +20666,10 @@
         <v>1</v>
       </c>
       <c r="K471">
-        <v>7200000</v>
+        <v>6000000</v>
       </c>
       <c r="L471">
-        <v>7200000</v>
+        <v>6000000</v>
       </c>
     </row>
     <row r="472" spans="1:12">
@@ -20605,16 +20686,16 @@
         <v>511</v>
       </c>
       <c r="E472" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F472" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G472" t="s">
         <v>641</v>
       </c>
       <c r="H472" t="s">
-        <v>305</v>
+        <v>725</v>
       </c>
       <c r="I472" t="s">
         <v>19</v>
@@ -20623,10 +20704,10 @@
         <v>1</v>
       </c>
       <c r="K472">
-        <v>3124000</v>
+        <v>7200000</v>
       </c>
       <c r="L472">
-        <v>3124000</v>
+        <v>7200000</v>
       </c>
     </row>
     <row r="473" spans="1:12">
@@ -20643,16 +20724,16 @@
         <v>511</v>
       </c>
       <c r="E473" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F473" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G473" t="s">
         <v>641</v>
       </c>
       <c r="H473" t="s">
-        <v>128</v>
+        <v>305</v>
       </c>
       <c r="I473" t="s">
         <v>19</v>
@@ -20661,10 +20742,10 @@
         <v>1</v>
       </c>
       <c r="K473">
-        <v>25733824</v>
+        <v>3124000</v>
       </c>
       <c r="L473">
-        <v>25733824</v>
+        <v>3124000</v>
       </c>
     </row>
     <row r="474" spans="1:12">
@@ -20681,16 +20762,16 @@
         <v>511</v>
       </c>
       <c r="E474" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F474" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G474" t="s">
         <v>641</v>
       </c>
       <c r="H474" t="s">
-        <v>518</v>
+        <v>128</v>
       </c>
       <c r="I474" t="s">
         <v>19</v>
@@ -20699,10 +20780,10 @@
         <v>1</v>
       </c>
       <c r="K474">
-        <v>12466100</v>
+        <v>25733824</v>
       </c>
       <c r="L474">
-        <v>12466100</v>
+        <v>25733824</v>
       </c>
     </row>
     <row r="475" spans="1:12">
@@ -20719,16 +20800,16 @@
         <v>511</v>
       </c>
       <c r="E475" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F475" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G475" t="s">
         <v>641</v>
       </c>
       <c r="H475" t="s">
-        <v>275</v>
+        <v>518</v>
       </c>
       <c r="I475" t="s">
         <v>19</v>
@@ -20737,10 +20818,10 @@
         <v>1</v>
       </c>
       <c r="K475">
-        <v>10420780</v>
+        <v>12466100</v>
       </c>
       <c r="L475">
-        <v>10420780</v>
+        <v>12466100</v>
       </c>
     </row>
     <row r="476" spans="1:12">
@@ -20757,16 +20838,16 @@
         <v>511</v>
       </c>
       <c r="E476" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F476" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G476" t="s">
         <v>641</v>
       </c>
       <c r="H476" t="s">
-        <v>183</v>
+        <v>275</v>
       </c>
       <c r="I476" t="s">
         <v>19</v>
@@ -20775,10 +20856,10 @@
         <v>1</v>
       </c>
       <c r="K476">
-        <v>960000</v>
+        <v>10420780</v>
       </c>
       <c r="L476">
-        <v>960000</v>
+        <v>10420780</v>
       </c>
     </row>
     <row r="477" spans="1:12">
@@ -20795,16 +20876,16 @@
         <v>511</v>
       </c>
       <c r="E477" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F477" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G477" t="s">
         <v>641</v>
       </c>
       <c r="H477" t="s">
-        <v>307</v>
+        <v>183</v>
       </c>
       <c r="I477" t="s">
         <v>19</v>
@@ -20813,10 +20894,10 @@
         <v>1</v>
       </c>
       <c r="K477">
-        <v>840000</v>
+        <v>960000</v>
       </c>
       <c r="L477">
-        <v>840000</v>
+        <v>960000</v>
       </c>
     </row>
     <row r="478" spans="1:12">
@@ -20833,16 +20914,16 @@
         <v>511</v>
       </c>
       <c r="E478" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F478" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G478" t="s">
         <v>641</v>
       </c>
       <c r="H478" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="I478" t="s">
         <v>19</v>
@@ -20851,10 +20932,10 @@
         <v>1</v>
       </c>
       <c r="K478">
-        <v>680000</v>
+        <v>840000</v>
       </c>
       <c r="L478">
-        <v>680000</v>
+        <v>840000</v>
       </c>
     </row>
     <row r="479" spans="1:12">
@@ -20871,16 +20952,16 @@
         <v>511</v>
       </c>
       <c r="E479" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F479" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G479" t="s">
         <v>641</v>
       </c>
       <c r="H479" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="I479" t="s">
         <v>19</v>
@@ -20889,10 +20970,10 @@
         <v>1</v>
       </c>
       <c r="K479">
-        <v>2550000</v>
+        <v>680000</v>
       </c>
       <c r="L479">
-        <v>2550000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="480" spans="1:12">
@@ -20909,16 +20990,16 @@
         <v>511</v>
       </c>
       <c r="E480" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F480" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G480" t="s">
         <v>641</v>
       </c>
       <c r="H480" t="s">
-        <v>471</v>
+        <v>312</v>
       </c>
       <c r="I480" t="s">
         <v>19</v>
@@ -20927,10 +21008,10 @@
         <v>1</v>
       </c>
       <c r="K480">
-        <v>2310000</v>
+        <v>2550000</v>
       </c>
       <c r="L480">
-        <v>2310000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="481" spans="1:12">
@@ -20947,16 +21028,16 @@
         <v>511</v>
       </c>
       <c r="E481" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="F481" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="G481" t="s">
         <v>641</v>
       </c>
       <c r="H481" t="s">
-        <v>725</v>
+        <v>471</v>
       </c>
       <c r="I481" t="s">
         <v>19</v>
@@ -20965,10 +21046,10 @@
         <v>1</v>
       </c>
       <c r="K481">
-        <v>955000</v>
+        <v>2310000</v>
       </c>
       <c r="L481">
-        <v>955000</v>
+        <v>2310000</v>
       </c>
     </row>
     <row r="482" spans="1:12">
@@ -20982,20 +21063,20 @@
         <v>13</v>
       </c>
       <c r="D482" t="s">
-        <v>656</v>
+        <v>511</v>
       </c>
       <c r="E482" t="s">
+        <v>720</v>
+      </c>
+      <c r="F482" t="s">
+        <v>721</v>
+      </c>
+      <c r="G482" t="s">
+        <v>641</v>
+      </c>
+      <c r="H482" t="s">
         <v>726</v>
       </c>
-      <c r="F482" t="s">
-        <v>727</v>
-      </c>
-      <c r="G482" t="s">
-        <v>728</v>
-      </c>
-      <c r="H482" t="s">
-        <v>721</v>
-      </c>
       <c r="I482" t="s">
         <v>19</v>
       </c>
@@ -21003,10 +21084,10 @@
         <v>1</v>
       </c>
       <c r="K482">
-        <v>43750000</v>
+        <v>955000</v>
       </c>
       <c r="L482">
-        <v>43750000</v>
+        <v>955000</v>
       </c>
     </row>
     <row r="483" spans="1:12">
@@ -21020,19 +21101,19 @@
         <v>13</v>
       </c>
       <c r="D483" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E483" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F483" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G483" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H483" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="I483" t="s">
         <v>19</v>
@@ -21041,10 +21122,10 @@
         <v>1</v>
       </c>
       <c r="K483">
-        <v>11000000</v>
+        <v>43750000</v>
       </c>
       <c r="L483">
-        <v>11000000</v>
+        <v>43750000</v>
       </c>
     </row>
     <row r="484" spans="1:12">
@@ -21058,19 +21139,19 @@
         <v>13</v>
       </c>
       <c r="D484" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E484" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F484" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G484" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H484" t="s">
-        <v>729</v>
+        <v>724</v>
       </c>
       <c r="I484" t="s">
         <v>19</v>
@@ -21079,10 +21160,10 @@
         <v>1</v>
       </c>
       <c r="K484">
-        <v>4500000</v>
+        <v>11000000</v>
       </c>
       <c r="L484">
-        <v>4500000</v>
+        <v>11000000</v>
       </c>
     </row>
     <row r="485" spans="1:12">
@@ -21096,19 +21177,19 @@
         <v>13</v>
       </c>
       <c r="D485" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E485" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F485" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G485" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H485" t="s">
-        <v>272</v>
+        <v>730</v>
       </c>
       <c r="I485" t="s">
         <v>19</v>
@@ -21117,10 +21198,10 @@
         <v>1</v>
       </c>
       <c r="K485">
-        <v>15862000</v>
+        <v>4500000</v>
       </c>
       <c r="L485">
-        <v>15862000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="486" spans="1:12">
@@ -21134,19 +21215,19 @@
         <v>13</v>
       </c>
       <c r="D486" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E486" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F486" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G486" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H486" t="s">
-        <v>730</v>
+        <v>272</v>
       </c>
       <c r="I486" t="s">
         <v>19</v>
@@ -21155,10 +21236,10 @@
         <v>1</v>
       </c>
       <c r="K486">
-        <v>10008500</v>
+        <v>15862000</v>
       </c>
       <c r="L486">
-        <v>10008500</v>
+        <v>15862000</v>
       </c>
     </row>
     <row r="487" spans="1:12">
@@ -21172,19 +21253,19 @@
         <v>13</v>
       </c>
       <c r="D487" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E487" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F487" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G487" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H487" t="s">
-        <v>148</v>
+        <v>731</v>
       </c>
       <c r="I487" t="s">
         <v>19</v>
@@ -21193,10 +21274,10 @@
         <v>1</v>
       </c>
       <c r="K487">
-        <v>66368916</v>
+        <v>10008500</v>
       </c>
       <c r="L487">
-        <v>66368916</v>
+        <v>10008500</v>
       </c>
     </row>
     <row r="488" spans="1:12">
@@ -21210,19 +21291,19 @@
         <v>13</v>
       </c>
       <c r="D488" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E488" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F488" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G488" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H488" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="I488" t="s">
         <v>19</v>
@@ -21231,10 +21312,10 @@
         <v>1</v>
       </c>
       <c r="K488">
-        <v>10100796</v>
+        <v>66368916</v>
       </c>
       <c r="L488">
-        <v>10100796</v>
+        <v>66368916</v>
       </c>
     </row>
     <row r="489" spans="1:12">
@@ -21248,19 +21329,19 @@
         <v>13</v>
       </c>
       <c r="D489" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E489" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="F489" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G489" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H489" t="s">
-        <v>319</v>
+        <v>118</v>
       </c>
       <c r="I489" t="s">
         <v>19</v>
@@ -21269,10 +21350,10 @@
         <v>1</v>
       </c>
       <c r="K489">
-        <v>22554000</v>
+        <v>10100796</v>
       </c>
       <c r="L489">
-        <v>22554000</v>
+        <v>10100796</v>
       </c>
     </row>
     <row r="490" spans="1:12">
@@ -21286,19 +21367,19 @@
         <v>13</v>
       </c>
       <c r="D490" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E490" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
       <c r="F490" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
       <c r="G490" t="s">
-        <v>121</v>
+        <v>729</v>
       </c>
       <c r="H490" t="s">
-        <v>733</v>
+        <v>319</v>
       </c>
       <c r="I490" t="s">
         <v>19</v>
@@ -21307,10 +21388,10 @@
         <v>1</v>
       </c>
       <c r="K490">
-        <v>2711540</v>
+        <v>22554000</v>
       </c>
       <c r="L490">
-        <v>2711540</v>
+        <v>22554000</v>
       </c>
     </row>
     <row r="491" spans="1:12">
@@ -21324,19 +21405,19 @@
         <v>13</v>
       </c>
       <c r="D491" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E491" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F491" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G491" t="s">
         <v>121</v>
       </c>
       <c r="H491" t="s">
-        <v>499</v>
+        <v>734</v>
       </c>
       <c r="I491" t="s">
         <v>19</v>
@@ -21345,10 +21426,10 @@
         <v>1</v>
       </c>
       <c r="K491">
-        <v>432717</v>
+        <v>2711540</v>
       </c>
       <c r="L491">
-        <v>432717</v>
+        <v>2711540</v>
       </c>
     </row>
     <row r="492" spans="1:12">
@@ -21362,19 +21443,19 @@
         <v>13</v>
       </c>
       <c r="D492" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E492" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="F492" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="G492" t="s">
         <v>121</v>
       </c>
       <c r="H492" t="s">
-        <v>123</v>
+        <v>499</v>
       </c>
       <c r="I492" t="s">
         <v>19</v>
@@ -21383,10 +21464,10 @@
         <v>1</v>
       </c>
       <c r="K492">
-        <v>272809</v>
+        <v>432717</v>
       </c>
       <c r="L492">
-        <v>272809</v>
+        <v>432717</v>
       </c>
     </row>
     <row r="493" spans="1:12">
@@ -21400,19 +21481,19 @@
         <v>13</v>
       </c>
       <c r="D493" t="s">
-        <v>734</v>
+        <v>657</v>
       </c>
       <c r="E493" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
       <c r="F493" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="G493" t="s">
-        <v>737</v>
+        <v>121</v>
       </c>
       <c r="H493" t="s">
-        <v>275</v>
+        <v>123</v>
       </c>
       <c r="I493" t="s">
         <v>19</v>
@@ -21421,10 +21502,10 @@
         <v>1</v>
       </c>
       <c r="K493">
-        <v>3920150</v>
+        <v>272809</v>
       </c>
       <c r="L493">
-        <v>3920150</v>
+        <v>272809</v>
       </c>
     </row>
     <row r="494" spans="1:12">
@@ -21438,19 +21519,19 @@
         <v>13</v>
       </c>
       <c r="D494" t="s">
-        <v>656</v>
+        <v>735</v>
       </c>
       <c r="E494" t="s">
+        <v>736</v>
+      </c>
+      <c r="F494" t="s">
+        <v>737</v>
+      </c>
+      <c r="G494" t="s">
         <v>738</v>
       </c>
-      <c r="F494" t="s">
-        <v>739</v>
-      </c>
-      <c r="G494" t="s">
-        <v>429</v>
-      </c>
       <c r="H494" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="I494" t="s">
         <v>19</v>
@@ -21459,10 +21540,10 @@
         <v>1</v>
       </c>
       <c r="K494">
-        <v>9642900</v>
+        <v>3920150</v>
       </c>
       <c r="L494">
-        <v>9642900</v>
+        <v>3920150</v>
       </c>
     </row>
     <row r="495" spans="1:12">
@@ -21476,19 +21557,19 @@
         <v>13</v>
       </c>
       <c r="D495" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E495" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F495" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G495" t="s">
         <v>429</v>
       </c>
       <c r="H495" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="I495" t="s">
         <v>19</v>
@@ -21497,10 +21578,10 @@
         <v>1</v>
       </c>
       <c r="K495">
-        <v>5465099</v>
+        <v>9642900</v>
       </c>
       <c r="L495">
-        <v>5465099</v>
+        <v>9642900</v>
       </c>
     </row>
     <row r="496" spans="1:12">
@@ -21514,19 +21595,19 @@
         <v>13</v>
       </c>
       <c r="D496" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E496" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F496" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G496" t="s">
         <v>429</v>
       </c>
       <c r="H496" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="I496" t="s">
         <v>19</v>
@@ -21535,10 +21616,10 @@
         <v>1</v>
       </c>
       <c r="K496">
-        <v>909533</v>
+        <v>5465099</v>
       </c>
       <c r="L496">
-        <v>909533</v>
+        <v>5465099</v>
       </c>
     </row>
     <row r="497" spans="1:12">
@@ -21552,19 +21633,19 @@
         <v>13</v>
       </c>
       <c r="D497" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E497" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F497" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G497" t="s">
         <v>429</v>
       </c>
       <c r="H497" t="s">
-        <v>740</v>
+        <v>258</v>
       </c>
       <c r="I497" t="s">
         <v>19</v>
@@ -21573,10 +21654,10 @@
         <v>1</v>
       </c>
       <c r="K497">
-        <v>121284</v>
+        <v>909533</v>
       </c>
       <c r="L497">
-        <v>121284</v>
+        <v>909533</v>
       </c>
     </row>
     <row r="498" spans="1:12">
@@ -21590,13 +21671,13 @@
         <v>13</v>
       </c>
       <c r="D498" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E498" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F498" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G498" t="s">
         <v>429</v>
@@ -21611,10 +21692,10 @@
         <v>1</v>
       </c>
       <c r="K498">
-        <v>220492</v>
+        <v>121284</v>
       </c>
       <c r="L498">
-        <v>220492</v>
+        <v>121284</v>
       </c>
     </row>
     <row r="499" spans="1:12">
@@ -21628,13 +21709,13 @@
         <v>13</v>
       </c>
       <c r="D499" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E499" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F499" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G499" t="s">
         <v>429</v>
@@ -21649,10 +21730,10 @@
         <v>1</v>
       </c>
       <c r="K499">
-        <v>1993650</v>
+        <v>220492</v>
       </c>
       <c r="L499">
-        <v>1993650</v>
+        <v>220492</v>
       </c>
     </row>
     <row r="500" spans="1:12">
@@ -21666,13 +21747,13 @@
         <v>13</v>
       </c>
       <c r="D500" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E500" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F500" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G500" t="s">
         <v>429</v>
@@ -21687,10 +21768,10 @@
         <v>1</v>
       </c>
       <c r="K500">
-        <v>2532000</v>
+        <v>1993650</v>
       </c>
       <c r="L500">
-        <v>2532000</v>
+        <v>1993650</v>
       </c>
     </row>
     <row r="501" spans="1:12">
@@ -21704,13 +21785,13 @@
         <v>13</v>
       </c>
       <c r="D501" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E501" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F501" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G501" t="s">
         <v>429</v>
@@ -21725,10 +21806,10 @@
         <v>1</v>
       </c>
       <c r="K501">
-        <v>998200</v>
+        <v>2532000</v>
       </c>
       <c r="L501">
-        <v>998200</v>
+        <v>2532000</v>
       </c>
     </row>
     <row r="502" spans="1:12">
@@ -21742,13 +21823,13 @@
         <v>13</v>
       </c>
       <c r="D502" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E502" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F502" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G502" t="s">
         <v>429</v>
@@ -21763,10 +21844,10 @@
         <v>1</v>
       </c>
       <c r="K502">
-        <v>992000</v>
+        <v>998200</v>
       </c>
       <c r="L502">
-        <v>992000</v>
+        <v>998200</v>
       </c>
     </row>
     <row r="503" spans="1:12">
@@ -21780,13 +21861,13 @@
         <v>13</v>
       </c>
       <c r="D503" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E503" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F503" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G503" t="s">
         <v>429</v>
@@ -21801,10 +21882,10 @@
         <v>1</v>
       </c>
       <c r="K503">
-        <v>1994700</v>
+        <v>992000</v>
       </c>
       <c r="L503">
-        <v>1994700</v>
+        <v>992000</v>
       </c>
     </row>
     <row r="504" spans="1:12">
@@ -21818,13 +21899,13 @@
         <v>13</v>
       </c>
       <c r="D504" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E504" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F504" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G504" t="s">
         <v>429</v>
@@ -21839,10 +21920,10 @@
         <v>1</v>
       </c>
       <c r="K504">
-        <v>1989000</v>
+        <v>1994700</v>
       </c>
       <c r="L504">
-        <v>1989000</v>
+        <v>1994700</v>
       </c>
     </row>
     <row r="505" spans="1:12">
@@ -21856,19 +21937,19 @@
         <v>13</v>
       </c>
       <c r="D505" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E505" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F505" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G505" t="s">
         <v>429</v>
       </c>
       <c r="H505" t="s">
-        <v>722</v>
+        <v>748</v>
       </c>
       <c r="I505" t="s">
         <v>19</v>
@@ -21877,10 +21958,10 @@
         <v>1</v>
       </c>
       <c r="K505">
-        <v>3600000</v>
+        <v>1989000</v>
       </c>
       <c r="L505">
-        <v>3600000</v>
+        <v>1989000</v>
       </c>
     </row>
     <row r="506" spans="1:12">
@@ -21894,19 +21975,19 @@
         <v>13</v>
       </c>
       <c r="D506" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E506" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F506" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G506" t="s">
         <v>429</v>
       </c>
       <c r="H506" t="s">
-        <v>748</v>
+        <v>723</v>
       </c>
       <c r="I506" t="s">
         <v>19</v>
@@ -21915,10 +21996,10 @@
         <v>1</v>
       </c>
       <c r="K506">
-        <v>400000</v>
+        <v>3600000</v>
       </c>
       <c r="L506">
-        <v>400000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="507" spans="1:12">
@@ -21932,13 +22013,13 @@
         <v>13</v>
       </c>
       <c r="D507" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E507" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F507" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G507" t="s">
         <v>429</v>
@@ -21953,10 +22034,10 @@
         <v>1</v>
       </c>
       <c r="K507">
-        <v>5400000</v>
+        <v>400000</v>
       </c>
       <c r="L507">
-        <v>5400000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="508" spans="1:12">
@@ -21970,13 +22051,13 @@
         <v>13</v>
       </c>
       <c r="D508" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E508" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F508" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G508" t="s">
         <v>429</v>
@@ -21991,10 +22072,10 @@
         <v>1</v>
       </c>
       <c r="K508">
-        <v>4800000</v>
+        <v>5400000</v>
       </c>
       <c r="L508">
-        <v>4800000</v>
+        <v>5400000</v>
       </c>
     </row>
     <row r="509" spans="1:12">
@@ -22008,13 +22089,13 @@
         <v>13</v>
       </c>
       <c r="D509" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E509" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F509" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G509" t="s">
         <v>429</v>
@@ -22029,10 +22110,10 @@
         <v>1</v>
       </c>
       <c r="K509">
-        <v>2700000</v>
+        <v>4800000</v>
       </c>
       <c r="L509">
-        <v>2700000</v>
+        <v>4800000</v>
       </c>
     </row>
     <row r="510" spans="1:12">
@@ -22046,19 +22127,19 @@
         <v>13</v>
       </c>
       <c r="D510" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E510" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F510" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G510" t="s">
         <v>429</v>
       </c>
       <c r="H510" t="s">
-        <v>432</v>
+        <v>752</v>
       </c>
       <c r="I510" t="s">
         <v>19</v>
@@ -22067,10 +22148,10 @@
         <v>1</v>
       </c>
       <c r="K510">
-        <v>3000000</v>
+        <v>2700000</v>
       </c>
       <c r="L510">
-        <v>3000000</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="511" spans="1:12">
@@ -22084,19 +22165,19 @@
         <v>13</v>
       </c>
       <c r="D511" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E511" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F511" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G511" t="s">
         <v>429</v>
       </c>
       <c r="H511" t="s">
-        <v>270</v>
+        <v>432</v>
       </c>
       <c r="I511" t="s">
         <v>19</v>
@@ -22105,10 +22186,10 @@
         <v>1</v>
       </c>
       <c r="K511">
-        <v>750000</v>
+        <v>3000000</v>
       </c>
       <c r="L511">
-        <v>750000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="512" spans="1:12">
@@ -22122,19 +22203,19 @@
         <v>13</v>
       </c>
       <c r="D512" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E512" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F512" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G512" t="s">
         <v>429</v>
       </c>
       <c r="H512" t="s">
-        <v>630</v>
+        <v>270</v>
       </c>
       <c r="I512" t="s">
         <v>19</v>
@@ -22143,10 +22224,10 @@
         <v>1</v>
       </c>
       <c r="K512">
-        <v>46272113</v>
+        <v>750000</v>
       </c>
       <c r="L512">
-        <v>46272113</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="513" spans="1:12">
@@ -22160,19 +22241,19 @@
         <v>13</v>
       </c>
       <c r="D513" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E513" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F513" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G513" t="s">
         <v>429</v>
       </c>
       <c r="H513" t="s">
-        <v>752</v>
+        <v>630</v>
       </c>
       <c r="I513" t="s">
         <v>19</v>
@@ -22181,10 +22262,10 @@
         <v>1</v>
       </c>
       <c r="K513">
-        <v>906000</v>
+        <v>46272113</v>
       </c>
       <c r="L513">
-        <v>906000</v>
+        <v>46272113</v>
       </c>
     </row>
     <row r="514" spans="1:12">
@@ -22198,13 +22279,13 @@
         <v>13</v>
       </c>
       <c r="D514" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E514" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F514" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G514" t="s">
         <v>429</v>
@@ -22219,10 +22300,10 @@
         <v>1</v>
       </c>
       <c r="K514">
-        <v>400000</v>
+        <v>906000</v>
       </c>
       <c r="L514">
-        <v>400000</v>
+        <v>906000</v>
       </c>
     </row>
     <row r="515" spans="1:12">
@@ -22236,13 +22317,13 @@
         <v>13</v>
       </c>
       <c r="D515" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E515" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F515" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G515" t="s">
         <v>429</v>
@@ -22257,10 +22338,10 @@
         <v>1</v>
       </c>
       <c r="K515">
-        <v>2630000</v>
+        <v>400000</v>
       </c>
       <c r="L515">
-        <v>2630000</v>
+        <v>400000</v>
       </c>
     </row>
     <row r="516" spans="1:12">
@@ -22274,19 +22355,19 @@
         <v>13</v>
       </c>
       <c r="D516" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E516" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F516" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G516" t="s">
         <v>429</v>
       </c>
       <c r="H516" t="s">
-        <v>623</v>
+        <v>755</v>
       </c>
       <c r="I516" t="s">
         <v>19</v>
@@ -22295,10 +22376,10 @@
         <v>1</v>
       </c>
       <c r="K516">
-        <v>391000</v>
+        <v>2630000</v>
       </c>
       <c r="L516">
-        <v>391000</v>
+        <v>2630000</v>
       </c>
     </row>
     <row r="517" spans="1:12">
@@ -22312,19 +22393,19 @@
         <v>13</v>
       </c>
       <c r="D517" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E517" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F517" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G517" t="s">
         <v>429</v>
       </c>
       <c r="H517" t="s">
-        <v>717</v>
+        <v>623</v>
       </c>
       <c r="I517" t="s">
         <v>19</v>
@@ -22333,10 +22414,10 @@
         <v>1</v>
       </c>
       <c r="K517">
-        <v>340000</v>
+        <v>391000</v>
       </c>
       <c r="L517">
-        <v>340000</v>
+        <v>391000</v>
       </c>
     </row>
     <row r="518" spans="1:12">
@@ -22350,13 +22431,13 @@
         <v>13</v>
       </c>
       <c r="D518" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E518" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F518" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G518" t="s">
         <v>429</v>
@@ -22371,10 +22452,10 @@
         <v>1</v>
       </c>
       <c r="K518">
-        <v>490000</v>
+        <v>340000</v>
       </c>
       <c r="L518">
-        <v>490000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="519" spans="1:12">
@@ -22388,19 +22469,19 @@
         <v>13</v>
       </c>
       <c r="D519" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E519" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F519" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G519" t="s">
         <v>429</v>
       </c>
       <c r="H519" t="s">
-        <v>312</v>
+        <v>719</v>
       </c>
       <c r="I519" t="s">
         <v>19</v>
@@ -22409,10 +22490,10 @@
         <v>1</v>
       </c>
       <c r="K519">
-        <v>170000</v>
+        <v>490000</v>
       </c>
       <c r="L519">
-        <v>170000</v>
+        <v>490000</v>
       </c>
     </row>
     <row r="520" spans="1:12">
@@ -22426,19 +22507,19 @@
         <v>13</v>
       </c>
       <c r="D520" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E520" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F520" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G520" t="s">
         <v>429</v>
       </c>
       <c r="H520" t="s">
-        <v>725</v>
+        <v>312</v>
       </c>
       <c r="I520" t="s">
         <v>19</v>
@@ -22447,10 +22528,10 @@
         <v>1</v>
       </c>
       <c r="K520">
-        <v>130000</v>
+        <v>170000</v>
       </c>
       <c r="L520">
-        <v>130000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="521" spans="1:12">
@@ -22464,19 +22545,19 @@
         <v>13</v>
       </c>
       <c r="D521" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E521" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F521" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G521" t="s">
         <v>429</v>
       </c>
       <c r="H521" t="s">
-        <v>755</v>
+        <v>726</v>
       </c>
       <c r="I521" t="s">
         <v>19</v>
@@ -22485,10 +22566,10 @@
         <v>1</v>
       </c>
       <c r="K521">
-        <v>170000</v>
+        <v>130000</v>
       </c>
       <c r="L521">
-        <v>170000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="522" spans="1:12">
@@ -22502,13 +22583,13 @@
         <v>13</v>
       </c>
       <c r="D522" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E522" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="F522" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="G522" t="s">
         <v>429</v>
@@ -22523,10 +22604,10 @@
         <v>1</v>
       </c>
       <c r="K522">
-        <v>500000</v>
+        <v>170000</v>
       </c>
       <c r="L522">
-        <v>500000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="523" spans="1:12">
@@ -22540,20 +22621,20 @@
         <v>13</v>
       </c>
       <c r="D523" t="s">
-        <v>734</v>
+        <v>657</v>
       </c>
       <c r="E523" t="s">
+        <v>739</v>
+      </c>
+      <c r="F523" t="s">
+        <v>740</v>
+      </c>
+      <c r="G523" t="s">
+        <v>429</v>
+      </c>
+      <c r="H523" t="s">
         <v>757</v>
       </c>
-      <c r="F523" t="s">
-        <v>758</v>
-      </c>
-      <c r="G523" t="s">
-        <v>759</v>
-      </c>
-      <c r="H523" t="s">
-        <v>85</v>
-      </c>
       <c r="I523" t="s">
         <v>19</v>
       </c>
@@ -22561,10 +22642,10 @@
         <v>1</v>
       </c>
       <c r="K523">
-        <v>23543000</v>
+        <v>500000</v>
       </c>
       <c r="L523">
-        <v>23543000</v>
+        <v>500000</v>
       </c>
     </row>
     <row r="524" spans="1:12">
@@ -22578,19 +22659,19 @@
         <v>13</v>
       </c>
       <c r="D524" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E524" t="s">
+        <v>758</v>
+      </c>
+      <c r="F524" t="s">
+        <v>759</v>
+      </c>
+      <c r="G524" t="s">
         <v>760</v>
       </c>
-      <c r="F524" t="s">
-        <v>761</v>
-      </c>
-      <c r="G524" t="s">
-        <v>762</v>
-      </c>
       <c r="H524" t="s">
-        <v>763</v>
+        <v>85</v>
       </c>
       <c r="I524" t="s">
         <v>19</v>
@@ -22599,10 +22680,10 @@
         <v>1</v>
       </c>
       <c r="K524">
-        <v>19597000</v>
+        <v>23543000</v>
       </c>
       <c r="L524">
-        <v>19597000</v>
+        <v>23543000</v>
       </c>
     </row>
     <row r="525" spans="1:12">
@@ -22616,20 +22697,20 @@
         <v>13</v>
       </c>
       <c r="D525" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="E525" t="s">
+        <v>761</v>
+      </c>
+      <c r="F525" t="s">
+        <v>762</v>
+      </c>
+      <c r="G525" t="s">
+        <v>763</v>
+      </c>
+      <c r="H525" t="s">
         <v>764</v>
       </c>
-      <c r="F525" t="s">
-        <v>765</v>
-      </c>
-      <c r="G525" t="s">
-        <v>766</v>
-      </c>
-      <c r="H525" t="s">
-        <v>767</v>
-      </c>
       <c r="I525" t="s">
         <v>19</v>
       </c>
@@ -22637,10 +22718,10 @@
         <v>1</v>
       </c>
       <c r="K525">
-        <v>37085000</v>
+        <v>19597000</v>
       </c>
       <c r="L525">
-        <v>37085000</v>
+        <v>19597000</v>
       </c>
     </row>
     <row r="526" spans="1:12">
@@ -22654,20 +22735,20 @@
         <v>13</v>
       </c>
       <c r="D526" t="s">
+        <v>735</v>
+      </c>
+      <c r="E526" t="s">
+        <v>765</v>
+      </c>
+      <c r="F526" t="s">
+        <v>766</v>
+      </c>
+      <c r="G526" t="s">
+        <v>767</v>
+      </c>
+      <c r="H526" t="s">
         <v>768</v>
       </c>
-      <c r="E526" t="s">
-        <v>769</v>
-      </c>
-      <c r="F526" t="s">
-        <v>770</v>
-      </c>
-      <c r="G526" t="s">
-        <v>771</v>
-      </c>
-      <c r="H526" t="s">
-        <v>714</v>
-      </c>
       <c r="I526" t="s">
         <v>19</v>
       </c>
@@ -22675,10 +22756,10 @@
         <v>1</v>
       </c>
       <c r="K526">
-        <v>1954044</v>
+        <v>37085000</v>
       </c>
       <c r="L526">
-        <v>1954044</v>
+        <v>37085000</v>
       </c>
     </row>
     <row r="527" spans="1:12">
@@ -22692,19 +22773,19 @@
         <v>13</v>
       </c>
       <c r="D527" t="s">
-        <v>734</v>
+        <v>769</v>
       </c>
       <c r="E527" t="s">
+        <v>770</v>
+      </c>
+      <c r="F527" t="s">
+        <v>771</v>
+      </c>
+      <c r="G527" t="s">
         <v>772</v>
       </c>
-      <c r="F527" t="s">
-        <v>773</v>
-      </c>
-      <c r="G527" t="s">
-        <v>774</v>
-      </c>
       <c r="H527" t="s">
-        <v>767</v>
+        <v>715</v>
       </c>
       <c r="I527" t="s">
         <v>19</v>
@@ -22713,10 +22794,10 @@
         <v>1</v>
       </c>
       <c r="K527">
-        <v>1105000</v>
+        <v>1954044</v>
       </c>
       <c r="L527">
-        <v>1105000</v>
+        <v>1954044</v>
       </c>
     </row>
     <row r="528" spans="1:12">
@@ -22730,20 +22811,20 @@
         <v>13</v>
       </c>
       <c r="D528" t="s">
+        <v>735</v>
+      </c>
+      <c r="E528" t="s">
+        <v>773</v>
+      </c>
+      <c r="F528" t="s">
+        <v>774</v>
+      </c>
+      <c r="G528" t="s">
+        <v>775</v>
+      </c>
+      <c r="H528" t="s">
         <v>768</v>
       </c>
-      <c r="E528" t="s">
-        <v>775</v>
-      </c>
-      <c r="F528" t="s">
-        <v>776</v>
-      </c>
-      <c r="G528" t="s">
-        <v>777</v>
-      </c>
-      <c r="H528" t="s">
-        <v>778</v>
-      </c>
       <c r="I528" t="s">
         <v>19</v>
       </c>
@@ -22751,10 +22832,10 @@
         <v>1</v>
       </c>
       <c r="K528">
-        <v>1011000</v>
+        <v>1105000</v>
       </c>
       <c r="L528">
-        <v>1011000</v>
+        <v>1105000</v>
       </c>
     </row>
     <row r="529" spans="1:12">
@@ -22768,20 +22849,20 @@
         <v>13</v>
       </c>
       <c r="D529" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E529" t="s">
+        <v>776</v>
+      </c>
+      <c r="F529" t="s">
+        <v>777</v>
+      </c>
+      <c r="G529" t="s">
+        <v>778</v>
+      </c>
+      <c r="H529" t="s">
         <v>779</v>
       </c>
-      <c r="F529" t="s">
-        <v>780</v>
-      </c>
-      <c r="G529" t="s">
-        <v>781</v>
-      </c>
-      <c r="H529" t="s">
-        <v>782</v>
-      </c>
       <c r="I529" t="s">
         <v>19</v>
       </c>
@@ -22789,10 +22870,10 @@
         <v>1</v>
       </c>
       <c r="K529">
-        <v>1055000</v>
+        <v>1011000</v>
       </c>
       <c r="L529">
-        <v>1055000</v>
+        <v>1011000</v>
       </c>
     </row>
     <row r="530" spans="1:12">
@@ -22806,20 +22887,20 @@
         <v>13</v>
       </c>
       <c r="D530" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E530" t="s">
+        <v>780</v>
+      </c>
+      <c r="F530" t="s">
+        <v>781</v>
+      </c>
+      <c r="G530" t="s">
+        <v>782</v>
+      </c>
+      <c r="H530" t="s">
         <v>783</v>
       </c>
-      <c r="F530" t="s">
-        <v>784</v>
-      </c>
-      <c r="G530" t="s">
-        <v>785</v>
-      </c>
-      <c r="H530" t="s">
-        <v>786</v>
-      </c>
       <c r="I530" t="s">
         <v>19</v>
       </c>
@@ -22827,10 +22908,10 @@
         <v>1</v>
       </c>
       <c r="K530">
-        <v>1049400</v>
+        <v>1055000</v>
       </c>
       <c r="L530">
-        <v>1049400</v>
+        <v>1055000</v>
       </c>
     </row>
     <row r="531" spans="1:12">
@@ -22844,20 +22925,20 @@
         <v>13</v>
       </c>
       <c r="D531" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E531" t="s">
+        <v>784</v>
+      </c>
+      <c r="F531" t="s">
+        <v>785</v>
+      </c>
+      <c r="G531" t="s">
+        <v>786</v>
+      </c>
+      <c r="H531" t="s">
         <v>787</v>
       </c>
-      <c r="F531" t="s">
-        <v>788</v>
-      </c>
-      <c r="G531" t="s">
-        <v>789</v>
-      </c>
-      <c r="H531" t="s">
-        <v>790</v>
-      </c>
       <c r="I531" t="s">
         <v>19</v>
       </c>
@@ -22865,10 +22946,10 @@
         <v>1</v>
       </c>
       <c r="K531">
-        <v>1026000</v>
+        <v>1049400</v>
       </c>
       <c r="L531">
-        <v>1026000</v>
+        <v>1049400</v>
       </c>
     </row>
     <row r="532" spans="1:12">
@@ -22882,20 +22963,20 @@
         <v>13</v>
       </c>
       <c r="D532" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E532" t="s">
+        <v>788</v>
+      </c>
+      <c r="F532" t="s">
+        <v>789</v>
+      </c>
+      <c r="G532" t="s">
+        <v>790</v>
+      </c>
+      <c r="H532" t="s">
         <v>791</v>
       </c>
-      <c r="F532" t="s">
-        <v>792</v>
-      </c>
-      <c r="G532" t="s">
-        <v>793</v>
-      </c>
-      <c r="H532" t="s">
-        <v>794</v>
-      </c>
       <c r="I532" t="s">
         <v>19</v>
       </c>
@@ -22903,10 +22984,10 @@
         <v>1</v>
       </c>
       <c r="K532">
-        <v>1013500</v>
+        <v>1026000</v>
       </c>
       <c r="L532">
-        <v>1013500</v>
+        <v>1026000</v>
       </c>
     </row>
     <row r="533" spans="1:12">
@@ -22920,31 +23001,905 @@
         <v>13</v>
       </c>
       <c r="D533" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E533" t="s">
+        <v>792</v>
+      </c>
+      <c r="F533" t="s">
+        <v>793</v>
+      </c>
+      <c r="G533" t="s">
+        <v>794</v>
+      </c>
+      <c r="H533" t="s">
         <v>795</v>
       </c>
-      <c r="F533" t="s">
+      <c r="I533" t="s">
+        <v>19</v>
+      </c>
+      <c r="J533">
+        <v>1</v>
+      </c>
+      <c r="K533">
+        <v>1013500</v>
+      </c>
+      <c r="L533">
+        <v>1013500</v>
+      </c>
+    </row>
+    <row r="534" spans="1:12">
+      <c r="A534">
+        <v>531</v>
+      </c>
+      <c r="B534">
+        <v>626402</v>
+      </c>
+      <c r="C534" t="s">
+        <v>13</v>
+      </c>
+      <c r="D534" t="s">
+        <v>769</v>
+      </c>
+      <c r="E534" t="s">
         <v>796</v>
       </c>
-      <c r="G533" t="s">
+      <c r="F534" t="s">
         <v>797</v>
       </c>
-      <c r="H533" t="s">
+      <c r="G534" t="s">
         <v>798</v>
       </c>
-      <c r="I533" t="s">
-        <v>19</v>
-      </c>
-      <c r="J533">
-        <v>1</v>
-      </c>
-      <c r="K533">
+      <c r="H534" t="s">
+        <v>799</v>
+      </c>
+      <c r="I534" t="s">
+        <v>19</v>
+      </c>
+      <c r="J534">
+        <v>1</v>
+      </c>
+      <c r="K534">
         <v>1019000</v>
       </c>
-      <c r="L533">
+      <c r="L534">
         <v>1019000</v>
+      </c>
+    </row>
+    <row r="535" spans="1:12">
+      <c r="A535">
+        <v>532</v>
+      </c>
+      <c r="B535">
+        <v>626402</v>
+      </c>
+      <c r="C535" t="s">
+        <v>13</v>
+      </c>
+      <c r="D535" t="s">
+        <v>800</v>
+      </c>
+      <c r="E535" t="s">
+        <v>801</v>
+      </c>
+      <c r="F535" t="s">
+        <v>802</v>
+      </c>
+      <c r="G535" t="s">
+        <v>803</v>
+      </c>
+      <c r="H535" t="s">
+        <v>529</v>
+      </c>
+      <c r="I535" t="s">
+        <v>19</v>
+      </c>
+      <c r="J535">
+        <v>1</v>
+      </c>
+      <c r="K535">
+        <v>12440000</v>
+      </c>
+      <c r="L535">
+        <v>12440000</v>
+      </c>
+    </row>
+    <row r="536" spans="1:12">
+      <c r="A536">
+        <v>533</v>
+      </c>
+      <c r="B536">
+        <v>626402</v>
+      </c>
+      <c r="C536" t="s">
+        <v>13</v>
+      </c>
+      <c r="D536" t="s">
+        <v>800</v>
+      </c>
+      <c r="E536" t="s">
+        <v>804</v>
+      </c>
+      <c r="F536" t="s">
+        <v>805</v>
+      </c>
+      <c r="G536" t="s">
+        <v>806</v>
+      </c>
+      <c r="H536" t="s">
+        <v>529</v>
+      </c>
+      <c r="I536" t="s">
+        <v>19</v>
+      </c>
+      <c r="J536">
+        <v>1</v>
+      </c>
+      <c r="K536">
+        <v>184910000</v>
+      </c>
+      <c r="L536">
+        <v>184910000</v>
+      </c>
+    </row>
+    <row r="537" spans="1:12">
+      <c r="A537">
+        <v>534</v>
+      </c>
+      <c r="B537">
+        <v>626402</v>
+      </c>
+      <c r="C537" t="s">
+        <v>13</v>
+      </c>
+      <c r="D537" t="s">
+        <v>800</v>
+      </c>
+      <c r="E537" t="s">
+        <v>807</v>
+      </c>
+      <c r="F537" t="s">
+        <v>808</v>
+      </c>
+      <c r="G537" t="s">
+        <v>809</v>
+      </c>
+      <c r="H537" t="s">
+        <v>529</v>
+      </c>
+      <c r="I537" t="s">
+        <v>19</v>
+      </c>
+      <c r="J537">
+        <v>1</v>
+      </c>
+      <c r="K537">
+        <v>419320000</v>
+      </c>
+      <c r="L537">
+        <v>419320000</v>
+      </c>
+    </row>
+    <row r="538" spans="1:12">
+      <c r="A538">
+        <v>535</v>
+      </c>
+      <c r="B538">
+        <v>626402</v>
+      </c>
+      <c r="C538" t="s">
+        <v>13</v>
+      </c>
+      <c r="D538" t="s">
+        <v>800</v>
+      </c>
+      <c r="E538" t="s">
+        <v>810</v>
+      </c>
+      <c r="F538" t="s">
+        <v>811</v>
+      </c>
+      <c r="G538" t="s">
+        <v>812</v>
+      </c>
+      <c r="H538" t="s">
+        <v>813</v>
+      </c>
+      <c r="I538" t="s">
+        <v>19</v>
+      </c>
+      <c r="J538">
+        <v>1</v>
+      </c>
+      <c r="K538">
+        <v>49800000</v>
+      </c>
+      <c r="L538">
+        <v>49800000</v>
+      </c>
+    </row>
+    <row r="539" spans="1:12">
+      <c r="A539">
+        <v>536</v>
+      </c>
+      <c r="B539">
+        <v>626402</v>
+      </c>
+      <c r="C539" t="s">
+        <v>13</v>
+      </c>
+      <c r="D539" t="s">
+        <v>814</v>
+      </c>
+      <c r="E539" t="s">
+        <v>815</v>
+      </c>
+      <c r="F539" t="s">
+        <v>816</v>
+      </c>
+      <c r="G539" t="s">
+        <v>429</v>
+      </c>
+      <c r="H539" t="s">
+        <v>255</v>
+      </c>
+      <c r="I539" t="s">
+        <v>19</v>
+      </c>
+      <c r="J539">
+        <v>1</v>
+      </c>
+      <c r="K539">
+        <v>18705821</v>
+      </c>
+      <c r="L539">
+        <v>18705821</v>
+      </c>
+    </row>
+    <row r="540" spans="1:12">
+      <c r="A540">
+        <v>537</v>
+      </c>
+      <c r="B540">
+        <v>626402</v>
+      </c>
+      <c r="C540" t="s">
+        <v>13</v>
+      </c>
+      <c r="D540" t="s">
+        <v>814</v>
+      </c>
+      <c r="E540" t="s">
+        <v>815</v>
+      </c>
+      <c r="F540" t="s">
+        <v>816</v>
+      </c>
+      <c r="G540" t="s">
+        <v>429</v>
+      </c>
+      <c r="H540" t="s">
+        <v>817</v>
+      </c>
+      <c r="I540" t="s">
+        <v>19</v>
+      </c>
+      <c r="J540">
+        <v>1</v>
+      </c>
+      <c r="K540">
+        <v>1156304</v>
+      </c>
+      <c r="L540">
+        <v>1156304</v>
+      </c>
+    </row>
+    <row r="541" spans="1:12">
+      <c r="A541">
+        <v>538</v>
+      </c>
+      <c r="B541">
+        <v>626402</v>
+      </c>
+      <c r="C541" t="s">
+        <v>13</v>
+      </c>
+      <c r="D541" t="s">
+        <v>814</v>
+      </c>
+      <c r="E541" t="s">
+        <v>815</v>
+      </c>
+      <c r="F541" t="s">
+        <v>816</v>
+      </c>
+      <c r="G541" t="s">
+        <v>429</v>
+      </c>
+      <c r="H541" t="s">
+        <v>257</v>
+      </c>
+      <c r="I541" t="s">
+        <v>19</v>
+      </c>
+      <c r="J541">
+        <v>1</v>
+      </c>
+      <c r="K541">
+        <v>19107130</v>
+      </c>
+      <c r="L541">
+        <v>19107130</v>
+      </c>
+    </row>
+    <row r="542" spans="1:12">
+      <c r="A542">
+        <v>539</v>
+      </c>
+      <c r="B542">
+        <v>626402</v>
+      </c>
+      <c r="C542" t="s">
+        <v>13</v>
+      </c>
+      <c r="D542" t="s">
+        <v>814</v>
+      </c>
+      <c r="E542" t="s">
+        <v>815</v>
+      </c>
+      <c r="F542" t="s">
+        <v>816</v>
+      </c>
+      <c r="G542" t="s">
+        <v>429</v>
+      </c>
+      <c r="H542" t="s">
+        <v>818</v>
+      </c>
+      <c r="I542" t="s">
+        <v>19</v>
+      </c>
+      <c r="J542">
+        <v>1</v>
+      </c>
+      <c r="K542">
+        <v>898400</v>
+      </c>
+      <c r="L542">
+        <v>898400</v>
+      </c>
+    </row>
+    <row r="543" spans="1:12">
+      <c r="A543">
+        <v>540</v>
+      </c>
+      <c r="B543">
+        <v>626402</v>
+      </c>
+      <c r="C543" t="s">
+        <v>13</v>
+      </c>
+      <c r="D543" t="s">
+        <v>814</v>
+      </c>
+      <c r="E543" t="s">
+        <v>815</v>
+      </c>
+      <c r="F543" t="s">
+        <v>816</v>
+      </c>
+      <c r="G543" t="s">
+        <v>429</v>
+      </c>
+      <c r="H543" t="s">
+        <v>819</v>
+      </c>
+      <c r="I543" t="s">
+        <v>19</v>
+      </c>
+      <c r="J543">
+        <v>1</v>
+      </c>
+      <c r="K543">
+        <v>1020800</v>
+      </c>
+      <c r="L543">
+        <v>1020800</v>
+      </c>
+    </row>
+    <row r="544" spans="1:12">
+      <c r="A544">
+        <v>541</v>
+      </c>
+      <c r="B544">
+        <v>626402</v>
+      </c>
+      <c r="C544" t="s">
+        <v>13</v>
+      </c>
+      <c r="D544" t="s">
+        <v>814</v>
+      </c>
+      <c r="E544" t="s">
+        <v>815</v>
+      </c>
+      <c r="F544" t="s">
+        <v>816</v>
+      </c>
+      <c r="G544" t="s">
+        <v>429</v>
+      </c>
+      <c r="H544" t="s">
+        <v>260</v>
+      </c>
+      <c r="I544" t="s">
+        <v>19</v>
+      </c>
+      <c r="J544">
+        <v>1</v>
+      </c>
+      <c r="K544">
+        <v>607300</v>
+      </c>
+      <c r="L544">
+        <v>607300</v>
+      </c>
+    </row>
+    <row r="545" spans="1:12">
+      <c r="A545">
+        <v>542</v>
+      </c>
+      <c r="B545">
+        <v>626402</v>
+      </c>
+      <c r="C545" t="s">
+        <v>13</v>
+      </c>
+      <c r="D545" t="s">
+        <v>814</v>
+      </c>
+      <c r="E545" t="s">
+        <v>815</v>
+      </c>
+      <c r="F545" t="s">
+        <v>816</v>
+      </c>
+      <c r="G545" t="s">
+        <v>429</v>
+      </c>
+      <c r="H545" t="s">
+        <v>261</v>
+      </c>
+      <c r="I545" t="s">
+        <v>19</v>
+      </c>
+      <c r="J545">
+        <v>1</v>
+      </c>
+      <c r="K545">
+        <v>1454500</v>
+      </c>
+      <c r="L545">
+        <v>1454500</v>
+      </c>
+    </row>
+    <row r="546" spans="1:12">
+      <c r="A546">
+        <v>543</v>
+      </c>
+      <c r="B546">
+        <v>626402</v>
+      </c>
+      <c r="C546" t="s">
+        <v>13</v>
+      </c>
+      <c r="D546" t="s">
+        <v>814</v>
+      </c>
+      <c r="E546" t="s">
+        <v>815</v>
+      </c>
+      <c r="F546" t="s">
+        <v>816</v>
+      </c>
+      <c r="G546" t="s">
+        <v>429</v>
+      </c>
+      <c r="H546" t="s">
+        <v>820</v>
+      </c>
+      <c r="I546" t="s">
+        <v>19</v>
+      </c>
+      <c r="J546">
+        <v>1</v>
+      </c>
+      <c r="K546">
+        <v>1009000</v>
+      </c>
+      <c r="L546">
+        <v>1009000</v>
+      </c>
+    </row>
+    <row r="547" spans="1:12">
+      <c r="A547">
+        <v>544</v>
+      </c>
+      <c r="B547">
+        <v>626402</v>
+      </c>
+      <c r="C547" t="s">
+        <v>13</v>
+      </c>
+      <c r="D547" t="s">
+        <v>814</v>
+      </c>
+      <c r="E547" t="s">
+        <v>815</v>
+      </c>
+      <c r="F547" t="s">
+        <v>816</v>
+      </c>
+      <c r="G547" t="s">
+        <v>429</v>
+      </c>
+      <c r="H547" t="s">
+        <v>821</v>
+      </c>
+      <c r="I547" t="s">
+        <v>19</v>
+      </c>
+      <c r="J547">
+        <v>1</v>
+      </c>
+      <c r="K547">
+        <v>1025000</v>
+      </c>
+      <c r="L547">
+        <v>1025000</v>
+      </c>
+    </row>
+    <row r="548" spans="1:12">
+      <c r="A548">
+        <v>545</v>
+      </c>
+      <c r="B548">
+        <v>626402</v>
+      </c>
+      <c r="C548" t="s">
+        <v>13</v>
+      </c>
+      <c r="D548" t="s">
+        <v>814</v>
+      </c>
+      <c r="E548" t="s">
+        <v>815</v>
+      </c>
+      <c r="F548" t="s">
+        <v>816</v>
+      </c>
+      <c r="G548" t="s">
+        <v>429</v>
+      </c>
+      <c r="H548" t="s">
+        <v>734</v>
+      </c>
+      <c r="I548" t="s">
+        <v>19</v>
+      </c>
+      <c r="J548">
+        <v>1</v>
+      </c>
+      <c r="K548">
+        <v>298590</v>
+      </c>
+      <c r="L548">
+        <v>298590</v>
+      </c>
+    </row>
+    <row r="549" spans="1:12">
+      <c r="A549">
+        <v>546</v>
+      </c>
+      <c r="B549">
+        <v>626402</v>
+      </c>
+      <c r="C549" t="s">
+        <v>13</v>
+      </c>
+      <c r="D549" t="s">
+        <v>814</v>
+      </c>
+      <c r="E549" t="s">
+        <v>815</v>
+      </c>
+      <c r="F549" t="s">
+        <v>816</v>
+      </c>
+      <c r="G549" t="s">
+        <v>429</v>
+      </c>
+      <c r="H549" t="s">
+        <v>432</v>
+      </c>
+      <c r="I549" t="s">
+        <v>19</v>
+      </c>
+      <c r="J549">
+        <v>1</v>
+      </c>
+      <c r="K549">
+        <v>750000</v>
+      </c>
+      <c r="L549">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="550" spans="1:12">
+      <c r="A550">
+        <v>547</v>
+      </c>
+      <c r="B550">
+        <v>626402</v>
+      </c>
+      <c r="C550" t="s">
+        <v>13</v>
+      </c>
+      <c r="D550" t="s">
+        <v>814</v>
+      </c>
+      <c r="E550" t="s">
+        <v>815</v>
+      </c>
+      <c r="F550" t="s">
+        <v>816</v>
+      </c>
+      <c r="G550" t="s">
+        <v>429</v>
+      </c>
+      <c r="H550" t="s">
+        <v>270</v>
+      </c>
+      <c r="I550" t="s">
+        <v>19</v>
+      </c>
+      <c r="J550">
+        <v>1</v>
+      </c>
+      <c r="K550">
+        <v>329000</v>
+      </c>
+      <c r="L550">
+        <v>329000</v>
+      </c>
+    </row>
+    <row r="551" spans="1:12">
+      <c r="A551">
+        <v>548</v>
+      </c>
+      <c r="B551">
+        <v>626402</v>
+      </c>
+      <c r="C551" t="s">
+        <v>13</v>
+      </c>
+      <c r="D551" t="s">
+        <v>814</v>
+      </c>
+      <c r="E551" t="s">
+        <v>815</v>
+      </c>
+      <c r="F551" t="s">
+        <v>816</v>
+      </c>
+      <c r="G551" t="s">
+        <v>429</v>
+      </c>
+      <c r="H551" t="s">
+        <v>822</v>
+      </c>
+      <c r="I551" t="s">
+        <v>19</v>
+      </c>
+      <c r="J551">
+        <v>1</v>
+      </c>
+      <c r="K551">
+        <v>3020867</v>
+      </c>
+      <c r="L551">
+        <v>3020867</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12">
+      <c r="A552">
+        <v>549</v>
+      </c>
+      <c r="B552">
+        <v>626402</v>
+      </c>
+      <c r="C552" t="s">
+        <v>13</v>
+      </c>
+      <c r="D552" t="s">
+        <v>814</v>
+      </c>
+      <c r="E552" t="s">
+        <v>815</v>
+      </c>
+      <c r="F552" t="s">
+        <v>816</v>
+      </c>
+      <c r="G552" t="s">
+        <v>429</v>
+      </c>
+      <c r="H552" t="s">
+        <v>271</v>
+      </c>
+      <c r="I552" t="s">
+        <v>19</v>
+      </c>
+      <c r="J552">
+        <v>1</v>
+      </c>
+      <c r="K552">
+        <v>800000</v>
+      </c>
+      <c r="L552">
+        <v>800000</v>
+      </c>
+    </row>
+    <row r="553" spans="1:12">
+      <c r="A553">
+        <v>550</v>
+      </c>
+      <c r="B553">
+        <v>626402</v>
+      </c>
+      <c r="C553" t="s">
+        <v>13</v>
+      </c>
+      <c r="D553" t="s">
+        <v>814</v>
+      </c>
+      <c r="E553" t="s">
+        <v>815</v>
+      </c>
+      <c r="F553" t="s">
+        <v>816</v>
+      </c>
+      <c r="G553" t="s">
+        <v>429</v>
+      </c>
+      <c r="H553" t="s">
+        <v>630</v>
+      </c>
+      <c r="I553" t="s">
+        <v>19</v>
+      </c>
+      <c r="J553">
+        <v>1</v>
+      </c>
+      <c r="K553">
+        <v>4700000</v>
+      </c>
+      <c r="L553">
+        <v>4700000</v>
+      </c>
+    </row>
+    <row r="554" spans="1:12">
+      <c r="A554">
+        <v>551</v>
+      </c>
+      <c r="B554">
+        <v>626402</v>
+      </c>
+      <c r="C554" t="s">
+        <v>13</v>
+      </c>
+      <c r="D554" t="s">
+        <v>814</v>
+      </c>
+      <c r="E554" t="s">
+        <v>815</v>
+      </c>
+      <c r="F554" t="s">
+        <v>816</v>
+      </c>
+      <c r="G554" t="s">
+        <v>429</v>
+      </c>
+      <c r="H554" t="s">
+        <v>753</v>
+      </c>
+      <c r="I554" t="s">
+        <v>19</v>
+      </c>
+      <c r="J554">
+        <v>1</v>
+      </c>
+      <c r="K554">
+        <v>3178465</v>
+      </c>
+      <c r="L554">
+        <v>3178465</v>
+      </c>
+    </row>
+    <row r="555" spans="1:12">
+      <c r="A555">
+        <v>552</v>
+      </c>
+      <c r="B555">
+        <v>626402</v>
+      </c>
+      <c r="C555" t="s">
+        <v>13</v>
+      </c>
+      <c r="D555" t="s">
+        <v>814</v>
+      </c>
+      <c r="E555" t="s">
+        <v>815</v>
+      </c>
+      <c r="F555" t="s">
+        <v>816</v>
+      </c>
+      <c r="G555" t="s">
+        <v>429</v>
+      </c>
+      <c r="H555" t="s">
+        <v>645</v>
+      </c>
+      <c r="I555" t="s">
+        <v>19</v>
+      </c>
+      <c r="J555">
+        <v>1</v>
+      </c>
+      <c r="K555">
+        <v>4187387</v>
+      </c>
+      <c r="L555">
+        <v>4187387</v>
+      </c>
+    </row>
+    <row r="556" spans="1:12">
+      <c r="A556">
+        <v>553</v>
+      </c>
+      <c r="B556">
+        <v>626402</v>
+      </c>
+      <c r="C556" t="s">
+        <v>13</v>
+      </c>
+      <c r="D556" t="s">
+        <v>814</v>
+      </c>
+      <c r="E556" t="s">
+        <v>823</v>
+      </c>
+      <c r="F556" t="s">
+        <v>824</v>
+      </c>
+      <c r="G556" t="s">
+        <v>825</v>
+      </c>
+      <c r="H556" t="s">
+        <v>494</v>
+      </c>
+      <c r="I556" t="s">
+        <v>19</v>
+      </c>
+      <c r="J556">
+        <v>1</v>
+      </c>
+      <c r="K556">
+        <v>2348800</v>
+      </c>
+      <c r="L556">
+        <v>2348800</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="949">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1034">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -2780,6 +2780,33 @@
     <t>'626402.175.522141.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AB.000444</t>
   </si>
   <si>
+    <t>2024-03-07</t>
+  </si>
+  <si>
+    <t>'00196T</t>
+  </si>
+  <si>
+    <t>'241751301005158</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai Kuitansi Nomor:122/SERA/TRAC-JKT1/AH/II/2024 Tanggal 1 Februari 2024 </t>
+  </si>
+  <si>
+    <t>'626402.175.522141.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AB.001605</t>
+  </si>
+  <si>
+    <t>'00197T</t>
+  </si>
+  <si>
+    <t>'241751302005109</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:015/KW/PT-HAM/II/2024 Tanggal 15 Januari 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.522191.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BC.000507</t>
+  </si>
+  <si>
     <t>'00199T</t>
   </si>
   <si>
@@ -2862,6 +2889,234 @@
   </si>
   <si>
     <t>'626402.175.524113.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.301.0C.000667</t>
+  </si>
+  <si>
+    <t>'00201T</t>
+  </si>
+  <si>
+    <t>'241751303004755</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran Uang makan pegawai Puslatluh bulan Februari 2024 untuk 33 pegawai)</t>
+  </si>
+  <si>
+    <t>'00202T</t>
+  </si>
+  <si>
+    <t>'241751303004756</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan pegawai Puslatluh bulan Februari tahun 2024 untuk 33 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00203T</t>
+  </si>
+  <si>
+    <t>'241751303004754</t>
+  </si>
+  <si>
+    <t>2024-03-06</t>
+  </si>
+  <si>
+    <t>'00204T</t>
+  </si>
+  <si>
+    <t>'241751303004646</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:AWH-AR/24/01/00093 Tanggal 31 Januari 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0E.000094</t>
+  </si>
+  <si>
+    <t>'00205T</t>
+  </si>
+  <si>
+    <t>'241751301004859</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:2024/II/MKU/0129 Tanggal 12 Februari 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BC.000514</t>
+  </si>
+  <si>
+    <t>'00206T</t>
+  </si>
+  <si>
+    <t>'241751301004881</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:043/NNI/II/24 Tanggal 29 Februari 2024</t>
+  </si>
+  <si>
+    <t>'00207T</t>
+  </si>
+  <si>
+    <t>'241751302004948</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor: 016 Tanggal 15 Februari 2024</t>
+  </si>
+  <si>
+    <t>'00209T</t>
+  </si>
+  <si>
+    <t>'241751303004917</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No.B.346/BPPSDM.5/KP.440/II/2024 Tgl. 26 Februari 2024 a.n Supriyadi dkk</t>
+  </si>
+  <si>
+    <t>'00210T</t>
+  </si>
+  <si>
+    <t>'241751303004918</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No.B.243,284/BPPSDM.5/KP.440/II/2024 Tgl. 16 Februari 2024 a.n Lilly aprilya pregiwati dkk</t>
+  </si>
+  <si>
+    <t>'00211T</t>
+  </si>
+  <si>
+    <t>'241751303004863</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No.B.283,284/BPPSDM.5/KP.440/II/2024 Tgl. 16 Februari 2024 a.n Riza Satriawan dkk</t>
+  </si>
+  <si>
+    <t>'00212T</t>
+  </si>
+  <si>
+    <t>'241751303004990</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000470</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000471</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000472</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000473</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000474</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000475</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000478</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000479</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000480</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000481</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000484</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000485</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000486</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000487</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000488</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000489</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AB.001082</t>
+  </si>
+  <si>
+    <t>'00213T</t>
+  </si>
+  <si>
+    <t>'241751303004991</t>
+  </si>
+  <si>
+    <t>Penggantian Uang Persediaan Untuk Keperluan Pembayaran Belanja Barang (BPP 001 Puslatluhkp)</t>
+  </si>
+  <si>
+    <t>'626402.175.521119.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DD.000558</t>
+  </si>
+  <si>
+    <t>'626402.175.521119.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DD.000559</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0B.000024</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0E.000052</t>
+  </si>
+  <si>
+    <t>'626402.175.522141.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DB.000546</t>
+  </si>
+  <si>
+    <t>'626402.175.522141.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DB.000547</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0A.001411</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0A.001412</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0E.001421</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0E.001422</t>
+  </si>
+  <si>
+    <t>'00214T</t>
+  </si>
+  <si>
+    <t>'241751303004887</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya hidup (Jan-Juni 2024) peserta tubel S3-IPB an. Herry sesuai SK KaBRSDMKP No 107/KEP-BRSDM/2020 Tgl 18/8/2020 dan SK PPK No KEP 16/BRSDM.4/I/2024 Tgl 3/1/2024</t>
+  </si>
+  <si>
+    <t>'00215T</t>
+  </si>
+  <si>
+    <t>'241751303004845</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya hidup (Jan-Juni 2024) peserta tubel S2-AUP,IPB an. Banar,dkk sesuai SK KaBRSDMKP No 520 Tahun 2022 Tgl 11/8/2022 dan SK PPK No KEP 16/BRSDM.4/I/2024 Tgl 3/1/2024</t>
+  </si>
+  <si>
+    <t>'00216T</t>
+  </si>
+  <si>
+    <t>'241751303004848</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya hidup (Jan-Juni 2024) peserta tubel S3-IPB, S2-IPB,UGM,ITS an. Defra,dkk sesuai SK KaBRSDMKP No 380 Tahun 2023 Tgl 1/8/2023 dan SK PPK No KEP 16/BRSDM.4/I/2024 Tgl 3/1/2024</t>
+  </si>
+  <si>
+    <t>'00217T</t>
+  </si>
+  <si>
+    <t>'241751303004846</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya penelitian peserta tubel S2-UNDIP an. Hilman Adi S sesuai SK KaBRSDMKP No 520 Tahun 2022 Tgl 11/8/2022 dan SK PPK No KEP 16/BRSDM.4/I/2024 Tgl 3/1/2024</t>
   </si>
 </sst>
 </file>
@@ -3203,7 +3458,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L678"/>
+  <dimension ref="A1:L732"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -27968,19 +28223,19 @@
         <v>13</v>
       </c>
       <c r="D654" t="s">
-        <v>901</v>
+        <v>921</v>
       </c>
       <c r="E654" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="F654" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G654" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H654" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="I654" t="s">
         <v>19</v>
@@ -27989,10 +28244,10 @@
         <v>1</v>
       </c>
       <c r="K654">
-        <v>8300000</v>
+        <v>25000000</v>
       </c>
       <c r="L654">
-        <v>8300000</v>
+        <v>25000000</v>
       </c>
     </row>
     <row r="655" spans="1:12">
@@ -28006,19 +28261,19 @@
         <v>13</v>
       </c>
       <c r="D655" t="s">
-        <v>839</v>
+        <v>921</v>
       </c>
       <c r="E655" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F655" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G655" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="H655" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="I655" t="s">
         <v>19</v>
@@ -28027,10 +28282,10 @@
         <v>1</v>
       </c>
       <c r="K655">
-        <v>7387700</v>
+        <v>6474000</v>
       </c>
       <c r="L655">
-        <v>7387700</v>
+        <v>6474000</v>
       </c>
     </row>
     <row r="656" spans="1:12">
@@ -28044,19 +28299,19 @@
         <v>13</v>
       </c>
       <c r="D656" t="s">
-        <v>839</v>
+        <v>901</v>
       </c>
       <c r="E656" t="s">
-        <v>925</v>
+        <v>930</v>
       </c>
       <c r="F656" t="s">
-        <v>926</v>
+        <v>931</v>
       </c>
       <c r="G656" t="s">
-        <v>927</v>
+        <v>932</v>
       </c>
       <c r="H656" t="s">
-        <v>929</v>
+        <v>933</v>
       </c>
       <c r="I656" t="s">
         <v>19</v>
@@ -28065,10 +28320,10 @@
         <v>1</v>
       </c>
       <c r="K656">
-        <v>3152000</v>
+        <v>8300000</v>
       </c>
       <c r="L656">
-        <v>3152000</v>
+        <v>8300000</v>
       </c>
     </row>
     <row r="657" spans="1:12">
@@ -28085,16 +28340,16 @@
         <v>839</v>
       </c>
       <c r="E657" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F657" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G657" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H657" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="I657" t="s">
         <v>19</v>
@@ -28103,10 +28358,10 @@
         <v>1</v>
       </c>
       <c r="K657">
-        <v>526235</v>
+        <v>7387700</v>
       </c>
       <c r="L657">
-        <v>526235</v>
+        <v>7387700</v>
       </c>
     </row>
     <row r="658" spans="1:12">
@@ -28123,16 +28378,16 @@
         <v>839</v>
       </c>
       <c r="E658" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F658" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G658" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H658" t="s">
-        <v>931</v>
+        <v>938</v>
       </c>
       <c r="I658" t="s">
         <v>19</v>
@@ -28141,10 +28396,10 @@
         <v>1</v>
       </c>
       <c r="K658">
-        <v>5232072</v>
+        <v>3152000</v>
       </c>
       <c r="L658">
-        <v>5232072</v>
+        <v>3152000</v>
       </c>
     </row>
     <row r="659" spans="1:12">
@@ -28161,16 +28416,16 @@
         <v>839</v>
       </c>
       <c r="E659" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F659" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G659" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H659" t="s">
-        <v>932</v>
+        <v>939</v>
       </c>
       <c r="I659" t="s">
         <v>19</v>
@@ -28179,10 +28434,10 @@
         <v>1</v>
       </c>
       <c r="K659">
-        <v>1190000</v>
+        <v>526235</v>
       </c>
       <c r="L659">
-        <v>1190000</v>
+        <v>526235</v>
       </c>
     </row>
     <row r="660" spans="1:12">
@@ -28199,16 +28454,16 @@
         <v>839</v>
       </c>
       <c r="E660" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F660" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G660" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H660" t="s">
-        <v>933</v>
+        <v>940</v>
       </c>
       <c r="I660" t="s">
         <v>19</v>
@@ -28217,10 +28472,10 @@
         <v>1</v>
       </c>
       <c r="K660">
-        <v>160000</v>
+        <v>5232072</v>
       </c>
       <c r="L660">
-        <v>160000</v>
+        <v>5232072</v>
       </c>
     </row>
     <row r="661" spans="1:12">
@@ -28237,16 +28492,16 @@
         <v>839</v>
       </c>
       <c r="E661" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F661" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G661" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H661" t="s">
-        <v>934</v>
+        <v>941</v>
       </c>
       <c r="I661" t="s">
         <v>19</v>
@@ -28255,10 +28510,10 @@
         <v>1</v>
       </c>
       <c r="K661">
-        <v>1495000</v>
+        <v>1190000</v>
       </c>
       <c r="L661">
-        <v>1495000</v>
+        <v>1190000</v>
       </c>
     </row>
     <row r="662" spans="1:12">
@@ -28275,16 +28530,16 @@
         <v>839</v>
       </c>
       <c r="E662" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F662" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G662" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H662" t="s">
-        <v>935</v>
+        <v>942</v>
       </c>
       <c r="I662" t="s">
         <v>19</v>
@@ -28293,10 +28548,10 @@
         <v>1</v>
       </c>
       <c r="K662">
-        <v>5951150</v>
+        <v>160000</v>
       </c>
       <c r="L662">
-        <v>5951150</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="663" spans="1:12">
@@ -28313,16 +28568,16 @@
         <v>839</v>
       </c>
       <c r="E663" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F663" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G663" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H663" t="s">
-        <v>936</v>
+        <v>943</v>
       </c>
       <c r="I663" t="s">
         <v>19</v>
@@ -28331,10 +28586,10 @@
         <v>1</v>
       </c>
       <c r="K663">
-        <v>1500000</v>
+        <v>1495000</v>
       </c>
       <c r="L663">
-        <v>1500000</v>
+        <v>1495000</v>
       </c>
     </row>
     <row r="664" spans="1:12">
@@ -28351,16 +28606,16 @@
         <v>839</v>
       </c>
       <c r="E664" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F664" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G664" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H664" t="s">
-        <v>937</v>
+        <v>944</v>
       </c>
       <c r="I664" t="s">
         <v>19</v>
@@ -28369,10 +28624,10 @@
         <v>1</v>
       </c>
       <c r="K664">
-        <v>998000</v>
+        <v>5951150</v>
       </c>
       <c r="L664">
-        <v>998000</v>
+        <v>5951150</v>
       </c>
     </row>
     <row r="665" spans="1:12">
@@ -28389,16 +28644,16 @@
         <v>839</v>
       </c>
       <c r="E665" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F665" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G665" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H665" t="s">
-        <v>938</v>
+        <v>945</v>
       </c>
       <c r="I665" t="s">
         <v>19</v>
@@ -28427,16 +28682,16 @@
         <v>839</v>
       </c>
       <c r="E666" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F666" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G666" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H666" t="s">
-        <v>939</v>
+        <v>946</v>
       </c>
       <c r="I666" t="s">
         <v>19</v>
@@ -28445,10 +28700,10 @@
         <v>1</v>
       </c>
       <c r="K666">
-        <v>1490000</v>
+        <v>998000</v>
       </c>
       <c r="L666">
-        <v>1490000</v>
+        <v>998000</v>
       </c>
     </row>
     <row r="667" spans="1:12">
@@ -28465,16 +28720,16 @@
         <v>839</v>
       </c>
       <c r="E667" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F667" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G667" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H667" t="s">
-        <v>940</v>
+        <v>947</v>
       </c>
       <c r="I667" t="s">
         <v>19</v>
@@ -28483,10 +28738,10 @@
         <v>1</v>
       </c>
       <c r="K667">
-        <v>1400000</v>
+        <v>1500000</v>
       </c>
       <c r="L667">
-        <v>1400000</v>
+        <v>1500000</v>
       </c>
     </row>
     <row r="668" spans="1:12">
@@ -28503,16 +28758,16 @@
         <v>839</v>
       </c>
       <c r="E668" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F668" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G668" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H668" t="s">
-        <v>941</v>
+        <v>948</v>
       </c>
       <c r="I668" t="s">
         <v>19</v>
@@ -28521,10 +28776,10 @@
         <v>1</v>
       </c>
       <c r="K668">
-        <v>6700000</v>
+        <v>1490000</v>
       </c>
       <c r="L668">
-        <v>6700000</v>
+        <v>1490000</v>
       </c>
     </row>
     <row r="669" spans="1:12">
@@ -28541,16 +28796,16 @@
         <v>839</v>
       </c>
       <c r="E669" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F669" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G669" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H669" t="s">
-        <v>942</v>
+        <v>949</v>
       </c>
       <c r="I669" t="s">
         <v>19</v>
@@ -28559,10 +28814,10 @@
         <v>1</v>
       </c>
       <c r="K669">
-        <v>3702000</v>
+        <v>1400000</v>
       </c>
       <c r="L669">
-        <v>3702000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="670" spans="1:12">
@@ -28579,16 +28834,16 @@
         <v>839</v>
       </c>
       <c r="E670" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F670" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G670" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H670" t="s">
-        <v>943</v>
+        <v>950</v>
       </c>
       <c r="I670" t="s">
         <v>19</v>
@@ -28597,10 +28852,10 @@
         <v>1</v>
       </c>
       <c r="K670">
-        <v>10238934</v>
+        <v>6700000</v>
       </c>
       <c r="L670">
-        <v>10238934</v>
+        <v>6700000</v>
       </c>
     </row>
     <row r="671" spans="1:12">
@@ -28617,16 +28872,16 @@
         <v>839</v>
       </c>
       <c r="E671" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F671" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G671" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H671" t="s">
-        <v>944</v>
+        <v>951</v>
       </c>
       <c r="I671" t="s">
         <v>19</v>
@@ -28635,10 +28890,10 @@
         <v>1</v>
       </c>
       <c r="K671">
-        <v>2807600</v>
+        <v>3702000</v>
       </c>
       <c r="L671">
-        <v>2807600</v>
+        <v>3702000</v>
       </c>
     </row>
     <row r="672" spans="1:12">
@@ -28655,16 +28910,16 @@
         <v>839</v>
       </c>
       <c r="E672" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F672" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G672" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H672" t="s">
-        <v>945</v>
+        <v>952</v>
       </c>
       <c r="I672" t="s">
         <v>19</v>
@@ -28673,10 +28928,10 @@
         <v>1</v>
       </c>
       <c r="K672">
-        <v>564123</v>
+        <v>10238934</v>
       </c>
       <c r="L672">
-        <v>564123</v>
+        <v>10238934</v>
       </c>
     </row>
     <row r="673" spans="1:12">
@@ -28693,16 +28948,16 @@
         <v>839</v>
       </c>
       <c r="E673" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F673" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G673" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H673" t="s">
-        <v>704</v>
+        <v>953</v>
       </c>
       <c r="I673" t="s">
         <v>19</v>
@@ -28711,10 +28966,10 @@
         <v>1</v>
       </c>
       <c r="K673">
-        <v>6689000</v>
+        <v>2807600</v>
       </c>
       <c r="L673">
-        <v>6689000</v>
+        <v>2807600</v>
       </c>
     </row>
     <row r="674" spans="1:12">
@@ -28731,16 +28986,16 @@
         <v>839</v>
       </c>
       <c r="E674" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F674" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G674" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H674" t="s">
-        <v>946</v>
+        <v>954</v>
       </c>
       <c r="I674" t="s">
         <v>19</v>
@@ -28749,10 +29004,10 @@
         <v>1</v>
       </c>
       <c r="K674">
-        <v>5098500</v>
+        <v>564123</v>
       </c>
       <c r="L674">
-        <v>5098500</v>
+        <v>564123</v>
       </c>
     </row>
     <row r="675" spans="1:12">
@@ -28769,16 +29024,16 @@
         <v>839</v>
       </c>
       <c r="E675" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F675" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G675" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H675" t="s">
-        <v>212</v>
+        <v>704</v>
       </c>
       <c r="I675" t="s">
         <v>19</v>
@@ -28787,10 +29042,10 @@
         <v>1</v>
       </c>
       <c r="K675">
-        <v>332500</v>
+        <v>6689000</v>
       </c>
       <c r="L675">
-        <v>332500</v>
+        <v>6689000</v>
       </c>
     </row>
     <row r="676" spans="1:12">
@@ -28807,16 +29062,16 @@
         <v>839</v>
       </c>
       <c r="E676" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F676" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G676" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H676" t="s">
-        <v>213</v>
+        <v>955</v>
       </c>
       <c r="I676" t="s">
         <v>19</v>
@@ -28825,10 +29080,10 @@
         <v>1</v>
       </c>
       <c r="K676">
-        <v>7135469</v>
+        <v>5098500</v>
       </c>
       <c r="L676">
-        <v>7135469</v>
+        <v>5098500</v>
       </c>
     </row>
     <row r="677" spans="1:12">
@@ -28845,16 +29100,16 @@
         <v>839</v>
       </c>
       <c r="E677" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F677" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G677" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H677" t="s">
-        <v>947</v>
+        <v>212</v>
       </c>
       <c r="I677" t="s">
         <v>19</v>
@@ -28863,10 +29118,10 @@
         <v>1</v>
       </c>
       <c r="K677">
-        <v>300000</v>
+        <v>332500</v>
       </c>
       <c r="L677">
-        <v>300000</v>
+        <v>332500</v>
       </c>
     </row>
     <row r="678" spans="1:12">
@@ -28883,16 +29138,16 @@
         <v>839</v>
       </c>
       <c r="E678" t="s">
-        <v>925</v>
+        <v>934</v>
       </c>
       <c r="F678" t="s">
-        <v>926</v>
+        <v>935</v>
       </c>
       <c r="G678" t="s">
-        <v>927</v>
+        <v>936</v>
       </c>
       <c r="H678" t="s">
-        <v>948</v>
+        <v>213</v>
       </c>
       <c r="I678" t="s">
         <v>19</v>
@@ -28901,10 +29156,2062 @@
         <v>1</v>
       </c>
       <c r="K678">
+        <v>7135469</v>
+      </c>
+      <c r="L678">
+        <v>7135469</v>
+      </c>
+    </row>
+    <row r="679" spans="1:12">
+      <c r="A679">
+        <v>676</v>
+      </c>
+      <c r="B679">
+        <v>626402</v>
+      </c>
+      <c r="C679" t="s">
+        <v>13</v>
+      </c>
+      <c r="D679" t="s">
+        <v>839</v>
+      </c>
+      <c r="E679" t="s">
+        <v>934</v>
+      </c>
+      <c r="F679" t="s">
+        <v>935</v>
+      </c>
+      <c r="G679" t="s">
+        <v>936</v>
+      </c>
+      <c r="H679" t="s">
+        <v>956</v>
+      </c>
+      <c r="I679" t="s">
+        <v>19</v>
+      </c>
+      <c r="J679">
+        <v>1</v>
+      </c>
+      <c r="K679">
         <v>300000</v>
       </c>
-      <c r="L678">
+      <c r="L679">
         <v>300000</v>
+      </c>
+    </row>
+    <row r="680" spans="1:12">
+      <c r="A680">
+        <v>677</v>
+      </c>
+      <c r="B680">
+        <v>626402</v>
+      </c>
+      <c r="C680" t="s">
+        <v>13</v>
+      </c>
+      <c r="D680" t="s">
+        <v>839</v>
+      </c>
+      <c r="E680" t="s">
+        <v>934</v>
+      </c>
+      <c r="F680" t="s">
+        <v>935</v>
+      </c>
+      <c r="G680" t="s">
+        <v>936</v>
+      </c>
+      <c r="H680" t="s">
+        <v>957</v>
+      </c>
+      <c r="I680" t="s">
+        <v>19</v>
+      </c>
+      <c r="J680">
+        <v>1</v>
+      </c>
+      <c r="K680">
+        <v>300000</v>
+      </c>
+      <c r="L680">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="681" spans="1:12">
+      <c r="A681">
+        <v>678</v>
+      </c>
+      <c r="B681">
+        <v>626402</v>
+      </c>
+      <c r="C681" t="s">
+        <v>13</v>
+      </c>
+      <c r="D681" t="s">
+        <v>901</v>
+      </c>
+      <c r="E681" t="s">
+        <v>958</v>
+      </c>
+      <c r="F681" t="s">
+        <v>959</v>
+      </c>
+      <c r="G681" t="s">
+        <v>960</v>
+      </c>
+      <c r="H681" t="s">
+        <v>783</v>
+      </c>
+      <c r="I681" t="s">
+        <v>19</v>
+      </c>
+      <c r="J681">
+        <v>1</v>
+      </c>
+      <c r="K681">
+        <v>12891000</v>
+      </c>
+      <c r="L681">
+        <v>12891000</v>
+      </c>
+    </row>
+    <row r="682" spans="1:12">
+      <c r="A682">
+        <v>679</v>
+      </c>
+      <c r="B682">
+        <v>626402</v>
+      </c>
+      <c r="C682" t="s">
+        <v>13</v>
+      </c>
+      <c r="D682" t="s">
+        <v>901</v>
+      </c>
+      <c r="E682" t="s">
+        <v>961</v>
+      </c>
+      <c r="F682" t="s">
+        <v>962</v>
+      </c>
+      <c r="G682" t="s">
+        <v>963</v>
+      </c>
+      <c r="H682" t="s">
+        <v>396</v>
+      </c>
+      <c r="I682" t="s">
+        <v>19</v>
+      </c>
+      <c r="J682">
+        <v>1</v>
+      </c>
+      <c r="K682">
+        <v>198905755</v>
+      </c>
+      <c r="L682">
+        <v>198905755</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12">
+      <c r="A683">
+        <v>680</v>
+      </c>
+      <c r="B683">
+        <v>626402</v>
+      </c>
+      <c r="C683" t="s">
+        <v>13</v>
+      </c>
+      <c r="D683" t="s">
+        <v>901</v>
+      </c>
+      <c r="E683" t="s">
+        <v>964</v>
+      </c>
+      <c r="F683" t="s">
+        <v>965</v>
+      </c>
+      <c r="G683" t="s">
+        <v>121</v>
+      </c>
+      <c r="H683" t="s">
+        <v>255</v>
+      </c>
+      <c r="I683" t="s">
+        <v>19</v>
+      </c>
+      <c r="J683">
+        <v>1</v>
+      </c>
+      <c r="K683">
+        <v>2581400</v>
+      </c>
+      <c r="L683">
+        <v>2581400</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12">
+      <c r="A684">
+        <v>681</v>
+      </c>
+      <c r="B684">
+        <v>626402</v>
+      </c>
+      <c r="C684" t="s">
+        <v>13</v>
+      </c>
+      <c r="D684" t="s">
+        <v>901</v>
+      </c>
+      <c r="E684" t="s">
+        <v>964</v>
+      </c>
+      <c r="F684" t="s">
+        <v>965</v>
+      </c>
+      <c r="G684" t="s">
+        <v>121</v>
+      </c>
+      <c r="H684" t="s">
+        <v>518</v>
+      </c>
+      <c r="I684" t="s">
+        <v>19</v>
+      </c>
+      <c r="J684">
+        <v>1</v>
+      </c>
+      <c r="K684">
+        <v>2361857</v>
+      </c>
+      <c r="L684">
+        <v>2361857</v>
+      </c>
+    </row>
+    <row r="685" spans="1:12">
+      <c r="A685">
+        <v>682</v>
+      </c>
+      <c r="B685">
+        <v>626402</v>
+      </c>
+      <c r="C685" t="s">
+        <v>13</v>
+      </c>
+      <c r="D685" t="s">
+        <v>966</v>
+      </c>
+      <c r="E685" t="s">
+        <v>967</v>
+      </c>
+      <c r="F685" t="s">
+        <v>968</v>
+      </c>
+      <c r="G685" t="s">
+        <v>969</v>
+      </c>
+      <c r="H685" t="s">
+        <v>970</v>
+      </c>
+      <c r="I685" t="s">
+        <v>19</v>
+      </c>
+      <c r="J685">
+        <v>1</v>
+      </c>
+      <c r="K685">
+        <v>19000000</v>
+      </c>
+      <c r="L685">
+        <v>19000000</v>
+      </c>
+    </row>
+    <row r="686" spans="1:12">
+      <c r="A686">
+        <v>683</v>
+      </c>
+      <c r="B686">
+        <v>626402</v>
+      </c>
+      <c r="C686" t="s">
+        <v>13</v>
+      </c>
+      <c r="D686" t="s">
+        <v>966</v>
+      </c>
+      <c r="E686" t="s">
+        <v>971</v>
+      </c>
+      <c r="F686" t="s">
+        <v>972</v>
+      </c>
+      <c r="G686" t="s">
+        <v>973</v>
+      </c>
+      <c r="H686" t="s">
+        <v>974</v>
+      </c>
+      <c r="I686" t="s">
+        <v>19</v>
+      </c>
+      <c r="J686">
+        <v>1</v>
+      </c>
+      <c r="K686">
+        <v>22311000</v>
+      </c>
+      <c r="L686">
+        <v>22311000</v>
+      </c>
+    </row>
+    <row r="687" spans="1:12">
+      <c r="A687">
+        <v>684</v>
+      </c>
+      <c r="B687">
+        <v>626402</v>
+      </c>
+      <c r="C687" t="s">
+        <v>13</v>
+      </c>
+      <c r="D687" t="s">
+        <v>966</v>
+      </c>
+      <c r="E687" t="s">
+        <v>975</v>
+      </c>
+      <c r="F687" t="s">
+        <v>976</v>
+      </c>
+      <c r="G687" t="s">
+        <v>977</v>
+      </c>
+      <c r="H687" t="s">
+        <v>336</v>
+      </c>
+      <c r="I687" t="s">
+        <v>19</v>
+      </c>
+      <c r="J687">
+        <v>1</v>
+      </c>
+      <c r="K687">
+        <v>20000000</v>
+      </c>
+      <c r="L687">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="688" spans="1:12">
+      <c r="A688">
+        <v>685</v>
+      </c>
+      <c r="B688">
+        <v>626402</v>
+      </c>
+      <c r="C688" t="s">
+        <v>13</v>
+      </c>
+      <c r="D688" t="s">
+        <v>966</v>
+      </c>
+      <c r="E688" t="s">
+        <v>978</v>
+      </c>
+      <c r="F688" t="s">
+        <v>979</v>
+      </c>
+      <c r="G688" t="s">
+        <v>980</v>
+      </c>
+      <c r="H688" t="s">
+        <v>256</v>
+      </c>
+      <c r="I688" t="s">
+        <v>19</v>
+      </c>
+      <c r="J688">
+        <v>1</v>
+      </c>
+      <c r="K688">
+        <v>18636900</v>
+      </c>
+      <c r="L688">
+        <v>18636900</v>
+      </c>
+    </row>
+    <row r="689" spans="1:12">
+      <c r="A689">
+        <v>686</v>
+      </c>
+      <c r="B689">
+        <v>626402</v>
+      </c>
+      <c r="C689" t="s">
+        <v>13</v>
+      </c>
+      <c r="D689" t="s">
+        <v>921</v>
+      </c>
+      <c r="E689" t="s">
+        <v>981</v>
+      </c>
+      <c r="F689" t="s">
+        <v>982</v>
+      </c>
+      <c r="G689" t="s">
+        <v>983</v>
+      </c>
+      <c r="H689" t="s">
+        <v>373</v>
+      </c>
+      <c r="I689" t="s">
+        <v>19</v>
+      </c>
+      <c r="J689">
+        <v>1</v>
+      </c>
+      <c r="K689">
+        <v>4402600</v>
+      </c>
+      <c r="L689">
+        <v>4402600</v>
+      </c>
+    </row>
+    <row r="690" spans="1:12">
+      <c r="A690">
+        <v>687</v>
+      </c>
+      <c r="B690">
+        <v>626402</v>
+      </c>
+      <c r="C690" t="s">
+        <v>13</v>
+      </c>
+      <c r="D690" t="s">
+        <v>921</v>
+      </c>
+      <c r="E690" t="s">
+        <v>984</v>
+      </c>
+      <c r="F690" t="s">
+        <v>985</v>
+      </c>
+      <c r="G690" t="s">
+        <v>986</v>
+      </c>
+      <c r="H690" t="s">
+        <v>218</v>
+      </c>
+      <c r="I690" t="s">
+        <v>19</v>
+      </c>
+      <c r="J690">
+        <v>1</v>
+      </c>
+      <c r="K690">
+        <v>30969218</v>
+      </c>
+      <c r="L690">
+        <v>30969218</v>
+      </c>
+    </row>
+    <row r="691" spans="1:12">
+      <c r="A691">
+        <v>688</v>
+      </c>
+      <c r="B691">
+        <v>626402</v>
+      </c>
+      <c r="C691" t="s">
+        <v>13</v>
+      </c>
+      <c r="D691" t="s">
+        <v>921</v>
+      </c>
+      <c r="E691" t="s">
+        <v>987</v>
+      </c>
+      <c r="F691" t="s">
+        <v>988</v>
+      </c>
+      <c r="G691" t="s">
+        <v>989</v>
+      </c>
+      <c r="H691" t="s">
+        <v>218</v>
+      </c>
+      <c r="I691" t="s">
+        <v>19</v>
+      </c>
+      <c r="J691">
+        <v>1</v>
+      </c>
+      <c r="K691">
+        <v>14328133</v>
+      </c>
+      <c r="L691">
+        <v>14328133</v>
+      </c>
+    </row>
+    <row r="692" spans="1:12">
+      <c r="A692">
+        <v>689</v>
+      </c>
+      <c r="B692">
+        <v>626402</v>
+      </c>
+      <c r="C692" t="s">
+        <v>13</v>
+      </c>
+      <c r="D692" t="s">
+        <v>966</v>
+      </c>
+      <c r="E692" t="s">
+        <v>990</v>
+      </c>
+      <c r="F692" t="s">
+        <v>991</v>
+      </c>
+      <c r="G692" t="s">
+        <v>429</v>
+      </c>
+      <c r="H692" t="s">
+        <v>255</v>
+      </c>
+      <c r="I692" t="s">
+        <v>19</v>
+      </c>
+      <c r="J692">
+        <v>1</v>
+      </c>
+      <c r="K692">
+        <v>12429300</v>
+      </c>
+      <c r="L692">
+        <v>12429300</v>
+      </c>
+    </row>
+    <row r="693" spans="1:12">
+      <c r="A693">
+        <v>690</v>
+      </c>
+      <c r="B693">
+        <v>626402</v>
+      </c>
+      <c r="C693" t="s">
+        <v>13</v>
+      </c>
+      <c r="D693" t="s">
+        <v>966</v>
+      </c>
+      <c r="E693" t="s">
+        <v>990</v>
+      </c>
+      <c r="F693" t="s">
+        <v>991</v>
+      </c>
+      <c r="G693" t="s">
+        <v>429</v>
+      </c>
+      <c r="H693" t="s">
+        <v>430</v>
+      </c>
+      <c r="I693" t="s">
+        <v>19</v>
+      </c>
+      <c r="J693">
+        <v>1</v>
+      </c>
+      <c r="K693">
+        <v>22460000</v>
+      </c>
+      <c r="L693">
+        <v>22460000</v>
+      </c>
+    </row>
+    <row r="694" spans="1:12">
+      <c r="A694">
+        <v>691</v>
+      </c>
+      <c r="B694">
+        <v>626402</v>
+      </c>
+      <c r="C694" t="s">
+        <v>13</v>
+      </c>
+      <c r="D694" t="s">
+        <v>966</v>
+      </c>
+      <c r="E694" t="s">
+        <v>990</v>
+      </c>
+      <c r="F694" t="s">
+        <v>991</v>
+      </c>
+      <c r="G694" t="s">
+        <v>429</v>
+      </c>
+      <c r="H694" t="s">
+        <v>431</v>
+      </c>
+      <c r="I694" t="s">
+        <v>19</v>
+      </c>
+      <c r="J694">
+        <v>1</v>
+      </c>
+      <c r="K694">
+        <v>40832000</v>
+      </c>
+      <c r="L694">
+        <v>40832000</v>
+      </c>
+    </row>
+    <row r="695" spans="1:12">
+      <c r="A695">
+        <v>692</v>
+      </c>
+      <c r="B695">
+        <v>626402</v>
+      </c>
+      <c r="C695" t="s">
+        <v>13</v>
+      </c>
+      <c r="D695" t="s">
+        <v>966</v>
+      </c>
+      <c r="E695" t="s">
+        <v>990</v>
+      </c>
+      <c r="F695" t="s">
+        <v>991</v>
+      </c>
+      <c r="G695" t="s">
+        <v>429</v>
+      </c>
+      <c r="H695" t="s">
+        <v>992</v>
+      </c>
+      <c r="I695" t="s">
+        <v>19</v>
+      </c>
+      <c r="J695">
+        <v>1</v>
+      </c>
+      <c r="K695">
+        <v>1952000</v>
+      </c>
+      <c r="L695">
+        <v>1952000</v>
+      </c>
+    </row>
+    <row r="696" spans="1:12">
+      <c r="A696">
+        <v>693</v>
+      </c>
+      <c r="B696">
+        <v>626402</v>
+      </c>
+      <c r="C696" t="s">
+        <v>13</v>
+      </c>
+      <c r="D696" t="s">
+        <v>966</v>
+      </c>
+      <c r="E696" t="s">
+        <v>990</v>
+      </c>
+      <c r="F696" t="s">
+        <v>991</v>
+      </c>
+      <c r="G696" t="s">
+        <v>429</v>
+      </c>
+      <c r="H696" t="s">
+        <v>993</v>
+      </c>
+      <c r="I696" t="s">
+        <v>19</v>
+      </c>
+      <c r="J696">
+        <v>1</v>
+      </c>
+      <c r="K696">
+        <v>3816000</v>
+      </c>
+      <c r="L696">
+        <v>3816000</v>
+      </c>
+    </row>
+    <row r="697" spans="1:12">
+      <c r="A697">
+        <v>694</v>
+      </c>
+      <c r="B697">
+        <v>626402</v>
+      </c>
+      <c r="C697" t="s">
+        <v>13</v>
+      </c>
+      <c r="D697" t="s">
+        <v>966</v>
+      </c>
+      <c r="E697" t="s">
+        <v>990</v>
+      </c>
+      <c r="F697" t="s">
+        <v>991</v>
+      </c>
+      <c r="G697" t="s">
+        <v>429</v>
+      </c>
+      <c r="H697" t="s">
+        <v>994</v>
+      </c>
+      <c r="I697" t="s">
+        <v>19</v>
+      </c>
+      <c r="J697">
+        <v>1</v>
+      </c>
+      <c r="K697">
+        <v>1696000</v>
+      </c>
+      <c r="L697">
+        <v>1696000</v>
+      </c>
+    </row>
+    <row r="698" spans="1:12">
+      <c r="A698">
+        <v>695</v>
+      </c>
+      <c r="B698">
+        <v>626402</v>
+      </c>
+      <c r="C698" t="s">
+        <v>13</v>
+      </c>
+      <c r="D698" t="s">
+        <v>966</v>
+      </c>
+      <c r="E698" t="s">
+        <v>990</v>
+      </c>
+      <c r="F698" t="s">
+        <v>991</v>
+      </c>
+      <c r="G698" t="s">
+        <v>429</v>
+      </c>
+      <c r="H698" t="s">
+        <v>995</v>
+      </c>
+      <c r="I698" t="s">
+        <v>19</v>
+      </c>
+      <c r="J698">
+        <v>1</v>
+      </c>
+      <c r="K698">
+        <v>2976000</v>
+      </c>
+      <c r="L698">
+        <v>2976000</v>
+      </c>
+    </row>
+    <row r="699" spans="1:12">
+      <c r="A699">
+        <v>696</v>
+      </c>
+      <c r="B699">
+        <v>626402</v>
+      </c>
+      <c r="C699" t="s">
+        <v>13</v>
+      </c>
+      <c r="D699" t="s">
+        <v>966</v>
+      </c>
+      <c r="E699" t="s">
+        <v>990</v>
+      </c>
+      <c r="F699" t="s">
+        <v>991</v>
+      </c>
+      <c r="G699" t="s">
+        <v>429</v>
+      </c>
+      <c r="H699" t="s">
+        <v>996</v>
+      </c>
+      <c r="I699" t="s">
+        <v>19</v>
+      </c>
+      <c r="J699">
+        <v>1</v>
+      </c>
+      <c r="K699">
+        <v>2844000</v>
+      </c>
+      <c r="L699">
+        <v>2844000</v>
+      </c>
+    </row>
+    <row r="700" spans="1:12">
+      <c r="A700">
+        <v>697</v>
+      </c>
+      <c r="B700">
+        <v>626402</v>
+      </c>
+      <c r="C700" t="s">
+        <v>13</v>
+      </c>
+      <c r="D700" t="s">
+        <v>966</v>
+      </c>
+      <c r="E700" t="s">
+        <v>990</v>
+      </c>
+      <c r="F700" t="s">
+        <v>991</v>
+      </c>
+      <c r="G700" t="s">
+        <v>429</v>
+      </c>
+      <c r="H700" t="s">
+        <v>997</v>
+      </c>
+      <c r="I700" t="s">
+        <v>19</v>
+      </c>
+      <c r="J700">
+        <v>1</v>
+      </c>
+      <c r="K700">
+        <v>2184000</v>
+      </c>
+      <c r="L700">
+        <v>2184000</v>
+      </c>
+    </row>
+    <row r="701" spans="1:12">
+      <c r="A701">
+        <v>698</v>
+      </c>
+      <c r="B701">
+        <v>626402</v>
+      </c>
+      <c r="C701" t="s">
+        <v>13</v>
+      </c>
+      <c r="D701" t="s">
+        <v>966</v>
+      </c>
+      <c r="E701" t="s">
+        <v>990</v>
+      </c>
+      <c r="F701" t="s">
+        <v>991</v>
+      </c>
+      <c r="G701" t="s">
+        <v>429</v>
+      </c>
+      <c r="H701" t="s">
+        <v>998</v>
+      </c>
+      <c r="I701" t="s">
+        <v>19</v>
+      </c>
+      <c r="J701">
+        <v>1</v>
+      </c>
+      <c r="K701">
+        <v>160000</v>
+      </c>
+      <c r="L701">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="702" spans="1:12">
+      <c r="A702">
+        <v>699</v>
+      </c>
+      <c r="B702">
+        <v>626402</v>
+      </c>
+      <c r="C702" t="s">
+        <v>13</v>
+      </c>
+      <c r="D702" t="s">
+        <v>966</v>
+      </c>
+      <c r="E702" t="s">
+        <v>990</v>
+      </c>
+      <c r="F702" t="s">
+        <v>991</v>
+      </c>
+      <c r="G702" t="s">
+        <v>429</v>
+      </c>
+      <c r="H702" t="s">
+        <v>999</v>
+      </c>
+      <c r="I702" t="s">
+        <v>19</v>
+      </c>
+      <c r="J702">
+        <v>1</v>
+      </c>
+      <c r="K702">
+        <v>200000</v>
+      </c>
+      <c r="L702">
+        <v>200000</v>
+      </c>
+    </row>
+    <row r="703" spans="1:12">
+      <c r="A703">
+        <v>700</v>
+      </c>
+      <c r="B703">
+        <v>626402</v>
+      </c>
+      <c r="C703" t="s">
+        <v>13</v>
+      </c>
+      <c r="D703" t="s">
+        <v>966</v>
+      </c>
+      <c r="E703" t="s">
+        <v>990</v>
+      </c>
+      <c r="F703" t="s">
+        <v>991</v>
+      </c>
+      <c r="G703" t="s">
+        <v>429</v>
+      </c>
+      <c r="H703" t="s">
+        <v>1000</v>
+      </c>
+      <c r="I703" t="s">
+        <v>19</v>
+      </c>
+      <c r="J703">
+        <v>1</v>
+      </c>
+      <c r="K703">
+        <v>784000</v>
+      </c>
+      <c r="L703">
+        <v>784000</v>
+      </c>
+    </row>
+    <row r="704" spans="1:12">
+      <c r="A704">
+        <v>701</v>
+      </c>
+      <c r="B704">
+        <v>626402</v>
+      </c>
+      <c r="C704" t="s">
+        <v>13</v>
+      </c>
+      <c r="D704" t="s">
+        <v>966</v>
+      </c>
+      <c r="E704" t="s">
+        <v>990</v>
+      </c>
+      <c r="F704" t="s">
+        <v>991</v>
+      </c>
+      <c r="G704" t="s">
+        <v>429</v>
+      </c>
+      <c r="H704" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I704" t="s">
+        <v>19</v>
+      </c>
+      <c r="J704">
+        <v>1</v>
+      </c>
+      <c r="K704">
+        <v>240000</v>
+      </c>
+      <c r="L704">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="705" spans="1:12">
+      <c r="A705">
+        <v>702</v>
+      </c>
+      <c r="B705">
+        <v>626402</v>
+      </c>
+      <c r="C705" t="s">
+        <v>13</v>
+      </c>
+      <c r="D705" t="s">
+        <v>966</v>
+      </c>
+      <c r="E705" t="s">
+        <v>990</v>
+      </c>
+      <c r="F705" t="s">
+        <v>991</v>
+      </c>
+      <c r="G705" t="s">
+        <v>429</v>
+      </c>
+      <c r="H705" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I705" t="s">
+        <v>19</v>
+      </c>
+      <c r="J705">
+        <v>1</v>
+      </c>
+      <c r="K705">
+        <v>320000</v>
+      </c>
+      <c r="L705">
+        <v>320000</v>
+      </c>
+    </row>
+    <row r="706" spans="1:12">
+      <c r="A706">
+        <v>703</v>
+      </c>
+      <c r="B706">
+        <v>626402</v>
+      </c>
+      <c r="C706" t="s">
+        <v>13</v>
+      </c>
+      <c r="D706" t="s">
+        <v>966</v>
+      </c>
+      <c r="E706" t="s">
+        <v>990</v>
+      </c>
+      <c r="F706" t="s">
+        <v>991</v>
+      </c>
+      <c r="G706" t="s">
+        <v>429</v>
+      </c>
+      <c r="H706" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I706" t="s">
+        <v>19</v>
+      </c>
+      <c r="J706">
+        <v>1</v>
+      </c>
+      <c r="K706">
+        <v>280000</v>
+      </c>
+      <c r="L706">
+        <v>280000</v>
+      </c>
+    </row>
+    <row r="707" spans="1:12">
+      <c r="A707">
+        <v>704</v>
+      </c>
+      <c r="B707">
+        <v>626402</v>
+      </c>
+      <c r="C707" t="s">
+        <v>13</v>
+      </c>
+      <c r="D707" t="s">
+        <v>966</v>
+      </c>
+      <c r="E707" t="s">
+        <v>990</v>
+      </c>
+      <c r="F707" t="s">
+        <v>991</v>
+      </c>
+      <c r="G707" t="s">
+        <v>429</v>
+      </c>
+      <c r="H707" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I707" t="s">
+        <v>19</v>
+      </c>
+      <c r="J707">
+        <v>1</v>
+      </c>
+      <c r="K707">
+        <v>720000</v>
+      </c>
+      <c r="L707">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="708" spans="1:12">
+      <c r="A708">
+        <v>705</v>
+      </c>
+      <c r="B708">
+        <v>626402</v>
+      </c>
+      <c r="C708" t="s">
+        <v>13</v>
+      </c>
+      <c r="D708" t="s">
+        <v>966</v>
+      </c>
+      <c r="E708" t="s">
+        <v>990</v>
+      </c>
+      <c r="F708" t="s">
+        <v>991</v>
+      </c>
+      <c r="G708" t="s">
+        <v>429</v>
+      </c>
+      <c r="H708" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I708" t="s">
+        <v>19</v>
+      </c>
+      <c r="J708">
+        <v>1</v>
+      </c>
+      <c r="K708">
+        <v>784000</v>
+      </c>
+      <c r="L708">
+        <v>784000</v>
+      </c>
+    </row>
+    <row r="709" spans="1:12">
+      <c r="A709">
+        <v>706</v>
+      </c>
+      <c r="B709">
+        <v>626402</v>
+      </c>
+      <c r="C709" t="s">
+        <v>13</v>
+      </c>
+      <c r="D709" t="s">
+        <v>966</v>
+      </c>
+      <c r="E709" t="s">
+        <v>990</v>
+      </c>
+      <c r="F709" t="s">
+        <v>991</v>
+      </c>
+      <c r="G709" t="s">
+        <v>429</v>
+      </c>
+      <c r="H709" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I709" t="s">
+        <v>19</v>
+      </c>
+      <c r="J709">
+        <v>1</v>
+      </c>
+      <c r="K709">
+        <v>240000</v>
+      </c>
+      <c r="L709">
+        <v>240000</v>
+      </c>
+    </row>
+    <row r="710" spans="1:12">
+      <c r="A710">
+        <v>707</v>
+      </c>
+      <c r="B710">
+        <v>626402</v>
+      </c>
+      <c r="C710" t="s">
+        <v>13</v>
+      </c>
+      <c r="D710" t="s">
+        <v>966</v>
+      </c>
+      <c r="E710" t="s">
+        <v>990</v>
+      </c>
+      <c r="F710" t="s">
+        <v>991</v>
+      </c>
+      <c r="G710" t="s">
+        <v>429</v>
+      </c>
+      <c r="H710" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I710" t="s">
+        <v>19</v>
+      </c>
+      <c r="J710">
+        <v>1</v>
+      </c>
+      <c r="K710">
+        <v>816000</v>
+      </c>
+      <c r="L710">
+        <v>816000</v>
+      </c>
+    </row>
+    <row r="711" spans="1:12">
+      <c r="A711">
+        <v>708</v>
+      </c>
+      <c r="B711">
+        <v>626402</v>
+      </c>
+      <c r="C711" t="s">
+        <v>13</v>
+      </c>
+      <c r="D711" t="s">
+        <v>966</v>
+      </c>
+      <c r="E711" t="s">
+        <v>990</v>
+      </c>
+      <c r="F711" t="s">
+        <v>991</v>
+      </c>
+      <c r="G711" t="s">
+        <v>429</v>
+      </c>
+      <c r="H711" t="s">
+        <v>261</v>
+      </c>
+      <c r="I711" t="s">
+        <v>19</v>
+      </c>
+      <c r="J711">
+        <v>1</v>
+      </c>
+      <c r="K711">
+        <v>412000</v>
+      </c>
+      <c r="L711">
+        <v>412000</v>
+      </c>
+    </row>
+    <row r="712" spans="1:12">
+      <c r="A712">
+        <v>709</v>
+      </c>
+      <c r="B712">
+        <v>626402</v>
+      </c>
+      <c r="C712" t="s">
+        <v>13</v>
+      </c>
+      <c r="D712" t="s">
+        <v>966</v>
+      </c>
+      <c r="E712" t="s">
+        <v>990</v>
+      </c>
+      <c r="F712" t="s">
+        <v>991</v>
+      </c>
+      <c r="G712" t="s">
+        <v>429</v>
+      </c>
+      <c r="H712" t="s">
+        <v>432</v>
+      </c>
+      <c r="I712" t="s">
+        <v>19</v>
+      </c>
+      <c r="J712">
+        <v>1</v>
+      </c>
+      <c r="K712">
+        <v>750000</v>
+      </c>
+      <c r="L712">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="713" spans="1:12">
+      <c r="A713">
+        <v>710</v>
+      </c>
+      <c r="B713">
+        <v>626402</v>
+      </c>
+      <c r="C713" t="s">
+        <v>13</v>
+      </c>
+      <c r="D713" t="s">
+        <v>966</v>
+      </c>
+      <c r="E713" t="s">
+        <v>990</v>
+      </c>
+      <c r="F713" t="s">
+        <v>991</v>
+      </c>
+      <c r="G713" t="s">
+        <v>429</v>
+      </c>
+      <c r="H713" t="s">
+        <v>270</v>
+      </c>
+      <c r="I713" t="s">
+        <v>19</v>
+      </c>
+      <c r="J713">
+        <v>1</v>
+      </c>
+      <c r="K713">
+        <v>96000</v>
+      </c>
+      <c r="L713">
+        <v>96000</v>
+      </c>
+    </row>
+    <row r="714" spans="1:12">
+      <c r="A714">
+        <v>711</v>
+      </c>
+      <c r="B714">
+        <v>626402</v>
+      </c>
+      <c r="C714" t="s">
+        <v>13</v>
+      </c>
+      <c r="D714" t="s">
+        <v>966</v>
+      </c>
+      <c r="E714" t="s">
+        <v>990</v>
+      </c>
+      <c r="F714" t="s">
+        <v>991</v>
+      </c>
+      <c r="G714" t="s">
+        <v>429</v>
+      </c>
+      <c r="H714" t="s">
+        <v>128</v>
+      </c>
+      <c r="I714" t="s">
+        <v>19</v>
+      </c>
+      <c r="J714">
+        <v>1</v>
+      </c>
+      <c r="K714">
+        <v>1715708</v>
+      </c>
+      <c r="L714">
+        <v>1715708</v>
+      </c>
+    </row>
+    <row r="715" spans="1:12">
+      <c r="A715">
+        <v>712</v>
+      </c>
+      <c r="B715">
+        <v>626402</v>
+      </c>
+      <c r="C715" t="s">
+        <v>13</v>
+      </c>
+      <c r="D715" t="s">
+        <v>966</v>
+      </c>
+      <c r="E715" t="s">
+        <v>990</v>
+      </c>
+      <c r="F715" t="s">
+        <v>991</v>
+      </c>
+      <c r="G715" t="s">
+        <v>429</v>
+      </c>
+      <c r="H715" t="s">
+        <v>518</v>
+      </c>
+      <c r="I715" t="s">
+        <v>19</v>
+      </c>
+      <c r="J715">
+        <v>1</v>
+      </c>
+      <c r="K715">
+        <v>360000</v>
+      </c>
+      <c r="L715">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="716" spans="1:12">
+      <c r="A716">
+        <v>713</v>
+      </c>
+      <c r="B716">
+        <v>626402</v>
+      </c>
+      <c r="C716" t="s">
+        <v>13</v>
+      </c>
+      <c r="D716" t="s">
+        <v>966</v>
+      </c>
+      <c r="E716" t="s">
+        <v>990</v>
+      </c>
+      <c r="F716" t="s">
+        <v>991</v>
+      </c>
+      <c r="G716" t="s">
+        <v>429</v>
+      </c>
+      <c r="H716" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I716" t="s">
+        <v>19</v>
+      </c>
+      <c r="J716">
+        <v>1</v>
+      </c>
+      <c r="K716">
+        <v>510000</v>
+      </c>
+      <c r="L716">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="717" spans="1:12">
+      <c r="A717">
+        <v>714</v>
+      </c>
+      <c r="B717">
+        <v>626402</v>
+      </c>
+      <c r="C717" t="s">
+        <v>13</v>
+      </c>
+      <c r="D717" t="s">
+        <v>966</v>
+      </c>
+      <c r="E717" t="s">
+        <v>990</v>
+      </c>
+      <c r="F717" t="s">
+        <v>991</v>
+      </c>
+      <c r="G717" t="s">
+        <v>429</v>
+      </c>
+      <c r="H717" t="s">
+        <v>312</v>
+      </c>
+      <c r="I717" t="s">
+        <v>19</v>
+      </c>
+      <c r="J717">
+        <v>1</v>
+      </c>
+      <c r="K717">
+        <v>340000</v>
+      </c>
+      <c r="L717">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="718" spans="1:12">
+      <c r="A718">
+        <v>715</v>
+      </c>
+      <c r="B718">
+        <v>626402</v>
+      </c>
+      <c r="C718" t="s">
+        <v>13</v>
+      </c>
+      <c r="D718" t="s">
+        <v>966</v>
+      </c>
+      <c r="E718" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F718" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G718" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H718" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I718" t="s">
+        <v>19</v>
+      </c>
+      <c r="J718">
+        <v>1</v>
+      </c>
+      <c r="K718">
+        <v>27654000</v>
+      </c>
+      <c r="L718">
+        <v>27654000</v>
+      </c>
+    </row>
+    <row r="719" spans="1:12">
+      <c r="A719">
+        <v>716</v>
+      </c>
+      <c r="B719">
+        <v>626402</v>
+      </c>
+      <c r="C719" t="s">
+        <v>13</v>
+      </c>
+      <c r="D719" t="s">
+        <v>966</v>
+      </c>
+      <c r="E719" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F719" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G719" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H719" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I719" t="s">
+        <v>19</v>
+      </c>
+      <c r="J719">
+        <v>1</v>
+      </c>
+      <c r="K719">
+        <v>11070000</v>
+      </c>
+      <c r="L719">
+        <v>11070000</v>
+      </c>
+    </row>
+    <row r="720" spans="1:12">
+      <c r="A720">
+        <v>717</v>
+      </c>
+      <c r="B720">
+        <v>626402</v>
+      </c>
+      <c r="C720" t="s">
+        <v>13</v>
+      </c>
+      <c r="D720" t="s">
+        <v>966</v>
+      </c>
+      <c r="E720" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F720" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G720" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H720" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I720" t="s">
+        <v>19</v>
+      </c>
+      <c r="J720">
+        <v>1</v>
+      </c>
+      <c r="K720">
+        <v>161500</v>
+      </c>
+      <c r="L720">
+        <v>161500</v>
+      </c>
+    </row>
+    <row r="721" spans="1:12">
+      <c r="A721">
+        <v>718</v>
+      </c>
+      <c r="B721">
+        <v>626402</v>
+      </c>
+      <c r="C721" t="s">
+        <v>13</v>
+      </c>
+      <c r="D721" t="s">
+        <v>966</v>
+      </c>
+      <c r="E721" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F721" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G721" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H721" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I721" t="s">
+        <v>19</v>
+      </c>
+      <c r="J721">
+        <v>1</v>
+      </c>
+      <c r="K721">
+        <v>2175985</v>
+      </c>
+      <c r="L721">
+        <v>2175985</v>
+      </c>
+    </row>
+    <row r="722" spans="1:12">
+      <c r="A722">
+        <v>719</v>
+      </c>
+      <c r="B722">
+        <v>626402</v>
+      </c>
+      <c r="C722" t="s">
+        <v>13</v>
+      </c>
+      <c r="D722" t="s">
+        <v>966</v>
+      </c>
+      <c r="E722" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F722" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G722" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H722" t="s">
+        <v>1016</v>
+      </c>
+      <c r="I722" t="s">
+        <v>19</v>
+      </c>
+      <c r="J722">
+        <v>1</v>
+      </c>
+      <c r="K722">
+        <v>3000000</v>
+      </c>
+      <c r="L722">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="723" spans="1:12">
+      <c r="A723">
+        <v>720</v>
+      </c>
+      <c r="B723">
+        <v>626402</v>
+      </c>
+      <c r="C723" t="s">
+        <v>13</v>
+      </c>
+      <c r="D723" t="s">
+        <v>966</v>
+      </c>
+      <c r="E723" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F723" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G723" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H723" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I723" t="s">
+        <v>19</v>
+      </c>
+      <c r="J723">
+        <v>1</v>
+      </c>
+      <c r="K723">
+        <v>49000000</v>
+      </c>
+      <c r="L723">
+        <v>49000000</v>
+      </c>
+    </row>
+    <row r="724" spans="1:12">
+      <c r="A724">
+        <v>721</v>
+      </c>
+      <c r="B724">
+        <v>626402</v>
+      </c>
+      <c r="C724" t="s">
+        <v>13</v>
+      </c>
+      <c r="D724" t="s">
+        <v>966</v>
+      </c>
+      <c r="E724" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F724" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G724" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H724" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I724" t="s">
+        <v>19</v>
+      </c>
+      <c r="J724">
+        <v>1</v>
+      </c>
+      <c r="K724">
+        <v>315000</v>
+      </c>
+      <c r="L724">
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="725" spans="1:12">
+      <c r="A725">
+        <v>722</v>
+      </c>
+      <c r="B725">
+        <v>626402</v>
+      </c>
+      <c r="C725" t="s">
+        <v>13</v>
+      </c>
+      <c r="D725" t="s">
+        <v>966</v>
+      </c>
+      <c r="E725" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F725" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G725" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H725" t="s">
+        <v>1019</v>
+      </c>
+      <c r="I725" t="s">
+        <v>19</v>
+      </c>
+      <c r="J725">
+        <v>1</v>
+      </c>
+      <c r="K725">
+        <v>385000</v>
+      </c>
+      <c r="L725">
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="726" spans="1:12">
+      <c r="A726">
+        <v>723</v>
+      </c>
+      <c r="B726">
+        <v>626402</v>
+      </c>
+      <c r="C726" t="s">
+        <v>13</v>
+      </c>
+      <c r="D726" t="s">
+        <v>966</v>
+      </c>
+      <c r="E726" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F726" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G726" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H726" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I726" t="s">
+        <v>19</v>
+      </c>
+      <c r="J726">
+        <v>1</v>
+      </c>
+      <c r="K726">
+        <v>2610000</v>
+      </c>
+      <c r="L726">
+        <v>2610000</v>
+      </c>
+    </row>
+    <row r="727" spans="1:12">
+      <c r="A727">
+        <v>724</v>
+      </c>
+      <c r="B727">
+        <v>626402</v>
+      </c>
+      <c r="C727" t="s">
+        <v>13</v>
+      </c>
+      <c r="D727" t="s">
+        <v>966</v>
+      </c>
+      <c r="E727" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F727" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G727" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H727" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I727" t="s">
+        <v>19</v>
+      </c>
+      <c r="J727">
+        <v>1</v>
+      </c>
+      <c r="K727">
+        <v>3016434</v>
+      </c>
+      <c r="L727">
+        <v>3016434</v>
+      </c>
+    </row>
+    <row r="728" spans="1:12">
+      <c r="A728">
+        <v>725</v>
+      </c>
+      <c r="B728">
+        <v>626402</v>
+      </c>
+      <c r="C728" t="s">
+        <v>13</v>
+      </c>
+      <c r="D728" t="s">
+        <v>966</v>
+      </c>
+      <c r="E728" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F728" t="s">
+        <v>1010</v>
+      </c>
+      <c r="G728" t="s">
+        <v>1011</v>
+      </c>
+      <c r="H728" t="s">
+        <v>616</v>
+      </c>
+      <c r="I728" t="s">
+        <v>19</v>
+      </c>
+      <c r="J728">
+        <v>1</v>
+      </c>
+      <c r="K728">
+        <v>600000</v>
+      </c>
+      <c r="L728">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="729" spans="1:12">
+      <c r="A729">
+        <v>726</v>
+      </c>
+      <c r="B729">
+        <v>626402</v>
+      </c>
+      <c r="C729" t="s">
+        <v>13</v>
+      </c>
+      <c r="D729" t="s">
+        <v>921</v>
+      </c>
+      <c r="E729" t="s">
+        <v>1022</v>
+      </c>
+      <c r="F729" t="s">
+        <v>1023</v>
+      </c>
+      <c r="G729" t="s">
+        <v>1024</v>
+      </c>
+      <c r="H729" t="s">
+        <v>545</v>
+      </c>
+      <c r="I729" t="s">
+        <v>19</v>
+      </c>
+      <c r="J729">
+        <v>1</v>
+      </c>
+      <c r="K729">
+        <v>12440000</v>
+      </c>
+      <c r="L729">
+        <v>12440000</v>
+      </c>
+    </row>
+    <row r="730" spans="1:12">
+      <c r="A730">
+        <v>727</v>
+      </c>
+      <c r="B730">
+        <v>626402</v>
+      </c>
+      <c r="C730" t="s">
+        <v>13</v>
+      </c>
+      <c r="D730" t="s">
+        <v>921</v>
+      </c>
+      <c r="E730" t="s">
+        <v>1025</v>
+      </c>
+      <c r="F730" t="s">
+        <v>1026</v>
+      </c>
+      <c r="G730" t="s">
+        <v>1027</v>
+      </c>
+      <c r="H730" t="s">
+        <v>545</v>
+      </c>
+      <c r="I730" t="s">
+        <v>19</v>
+      </c>
+      <c r="J730">
+        <v>1</v>
+      </c>
+      <c r="K730">
+        <v>36930000</v>
+      </c>
+      <c r="L730">
+        <v>36930000</v>
+      </c>
+    </row>
+    <row r="731" spans="1:12">
+      <c r="A731">
+        <v>728</v>
+      </c>
+      <c r="B731">
+        <v>626402</v>
+      </c>
+      <c r="C731" t="s">
+        <v>13</v>
+      </c>
+      <c r="D731" t="s">
+        <v>921</v>
+      </c>
+      <c r="E731" t="s">
+        <v>1028</v>
+      </c>
+      <c r="F731" t="s">
+        <v>1029</v>
+      </c>
+      <c r="G731" t="s">
+        <v>1030</v>
+      </c>
+      <c r="H731" t="s">
+        <v>545</v>
+      </c>
+      <c r="I731" t="s">
+        <v>19</v>
+      </c>
+      <c r="J731">
+        <v>1</v>
+      </c>
+      <c r="K731">
+        <v>86300000</v>
+      </c>
+      <c r="L731">
+        <v>86300000</v>
+      </c>
+    </row>
+    <row r="732" spans="1:12">
+      <c r="A732">
+        <v>729</v>
+      </c>
+      <c r="B732">
+        <v>626402</v>
+      </c>
+      <c r="C732" t="s">
+        <v>13</v>
+      </c>
+      <c r="D732" t="s">
+        <v>921</v>
+      </c>
+      <c r="E732" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F732" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G732" t="s">
+        <v>1033</v>
+      </c>
+      <c r="H732" t="s">
+        <v>545</v>
+      </c>
+      <c r="I732" t="s">
+        <v>19</v>
+      </c>
+      <c r="J732">
+        <v>1</v>
+      </c>
+      <c r="K732">
+        <v>15000000</v>
+      </c>
+      <c r="L732">
+        <v>15000000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1034">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1067">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -3117,6 +3117,105 @@
   </si>
   <si>
     <t>Pembayaran Belanja Barang. Biaya penelitian peserta tubel S2-UNDIP an. Hilman Adi S sesuai SK KaBRSDMKP No 520 Tahun 2022 Tgl 11/8/2022 dan SK PPK No KEP 16/BRSDM.4/I/2024 Tgl 3/1/2024</t>
+  </si>
+  <si>
+    <t>2024-03-08</t>
+  </si>
+  <si>
+    <t>'00232T</t>
+  </si>
+  <si>
+    <t>'241751301005369</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 034/BSM/SET.BPPSDM/II/2024 Tanggal 4 Maret 2024.</t>
+  </si>
+  <si>
+    <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BC.000523</t>
+  </si>
+  <si>
+    <t>'00233T</t>
+  </si>
+  <si>
+    <t>'241751303005285</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No.B.239/BPPSDM.5/KP.440/II/2024 Tgl. 12 Februari 2024 a.n Supriyadi dkk</t>
+  </si>
+  <si>
+    <t>'00234T</t>
+  </si>
+  <si>
+    <t>'241751302005387</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:046/TRID/02/2024 Tanggal 20 Februari 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.522191.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0C.000038</t>
+  </si>
+  <si>
+    <t>'00235T</t>
+  </si>
+  <si>
+    <t>'241751303005278</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 06/K/TD/II/20224 Tanggal 29 Februari 2024.</t>
+  </si>
+  <si>
+    <t>'00236T</t>
+  </si>
+  <si>
+    <t>'241751303005266</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.297,B.1245/BPPSDM.1/KP.440/II/2024 Tanggal 21 Februari 2024.</t>
+  </si>
+  <si>
+    <t>'00237T</t>
+  </si>
+  <si>
+    <t>'241751303005184</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan pegawai Sekretariat BRSDM bulan Februari tahun 2024 untuk 74 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00238T</t>
+  </si>
+  <si>
+    <t>'241751303005185</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan pegawai PPPK bulan Februari tahun 2024 untuk 2 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00239T</t>
+  </si>
+  <si>
+    <t>'241751305000369</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan pegawai Sekretariat BRSDM bulan Februari tahun 2024 untuk 1 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00240T</t>
+  </si>
+  <si>
+    <t>'241751303005183</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan pegawai Pusdik bulan Februari tahun 2024 untuk 40 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00241T</t>
+  </si>
+  <si>
+    <t>'241751305000370</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Sekretariat BRSDM bulan Februari 2024 untuk 2 pegawai)</t>
   </si>
 </sst>
 </file>
@@ -3458,7 +3557,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L732"/>
+  <dimension ref="A1:L742"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -31212,6 +31311,386 @@
       </c>
       <c r="L732">
         <v>15000000</v>
+      </c>
+    </row>
+    <row r="733" spans="1:12">
+      <c r="A733">
+        <v>730</v>
+      </c>
+      <c r="B733">
+        <v>626402</v>
+      </c>
+      <c r="C733" t="s">
+        <v>13</v>
+      </c>
+      <c r="D733" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E733" t="s">
+        <v>1035</v>
+      </c>
+      <c r="F733" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G733" t="s">
+        <v>1037</v>
+      </c>
+      <c r="H733" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I733" t="s">
+        <v>19</v>
+      </c>
+      <c r="J733">
+        <v>1</v>
+      </c>
+      <c r="K733">
+        <v>28651320</v>
+      </c>
+      <c r="L733">
+        <v>28651320</v>
+      </c>
+    </row>
+    <row r="734" spans="1:12">
+      <c r="A734">
+        <v>731</v>
+      </c>
+      <c r="B734">
+        <v>626402</v>
+      </c>
+      <c r="C734" t="s">
+        <v>13</v>
+      </c>
+      <c r="D734" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E734" t="s">
+        <v>1039</v>
+      </c>
+      <c r="F734" t="s">
+        <v>1040</v>
+      </c>
+      <c r="G734" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H734" t="s">
+        <v>613</v>
+      </c>
+      <c r="I734" t="s">
+        <v>19</v>
+      </c>
+      <c r="J734">
+        <v>1</v>
+      </c>
+      <c r="K734">
+        <v>3449500</v>
+      </c>
+      <c r="L734">
+        <v>3449500</v>
+      </c>
+    </row>
+    <row r="735" spans="1:12">
+      <c r="A735">
+        <v>732</v>
+      </c>
+      <c r="B735">
+        <v>626402</v>
+      </c>
+      <c r="C735" t="s">
+        <v>13</v>
+      </c>
+      <c r="D735" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E735" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F735" t="s">
+        <v>1043</v>
+      </c>
+      <c r="G735" t="s">
+        <v>1044</v>
+      </c>
+      <c r="H735" t="s">
+        <v>1045</v>
+      </c>
+      <c r="I735" t="s">
+        <v>19</v>
+      </c>
+      <c r="J735">
+        <v>1</v>
+      </c>
+      <c r="K735">
+        <v>35908500</v>
+      </c>
+      <c r="L735">
+        <v>35908500</v>
+      </c>
+    </row>
+    <row r="736" spans="1:12">
+      <c r="A736">
+        <v>733</v>
+      </c>
+      <c r="B736">
+        <v>626402</v>
+      </c>
+      <c r="C736" t="s">
+        <v>13</v>
+      </c>
+      <c r="D736" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E736" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F736" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G736" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H736" t="s">
+        <v>257</v>
+      </c>
+      <c r="I736" t="s">
+        <v>19</v>
+      </c>
+      <c r="J736">
+        <v>1</v>
+      </c>
+      <c r="K736">
+        <v>2053500</v>
+      </c>
+      <c r="L736">
+        <v>2053500</v>
+      </c>
+    </row>
+    <row r="737" spans="1:12">
+      <c r="A737">
+        <v>734</v>
+      </c>
+      <c r="B737">
+        <v>626402</v>
+      </c>
+      <c r="C737" t="s">
+        <v>13</v>
+      </c>
+      <c r="D737" t="s">
+        <v>1034</v>
+      </c>
+      <c r="E737" t="s">
+        <v>1049</v>
+      </c>
+      <c r="F737" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G737" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H737" t="s">
+        <v>275</v>
+      </c>
+      <c r="I737" t="s">
+        <v>19</v>
+      </c>
+      <c r="J737">
+        <v>1</v>
+      </c>
+      <c r="K737">
+        <v>4076500</v>
+      </c>
+      <c r="L737">
+        <v>4076500</v>
+      </c>
+    </row>
+    <row r="738" spans="1:12">
+      <c r="A738">
+        <v>735</v>
+      </c>
+      <c r="B738">
+        <v>626402</v>
+      </c>
+      <c r="C738" t="s">
+        <v>13</v>
+      </c>
+      <c r="D738" t="s">
+        <v>921</v>
+      </c>
+      <c r="E738" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F738" t="s">
+        <v>1053</v>
+      </c>
+      <c r="G738" t="s">
+        <v>1054</v>
+      </c>
+      <c r="H738" t="s">
+        <v>400</v>
+      </c>
+      <c r="I738" t="s">
+        <v>19</v>
+      </c>
+      <c r="J738">
+        <v>1</v>
+      </c>
+      <c r="K738">
+        <v>414643586</v>
+      </c>
+      <c r="L738">
+        <v>414643586</v>
+      </c>
+    </row>
+    <row r="739" spans="1:12">
+      <c r="A739">
+        <v>736</v>
+      </c>
+      <c r="B739">
+        <v>626402</v>
+      </c>
+      <c r="C739" t="s">
+        <v>13</v>
+      </c>
+      <c r="D739" t="s">
+        <v>921</v>
+      </c>
+      <c r="E739" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F739" t="s">
+        <v>1056</v>
+      </c>
+      <c r="G739" t="s">
+        <v>1057</v>
+      </c>
+      <c r="H739" t="s">
+        <v>510</v>
+      </c>
+      <c r="I739" t="s">
+        <v>19</v>
+      </c>
+      <c r="J739">
+        <v>1</v>
+      </c>
+      <c r="K739">
+        <v>9177893</v>
+      </c>
+      <c r="L739">
+        <v>9177893</v>
+      </c>
+    </row>
+    <row r="740" spans="1:12">
+      <c r="A740">
+        <v>737</v>
+      </c>
+      <c r="B740">
+        <v>626402</v>
+      </c>
+      <c r="C740" t="s">
+        <v>13</v>
+      </c>
+      <c r="D740" t="s">
+        <v>921</v>
+      </c>
+      <c r="E740" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F740" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G740" t="s">
+        <v>1060</v>
+      </c>
+      <c r="H740" t="s">
+        <v>400</v>
+      </c>
+      <c r="I740" t="s">
+        <v>19</v>
+      </c>
+      <c r="J740">
+        <v>1</v>
+      </c>
+      <c r="K740">
+        <v>5305483</v>
+      </c>
+      <c r="L740">
+        <v>5305483</v>
+      </c>
+    </row>
+    <row r="741" spans="1:12">
+      <c r="A741">
+        <v>738</v>
+      </c>
+      <c r="B741">
+        <v>626402</v>
+      </c>
+      <c r="C741" t="s">
+        <v>13</v>
+      </c>
+      <c r="D741" t="s">
+        <v>921</v>
+      </c>
+      <c r="E741" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F741" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G741" t="s">
+        <v>1063</v>
+      </c>
+      <c r="H741" t="s">
+        <v>80</v>
+      </c>
+      <c r="I741" t="s">
+        <v>19</v>
+      </c>
+      <c r="J741">
+        <v>1</v>
+      </c>
+      <c r="K741">
+        <v>203332962</v>
+      </c>
+      <c r="L741">
+        <v>203332962</v>
+      </c>
+    </row>
+    <row r="742" spans="1:12">
+      <c r="A742">
+        <v>739</v>
+      </c>
+      <c r="B742">
+        <v>626402</v>
+      </c>
+      <c r="C742" t="s">
+        <v>13</v>
+      </c>
+      <c r="D742" t="s">
+        <v>921</v>
+      </c>
+      <c r="E742" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F742" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G742" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H742" t="s">
+        <v>793</v>
+      </c>
+      <c r="I742" t="s">
+        <v>19</v>
+      </c>
+      <c r="J742">
+        <v>1</v>
+      </c>
+      <c r="K742">
+        <v>883000</v>
+      </c>
+      <c r="L742">
+        <v>883000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1067">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1142">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -2960,6 +2960,18 @@
     <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor: 016 Tanggal 15 Februari 2024</t>
   </si>
   <si>
+    <t>2024-03-08</t>
+  </si>
+  <si>
+    <t>'00208T</t>
+  </si>
+  <si>
+    <t>'241751303005574</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji susulan an VIda bulan Maret 2024 untuk 1 pegawai)</t>
+  </si>
+  <si>
     <t>'00209T</t>
   </si>
   <si>
@@ -3119,7 +3131,124 @@
     <t>Pembayaran Belanja Barang. Biaya penelitian peserta tubel S2-UNDIP an. Hilman Adi S sesuai SK KaBRSDMKP No 520 Tahun 2022 Tgl 11/8/2022 dan SK PPK No KEP 16/BRSDM.4/I/2024 Tgl 3/1/2024</t>
   </si>
   <si>
-    <t>2024-03-08</t>
+    <t>'00218T</t>
+  </si>
+  <si>
+    <t>'241751303005571</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji susulan pegawai an. Devy bulan Januari s.d Maret 2024 untuk 1 pegawai)</t>
+  </si>
+  <si>
+    <t>'00219T</t>
+  </si>
+  <si>
+    <t>'241751303005385</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran kekurangan gaji pegawai Pusdik sesuai PP tarif baru bulan Januari-Februari 2024 untuk 30 pegawai)</t>
+  </si>
+  <si>
+    <t>'00220T</t>
+  </si>
+  <si>
+    <t>'241751303005376</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai pusdik bulan februari 2024 untuk 37 pegawai)</t>
+  </si>
+  <si>
+    <t>'00221T</t>
+  </si>
+  <si>
+    <t>'241751303005584</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Sekretariat BRSDM bulan Februari 2024 untuk 72 pegawai)</t>
+  </si>
+  <si>
+    <t>'00222T</t>
+  </si>
+  <si>
+    <t>'241751303005370</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.1303/BPPSDM.1/KP.440/III/2024 Tanggal 27 Februari 2023.</t>
+  </si>
+  <si>
+    <t>'00223T</t>
+  </si>
+  <si>
+    <t>'241751303005373</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No.B.337/BPPSDM.5/KP.440/II/2024 Tgl. 23 Februari 2024 a.n Drs.Mas Adi Pranggono</t>
+  </si>
+  <si>
+    <t>'00224T</t>
+  </si>
+  <si>
+    <t>'241751303005374</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No.B.258/BPPSDM.5/KP.440/II/2024 Tgl. 15 Februari 2024 a.n Supriyadi,S.Pi dkk</t>
+  </si>
+  <si>
+    <t>'00225T</t>
+  </si>
+  <si>
+    <t>'241751303005369</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No.B.258/BPPSDM.5/KP.440/II/2024 Tgl. 15 Februari 2024 a.n Fitra Aditama</t>
+  </si>
+  <si>
+    <t>'00226T</t>
+  </si>
+  <si>
+    <t>'241751303005371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No.B.389/BPPSDM.5/KP.440/III/2024 Tgl. 01 Maret 2024 a.n Lilly Aprilya Pregiwati </t>
+  </si>
+  <si>
+    <t>'00227T</t>
+  </si>
+  <si>
+    <t>'241751303005368</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No.B.389/BPPSDM.5/KP.440/III/2024 Tgl. 01 Maret 2024 a.n Riza Satriawan dkk</t>
+  </si>
+  <si>
+    <t>'00228T</t>
+  </si>
+  <si>
+    <t>'241751303005375</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No.B.352/BPPSDM.5/KP.440/I/2024 Tgl. 27 Februari 2024 a.n Ary Budhy Purwoko S Ap </t>
+  </si>
+  <si>
+    <t>'00230T</t>
+  </si>
+  <si>
+    <t>'241751303005372</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin sesuai ST No.B.369/BPPSDM.5/KP.440/II/2024 Tgl. 28 Februari 2024 a.n Drs Mas Adi Pranggono,MM</t>
+  </si>
+  <si>
+    <t>'00231T</t>
+  </si>
+  <si>
+    <t>'241751301005484</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 033/BSM/SET.BPPSDM/III/202 Tanggal 1 Maret 2024.</t>
+  </si>
+  <si>
+    <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BC.000523</t>
   </si>
   <si>
     <t>'00232T</t>
@@ -3131,9 +3260,6 @@
     <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 034/BSM/SET.BPPSDM/II/2024 Tanggal 4 Maret 2024.</t>
   </si>
   <si>
-    <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BC.000523</t>
-  </si>
-  <si>
     <t>'00233T</t>
   </si>
   <si>
@@ -3216,6 +3342,105 @@
   </si>
   <si>
     <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Sekretariat BRSDM bulan Februari 2024 untuk 2 pegawai)</t>
+  </si>
+  <si>
+    <t>'00242T</t>
+  </si>
+  <si>
+    <t>'241751303005543</t>
+  </si>
+  <si>
+    <t>'00243T</t>
+  </si>
+  <si>
+    <t>'241751303005572</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai PPPK bulan Januari untuk 2 pegawai)</t>
+  </si>
+  <si>
+    <t>'626402.175.511628.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.AA.001365</t>
+  </si>
+  <si>
+    <t>2024-03-13</t>
+  </si>
+  <si>
+    <t>'00244T</t>
+  </si>
+  <si>
+    <t>'241751303005455</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST No. B.1459/BPPSDM.1/KP.440/III/2024 Tanggal 1 Maret 2024 a.n Yatin Agus, dkk</t>
+  </si>
+  <si>
+    <t>'00245T</t>
+  </si>
+  <si>
+    <t>'241751303005456</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.1459/BPPSDM.1/KP.440/III/2024 Tanggal 1 Maret 2024 a.n Nina Lusmiati</t>
+  </si>
+  <si>
+    <t>'00246T</t>
+  </si>
+  <si>
+    <t>'241751303005454</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.1269/BPPSDM.1/KP.440/III/2024 Tanggal 26 Februari 2024.</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.101.0A.000829</t>
+  </si>
+  <si>
+    <t>'00247T</t>
+  </si>
+  <si>
+    <t>'241751303005573</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai PPPK bulan Februari 2024 untuk 2 pegawai)</t>
+  </si>
+  <si>
+    <t>2024-03-14</t>
+  </si>
+  <si>
+    <t>'00248T</t>
+  </si>
+  <si>
+    <t>'241751301005835</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:2/PPK/BRSDM.1/I/2024 Tgl.2-1-2024,BAST No:BAST.606/PPK/BRSDM.1/II/2024 Tgl.29-2-2-24,BAP No:607/PPK/BRSDM.1/II/2024 Tgl.29-2-2024 Pengadaan jasa internet provider sekretariat BRSDM TA 2024 TERMIN 2</t>
+  </si>
+  <si>
+    <t>'00249T</t>
+  </si>
+  <si>
+    <t>'241751301005899</t>
+  </si>
+  <si>
+    <t>Pembayara Belanja Barang Sesuai Kuitansi Nomor:0490/AGA.04.02/F06010000/2024 Tanggal 4 Maret 2024 Tagihan listrik Bln. Maret 2024 untuk Pemakaian Energi Listrik Bln. Februari 2024 GD.BSRDM ANCOL</t>
+  </si>
+  <si>
+    <t>'00250T</t>
+  </si>
+  <si>
+    <t>'241751304000045</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:0006/AGA.04.02/020700/2024 Tgl.5 maret 2024 Tagihan Listrik Bln.Maret 2023 untuk pemakaian energi listrik Bln.Februari 2024 Gd.ARSIP BRSDM Depok</t>
+  </si>
+  <si>
+    <t>'00251T</t>
+  </si>
+  <si>
+    <t>'241751303005657</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran rapel kekurangan gaji pegawai Puslatluh bulan januari-februari 2024 untuk 37 pegawa/105 Jiwa)</t>
   </si>
 </sst>
 </file>
@@ -3557,7 +3782,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L742"/>
+  <dimension ref="A1:L786"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -29652,19 +29877,19 @@
         <v>13</v>
       </c>
       <c r="D689" t="s">
-        <v>921</v>
+        <v>981</v>
       </c>
       <c r="E689" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F689" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="G689" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="H689" t="s">
-        <v>373</v>
+        <v>18</v>
       </c>
       <c r="I689" t="s">
         <v>19</v>
@@ -29673,10 +29898,10 @@
         <v>1</v>
       </c>
       <c r="K689">
-        <v>4402600</v>
+        <v>2564200</v>
       </c>
       <c r="L689">
-        <v>4402600</v>
+        <v>2564200</v>
       </c>
     </row>
     <row r="690" spans="1:12">
@@ -29690,19 +29915,19 @@
         <v>13</v>
       </c>
       <c r="D690" t="s">
-        <v>921</v>
+        <v>981</v>
       </c>
       <c r="E690" t="s">
+        <v>982</v>
+      </c>
+      <c r="F690" t="s">
+        <v>983</v>
+      </c>
+      <c r="G690" t="s">
         <v>984</v>
       </c>
-      <c r="F690" t="s">
-        <v>985</v>
-      </c>
-      <c r="G690" t="s">
-        <v>986</v>
-      </c>
       <c r="H690" t="s">
-        <v>218</v>
+        <v>20</v>
       </c>
       <c r="I690" t="s">
         <v>19</v>
@@ -29711,10 +29936,10 @@
         <v>1</v>
       </c>
       <c r="K690">
-        <v>30969218</v>
+        <v>99</v>
       </c>
       <c r="L690">
-        <v>30969218</v>
+        <v>99</v>
       </c>
     </row>
     <row r="691" spans="1:12">
@@ -29728,19 +29953,19 @@
         <v>13</v>
       </c>
       <c r="D691" t="s">
-        <v>921</v>
+        <v>981</v>
       </c>
       <c r="E691" t="s">
-        <v>987</v>
+        <v>982</v>
       </c>
       <c r="F691" t="s">
-        <v>988</v>
+        <v>983</v>
       </c>
       <c r="G691" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="H691" t="s">
-        <v>218</v>
+        <v>21</v>
       </c>
       <c r="I691" t="s">
         <v>19</v>
@@ -29749,10 +29974,10 @@
         <v>1</v>
       </c>
       <c r="K691">
-        <v>14328133</v>
+        <v>256420</v>
       </c>
       <c r="L691">
-        <v>14328133</v>
+        <v>256420</v>
       </c>
     </row>
     <row r="692" spans="1:12">
@@ -29766,19 +29991,19 @@
         <v>13</v>
       </c>
       <c r="D692" t="s">
-        <v>966</v>
+        <v>981</v>
       </c>
       <c r="E692" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="F692" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="G692" t="s">
-        <v>429</v>
+        <v>984</v>
       </c>
       <c r="H692" t="s">
-        <v>255</v>
+        <v>23</v>
       </c>
       <c r="I692" t="s">
         <v>19</v>
@@ -29787,10 +30012,10 @@
         <v>1</v>
       </c>
       <c r="K692">
-        <v>12429300</v>
+        <v>330000</v>
       </c>
       <c r="L692">
-        <v>12429300</v>
+        <v>330000</v>
       </c>
     </row>
     <row r="693" spans="1:12">
@@ -29804,19 +30029,19 @@
         <v>13</v>
       </c>
       <c r="D693" t="s">
-        <v>966</v>
+        <v>981</v>
       </c>
       <c r="E693" t="s">
-        <v>990</v>
+        <v>982</v>
       </c>
       <c r="F693" t="s">
-        <v>991</v>
+        <v>983</v>
       </c>
       <c r="G693" t="s">
-        <v>429</v>
+        <v>984</v>
       </c>
       <c r="H693" t="s">
-        <v>430</v>
+        <v>25</v>
       </c>
       <c r="I693" t="s">
         <v>19</v>
@@ -29825,10 +30050,10 @@
         <v>1</v>
       </c>
       <c r="K693">
-        <v>22460000</v>
+        <v>144840</v>
       </c>
       <c r="L693">
-        <v>22460000</v>
+        <v>144840</v>
       </c>
     </row>
     <row r="694" spans="1:12">
@@ -29842,19 +30067,19 @@
         <v>13</v>
       </c>
       <c r="D694" t="s">
-        <v>966</v>
+        <v>921</v>
       </c>
       <c r="E694" t="s">
-        <v>990</v>
+        <v>985</v>
       </c>
       <c r="F694" t="s">
-        <v>991</v>
+        <v>986</v>
       </c>
       <c r="G694" t="s">
-        <v>429</v>
+        <v>987</v>
       </c>
       <c r="H694" t="s">
-        <v>431</v>
+        <v>373</v>
       </c>
       <c r="I694" t="s">
         <v>19</v>
@@ -29863,10 +30088,10 @@
         <v>1</v>
       </c>
       <c r="K694">
-        <v>40832000</v>
+        <v>4402600</v>
       </c>
       <c r="L694">
-        <v>40832000</v>
+        <v>4402600</v>
       </c>
     </row>
     <row r="695" spans="1:12">
@@ -29880,19 +30105,19 @@
         <v>13</v>
       </c>
       <c r="D695" t="s">
-        <v>966</v>
+        <v>921</v>
       </c>
       <c r="E695" t="s">
+        <v>988</v>
+      </c>
+      <c r="F695" t="s">
+        <v>989</v>
+      </c>
+      <c r="G695" t="s">
         <v>990</v>
       </c>
-      <c r="F695" t="s">
-        <v>991</v>
-      </c>
-      <c r="G695" t="s">
-        <v>429</v>
-      </c>
       <c r="H695" t="s">
-        <v>992</v>
+        <v>218</v>
       </c>
       <c r="I695" t="s">
         <v>19</v>
@@ -29901,10 +30126,10 @@
         <v>1</v>
       </c>
       <c r="K695">
-        <v>1952000</v>
+        <v>30969218</v>
       </c>
       <c r="L695">
-        <v>1952000</v>
+        <v>30969218</v>
       </c>
     </row>
     <row r="696" spans="1:12">
@@ -29918,19 +30143,19 @@
         <v>13</v>
       </c>
       <c r="D696" t="s">
-        <v>966</v>
+        <v>921</v>
       </c>
       <c r="E696" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="F696" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="G696" t="s">
-        <v>429</v>
+        <v>993</v>
       </c>
       <c r="H696" t="s">
-        <v>993</v>
+        <v>218</v>
       </c>
       <c r="I696" t="s">
         <v>19</v>
@@ -29939,10 +30164,10 @@
         <v>1</v>
       </c>
       <c r="K696">
-        <v>3816000</v>
+        <v>14328133</v>
       </c>
       <c r="L696">
-        <v>3816000</v>
+        <v>14328133</v>
       </c>
     </row>
     <row r="697" spans="1:12">
@@ -29959,16 +30184,16 @@
         <v>966</v>
       </c>
       <c r="E697" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F697" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G697" t="s">
         <v>429</v>
       </c>
       <c r="H697" t="s">
-        <v>994</v>
+        <v>255</v>
       </c>
       <c r="I697" t="s">
         <v>19</v>
@@ -29977,10 +30202,10 @@
         <v>1</v>
       </c>
       <c r="K697">
-        <v>1696000</v>
+        <v>12429300</v>
       </c>
       <c r="L697">
-        <v>1696000</v>
+        <v>12429300</v>
       </c>
     </row>
     <row r="698" spans="1:12">
@@ -29997,16 +30222,16 @@
         <v>966</v>
       </c>
       <c r="E698" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F698" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G698" t="s">
         <v>429</v>
       </c>
       <c r="H698" t="s">
-        <v>995</v>
+        <v>430</v>
       </c>
       <c r="I698" t="s">
         <v>19</v>
@@ -30015,10 +30240,10 @@
         <v>1</v>
       </c>
       <c r="K698">
-        <v>2976000</v>
+        <v>22460000</v>
       </c>
       <c r="L698">
-        <v>2976000</v>
+        <v>22460000</v>
       </c>
     </row>
     <row r="699" spans="1:12">
@@ -30035,16 +30260,16 @@
         <v>966</v>
       </c>
       <c r="E699" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F699" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G699" t="s">
         <v>429</v>
       </c>
       <c r="H699" t="s">
-        <v>996</v>
+        <v>431</v>
       </c>
       <c r="I699" t="s">
         <v>19</v>
@@ -30053,10 +30278,10 @@
         <v>1</v>
       </c>
       <c r="K699">
-        <v>2844000</v>
+        <v>40832000</v>
       </c>
       <c r="L699">
-        <v>2844000</v>
+        <v>40832000</v>
       </c>
     </row>
     <row r="700" spans="1:12">
@@ -30073,16 +30298,16 @@
         <v>966</v>
       </c>
       <c r="E700" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F700" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G700" t="s">
         <v>429</v>
       </c>
       <c r="H700" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="I700" t="s">
         <v>19</v>
@@ -30091,10 +30316,10 @@
         <v>1</v>
       </c>
       <c r="K700">
-        <v>2184000</v>
+        <v>1952000</v>
       </c>
       <c r="L700">
-        <v>2184000</v>
+        <v>1952000</v>
       </c>
     </row>
     <row r="701" spans="1:12">
@@ -30111,16 +30336,16 @@
         <v>966</v>
       </c>
       <c r="E701" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F701" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G701" t="s">
         <v>429</v>
       </c>
       <c r="H701" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I701" t="s">
         <v>19</v>
@@ -30129,10 +30354,10 @@
         <v>1</v>
       </c>
       <c r="K701">
-        <v>160000</v>
+        <v>3816000</v>
       </c>
       <c r="L701">
-        <v>160000</v>
+        <v>3816000</v>
       </c>
     </row>
     <row r="702" spans="1:12">
@@ -30149,16 +30374,16 @@
         <v>966</v>
       </c>
       <c r="E702" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F702" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G702" t="s">
         <v>429</v>
       </c>
       <c r="H702" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="I702" t="s">
         <v>19</v>
@@ -30167,10 +30392,10 @@
         <v>1</v>
       </c>
       <c r="K702">
-        <v>200000</v>
+        <v>1696000</v>
       </c>
       <c r="L702">
-        <v>200000</v>
+        <v>1696000</v>
       </c>
     </row>
     <row r="703" spans="1:12">
@@ -30187,16 +30412,16 @@
         <v>966</v>
       </c>
       <c r="E703" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F703" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G703" t="s">
         <v>429</v>
       </c>
       <c r="H703" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="I703" t="s">
         <v>19</v>
@@ -30205,10 +30430,10 @@
         <v>1</v>
       </c>
       <c r="K703">
-        <v>784000</v>
+        <v>2976000</v>
       </c>
       <c r="L703">
-        <v>784000</v>
+        <v>2976000</v>
       </c>
     </row>
     <row r="704" spans="1:12">
@@ -30225,16 +30450,16 @@
         <v>966</v>
       </c>
       <c r="E704" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F704" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G704" t="s">
         <v>429</v>
       </c>
       <c r="H704" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="I704" t="s">
         <v>19</v>
@@ -30243,10 +30468,10 @@
         <v>1</v>
       </c>
       <c r="K704">
-        <v>240000</v>
+        <v>2844000</v>
       </c>
       <c r="L704">
-        <v>240000</v>
+        <v>2844000</v>
       </c>
     </row>
     <row r="705" spans="1:12">
@@ -30263,16 +30488,16 @@
         <v>966</v>
       </c>
       <c r="E705" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F705" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G705" t="s">
         <v>429</v>
       </c>
       <c r="H705" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I705" t="s">
         <v>19</v>
@@ -30281,10 +30506,10 @@
         <v>1</v>
       </c>
       <c r="K705">
-        <v>320000</v>
+        <v>2184000</v>
       </c>
       <c r="L705">
-        <v>320000</v>
+        <v>2184000</v>
       </c>
     </row>
     <row r="706" spans="1:12">
@@ -30301,16 +30526,16 @@
         <v>966</v>
       </c>
       <c r="E706" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F706" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G706" t="s">
         <v>429</v>
       </c>
       <c r="H706" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="I706" t="s">
         <v>19</v>
@@ -30319,10 +30544,10 @@
         <v>1</v>
       </c>
       <c r="K706">
-        <v>280000</v>
+        <v>160000</v>
       </c>
       <c r="L706">
-        <v>280000</v>
+        <v>160000</v>
       </c>
     </row>
     <row r="707" spans="1:12">
@@ -30339,16 +30564,16 @@
         <v>966</v>
       </c>
       <c r="E707" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F707" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G707" t="s">
         <v>429</v>
       </c>
       <c r="H707" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="I707" t="s">
         <v>19</v>
@@ -30357,10 +30582,10 @@
         <v>1</v>
       </c>
       <c r="K707">
-        <v>720000</v>
+        <v>200000</v>
       </c>
       <c r="L707">
-        <v>720000</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="708" spans="1:12">
@@ -30377,16 +30602,16 @@
         <v>966</v>
       </c>
       <c r="E708" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F708" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G708" t="s">
         <v>429</v>
       </c>
       <c r="H708" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="I708" t="s">
         <v>19</v>
@@ -30415,16 +30640,16 @@
         <v>966</v>
       </c>
       <c r="E709" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F709" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G709" t="s">
         <v>429</v>
       </c>
       <c r="H709" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="I709" t="s">
         <v>19</v>
@@ -30453,16 +30678,16 @@
         <v>966</v>
       </c>
       <c r="E710" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F710" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G710" t="s">
         <v>429</v>
       </c>
       <c r="H710" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="I710" t="s">
         <v>19</v>
@@ -30471,10 +30696,10 @@
         <v>1</v>
       </c>
       <c r="K710">
-        <v>816000</v>
+        <v>320000</v>
       </c>
       <c r="L710">
-        <v>816000</v>
+        <v>320000</v>
       </c>
     </row>
     <row r="711" spans="1:12">
@@ -30491,16 +30716,16 @@
         <v>966</v>
       </c>
       <c r="E711" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F711" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G711" t="s">
         <v>429</v>
       </c>
       <c r="H711" t="s">
-        <v>261</v>
+        <v>1007</v>
       </c>
       <c r="I711" t="s">
         <v>19</v>
@@ -30509,10 +30734,10 @@
         <v>1</v>
       </c>
       <c r="K711">
-        <v>412000</v>
+        <v>280000</v>
       </c>
       <c r="L711">
-        <v>412000</v>
+        <v>280000</v>
       </c>
     </row>
     <row r="712" spans="1:12">
@@ -30529,16 +30754,16 @@
         <v>966</v>
       </c>
       <c r="E712" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F712" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G712" t="s">
         <v>429</v>
       </c>
       <c r="H712" t="s">
-        <v>432</v>
+        <v>1008</v>
       </c>
       <c r="I712" t="s">
         <v>19</v>
@@ -30547,10 +30772,10 @@
         <v>1</v>
       </c>
       <c r="K712">
-        <v>750000</v>
+        <v>720000</v>
       </c>
       <c r="L712">
-        <v>750000</v>
+        <v>720000</v>
       </c>
     </row>
     <row r="713" spans="1:12">
@@ -30567,16 +30792,16 @@
         <v>966</v>
       </c>
       <c r="E713" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F713" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G713" t="s">
         <v>429</v>
       </c>
       <c r="H713" t="s">
-        <v>270</v>
+        <v>1009</v>
       </c>
       <c r="I713" t="s">
         <v>19</v>
@@ -30585,10 +30810,10 @@
         <v>1</v>
       </c>
       <c r="K713">
-        <v>96000</v>
+        <v>784000</v>
       </c>
       <c r="L713">
-        <v>96000</v>
+        <v>784000</v>
       </c>
     </row>
     <row r="714" spans="1:12">
@@ -30605,16 +30830,16 @@
         <v>966</v>
       </c>
       <c r="E714" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F714" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G714" t="s">
         <v>429</v>
       </c>
       <c r="H714" t="s">
-        <v>128</v>
+        <v>1010</v>
       </c>
       <c r="I714" t="s">
         <v>19</v>
@@ -30623,10 +30848,10 @@
         <v>1</v>
       </c>
       <c r="K714">
-        <v>1715708</v>
+        <v>240000</v>
       </c>
       <c r="L714">
-        <v>1715708</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="715" spans="1:12">
@@ -30643,16 +30868,16 @@
         <v>966</v>
       </c>
       <c r="E715" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F715" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G715" t="s">
         <v>429</v>
       </c>
       <c r="H715" t="s">
-        <v>518</v>
+        <v>1011</v>
       </c>
       <c r="I715" t="s">
         <v>19</v>
@@ -30661,10 +30886,10 @@
         <v>1</v>
       </c>
       <c r="K715">
-        <v>360000</v>
+        <v>816000</v>
       </c>
       <c r="L715">
-        <v>360000</v>
+        <v>816000</v>
       </c>
     </row>
     <row r="716" spans="1:12">
@@ -30681,16 +30906,16 @@
         <v>966</v>
       </c>
       <c r="E716" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F716" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G716" t="s">
         <v>429</v>
       </c>
       <c r="H716" t="s">
-        <v>1008</v>
+        <v>261</v>
       </c>
       <c r="I716" t="s">
         <v>19</v>
@@ -30699,10 +30924,10 @@
         <v>1</v>
       </c>
       <c r="K716">
-        <v>510000</v>
+        <v>412000</v>
       </c>
       <c r="L716">
-        <v>510000</v>
+        <v>412000</v>
       </c>
     </row>
     <row r="717" spans="1:12">
@@ -30719,16 +30944,16 @@
         <v>966</v>
       </c>
       <c r="E717" t="s">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="F717" t="s">
-        <v>991</v>
+        <v>995</v>
       </c>
       <c r="G717" t="s">
         <v>429</v>
       </c>
       <c r="H717" t="s">
-        <v>312</v>
+        <v>432</v>
       </c>
       <c r="I717" t="s">
         <v>19</v>
@@ -30737,10 +30962,10 @@
         <v>1</v>
       </c>
       <c r="K717">
-        <v>340000</v>
+        <v>750000</v>
       </c>
       <c r="L717">
-        <v>340000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="718" spans="1:12">
@@ -30757,16 +30982,16 @@
         <v>966</v>
       </c>
       <c r="E718" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="F718" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="G718" t="s">
-        <v>1011</v>
+        <v>429</v>
       </c>
       <c r="H718" t="s">
-        <v>1012</v>
+        <v>270</v>
       </c>
       <c r="I718" t="s">
         <v>19</v>
@@ -30775,10 +31000,10 @@
         <v>1</v>
       </c>
       <c r="K718">
-        <v>27654000</v>
+        <v>96000</v>
       </c>
       <c r="L718">
-        <v>27654000</v>
+        <v>96000</v>
       </c>
     </row>
     <row r="719" spans="1:12">
@@ -30795,16 +31020,16 @@
         <v>966</v>
       </c>
       <c r="E719" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="F719" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="G719" t="s">
-        <v>1011</v>
+        <v>429</v>
       </c>
       <c r="H719" t="s">
-        <v>1013</v>
+        <v>128</v>
       </c>
       <c r="I719" t="s">
         <v>19</v>
@@ -30813,10 +31038,10 @@
         <v>1</v>
       </c>
       <c r="K719">
-        <v>11070000</v>
+        <v>1715708</v>
       </c>
       <c r="L719">
-        <v>11070000</v>
+        <v>1715708</v>
       </c>
     </row>
     <row r="720" spans="1:12">
@@ -30833,16 +31058,16 @@
         <v>966</v>
       </c>
       <c r="E720" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="F720" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="G720" t="s">
-        <v>1011</v>
+        <v>429</v>
       </c>
       <c r="H720" t="s">
-        <v>1014</v>
+        <v>518</v>
       </c>
       <c r="I720" t="s">
         <v>19</v>
@@ -30851,10 +31076,10 @@
         <v>1</v>
       </c>
       <c r="K720">
-        <v>161500</v>
+        <v>360000</v>
       </c>
       <c r="L720">
-        <v>161500</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="721" spans="1:12">
@@ -30871,16 +31096,16 @@
         <v>966</v>
       </c>
       <c r="E721" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="F721" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="G721" t="s">
-        <v>1011</v>
+        <v>429</v>
       </c>
       <c r="H721" t="s">
-        <v>1015</v>
+        <v>1012</v>
       </c>
       <c r="I721" t="s">
         <v>19</v>
@@ -30889,10 +31114,10 @@
         <v>1</v>
       </c>
       <c r="K721">
-        <v>2175985</v>
+        <v>510000</v>
       </c>
       <c r="L721">
-        <v>2175985</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="722" spans="1:12">
@@ -30909,16 +31134,16 @@
         <v>966</v>
       </c>
       <c r="E722" t="s">
-        <v>1009</v>
+        <v>994</v>
       </c>
       <c r="F722" t="s">
-        <v>1010</v>
+        <v>995</v>
       </c>
       <c r="G722" t="s">
-        <v>1011</v>
+        <v>429</v>
       </c>
       <c r="H722" t="s">
-        <v>1016</v>
+        <v>312</v>
       </c>
       <c r="I722" t="s">
         <v>19</v>
@@ -30927,10 +31152,10 @@
         <v>1</v>
       </c>
       <c r="K722">
-        <v>3000000</v>
+        <v>340000</v>
       </c>
       <c r="L722">
-        <v>3000000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="723" spans="1:12">
@@ -30947,16 +31172,16 @@
         <v>966</v>
       </c>
       <c r="E723" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F723" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="G723" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="H723" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="I723" t="s">
         <v>19</v>
@@ -30965,10 +31190,10 @@
         <v>1</v>
       </c>
       <c r="K723">
-        <v>49000000</v>
+        <v>27654000</v>
       </c>
       <c r="L723">
-        <v>49000000</v>
+        <v>27654000</v>
       </c>
     </row>
     <row r="724" spans="1:12">
@@ -30985,16 +31210,16 @@
         <v>966</v>
       </c>
       <c r="E724" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F724" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="G724" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="H724" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="I724" t="s">
         <v>19</v>
@@ -31003,10 +31228,10 @@
         <v>1</v>
       </c>
       <c r="K724">
-        <v>315000</v>
+        <v>11070000</v>
       </c>
       <c r="L724">
-        <v>315000</v>
+        <v>11070000</v>
       </c>
     </row>
     <row r="725" spans="1:12">
@@ -31023,16 +31248,16 @@
         <v>966</v>
       </c>
       <c r="E725" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F725" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="G725" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="H725" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="I725" t="s">
         <v>19</v>
@@ -31041,10 +31266,10 @@
         <v>1</v>
       </c>
       <c r="K725">
-        <v>385000</v>
+        <v>161500</v>
       </c>
       <c r="L725">
-        <v>385000</v>
+        <v>161500</v>
       </c>
     </row>
     <row r="726" spans="1:12">
@@ -31061,16 +31286,16 @@
         <v>966</v>
       </c>
       <c r="E726" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F726" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="G726" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="H726" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="I726" t="s">
         <v>19</v>
@@ -31079,10 +31304,10 @@
         <v>1</v>
       </c>
       <c r="K726">
-        <v>2610000</v>
+        <v>2175985</v>
       </c>
       <c r="L726">
-        <v>2610000</v>
+        <v>2175985</v>
       </c>
     </row>
     <row r="727" spans="1:12">
@@ -31099,16 +31324,16 @@
         <v>966</v>
       </c>
       <c r="E727" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F727" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="G727" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="H727" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="I727" t="s">
         <v>19</v>
@@ -31117,10 +31342,10 @@
         <v>1</v>
       </c>
       <c r="K727">
-        <v>3016434</v>
+        <v>3000000</v>
       </c>
       <c r="L727">
-        <v>3016434</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="728" spans="1:12">
@@ -31137,16 +31362,16 @@
         <v>966</v>
       </c>
       <c r="E728" t="s">
-        <v>1009</v>
+        <v>1013</v>
       </c>
       <c r="F728" t="s">
-        <v>1010</v>
+        <v>1014</v>
       </c>
       <c r="G728" t="s">
-        <v>1011</v>
+        <v>1015</v>
       </c>
       <c r="H728" t="s">
-        <v>616</v>
+        <v>1021</v>
       </c>
       <c r="I728" t="s">
         <v>19</v>
@@ -31155,10 +31380,10 @@
         <v>1</v>
       </c>
       <c r="K728">
-        <v>600000</v>
+        <v>49000000</v>
       </c>
       <c r="L728">
-        <v>600000</v>
+        <v>49000000</v>
       </c>
     </row>
     <row r="729" spans="1:12">
@@ -31172,20 +31397,20 @@
         <v>13</v>
       </c>
       <c r="D729" t="s">
-        <v>921</v>
+        <v>966</v>
       </c>
       <c r="E729" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F729" t="s">
+        <v>1014</v>
+      </c>
+      <c r="G729" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H729" t="s">
         <v>1022</v>
       </c>
-      <c r="F729" t="s">
-        <v>1023</v>
-      </c>
-      <c r="G729" t="s">
-        <v>1024</v>
-      </c>
-      <c r="H729" t="s">
-        <v>545</v>
-      </c>
       <c r="I729" t="s">
         <v>19</v>
       </c>
@@ -31193,10 +31418,10 @@
         <v>1</v>
       </c>
       <c r="K729">
-        <v>12440000</v>
+        <v>315000</v>
       </c>
       <c r="L729">
-        <v>12440000</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="730" spans="1:12">
@@ -31210,19 +31435,19 @@
         <v>13</v>
       </c>
       <c r="D730" t="s">
-        <v>921</v>
+        <v>966</v>
       </c>
       <c r="E730" t="s">
-        <v>1025</v>
+        <v>1013</v>
       </c>
       <c r="F730" t="s">
-        <v>1026</v>
+        <v>1014</v>
       </c>
       <c r="G730" t="s">
-        <v>1027</v>
+        <v>1015</v>
       </c>
       <c r="H730" t="s">
-        <v>545</v>
+        <v>1023</v>
       </c>
       <c r="I730" t="s">
         <v>19</v>
@@ -31231,10 +31456,10 @@
         <v>1</v>
       </c>
       <c r="K730">
-        <v>36930000</v>
+        <v>385000</v>
       </c>
       <c r="L730">
-        <v>36930000</v>
+        <v>385000</v>
       </c>
     </row>
     <row r="731" spans="1:12">
@@ -31248,19 +31473,19 @@
         <v>13</v>
       </c>
       <c r="D731" t="s">
-        <v>921</v>
+        <v>966</v>
       </c>
       <c r="E731" t="s">
-        <v>1028</v>
+        <v>1013</v>
       </c>
       <c r="F731" t="s">
-        <v>1029</v>
+        <v>1014</v>
       </c>
       <c r="G731" t="s">
-        <v>1030</v>
+        <v>1015</v>
       </c>
       <c r="H731" t="s">
-        <v>545</v>
+        <v>1024</v>
       </c>
       <c r="I731" t="s">
         <v>19</v>
@@ -31269,10 +31494,10 @@
         <v>1</v>
       </c>
       <c r="K731">
-        <v>86300000</v>
+        <v>2610000</v>
       </c>
       <c r="L731">
-        <v>86300000</v>
+        <v>2610000</v>
       </c>
     </row>
     <row r="732" spans="1:12">
@@ -31286,19 +31511,19 @@
         <v>13</v>
       </c>
       <c r="D732" t="s">
-        <v>921</v>
+        <v>966</v>
       </c>
       <c r="E732" t="s">
-        <v>1031</v>
+        <v>1013</v>
       </c>
       <c r="F732" t="s">
-        <v>1032</v>
+        <v>1014</v>
       </c>
       <c r="G732" t="s">
-        <v>1033</v>
+        <v>1015</v>
       </c>
       <c r="H732" t="s">
-        <v>545</v>
+        <v>1025</v>
       </c>
       <c r="I732" t="s">
         <v>19</v>
@@ -31307,10 +31532,10 @@
         <v>1</v>
       </c>
       <c r="K732">
-        <v>15000000</v>
+        <v>3016434</v>
       </c>
       <c r="L732">
-        <v>15000000</v>
+        <v>3016434</v>
       </c>
     </row>
     <row r="733" spans="1:12">
@@ -31324,19 +31549,19 @@
         <v>13</v>
       </c>
       <c r="D733" t="s">
-        <v>1034</v>
+        <v>966</v>
       </c>
       <c r="E733" t="s">
-        <v>1035</v>
+        <v>1013</v>
       </c>
       <c r="F733" t="s">
-        <v>1036</v>
+        <v>1014</v>
       </c>
       <c r="G733" t="s">
-        <v>1037</v>
+        <v>1015</v>
       </c>
       <c r="H733" t="s">
-        <v>1038</v>
+        <v>616</v>
       </c>
       <c r="I733" t="s">
         <v>19</v>
@@ -31345,10 +31570,10 @@
         <v>1</v>
       </c>
       <c r="K733">
-        <v>28651320</v>
+        <v>600000</v>
       </c>
       <c r="L733">
-        <v>28651320</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="734" spans="1:12">
@@ -31362,19 +31587,19 @@
         <v>13</v>
       </c>
       <c r="D734" t="s">
-        <v>1034</v>
+        <v>921</v>
       </c>
       <c r="E734" t="s">
-        <v>1039</v>
+        <v>1026</v>
       </c>
       <c r="F734" t="s">
-        <v>1040</v>
+        <v>1027</v>
       </c>
       <c r="G734" t="s">
-        <v>1041</v>
+        <v>1028</v>
       </c>
       <c r="H734" t="s">
-        <v>613</v>
+        <v>545</v>
       </c>
       <c r="I734" t="s">
         <v>19</v>
@@ -31383,10 +31608,10 @@
         <v>1</v>
       </c>
       <c r="K734">
-        <v>3449500</v>
+        <v>12440000</v>
       </c>
       <c r="L734">
-        <v>3449500</v>
+        <v>12440000</v>
       </c>
     </row>
     <row r="735" spans="1:12">
@@ -31400,19 +31625,19 @@
         <v>13</v>
       </c>
       <c r="D735" t="s">
-        <v>1034</v>
+        <v>921</v>
       </c>
       <c r="E735" t="s">
-        <v>1042</v>
+        <v>1029</v>
       </c>
       <c r="F735" t="s">
-        <v>1043</v>
+        <v>1030</v>
       </c>
       <c r="G735" t="s">
-        <v>1044</v>
+        <v>1031</v>
       </c>
       <c r="H735" t="s">
-        <v>1045</v>
+        <v>545</v>
       </c>
       <c r="I735" t="s">
         <v>19</v>
@@ -31421,10 +31646,10 @@
         <v>1</v>
       </c>
       <c r="K735">
-        <v>35908500</v>
+        <v>36930000</v>
       </c>
       <c r="L735">
-        <v>35908500</v>
+        <v>36930000</v>
       </c>
     </row>
     <row r="736" spans="1:12">
@@ -31438,19 +31663,19 @@
         <v>13</v>
       </c>
       <c r="D736" t="s">
+        <v>921</v>
+      </c>
+      <c r="E736" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F736" t="s">
+        <v>1033</v>
+      </c>
+      <c r="G736" t="s">
         <v>1034</v>
       </c>
-      <c r="E736" t="s">
-        <v>1046</v>
-      </c>
-      <c r="F736" t="s">
-        <v>1047</v>
-      </c>
-      <c r="G736" t="s">
-        <v>1048</v>
-      </c>
       <c r="H736" t="s">
-        <v>257</v>
+        <v>545</v>
       </c>
       <c r="I736" t="s">
         <v>19</v>
@@ -31459,10 +31684,10 @@
         <v>1</v>
       </c>
       <c r="K736">
-        <v>2053500</v>
+        <v>86300000</v>
       </c>
       <c r="L736">
-        <v>2053500</v>
+        <v>86300000</v>
       </c>
     </row>
     <row r="737" spans="1:12">
@@ -31476,19 +31701,19 @@
         <v>13</v>
       </c>
       <c r="D737" t="s">
-        <v>1034</v>
+        <v>921</v>
       </c>
       <c r="E737" t="s">
-        <v>1049</v>
+        <v>1035</v>
       </c>
       <c r="F737" t="s">
-        <v>1050</v>
+        <v>1036</v>
       </c>
       <c r="G737" t="s">
-        <v>1051</v>
+        <v>1037</v>
       </c>
       <c r="H737" t="s">
-        <v>275</v>
+        <v>545</v>
       </c>
       <c r="I737" t="s">
         <v>19</v>
@@ -31497,10 +31722,10 @@
         <v>1</v>
       </c>
       <c r="K737">
-        <v>4076500</v>
+        <v>15000000</v>
       </c>
       <c r="L737">
-        <v>4076500</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="738" spans="1:12">
@@ -31514,19 +31739,19 @@
         <v>13</v>
       </c>
       <c r="D738" t="s">
-        <v>921</v>
+        <v>981</v>
       </c>
       <c r="E738" t="s">
-        <v>1052</v>
+        <v>1038</v>
       </c>
       <c r="F738" t="s">
-        <v>1053</v>
+        <v>1039</v>
       </c>
       <c r="G738" t="s">
-        <v>1054</v>
+        <v>1040</v>
       </c>
       <c r="H738" t="s">
-        <v>400</v>
+        <v>46</v>
       </c>
       <c r="I738" t="s">
         <v>19</v>
@@ -31535,10 +31760,10 @@
         <v>1</v>
       </c>
       <c r="K738">
-        <v>414643586</v>
+        <v>8985000</v>
       </c>
       <c r="L738">
-        <v>414643586</v>
+        <v>8985000</v>
       </c>
     </row>
     <row r="739" spans="1:12">
@@ -31552,19 +31777,19 @@
         <v>13</v>
       </c>
       <c r="D739" t="s">
-        <v>921</v>
+        <v>981</v>
       </c>
       <c r="E739" t="s">
-        <v>1055</v>
+        <v>1038</v>
       </c>
       <c r="F739" t="s">
-        <v>1056</v>
+        <v>1039</v>
       </c>
       <c r="G739" t="s">
-        <v>1057</v>
+        <v>1040</v>
       </c>
       <c r="H739" t="s">
-        <v>510</v>
+        <v>47</v>
       </c>
       <c r="I739" t="s">
         <v>19</v>
@@ -31573,10 +31798,10 @@
         <v>1</v>
       </c>
       <c r="K739">
-        <v>9177893</v>
+        <v>33</v>
       </c>
       <c r="L739">
-        <v>9177893</v>
+        <v>33</v>
       </c>
     </row>
     <row r="740" spans="1:12">
@@ -31590,19 +31815,19 @@
         <v>13</v>
       </c>
       <c r="D740" t="s">
-        <v>921</v>
+        <v>981</v>
       </c>
       <c r="E740" t="s">
-        <v>1058</v>
+        <v>1038</v>
       </c>
       <c r="F740" t="s">
-        <v>1059</v>
+        <v>1039</v>
       </c>
       <c r="G740" t="s">
-        <v>1060</v>
+        <v>1040</v>
       </c>
       <c r="H740" t="s">
-        <v>400</v>
+        <v>48</v>
       </c>
       <c r="I740" t="s">
         <v>19</v>
@@ -31611,10 +31836,10 @@
         <v>1</v>
       </c>
       <c r="K740">
-        <v>5305483</v>
+        <v>898500</v>
       </c>
       <c r="L740">
-        <v>5305483</v>
+        <v>898500</v>
       </c>
     </row>
     <row r="741" spans="1:12">
@@ -31628,19 +31853,19 @@
         <v>13</v>
       </c>
       <c r="D741" t="s">
-        <v>921</v>
+        <v>981</v>
       </c>
       <c r="E741" t="s">
-        <v>1061</v>
+        <v>1038</v>
       </c>
       <c r="F741" t="s">
-        <v>1062</v>
+        <v>1039</v>
       </c>
       <c r="G741" t="s">
-        <v>1063</v>
+        <v>1040</v>
       </c>
       <c r="H741" t="s">
-        <v>80</v>
+        <v>49</v>
       </c>
       <c r="I741" t="s">
         <v>19</v>
@@ -31649,10 +31874,10 @@
         <v>1</v>
       </c>
       <c r="K741">
-        <v>203332962</v>
+        <v>359400</v>
       </c>
       <c r="L741">
-        <v>203332962</v>
+        <v>359400</v>
       </c>
     </row>
     <row r="742" spans="1:12">
@@ -31666,31 +31891,1703 @@
         <v>13</v>
       </c>
       <c r="D742" t="s">
+        <v>981</v>
+      </c>
+      <c r="E742" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F742" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G742" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H742" t="s">
+        <v>52</v>
+      </c>
+      <c r="I742" t="s">
+        <v>19</v>
+      </c>
+      <c r="J742">
+        <v>1</v>
+      </c>
+      <c r="K742">
+        <v>350010</v>
+      </c>
+      <c r="L742">
+        <v>350010</v>
+      </c>
+    </row>
+    <row r="743" spans="1:12">
+      <c r="A743">
+        <v>740</v>
+      </c>
+      <c r="B743">
+        <v>626402</v>
+      </c>
+      <c r="C743" t="s">
+        <v>13</v>
+      </c>
+      <c r="D743" t="s">
+        <v>981</v>
+      </c>
+      <c r="E743" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F743" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G743" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H743" t="s">
+        <v>53</v>
+      </c>
+      <c r="I743" t="s">
+        <v>19</v>
+      </c>
+      <c r="J743">
+        <v>1</v>
+      </c>
+      <c r="K743">
+        <v>869040</v>
+      </c>
+      <c r="L743">
+        <v>869040</v>
+      </c>
+    </row>
+    <row r="744" spans="1:12">
+      <c r="A744">
+        <v>741</v>
+      </c>
+      <c r="B744">
+        <v>626402</v>
+      </c>
+      <c r="C744" t="s">
+        <v>13</v>
+      </c>
+      <c r="D744" t="s">
+        <v>981</v>
+      </c>
+      <c r="E744" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F744" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G744" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H744" t="s">
+        <v>54</v>
+      </c>
+      <c r="I744" t="s">
+        <v>19</v>
+      </c>
+      <c r="J744">
+        <v>1</v>
+      </c>
+      <c r="K744">
+        <v>555000</v>
+      </c>
+      <c r="L744">
+        <v>555000</v>
+      </c>
+    </row>
+    <row r="745" spans="1:12">
+      <c r="A745">
+        <v>742</v>
+      </c>
+      <c r="B745">
+        <v>626402</v>
+      </c>
+      <c r="C745" t="s">
+        <v>13</v>
+      </c>
+      <c r="D745" t="s">
         <v>921</v>
       </c>
-      <c r="E742" t="s">
+      <c r="E745" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F745" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G745" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H745" t="s">
+        <v>46</v>
+      </c>
+      <c r="I745" t="s">
+        <v>19</v>
+      </c>
+      <c r="J745">
+        <v>1</v>
+      </c>
+      <c r="K745">
+        <v>17178600</v>
+      </c>
+      <c r="L745">
+        <v>17178600</v>
+      </c>
+    </row>
+    <row r="746" spans="1:12">
+      <c r="A746">
+        <v>743</v>
+      </c>
+      <c r="B746">
+        <v>626402</v>
+      </c>
+      <c r="C746" t="s">
+        <v>13</v>
+      </c>
+      <c r="D746" t="s">
+        <v>921</v>
+      </c>
+      <c r="E746" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F746" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G746" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H746" t="s">
+        <v>47</v>
+      </c>
+      <c r="I746" t="s">
+        <v>19</v>
+      </c>
+      <c r="J746">
+        <v>1</v>
+      </c>
+      <c r="K746">
+        <v>1199</v>
+      </c>
+      <c r="L746">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="747" spans="1:12">
+      <c r="A747">
+        <v>744</v>
+      </c>
+      <c r="B747">
+        <v>626402</v>
+      </c>
+      <c r="C747" t="s">
+        <v>13</v>
+      </c>
+      <c r="D747" t="s">
+        <v>921</v>
+      </c>
+      <c r="E747" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F747" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G747" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H747" t="s">
+        <v>48</v>
+      </c>
+      <c r="I747" t="s">
+        <v>19</v>
+      </c>
+      <c r="J747">
+        <v>1</v>
+      </c>
+      <c r="K747">
+        <v>1122800</v>
+      </c>
+      <c r="L747">
+        <v>1122800</v>
+      </c>
+    </row>
+    <row r="748" spans="1:12">
+      <c r="A748">
+        <v>745</v>
+      </c>
+      <c r="B748">
+        <v>626402</v>
+      </c>
+      <c r="C748" t="s">
+        <v>13</v>
+      </c>
+      <c r="D748" t="s">
+        <v>921</v>
+      </c>
+      <c r="E748" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F748" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G748" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H748" t="s">
+        <v>49</v>
+      </c>
+      <c r="I748" t="s">
+        <v>19</v>
+      </c>
+      <c r="J748">
+        <v>1</v>
+      </c>
+      <c r="K748">
+        <v>338460</v>
+      </c>
+      <c r="L748">
+        <v>338460</v>
+      </c>
+    </row>
+    <row r="749" spans="1:12">
+      <c r="A749">
+        <v>746</v>
+      </c>
+      <c r="B749">
+        <v>626402</v>
+      </c>
+      <c r="C749" t="s">
+        <v>13</v>
+      </c>
+      <c r="D749" t="s">
+        <v>921</v>
+      </c>
+      <c r="E749" t="s">
+        <v>1041</v>
+      </c>
+      <c r="F749" t="s">
+        <v>1042</v>
+      </c>
+      <c r="G749" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H749" t="s">
+        <v>52</v>
+      </c>
+      <c r="I749" t="s">
+        <v>19</v>
+      </c>
+      <c r="J749">
+        <v>1</v>
+      </c>
+      <c r="K749">
+        <v>262602</v>
+      </c>
+      <c r="L749">
+        <v>262602</v>
+      </c>
+    </row>
+    <row r="750" spans="1:12">
+      <c r="A750">
+        <v>747</v>
+      </c>
+      <c r="B750">
+        <v>626402</v>
+      </c>
+      <c r="C750" t="s">
+        <v>13</v>
+      </c>
+      <c r="D750" t="s">
+        <v>921</v>
+      </c>
+      <c r="E750" t="s">
+        <v>1044</v>
+      </c>
+      <c r="F750" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G750" t="s">
+        <v>1046</v>
+      </c>
+      <c r="H750" t="s">
+        <v>85</v>
+      </c>
+      <c r="I750" t="s">
+        <v>19</v>
+      </c>
+      <c r="J750">
+        <v>1</v>
+      </c>
+      <c r="K750">
+        <v>18837000</v>
+      </c>
+      <c r="L750">
+        <v>18837000</v>
+      </c>
+    </row>
+    <row r="751" spans="1:12">
+      <c r="A751">
+        <v>748</v>
+      </c>
+      <c r="B751">
+        <v>626402</v>
+      </c>
+      <c r="C751" t="s">
+        <v>13</v>
+      </c>
+      <c r="D751" t="s">
+        <v>981</v>
+      </c>
+      <c r="E751" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F751" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G751" t="s">
+        <v>1049</v>
+      </c>
+      <c r="H751" t="s">
+        <v>793</v>
+      </c>
+      <c r="I751" t="s">
+        <v>19</v>
+      </c>
+      <c r="J751">
+        <v>1</v>
+      </c>
+      <c r="K751">
+        <v>29407000</v>
+      </c>
+      <c r="L751">
+        <v>29407000</v>
+      </c>
+    </row>
+    <row r="752" spans="1:12">
+      <c r="A752">
+        <v>749</v>
+      </c>
+      <c r="B752">
+        <v>626402</v>
+      </c>
+      <c r="C752" t="s">
+        <v>13</v>
+      </c>
+      <c r="D752" t="s">
+        <v>981</v>
+      </c>
+      <c r="E752" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F752" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G752" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H752" t="s">
+        <v>183</v>
+      </c>
+      <c r="I752" t="s">
+        <v>19</v>
+      </c>
+      <c r="J752">
+        <v>1</v>
+      </c>
+      <c r="K752">
+        <v>5543000</v>
+      </c>
+      <c r="L752">
+        <v>5543000</v>
+      </c>
+    </row>
+    <row r="753" spans="1:12">
+      <c r="A753">
+        <v>750</v>
+      </c>
+      <c r="B753">
+        <v>626402</v>
+      </c>
+      <c r="C753" t="s">
+        <v>13</v>
+      </c>
+      <c r="D753" t="s">
+        <v>981</v>
+      </c>
+      <c r="E753" t="s">
+        <v>1053</v>
+      </c>
+      <c r="F753" t="s">
+        <v>1054</v>
+      </c>
+      <c r="G753" t="s">
+        <v>1055</v>
+      </c>
+      <c r="H753" t="s">
+        <v>373</v>
+      </c>
+      <c r="I753" t="s">
+        <v>19</v>
+      </c>
+      <c r="J753">
+        <v>1</v>
+      </c>
+      <c r="K753">
+        <v>3754500</v>
+      </c>
+      <c r="L753">
+        <v>3754500</v>
+      </c>
+    </row>
+    <row r="754" spans="1:12">
+      <c r="A754">
+        <v>751</v>
+      </c>
+      <c r="B754">
+        <v>626402</v>
+      </c>
+      <c r="C754" t="s">
+        <v>13</v>
+      </c>
+      <c r="D754" t="s">
+        <v>981</v>
+      </c>
+      <c r="E754" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F754" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G754" t="s">
+        <v>1058</v>
+      </c>
+      <c r="H754" t="s">
+        <v>614</v>
+      </c>
+      <c r="I754" t="s">
+        <v>19</v>
+      </c>
+      <c r="J754">
+        <v>1</v>
+      </c>
+      <c r="K754">
+        <v>1876600</v>
+      </c>
+      <c r="L754">
+        <v>1876600</v>
+      </c>
+    </row>
+    <row r="755" spans="1:12">
+      <c r="A755">
+        <v>752</v>
+      </c>
+      <c r="B755">
+        <v>626402</v>
+      </c>
+      <c r="C755" t="s">
+        <v>13</v>
+      </c>
+      <c r="D755" t="s">
+        <v>981</v>
+      </c>
+      <c r="E755" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F755" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G755" t="s">
+        <v>1061</v>
+      </c>
+      <c r="H755" t="s">
+        <v>614</v>
+      </c>
+      <c r="I755" t="s">
+        <v>19</v>
+      </c>
+      <c r="J755">
+        <v>1</v>
+      </c>
+      <c r="K755">
+        <v>338000</v>
+      </c>
+      <c r="L755">
+        <v>338000</v>
+      </c>
+    </row>
+    <row r="756" spans="1:12">
+      <c r="A756">
+        <v>753</v>
+      </c>
+      <c r="B756">
+        <v>626402</v>
+      </c>
+      <c r="C756" t="s">
+        <v>13</v>
+      </c>
+      <c r="D756" t="s">
+        <v>981</v>
+      </c>
+      <c r="E756" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F756" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G756" t="s">
         <v>1064</v>
       </c>
-      <c r="F742" t="s">
+      <c r="H756" t="s">
+        <v>872</v>
+      </c>
+      <c r="I756" t="s">
+        <v>19</v>
+      </c>
+      <c r="J756">
+        <v>1</v>
+      </c>
+      <c r="K756">
+        <v>580000</v>
+      </c>
+      <c r="L756">
+        <v>580000</v>
+      </c>
+    </row>
+    <row r="757" spans="1:12">
+      <c r="A757">
+        <v>754</v>
+      </c>
+      <c r="B757">
+        <v>626402</v>
+      </c>
+      <c r="C757" t="s">
+        <v>13</v>
+      </c>
+      <c r="D757" t="s">
+        <v>981</v>
+      </c>
+      <c r="E757" t="s">
         <v>1065</v>
       </c>
-      <c r="G742" t="s">
+      <c r="F757" t="s">
         <v>1066</v>
       </c>
-      <c r="H742" t="s">
+      <c r="G757" t="s">
+        <v>1067</v>
+      </c>
+      <c r="H757" t="s">
+        <v>872</v>
+      </c>
+      <c r="I757" t="s">
+        <v>19</v>
+      </c>
+      <c r="J757">
+        <v>1</v>
+      </c>
+      <c r="K757">
+        <v>860000</v>
+      </c>
+      <c r="L757">
+        <v>860000</v>
+      </c>
+    </row>
+    <row r="758" spans="1:12">
+      <c r="A758">
+        <v>755</v>
+      </c>
+      <c r="B758">
+        <v>626402</v>
+      </c>
+      <c r="C758" t="s">
+        <v>13</v>
+      </c>
+      <c r="D758" t="s">
+        <v>981</v>
+      </c>
+      <c r="E758" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F758" t="s">
+        <v>1069</v>
+      </c>
+      <c r="G758" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H758" t="s">
+        <v>369</v>
+      </c>
+      <c r="I758" t="s">
+        <v>19</v>
+      </c>
+      <c r="J758">
+        <v>1</v>
+      </c>
+      <c r="K758">
+        <v>1274500</v>
+      </c>
+      <c r="L758">
+        <v>1274500</v>
+      </c>
+    </row>
+    <row r="759" spans="1:12">
+      <c r="A759">
+        <v>756</v>
+      </c>
+      <c r="B759">
+        <v>626402</v>
+      </c>
+      <c r="C759" t="s">
+        <v>13</v>
+      </c>
+      <c r="D759" t="s">
+        <v>981</v>
+      </c>
+      <c r="E759" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F759" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G759" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H759" t="s">
+        <v>373</v>
+      </c>
+      <c r="I759" t="s">
+        <v>19</v>
+      </c>
+      <c r="J759">
+        <v>1</v>
+      </c>
+      <c r="K759">
+        <v>10054800</v>
+      </c>
+      <c r="L759">
+        <v>10054800</v>
+      </c>
+    </row>
+    <row r="760" spans="1:12">
+      <c r="A760">
+        <v>757</v>
+      </c>
+      <c r="B760">
+        <v>626402</v>
+      </c>
+      <c r="C760" t="s">
+        <v>13</v>
+      </c>
+      <c r="D760" t="s">
+        <v>981</v>
+      </c>
+      <c r="E760" t="s">
+        <v>1074</v>
+      </c>
+      <c r="F760" t="s">
+        <v>1075</v>
+      </c>
+      <c r="G760" t="s">
+        <v>1076</v>
+      </c>
+      <c r="H760" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I760" t="s">
+        <v>19</v>
+      </c>
+      <c r="J760">
+        <v>1</v>
+      </c>
+      <c r="K760">
+        <v>14468850</v>
+      </c>
+      <c r="L760">
+        <v>14468850</v>
+      </c>
+    </row>
+    <row r="761" spans="1:12">
+      <c r="A761">
+        <v>758</v>
+      </c>
+      <c r="B761">
+        <v>626402</v>
+      </c>
+      <c r="C761" t="s">
+        <v>13</v>
+      </c>
+      <c r="D761" t="s">
+        <v>981</v>
+      </c>
+      <c r="E761" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F761" t="s">
+        <v>1079</v>
+      </c>
+      <c r="G761" t="s">
+        <v>1080</v>
+      </c>
+      <c r="H761" t="s">
+        <v>1077</v>
+      </c>
+      <c r="I761" t="s">
+        <v>19</v>
+      </c>
+      <c r="J761">
+        <v>1</v>
+      </c>
+      <c r="K761">
+        <v>28651320</v>
+      </c>
+      <c r="L761">
+        <v>28651320</v>
+      </c>
+    </row>
+    <row r="762" spans="1:12">
+      <c r="A762">
+        <v>759</v>
+      </c>
+      <c r="B762">
+        <v>626402</v>
+      </c>
+      <c r="C762" t="s">
+        <v>13</v>
+      </c>
+      <c r="D762" t="s">
+        <v>981</v>
+      </c>
+      <c r="E762" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F762" t="s">
+        <v>1082</v>
+      </c>
+      <c r="G762" t="s">
+        <v>1083</v>
+      </c>
+      <c r="H762" t="s">
+        <v>613</v>
+      </c>
+      <c r="I762" t="s">
+        <v>19</v>
+      </c>
+      <c r="J762">
+        <v>1</v>
+      </c>
+      <c r="K762">
+        <v>3449500</v>
+      </c>
+      <c r="L762">
+        <v>3449500</v>
+      </c>
+    </row>
+    <row r="763" spans="1:12">
+      <c r="A763">
+        <v>760</v>
+      </c>
+      <c r="B763">
+        <v>626402</v>
+      </c>
+      <c r="C763" t="s">
+        <v>13</v>
+      </c>
+      <c r="D763" t="s">
+        <v>981</v>
+      </c>
+      <c r="E763" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F763" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G763" t="s">
+        <v>1086</v>
+      </c>
+      <c r="H763" t="s">
+        <v>1087</v>
+      </c>
+      <c r="I763" t="s">
+        <v>19</v>
+      </c>
+      <c r="J763">
+        <v>1</v>
+      </c>
+      <c r="K763">
+        <v>35908500</v>
+      </c>
+      <c r="L763">
+        <v>35908500</v>
+      </c>
+    </row>
+    <row r="764" spans="1:12">
+      <c r="A764">
+        <v>761</v>
+      </c>
+      <c r="B764">
+        <v>626402</v>
+      </c>
+      <c r="C764" t="s">
+        <v>13</v>
+      </c>
+      <c r="D764" t="s">
+        <v>981</v>
+      </c>
+      <c r="E764" t="s">
+        <v>1088</v>
+      </c>
+      <c r="F764" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G764" t="s">
+        <v>1090</v>
+      </c>
+      <c r="H764" t="s">
+        <v>257</v>
+      </c>
+      <c r="I764" t="s">
+        <v>19</v>
+      </c>
+      <c r="J764">
+        <v>1</v>
+      </c>
+      <c r="K764">
+        <v>2053500</v>
+      </c>
+      <c r="L764">
+        <v>2053500</v>
+      </c>
+    </row>
+    <row r="765" spans="1:12">
+      <c r="A765">
+        <v>762</v>
+      </c>
+      <c r="B765">
+        <v>626402</v>
+      </c>
+      <c r="C765" t="s">
+        <v>13</v>
+      </c>
+      <c r="D765" t="s">
+        <v>981</v>
+      </c>
+      <c r="E765" t="s">
+        <v>1091</v>
+      </c>
+      <c r="F765" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G765" t="s">
+        <v>1093</v>
+      </c>
+      <c r="H765" t="s">
+        <v>275</v>
+      </c>
+      <c r="I765" t="s">
+        <v>19</v>
+      </c>
+      <c r="J765">
+        <v>1</v>
+      </c>
+      <c r="K765">
+        <v>4076500</v>
+      </c>
+      <c r="L765">
+        <v>4076500</v>
+      </c>
+    </row>
+    <row r="766" spans="1:12">
+      <c r="A766">
+        <v>763</v>
+      </c>
+      <c r="B766">
+        <v>626402</v>
+      </c>
+      <c r="C766" t="s">
+        <v>13</v>
+      </c>
+      <c r="D766" t="s">
+        <v>921</v>
+      </c>
+      <c r="E766" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F766" t="s">
+        <v>1095</v>
+      </c>
+      <c r="G766" t="s">
+        <v>1096</v>
+      </c>
+      <c r="H766" t="s">
+        <v>400</v>
+      </c>
+      <c r="I766" t="s">
+        <v>19</v>
+      </c>
+      <c r="J766">
+        <v>1</v>
+      </c>
+      <c r="K766">
+        <v>414643586</v>
+      </c>
+      <c r="L766">
+        <v>414643586</v>
+      </c>
+    </row>
+    <row r="767" spans="1:12">
+      <c r="A767">
+        <v>764</v>
+      </c>
+      <c r="B767">
+        <v>626402</v>
+      </c>
+      <c r="C767" t="s">
+        <v>13</v>
+      </c>
+      <c r="D767" t="s">
+        <v>921</v>
+      </c>
+      <c r="E767" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F767" t="s">
+        <v>1098</v>
+      </c>
+      <c r="G767" t="s">
+        <v>1099</v>
+      </c>
+      <c r="H767" t="s">
+        <v>510</v>
+      </c>
+      <c r="I767" t="s">
+        <v>19</v>
+      </c>
+      <c r="J767">
+        <v>1</v>
+      </c>
+      <c r="K767">
+        <v>9177893</v>
+      </c>
+      <c r="L767">
+        <v>9177893</v>
+      </c>
+    </row>
+    <row r="768" spans="1:12">
+      <c r="A768">
+        <v>765</v>
+      </c>
+      <c r="B768">
+        <v>626402</v>
+      </c>
+      <c r="C768" t="s">
+        <v>13</v>
+      </c>
+      <c r="D768" t="s">
+        <v>921</v>
+      </c>
+      <c r="E768" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F768" t="s">
+        <v>1101</v>
+      </c>
+      <c r="G768" t="s">
+        <v>1102</v>
+      </c>
+      <c r="H768" t="s">
+        <v>400</v>
+      </c>
+      <c r="I768" t="s">
+        <v>19</v>
+      </c>
+      <c r="J768">
+        <v>1</v>
+      </c>
+      <c r="K768">
+        <v>5305483</v>
+      </c>
+      <c r="L768">
+        <v>5305483</v>
+      </c>
+    </row>
+    <row r="769" spans="1:12">
+      <c r="A769">
+        <v>766</v>
+      </c>
+      <c r="B769">
+        <v>626402</v>
+      </c>
+      <c r="C769" t="s">
+        <v>13</v>
+      </c>
+      <c r="D769" t="s">
+        <v>921</v>
+      </c>
+      <c r="E769" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F769" t="s">
+        <v>1104</v>
+      </c>
+      <c r="G769" t="s">
+        <v>1105</v>
+      </c>
+      <c r="H769" t="s">
+        <v>80</v>
+      </c>
+      <c r="I769" t="s">
+        <v>19</v>
+      </c>
+      <c r="J769">
+        <v>1</v>
+      </c>
+      <c r="K769">
+        <v>203332962</v>
+      </c>
+      <c r="L769">
+        <v>203332962</v>
+      </c>
+    </row>
+    <row r="770" spans="1:12">
+      <c r="A770">
+        <v>767</v>
+      </c>
+      <c r="B770">
+        <v>626402</v>
+      </c>
+      <c r="C770" t="s">
+        <v>13</v>
+      </c>
+      <c r="D770" t="s">
+        <v>921</v>
+      </c>
+      <c r="E770" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F770" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G770" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H770" t="s">
         <v>793</v>
       </c>
-      <c r="I742" t="s">
-        <v>19</v>
-      </c>
-      <c r="J742">
-        <v>1</v>
-      </c>
-      <c r="K742">
+      <c r="I770" t="s">
+        <v>19</v>
+      </c>
+      <c r="J770">
+        <v>1</v>
+      </c>
+      <c r="K770">
         <v>883000</v>
       </c>
-      <c r="L742">
+      <c r="L770">
         <v>883000</v>
+      </c>
+    </row>
+    <row r="771" spans="1:12">
+      <c r="A771">
+        <v>768</v>
+      </c>
+      <c r="B771">
+        <v>626402</v>
+      </c>
+      <c r="C771" t="s">
+        <v>13</v>
+      </c>
+      <c r="D771" t="s">
+        <v>981</v>
+      </c>
+      <c r="E771" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F771" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G771" t="s">
+        <v>121</v>
+      </c>
+      <c r="H771" t="s">
+        <v>499</v>
+      </c>
+      <c r="I771" t="s">
+        <v>19</v>
+      </c>
+      <c r="J771">
+        <v>1</v>
+      </c>
+      <c r="K771">
+        <v>161547</v>
+      </c>
+      <c r="L771">
+        <v>161547</v>
+      </c>
+    </row>
+    <row r="772" spans="1:12">
+      <c r="A772">
+        <v>769</v>
+      </c>
+      <c r="B772">
+        <v>626402</v>
+      </c>
+      <c r="C772" t="s">
+        <v>13</v>
+      </c>
+      <c r="D772" t="s">
+        <v>981</v>
+      </c>
+      <c r="E772" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F772" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G772" t="s">
+        <v>121</v>
+      </c>
+      <c r="H772" t="s">
+        <v>123</v>
+      </c>
+      <c r="I772" t="s">
+        <v>19</v>
+      </c>
+      <c r="J772">
+        <v>1</v>
+      </c>
+      <c r="K772">
+        <v>271119</v>
+      </c>
+      <c r="L772">
+        <v>271119</v>
+      </c>
+    </row>
+    <row r="773" spans="1:12">
+      <c r="A773">
+        <v>770</v>
+      </c>
+      <c r="B773">
+        <v>626402</v>
+      </c>
+      <c r="C773" t="s">
+        <v>13</v>
+      </c>
+      <c r="D773" t="s">
+        <v>981</v>
+      </c>
+      <c r="E773" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F773" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G773" t="s">
+        <v>121</v>
+      </c>
+      <c r="H773" t="s">
+        <v>275</v>
+      </c>
+      <c r="I773" t="s">
+        <v>19</v>
+      </c>
+      <c r="J773">
+        <v>1</v>
+      </c>
+      <c r="K773">
+        <v>13457981</v>
+      </c>
+      <c r="L773">
+        <v>13457981</v>
+      </c>
+    </row>
+    <row r="774" spans="1:12">
+      <c r="A774">
+        <v>771</v>
+      </c>
+      <c r="B774">
+        <v>626402</v>
+      </c>
+      <c r="C774" t="s">
+        <v>13</v>
+      </c>
+      <c r="D774" t="s">
+        <v>981</v>
+      </c>
+      <c r="E774" t="s">
+        <v>1111</v>
+      </c>
+      <c r="F774" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G774" t="s">
+        <v>1113</v>
+      </c>
+      <c r="H774" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I774" t="s">
+        <v>19</v>
+      </c>
+      <c r="J774">
+        <v>1</v>
+      </c>
+      <c r="K774">
+        <v>777000</v>
+      </c>
+      <c r="L774">
+        <v>777000</v>
+      </c>
+    </row>
+    <row r="775" spans="1:12">
+      <c r="A775">
+        <v>772</v>
+      </c>
+      <c r="B775">
+        <v>626402</v>
+      </c>
+      <c r="C775" t="s">
+        <v>13</v>
+      </c>
+      <c r="D775" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E775" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F775" t="s">
+        <v>1117</v>
+      </c>
+      <c r="G775" t="s">
+        <v>1118</v>
+      </c>
+      <c r="H775" t="s">
+        <v>131</v>
+      </c>
+      <c r="I775" t="s">
+        <v>19</v>
+      </c>
+      <c r="J775">
+        <v>1</v>
+      </c>
+      <c r="K775">
+        <v>2383500</v>
+      </c>
+      <c r="L775">
+        <v>2383500</v>
+      </c>
+    </row>
+    <row r="776" spans="1:12">
+      <c r="A776">
+        <v>773</v>
+      </c>
+      <c r="B776">
+        <v>626402</v>
+      </c>
+      <c r="C776" t="s">
+        <v>13</v>
+      </c>
+      <c r="D776" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E776" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F776" t="s">
+        <v>1120</v>
+      </c>
+      <c r="G776" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H776" t="s">
+        <v>131</v>
+      </c>
+      <c r="I776" t="s">
+        <v>19</v>
+      </c>
+      <c r="J776">
+        <v>1</v>
+      </c>
+      <c r="K776">
+        <v>524500</v>
+      </c>
+      <c r="L776">
+        <v>524500</v>
+      </c>
+    </row>
+    <row r="777" spans="1:12">
+      <c r="A777">
+        <v>774</v>
+      </c>
+      <c r="B777">
+        <v>626402</v>
+      </c>
+      <c r="C777" t="s">
+        <v>13</v>
+      </c>
+      <c r="D777" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E777" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F777" t="s">
+        <v>1123</v>
+      </c>
+      <c r="G777" t="s">
+        <v>1124</v>
+      </c>
+      <c r="H777" t="s">
+        <v>1125</v>
+      </c>
+      <c r="I777" t="s">
+        <v>19</v>
+      </c>
+      <c r="J777">
+        <v>1</v>
+      </c>
+      <c r="K777">
+        <v>1757500</v>
+      </c>
+      <c r="L777">
+        <v>1757500</v>
+      </c>
+    </row>
+    <row r="778" spans="1:12">
+      <c r="A778">
+        <v>775</v>
+      </c>
+      <c r="B778">
+        <v>626402</v>
+      </c>
+      <c r="C778" t="s">
+        <v>13</v>
+      </c>
+      <c r="D778" t="s">
+        <v>981</v>
+      </c>
+      <c r="E778" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F778" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G778" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H778" t="s">
+        <v>1114</v>
+      </c>
+      <c r="I778" t="s">
+        <v>19</v>
+      </c>
+      <c r="J778">
+        <v>1</v>
+      </c>
+      <c r="K778">
+        <v>703000</v>
+      </c>
+      <c r="L778">
+        <v>703000</v>
+      </c>
+    </row>
+    <row r="779" spans="1:12">
+      <c r="A779">
+        <v>776</v>
+      </c>
+      <c r="B779">
+        <v>626402</v>
+      </c>
+      <c r="C779" t="s">
+        <v>13</v>
+      </c>
+      <c r="D779" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E779" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F779" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G779" t="s">
+        <v>1132</v>
+      </c>
+      <c r="H779" t="s">
+        <v>478</v>
+      </c>
+      <c r="I779" t="s">
+        <v>19</v>
+      </c>
+      <c r="J779">
+        <v>1</v>
+      </c>
+      <c r="K779">
+        <v>53000000</v>
+      </c>
+      <c r="L779">
+        <v>53000000</v>
+      </c>
+    </row>
+    <row r="780" spans="1:12">
+      <c r="A780">
+        <v>777</v>
+      </c>
+      <c r="B780">
+        <v>626402</v>
+      </c>
+      <c r="C780" t="s">
+        <v>13</v>
+      </c>
+      <c r="D780" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E780" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F780" t="s">
+        <v>1134</v>
+      </c>
+      <c r="G780" t="s">
+        <v>1135</v>
+      </c>
+      <c r="H780" t="s">
+        <v>59</v>
+      </c>
+      <c r="I780" t="s">
+        <v>19</v>
+      </c>
+      <c r="J780">
+        <v>1</v>
+      </c>
+      <c r="K780">
+        <v>147618183</v>
+      </c>
+      <c r="L780">
+        <v>147618183</v>
+      </c>
+    </row>
+    <row r="781" spans="1:12">
+      <c r="A781">
+        <v>778</v>
+      </c>
+      <c r="B781">
+        <v>626402</v>
+      </c>
+      <c r="C781" t="s">
+        <v>13</v>
+      </c>
+      <c r="D781" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E781" t="s">
+        <v>1136</v>
+      </c>
+      <c r="F781" t="s">
+        <v>1137</v>
+      </c>
+      <c r="G781" t="s">
+        <v>1138</v>
+      </c>
+      <c r="H781" t="s">
+        <v>59</v>
+      </c>
+      <c r="I781" t="s">
+        <v>19</v>
+      </c>
+      <c r="J781">
+        <v>1</v>
+      </c>
+      <c r="K781">
+        <v>1777878</v>
+      </c>
+      <c r="L781">
+        <v>1777878</v>
+      </c>
+    </row>
+    <row r="782" spans="1:12">
+      <c r="A782">
+        <v>779</v>
+      </c>
+      <c r="B782">
+        <v>626402</v>
+      </c>
+      <c r="C782" t="s">
+        <v>13</v>
+      </c>
+      <c r="D782" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E782" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F782" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G782" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H782" t="s">
+        <v>34</v>
+      </c>
+      <c r="I782" t="s">
+        <v>19</v>
+      </c>
+      <c r="J782">
+        <v>1</v>
+      </c>
+      <c r="K782">
+        <v>23424000</v>
+      </c>
+      <c r="L782">
+        <v>23424000</v>
+      </c>
+    </row>
+    <row r="783" spans="1:12">
+      <c r="A783">
+        <v>780</v>
+      </c>
+      <c r="B783">
+        <v>626402</v>
+      </c>
+      <c r="C783" t="s">
+        <v>13</v>
+      </c>
+      <c r="D783" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E783" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F783" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G783" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H783" t="s">
+        <v>35</v>
+      </c>
+      <c r="I783" t="s">
+        <v>19</v>
+      </c>
+      <c r="J783">
+        <v>1</v>
+      </c>
+      <c r="K783">
+        <v>1910</v>
+      </c>
+      <c r="L783">
+        <v>1910</v>
+      </c>
+    </row>
+    <row r="784" spans="1:12">
+      <c r="A784">
+        <v>781</v>
+      </c>
+      <c r="B784">
+        <v>626402</v>
+      </c>
+      <c r="C784" t="s">
+        <v>13</v>
+      </c>
+      <c r="D784" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E784" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F784" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G784" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H784" t="s">
+        <v>36</v>
+      </c>
+      <c r="I784" t="s">
+        <v>19</v>
+      </c>
+      <c r="J784">
+        <v>1</v>
+      </c>
+      <c r="K784">
+        <v>1722840</v>
+      </c>
+      <c r="L784">
+        <v>1722840</v>
+      </c>
+    </row>
+    <row r="785" spans="1:12">
+      <c r="A785">
+        <v>782</v>
+      </c>
+      <c r="B785">
+        <v>626402</v>
+      </c>
+      <c r="C785" t="s">
+        <v>13</v>
+      </c>
+      <c r="D785" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E785" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F785" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G785" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H785" t="s">
+        <v>37</v>
+      </c>
+      <c r="I785" t="s">
+        <v>19</v>
+      </c>
+      <c r="J785">
+        <v>1</v>
+      </c>
+      <c r="K785">
+        <v>514080</v>
+      </c>
+      <c r="L785">
+        <v>514080</v>
+      </c>
+    </row>
+    <row r="786" spans="1:12">
+      <c r="A786">
+        <v>783</v>
+      </c>
+      <c r="B786">
+        <v>626402</v>
+      </c>
+      <c r="C786" t="s">
+        <v>13</v>
+      </c>
+      <c r="D786" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E786" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F786" t="s">
+        <v>1140</v>
+      </c>
+      <c r="G786" t="s">
+        <v>1141</v>
+      </c>
+      <c r="H786" t="s">
+        <v>40</v>
+      </c>
+      <c r="I786" t="s">
+        <v>19</v>
+      </c>
+      <c r="J786">
+        <v>1</v>
+      </c>
+      <c r="K786">
+        <v>679047</v>
+      </c>
+      <c r="L786">
+        <v>679047</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1260">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -3441,6 +3441,360 @@
   </si>
   <si>
     <t>Pembayaran belanja pegawai(pembayaran rapel kekurangan gaji pegawai Puslatluh bulan januari-februari 2024 untuk 37 pegawa/105 Jiwa)</t>
+  </si>
+  <si>
+    <t>'00253T</t>
+  </si>
+  <si>
+    <t>'241751303005956</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan bulan Januari tahun 2024 an  DEvy untuk 1 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00254T</t>
+  </si>
+  <si>
+    <t>'241751303005957</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan bulan Februari tahun 2024 an Devy untuk 1 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00255T</t>
+  </si>
+  <si>
+    <t>'241751303005958</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan bulan Januari 2024 an Devy untuk 1 pegawai)</t>
+  </si>
+  <si>
+    <t>'00256T</t>
+  </si>
+  <si>
+    <t>'241751303005959</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai (pembayaran uang makan bulan Februari an Devy untuk 1 pegawai)</t>
+  </si>
+  <si>
+    <t>2024-03-18</t>
+  </si>
+  <si>
+    <t>'00257T</t>
+  </si>
+  <si>
+    <t>'241751303006450</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 4 pegawai sesuai ST No. B.404/BPPSDM.5/KP.440/III/2024 Tanggal 5 Maret 2024 a.n Supriyadi,dkk</t>
+  </si>
+  <si>
+    <t>'00258T</t>
+  </si>
+  <si>
+    <t>'241751303006428</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST No. B.404/BPPSDM.5/KP.440/III/2024 Tanggal 5 Maret 2024 a.n Firdaus,dkk</t>
+  </si>
+  <si>
+    <t>'00260T</t>
+  </si>
+  <si>
+    <t>'241751303006448</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0B.000106</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0B.000107</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0C.000120</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0C.000121</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0B.000147</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.202.0A.001286</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0A.000098</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0A.000099</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0B.000149</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0B.000150</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0C.000158</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0C.000159</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0D.000167</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0D.000168</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0E.000173</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0E.000174</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.201.0A.001277</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.201.0A.001278</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.202.0B.001290</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.202.0C.001294</t>
+  </si>
+  <si>
+    <t>'626402.175.522151.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0C.000123</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0A.000142</t>
+  </si>
+  <si>
+    <t>'626402.175.524119.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0C.000126</t>
+  </si>
+  <si>
+    <t>'00261T</t>
+  </si>
+  <si>
+    <t>'241751303006449</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.AA.000251</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AA.000434</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.103.0B.000862</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.103.0B.000863</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AA.001063</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AB.001589</t>
+  </si>
+  <si>
+    <t>'626402.175.522119.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.957.101.0A.001654</t>
+  </si>
+  <si>
+    <t>'626402.175.522151.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AB.001078</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.960.101.0B.000799</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.960.102.0B.000809</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.101.0A.001511</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.AC.000268</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.AC.000269</t>
+  </si>
+  <si>
+    <t>'00263T</t>
+  </si>
+  <si>
+    <t>'241751303006432</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perdin untuk 10 Pegawai sesuai ST Nomor B.2701/BPPSDM.1/KP.440/III/2024 tanggal 6 Maret 2024 a.n. Liana Sari, dkk</t>
+  </si>
+  <si>
+    <t>'00264T</t>
+  </si>
+  <si>
+    <t>'241751303006402</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perdin untuk 2 Pegawai sesuai ST Nomor B.2701/BPPSDM.1/KP.440/III/2024 tanggal 6 Maret 2024 a.n. Diwa Redina Tiurlan, dkk</t>
+  </si>
+  <si>
+    <t>'00265T</t>
+  </si>
+  <si>
+    <t>'241751303006403</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perdin untuk 1 Pegawai sesuai ST Nomor B.2715/BPPSDM.1/KP.440/III/2024 tanggal 6 Maret 2024 a.n. Priyo Purwanto</t>
+  </si>
+  <si>
+    <t>'00266T</t>
+  </si>
+  <si>
+    <t>'241751303006479</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perdin untuk 3 Pegawai sesuai ST Nomor B.2715/BPPSDM.1/KP.440/III/2024 tanggal 6 Maret 2024 a.n. Edwin Lutfi, dkk</t>
+  </si>
+  <si>
+    <t>'00267T</t>
+  </si>
+  <si>
+    <t>'241751303006401</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perdin untuk 1 Pegawai sesuai ST Nomor B.1244/BPPSDM.1/KP.440/II/2024 tanggal 22 Februari 2024 a.n. Rizky Hendriansyah</t>
+  </si>
+  <si>
+    <t>'00268T</t>
+  </si>
+  <si>
+    <t>'241751303006429</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perdin untuk 3 Pegawai sesuai ST Nomor B.1201/BPPSDM.1/KP.440/II/2024 tanggal 16 Februari 2024 a.n. I Wayan Purya Arnata, dkk</t>
+  </si>
+  <si>
+    <t>'00269T</t>
+  </si>
+  <si>
+    <t>'241751303006430</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perdin untuk 1 Pegawai sesuai ST Nomor B.298/BPPSDM/KP.440/II/2024 tanggal 22 Februari 2024 a.n. Rudi Alek Wahyudin</t>
+  </si>
+  <si>
+    <t>'00270T</t>
+  </si>
+  <si>
+    <t>'241751303006434</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Solo (PP) tgl 23-26 Januari 2024 an Norma dan Dedy sesuai ST No B.183/BPPSDM.4/KP.440/I/2024 Tgl 22/01/2024 keg Rpt Koord Pengelolaan dan PNBP lingkup BPPSDM di Swiss-Belhotel Solo</t>
+  </si>
+  <si>
+    <t>'00271T</t>
+  </si>
+  <si>
+    <t>'241751303006433</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Poltekkp Sidoarjo(PP) tgl 19-22 februari 2024 an Luh Dewi dan Mextaria sesuai ST No B.399/BPPSDM.4/KP.440/II/2024 Tgl 16/02/2024 keg Persiapan Pelaksanaan SFV UPT dan Desa Sumberdodol</t>
+  </si>
+  <si>
+    <t>'00272T</t>
+  </si>
+  <si>
+    <t>'241751303006468</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Double Tree By Hilton Surabaya (PP) tgl 19-22 Feb 2024 an Irfan sesuai ST No B.404/BPPSDM.4/KP.440/II/2024 Tgl 16/02/2024 keg Rpt Menghadiri RAKERNIS BPPSDMKP</t>
+  </si>
+  <si>
+    <t>'00273T</t>
+  </si>
+  <si>
+    <t>'241751301006562</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:4/PPK/BRSDM.1/I/2024 Tgl.2-1-2024,BAST No:BAST.602/PPK/BRSDM.1/II/2024 Tgl.29-2-2024,BAP No:603/PPK/BRSDM.1/II/2024 Tgl.29-2-2024 Pengadaan jasa satuan pegamanan sekretariat BRSDM TA 2024 TERMIN 2</t>
+  </si>
+  <si>
+    <t>'00274T</t>
+  </si>
+  <si>
+    <t>'241751303006431</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perdin untuk 5 Pegawai sesuai ST Nomor B.2647/BPPSDM.1/KP.440/III/2024 tanggal 4 Maret 2024 a.n. Rudi Alek Wahyudin, dkk</t>
+  </si>
+  <si>
+    <t>'00275T</t>
+  </si>
+  <si>
+    <t>'241751302006531</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:301/PPK/BRSDM.1/II/2024 Tgl.6-2-2-2024,BAST No:BAST.522/PPK/BRSDM.1/II/2024 Tgl.23-2-2024,BAP No:523/PPK/BRSDM.1/II/2024 Tgl.23-2-2024 Jasa Pengadaan Pakaian Dinas Hitam Putih</t>
+  </si>
+  <si>
+    <t>'626402.175.521119.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AA.000431</t>
+  </si>
+  <si>
+    <t>'00276T</t>
+  </si>
+  <si>
+    <t>'241751303006478</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perdin untuk 1 Pegawai sesuai ST Nomor B.826/BPPSDM.1/KP.440/II/2024 tanggal 26 Januari 2024 a.n. Rahmadi Sunoko</t>
+  </si>
+  <si>
+    <t>'00282T</t>
+  </si>
+  <si>
+    <t>'241751303006477</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perdin untuk 1 Pegawai sesuai ST Nomor B.2151/BPPSDM.1/KP.440/III/2024 tanggal 1 Maret 2024 a.n. Rahmadi Sunoko</t>
+  </si>
+  <si>
+    <t>2024-03-19</t>
+  </si>
+  <si>
+    <t>'00283T</t>
+  </si>
+  <si>
+    <t>'241751303006529</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST No. B.406/BPPSDM.5/KP.440/III/2024 Tanggal 5 Maret 2024 a.n Lilly Aprilya Pregiwati, dkk</t>
+  </si>
+  <si>
+    <t>'00284T</t>
+  </si>
+  <si>
+    <t>'241751303006530</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 4 pegawai sesuai ST No. B.406/BPPSDM.5/KP.440/III/2024 Tanggal 5 Maret 2024 a.n Endah Septiani, dkk</t>
+  </si>
+  <si>
+    <t>'00288T</t>
+  </si>
+  <si>
+    <t>'241751303006427</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran kekurangan gaji pegawai Sekretariat BRSDM bulan Januari -Februari 2024 untuk 67 pegawai/179 Jiwa)</t>
+  </si>
+  <si>
+    <t>'00290T</t>
+  </si>
+  <si>
+    <t>'241751305000480</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran kekurangan gaji bulan januari s.d februari 2024 an liana sari)</t>
   </si>
 </sst>
 </file>
@@ -3782,7 +4136,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L786"/>
+  <dimension ref="A1:L896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -33588,6 +33942,4186 @@
       </c>
       <c r="L786">
         <v>679047</v>
+      </c>
+    </row>
+    <row r="787" spans="1:12">
+      <c r="A787">
+        <v>784</v>
+      </c>
+      <c r="B787">
+        <v>626402</v>
+      </c>
+      <c r="C787" t="s">
+        <v>13</v>
+      </c>
+      <c r="D787" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E787" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F787" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G787" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H787" t="s">
+        <v>80</v>
+      </c>
+      <c r="I787" t="s">
+        <v>19</v>
+      </c>
+      <c r="J787">
+        <v>1</v>
+      </c>
+      <c r="K787">
+        <v>3915950</v>
+      </c>
+      <c r="L787">
+        <v>3915950</v>
+      </c>
+    </row>
+    <row r="788" spans="1:12">
+      <c r="A788">
+        <v>785</v>
+      </c>
+      <c r="B788">
+        <v>626402</v>
+      </c>
+      <c r="C788" t="s">
+        <v>13</v>
+      </c>
+      <c r="D788" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E788" t="s">
+        <v>1145</v>
+      </c>
+      <c r="F788" t="s">
+        <v>1146</v>
+      </c>
+      <c r="G788" t="s">
+        <v>1147</v>
+      </c>
+      <c r="H788" t="s">
+        <v>80</v>
+      </c>
+      <c r="I788" t="s">
+        <v>19</v>
+      </c>
+      <c r="J788">
+        <v>1</v>
+      </c>
+      <c r="K788">
+        <v>3915950</v>
+      </c>
+      <c r="L788">
+        <v>3915950</v>
+      </c>
+    </row>
+    <row r="789" spans="1:12">
+      <c r="A789">
+        <v>786</v>
+      </c>
+      <c r="B789">
+        <v>626402</v>
+      </c>
+      <c r="C789" t="s">
+        <v>13</v>
+      </c>
+      <c r="D789" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E789" t="s">
+        <v>1148</v>
+      </c>
+      <c r="F789" t="s">
+        <v>1149</v>
+      </c>
+      <c r="G789" t="s">
+        <v>1150</v>
+      </c>
+      <c r="H789" t="s">
+        <v>85</v>
+      </c>
+      <c r="I789" t="s">
+        <v>19</v>
+      </c>
+      <c r="J789">
+        <v>1</v>
+      </c>
+      <c r="K789">
+        <v>592000</v>
+      </c>
+      <c r="L789">
+        <v>592000</v>
+      </c>
+    </row>
+    <row r="790" spans="1:12">
+      <c r="A790">
+        <v>787</v>
+      </c>
+      <c r="B790">
+        <v>626402</v>
+      </c>
+      <c r="C790" t="s">
+        <v>13</v>
+      </c>
+      <c r="D790" t="s">
+        <v>1129</v>
+      </c>
+      <c r="E790" t="s">
+        <v>1151</v>
+      </c>
+      <c r="F790" t="s">
+        <v>1152</v>
+      </c>
+      <c r="G790" t="s">
+        <v>1153</v>
+      </c>
+      <c r="H790" t="s">
+        <v>85</v>
+      </c>
+      <c r="I790" t="s">
+        <v>19</v>
+      </c>
+      <c r="J790">
+        <v>1</v>
+      </c>
+      <c r="K790">
+        <v>518000</v>
+      </c>
+      <c r="L790">
+        <v>518000</v>
+      </c>
+    </row>
+    <row r="791" spans="1:12">
+      <c r="A791">
+        <v>788</v>
+      </c>
+      <c r="B791">
+        <v>626402</v>
+      </c>
+      <c r="C791" t="s">
+        <v>13</v>
+      </c>
+      <c r="D791" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E791" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F791" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G791" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H791" t="s">
+        <v>897</v>
+      </c>
+      <c r="I791" t="s">
+        <v>19</v>
+      </c>
+      <c r="J791">
+        <v>1</v>
+      </c>
+      <c r="K791">
+        <v>3440000</v>
+      </c>
+      <c r="L791">
+        <v>3440000</v>
+      </c>
+    </row>
+    <row r="792" spans="1:12">
+      <c r="A792">
+        <v>789</v>
+      </c>
+      <c r="B792">
+        <v>626402</v>
+      </c>
+      <c r="C792" t="s">
+        <v>13</v>
+      </c>
+      <c r="D792" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E792" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F792" t="s">
+        <v>1156</v>
+      </c>
+      <c r="G792" t="s">
+        <v>1157</v>
+      </c>
+      <c r="H792" t="s">
+        <v>898</v>
+      </c>
+      <c r="I792" t="s">
+        <v>19</v>
+      </c>
+      <c r="J792">
+        <v>1</v>
+      </c>
+      <c r="K792">
+        <v>566500</v>
+      </c>
+      <c r="L792">
+        <v>566500</v>
+      </c>
+    </row>
+    <row r="793" spans="1:12">
+      <c r="A793">
+        <v>790</v>
+      </c>
+      <c r="B793">
+        <v>626402</v>
+      </c>
+      <c r="C793" t="s">
+        <v>13</v>
+      </c>
+      <c r="D793" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E793" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F793" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G793" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H793" t="s">
+        <v>897</v>
+      </c>
+      <c r="I793" t="s">
+        <v>19</v>
+      </c>
+      <c r="J793">
+        <v>1</v>
+      </c>
+      <c r="K793">
+        <v>860000</v>
+      </c>
+      <c r="L793">
+        <v>860000</v>
+      </c>
+    </row>
+    <row r="794" spans="1:12">
+      <c r="A794">
+        <v>791</v>
+      </c>
+      <c r="B794">
+        <v>626402</v>
+      </c>
+      <c r="C794" t="s">
+        <v>13</v>
+      </c>
+      <c r="D794" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E794" t="s">
+        <v>1158</v>
+      </c>
+      <c r="F794" t="s">
+        <v>1159</v>
+      </c>
+      <c r="G794" t="s">
+        <v>1160</v>
+      </c>
+      <c r="H794" t="s">
+        <v>898</v>
+      </c>
+      <c r="I794" t="s">
+        <v>19</v>
+      </c>
+      <c r="J794">
+        <v>1</v>
+      </c>
+      <c r="K794">
+        <v>31000</v>
+      </c>
+      <c r="L794">
+        <v>31000</v>
+      </c>
+    </row>
+    <row r="795" spans="1:12">
+      <c r="A795">
+        <v>792</v>
+      </c>
+      <c r="B795">
+        <v>626402</v>
+      </c>
+      <c r="C795" t="s">
+        <v>13</v>
+      </c>
+      <c r="D795" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E795" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F795" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G795" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H795" t="s">
+        <v>882</v>
+      </c>
+      <c r="I795" t="s">
+        <v>19</v>
+      </c>
+      <c r="J795">
+        <v>1</v>
+      </c>
+      <c r="K795">
+        <v>5615000</v>
+      </c>
+      <c r="L795">
+        <v>5615000</v>
+      </c>
+    </row>
+    <row r="796" spans="1:12">
+      <c r="A796">
+        <v>793</v>
+      </c>
+      <c r="B796">
+        <v>626402</v>
+      </c>
+      <c r="C796" t="s">
+        <v>13</v>
+      </c>
+      <c r="D796" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E796" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F796" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G796" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H796" t="s">
+        <v>1163</v>
+      </c>
+      <c r="I796" t="s">
+        <v>19</v>
+      </c>
+      <c r="J796">
+        <v>1</v>
+      </c>
+      <c r="K796">
+        <v>1000000</v>
+      </c>
+      <c r="L796">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="797" spans="1:12">
+      <c r="A797">
+        <v>794</v>
+      </c>
+      <c r="B797">
+        <v>626402</v>
+      </c>
+      <c r="C797" t="s">
+        <v>13</v>
+      </c>
+      <c r="D797" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E797" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F797" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G797" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H797" t="s">
+        <v>1164</v>
+      </c>
+      <c r="I797" t="s">
+        <v>19</v>
+      </c>
+      <c r="J797">
+        <v>1</v>
+      </c>
+      <c r="K797">
+        <v>1000000</v>
+      </c>
+      <c r="L797">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="798" spans="1:12">
+      <c r="A798">
+        <v>795</v>
+      </c>
+      <c r="B798">
+        <v>626402</v>
+      </c>
+      <c r="C798" t="s">
+        <v>13</v>
+      </c>
+      <c r="D798" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E798" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F798" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G798" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H798" t="s">
+        <v>450</v>
+      </c>
+      <c r="I798" t="s">
+        <v>19</v>
+      </c>
+      <c r="J798">
+        <v>1</v>
+      </c>
+      <c r="K798">
+        <v>1001600</v>
+      </c>
+      <c r="L798">
+        <v>1001600</v>
+      </c>
+    </row>
+    <row r="799" spans="1:12">
+      <c r="A799">
+        <v>796</v>
+      </c>
+      <c r="B799">
+        <v>626402</v>
+      </c>
+      <c r="C799" t="s">
+        <v>13</v>
+      </c>
+      <c r="D799" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E799" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F799" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G799" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H799" t="s">
+        <v>1165</v>
+      </c>
+      <c r="I799" t="s">
+        <v>19</v>
+      </c>
+      <c r="J799">
+        <v>1</v>
+      </c>
+      <c r="K799">
+        <v>2904000</v>
+      </c>
+      <c r="L799">
+        <v>2904000</v>
+      </c>
+    </row>
+    <row r="800" spans="1:12">
+      <c r="A800">
+        <v>797</v>
+      </c>
+      <c r="B800">
+        <v>626402</v>
+      </c>
+      <c r="C800" t="s">
+        <v>13</v>
+      </c>
+      <c r="D800" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E800" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F800" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G800" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H800" t="s">
+        <v>1166</v>
+      </c>
+      <c r="I800" t="s">
+        <v>19</v>
+      </c>
+      <c r="J800">
+        <v>1</v>
+      </c>
+      <c r="K800">
+        <v>15000000</v>
+      </c>
+      <c r="L800">
+        <v>15000000</v>
+      </c>
+    </row>
+    <row r="801" spans="1:12">
+      <c r="A801">
+        <v>798</v>
+      </c>
+      <c r="B801">
+        <v>626402</v>
+      </c>
+      <c r="C801" t="s">
+        <v>13</v>
+      </c>
+      <c r="D801" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E801" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F801" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G801" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H801" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I801" t="s">
+        <v>19</v>
+      </c>
+      <c r="J801">
+        <v>1</v>
+      </c>
+      <c r="K801">
+        <v>1210000</v>
+      </c>
+      <c r="L801">
+        <v>1210000</v>
+      </c>
+    </row>
+    <row r="802" spans="1:12">
+      <c r="A802">
+        <v>799</v>
+      </c>
+      <c r="B802">
+        <v>626402</v>
+      </c>
+      <c r="C802" t="s">
+        <v>13</v>
+      </c>
+      <c r="D802" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E802" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F802" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G802" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H802" t="s">
+        <v>451</v>
+      </c>
+      <c r="I802" t="s">
+        <v>19</v>
+      </c>
+      <c r="J802">
+        <v>1</v>
+      </c>
+      <c r="K802">
+        <v>2927000</v>
+      </c>
+      <c r="L802">
+        <v>2927000</v>
+      </c>
+    </row>
+    <row r="803" spans="1:12">
+      <c r="A803">
+        <v>800</v>
+      </c>
+      <c r="B803">
+        <v>626402</v>
+      </c>
+      <c r="C803" t="s">
+        <v>13</v>
+      </c>
+      <c r="D803" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E803" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F803" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G803" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H803" t="s">
+        <v>452</v>
+      </c>
+      <c r="I803" t="s">
+        <v>19</v>
+      </c>
+      <c r="J803">
+        <v>1</v>
+      </c>
+      <c r="K803">
+        <v>4085900</v>
+      </c>
+      <c r="L803">
+        <v>4085900</v>
+      </c>
+    </row>
+    <row r="804" spans="1:12">
+      <c r="A804">
+        <v>801</v>
+      </c>
+      <c r="B804">
+        <v>626402</v>
+      </c>
+      <c r="C804" t="s">
+        <v>13</v>
+      </c>
+      <c r="D804" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E804" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F804" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G804" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H804" t="s">
+        <v>1168</v>
+      </c>
+      <c r="I804" t="s">
+        <v>19</v>
+      </c>
+      <c r="J804">
+        <v>1</v>
+      </c>
+      <c r="K804">
+        <v>1000000</v>
+      </c>
+      <c r="L804">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="805" spans="1:12">
+      <c r="A805">
+        <v>802</v>
+      </c>
+      <c r="B805">
+        <v>626402</v>
+      </c>
+      <c r="C805" t="s">
+        <v>13</v>
+      </c>
+      <c r="D805" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E805" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F805" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G805" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H805" t="s">
+        <v>1169</v>
+      </c>
+      <c r="I805" t="s">
+        <v>19</v>
+      </c>
+      <c r="J805">
+        <v>1</v>
+      </c>
+      <c r="K805">
+        <v>1000000</v>
+      </c>
+      <c r="L805">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="806" spans="1:12">
+      <c r="A806">
+        <v>803</v>
+      </c>
+      <c r="B806">
+        <v>626402</v>
+      </c>
+      <c r="C806" t="s">
+        <v>13</v>
+      </c>
+      <c r="D806" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E806" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F806" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G806" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H806" t="s">
+        <v>1170</v>
+      </c>
+      <c r="I806" t="s">
+        <v>19</v>
+      </c>
+      <c r="J806">
+        <v>1</v>
+      </c>
+      <c r="K806">
+        <v>1000000</v>
+      </c>
+      <c r="L806">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="807" spans="1:12">
+      <c r="A807">
+        <v>804</v>
+      </c>
+      <c r="B807">
+        <v>626402</v>
+      </c>
+      <c r="C807" t="s">
+        <v>13</v>
+      </c>
+      <c r="D807" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E807" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F807" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G807" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H807" t="s">
+        <v>1171</v>
+      </c>
+      <c r="I807" t="s">
+        <v>19</v>
+      </c>
+      <c r="J807">
+        <v>1</v>
+      </c>
+      <c r="K807">
+        <v>1000000</v>
+      </c>
+      <c r="L807">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="808" spans="1:12">
+      <c r="A808">
+        <v>805</v>
+      </c>
+      <c r="B808">
+        <v>626402</v>
+      </c>
+      <c r="C808" t="s">
+        <v>13</v>
+      </c>
+      <c r="D808" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E808" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F808" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G808" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H808" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I808" t="s">
+        <v>19</v>
+      </c>
+      <c r="J808">
+        <v>1</v>
+      </c>
+      <c r="K808">
+        <v>1000000</v>
+      </c>
+      <c r="L808">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="809" spans="1:12">
+      <c r="A809">
+        <v>806</v>
+      </c>
+      <c r="B809">
+        <v>626402</v>
+      </c>
+      <c r="C809" t="s">
+        <v>13</v>
+      </c>
+      <c r="D809" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E809" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F809" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G809" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H809" t="s">
+        <v>1173</v>
+      </c>
+      <c r="I809" t="s">
+        <v>19</v>
+      </c>
+      <c r="J809">
+        <v>1</v>
+      </c>
+      <c r="K809">
+        <v>1000000</v>
+      </c>
+      <c r="L809">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="810" spans="1:12">
+      <c r="A810">
+        <v>807</v>
+      </c>
+      <c r="B810">
+        <v>626402</v>
+      </c>
+      <c r="C810" t="s">
+        <v>13</v>
+      </c>
+      <c r="D810" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E810" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F810" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G810" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H810" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I810" t="s">
+        <v>19</v>
+      </c>
+      <c r="J810">
+        <v>1</v>
+      </c>
+      <c r="K810">
+        <v>1000000</v>
+      </c>
+      <c r="L810">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="811" spans="1:12">
+      <c r="A811">
+        <v>808</v>
+      </c>
+      <c r="B811">
+        <v>626402</v>
+      </c>
+      <c r="C811" t="s">
+        <v>13</v>
+      </c>
+      <c r="D811" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E811" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F811" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G811" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H811" t="s">
+        <v>1175</v>
+      </c>
+      <c r="I811" t="s">
+        <v>19</v>
+      </c>
+      <c r="J811">
+        <v>1</v>
+      </c>
+      <c r="K811">
+        <v>1000000</v>
+      </c>
+      <c r="L811">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="812" spans="1:12">
+      <c r="A812">
+        <v>809</v>
+      </c>
+      <c r="B812">
+        <v>626402</v>
+      </c>
+      <c r="C812" t="s">
+        <v>13</v>
+      </c>
+      <c r="D812" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E812" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F812" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G812" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H812" t="s">
+        <v>1176</v>
+      </c>
+      <c r="I812" t="s">
+        <v>19</v>
+      </c>
+      <c r="J812">
+        <v>1</v>
+      </c>
+      <c r="K812">
+        <v>1000000</v>
+      </c>
+      <c r="L812">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="813" spans="1:12">
+      <c r="A813">
+        <v>810</v>
+      </c>
+      <c r="B813">
+        <v>626402</v>
+      </c>
+      <c r="C813" t="s">
+        <v>13</v>
+      </c>
+      <c r="D813" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E813" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F813" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G813" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H813" t="s">
+        <v>1177</v>
+      </c>
+      <c r="I813" t="s">
+        <v>19</v>
+      </c>
+      <c r="J813">
+        <v>1</v>
+      </c>
+      <c r="K813">
+        <v>1000000</v>
+      </c>
+      <c r="L813">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="814" spans="1:12">
+      <c r="A814">
+        <v>811</v>
+      </c>
+      <c r="B814">
+        <v>626402</v>
+      </c>
+      <c r="C814" t="s">
+        <v>13</v>
+      </c>
+      <c r="D814" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E814" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F814" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G814" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H814" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I814" t="s">
+        <v>19</v>
+      </c>
+      <c r="J814">
+        <v>1</v>
+      </c>
+      <c r="K814">
+        <v>1000000</v>
+      </c>
+      <c r="L814">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="815" spans="1:12">
+      <c r="A815">
+        <v>812</v>
+      </c>
+      <c r="B815">
+        <v>626402</v>
+      </c>
+      <c r="C815" t="s">
+        <v>13</v>
+      </c>
+      <c r="D815" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E815" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F815" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G815" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H815" t="s">
+        <v>1179</v>
+      </c>
+      <c r="I815" t="s">
+        <v>19</v>
+      </c>
+      <c r="J815">
+        <v>1</v>
+      </c>
+      <c r="K815">
+        <v>842000</v>
+      </c>
+      <c r="L815">
+        <v>842000</v>
+      </c>
+    </row>
+    <row r="816" spans="1:12">
+      <c r="A816">
+        <v>813</v>
+      </c>
+      <c r="B816">
+        <v>626402</v>
+      </c>
+      <c r="C816" t="s">
+        <v>13</v>
+      </c>
+      <c r="D816" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E816" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F816" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G816" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H816" t="s">
+        <v>1180</v>
+      </c>
+      <c r="I816" t="s">
+        <v>19</v>
+      </c>
+      <c r="J816">
+        <v>1</v>
+      </c>
+      <c r="K816">
+        <v>750000</v>
+      </c>
+      <c r="L816">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="817" spans="1:12">
+      <c r="A817">
+        <v>814</v>
+      </c>
+      <c r="B817">
+        <v>626402</v>
+      </c>
+      <c r="C817" t="s">
+        <v>13</v>
+      </c>
+      <c r="D817" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E817" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F817" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G817" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H817" t="s">
+        <v>1181</v>
+      </c>
+      <c r="I817" t="s">
+        <v>19</v>
+      </c>
+      <c r="J817">
+        <v>1</v>
+      </c>
+      <c r="K817">
+        <v>1500000</v>
+      </c>
+      <c r="L817">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="818" spans="1:12">
+      <c r="A818">
+        <v>815</v>
+      </c>
+      <c r="B818">
+        <v>626402</v>
+      </c>
+      <c r="C818" t="s">
+        <v>13</v>
+      </c>
+      <c r="D818" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E818" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F818" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G818" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H818" t="s">
+        <v>1182</v>
+      </c>
+      <c r="I818" t="s">
+        <v>19</v>
+      </c>
+      <c r="J818">
+        <v>1</v>
+      </c>
+      <c r="K818">
+        <v>1000000</v>
+      </c>
+      <c r="L818">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="819" spans="1:12">
+      <c r="A819">
+        <v>816</v>
+      </c>
+      <c r="B819">
+        <v>626402</v>
+      </c>
+      <c r="C819" t="s">
+        <v>13</v>
+      </c>
+      <c r="D819" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E819" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F819" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G819" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H819" t="s">
+        <v>1020</v>
+      </c>
+      <c r="I819" t="s">
+        <v>19</v>
+      </c>
+      <c r="J819">
+        <v>1</v>
+      </c>
+      <c r="K819">
+        <v>3000000</v>
+      </c>
+      <c r="L819">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="820" spans="1:12">
+      <c r="A820">
+        <v>817</v>
+      </c>
+      <c r="B820">
+        <v>626402</v>
+      </c>
+      <c r="C820" t="s">
+        <v>13</v>
+      </c>
+      <c r="D820" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E820" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F820" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G820" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H820" t="s">
+        <v>1183</v>
+      </c>
+      <c r="I820" t="s">
+        <v>19</v>
+      </c>
+      <c r="J820">
+        <v>1</v>
+      </c>
+      <c r="K820">
+        <v>900000</v>
+      </c>
+      <c r="L820">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="821" spans="1:12">
+      <c r="A821">
+        <v>818</v>
+      </c>
+      <c r="B821">
+        <v>626402</v>
+      </c>
+      <c r="C821" t="s">
+        <v>13</v>
+      </c>
+      <c r="D821" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E821" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F821" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G821" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H821" t="s">
+        <v>895</v>
+      </c>
+      <c r="I821" t="s">
+        <v>19</v>
+      </c>
+      <c r="J821">
+        <v>1</v>
+      </c>
+      <c r="K821">
+        <v>23546600</v>
+      </c>
+      <c r="L821">
+        <v>23546600</v>
+      </c>
+    </row>
+    <row r="822" spans="1:12">
+      <c r="A822">
+        <v>819</v>
+      </c>
+      <c r="B822">
+        <v>626402</v>
+      </c>
+      <c r="C822" t="s">
+        <v>13</v>
+      </c>
+      <c r="D822" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E822" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F822" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G822" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H822" t="s">
+        <v>231</v>
+      </c>
+      <c r="I822" t="s">
+        <v>19</v>
+      </c>
+      <c r="J822">
+        <v>1</v>
+      </c>
+      <c r="K822">
+        <v>260000</v>
+      </c>
+      <c r="L822">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="823" spans="1:12">
+      <c r="A823">
+        <v>820</v>
+      </c>
+      <c r="B823">
+        <v>626402</v>
+      </c>
+      <c r="C823" t="s">
+        <v>13</v>
+      </c>
+      <c r="D823" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E823" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F823" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G823" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H823" t="s">
+        <v>232</v>
+      </c>
+      <c r="I823" t="s">
+        <v>19</v>
+      </c>
+      <c r="J823">
+        <v>1</v>
+      </c>
+      <c r="K823">
+        <v>340000</v>
+      </c>
+      <c r="L823">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="824" spans="1:12">
+      <c r="A824">
+        <v>821</v>
+      </c>
+      <c r="B824">
+        <v>626402</v>
+      </c>
+      <c r="C824" t="s">
+        <v>13</v>
+      </c>
+      <c r="D824" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E824" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F824" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G824" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H824" t="s">
+        <v>1184</v>
+      </c>
+      <c r="I824" t="s">
+        <v>19</v>
+      </c>
+      <c r="J824">
+        <v>1</v>
+      </c>
+      <c r="K824">
+        <v>2821234</v>
+      </c>
+      <c r="L824">
+        <v>2821234</v>
+      </c>
+    </row>
+    <row r="825" spans="1:12">
+      <c r="A825">
+        <v>822</v>
+      </c>
+      <c r="B825">
+        <v>626402</v>
+      </c>
+      <c r="C825" t="s">
+        <v>13</v>
+      </c>
+      <c r="D825" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E825" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F825" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G825" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H825" t="s">
+        <v>603</v>
+      </c>
+      <c r="I825" t="s">
+        <v>19</v>
+      </c>
+      <c r="J825">
+        <v>1</v>
+      </c>
+      <c r="K825">
+        <v>640000</v>
+      </c>
+      <c r="L825">
+        <v>640000</v>
+      </c>
+    </row>
+    <row r="826" spans="1:12">
+      <c r="A826">
+        <v>823</v>
+      </c>
+      <c r="B826">
+        <v>626402</v>
+      </c>
+      <c r="C826" t="s">
+        <v>13</v>
+      </c>
+      <c r="D826" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E826" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F826" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G826" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H826" t="s">
+        <v>604</v>
+      </c>
+      <c r="I826" t="s">
+        <v>19</v>
+      </c>
+      <c r="J826">
+        <v>1</v>
+      </c>
+      <c r="K826">
+        <v>1240000</v>
+      </c>
+      <c r="L826">
+        <v>1240000</v>
+      </c>
+    </row>
+    <row r="827" spans="1:12">
+      <c r="A827">
+        <v>824</v>
+      </c>
+      <c r="B827">
+        <v>626402</v>
+      </c>
+      <c r="C827" t="s">
+        <v>13</v>
+      </c>
+      <c r="D827" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E827" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F827" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G827" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H827" t="s">
+        <v>605</v>
+      </c>
+      <c r="I827" t="s">
+        <v>19</v>
+      </c>
+      <c r="J827">
+        <v>1</v>
+      </c>
+      <c r="K827">
+        <v>540000</v>
+      </c>
+      <c r="L827">
+        <v>540000</v>
+      </c>
+    </row>
+    <row r="828" spans="1:12">
+      <c r="A828">
+        <v>825</v>
+      </c>
+      <c r="B828">
+        <v>626402</v>
+      </c>
+      <c r="C828" t="s">
+        <v>13</v>
+      </c>
+      <c r="D828" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E828" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F828" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G828" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H828" t="s">
+        <v>373</v>
+      </c>
+      <c r="I828" t="s">
+        <v>19</v>
+      </c>
+      <c r="J828">
+        <v>1</v>
+      </c>
+      <c r="K828">
+        <v>8844575</v>
+      </c>
+      <c r="L828">
+        <v>8844575</v>
+      </c>
+    </row>
+    <row r="829" spans="1:12">
+      <c r="A829">
+        <v>826</v>
+      </c>
+      <c r="B829">
+        <v>626402</v>
+      </c>
+      <c r="C829" t="s">
+        <v>13</v>
+      </c>
+      <c r="D829" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E829" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F829" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G829" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H829" t="s">
+        <v>899</v>
+      </c>
+      <c r="I829" t="s">
+        <v>19</v>
+      </c>
+      <c r="J829">
+        <v>1</v>
+      </c>
+      <c r="K829">
+        <v>2550000</v>
+      </c>
+      <c r="L829">
+        <v>2550000</v>
+      </c>
+    </row>
+    <row r="830" spans="1:12">
+      <c r="A830">
+        <v>827</v>
+      </c>
+      <c r="B830">
+        <v>626402</v>
+      </c>
+      <c r="C830" t="s">
+        <v>13</v>
+      </c>
+      <c r="D830" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E830" t="s">
+        <v>1161</v>
+      </c>
+      <c r="F830" t="s">
+        <v>1162</v>
+      </c>
+      <c r="G830" t="s">
+        <v>1015</v>
+      </c>
+      <c r="H830" t="s">
+        <v>1185</v>
+      </c>
+      <c r="I830" t="s">
+        <v>19</v>
+      </c>
+      <c r="J830">
+        <v>1</v>
+      </c>
+      <c r="K830">
+        <v>5400000</v>
+      </c>
+      <c r="L830">
+        <v>5400000</v>
+      </c>
+    </row>
+    <row r="831" spans="1:12">
+      <c r="A831">
+        <v>828</v>
+      </c>
+      <c r="B831">
+        <v>626402</v>
+      </c>
+      <c r="C831" t="s">
+        <v>13</v>
+      </c>
+      <c r="D831" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E831" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F831" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G831" t="s">
+        <v>429</v>
+      </c>
+      <c r="H831" t="s">
+        <v>255</v>
+      </c>
+      <c r="I831" t="s">
+        <v>19</v>
+      </c>
+      <c r="J831">
+        <v>1</v>
+      </c>
+      <c r="K831">
+        <v>26704500</v>
+      </c>
+      <c r="L831">
+        <v>26704500</v>
+      </c>
+    </row>
+    <row r="832" spans="1:12">
+      <c r="A832">
+        <v>829</v>
+      </c>
+      <c r="B832">
+        <v>626402</v>
+      </c>
+      <c r="C832" t="s">
+        <v>13</v>
+      </c>
+      <c r="D832" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E832" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F832" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G832" t="s">
+        <v>429</v>
+      </c>
+      <c r="H832" t="s">
+        <v>257</v>
+      </c>
+      <c r="I832" t="s">
+        <v>19</v>
+      </c>
+      <c r="J832">
+        <v>1</v>
+      </c>
+      <c r="K832">
+        <v>1598300</v>
+      </c>
+      <c r="L832">
+        <v>1598300</v>
+      </c>
+    </row>
+    <row r="833" spans="1:12">
+      <c r="A833">
+        <v>830</v>
+      </c>
+      <c r="B833">
+        <v>626402</v>
+      </c>
+      <c r="C833" t="s">
+        <v>13</v>
+      </c>
+      <c r="D833" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E833" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F833" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G833" t="s">
+        <v>429</v>
+      </c>
+      <c r="H833" t="s">
+        <v>258</v>
+      </c>
+      <c r="I833" t="s">
+        <v>19</v>
+      </c>
+      <c r="J833">
+        <v>1</v>
+      </c>
+      <c r="K833">
+        <v>854410</v>
+      </c>
+      <c r="L833">
+        <v>854410</v>
+      </c>
+    </row>
+    <row r="834" spans="1:12">
+      <c r="A834">
+        <v>831</v>
+      </c>
+      <c r="B834">
+        <v>626402</v>
+      </c>
+      <c r="C834" t="s">
+        <v>13</v>
+      </c>
+      <c r="D834" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E834" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F834" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G834" t="s">
+        <v>429</v>
+      </c>
+      <c r="H834" t="s">
+        <v>760</v>
+      </c>
+      <c r="I834" t="s">
+        <v>19</v>
+      </c>
+      <c r="J834">
+        <v>1</v>
+      </c>
+      <c r="K834">
+        <v>121284</v>
+      </c>
+      <c r="L834">
+        <v>121284</v>
+      </c>
+    </row>
+    <row r="835" spans="1:12">
+      <c r="A835">
+        <v>832</v>
+      </c>
+      <c r="B835">
+        <v>626402</v>
+      </c>
+      <c r="C835" t="s">
+        <v>13</v>
+      </c>
+      <c r="D835" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E835" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F835" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G835" t="s">
+        <v>429</v>
+      </c>
+      <c r="H835" t="s">
+        <v>761</v>
+      </c>
+      <c r="I835" t="s">
+        <v>19</v>
+      </c>
+      <c r="J835">
+        <v>1</v>
+      </c>
+      <c r="K835">
+        <v>220493</v>
+      </c>
+      <c r="L835">
+        <v>220493</v>
+      </c>
+    </row>
+    <row r="836" spans="1:12">
+      <c r="A836">
+        <v>833</v>
+      </c>
+      <c r="B836">
+        <v>626402</v>
+      </c>
+      <c r="C836" t="s">
+        <v>13</v>
+      </c>
+      <c r="D836" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E836" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F836" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G836" t="s">
+        <v>429</v>
+      </c>
+      <c r="H836" t="s">
+        <v>1188</v>
+      </c>
+      <c r="I836" t="s">
+        <v>19</v>
+      </c>
+      <c r="J836">
+        <v>1</v>
+      </c>
+      <c r="K836">
+        <v>385000</v>
+      </c>
+      <c r="L836">
+        <v>385000</v>
+      </c>
+    </row>
+    <row r="837" spans="1:12">
+      <c r="A837">
+        <v>834</v>
+      </c>
+      <c r="B837">
+        <v>626402</v>
+      </c>
+      <c r="C837" t="s">
+        <v>13</v>
+      </c>
+      <c r="D837" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E837" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F837" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G837" t="s">
+        <v>429</v>
+      </c>
+      <c r="H837" t="s">
+        <v>1189</v>
+      </c>
+      <c r="I837" t="s">
+        <v>19</v>
+      </c>
+      <c r="J837">
+        <v>1</v>
+      </c>
+      <c r="K837">
+        <v>3577225</v>
+      </c>
+      <c r="L837">
+        <v>3577225</v>
+      </c>
+    </row>
+    <row r="838" spans="1:12">
+      <c r="A838">
+        <v>835</v>
+      </c>
+      <c r="B838">
+        <v>626402</v>
+      </c>
+      <c r="C838" t="s">
+        <v>13</v>
+      </c>
+      <c r="D838" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E838" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F838" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G838" t="s">
+        <v>429</v>
+      </c>
+      <c r="H838" t="s">
+        <v>267</v>
+      </c>
+      <c r="I838" t="s">
+        <v>19</v>
+      </c>
+      <c r="J838">
+        <v>1</v>
+      </c>
+      <c r="K838">
+        <v>1998500</v>
+      </c>
+      <c r="L838">
+        <v>1998500</v>
+      </c>
+    </row>
+    <row r="839" spans="1:12">
+      <c r="A839">
+        <v>836</v>
+      </c>
+      <c r="B839">
+        <v>626402</v>
+      </c>
+      <c r="C839" t="s">
+        <v>13</v>
+      </c>
+      <c r="D839" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E839" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F839" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G839" t="s">
+        <v>429</v>
+      </c>
+      <c r="H839" t="s">
+        <v>1190</v>
+      </c>
+      <c r="I839" t="s">
+        <v>19</v>
+      </c>
+      <c r="J839">
+        <v>1</v>
+      </c>
+      <c r="K839">
+        <v>926000</v>
+      </c>
+      <c r="L839">
+        <v>926000</v>
+      </c>
+    </row>
+    <row r="840" spans="1:12">
+      <c r="A840">
+        <v>837</v>
+      </c>
+      <c r="B840">
+        <v>626402</v>
+      </c>
+      <c r="C840" t="s">
+        <v>13</v>
+      </c>
+      <c r="D840" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E840" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F840" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G840" t="s">
+        <v>429</v>
+      </c>
+      <c r="H840" t="s">
+        <v>1191</v>
+      </c>
+      <c r="I840" t="s">
+        <v>19</v>
+      </c>
+      <c r="J840">
+        <v>1</v>
+      </c>
+      <c r="K840">
+        <v>2800000</v>
+      </c>
+      <c r="L840">
+        <v>2800000</v>
+      </c>
+    </row>
+    <row r="841" spans="1:12">
+      <c r="A841">
+        <v>838</v>
+      </c>
+      <c r="B841">
+        <v>626402</v>
+      </c>
+      <c r="C841" t="s">
+        <v>13</v>
+      </c>
+      <c r="D841" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E841" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F841" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G841" t="s">
+        <v>429</v>
+      </c>
+      <c r="H841" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I841" t="s">
+        <v>19</v>
+      </c>
+      <c r="J841">
+        <v>1</v>
+      </c>
+      <c r="K841">
+        <v>1400000</v>
+      </c>
+      <c r="L841">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="842" spans="1:12">
+      <c r="A842">
+        <v>839</v>
+      </c>
+      <c r="B842">
+        <v>626402</v>
+      </c>
+      <c r="C842" t="s">
+        <v>13</v>
+      </c>
+      <c r="D842" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E842" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F842" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G842" t="s">
+        <v>429</v>
+      </c>
+      <c r="H842" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I842" t="s">
+        <v>19</v>
+      </c>
+      <c r="J842">
+        <v>1</v>
+      </c>
+      <c r="K842">
+        <v>1996750</v>
+      </c>
+      <c r="L842">
+        <v>1996750</v>
+      </c>
+    </row>
+    <row r="843" spans="1:12">
+      <c r="A843">
+        <v>840</v>
+      </c>
+      <c r="B843">
+        <v>626402</v>
+      </c>
+      <c r="C843" t="s">
+        <v>13</v>
+      </c>
+      <c r="D843" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E843" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F843" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G843" t="s">
+        <v>429</v>
+      </c>
+      <c r="H843" t="s">
+        <v>1194</v>
+      </c>
+      <c r="I843" t="s">
+        <v>19</v>
+      </c>
+      <c r="J843">
+        <v>1</v>
+      </c>
+      <c r="K843">
+        <v>147000</v>
+      </c>
+      <c r="L843">
+        <v>147000</v>
+      </c>
+    </row>
+    <row r="844" spans="1:12">
+      <c r="A844">
+        <v>841</v>
+      </c>
+      <c r="B844">
+        <v>626402</v>
+      </c>
+      <c r="C844" t="s">
+        <v>13</v>
+      </c>
+      <c r="D844" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E844" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F844" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G844" t="s">
+        <v>429</v>
+      </c>
+      <c r="H844" t="s">
+        <v>768</v>
+      </c>
+      <c r="I844" t="s">
+        <v>19</v>
+      </c>
+      <c r="J844">
+        <v>1</v>
+      </c>
+      <c r="K844">
+        <v>1600000</v>
+      </c>
+      <c r="L844">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="845" spans="1:12">
+      <c r="A845">
+        <v>842</v>
+      </c>
+      <c r="B845">
+        <v>626402</v>
+      </c>
+      <c r="C845" t="s">
+        <v>13</v>
+      </c>
+      <c r="D845" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E845" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F845" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G845" t="s">
+        <v>429</v>
+      </c>
+      <c r="H845" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I845" t="s">
+        <v>19</v>
+      </c>
+      <c r="J845">
+        <v>1</v>
+      </c>
+      <c r="K845">
+        <v>900000</v>
+      </c>
+      <c r="L845">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="846" spans="1:12">
+      <c r="A846">
+        <v>843</v>
+      </c>
+      <c r="B846">
+        <v>626402</v>
+      </c>
+      <c r="C846" t="s">
+        <v>13</v>
+      </c>
+      <c r="D846" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E846" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F846" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G846" t="s">
+        <v>429</v>
+      </c>
+      <c r="H846" t="s">
+        <v>432</v>
+      </c>
+      <c r="I846" t="s">
+        <v>19</v>
+      </c>
+      <c r="J846">
+        <v>1</v>
+      </c>
+      <c r="K846">
+        <v>750000</v>
+      </c>
+      <c r="L846">
+        <v>750000</v>
+      </c>
+    </row>
+    <row r="847" spans="1:12">
+      <c r="A847">
+        <v>844</v>
+      </c>
+      <c r="B847">
+        <v>626402</v>
+      </c>
+      <c r="C847" t="s">
+        <v>13</v>
+      </c>
+      <c r="D847" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E847" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F847" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G847" t="s">
+        <v>429</v>
+      </c>
+      <c r="H847" t="s">
+        <v>270</v>
+      </c>
+      <c r="I847" t="s">
+        <v>19</v>
+      </c>
+      <c r="J847">
+        <v>1</v>
+      </c>
+      <c r="K847">
+        <v>490000</v>
+      </c>
+      <c r="L847">
+        <v>490000</v>
+      </c>
+    </row>
+    <row r="848" spans="1:12">
+      <c r="A848">
+        <v>845</v>
+      </c>
+      <c r="B848">
+        <v>626402</v>
+      </c>
+      <c r="C848" t="s">
+        <v>13</v>
+      </c>
+      <c r="D848" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E848" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F848" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G848" t="s">
+        <v>429</v>
+      </c>
+      <c r="H848" t="s">
+        <v>271</v>
+      </c>
+      <c r="I848" t="s">
+        <v>19</v>
+      </c>
+      <c r="J848">
+        <v>1</v>
+      </c>
+      <c r="K848">
+        <v>3275000</v>
+      </c>
+      <c r="L848">
+        <v>3275000</v>
+      </c>
+    </row>
+    <row r="849" spans="1:12">
+      <c r="A849">
+        <v>846</v>
+      </c>
+      <c r="B849">
+        <v>626402</v>
+      </c>
+      <c r="C849" t="s">
+        <v>13</v>
+      </c>
+      <c r="D849" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E849" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F849" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G849" t="s">
+        <v>429</v>
+      </c>
+      <c r="H849" t="s">
+        <v>772</v>
+      </c>
+      <c r="I849" t="s">
+        <v>19</v>
+      </c>
+      <c r="J849">
+        <v>1</v>
+      </c>
+      <c r="K849">
+        <v>608500</v>
+      </c>
+      <c r="L849">
+        <v>608500</v>
+      </c>
+    </row>
+    <row r="850" spans="1:12">
+      <c r="A850">
+        <v>847</v>
+      </c>
+      <c r="B850">
+        <v>626402</v>
+      </c>
+      <c r="C850" t="s">
+        <v>13</v>
+      </c>
+      <c r="D850" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E850" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F850" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G850" t="s">
+        <v>429</v>
+      </c>
+      <c r="H850" t="s">
+        <v>272</v>
+      </c>
+      <c r="I850" t="s">
+        <v>19</v>
+      </c>
+      <c r="J850">
+        <v>1</v>
+      </c>
+      <c r="K850">
+        <v>7247431</v>
+      </c>
+      <c r="L850">
+        <v>7247431</v>
+      </c>
+    </row>
+    <row r="851" spans="1:12">
+      <c r="A851">
+        <v>848</v>
+      </c>
+      <c r="B851">
+        <v>626402</v>
+      </c>
+      <c r="C851" t="s">
+        <v>13</v>
+      </c>
+      <c r="D851" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E851" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F851" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G851" t="s">
+        <v>429</v>
+      </c>
+      <c r="H851" t="s">
+        <v>305</v>
+      </c>
+      <c r="I851" t="s">
+        <v>19</v>
+      </c>
+      <c r="J851">
+        <v>1</v>
+      </c>
+      <c r="K851">
+        <v>276000</v>
+      </c>
+      <c r="L851">
+        <v>276000</v>
+      </c>
+    </row>
+    <row r="852" spans="1:12">
+      <c r="A852">
+        <v>849</v>
+      </c>
+      <c r="B852">
+        <v>626402</v>
+      </c>
+      <c r="C852" t="s">
+        <v>13</v>
+      </c>
+      <c r="D852" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E852" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F852" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G852" t="s">
+        <v>429</v>
+      </c>
+      <c r="H852" t="s">
+        <v>386</v>
+      </c>
+      <c r="I852" t="s">
+        <v>19</v>
+      </c>
+      <c r="J852">
+        <v>1</v>
+      </c>
+      <c r="K852">
+        <v>3291500</v>
+      </c>
+      <c r="L852">
+        <v>3291500</v>
+      </c>
+    </row>
+    <row r="853" spans="1:12">
+      <c r="A853">
+        <v>850</v>
+      </c>
+      <c r="B853">
+        <v>626402</v>
+      </c>
+      <c r="C853" t="s">
+        <v>13</v>
+      </c>
+      <c r="D853" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E853" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F853" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G853" t="s">
+        <v>429</v>
+      </c>
+      <c r="H853" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I853" t="s">
+        <v>19</v>
+      </c>
+      <c r="J853">
+        <v>1</v>
+      </c>
+      <c r="K853">
+        <v>3365570</v>
+      </c>
+      <c r="L853">
+        <v>3365570</v>
+      </c>
+    </row>
+    <row r="854" spans="1:12">
+      <c r="A854">
+        <v>851</v>
+      </c>
+      <c r="B854">
+        <v>626402</v>
+      </c>
+      <c r="C854" t="s">
+        <v>13</v>
+      </c>
+      <c r="D854" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E854" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F854" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G854" t="s">
+        <v>429</v>
+      </c>
+      <c r="H854" t="s">
+        <v>387</v>
+      </c>
+      <c r="I854" t="s">
+        <v>19</v>
+      </c>
+      <c r="J854">
+        <v>1</v>
+      </c>
+      <c r="K854">
+        <v>2455000</v>
+      </c>
+      <c r="L854">
+        <v>2455000</v>
+      </c>
+    </row>
+    <row r="855" spans="1:12">
+      <c r="A855">
+        <v>852</v>
+      </c>
+      <c r="B855">
+        <v>626402</v>
+      </c>
+      <c r="C855" t="s">
+        <v>13</v>
+      </c>
+      <c r="D855" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E855" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F855" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G855" t="s">
+        <v>429</v>
+      </c>
+      <c r="H855" t="s">
+        <v>1197</v>
+      </c>
+      <c r="I855" t="s">
+        <v>19</v>
+      </c>
+      <c r="J855">
+        <v>1</v>
+      </c>
+      <c r="K855">
+        <v>7154500</v>
+      </c>
+      <c r="L855">
+        <v>7154500</v>
+      </c>
+    </row>
+    <row r="856" spans="1:12">
+      <c r="A856">
+        <v>853</v>
+      </c>
+      <c r="B856">
+        <v>626402</v>
+      </c>
+      <c r="C856" t="s">
+        <v>13</v>
+      </c>
+      <c r="D856" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E856" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F856" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G856" t="s">
+        <v>429</v>
+      </c>
+      <c r="H856" t="s">
+        <v>750</v>
+      </c>
+      <c r="I856" t="s">
+        <v>19</v>
+      </c>
+      <c r="J856">
+        <v>1</v>
+      </c>
+      <c r="K856">
+        <v>300000</v>
+      </c>
+      <c r="L856">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="857" spans="1:12">
+      <c r="A857">
+        <v>854</v>
+      </c>
+      <c r="B857">
+        <v>626402</v>
+      </c>
+      <c r="C857" t="s">
+        <v>13</v>
+      </c>
+      <c r="D857" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E857" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F857" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G857" t="s">
+        <v>429</v>
+      </c>
+      <c r="H857" t="s">
+        <v>667</v>
+      </c>
+      <c r="I857" t="s">
+        <v>19</v>
+      </c>
+      <c r="J857">
+        <v>1</v>
+      </c>
+      <c r="K857">
+        <v>6616700</v>
+      </c>
+      <c r="L857">
+        <v>6616700</v>
+      </c>
+    </row>
+    <row r="858" spans="1:12">
+      <c r="A858">
+        <v>855</v>
+      </c>
+      <c r="B858">
+        <v>626402</v>
+      </c>
+      <c r="C858" t="s">
+        <v>13</v>
+      </c>
+      <c r="D858" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E858" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F858" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G858" t="s">
+        <v>429</v>
+      </c>
+      <c r="H858" t="s">
+        <v>274</v>
+      </c>
+      <c r="I858" t="s">
+        <v>19</v>
+      </c>
+      <c r="J858">
+        <v>1</v>
+      </c>
+      <c r="K858">
+        <v>1651679</v>
+      </c>
+      <c r="L858">
+        <v>1651679</v>
+      </c>
+    </row>
+    <row r="859" spans="1:12">
+      <c r="A859">
+        <v>856</v>
+      </c>
+      <c r="B859">
+        <v>626402</v>
+      </c>
+      <c r="C859" t="s">
+        <v>13</v>
+      </c>
+      <c r="D859" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E859" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F859" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G859" t="s">
+        <v>429</v>
+      </c>
+      <c r="H859" t="s">
+        <v>518</v>
+      </c>
+      <c r="I859" t="s">
+        <v>19</v>
+      </c>
+      <c r="J859">
+        <v>1</v>
+      </c>
+      <c r="K859">
+        <v>6634200</v>
+      </c>
+      <c r="L859">
+        <v>6634200</v>
+      </c>
+    </row>
+    <row r="860" spans="1:12">
+      <c r="A860">
+        <v>857</v>
+      </c>
+      <c r="B860">
+        <v>626402</v>
+      </c>
+      <c r="C860" t="s">
+        <v>13</v>
+      </c>
+      <c r="D860" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E860" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F860" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G860" t="s">
+        <v>429</v>
+      </c>
+      <c r="H860" t="s">
+        <v>724</v>
+      </c>
+      <c r="I860" t="s">
+        <v>19</v>
+      </c>
+      <c r="J860">
+        <v>1</v>
+      </c>
+      <c r="K860">
+        <v>105000</v>
+      </c>
+      <c r="L860">
+        <v>105000</v>
+      </c>
+    </row>
+    <row r="861" spans="1:12">
+      <c r="A861">
+        <v>858</v>
+      </c>
+      <c r="B861">
+        <v>626402</v>
+      </c>
+      <c r="C861" t="s">
+        <v>13</v>
+      </c>
+      <c r="D861" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E861" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F861" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G861" t="s">
+        <v>429</v>
+      </c>
+      <c r="H861" t="s">
+        <v>275</v>
+      </c>
+      <c r="I861" t="s">
+        <v>19</v>
+      </c>
+      <c r="J861">
+        <v>1</v>
+      </c>
+      <c r="K861">
+        <v>1640000</v>
+      </c>
+      <c r="L861">
+        <v>1640000</v>
+      </c>
+    </row>
+    <row r="862" spans="1:12">
+      <c r="A862">
+        <v>859</v>
+      </c>
+      <c r="B862">
+        <v>626402</v>
+      </c>
+      <c r="C862" t="s">
+        <v>13</v>
+      </c>
+      <c r="D862" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E862" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F862" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G862" t="s">
+        <v>429</v>
+      </c>
+      <c r="H862" t="s">
+        <v>734</v>
+      </c>
+      <c r="I862" t="s">
+        <v>19</v>
+      </c>
+      <c r="J862">
+        <v>1</v>
+      </c>
+      <c r="K862">
+        <v>340000</v>
+      </c>
+      <c r="L862">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="863" spans="1:12">
+      <c r="A863">
+        <v>860</v>
+      </c>
+      <c r="B863">
+        <v>626402</v>
+      </c>
+      <c r="C863" t="s">
+        <v>13</v>
+      </c>
+      <c r="D863" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E863" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F863" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G863" t="s">
+        <v>429</v>
+      </c>
+      <c r="H863" t="s">
+        <v>307</v>
+      </c>
+      <c r="I863" t="s">
+        <v>19</v>
+      </c>
+      <c r="J863">
+        <v>1</v>
+      </c>
+      <c r="K863">
+        <v>840000</v>
+      </c>
+      <c r="L863">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="864" spans="1:12">
+      <c r="A864">
+        <v>861</v>
+      </c>
+      <c r="B864">
+        <v>626402</v>
+      </c>
+      <c r="C864" t="s">
+        <v>13</v>
+      </c>
+      <c r="D864" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E864" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F864" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G864" t="s">
+        <v>429</v>
+      </c>
+      <c r="H864" t="s">
+        <v>308</v>
+      </c>
+      <c r="I864" t="s">
+        <v>19</v>
+      </c>
+      <c r="J864">
+        <v>1</v>
+      </c>
+      <c r="K864">
+        <v>1530000</v>
+      </c>
+      <c r="L864">
+        <v>1530000</v>
+      </c>
+    </row>
+    <row r="865" spans="1:12">
+      <c r="A865">
+        <v>862</v>
+      </c>
+      <c r="B865">
+        <v>626402</v>
+      </c>
+      <c r="C865" t="s">
+        <v>13</v>
+      </c>
+      <c r="D865" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E865" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F865" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G865" t="s">
+        <v>429</v>
+      </c>
+      <c r="H865" t="s">
+        <v>1198</v>
+      </c>
+      <c r="I865" t="s">
+        <v>19</v>
+      </c>
+      <c r="J865">
+        <v>1</v>
+      </c>
+      <c r="K865">
+        <v>260000</v>
+      </c>
+      <c r="L865">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="866" spans="1:12">
+      <c r="A866">
+        <v>863</v>
+      </c>
+      <c r="B866">
+        <v>626402</v>
+      </c>
+      <c r="C866" t="s">
+        <v>13</v>
+      </c>
+      <c r="D866" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E866" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F866" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G866" t="s">
+        <v>429</v>
+      </c>
+      <c r="H866" t="s">
+        <v>671</v>
+      </c>
+      <c r="I866" t="s">
+        <v>19</v>
+      </c>
+      <c r="J866">
+        <v>1</v>
+      </c>
+      <c r="K866">
+        <v>340000</v>
+      </c>
+      <c r="L866">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="867" spans="1:12">
+      <c r="A867">
+        <v>864</v>
+      </c>
+      <c r="B867">
+        <v>626402</v>
+      </c>
+      <c r="C867" t="s">
+        <v>13</v>
+      </c>
+      <c r="D867" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E867" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F867" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G867" t="s">
+        <v>429</v>
+      </c>
+      <c r="H867" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I867" t="s">
+        <v>19</v>
+      </c>
+      <c r="J867">
+        <v>1</v>
+      </c>
+      <c r="K867">
+        <v>340000</v>
+      </c>
+      <c r="L867">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="868" spans="1:12">
+      <c r="A868">
+        <v>865</v>
+      </c>
+      <c r="B868">
+        <v>626402</v>
+      </c>
+      <c r="C868" t="s">
+        <v>13</v>
+      </c>
+      <c r="D868" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E868" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F868" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G868" t="s">
+        <v>429</v>
+      </c>
+      <c r="H868" t="s">
+        <v>1199</v>
+      </c>
+      <c r="I868" t="s">
+        <v>19</v>
+      </c>
+      <c r="J868">
+        <v>1</v>
+      </c>
+      <c r="K868">
+        <v>890000</v>
+      </c>
+      <c r="L868">
+        <v>890000</v>
+      </c>
+    </row>
+    <row r="869" spans="1:12">
+      <c r="A869">
+        <v>866</v>
+      </c>
+      <c r="B869">
+        <v>626402</v>
+      </c>
+      <c r="C869" t="s">
+        <v>13</v>
+      </c>
+      <c r="D869" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E869" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F869" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G869" t="s">
+        <v>429</v>
+      </c>
+      <c r="H869" t="s">
+        <v>1200</v>
+      </c>
+      <c r="I869" t="s">
+        <v>19</v>
+      </c>
+      <c r="J869">
+        <v>1</v>
+      </c>
+      <c r="K869">
+        <v>850000</v>
+      </c>
+      <c r="L869">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="870" spans="1:12">
+      <c r="A870">
+        <v>867</v>
+      </c>
+      <c r="B870">
+        <v>626402</v>
+      </c>
+      <c r="C870" t="s">
+        <v>13</v>
+      </c>
+      <c r="D870" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E870" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F870" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G870" t="s">
+        <v>429</v>
+      </c>
+      <c r="H870" t="s">
+        <v>312</v>
+      </c>
+      <c r="I870" t="s">
+        <v>19</v>
+      </c>
+      <c r="J870">
+        <v>1</v>
+      </c>
+      <c r="K870">
+        <v>340000</v>
+      </c>
+      <c r="L870">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="871" spans="1:12">
+      <c r="A871">
+        <v>868</v>
+      </c>
+      <c r="B871">
+        <v>626402</v>
+      </c>
+      <c r="C871" t="s">
+        <v>13</v>
+      </c>
+      <c r="D871" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E871" t="s">
+        <v>1186</v>
+      </c>
+      <c r="F871" t="s">
+        <v>1187</v>
+      </c>
+      <c r="G871" t="s">
+        <v>429</v>
+      </c>
+      <c r="H871" t="s">
+        <v>388</v>
+      </c>
+      <c r="I871" t="s">
+        <v>19</v>
+      </c>
+      <c r="J871">
+        <v>1</v>
+      </c>
+      <c r="K871">
+        <v>680000</v>
+      </c>
+      <c r="L871">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="872" spans="1:12">
+      <c r="A872">
+        <v>869</v>
+      </c>
+      <c r="B872">
+        <v>626402</v>
+      </c>
+      <c r="C872" t="s">
+        <v>13</v>
+      </c>
+      <c r="D872" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E872" t="s">
+        <v>1201</v>
+      </c>
+      <c r="F872" t="s">
+        <v>1202</v>
+      </c>
+      <c r="G872" t="s">
+        <v>1203</v>
+      </c>
+      <c r="H872" t="s">
+        <v>284</v>
+      </c>
+      <c r="I872" t="s">
+        <v>19</v>
+      </c>
+      <c r="J872">
+        <v>1</v>
+      </c>
+      <c r="K872">
+        <v>9616780</v>
+      </c>
+      <c r="L872">
+        <v>9616780</v>
+      </c>
+    </row>
+    <row r="873" spans="1:12">
+      <c r="A873">
+        <v>870</v>
+      </c>
+      <c r="B873">
+        <v>626402</v>
+      </c>
+      <c r="C873" t="s">
+        <v>13</v>
+      </c>
+      <c r="D873" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E873" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F873" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G873" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H873" t="s">
+        <v>284</v>
+      </c>
+      <c r="I873" t="s">
+        <v>19</v>
+      </c>
+      <c r="J873">
+        <v>1</v>
+      </c>
+      <c r="K873">
+        <v>1556500</v>
+      </c>
+      <c r="L873">
+        <v>1556500</v>
+      </c>
+    </row>
+    <row r="874" spans="1:12">
+      <c r="A874">
+        <v>871</v>
+      </c>
+      <c r="B874">
+        <v>626402</v>
+      </c>
+      <c r="C874" t="s">
+        <v>13</v>
+      </c>
+      <c r="D874" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E874" t="s">
+        <v>1207</v>
+      </c>
+      <c r="F874" t="s">
+        <v>1208</v>
+      </c>
+      <c r="G874" t="s">
+        <v>1209</v>
+      </c>
+      <c r="H874" t="s">
+        <v>272</v>
+      </c>
+      <c r="I874" t="s">
+        <v>19</v>
+      </c>
+      <c r="J874">
+        <v>1</v>
+      </c>
+      <c r="K874">
+        <v>910131</v>
+      </c>
+      <c r="L874">
+        <v>910131</v>
+      </c>
+    </row>
+    <row r="875" spans="1:12">
+      <c r="A875">
+        <v>872</v>
+      </c>
+      <c r="B875">
+        <v>626402</v>
+      </c>
+      <c r="C875" t="s">
+        <v>13</v>
+      </c>
+      <c r="D875" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E875" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F875" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G875" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H875" t="s">
+        <v>272</v>
+      </c>
+      <c r="I875" t="s">
+        <v>19</v>
+      </c>
+      <c r="J875">
+        <v>1</v>
+      </c>
+      <c r="K875">
+        <v>661000</v>
+      </c>
+      <c r="L875">
+        <v>661000</v>
+      </c>
+    </row>
+    <row r="876" spans="1:12">
+      <c r="A876">
+        <v>873</v>
+      </c>
+      <c r="B876">
+        <v>626402</v>
+      </c>
+      <c r="C876" t="s">
+        <v>13</v>
+      </c>
+      <c r="D876" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E876" t="s">
+        <v>1213</v>
+      </c>
+      <c r="F876" t="s">
+        <v>1214</v>
+      </c>
+      <c r="G876" t="s">
+        <v>1215</v>
+      </c>
+      <c r="H876" t="s">
+        <v>275</v>
+      </c>
+      <c r="I876" t="s">
+        <v>19</v>
+      </c>
+      <c r="J876">
+        <v>1</v>
+      </c>
+      <c r="K876">
+        <v>930000</v>
+      </c>
+      <c r="L876">
+        <v>930000</v>
+      </c>
+    </row>
+    <row r="877" spans="1:12">
+      <c r="A877">
+        <v>874</v>
+      </c>
+      <c r="B877">
+        <v>626402</v>
+      </c>
+      <c r="C877" t="s">
+        <v>13</v>
+      </c>
+      <c r="D877" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E877" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F877" t="s">
+        <v>1217</v>
+      </c>
+      <c r="G877" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H877" t="s">
+        <v>275</v>
+      </c>
+      <c r="I877" t="s">
+        <v>19</v>
+      </c>
+      <c r="J877">
+        <v>1</v>
+      </c>
+      <c r="K877">
+        <v>2060500</v>
+      </c>
+      <c r="L877">
+        <v>2060500</v>
+      </c>
+    </row>
+    <row r="878" spans="1:12">
+      <c r="A878">
+        <v>875</v>
+      </c>
+      <c r="B878">
+        <v>626402</v>
+      </c>
+      <c r="C878" t="s">
+        <v>13</v>
+      </c>
+      <c r="D878" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E878" t="s">
+        <v>1219</v>
+      </c>
+      <c r="F878" t="s">
+        <v>1220</v>
+      </c>
+      <c r="G878" t="s">
+        <v>1221</v>
+      </c>
+      <c r="H878" t="s">
+        <v>275</v>
+      </c>
+      <c r="I878" t="s">
+        <v>19</v>
+      </c>
+      <c r="J878">
+        <v>1</v>
+      </c>
+      <c r="K878">
+        <v>580000</v>
+      </c>
+      <c r="L878">
+        <v>580000</v>
+      </c>
+    </row>
+    <row r="879" spans="1:12">
+      <c r="A879">
+        <v>876</v>
+      </c>
+      <c r="B879">
+        <v>626402</v>
+      </c>
+      <c r="C879" t="s">
+        <v>13</v>
+      </c>
+      <c r="D879" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E879" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F879" t="s">
+        <v>1223</v>
+      </c>
+      <c r="G879" t="s">
+        <v>1224</v>
+      </c>
+      <c r="H879" t="s">
+        <v>704</v>
+      </c>
+      <c r="I879" t="s">
+        <v>19</v>
+      </c>
+      <c r="J879">
+        <v>1</v>
+      </c>
+      <c r="K879">
+        <v>7430266</v>
+      </c>
+      <c r="L879">
+        <v>7430266</v>
+      </c>
+    </row>
+    <row r="880" spans="1:12">
+      <c r="A880">
+        <v>877</v>
+      </c>
+      <c r="B880">
+        <v>626402</v>
+      </c>
+      <c r="C880" t="s">
+        <v>13</v>
+      </c>
+      <c r="D880" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E880" t="s">
+        <v>1225</v>
+      </c>
+      <c r="F880" t="s">
+        <v>1226</v>
+      </c>
+      <c r="G880" t="s">
+        <v>1227</v>
+      </c>
+      <c r="H880" t="s">
+        <v>192</v>
+      </c>
+      <c r="I880" t="s">
+        <v>19</v>
+      </c>
+      <c r="J880">
+        <v>1</v>
+      </c>
+      <c r="K880">
+        <v>11133749</v>
+      </c>
+      <c r="L880">
+        <v>11133749</v>
+      </c>
+    </row>
+    <row r="881" spans="1:12">
+      <c r="A881">
+        <v>878</v>
+      </c>
+      <c r="B881">
+        <v>626402</v>
+      </c>
+      <c r="C881" t="s">
+        <v>13</v>
+      </c>
+      <c r="D881" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E881" t="s">
+        <v>1228</v>
+      </c>
+      <c r="F881" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G881" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H881" t="s">
+        <v>703</v>
+      </c>
+      <c r="I881" t="s">
+        <v>19</v>
+      </c>
+      <c r="J881">
+        <v>1</v>
+      </c>
+      <c r="K881">
+        <v>3426080</v>
+      </c>
+      <c r="L881">
+        <v>3426080</v>
+      </c>
+    </row>
+    <row r="882" spans="1:12">
+      <c r="A882">
+        <v>879</v>
+      </c>
+      <c r="B882">
+        <v>626402</v>
+      </c>
+      <c r="C882" t="s">
+        <v>13</v>
+      </c>
+      <c r="D882" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E882" t="s">
+        <v>1231</v>
+      </c>
+      <c r="F882" t="s">
+        <v>1232</v>
+      </c>
+      <c r="G882" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H882" t="s">
+        <v>414</v>
+      </c>
+      <c r="I882" t="s">
+        <v>19</v>
+      </c>
+      <c r="J882">
+        <v>1</v>
+      </c>
+      <c r="K882">
+        <v>222851484</v>
+      </c>
+      <c r="L882">
+        <v>222851484</v>
+      </c>
+    </row>
+    <row r="883" spans="1:12">
+      <c r="A883">
+        <v>880</v>
+      </c>
+      <c r="B883">
+        <v>626402</v>
+      </c>
+      <c r="C883" t="s">
+        <v>13</v>
+      </c>
+      <c r="D883" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E883" t="s">
+        <v>1234</v>
+      </c>
+      <c r="F883" t="s">
+        <v>1235</v>
+      </c>
+      <c r="G883" t="s">
+        <v>1236</v>
+      </c>
+      <c r="H883" t="s">
+        <v>724</v>
+      </c>
+      <c r="I883" t="s">
+        <v>19</v>
+      </c>
+      <c r="J883">
+        <v>1</v>
+      </c>
+      <c r="K883">
+        <v>1544810</v>
+      </c>
+      <c r="L883">
+        <v>1544810</v>
+      </c>
+    </row>
+    <row r="884" spans="1:12">
+      <c r="A884">
+        <v>881</v>
+      </c>
+      <c r="B884">
+        <v>626402</v>
+      </c>
+      <c r="C884" t="s">
+        <v>13</v>
+      </c>
+      <c r="D884" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E884" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F884" t="s">
+        <v>1238</v>
+      </c>
+      <c r="G884" t="s">
+        <v>1239</v>
+      </c>
+      <c r="H884" t="s">
+        <v>1240</v>
+      </c>
+      <c r="I884" t="s">
+        <v>19</v>
+      </c>
+      <c r="J884">
+        <v>1</v>
+      </c>
+      <c r="K884">
+        <v>103750000</v>
+      </c>
+      <c r="L884">
+        <v>103750000</v>
+      </c>
+    </row>
+    <row r="885" spans="1:12">
+      <c r="A885">
+        <v>882</v>
+      </c>
+      <c r="B885">
+        <v>626402</v>
+      </c>
+      <c r="C885" t="s">
+        <v>13</v>
+      </c>
+      <c r="D885" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E885" t="s">
+        <v>1241</v>
+      </c>
+      <c r="F885" t="s">
+        <v>1242</v>
+      </c>
+      <c r="G885" t="s">
+        <v>1243</v>
+      </c>
+      <c r="H885" t="s">
+        <v>732</v>
+      </c>
+      <c r="I885" t="s">
+        <v>19</v>
+      </c>
+      <c r="J885">
+        <v>1</v>
+      </c>
+      <c r="K885">
+        <v>8947677</v>
+      </c>
+      <c r="L885">
+        <v>8947677</v>
+      </c>
+    </row>
+    <row r="886" spans="1:12">
+      <c r="A886">
+        <v>883</v>
+      </c>
+      <c r="B886">
+        <v>626402</v>
+      </c>
+      <c r="C886" t="s">
+        <v>13</v>
+      </c>
+      <c r="D886" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E886" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F886" t="s">
+        <v>1245</v>
+      </c>
+      <c r="G886" t="s">
+        <v>1246</v>
+      </c>
+      <c r="H886" t="s">
+        <v>732</v>
+      </c>
+      <c r="I886" t="s">
+        <v>19</v>
+      </c>
+      <c r="J886">
+        <v>1</v>
+      </c>
+      <c r="K886">
+        <v>9935251</v>
+      </c>
+      <c r="L886">
+        <v>9935251</v>
+      </c>
+    </row>
+    <row r="887" spans="1:12">
+      <c r="A887">
+        <v>884</v>
+      </c>
+      <c r="B887">
+        <v>626402</v>
+      </c>
+      <c r="C887" t="s">
+        <v>13</v>
+      </c>
+      <c r="D887" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E887" t="s">
+        <v>1248</v>
+      </c>
+      <c r="F887" t="s">
+        <v>1249</v>
+      </c>
+      <c r="G887" t="s">
+        <v>1250</v>
+      </c>
+      <c r="H887" t="s">
+        <v>363</v>
+      </c>
+      <c r="I887" t="s">
+        <v>19</v>
+      </c>
+      <c r="J887">
+        <v>1</v>
+      </c>
+      <c r="K887">
+        <v>6052227</v>
+      </c>
+      <c r="L887">
+        <v>6052227</v>
+      </c>
+    </row>
+    <row r="888" spans="1:12">
+      <c r="A888">
+        <v>885</v>
+      </c>
+      <c r="B888">
+        <v>626402</v>
+      </c>
+      <c r="C888" t="s">
+        <v>13</v>
+      </c>
+      <c r="D888" t="s">
+        <v>1247</v>
+      </c>
+      <c r="E888" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F888" t="s">
+        <v>1252</v>
+      </c>
+      <c r="G888" t="s">
+        <v>1253</v>
+      </c>
+      <c r="H888" t="s">
+        <v>363</v>
+      </c>
+      <c r="I888" t="s">
+        <v>19</v>
+      </c>
+      <c r="J888">
+        <v>1</v>
+      </c>
+      <c r="K888">
+        <v>7091500</v>
+      </c>
+      <c r="L888">
+        <v>7091500</v>
+      </c>
+    </row>
+    <row r="889" spans="1:12">
+      <c r="A889">
+        <v>886</v>
+      </c>
+      <c r="B889">
+        <v>626402</v>
+      </c>
+      <c r="C889" t="s">
+        <v>13</v>
+      </c>
+      <c r="D889" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E889" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F889" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G889" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H889" t="s">
+        <v>18</v>
+      </c>
+      <c r="I889" t="s">
+        <v>19</v>
+      </c>
+      <c r="J889">
+        <v>1</v>
+      </c>
+      <c r="K889">
+        <v>38825000</v>
+      </c>
+      <c r="L889">
+        <v>38825000</v>
+      </c>
+    </row>
+    <row r="890" spans="1:12">
+      <c r="A890">
+        <v>887</v>
+      </c>
+      <c r="B890">
+        <v>626402</v>
+      </c>
+      <c r="C890" t="s">
+        <v>13</v>
+      </c>
+      <c r="D890" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E890" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F890" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G890" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H890" t="s">
+        <v>20</v>
+      </c>
+      <c r="I890" t="s">
+        <v>19</v>
+      </c>
+      <c r="J890">
+        <v>1</v>
+      </c>
+      <c r="K890">
+        <v>3946</v>
+      </c>
+      <c r="L890">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="891" spans="1:12">
+      <c r="A891">
+        <v>888</v>
+      </c>
+      <c r="B891">
+        <v>626402</v>
+      </c>
+      <c r="C891" t="s">
+        <v>13</v>
+      </c>
+      <c r="D891" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E891" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F891" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G891" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H891" t="s">
+        <v>21</v>
+      </c>
+      <c r="I891" t="s">
+        <v>19</v>
+      </c>
+      <c r="J891">
+        <v>1</v>
+      </c>
+      <c r="K891">
+        <v>2349900</v>
+      </c>
+      <c r="L891">
+        <v>2349900</v>
+      </c>
+    </row>
+    <row r="892" spans="1:12">
+      <c r="A892">
+        <v>889</v>
+      </c>
+      <c r="B892">
+        <v>626402</v>
+      </c>
+      <c r="C892" t="s">
+        <v>13</v>
+      </c>
+      <c r="D892" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E892" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F892" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G892" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H892" t="s">
+        <v>22</v>
+      </c>
+      <c r="I892" t="s">
+        <v>19</v>
+      </c>
+      <c r="J892">
+        <v>1</v>
+      </c>
+      <c r="K892">
+        <v>840300</v>
+      </c>
+      <c r="L892">
+        <v>840300</v>
+      </c>
+    </row>
+    <row r="893" spans="1:12">
+      <c r="A893">
+        <v>890</v>
+      </c>
+      <c r="B893">
+        <v>626402</v>
+      </c>
+      <c r="C893" t="s">
+        <v>13</v>
+      </c>
+      <c r="D893" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E893" t="s">
+        <v>1254</v>
+      </c>
+      <c r="F893" t="s">
+        <v>1255</v>
+      </c>
+      <c r="G893" t="s">
+        <v>1256</v>
+      </c>
+      <c r="H893" t="s">
+        <v>24</v>
+      </c>
+      <c r="I893" t="s">
+        <v>19</v>
+      </c>
+      <c r="J893">
+        <v>1</v>
+      </c>
+      <c r="K893">
+        <v>793498</v>
+      </c>
+      <c r="L893">
+        <v>793498</v>
+      </c>
+    </row>
+    <row r="894" spans="1:12">
+      <c r="A894">
+        <v>891</v>
+      </c>
+      <c r="B894">
+        <v>626402</v>
+      </c>
+      <c r="C894" t="s">
+        <v>13</v>
+      </c>
+      <c r="D894" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E894" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F894" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G894" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H894" t="s">
+        <v>18</v>
+      </c>
+      <c r="I894" t="s">
+        <v>19</v>
+      </c>
+      <c r="J894">
+        <v>1</v>
+      </c>
+      <c r="K894">
+        <v>671000</v>
+      </c>
+      <c r="L894">
+        <v>671000</v>
+      </c>
+    </row>
+    <row r="895" spans="1:12">
+      <c r="A895">
+        <v>892</v>
+      </c>
+      <c r="B895">
+        <v>626402</v>
+      </c>
+      <c r="C895" t="s">
+        <v>13</v>
+      </c>
+      <c r="D895" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E895" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F895" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G895" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H895" t="s">
+        <v>20</v>
+      </c>
+      <c r="I895" t="s">
+        <v>19</v>
+      </c>
+      <c r="J895">
+        <v>1</v>
+      </c>
+      <c r="K895">
+        <v>80</v>
+      </c>
+      <c r="L895">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="896" spans="1:12">
+      <c r="A896">
+        <v>893</v>
+      </c>
+      <c r="B896">
+        <v>626402</v>
+      </c>
+      <c r="C896" t="s">
+        <v>13</v>
+      </c>
+      <c r="D896" t="s">
+        <v>1154</v>
+      </c>
+      <c r="E896" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F896" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G896" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H896" t="s">
+        <v>24</v>
+      </c>
+      <c r="I896" t="s">
+        <v>19</v>
+      </c>
+      <c r="J896">
+        <v>1</v>
+      </c>
+      <c r="K896">
+        <v>21667</v>
+      </c>
+      <c r="L896">
+        <v>21667</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1382">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1627">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -4151,6 +4151,18 @@
     <t xml:space="preserve">Pembayaran Belanja Barang Sesuai Kuitansi Nomor:1300034435 Tanggal 29-2-2024 </t>
   </si>
   <si>
+    <t>2024-03-27</t>
+  </si>
+  <si>
+    <t>'00328T</t>
+  </si>
+  <si>
+    <t>'241751303008473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai Kuitansi Nomor:002/KWT/BIP/III/2024 Tgl.6-3-2024 </t>
+  </si>
+  <si>
     <t>'00329T</t>
   </si>
   <si>
@@ -4161,6 +4173,729 @@
   </si>
   <si>
     <t>'626402.175.524119.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001649</t>
+  </si>
+  <si>
+    <t>2024-03-26</t>
+  </si>
+  <si>
+    <t>'00331T</t>
+  </si>
+  <si>
+    <t>'241751303007898</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perdin untuk 7 Pegawai sesuai ST Nomor B.2612/BPPSDM.1/KP.440/III/2024 tanggal 4 Maret 2024 a.n. Putut Erie Sudjito, dkk</t>
+  </si>
+  <si>
+    <t>'00333T</t>
+  </si>
+  <si>
+    <t>'241751303007899</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perdin untuk 6 Pegawai sesuai ST Nomor B.1240,1420/BPPSDM.1/KP.440/II/2024 tanggal 22,29 Februari 2024 dan B.2791/BPPSDM.1/KP.440/III/2024 tanggal 13 Maret 2024 a.n. Ronny, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.106.0B.001726</t>
+  </si>
+  <si>
+    <t>'00334T</t>
+  </si>
+  <si>
+    <t>'241751303008456</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang.Perjalanan Dinas Jakarta-AUP Serang an Sutrisno, dkk dalam rangka Pengendalian Sarpras Satdik sesuai SPT No.B.447/BPPSDM.4/KP.440/II/2024 tanggal 22 Feb 2024</t>
+  </si>
+  <si>
+    <t>'00335T</t>
+  </si>
+  <si>
+    <t>'241751302008762</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya Pendidikan Pascasarjana Univ. Sebelas Maret Sem II,III,IV an. Anifa dan Bambang sesuai kwitansi nomor 1522/UN27/KU/2024 tanggal 14 Maret 2024</t>
+  </si>
+  <si>
+    <t>'00338T</t>
+  </si>
+  <si>
+    <t>'241751303008438</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Penyelenggaraan Pendidikan Tubel Program S3 dan S2 Bagi PNS di ling KKP sesuai SPK No.148/PPK.PUSDIK/PL.530/II/2024 tgl 26/02/2024, BAST No.192/PPK.PUSDIK/PL.530/III/2024 tgl 14/03/2024, BAP No.193/PPK.PUSDIK/PL.530/III/2024</t>
+  </si>
+  <si>
+    <t>'00339T</t>
+  </si>
+  <si>
+    <t>'241751303008463</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Penyelenggaraan Tubel Prog S3 dan S2 Bagi PNS di KKP sesuai SPK No.143/PPK.PUSDIK/PL.530/II/2024 tgl 26/02/2024, BAST No.188/PPK.PUSDIK/PL.530/III/2024 tgl 14/03/2024, BAP No.189/PPK.PUSDIK/PL.530/III/2024 tgl 14/03/2024</t>
+  </si>
+  <si>
+    <t>2024-03-25</t>
+  </si>
+  <si>
+    <t>'00340T</t>
+  </si>
+  <si>
+    <t>'241751303007856</t>
+  </si>
+  <si>
+    <t>'626402.175.521114.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DB.000541</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DD.000554</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DD.000555</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DD.000556</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DD.000557</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.201.0B.001282</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.201.0C.001140</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.201.0C.001141</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.201.0D.001145</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.201.0A.000614</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.201.0A.000615</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.201.0C.000625</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.201.0C.000626</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DA.000535</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DA.000536</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.202.0D.001298</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.202.0D.001299</t>
+  </si>
+  <si>
+    <t>'00341T</t>
+  </si>
+  <si>
+    <t>'241751303007870</t>
+  </si>
+  <si>
+    <t>'00342T</t>
+  </si>
+  <si>
+    <t>'241751303007929</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 7 pegawai sesuai ST nomor B.2963/BPPSDM.1/KP.440/III/2024 tanggal 20 Maret 2024 an Putut Erie S, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.974.101.0B.001038</t>
+  </si>
+  <si>
+    <t>'00345T</t>
+  </si>
+  <si>
+    <t>'241751303008045</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran kekurangan gaji bulan Januari-Februari 2024 pegawai sekretariat BRSDM an. Prilatisno dkk untuk 6 pegawai)</t>
+  </si>
+  <si>
+    <t>'00346T</t>
+  </si>
+  <si>
+    <t>'241751303008046</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang untuk Perdin 4 pegawai sesuai ST Nomor B.2963/BPPSDM.1/KP.440/III/2024 tanggal 20 Maret 2024 an Suhartono dkk</t>
+  </si>
+  <si>
+    <t>'00347T</t>
+  </si>
+  <si>
+    <t>'241751504000400</t>
+  </si>
+  <si>
+    <t>Pembayaran THR Tahun 2024 Untuk 73 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00348T</t>
+  </si>
+  <si>
+    <t>'241751508000222</t>
+  </si>
+  <si>
+    <t>Pembayaran THR Tahun 2024 Untuk 2 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00349T</t>
+  </si>
+  <si>
+    <t>'241751504000405</t>
+  </si>
+  <si>
+    <t>Pembayaran THR Tahun 2024 Untuk 1 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00350T</t>
+  </si>
+  <si>
+    <t>'241751504000402</t>
+  </si>
+  <si>
+    <t>Pembayaran THR Tahun 2024 Untuk 37 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00351T</t>
+  </si>
+  <si>
+    <t>'241751504000401</t>
+  </si>
+  <si>
+    <t>Pembayaran THR Tahun 2024 Untuk 40 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00352T</t>
+  </si>
+  <si>
+    <t>'241751504000403</t>
+  </si>
+  <si>
+    <t>'00353T</t>
+  </si>
+  <si>
+    <t>'241751504000404</t>
+  </si>
+  <si>
+    <t>Pembayaran THR PPPK Tahun 2024 Untuk 2 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'626402.175.511611.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.GB.001684</t>
+  </si>
+  <si>
+    <t>'626402.175.511619.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.GB.001685</t>
+  </si>
+  <si>
+    <t>'626402.175.511624.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.GB.001686</t>
+  </si>
+  <si>
+    <t>'626402.175.511625.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.GB.001687</t>
+  </si>
+  <si>
+    <t>'00354T</t>
+  </si>
+  <si>
+    <t>'241751303008044</t>
+  </si>
+  <si>
+    <t>Penggantian Uang Persediaan untuk Keperluan Pembayaran Belanja Barang (BPP 002 Pusat Pendidikan KP)</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GD.000588</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GD.000590</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GD.000591</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GD.000592</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GD.000593</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GD.000594</t>
+  </si>
+  <si>
+    <t>'626402.175.521115.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GD.000595</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0A.000189</t>
+  </si>
+  <si>
+    <t>'626402.175.521219.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0G.001698</t>
+  </si>
+  <si>
+    <t>'626402.175.522141.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GB.000580</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0A.000195</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0B.000242</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.301.0E.000682</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0C.001166</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0D.001173</t>
+  </si>
+  <si>
+    <t>'00355T</t>
+  </si>
+  <si>
+    <t>'241751504000442</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran THR Keagamaan Tahun 2024 Untuk 9 Pegawai </t>
+  </si>
+  <si>
+    <t>'00356T</t>
+  </si>
+  <si>
+    <t>'241751303008237</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST Nomor B.2889/BPPSDM.1/KP.440/III/2024 Tanggal 18 Maret 2024 a.n Yatin Agus Riyadi, dkk</t>
+  </si>
+  <si>
+    <t>'00357T</t>
+  </si>
+  <si>
+    <t>'241751303008485</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST Nomor B.2945/BPPSDM.1/KP.440/III/2024 Tanggal 20 Maret 2024 a.n Nina Lusmiati, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.AE.000280</t>
+  </si>
+  <si>
+    <t>'00358T</t>
+  </si>
+  <si>
+    <t>'241751303008492</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2656/BPPSDM.1/KP.440/III/2024 Tanggal 5 Maret 2024 a.n Anindya Legia Putri</t>
+  </si>
+  <si>
+    <t>'00359T</t>
+  </si>
+  <si>
+    <t>'241751303008410</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perdin untuk 2pegawai sesuai ST No.B.1409/BPPSDM.1/KP.440/II/2024, B.2726/BPPSDM.1/KP.440/III/2024 Tgl 28/2/24 dan 7/3/24 a.n M.Noor Auliya dan Kasmawati</t>
+  </si>
+  <si>
+    <t>'00360T</t>
+  </si>
+  <si>
+    <t>'241751303008484</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST No.B.2145,2646,2732,2754/BPPSDM.1/KP.440/III/2024 Tgl.1,4,7,8 Maret 2024 a.n Wahyu Widodo, dkk</t>
+  </si>
+  <si>
+    <t>'00361T</t>
+  </si>
+  <si>
+    <t>'241751303008427</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2656/BPPSDM.1/KP.440/III/2024 Tanggal 5 Maret 2024 a.n Siti Amania Raydesyana</t>
+  </si>
+  <si>
+    <t>'00362T</t>
+  </si>
+  <si>
+    <t>'241751305000587</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2656/BPPSDM.1/KP.440/III/2024 Tanggal 5 Maret 2024 a.n Siti Nurhayati</t>
+  </si>
+  <si>
+    <t>'00363T</t>
+  </si>
+  <si>
+    <t>'241751303008417</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.1255/BPPSDM.1/KP.440/II/2024 Tanggal 26 Februari 2024 a.n Nurkholis Abellian Pristi</t>
+  </si>
+  <si>
+    <t>'00364T</t>
+  </si>
+  <si>
+    <t>'241751303008428</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.1318/BPPSDM.1/KP.440/II/2024 Tanggal 27 Februari 2024 a.n Nadia Permata Sari, dkk</t>
+  </si>
+  <si>
+    <t>'00365T</t>
+  </si>
+  <si>
+    <t>'241751303008459</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST Nomor B.1023/BPPSDM.1/KP.440/II/2024 Tanggal 6 Februari 2024 a.n Nurkholis Abellian Pristi, dkk</t>
+  </si>
+  <si>
+    <t>'00366T</t>
+  </si>
+  <si>
+    <t>'241751303008457</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.2733/BPPSDM.1/KP.440/III/2024 Tanggal 7 Maret 2024 a.n Rahmadi Sunoko, dkk</t>
+  </si>
+  <si>
+    <t>'00367T</t>
+  </si>
+  <si>
+    <t>'241751303008426</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2945/BPPSDM.1/KP.440/III/2024 Tanggal 20 Maret 2024 a.n Edwin Lutfi</t>
+  </si>
+  <si>
+    <t>'00368T</t>
+  </si>
+  <si>
+    <t>'241751303008411</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.2811/BPPSDM.1/KP.440/II/2024 Tanggal 14 Maret 2024 a.n Patricia Natasha, dkk</t>
+  </si>
+  <si>
+    <t>'00369T</t>
+  </si>
+  <si>
+    <t>'241751301008311</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang sesuai Kuitansi Nomor 0002/KKP26022024/08 Tanggal 29 Februari 2024.</t>
+  </si>
+  <si>
+    <t>'00370T</t>
+  </si>
+  <si>
+    <t>'241751303008420</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2750/BPPSDM.1/KP.440/III/2024 Tanggal 8 Maret 2024 a.n Dewi Ayu Utari</t>
+  </si>
+  <si>
+    <t>'00371T</t>
+  </si>
+  <si>
+    <t>'241751303008444</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2144/BPPSDM.1/KP.440/III/2024 Tanggal 1 Maret 2024 a.n Achmad Irfansyah</t>
+  </si>
+  <si>
+    <t>'00372T</t>
+  </si>
+  <si>
+    <t>'241751303008419</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST Nomor B.2150/BPPSDM.1/KP.440/III/2024 Tanggal 2 Maret 2024 a.n I Wayan Purya Arnata, dkk</t>
+  </si>
+  <si>
+    <t>'00373T</t>
+  </si>
+  <si>
+    <t>'241751303008489</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 4 pegawai sesuai ST Nomor B.2869/BPPSDM.1/KP.440/III/2024 Tanggal 15 Maret 2024 a.n Bachtiar, dkk</t>
+  </si>
+  <si>
+    <t>'00374T</t>
+  </si>
+  <si>
+    <t>'241751303008491</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST Nomor B.2149/BPPSDM.1/KP.440/III/2024 Tanggal 1 Maret 2024 a.n Guruh Saputra, dkk</t>
+  </si>
+  <si>
+    <t>'00375T</t>
+  </si>
+  <si>
+    <t>'241751303008429</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.399/BPPSDM/KP.440/III/2024 Tanggal 5 Maret 2024 a.n I Nyoman Radiarta</t>
+  </si>
+  <si>
+    <t>'00376T</t>
+  </si>
+  <si>
+    <t>'241751303008408</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.390/BPPSDM/KP.440/III/2024 Tanggal 4 Maret 2024 a.n I Nyoman Radiarta</t>
+  </si>
+  <si>
+    <t>'00377T</t>
+  </si>
+  <si>
+    <t>'241751303008483</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST Nomor B.2653/BPPSDM.1/KP.440/III/2024 Tanggal 4 Maret 2024 a.n I Wayan Purya Arnata, dkk</t>
+  </si>
+  <si>
+    <t>'00378T</t>
+  </si>
+  <si>
+    <t>'241751303008151</t>
+  </si>
+  <si>
+    <t>Pembayaran THR Tahun 2024 Untuk 74 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00379T</t>
+  </si>
+  <si>
+    <t>'241751303008082</t>
+  </si>
+  <si>
+    <t>'00380T</t>
+  </si>
+  <si>
+    <t>'241751303008150</t>
+  </si>
+  <si>
+    <t>Pembayaran THR Tahun 2024 Untuk 33 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00381T</t>
+  </si>
+  <si>
+    <t>'241751305000559</t>
+  </si>
+  <si>
+    <t>Pembayaran THR Tahun 2024 Untuk 1 Pegawai an . Siti Nurhayati</t>
+  </si>
+  <si>
+    <t>'00382T</t>
+  </si>
+  <si>
+    <t>'241751303008153</t>
+  </si>
+  <si>
+    <t>Pembayaran THR Tahun 2024 Untuk 1 Pegawai an.  Vida</t>
+  </si>
+  <si>
+    <t>'00383T</t>
+  </si>
+  <si>
+    <t>'241751303008152</t>
+  </si>
+  <si>
+    <t>Pembayaran THR Tahun 2024 Untuk 1 Pegawai an  Devy</t>
+  </si>
+  <si>
+    <t>'00384T</t>
+  </si>
+  <si>
+    <t>'241751504000444</t>
+  </si>
+  <si>
+    <t>Pembayaran THR Keagamaan Tahun 2024 Untuk 30 Pegawai.</t>
+  </si>
+  <si>
+    <t>'00385T</t>
+  </si>
+  <si>
+    <t>'241751504000443</t>
+  </si>
+  <si>
+    <t>Pembayaran THR Keagamaan Tahun 2024 Untuk 1 Pegawai.</t>
+  </si>
+  <si>
+    <t>'00387T</t>
+  </si>
+  <si>
+    <t>'241751303008458</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 7 pegawai sesuai ST Nomor B.2750/BPPSDM.1/KP.440/III/2024 Tanggal 8 Maret 2024 a.n Putut Erie Sudjito, dkk</t>
+  </si>
+  <si>
+    <t>'00388T</t>
+  </si>
+  <si>
+    <t>'241751303008409</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.389/BPPSDM/KP.440/III/2024,B2653/BPPSDM.1/KP.440/III/2024 Tgl. 4 Maret 2024 a.n I Nyoman Radiarta dan Putut Erie S.</t>
+  </si>
+  <si>
+    <t>'00389T</t>
+  </si>
+  <si>
+    <t>'241751303008418</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 4 pegawai sesuai ST Nomor B.2650/BPPSDM.1/KP.440/III/2024 Tanggal 4 Maret 2024 a.n I Wayan Purya Arnata, dkk</t>
+  </si>
+  <si>
+    <t>'00390T</t>
+  </si>
+  <si>
+    <t>'241751303008486</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.2732/BPPSDM.1/KP.440/III/2024 Tanggal 7 Maret 2024 a.n Bachtiar, dkk</t>
+  </si>
+  <si>
+    <t>'00391T</t>
+  </si>
+  <si>
+    <t>'241751303008490</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2652/BPPSDM.1/KP.440/III/2024 Tanggal 4 Maret 2024 a.n Guruh Saputra</t>
+  </si>
+  <si>
+    <t>'00392T</t>
+  </si>
+  <si>
+    <t>'241751303008445</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2732/BPPSDM.1/KP.440/III/2024 Tanggal 7 Maret 2024 a.n Rudi Alek Wahyudin</t>
+  </si>
+  <si>
+    <t>'00393T</t>
+  </si>
+  <si>
+    <t>'241751504000492</t>
+  </si>
+  <si>
+    <t>Pembayaran THR Keagamaan Tahun 2024 Untuk 3 Pegawai.</t>
+  </si>
+  <si>
+    <t>'00394T</t>
+  </si>
+  <si>
+    <t>'241751504000491</t>
+  </si>
+  <si>
+    <t>Pembayaran THR Keagamaan Tahun 2024 Untuk 9 Pegawai.</t>
+  </si>
+  <si>
+    <t>'00395T</t>
+  </si>
+  <si>
+    <t>'241751303008081</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.101.0B.000717</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.957.101.0A.000308</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.957.101.0A.000309</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.957.101.0B.000318</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.957.101.0B.000319</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.960.101.0A.000785</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.960.101.0A.000786</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.960.101.0B.000795</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.960.101.0B.000796</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.960.102.0A.000803</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.960.102.0B.000807</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.960.102.0B.000808</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.101.0A.000703</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.101.0A.000704</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.000774</t>
+  </si>
+  <si>
+    <t>'626402.175.522191.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.101.0A.000826</t>
+  </si>
+  <si>
+    <t>'626402.175.522191.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.101.0A.000827</t>
+  </si>
+  <si>
+    <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AC.000448</t>
+  </si>
+  <si>
+    <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AC.000456</t>
+  </si>
+  <si>
+    <t>'00396T</t>
+  </si>
+  <si>
+    <t>'241751302008758</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:3/PPK/BRSDM.1/I/2024 Tgl.2-1-2024,BAST No:BAST..604/PPK/BRSDM.1/II/2024 Tgl.29-2-2024,BAP No:605/PPK/BRSDM.1/II/2024 Tgl.29-2-2024 Pengadaan Jasa tenaga kebersihan sekretariat BRSDM TA 2024 TERMIN 2</t>
+  </si>
+  <si>
+    <t>'00397T</t>
+  </si>
+  <si>
+    <t>'241751301008319</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:151/SERA/TRAC-JKT1/AH/III/2024 Tgl.1 Maret 2024</t>
+  </si>
+  <si>
+    <t>'00398T</t>
+  </si>
+  <si>
+    <t>'241751302008838</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 00003/CAM-KW/III/2024 Tanggal 13 Maret 2024.</t>
   </si>
 </sst>
 </file>
@@ -4502,7 +5237,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L923"/>
+  <dimension ref="A1:L1130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -39489,31 +40224,7897 @@
         <v>13</v>
       </c>
       <c r="D923" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E923" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F923" t="s">
+        <v>1380</v>
+      </c>
+      <c r="G923" t="s">
+        <v>1381</v>
+      </c>
+      <c r="H923" t="s">
+        <v>392</v>
+      </c>
+      <c r="I923" t="s">
+        <v>19</v>
+      </c>
+      <c r="J923">
+        <v>1</v>
+      </c>
+      <c r="K923">
+        <v>38627915</v>
+      </c>
+      <c r="L923">
+        <v>38627915</v>
+      </c>
+    </row>
+    <row r="924" spans="1:12">
+      <c r="A924">
+        <v>921</v>
+      </c>
+      <c r="B924">
+        <v>626402</v>
+      </c>
+      <c r="C924" t="s">
+        <v>13</v>
+      </c>
+      <c r="D924" t="s">
         <v>1253</v>
       </c>
-      <c r="E923" t="s">
+      <c r="E924" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F924" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G924" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H924" t="s">
+        <v>1385</v>
+      </c>
+      <c r="I924" t="s">
+        <v>19</v>
+      </c>
+      <c r="J924">
+        <v>1</v>
+      </c>
+      <c r="K924">
+        <v>33800000</v>
+      </c>
+      <c r="L924">
+        <v>33800000</v>
+      </c>
+    </row>
+    <row r="925" spans="1:12">
+      <c r="A925">
+        <v>922</v>
+      </c>
+      <c r="B925">
+        <v>626402</v>
+      </c>
+      <c r="C925" t="s">
+        <v>13</v>
+      </c>
+      <c r="D925" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E925" t="s">
+        <v>1387</v>
+      </c>
+      <c r="F925" t="s">
+        <v>1388</v>
+      </c>
+      <c r="G925" t="s">
+        <v>1389</v>
+      </c>
+      <c r="H925" t="s">
+        <v>183</v>
+      </c>
+      <c r="I925" t="s">
+        <v>19</v>
+      </c>
+      <c r="J925">
+        <v>1</v>
+      </c>
+      <c r="K925">
+        <v>5449804</v>
+      </c>
+      <c r="L925">
+        <v>5449804</v>
+      </c>
+    </row>
+    <row r="926" spans="1:12">
+      <c r="A926">
+        <v>923</v>
+      </c>
+      <c r="B926">
+        <v>626402</v>
+      </c>
+      <c r="C926" t="s">
+        <v>13</v>
+      </c>
+      <c r="D926" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E926" t="s">
+        <v>1390</v>
+      </c>
+      <c r="F926" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G926" t="s">
+        <v>1392</v>
+      </c>
+      <c r="H926" t="s">
+        <v>1393</v>
+      </c>
+      <c r="I926" t="s">
+        <v>19</v>
+      </c>
+      <c r="J926">
+        <v>1</v>
+      </c>
+      <c r="K926">
+        <v>1790000</v>
+      </c>
+      <c r="L926">
+        <v>1790000</v>
+      </c>
+    </row>
+    <row r="927" spans="1:12">
+      <c r="A927">
+        <v>924</v>
+      </c>
+      <c r="B927">
+        <v>626402</v>
+      </c>
+      <c r="C927" t="s">
+        <v>13</v>
+      </c>
+      <c r="D927" t="s">
         <v>1378</v>
       </c>
-      <c r="F923" t="s">
-        <v>1379</v>
-      </c>
-      <c r="G923" t="s">
-        <v>1380</v>
-      </c>
-      <c r="H923" t="s">
-        <v>1381</v>
-      </c>
-      <c r="I923" t="s">
-        <v>19</v>
-      </c>
-      <c r="J923">
-        <v>1</v>
-      </c>
-      <c r="K923">
-        <v>33800000</v>
-      </c>
-      <c r="L923">
-        <v>33800000</v>
+      <c r="E927" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F927" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G927" t="s">
+        <v>1396</v>
+      </c>
+      <c r="H927" t="s">
+        <v>210</v>
+      </c>
+      <c r="I927" t="s">
+        <v>19</v>
+      </c>
+      <c r="J927">
+        <v>1</v>
+      </c>
+      <c r="K927">
+        <v>1937050</v>
+      </c>
+      <c r="L927">
+        <v>1937050</v>
+      </c>
+    </row>
+    <row r="928" spans="1:12">
+      <c r="A928">
+        <v>925</v>
+      </c>
+      <c r="B928">
+        <v>626402</v>
+      </c>
+      <c r="C928" t="s">
+        <v>13</v>
+      </c>
+      <c r="D928" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E928" t="s">
+        <v>1397</v>
+      </c>
+      <c r="F928" t="s">
+        <v>1398</v>
+      </c>
+      <c r="G928" t="s">
+        <v>1399</v>
+      </c>
+      <c r="H928" t="s">
+        <v>545</v>
+      </c>
+      <c r="I928" t="s">
+        <v>19</v>
+      </c>
+      <c r="J928">
+        <v>1</v>
+      </c>
+      <c r="K928">
+        <v>19800000</v>
+      </c>
+      <c r="L928">
+        <v>19800000</v>
+      </c>
+    </row>
+    <row r="929" spans="1:12">
+      <c r="A929">
+        <v>926</v>
+      </c>
+      <c r="B929">
+        <v>626402</v>
+      </c>
+      <c r="C929" t="s">
+        <v>13</v>
+      </c>
+      <c r="D929" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E929" t="s">
+        <v>1400</v>
+      </c>
+      <c r="F929" t="s">
+        <v>1401</v>
+      </c>
+      <c r="G929" t="s">
+        <v>1402</v>
+      </c>
+      <c r="H929" t="s">
+        <v>545</v>
+      </c>
+      <c r="I929" t="s">
+        <v>19</v>
+      </c>
+      <c r="J929">
+        <v>1</v>
+      </c>
+      <c r="K929">
+        <v>451000000</v>
+      </c>
+      <c r="L929">
+        <v>451000000</v>
+      </c>
+    </row>
+    <row r="930" spans="1:12">
+      <c r="A930">
+        <v>927</v>
+      </c>
+      <c r="B930">
+        <v>626402</v>
+      </c>
+      <c r="C930" t="s">
+        <v>13</v>
+      </c>
+      <c r="D930" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E930" t="s">
+        <v>1403</v>
+      </c>
+      <c r="F930" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G930" t="s">
+        <v>1405</v>
+      </c>
+      <c r="H930" t="s">
+        <v>545</v>
+      </c>
+      <c r="I930" t="s">
+        <v>19</v>
+      </c>
+      <c r="J930">
+        <v>1</v>
+      </c>
+      <c r="K930">
+        <v>220000000</v>
+      </c>
+      <c r="L930">
+        <v>220000000</v>
+      </c>
+    </row>
+    <row r="931" spans="1:12">
+      <c r="A931">
+        <v>928</v>
+      </c>
+      <c r="B931">
+        <v>626402</v>
+      </c>
+      <c r="C931" t="s">
+        <v>13</v>
+      </c>
+      <c r="D931" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E931" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F931" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G931" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H931" t="s">
+        <v>444</v>
+      </c>
+      <c r="I931" t="s">
+        <v>19</v>
+      </c>
+      <c r="J931">
+        <v>1</v>
+      </c>
+      <c r="K931">
+        <v>12093000</v>
+      </c>
+      <c r="L931">
+        <v>12093000</v>
+      </c>
+    </row>
+    <row r="932" spans="1:12">
+      <c r="A932">
+        <v>929</v>
+      </c>
+      <c r="B932">
+        <v>626402</v>
+      </c>
+      <c r="C932" t="s">
+        <v>13</v>
+      </c>
+      <c r="D932" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E932" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F932" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G932" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H932" t="s">
+        <v>875</v>
+      </c>
+      <c r="I932" t="s">
+        <v>19</v>
+      </c>
+      <c r="J932">
+        <v>1</v>
+      </c>
+      <c r="K932">
+        <v>385862</v>
+      </c>
+      <c r="L932">
+        <v>385862</v>
+      </c>
+    </row>
+    <row r="933" spans="1:12">
+      <c r="A933">
+        <v>930</v>
+      </c>
+      <c r="B933">
+        <v>626402</v>
+      </c>
+      <c r="C933" t="s">
+        <v>13</v>
+      </c>
+      <c r="D933" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E933" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F933" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G933" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H933" t="s">
+        <v>876</v>
+      </c>
+      <c r="I933" t="s">
+        <v>19</v>
+      </c>
+      <c r="J933">
+        <v>1</v>
+      </c>
+      <c r="K933">
+        <v>30321</v>
+      </c>
+      <c r="L933">
+        <v>30321</v>
+      </c>
+    </row>
+    <row r="934" spans="1:12">
+      <c r="A934">
+        <v>931</v>
+      </c>
+      <c r="B934">
+        <v>626402</v>
+      </c>
+      <c r="C934" t="s">
+        <v>13</v>
+      </c>
+      <c r="D934" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E934" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F934" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G934" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H934" t="s">
+        <v>445</v>
+      </c>
+      <c r="I934" t="s">
+        <v>19</v>
+      </c>
+      <c r="J934">
+        <v>1</v>
+      </c>
+      <c r="K934">
+        <v>1562000</v>
+      </c>
+      <c r="L934">
+        <v>1562000</v>
+      </c>
+    </row>
+    <row r="935" spans="1:12">
+      <c r="A935">
+        <v>932</v>
+      </c>
+      <c r="B935">
+        <v>626402</v>
+      </c>
+      <c r="C935" t="s">
+        <v>13</v>
+      </c>
+      <c r="D935" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E935" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F935" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G935" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H935" t="s">
+        <v>1409</v>
+      </c>
+      <c r="I935" t="s">
+        <v>19</v>
+      </c>
+      <c r="J935">
+        <v>1</v>
+      </c>
+      <c r="K935">
+        <v>641500</v>
+      </c>
+      <c r="L935">
+        <v>641500</v>
+      </c>
+    </row>
+    <row r="936" spans="1:12">
+      <c r="A936">
+        <v>933</v>
+      </c>
+      <c r="B936">
+        <v>626402</v>
+      </c>
+      <c r="C936" t="s">
+        <v>13</v>
+      </c>
+      <c r="D936" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E936" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F936" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G936" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H936" t="s">
+        <v>1410</v>
+      </c>
+      <c r="I936" t="s">
+        <v>19</v>
+      </c>
+      <c r="J936">
+        <v>1</v>
+      </c>
+      <c r="K936">
+        <v>2920000</v>
+      </c>
+      <c r="L936">
+        <v>2920000</v>
+      </c>
+    </row>
+    <row r="937" spans="1:12">
+      <c r="A937">
+        <v>934</v>
+      </c>
+      <c r="B937">
+        <v>626402</v>
+      </c>
+      <c r="C937" t="s">
+        <v>13</v>
+      </c>
+      <c r="D937" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E937" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F937" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G937" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H937" t="s">
+        <v>1411</v>
+      </c>
+      <c r="I937" t="s">
+        <v>19</v>
+      </c>
+      <c r="J937">
+        <v>1</v>
+      </c>
+      <c r="K937">
+        <v>1944000</v>
+      </c>
+      <c r="L937">
+        <v>1944000</v>
+      </c>
+    </row>
+    <row r="938" spans="1:12">
+      <c r="A938">
+        <v>935</v>
+      </c>
+      <c r="B938">
+        <v>626402</v>
+      </c>
+      <c r="C938" t="s">
+        <v>13</v>
+      </c>
+      <c r="D938" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E938" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F938" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G938" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H938" t="s">
+        <v>1412</v>
+      </c>
+      <c r="I938" t="s">
+        <v>19</v>
+      </c>
+      <c r="J938">
+        <v>1</v>
+      </c>
+      <c r="K938">
+        <v>972000</v>
+      </c>
+      <c r="L938">
+        <v>972000</v>
+      </c>
+    </row>
+    <row r="939" spans="1:12">
+      <c r="A939">
+        <v>936</v>
+      </c>
+      <c r="B939">
+        <v>626402</v>
+      </c>
+      <c r="C939" t="s">
+        <v>13</v>
+      </c>
+      <c r="D939" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E939" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F939" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G939" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H939" t="s">
+        <v>1413</v>
+      </c>
+      <c r="I939" t="s">
+        <v>19</v>
+      </c>
+      <c r="J939">
+        <v>1</v>
+      </c>
+      <c r="K939">
+        <v>816000</v>
+      </c>
+      <c r="L939">
+        <v>816000</v>
+      </c>
+    </row>
+    <row r="940" spans="1:12">
+      <c r="A940">
+        <v>937</v>
+      </c>
+      <c r="B940">
+        <v>626402</v>
+      </c>
+      <c r="C940" t="s">
+        <v>13</v>
+      </c>
+      <c r="D940" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E940" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F940" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G940" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H940" t="s">
+        <v>877</v>
+      </c>
+      <c r="I940" t="s">
+        <v>19</v>
+      </c>
+      <c r="J940">
+        <v>1</v>
+      </c>
+      <c r="K940">
+        <v>657500</v>
+      </c>
+      <c r="L940">
+        <v>657500</v>
+      </c>
+    </row>
+    <row r="941" spans="1:12">
+      <c r="A941">
+        <v>938</v>
+      </c>
+      <c r="B941">
+        <v>626402</v>
+      </c>
+      <c r="C941" t="s">
+        <v>13</v>
+      </c>
+      <c r="D941" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E941" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F941" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G941" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H941" t="s">
+        <v>597</v>
+      </c>
+      <c r="I941" t="s">
+        <v>19</v>
+      </c>
+      <c r="J941">
+        <v>1</v>
+      </c>
+      <c r="K941">
+        <v>900000</v>
+      </c>
+      <c r="L941">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="942" spans="1:12">
+      <c r="A942">
+        <v>939</v>
+      </c>
+      <c r="B942">
+        <v>626402</v>
+      </c>
+      <c r="C942" t="s">
+        <v>13</v>
+      </c>
+      <c r="D942" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E942" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F942" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G942" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H942" t="s">
+        <v>452</v>
+      </c>
+      <c r="I942" t="s">
+        <v>19</v>
+      </c>
+      <c r="J942">
+        <v>1</v>
+      </c>
+      <c r="K942">
+        <v>1155000</v>
+      </c>
+      <c r="L942">
+        <v>1155000</v>
+      </c>
+    </row>
+    <row r="943" spans="1:12">
+      <c r="A943">
+        <v>940</v>
+      </c>
+      <c r="B943">
+        <v>626402</v>
+      </c>
+      <c r="C943" t="s">
+        <v>13</v>
+      </c>
+      <c r="D943" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E943" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F943" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G943" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H943" t="s">
+        <v>1414</v>
+      </c>
+      <c r="I943" t="s">
+        <v>19</v>
+      </c>
+      <c r="J943">
+        <v>1</v>
+      </c>
+      <c r="K943">
+        <v>1000000</v>
+      </c>
+      <c r="L943">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="944" spans="1:12">
+      <c r="A944">
+        <v>941</v>
+      </c>
+      <c r="B944">
+        <v>626402</v>
+      </c>
+      <c r="C944" t="s">
+        <v>13</v>
+      </c>
+      <c r="D944" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E944" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F944" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G944" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H944" t="s">
+        <v>1415</v>
+      </c>
+      <c r="I944" t="s">
+        <v>19</v>
+      </c>
+      <c r="J944">
+        <v>1</v>
+      </c>
+      <c r="K944">
+        <v>1000000</v>
+      </c>
+      <c r="L944">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="945" spans="1:12">
+      <c r="A945">
+        <v>942</v>
+      </c>
+      <c r="B945">
+        <v>626402</v>
+      </c>
+      <c r="C945" t="s">
+        <v>13</v>
+      </c>
+      <c r="D945" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E945" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F945" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G945" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H945" t="s">
+        <v>1416</v>
+      </c>
+      <c r="I945" t="s">
+        <v>19</v>
+      </c>
+      <c r="J945">
+        <v>1</v>
+      </c>
+      <c r="K945">
+        <v>1000000</v>
+      </c>
+      <c r="L945">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="946" spans="1:12">
+      <c r="A946">
+        <v>943</v>
+      </c>
+      <c r="B946">
+        <v>626402</v>
+      </c>
+      <c r="C946" t="s">
+        <v>13</v>
+      </c>
+      <c r="D946" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E946" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F946" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G946" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H946" t="s">
+        <v>1417</v>
+      </c>
+      <c r="I946" t="s">
+        <v>19</v>
+      </c>
+      <c r="J946">
+        <v>1</v>
+      </c>
+      <c r="K946">
+        <v>500000</v>
+      </c>
+      <c r="L946">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="947" spans="1:12">
+      <c r="A947">
+        <v>944</v>
+      </c>
+      <c r="B947">
+        <v>626402</v>
+      </c>
+      <c r="C947" t="s">
+        <v>13</v>
+      </c>
+      <c r="D947" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E947" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F947" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G947" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H947" t="s">
+        <v>1418</v>
+      </c>
+      <c r="I947" t="s">
+        <v>19</v>
+      </c>
+      <c r="J947">
+        <v>1</v>
+      </c>
+      <c r="K947">
+        <v>1000000</v>
+      </c>
+      <c r="L947">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="948" spans="1:12">
+      <c r="A948">
+        <v>945</v>
+      </c>
+      <c r="B948">
+        <v>626402</v>
+      </c>
+      <c r="C948" t="s">
+        <v>13</v>
+      </c>
+      <c r="D948" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E948" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F948" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G948" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H948" t="s">
+        <v>1419</v>
+      </c>
+      <c r="I948" t="s">
+        <v>19</v>
+      </c>
+      <c r="J948">
+        <v>1</v>
+      </c>
+      <c r="K948">
+        <v>1000000</v>
+      </c>
+      <c r="L948">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="949" spans="1:12">
+      <c r="A949">
+        <v>946</v>
+      </c>
+      <c r="B949">
+        <v>626402</v>
+      </c>
+      <c r="C949" t="s">
+        <v>13</v>
+      </c>
+      <c r="D949" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E949" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F949" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G949" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H949" t="s">
+        <v>1420</v>
+      </c>
+      <c r="I949" t="s">
+        <v>19</v>
+      </c>
+      <c r="J949">
+        <v>1</v>
+      </c>
+      <c r="K949">
+        <v>1000000</v>
+      </c>
+      <c r="L949">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="950" spans="1:12">
+      <c r="A950">
+        <v>947</v>
+      </c>
+      <c r="B950">
+        <v>626402</v>
+      </c>
+      <c r="C950" t="s">
+        <v>13</v>
+      </c>
+      <c r="D950" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E950" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F950" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G950" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H950" t="s">
+        <v>1421</v>
+      </c>
+      <c r="I950" t="s">
+        <v>19</v>
+      </c>
+      <c r="J950">
+        <v>1</v>
+      </c>
+      <c r="K950">
+        <v>1000000</v>
+      </c>
+      <c r="L950">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="951" spans="1:12">
+      <c r="A951">
+        <v>948</v>
+      </c>
+      <c r="B951">
+        <v>626402</v>
+      </c>
+      <c r="C951" t="s">
+        <v>13</v>
+      </c>
+      <c r="D951" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E951" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F951" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G951" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H951" t="s">
+        <v>1422</v>
+      </c>
+      <c r="I951" t="s">
+        <v>19</v>
+      </c>
+      <c r="J951">
+        <v>1</v>
+      </c>
+      <c r="K951">
+        <v>4460000</v>
+      </c>
+      <c r="L951">
+        <v>4460000</v>
+      </c>
+    </row>
+    <row r="952" spans="1:12">
+      <c r="A952">
+        <v>949</v>
+      </c>
+      <c r="B952">
+        <v>626402</v>
+      </c>
+      <c r="C952" t="s">
+        <v>13</v>
+      </c>
+      <c r="D952" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E952" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F952" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G952" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H952" t="s">
+        <v>1423</v>
+      </c>
+      <c r="I952" t="s">
+        <v>19</v>
+      </c>
+      <c r="J952">
+        <v>1</v>
+      </c>
+      <c r="K952">
+        <v>4500000</v>
+      </c>
+      <c r="L952">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="953" spans="1:12">
+      <c r="A953">
+        <v>950</v>
+      </c>
+      <c r="B953">
+        <v>626402</v>
+      </c>
+      <c r="C953" t="s">
+        <v>13</v>
+      </c>
+      <c r="D953" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E953" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F953" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G953" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H953" t="s">
+        <v>1424</v>
+      </c>
+      <c r="I953" t="s">
+        <v>19</v>
+      </c>
+      <c r="J953">
+        <v>1</v>
+      </c>
+      <c r="K953">
+        <v>1400000</v>
+      </c>
+      <c r="L953">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="954" spans="1:12">
+      <c r="A954">
+        <v>951</v>
+      </c>
+      <c r="B954">
+        <v>626402</v>
+      </c>
+      <c r="C954" t="s">
+        <v>13</v>
+      </c>
+      <c r="D954" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E954" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F954" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G954" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H954" t="s">
+        <v>1425</v>
+      </c>
+      <c r="I954" t="s">
+        <v>19</v>
+      </c>
+      <c r="J954">
+        <v>1</v>
+      </c>
+      <c r="K954">
+        <v>1400000</v>
+      </c>
+      <c r="L954">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="955" spans="1:12">
+      <c r="A955">
+        <v>952</v>
+      </c>
+      <c r="B955">
+        <v>626402</v>
+      </c>
+      <c r="C955" t="s">
+        <v>13</v>
+      </c>
+      <c r="D955" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E955" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F955" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G955" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H955" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I955" t="s">
+        <v>19</v>
+      </c>
+      <c r="J955">
+        <v>1</v>
+      </c>
+      <c r="K955">
+        <v>3000000</v>
+      </c>
+      <c r="L955">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="956" spans="1:12">
+      <c r="A956">
+        <v>953</v>
+      </c>
+      <c r="B956">
+        <v>626402</v>
+      </c>
+      <c r="C956" t="s">
+        <v>13</v>
+      </c>
+      <c r="D956" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E956" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F956" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G956" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H956" t="s">
+        <v>886</v>
+      </c>
+      <c r="I956" t="s">
+        <v>19</v>
+      </c>
+      <c r="J956">
+        <v>1</v>
+      </c>
+      <c r="K956">
+        <v>4634250</v>
+      </c>
+      <c r="L956">
+        <v>4634250</v>
+      </c>
+    </row>
+    <row r="957" spans="1:12">
+      <c r="A957">
+        <v>954</v>
+      </c>
+      <c r="B957">
+        <v>626402</v>
+      </c>
+      <c r="C957" t="s">
+        <v>13</v>
+      </c>
+      <c r="D957" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E957" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F957" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G957" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H957" t="s">
+        <v>887</v>
+      </c>
+      <c r="I957" t="s">
+        <v>19</v>
+      </c>
+      <c r="J957">
+        <v>1</v>
+      </c>
+      <c r="K957">
+        <v>35430200</v>
+      </c>
+      <c r="L957">
+        <v>35430200</v>
+      </c>
+    </row>
+    <row r="958" spans="1:12">
+      <c r="A958">
+        <v>955</v>
+      </c>
+      <c r="B958">
+        <v>626402</v>
+      </c>
+      <c r="C958" t="s">
+        <v>13</v>
+      </c>
+      <c r="D958" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E958" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F958" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G958" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H958" t="s">
+        <v>888</v>
+      </c>
+      <c r="I958" t="s">
+        <v>19</v>
+      </c>
+      <c r="J958">
+        <v>1</v>
+      </c>
+      <c r="K958">
+        <v>5580200</v>
+      </c>
+      <c r="L958">
+        <v>5580200</v>
+      </c>
+    </row>
+    <row r="959" spans="1:12">
+      <c r="A959">
+        <v>956</v>
+      </c>
+      <c r="B959">
+        <v>626402</v>
+      </c>
+      <c r="C959" t="s">
+        <v>13</v>
+      </c>
+      <c r="D959" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E959" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F959" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G959" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H959" t="s">
+        <v>613</v>
+      </c>
+      <c r="I959" t="s">
+        <v>19</v>
+      </c>
+      <c r="J959">
+        <v>1</v>
+      </c>
+      <c r="K959">
+        <v>3468800</v>
+      </c>
+      <c r="L959">
+        <v>3468800</v>
+      </c>
+    </row>
+    <row r="960" spans="1:12">
+      <c r="A960">
+        <v>957</v>
+      </c>
+      <c r="B960">
+        <v>626402</v>
+      </c>
+      <c r="C960" t="s">
+        <v>13</v>
+      </c>
+      <c r="D960" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E960" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F960" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G960" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H960" t="s">
+        <v>864</v>
+      </c>
+      <c r="I960" t="s">
+        <v>19</v>
+      </c>
+      <c r="J960">
+        <v>1</v>
+      </c>
+      <c r="K960">
+        <v>1277000</v>
+      </c>
+      <c r="L960">
+        <v>1277000</v>
+      </c>
+    </row>
+    <row r="961" spans="1:12">
+      <c r="A961">
+        <v>958</v>
+      </c>
+      <c r="B961">
+        <v>626402</v>
+      </c>
+      <c r="C961" t="s">
+        <v>13</v>
+      </c>
+      <c r="D961" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E961" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F961" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G961" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H961" t="s">
+        <v>889</v>
+      </c>
+      <c r="I961" t="s">
+        <v>19</v>
+      </c>
+      <c r="J961">
+        <v>1</v>
+      </c>
+      <c r="K961">
+        <v>450000</v>
+      </c>
+      <c r="L961">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="962" spans="1:12">
+      <c r="A962">
+        <v>959</v>
+      </c>
+      <c r="B962">
+        <v>626402</v>
+      </c>
+      <c r="C962" t="s">
+        <v>13</v>
+      </c>
+      <c r="D962" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E962" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F962" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G962" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H962" t="s">
+        <v>890</v>
+      </c>
+      <c r="I962" t="s">
+        <v>19</v>
+      </c>
+      <c r="J962">
+        <v>1</v>
+      </c>
+      <c r="K962">
+        <v>122896</v>
+      </c>
+      <c r="L962">
+        <v>122896</v>
+      </c>
+    </row>
+    <row r="963" spans="1:12">
+      <c r="A963">
+        <v>960</v>
+      </c>
+      <c r="B963">
+        <v>626402</v>
+      </c>
+      <c r="C963" t="s">
+        <v>13</v>
+      </c>
+      <c r="D963" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E963" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F963" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G963" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H963" t="s">
+        <v>892</v>
+      </c>
+      <c r="I963" t="s">
+        <v>19</v>
+      </c>
+      <c r="J963">
+        <v>1</v>
+      </c>
+      <c r="K963">
+        <v>340000</v>
+      </c>
+      <c r="L963">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="964" spans="1:12">
+      <c r="A964">
+        <v>961</v>
+      </c>
+      <c r="B964">
+        <v>626402</v>
+      </c>
+      <c r="C964" t="s">
+        <v>13</v>
+      </c>
+      <c r="D964" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E964" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F964" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G964" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H964" t="s">
+        <v>631</v>
+      </c>
+      <c r="I964" t="s">
+        <v>19</v>
+      </c>
+      <c r="J964">
+        <v>1</v>
+      </c>
+      <c r="K964">
+        <v>850000</v>
+      </c>
+      <c r="L964">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="965" spans="1:12">
+      <c r="A965">
+        <v>962</v>
+      </c>
+      <c r="B965">
+        <v>626402</v>
+      </c>
+      <c r="C965" t="s">
+        <v>13</v>
+      </c>
+      <c r="D965" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E965" t="s">
+        <v>1407</v>
+      </c>
+      <c r="F965" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G965" t="s">
+        <v>1007</v>
+      </c>
+      <c r="H965" t="s">
+        <v>621</v>
+      </c>
+      <c r="I965" t="s">
+        <v>19</v>
+      </c>
+      <c r="J965">
+        <v>1</v>
+      </c>
+      <c r="K965">
+        <v>1500000</v>
+      </c>
+      <c r="L965">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="966" spans="1:12">
+      <c r="A966">
+        <v>963</v>
+      </c>
+      <c r="B966">
+        <v>626402</v>
+      </c>
+      <c r="C966" t="s">
+        <v>13</v>
+      </c>
+      <c r="D966" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E966" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F966" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G966" t="s">
+        <v>121</v>
+      </c>
+      <c r="H966" t="s">
+        <v>255</v>
+      </c>
+      <c r="I966" t="s">
+        <v>19</v>
+      </c>
+      <c r="J966">
+        <v>1</v>
+      </c>
+      <c r="K966">
+        <v>3902740</v>
+      </c>
+      <c r="L966">
+        <v>3902740</v>
+      </c>
+    </row>
+    <row r="967" spans="1:12">
+      <c r="A967">
+        <v>964</v>
+      </c>
+      <c r="B967">
+        <v>626402</v>
+      </c>
+      <c r="C967" t="s">
+        <v>13</v>
+      </c>
+      <c r="D967" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E967" t="s">
+        <v>1426</v>
+      </c>
+      <c r="F967" t="s">
+        <v>1427</v>
+      </c>
+      <c r="G967" t="s">
+        <v>121</v>
+      </c>
+      <c r="H967" t="s">
+        <v>275</v>
+      </c>
+      <c r="I967" t="s">
+        <v>19</v>
+      </c>
+      <c r="J967">
+        <v>1</v>
+      </c>
+      <c r="K967">
+        <v>10291000</v>
+      </c>
+      <c r="L967">
+        <v>10291000</v>
+      </c>
+    </row>
+    <row r="968" spans="1:12">
+      <c r="A968">
+        <v>965</v>
+      </c>
+      <c r="B968">
+        <v>626402</v>
+      </c>
+      <c r="C968" t="s">
+        <v>13</v>
+      </c>
+      <c r="D968" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E968" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F968" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G968" t="s">
+        <v>1430</v>
+      </c>
+      <c r="H968" t="s">
+        <v>1431</v>
+      </c>
+      <c r="I968" t="s">
+        <v>19</v>
+      </c>
+      <c r="J968">
+        <v>1</v>
+      </c>
+      <c r="K968">
+        <v>15691000</v>
+      </c>
+      <c r="L968">
+        <v>15691000</v>
+      </c>
+    </row>
+    <row r="969" spans="1:12">
+      <c r="A969">
+        <v>966</v>
+      </c>
+      <c r="B969">
+        <v>626402</v>
+      </c>
+      <c r="C969" t="s">
+        <v>13</v>
+      </c>
+      <c r="D969" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E969" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F969" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G969" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H969" t="s">
+        <v>18</v>
+      </c>
+      <c r="I969" t="s">
+        <v>19</v>
+      </c>
+      <c r="J969">
+        <v>1</v>
+      </c>
+      <c r="K969">
+        <v>3255060</v>
+      </c>
+      <c r="L969">
+        <v>3255060</v>
+      </c>
+    </row>
+    <row r="970" spans="1:12">
+      <c r="A970">
+        <v>967</v>
+      </c>
+      <c r="B970">
+        <v>626402</v>
+      </c>
+      <c r="C970" t="s">
+        <v>13</v>
+      </c>
+      <c r="D970" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E970" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F970" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G970" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H970" t="s">
+        <v>20</v>
+      </c>
+      <c r="I970" t="s">
+        <v>19</v>
+      </c>
+      <c r="J970">
+        <v>1</v>
+      </c>
+      <c r="K970">
+        <v>468</v>
+      </c>
+      <c r="L970">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="971" spans="1:12">
+      <c r="A971">
+        <v>968</v>
+      </c>
+      <c r="B971">
+        <v>626402</v>
+      </c>
+      <c r="C971" t="s">
+        <v>13</v>
+      </c>
+      <c r="D971" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E971" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F971" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G971" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H971" t="s">
+        <v>21</v>
+      </c>
+      <c r="I971" t="s">
+        <v>19</v>
+      </c>
+      <c r="J971">
+        <v>1</v>
+      </c>
+      <c r="K971">
+        <v>156630</v>
+      </c>
+      <c r="L971">
+        <v>156630</v>
+      </c>
+    </row>
+    <row r="972" spans="1:12">
+      <c r="A972">
+        <v>969</v>
+      </c>
+      <c r="B972">
+        <v>626402</v>
+      </c>
+      <c r="C972" t="s">
+        <v>13</v>
+      </c>
+      <c r="D972" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E972" t="s">
+        <v>1432</v>
+      </c>
+      <c r="F972" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G972" t="s">
+        <v>1434</v>
+      </c>
+      <c r="H972" t="s">
+        <v>22</v>
+      </c>
+      <c r="I972" t="s">
+        <v>19</v>
+      </c>
+      <c r="J972">
+        <v>1</v>
+      </c>
+      <c r="K972">
+        <v>62652</v>
+      </c>
+      <c r="L972">
+        <v>62652</v>
+      </c>
+    </row>
+    <row r="973" spans="1:12">
+      <c r="A973">
+        <v>970</v>
+      </c>
+      <c r="B973">
+        <v>626402</v>
+      </c>
+      <c r="C973" t="s">
+        <v>13</v>
+      </c>
+      <c r="D973" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E973" t="s">
+        <v>1435</v>
+      </c>
+      <c r="F973" t="s">
+        <v>1436</v>
+      </c>
+      <c r="G973" t="s">
+        <v>1437</v>
+      </c>
+      <c r="H973" t="s">
+        <v>183</v>
+      </c>
+      <c r="I973" t="s">
+        <v>19</v>
+      </c>
+      <c r="J973">
+        <v>1</v>
+      </c>
+      <c r="K973">
+        <v>8400000</v>
+      </c>
+      <c r="L973">
+        <v>8400000</v>
+      </c>
+    </row>
+    <row r="974" spans="1:12">
+      <c r="A974">
+        <v>971</v>
+      </c>
+      <c r="B974">
+        <v>626402</v>
+      </c>
+      <c r="C974" t="s">
+        <v>13</v>
+      </c>
+      <c r="D974" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E974" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F974" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G974" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H974" t="s">
+        <v>18</v>
+      </c>
+      <c r="I974" t="s">
+        <v>19</v>
+      </c>
+      <c r="J974">
+        <v>1</v>
+      </c>
+      <c r="K974">
+        <v>282473800</v>
+      </c>
+      <c r="L974">
+        <v>282473800</v>
+      </c>
+    </row>
+    <row r="975" spans="1:12">
+      <c r="A975">
+        <v>972</v>
+      </c>
+      <c r="B975">
+        <v>626402</v>
+      </c>
+      <c r="C975" t="s">
+        <v>13</v>
+      </c>
+      <c r="D975" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E975" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F975" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G975" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H975" t="s">
+        <v>20</v>
+      </c>
+      <c r="I975" t="s">
+        <v>19</v>
+      </c>
+      <c r="J975">
+        <v>1</v>
+      </c>
+      <c r="K975">
+        <v>4654</v>
+      </c>
+      <c r="L975">
+        <v>4654</v>
+      </c>
+    </row>
+    <row r="976" spans="1:12">
+      <c r="A976">
+        <v>973</v>
+      </c>
+      <c r="B976">
+        <v>626402</v>
+      </c>
+      <c r="C976" t="s">
+        <v>13</v>
+      </c>
+      <c r="D976" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E976" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F976" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G976" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H976" t="s">
+        <v>21</v>
+      </c>
+      <c r="I976" t="s">
+        <v>19</v>
+      </c>
+      <c r="J976">
+        <v>1</v>
+      </c>
+      <c r="K976">
+        <v>16933500</v>
+      </c>
+      <c r="L976">
+        <v>16933500</v>
+      </c>
+    </row>
+    <row r="977" spans="1:12">
+      <c r="A977">
+        <v>974</v>
+      </c>
+      <c r="B977">
+        <v>626402</v>
+      </c>
+      <c r="C977" t="s">
+        <v>13</v>
+      </c>
+      <c r="D977" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E977" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F977" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G977" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H977" t="s">
+        <v>22</v>
+      </c>
+      <c r="I977" t="s">
+        <v>19</v>
+      </c>
+      <c r="J977">
+        <v>1</v>
+      </c>
+      <c r="K977">
+        <v>6100566</v>
+      </c>
+      <c r="L977">
+        <v>6100566</v>
+      </c>
+    </row>
+    <row r="978" spans="1:12">
+      <c r="A978">
+        <v>975</v>
+      </c>
+      <c r="B978">
+        <v>626402</v>
+      </c>
+      <c r="C978" t="s">
+        <v>13</v>
+      </c>
+      <c r="D978" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E978" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F978" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G978" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H978" t="s">
+        <v>29</v>
+      </c>
+      <c r="I978" t="s">
+        <v>19</v>
+      </c>
+      <c r="J978">
+        <v>1</v>
+      </c>
+      <c r="K978">
+        <v>8750000</v>
+      </c>
+      <c r="L978">
+        <v>8750000</v>
+      </c>
+    </row>
+    <row r="979" spans="1:12">
+      <c r="A979">
+        <v>976</v>
+      </c>
+      <c r="B979">
+        <v>626402</v>
+      </c>
+      <c r="C979" t="s">
+        <v>13</v>
+      </c>
+      <c r="D979" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E979" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F979" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G979" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H979" t="s">
+        <v>23</v>
+      </c>
+      <c r="I979" t="s">
+        <v>19</v>
+      </c>
+      <c r="J979">
+        <v>1</v>
+      </c>
+      <c r="K979">
+        <v>26177000</v>
+      </c>
+      <c r="L979">
+        <v>26177000</v>
+      </c>
+    </row>
+    <row r="980" spans="1:12">
+      <c r="A980">
+        <v>977</v>
+      </c>
+      <c r="B980">
+        <v>626402</v>
+      </c>
+      <c r="C980" t="s">
+        <v>13</v>
+      </c>
+      <c r="D980" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E980" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F980" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G980" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H980" t="s">
+        <v>24</v>
+      </c>
+      <c r="I980" t="s">
+        <v>19</v>
+      </c>
+      <c r="J980">
+        <v>1</v>
+      </c>
+      <c r="K980">
+        <v>19044847</v>
+      </c>
+      <c r="L980">
+        <v>19044847</v>
+      </c>
+    </row>
+    <row r="981" spans="1:12">
+      <c r="A981">
+        <v>978</v>
+      </c>
+      <c r="B981">
+        <v>626402</v>
+      </c>
+      <c r="C981" t="s">
+        <v>13</v>
+      </c>
+      <c r="D981" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E981" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F981" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G981" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H981" t="s">
+        <v>25</v>
+      </c>
+      <c r="I981" t="s">
+        <v>19</v>
+      </c>
+      <c r="J981">
+        <v>1</v>
+      </c>
+      <c r="K981">
+        <v>14049480</v>
+      </c>
+      <c r="L981">
+        <v>14049480</v>
+      </c>
+    </row>
+    <row r="982" spans="1:12">
+      <c r="A982">
+        <v>979</v>
+      </c>
+      <c r="B982">
+        <v>626402</v>
+      </c>
+      <c r="C982" t="s">
+        <v>13</v>
+      </c>
+      <c r="D982" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E982" t="s">
+        <v>1438</v>
+      </c>
+      <c r="F982" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G982" t="s">
+        <v>1440</v>
+      </c>
+      <c r="H982" t="s">
+        <v>30</v>
+      </c>
+      <c r="I982" t="s">
+        <v>19</v>
+      </c>
+      <c r="J982">
+        <v>1</v>
+      </c>
+      <c r="K982">
+        <v>7030000</v>
+      </c>
+      <c r="L982">
+        <v>7030000</v>
+      </c>
+    </row>
+    <row r="983" spans="1:12">
+      <c r="A983">
+        <v>980</v>
+      </c>
+      <c r="B983">
+        <v>626402</v>
+      </c>
+      <c r="C983" t="s">
+        <v>13</v>
+      </c>
+      <c r="D983" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E983" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F983" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G983" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H983" t="s">
+        <v>18</v>
+      </c>
+      <c r="I983" t="s">
+        <v>19</v>
+      </c>
+      <c r="J983">
+        <v>1</v>
+      </c>
+      <c r="K983">
+        <v>8213500</v>
+      </c>
+      <c r="L983">
+        <v>8213500</v>
+      </c>
+    </row>
+    <row r="984" spans="1:12">
+      <c r="A984">
+        <v>981</v>
+      </c>
+      <c r="B984">
+        <v>626402</v>
+      </c>
+      <c r="C984" t="s">
+        <v>13</v>
+      </c>
+      <c r="D984" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E984" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F984" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G984" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H984" t="s">
+        <v>20</v>
+      </c>
+      <c r="I984" t="s">
+        <v>19</v>
+      </c>
+      <c r="J984">
+        <v>1</v>
+      </c>
+      <c r="K984">
+        <v>124</v>
+      </c>
+      <c r="L984">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="985" spans="1:12">
+      <c r="A985">
+        <v>982</v>
+      </c>
+      <c r="B985">
+        <v>626402</v>
+      </c>
+      <c r="C985" t="s">
+        <v>13</v>
+      </c>
+      <c r="D985" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E985" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F985" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G985" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H985" t="s">
+        <v>21</v>
+      </c>
+      <c r="I985" t="s">
+        <v>19</v>
+      </c>
+      <c r="J985">
+        <v>1</v>
+      </c>
+      <c r="K985">
+        <v>368340</v>
+      </c>
+      <c r="L985">
+        <v>368340</v>
+      </c>
+    </row>
+    <row r="986" spans="1:12">
+      <c r="A986">
+        <v>983</v>
+      </c>
+      <c r="B986">
+        <v>626402</v>
+      </c>
+      <c r="C986" t="s">
+        <v>13</v>
+      </c>
+      <c r="D986" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E986" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F986" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G986" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H986" t="s">
+        <v>22</v>
+      </c>
+      <c r="I986" t="s">
+        <v>19</v>
+      </c>
+      <c r="J986">
+        <v>1</v>
+      </c>
+      <c r="K986">
+        <v>147336</v>
+      </c>
+      <c r="L986">
+        <v>147336</v>
+      </c>
+    </row>
+    <row r="987" spans="1:12">
+      <c r="A987">
+        <v>984</v>
+      </c>
+      <c r="B987">
+        <v>626402</v>
+      </c>
+      <c r="C987" t="s">
+        <v>13</v>
+      </c>
+      <c r="D987" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E987" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F987" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G987" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H987" t="s">
+        <v>23</v>
+      </c>
+      <c r="I987" t="s">
+        <v>19</v>
+      </c>
+      <c r="J987">
+        <v>1</v>
+      </c>
+      <c r="K987">
+        <v>2180000</v>
+      </c>
+      <c r="L987">
+        <v>2180000</v>
+      </c>
+    </row>
+    <row r="988" spans="1:12">
+      <c r="A988">
+        <v>985</v>
+      </c>
+      <c r="B988">
+        <v>626402</v>
+      </c>
+      <c r="C988" t="s">
+        <v>13</v>
+      </c>
+      <c r="D988" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E988" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F988" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G988" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H988" t="s">
+        <v>24</v>
+      </c>
+      <c r="I988" t="s">
+        <v>19</v>
+      </c>
+      <c r="J988">
+        <v>1</v>
+      </c>
+      <c r="K988">
+        <v>789271</v>
+      </c>
+      <c r="L988">
+        <v>789271</v>
+      </c>
+    </row>
+    <row r="989" spans="1:12">
+      <c r="A989">
+        <v>986</v>
+      </c>
+      <c r="B989">
+        <v>626402</v>
+      </c>
+      <c r="C989" t="s">
+        <v>13</v>
+      </c>
+      <c r="D989" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E989" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F989" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G989" t="s">
+        <v>1443</v>
+      </c>
+      <c r="H989" t="s">
+        <v>25</v>
+      </c>
+      <c r="I989" t="s">
+        <v>19</v>
+      </c>
+      <c r="J989">
+        <v>1</v>
+      </c>
+      <c r="K989">
+        <v>362100</v>
+      </c>
+      <c r="L989">
+        <v>362100</v>
+      </c>
+    </row>
+    <row r="990" spans="1:12">
+      <c r="A990">
+        <v>987</v>
+      </c>
+      <c r="B990">
+        <v>626402</v>
+      </c>
+      <c r="C990" t="s">
+        <v>13</v>
+      </c>
+      <c r="D990" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E990" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F990" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G990" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H990" t="s">
+        <v>18</v>
+      </c>
+      <c r="I990" t="s">
+        <v>19</v>
+      </c>
+      <c r="J990">
+        <v>1</v>
+      </c>
+      <c r="K990">
+        <v>2564200</v>
+      </c>
+      <c r="L990">
+        <v>2564200</v>
+      </c>
+    </row>
+    <row r="991" spans="1:12">
+      <c r="A991">
+        <v>988</v>
+      </c>
+      <c r="B991">
+        <v>626402</v>
+      </c>
+      <c r="C991" t="s">
+        <v>13</v>
+      </c>
+      <c r="D991" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E991" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F991" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G991" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H991" t="s">
+        <v>20</v>
+      </c>
+      <c r="I991" t="s">
+        <v>19</v>
+      </c>
+      <c r="J991">
+        <v>1</v>
+      </c>
+      <c r="K991">
+        <v>40</v>
+      </c>
+      <c r="L991">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="992" spans="1:12">
+      <c r="A992">
+        <v>989</v>
+      </c>
+      <c r="B992">
+        <v>626402</v>
+      </c>
+      <c r="C992" t="s">
+        <v>13</v>
+      </c>
+      <c r="D992" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E992" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F992" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G992" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H992" t="s">
+        <v>21</v>
+      </c>
+      <c r="I992" t="s">
+        <v>19</v>
+      </c>
+      <c r="J992">
+        <v>1</v>
+      </c>
+      <c r="K992">
+        <v>256420</v>
+      </c>
+      <c r="L992">
+        <v>256420</v>
+      </c>
+    </row>
+    <row r="993" spans="1:12">
+      <c r="A993">
+        <v>990</v>
+      </c>
+      <c r="B993">
+        <v>626402</v>
+      </c>
+      <c r="C993" t="s">
+        <v>13</v>
+      </c>
+      <c r="D993" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E993" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F993" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G993" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H993" t="s">
+        <v>23</v>
+      </c>
+      <c r="I993" t="s">
+        <v>19</v>
+      </c>
+      <c r="J993">
+        <v>1</v>
+      </c>
+      <c r="K993">
+        <v>330000</v>
+      </c>
+      <c r="L993">
+        <v>330000</v>
+      </c>
+    </row>
+    <row r="994" spans="1:12">
+      <c r="A994">
+        <v>991</v>
+      </c>
+      <c r="B994">
+        <v>626402</v>
+      </c>
+      <c r="C994" t="s">
+        <v>13</v>
+      </c>
+      <c r="D994" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E994" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F994" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G994" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H994" t="s">
+        <v>24</v>
+      </c>
+      <c r="I994" t="s">
+        <v>19</v>
+      </c>
+      <c r="J994">
+        <v>1</v>
+      </c>
+      <c r="K994">
+        <v>65911</v>
+      </c>
+      <c r="L994">
+        <v>65911</v>
+      </c>
+    </row>
+    <row r="995" spans="1:12">
+      <c r="A995">
+        <v>992</v>
+      </c>
+      <c r="B995">
+        <v>626402</v>
+      </c>
+      <c r="C995" t="s">
+        <v>13</v>
+      </c>
+      <c r="D995" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E995" t="s">
+        <v>1444</v>
+      </c>
+      <c r="F995" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G995" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H995" t="s">
+        <v>25</v>
+      </c>
+      <c r="I995" t="s">
+        <v>19</v>
+      </c>
+      <c r="J995">
+        <v>1</v>
+      </c>
+      <c r="K995">
+        <v>144840</v>
+      </c>
+      <c r="L995">
+        <v>144840</v>
+      </c>
+    </row>
+    <row r="996" spans="1:12">
+      <c r="A996">
+        <v>993</v>
+      </c>
+      <c r="B996">
+        <v>626402</v>
+      </c>
+      <c r="C996" t="s">
+        <v>13</v>
+      </c>
+      <c r="D996" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E996" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F996" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G996" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H996" t="s">
+        <v>34</v>
+      </c>
+      <c r="I996" t="s">
+        <v>19</v>
+      </c>
+      <c r="J996">
+        <v>1</v>
+      </c>
+      <c r="K996">
+        <v>158146000</v>
+      </c>
+      <c r="L996">
+        <v>158146000</v>
+      </c>
+    </row>
+    <row r="997" spans="1:12">
+      <c r="A997">
+        <v>994</v>
+      </c>
+      <c r="B997">
+        <v>626402</v>
+      </c>
+      <c r="C997" t="s">
+        <v>13</v>
+      </c>
+      <c r="D997" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E997" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F997" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G997" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H997" t="s">
+        <v>35</v>
+      </c>
+      <c r="I997" t="s">
+        <v>19</v>
+      </c>
+      <c r="J997">
+        <v>1</v>
+      </c>
+      <c r="K997">
+        <v>1852</v>
+      </c>
+      <c r="L997">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="998" spans="1:12">
+      <c r="A998">
+        <v>995</v>
+      </c>
+      <c r="B998">
+        <v>626402</v>
+      </c>
+      <c r="C998" t="s">
+        <v>13</v>
+      </c>
+      <c r="D998" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E998" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F998" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G998" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H998" t="s">
+        <v>36</v>
+      </c>
+      <c r="I998" t="s">
+        <v>19</v>
+      </c>
+      <c r="J998">
+        <v>1</v>
+      </c>
+      <c r="K998">
+        <v>11631450</v>
+      </c>
+      <c r="L998">
+        <v>11631450</v>
+      </c>
+    </row>
+    <row r="999" spans="1:12">
+      <c r="A999">
+        <v>996</v>
+      </c>
+      <c r="B999">
+        <v>626402</v>
+      </c>
+      <c r="C999" t="s">
+        <v>13</v>
+      </c>
+      <c r="D999" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E999" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F999" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G999" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H999" t="s">
+        <v>37</v>
+      </c>
+      <c r="I999" t="s">
+        <v>19</v>
+      </c>
+      <c r="J999">
+        <v>1</v>
+      </c>
+      <c r="K999">
+        <v>3470798</v>
+      </c>
+      <c r="L999">
+        <v>3470798</v>
+      </c>
+    </row>
+    <row r="1000" spans="1:12">
+      <c r="A1000">
+        <v>997</v>
+      </c>
+      <c r="B1000">
+        <v>626402</v>
+      </c>
+      <c r="C1000" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1000" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1000" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F1000" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1000" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H1000" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1000" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1000">
+        <v>1</v>
+      </c>
+      <c r="K1000">
+        <v>3250000</v>
+      </c>
+      <c r="L1000">
+        <v>3250000</v>
+      </c>
+    </row>
+    <row r="1001" spans="1:12">
+      <c r="A1001">
+        <v>998</v>
+      </c>
+      <c r="B1001">
+        <v>626402</v>
+      </c>
+      <c r="C1001" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1001" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1001" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F1001" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1001" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H1001" t="s">
+        <v>39</v>
+      </c>
+      <c r="I1001" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1001">
+        <v>1</v>
+      </c>
+      <c r="K1001">
+        <v>15660000</v>
+      </c>
+      <c r="L1001">
+        <v>15660000</v>
+      </c>
+    </row>
+    <row r="1002" spans="1:12">
+      <c r="A1002">
+        <v>999</v>
+      </c>
+      <c r="B1002">
+        <v>626402</v>
+      </c>
+      <c r="C1002" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1002" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1002" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F1002" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1002" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H1002" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1002" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1002">
+        <v>1</v>
+      </c>
+      <c r="K1002">
+        <v>13824846</v>
+      </c>
+      <c r="L1002">
+        <v>13824846</v>
+      </c>
+    </row>
+    <row r="1003" spans="1:12">
+      <c r="A1003">
+        <v>1000</v>
+      </c>
+      <c r="B1003">
+        <v>626402</v>
+      </c>
+      <c r="C1003" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1003" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1003" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F1003" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1003" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H1003" t="s">
+        <v>41</v>
+      </c>
+      <c r="I1003" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1003">
+        <v>1</v>
+      </c>
+      <c r="K1003">
+        <v>7604100</v>
+      </c>
+      <c r="L1003">
+        <v>7604100</v>
+      </c>
+    </row>
+    <row r="1004" spans="1:12">
+      <c r="A1004">
+        <v>1001</v>
+      </c>
+      <c r="B1004">
+        <v>626402</v>
+      </c>
+      <c r="C1004" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1004" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1004" t="s">
+        <v>1447</v>
+      </c>
+      <c r="F1004" t="s">
+        <v>1448</v>
+      </c>
+      <c r="G1004" t="s">
+        <v>1449</v>
+      </c>
+      <c r="H1004" t="s">
+        <v>42</v>
+      </c>
+      <c r="I1004" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1004">
+        <v>1</v>
+      </c>
+      <c r="K1004">
+        <v>3150000</v>
+      </c>
+      <c r="L1004">
+        <v>3150000</v>
+      </c>
+    </row>
+    <row r="1005" spans="1:12">
+      <c r="A1005">
+        <v>1002</v>
+      </c>
+      <c r="B1005">
+        <v>626402</v>
+      </c>
+      <c r="C1005" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1005" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1005" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F1005" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G1005" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H1005" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1005" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1005">
+        <v>1</v>
+      </c>
+      <c r="K1005">
+        <v>156091200</v>
+      </c>
+      <c r="L1005">
+        <v>156091200</v>
+      </c>
+    </row>
+    <row r="1006" spans="1:12">
+      <c r="A1006">
+        <v>1003</v>
+      </c>
+      <c r="B1006">
+        <v>626402</v>
+      </c>
+      <c r="C1006" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1006" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1006" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F1006" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G1006" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H1006" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1006" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1006">
+        <v>1</v>
+      </c>
+      <c r="K1006">
+        <v>2164</v>
+      </c>
+      <c r="L1006">
+        <v>2164</v>
+      </c>
+    </row>
+    <row r="1007" spans="1:12">
+      <c r="A1007">
+        <v>1004</v>
+      </c>
+      <c r="B1007">
+        <v>626402</v>
+      </c>
+      <c r="C1007" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1007" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1007" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F1007" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G1007" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H1007" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1007" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1007">
+        <v>1</v>
+      </c>
+      <c r="K1007">
+        <v>10835790</v>
+      </c>
+      <c r="L1007">
+        <v>10835790</v>
+      </c>
+    </row>
+    <row r="1008" spans="1:12">
+      <c r="A1008">
+        <v>1005</v>
+      </c>
+      <c r="B1008">
+        <v>626402</v>
+      </c>
+      <c r="C1008" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1008" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1008" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F1008" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G1008" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H1008" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1008" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1008">
+        <v>1</v>
+      </c>
+      <c r="K1008">
+        <v>3385126</v>
+      </c>
+      <c r="L1008">
+        <v>3385126</v>
+      </c>
+    </row>
+    <row r="1009" spans="1:12">
+      <c r="A1009">
+        <v>1006</v>
+      </c>
+      <c r="B1009">
+        <v>626402</v>
+      </c>
+      <c r="C1009" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1009" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1009" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F1009" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G1009" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H1009" t="s">
+        <v>50</v>
+      </c>
+      <c r="I1009" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1009">
+        <v>1</v>
+      </c>
+      <c r="K1009">
+        <v>2520000</v>
+      </c>
+      <c r="L1009">
+        <v>2520000</v>
+      </c>
+    </row>
+    <row r="1010" spans="1:12">
+      <c r="A1010">
+        <v>1007</v>
+      </c>
+      <c r="B1010">
+        <v>626402</v>
+      </c>
+      <c r="C1010" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1010" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1010" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F1010" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G1010" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H1010" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1010" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1010">
+        <v>1</v>
+      </c>
+      <c r="K1010">
+        <v>11960000</v>
+      </c>
+      <c r="L1010">
+        <v>11960000</v>
+      </c>
+    </row>
+    <row r="1011" spans="1:12">
+      <c r="A1011">
+        <v>1008</v>
+      </c>
+      <c r="B1011">
+        <v>626402</v>
+      </c>
+      <c r="C1011" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1011" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1011" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F1011" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G1011" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H1011" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1011" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1011">
+        <v>1</v>
+      </c>
+      <c r="K1011">
+        <v>8788604</v>
+      </c>
+      <c r="L1011">
+        <v>8788604</v>
+      </c>
+    </row>
+    <row r="1012" spans="1:12">
+      <c r="A1012">
+        <v>1009</v>
+      </c>
+      <c r="B1012">
+        <v>626402</v>
+      </c>
+      <c r="C1012" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1012" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1012" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F1012" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G1012" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H1012" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1012" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1012">
+        <v>1</v>
+      </c>
+      <c r="K1012">
+        <v>8038620</v>
+      </c>
+      <c r="L1012">
+        <v>8038620</v>
+      </c>
+    </row>
+    <row r="1013" spans="1:12">
+      <c r="A1013">
+        <v>1010</v>
+      </c>
+      <c r="B1013">
+        <v>626402</v>
+      </c>
+      <c r="C1013" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1013" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1013" t="s">
+        <v>1450</v>
+      </c>
+      <c r="F1013" t="s">
+        <v>1451</v>
+      </c>
+      <c r="G1013" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H1013" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1013" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1013">
+        <v>1</v>
+      </c>
+      <c r="K1013">
+        <v>4060000</v>
+      </c>
+      <c r="L1013">
+        <v>4060000</v>
+      </c>
+    </row>
+    <row r="1014" spans="1:12">
+      <c r="A1014">
+        <v>1011</v>
+      </c>
+      <c r="B1014">
+        <v>626402</v>
+      </c>
+      <c r="C1014" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1014" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1014" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F1014" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G1014" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H1014" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1014" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1014">
+        <v>1</v>
+      </c>
+      <c r="K1014">
+        <v>2995000</v>
+      </c>
+      <c r="L1014">
+        <v>2995000</v>
+      </c>
+    </row>
+    <row r="1015" spans="1:12">
+      <c r="A1015">
+        <v>1012</v>
+      </c>
+      <c r="B1015">
+        <v>626402</v>
+      </c>
+      <c r="C1015" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1015" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1015" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F1015" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G1015" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H1015" t="s">
+        <v>47</v>
+      </c>
+      <c r="I1015" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1015">
+        <v>1</v>
+      </c>
+      <c r="K1015">
+        <v>20</v>
+      </c>
+      <c r="L1015">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="1016" spans="1:12">
+      <c r="A1016">
+        <v>1013</v>
+      </c>
+      <c r="B1016">
+        <v>626402</v>
+      </c>
+      <c r="C1016" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1016" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1016" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F1016" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G1016" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H1016" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1016" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1016">
+        <v>1</v>
+      </c>
+      <c r="K1016">
+        <v>299500</v>
+      </c>
+      <c r="L1016">
+        <v>299500</v>
+      </c>
+    </row>
+    <row r="1017" spans="1:12">
+      <c r="A1017">
+        <v>1014</v>
+      </c>
+      <c r="B1017">
+        <v>626402</v>
+      </c>
+      <c r="C1017" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1017" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1017" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F1017" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G1017" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H1017" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1017" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1017">
+        <v>1</v>
+      </c>
+      <c r="K1017">
+        <v>119800</v>
+      </c>
+      <c r="L1017">
+        <v>119800</v>
+      </c>
+    </row>
+    <row r="1018" spans="1:12">
+      <c r="A1018">
+        <v>1015</v>
+      </c>
+      <c r="B1018">
+        <v>626402</v>
+      </c>
+      <c r="C1018" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1018" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1018" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F1018" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G1018" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H1018" t="s">
+        <v>52</v>
+      </c>
+      <c r="I1018" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1018">
+        <v>1</v>
+      </c>
+      <c r="K1018">
+        <v>583348</v>
+      </c>
+      <c r="L1018">
+        <v>583348</v>
+      </c>
+    </row>
+    <row r="1019" spans="1:12">
+      <c r="A1019">
+        <v>1016</v>
+      </c>
+      <c r="B1019">
+        <v>626402</v>
+      </c>
+      <c r="C1019" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1019" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1019" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F1019" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G1019" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H1019" t="s">
+        <v>53</v>
+      </c>
+      <c r="I1019" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1019">
+        <v>1</v>
+      </c>
+      <c r="K1019">
+        <v>289680</v>
+      </c>
+      <c r="L1019">
+        <v>289680</v>
+      </c>
+    </row>
+    <row r="1020" spans="1:12">
+      <c r="A1020">
+        <v>1017</v>
+      </c>
+      <c r="B1020">
+        <v>626402</v>
+      </c>
+      <c r="C1020" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1020" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1020" t="s">
+        <v>1453</v>
+      </c>
+      <c r="F1020" t="s">
+        <v>1454</v>
+      </c>
+      <c r="G1020" t="s">
+        <v>1446</v>
+      </c>
+      <c r="H1020" t="s">
+        <v>54</v>
+      </c>
+      <c r="I1020" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1020">
+        <v>1</v>
+      </c>
+      <c r="K1020">
+        <v>185000</v>
+      </c>
+      <c r="L1020">
+        <v>185000</v>
+      </c>
+    </row>
+    <row r="1021" spans="1:12">
+      <c r="A1021">
+        <v>1018</v>
+      </c>
+      <c r="B1021">
+        <v>626402</v>
+      </c>
+      <c r="C1021" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1021" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1021" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F1021" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G1021" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H1021" t="s">
+        <v>1458</v>
+      </c>
+      <c r="I1021" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1021">
+        <v>1</v>
+      </c>
+      <c r="K1021">
+        <v>6407200</v>
+      </c>
+      <c r="L1021">
+        <v>6407200</v>
+      </c>
+    </row>
+    <row r="1022" spans="1:12">
+      <c r="A1022">
+        <v>1019</v>
+      </c>
+      <c r="B1022">
+        <v>626402</v>
+      </c>
+      <c r="C1022" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1022" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1022" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F1022" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G1022" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H1022" t="s">
+        <v>1459</v>
+      </c>
+      <c r="I1022" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1022">
+        <v>1</v>
+      </c>
+      <c r="K1022">
+        <v>96</v>
+      </c>
+      <c r="L1022">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="1023" spans="1:12">
+      <c r="A1023">
+        <v>1020</v>
+      </c>
+      <c r="B1023">
+        <v>626402</v>
+      </c>
+      <c r="C1023" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1023" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1023" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F1023" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G1023" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H1023" t="s">
+        <v>248</v>
+      </c>
+      <c r="I1023" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1023">
+        <v>1</v>
+      </c>
+      <c r="K1023">
+        <v>320360</v>
+      </c>
+      <c r="L1023">
+        <v>320360</v>
+      </c>
+    </row>
+    <row r="1024" spans="1:12">
+      <c r="A1024">
+        <v>1021</v>
+      </c>
+      <c r="B1024">
+        <v>626402</v>
+      </c>
+      <c r="C1024" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1024" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1024" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F1024" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G1024" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H1024" t="s">
+        <v>249</v>
+      </c>
+      <c r="I1024" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1024">
+        <v>1</v>
+      </c>
+      <c r="K1024">
+        <v>128144</v>
+      </c>
+      <c r="L1024">
+        <v>128144</v>
+      </c>
+    </row>
+    <row r="1025" spans="1:12">
+      <c r="A1025">
+        <v>1022</v>
+      </c>
+      <c r="B1025">
+        <v>626402</v>
+      </c>
+      <c r="C1025" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1025" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1025" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F1025" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G1025" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H1025" t="s">
+        <v>1460</v>
+      </c>
+      <c r="I1025" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1025">
+        <v>1</v>
+      </c>
+      <c r="K1025">
+        <v>1080000</v>
+      </c>
+      <c r="L1025">
+        <v>1080000</v>
+      </c>
+    </row>
+    <row r="1026" spans="1:12">
+      <c r="A1026">
+        <v>1023</v>
+      </c>
+      <c r="B1026">
+        <v>626402</v>
+      </c>
+      <c r="C1026" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1026" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1026" t="s">
+        <v>1455</v>
+      </c>
+      <c r="F1026" t="s">
+        <v>1456</v>
+      </c>
+      <c r="G1026" t="s">
+        <v>1457</v>
+      </c>
+      <c r="H1026" t="s">
+        <v>1461</v>
+      </c>
+      <c r="I1026" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1026">
+        <v>1</v>
+      </c>
+      <c r="K1026">
+        <v>362100</v>
+      </c>
+      <c r="L1026">
+        <v>362100</v>
+      </c>
+    </row>
+    <row r="1027" spans="1:12">
+      <c r="A1027">
+        <v>1024</v>
+      </c>
+      <c r="B1027">
+        <v>626402</v>
+      </c>
+      <c r="C1027" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1027" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1027" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1027" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1027" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1027" t="s">
+        <v>929</v>
+      </c>
+      <c r="I1027" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1027">
+        <v>1</v>
+      </c>
+      <c r="K1027">
+        <v>3199199</v>
+      </c>
+      <c r="L1027">
+        <v>3199199</v>
+      </c>
+    </row>
+    <row r="1028" spans="1:12">
+      <c r="A1028">
+        <v>1025</v>
+      </c>
+      <c r="B1028">
+        <v>626402</v>
+      </c>
+      <c r="C1028" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1028" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1028" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1028" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1028" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1028" t="s">
+        <v>930</v>
+      </c>
+      <c r="I1028" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1028">
+        <v>1</v>
+      </c>
+      <c r="K1028">
+        <v>4129000</v>
+      </c>
+      <c r="L1028">
+        <v>4129000</v>
+      </c>
+    </row>
+    <row r="1029" spans="1:12">
+      <c r="A1029">
+        <v>1026</v>
+      </c>
+      <c r="B1029">
+        <v>626402</v>
+      </c>
+      <c r="C1029" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1029" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1029" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1029" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1029" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1029" t="s">
+        <v>934</v>
+      </c>
+      <c r="I1029" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1029">
+        <v>1</v>
+      </c>
+      <c r="K1029">
+        <v>2106602</v>
+      </c>
+      <c r="L1029">
+        <v>2106602</v>
+      </c>
+    </row>
+    <row r="1030" spans="1:12">
+      <c r="A1030">
+        <v>1027</v>
+      </c>
+      <c r="B1030">
+        <v>626402</v>
+      </c>
+      <c r="C1030" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1030" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1030" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1030" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1030" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1030" t="s">
+        <v>1465</v>
+      </c>
+      <c r="I1030" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1030">
+        <v>1</v>
+      </c>
+      <c r="K1030">
+        <v>3984000</v>
+      </c>
+      <c r="L1030">
+        <v>3984000</v>
+      </c>
+    </row>
+    <row r="1031" spans="1:12">
+      <c r="A1031">
+        <v>1028</v>
+      </c>
+      <c r="B1031">
+        <v>626402</v>
+      </c>
+      <c r="C1031" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1031" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1031" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1031" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1031" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1031" t="s">
+        <v>1466</v>
+      </c>
+      <c r="I1031" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1031">
+        <v>1</v>
+      </c>
+      <c r="K1031">
+        <v>648000</v>
+      </c>
+      <c r="L1031">
+        <v>648000</v>
+      </c>
+    </row>
+    <row r="1032" spans="1:12">
+      <c r="A1032">
+        <v>1029</v>
+      </c>
+      <c r="B1032">
+        <v>626402</v>
+      </c>
+      <c r="C1032" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1032" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1032" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1032" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1032" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1032" t="s">
+        <v>1467</v>
+      </c>
+      <c r="I1032" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1032">
+        <v>1</v>
+      </c>
+      <c r="K1032">
+        <v>324000</v>
+      </c>
+      <c r="L1032">
+        <v>324000</v>
+      </c>
+    </row>
+    <row r="1033" spans="1:12">
+      <c r="A1033">
+        <v>1030</v>
+      </c>
+      <c r="B1033">
+        <v>626402</v>
+      </c>
+      <c r="C1033" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1033" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1033" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1033" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1033" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1033" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I1033" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1033">
+        <v>1</v>
+      </c>
+      <c r="K1033">
+        <v>1360000</v>
+      </c>
+      <c r="L1033">
+        <v>1360000</v>
+      </c>
+    </row>
+    <row r="1034" spans="1:12">
+      <c r="A1034">
+        <v>1031</v>
+      </c>
+      <c r="B1034">
+        <v>626402</v>
+      </c>
+      <c r="C1034" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1034" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1034" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1034" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1034" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1034" t="s">
+        <v>1469</v>
+      </c>
+      <c r="I1034" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1034">
+        <v>1</v>
+      </c>
+      <c r="K1034">
+        <v>400000</v>
+      </c>
+      <c r="L1034">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="1035" spans="1:12">
+      <c r="A1035">
+        <v>1032</v>
+      </c>
+      <c r="B1035">
+        <v>626402</v>
+      </c>
+      <c r="C1035" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1035" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1035" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1035" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1035" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1035" t="s">
+        <v>1470</v>
+      </c>
+      <c r="I1035" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1035">
+        <v>1</v>
+      </c>
+      <c r="K1035">
+        <v>160000</v>
+      </c>
+      <c r="L1035">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="1036" spans="1:12">
+      <c r="A1036">
+        <v>1033</v>
+      </c>
+      <c r="B1036">
+        <v>626402</v>
+      </c>
+      <c r="C1036" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1036" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1036" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1036" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1036" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1036" t="s">
+        <v>1471</v>
+      </c>
+      <c r="I1036" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1036">
+        <v>1</v>
+      </c>
+      <c r="K1036">
+        <v>400000</v>
+      </c>
+      <c r="L1036">
+        <v>400000</v>
+      </c>
+    </row>
+    <row r="1037" spans="1:12">
+      <c r="A1037">
+        <v>1034</v>
+      </c>
+      <c r="B1037">
+        <v>626402</v>
+      </c>
+      <c r="C1037" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1037" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1037" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1037" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1037" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1037" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I1037" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1037">
+        <v>1</v>
+      </c>
+      <c r="K1037">
+        <v>4345000</v>
+      </c>
+      <c r="L1037">
+        <v>4345000</v>
+      </c>
+    </row>
+    <row r="1038" spans="1:12">
+      <c r="A1038">
+        <v>1035</v>
+      </c>
+      <c r="B1038">
+        <v>626402</v>
+      </c>
+      <c r="C1038" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1038" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1038" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1038" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1038" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1038" t="s">
+        <v>690</v>
+      </c>
+      <c r="I1038" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1038">
+        <v>1</v>
+      </c>
+      <c r="K1038">
+        <v>2160000</v>
+      </c>
+      <c r="L1038">
+        <v>2160000</v>
+      </c>
+    </row>
+    <row r="1039" spans="1:12">
+      <c r="A1039">
+        <v>1036</v>
+      </c>
+      <c r="B1039">
+        <v>626402</v>
+      </c>
+      <c r="C1039" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1039" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1039" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1039" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1039" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1039" t="s">
+        <v>691</v>
+      </c>
+      <c r="I1039" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1039">
+        <v>1</v>
+      </c>
+      <c r="K1039">
+        <v>586400</v>
+      </c>
+      <c r="L1039">
+        <v>586400</v>
+      </c>
+    </row>
+    <row r="1040" spans="1:12">
+      <c r="A1040">
+        <v>1037</v>
+      </c>
+      <c r="B1040">
+        <v>626402</v>
+      </c>
+      <c r="C1040" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1040" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1040" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1040" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1040" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1040" t="s">
+        <v>1473</v>
+      </c>
+      <c r="I1040" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1040">
+        <v>1</v>
+      </c>
+      <c r="K1040">
+        <v>18750000</v>
+      </c>
+      <c r="L1040">
+        <v>18750000</v>
+      </c>
+    </row>
+    <row r="1041" spans="1:12">
+      <c r="A1041">
+        <v>1038</v>
+      </c>
+      <c r="B1041">
+        <v>626402</v>
+      </c>
+      <c r="C1041" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1041" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1041" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1041" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1041" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1041" t="s">
+        <v>1474</v>
+      </c>
+      <c r="I1041" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1041">
+        <v>1</v>
+      </c>
+      <c r="K1041">
+        <v>9900000</v>
+      </c>
+      <c r="L1041">
+        <v>9900000</v>
+      </c>
+    </row>
+    <row r="1042" spans="1:12">
+      <c r="A1042">
+        <v>1039</v>
+      </c>
+      <c r="B1042">
+        <v>626402</v>
+      </c>
+      <c r="C1042" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1042" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1042" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1042" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1042" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1042" t="s">
+        <v>944</v>
+      </c>
+      <c r="I1042" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1042">
+        <v>1</v>
+      </c>
+      <c r="K1042">
+        <v>12976684</v>
+      </c>
+      <c r="L1042">
+        <v>12976684</v>
+      </c>
+    </row>
+    <row r="1043" spans="1:12">
+      <c r="A1043">
+        <v>1040</v>
+      </c>
+      <c r="B1043">
+        <v>626402</v>
+      </c>
+      <c r="C1043" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1043" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1043" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1043" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1043" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1043" t="s">
+        <v>945</v>
+      </c>
+      <c r="I1043" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1043">
+        <v>1</v>
+      </c>
+      <c r="K1043">
+        <v>78500</v>
+      </c>
+      <c r="L1043">
+        <v>78500</v>
+      </c>
+    </row>
+    <row r="1044" spans="1:12">
+      <c r="A1044">
+        <v>1041</v>
+      </c>
+      <c r="B1044">
+        <v>626402</v>
+      </c>
+      <c r="C1044" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1044" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1044" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1044" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1044" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1044" t="s">
+        <v>946</v>
+      </c>
+      <c r="I1044" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1044">
+        <v>1</v>
+      </c>
+      <c r="K1044">
+        <v>688400</v>
+      </c>
+      <c r="L1044">
+        <v>688400</v>
+      </c>
+    </row>
+    <row r="1045" spans="1:12">
+      <c r="A1045">
+        <v>1042</v>
+      </c>
+      <c r="B1045">
+        <v>626402</v>
+      </c>
+      <c r="C1045" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1045" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1045" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1045" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1045" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1045" t="s">
+        <v>1475</v>
+      </c>
+      <c r="I1045" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1045">
+        <v>1</v>
+      </c>
+      <c r="K1045">
+        <v>3257300</v>
+      </c>
+      <c r="L1045">
+        <v>3257300</v>
+      </c>
+    </row>
+    <row r="1046" spans="1:12">
+      <c r="A1046">
+        <v>1043</v>
+      </c>
+      <c r="B1046">
+        <v>626402</v>
+      </c>
+      <c r="C1046" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1046" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1046" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1046" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1046" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1046" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1046" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1046">
+        <v>1</v>
+      </c>
+      <c r="K1046">
+        <v>1069000</v>
+      </c>
+      <c r="L1046">
+        <v>1069000</v>
+      </c>
+    </row>
+    <row r="1047" spans="1:12">
+      <c r="A1047">
+        <v>1044</v>
+      </c>
+      <c r="B1047">
+        <v>626402</v>
+      </c>
+      <c r="C1047" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1047" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1047" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1047" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1047" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1047" t="s">
+        <v>703</v>
+      </c>
+      <c r="I1047" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1047">
+        <v>1</v>
+      </c>
+      <c r="K1047">
+        <v>340000</v>
+      </c>
+      <c r="L1047">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="1048" spans="1:12">
+      <c r="A1048">
+        <v>1045</v>
+      </c>
+      <c r="B1048">
+        <v>626402</v>
+      </c>
+      <c r="C1048" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1048" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1048" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1048" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1048" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1048" t="s">
+        <v>1476</v>
+      </c>
+      <c r="I1048" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1048">
+        <v>1</v>
+      </c>
+      <c r="K1048">
+        <v>6980000</v>
+      </c>
+      <c r="L1048">
+        <v>6980000</v>
+      </c>
+    </row>
+    <row r="1049" spans="1:12">
+      <c r="A1049">
+        <v>1046</v>
+      </c>
+      <c r="B1049">
+        <v>626402</v>
+      </c>
+      <c r="C1049" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1049" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1049" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1049" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1049" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1049" t="s">
+        <v>1477</v>
+      </c>
+      <c r="I1049" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1049">
+        <v>1</v>
+      </c>
+      <c r="K1049">
+        <v>850000</v>
+      </c>
+      <c r="L1049">
+        <v>850000</v>
+      </c>
+    </row>
+    <row r="1050" spans="1:12">
+      <c r="A1050">
+        <v>1047</v>
+      </c>
+      <c r="B1050">
+        <v>626402</v>
+      </c>
+      <c r="C1050" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1050" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1050" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1050" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1050" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1050" t="s">
+        <v>1478</v>
+      </c>
+      <c r="I1050" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1050">
+        <v>1</v>
+      </c>
+      <c r="K1050">
+        <v>1700000</v>
+      </c>
+      <c r="L1050">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="1051" spans="1:12">
+      <c r="A1051">
+        <v>1048</v>
+      </c>
+      <c r="B1051">
+        <v>626402</v>
+      </c>
+      <c r="C1051" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1051" t="s">
+        <v>1406</v>
+      </c>
+      <c r="E1051" t="s">
+        <v>1462</v>
+      </c>
+      <c r="F1051" t="s">
+        <v>1463</v>
+      </c>
+      <c r="G1051" t="s">
+        <v>1464</v>
+      </c>
+      <c r="H1051" t="s">
+        <v>1479</v>
+      </c>
+      <c r="I1051" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1051">
+        <v>1</v>
+      </c>
+      <c r="K1051">
+        <v>1500000</v>
+      </c>
+      <c r="L1051">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="1052" spans="1:12">
+      <c r="A1052">
+        <v>1049</v>
+      </c>
+      <c r="B1052">
+        <v>626402</v>
+      </c>
+      <c r="C1052" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1052" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1052" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F1052" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G1052" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H1052" t="s">
+        <v>225</v>
+      </c>
+      <c r="I1052" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1052">
+        <v>1</v>
+      </c>
+      <c r="K1052">
+        <v>40832000</v>
+      </c>
+      <c r="L1052">
+        <v>40832000</v>
+      </c>
+    </row>
+    <row r="1053" spans="1:12">
+      <c r="A1053">
+        <v>1050</v>
+      </c>
+      <c r="B1053">
+        <v>626402</v>
+      </c>
+      <c r="C1053" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1053" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1053" t="s">
+        <v>1480</v>
+      </c>
+      <c r="F1053" t="s">
+        <v>1481</v>
+      </c>
+      <c r="G1053" t="s">
+        <v>1482</v>
+      </c>
+      <c r="H1053" t="s">
+        <v>242</v>
+      </c>
+      <c r="I1053" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1053">
+        <v>1</v>
+      </c>
+      <c r="K1053">
+        <v>5615000</v>
+      </c>
+      <c r="L1053">
+        <v>5615000</v>
+      </c>
+    </row>
+    <row r="1054" spans="1:12">
+      <c r="A1054">
+        <v>1051</v>
+      </c>
+      <c r="B1054">
+        <v>626402</v>
+      </c>
+      <c r="C1054" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1054" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1054" t="s">
+        <v>1483</v>
+      </c>
+      <c r="F1054" t="s">
+        <v>1484</v>
+      </c>
+      <c r="G1054" t="s">
+        <v>1485</v>
+      </c>
+      <c r="H1054" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1054" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1054">
+        <v>1</v>
+      </c>
+      <c r="K1054">
+        <v>10648000</v>
+      </c>
+      <c r="L1054">
+        <v>10648000</v>
+      </c>
+    </row>
+    <row r="1055" spans="1:12">
+      <c r="A1055">
+        <v>1052</v>
+      </c>
+      <c r="B1055">
+        <v>626402</v>
+      </c>
+      <c r="C1055" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1055" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1055" t="s">
+        <v>1486</v>
+      </c>
+      <c r="F1055" t="s">
+        <v>1487</v>
+      </c>
+      <c r="G1055" t="s">
+        <v>1488</v>
+      </c>
+      <c r="H1055" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I1055" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1055">
+        <v>1</v>
+      </c>
+      <c r="K1055">
+        <v>11334000</v>
+      </c>
+      <c r="L1055">
+        <v>11334000</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:12">
+      <c r="A1056">
+        <v>1053</v>
+      </c>
+      <c r="B1056">
+        <v>626402</v>
+      </c>
+      <c r="C1056" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1056" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1056" t="s">
+        <v>1490</v>
+      </c>
+      <c r="F1056" t="s">
+        <v>1491</v>
+      </c>
+      <c r="G1056" t="s">
+        <v>1492</v>
+      </c>
+      <c r="H1056" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1056" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1056">
+        <v>1</v>
+      </c>
+      <c r="K1056">
+        <v>5289000</v>
+      </c>
+      <c r="L1056">
+        <v>5289000</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:12">
+      <c r="A1057">
+        <v>1054</v>
+      </c>
+      <c r="B1057">
+        <v>626402</v>
+      </c>
+      <c r="C1057" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1057" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1057" t="s">
+        <v>1493</v>
+      </c>
+      <c r="F1057" t="s">
+        <v>1494</v>
+      </c>
+      <c r="G1057" t="s">
+        <v>1495</v>
+      </c>
+      <c r="H1057" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1057" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1057">
+        <v>1</v>
+      </c>
+      <c r="K1057">
+        <v>1321000</v>
+      </c>
+      <c r="L1057">
+        <v>1321000</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:12">
+      <c r="A1058">
+        <v>1055</v>
+      </c>
+      <c r="B1058">
+        <v>626402</v>
+      </c>
+      <c r="C1058" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1058" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1058" t="s">
+        <v>1496</v>
+      </c>
+      <c r="F1058" t="s">
+        <v>1497</v>
+      </c>
+      <c r="G1058" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1058" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1058" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1058">
+        <v>1</v>
+      </c>
+      <c r="K1058">
+        <v>3145000</v>
+      </c>
+      <c r="L1058">
+        <v>3145000</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:12">
+      <c r="A1059">
+        <v>1056</v>
+      </c>
+      <c r="B1059">
+        <v>626402</v>
+      </c>
+      <c r="C1059" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1059" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1059" t="s">
+        <v>1499</v>
+      </c>
+      <c r="F1059" t="s">
+        <v>1500</v>
+      </c>
+      <c r="G1059" t="s">
+        <v>1501</v>
+      </c>
+      <c r="H1059" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1059" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1059">
+        <v>1</v>
+      </c>
+      <c r="K1059">
+        <v>4310000</v>
+      </c>
+      <c r="L1059">
+        <v>4310000</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:12">
+      <c r="A1060">
+        <v>1057</v>
+      </c>
+      <c r="B1060">
+        <v>626402</v>
+      </c>
+      <c r="C1060" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1060" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1060" t="s">
+        <v>1502</v>
+      </c>
+      <c r="F1060" t="s">
+        <v>1503</v>
+      </c>
+      <c r="G1060" t="s">
+        <v>1504</v>
+      </c>
+      <c r="H1060" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1060" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1060">
+        <v>1</v>
+      </c>
+      <c r="K1060">
+        <v>5543000</v>
+      </c>
+      <c r="L1060">
+        <v>5543000</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:12">
+      <c r="A1061">
+        <v>1058</v>
+      </c>
+      <c r="B1061">
+        <v>626402</v>
+      </c>
+      <c r="C1061" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1061" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1061" t="s">
+        <v>1505</v>
+      </c>
+      <c r="F1061" t="s">
+        <v>1506</v>
+      </c>
+      <c r="G1061" t="s">
+        <v>1507</v>
+      </c>
+      <c r="H1061" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1061" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1061">
+        <v>1</v>
+      </c>
+      <c r="K1061">
+        <v>7285316</v>
+      </c>
+      <c r="L1061">
+        <v>7285316</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:12">
+      <c r="A1062">
+        <v>1059</v>
+      </c>
+      <c r="B1062">
+        <v>626402</v>
+      </c>
+      <c r="C1062" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1062" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1062" t="s">
+        <v>1508</v>
+      </c>
+      <c r="F1062" t="s">
+        <v>1509</v>
+      </c>
+      <c r="G1062" t="s">
+        <v>1510</v>
+      </c>
+      <c r="H1062" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1062" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1062">
+        <v>1</v>
+      </c>
+      <c r="K1062">
+        <v>12038631</v>
+      </c>
+      <c r="L1062">
+        <v>12038631</v>
+      </c>
+    </row>
+    <row r="1063" spans="1:12">
+      <c r="A1063">
+        <v>1060</v>
+      </c>
+      <c r="B1063">
+        <v>626402</v>
+      </c>
+      <c r="C1063" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1063" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1063" t="s">
+        <v>1511</v>
+      </c>
+      <c r="F1063" t="s">
+        <v>1512</v>
+      </c>
+      <c r="G1063" t="s">
+        <v>1513</v>
+      </c>
+      <c r="H1063" t="s">
+        <v>1335</v>
+      </c>
+      <c r="I1063" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1063">
+        <v>1</v>
+      </c>
+      <c r="K1063">
+        <v>14137698</v>
+      </c>
+      <c r="L1063">
+        <v>14137698</v>
+      </c>
+    </row>
+    <row r="1064" spans="1:12">
+      <c r="A1064">
+        <v>1061</v>
+      </c>
+      <c r="B1064">
+        <v>626402</v>
+      </c>
+      <c r="C1064" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1064" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1064" t="s">
+        <v>1514</v>
+      </c>
+      <c r="F1064" t="s">
+        <v>1515</v>
+      </c>
+      <c r="G1064" t="s">
+        <v>1516</v>
+      </c>
+      <c r="H1064" t="s">
+        <v>732</v>
+      </c>
+      <c r="I1064" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1064">
+        <v>1</v>
+      </c>
+      <c r="K1064">
+        <v>875000</v>
+      </c>
+      <c r="L1064">
+        <v>875000</v>
+      </c>
+    </row>
+    <row r="1065" spans="1:12">
+      <c r="A1065">
+        <v>1062</v>
+      </c>
+      <c r="B1065">
+        <v>626402</v>
+      </c>
+      <c r="C1065" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1065" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1065" t="s">
+        <v>1517</v>
+      </c>
+      <c r="F1065" t="s">
+        <v>1518</v>
+      </c>
+      <c r="G1065" t="s">
+        <v>1519</v>
+      </c>
+      <c r="H1065" t="s">
+        <v>1489</v>
+      </c>
+      <c r="I1065" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1065">
+        <v>1</v>
+      </c>
+      <c r="K1065">
+        <v>3778000</v>
+      </c>
+      <c r="L1065">
+        <v>3778000</v>
+      </c>
+    </row>
+    <row r="1066" spans="1:12">
+      <c r="A1066">
+        <v>1063</v>
+      </c>
+      <c r="B1066">
+        <v>626402</v>
+      </c>
+      <c r="C1066" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1066" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1066" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F1066" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G1066" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H1066" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I1066" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1066">
+        <v>1</v>
+      </c>
+      <c r="K1066">
+        <v>840000</v>
+      </c>
+      <c r="L1066">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="1067" spans="1:12">
+      <c r="A1067">
+        <v>1064</v>
+      </c>
+      <c r="B1067">
+        <v>626402</v>
+      </c>
+      <c r="C1067" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1067" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1067" t="s">
+        <v>1520</v>
+      </c>
+      <c r="F1067" t="s">
+        <v>1521</v>
+      </c>
+      <c r="G1067" t="s">
+        <v>1522</v>
+      </c>
+      <c r="H1067" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I1067" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1067">
+        <v>1</v>
+      </c>
+      <c r="K1067">
+        <v>340000</v>
+      </c>
+      <c r="L1067">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="1068" spans="1:12">
+      <c r="A1068">
+        <v>1065</v>
+      </c>
+      <c r="B1068">
+        <v>626402</v>
+      </c>
+      <c r="C1068" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1068" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1068" t="s">
+        <v>1523</v>
+      </c>
+      <c r="F1068" t="s">
+        <v>1524</v>
+      </c>
+      <c r="G1068" t="s">
+        <v>1525</v>
+      </c>
+      <c r="H1068" t="s">
+        <v>1294</v>
+      </c>
+      <c r="I1068" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1068">
+        <v>1</v>
+      </c>
+      <c r="K1068">
+        <v>45306122</v>
+      </c>
+      <c r="L1068">
+        <v>45306122</v>
+      </c>
+    </row>
+    <row r="1069" spans="1:12">
+      <c r="A1069">
+        <v>1066</v>
+      </c>
+      <c r="B1069">
+        <v>626402</v>
+      </c>
+      <c r="C1069" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1069" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1069" t="s">
+        <v>1526</v>
+      </c>
+      <c r="F1069" t="s">
+        <v>1527</v>
+      </c>
+      <c r="G1069" t="s">
+        <v>1528</v>
+      </c>
+      <c r="H1069" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1069" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1069">
+        <v>1</v>
+      </c>
+      <c r="K1069">
+        <v>580000</v>
+      </c>
+      <c r="L1069">
+        <v>580000</v>
+      </c>
+    </row>
+    <row r="1070" spans="1:12">
+      <c r="A1070">
+        <v>1067</v>
+      </c>
+      <c r="B1070">
+        <v>626402</v>
+      </c>
+      <c r="C1070" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1070" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1070" t="s">
+        <v>1529</v>
+      </c>
+      <c r="F1070" t="s">
+        <v>1530</v>
+      </c>
+      <c r="G1070" t="s">
+        <v>1531</v>
+      </c>
+      <c r="H1070" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1070" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1070">
+        <v>1</v>
+      </c>
+      <c r="K1070">
+        <v>5903500</v>
+      </c>
+      <c r="L1070">
+        <v>5903500</v>
+      </c>
+    </row>
+    <row r="1071" spans="1:12">
+      <c r="A1071">
+        <v>1068</v>
+      </c>
+      <c r="B1071">
+        <v>626402</v>
+      </c>
+      <c r="C1071" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1071" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1071" t="s">
+        <v>1532</v>
+      </c>
+      <c r="F1071" t="s">
+        <v>1533</v>
+      </c>
+      <c r="G1071" t="s">
+        <v>1534</v>
+      </c>
+      <c r="H1071" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1071" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1071">
+        <v>1</v>
+      </c>
+      <c r="K1071">
+        <v>1891600</v>
+      </c>
+      <c r="L1071">
+        <v>1891600</v>
+      </c>
+    </row>
+    <row r="1072" spans="1:12">
+      <c r="A1072">
+        <v>1069</v>
+      </c>
+      <c r="B1072">
+        <v>626402</v>
+      </c>
+      <c r="C1072" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1072" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1072" t="s">
+        <v>1535</v>
+      </c>
+      <c r="F1072" t="s">
+        <v>1536</v>
+      </c>
+      <c r="G1072" t="s">
+        <v>1537</v>
+      </c>
+      <c r="H1072" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1072" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1072">
+        <v>1</v>
+      </c>
+      <c r="K1072">
+        <v>1798000</v>
+      </c>
+      <c r="L1072">
+        <v>1798000</v>
+      </c>
+    </row>
+    <row r="1073" spans="1:12">
+      <c r="A1073">
+        <v>1070</v>
+      </c>
+      <c r="B1073">
+        <v>626402</v>
+      </c>
+      <c r="C1073" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1073" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1073" t="s">
+        <v>1538</v>
+      </c>
+      <c r="F1073" t="s">
+        <v>1539</v>
+      </c>
+      <c r="G1073" t="s">
+        <v>1540</v>
+      </c>
+      <c r="H1073" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1073" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1073">
+        <v>1</v>
+      </c>
+      <c r="K1073">
+        <v>714300</v>
+      </c>
+      <c r="L1073">
+        <v>714300</v>
+      </c>
+    </row>
+    <row r="1074" spans="1:12">
+      <c r="A1074">
+        <v>1071</v>
+      </c>
+      <c r="B1074">
+        <v>626402</v>
+      </c>
+      <c r="C1074" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1074" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1074" t="s">
+        <v>1541</v>
+      </c>
+      <c r="F1074" t="s">
+        <v>1542</v>
+      </c>
+      <c r="G1074" t="s">
+        <v>1543</v>
+      </c>
+      <c r="H1074" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1074" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1074">
+        <v>1</v>
+      </c>
+      <c r="K1074">
+        <v>6960000</v>
+      </c>
+      <c r="L1074">
+        <v>6960000</v>
+      </c>
+    </row>
+    <row r="1075" spans="1:12">
+      <c r="A1075">
+        <v>1072</v>
+      </c>
+      <c r="B1075">
+        <v>626402</v>
+      </c>
+      <c r="C1075" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1075" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1075" t="s">
+        <v>1544</v>
+      </c>
+      <c r="F1075" t="s">
+        <v>1545</v>
+      </c>
+      <c r="G1075" t="s">
+        <v>1546</v>
+      </c>
+      <c r="H1075" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1075" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1075">
+        <v>1</v>
+      </c>
+      <c r="K1075">
+        <v>1830000</v>
+      </c>
+      <c r="L1075">
+        <v>1830000</v>
+      </c>
+    </row>
+    <row r="1076" spans="1:12">
+      <c r="A1076">
+        <v>1073</v>
+      </c>
+      <c r="B1076">
+        <v>626402</v>
+      </c>
+      <c r="C1076" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1076" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1076" t="s">
+        <v>1547</v>
+      </c>
+      <c r="F1076" t="s">
+        <v>1548</v>
+      </c>
+      <c r="G1076" t="s">
+        <v>1549</v>
+      </c>
+      <c r="H1076" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1076" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1076">
+        <v>1</v>
+      </c>
+      <c r="K1076">
+        <v>2554500</v>
+      </c>
+      <c r="L1076">
+        <v>2554500</v>
+      </c>
+    </row>
+    <row r="1077" spans="1:12">
+      <c r="A1077">
+        <v>1074</v>
+      </c>
+      <c r="B1077">
+        <v>626402</v>
+      </c>
+      <c r="C1077" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1077" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1077" t="s">
+        <v>1550</v>
+      </c>
+      <c r="F1077" t="s">
+        <v>1551</v>
+      </c>
+      <c r="G1077" t="s">
+        <v>1552</v>
+      </c>
+      <c r="H1077" t="s">
+        <v>400</v>
+      </c>
+      <c r="I1077" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1077">
+        <v>1</v>
+      </c>
+      <c r="K1077">
+        <v>417273116</v>
+      </c>
+      <c r="L1077">
+        <v>417273116</v>
+      </c>
+    </row>
+    <row r="1078" spans="1:12">
+      <c r="A1078">
+        <v>1075</v>
+      </c>
+      <c r="B1078">
+        <v>626402</v>
+      </c>
+      <c r="C1078" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1078" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1078" t="s">
+        <v>1553</v>
+      </c>
+      <c r="F1078" t="s">
+        <v>1554</v>
+      </c>
+      <c r="G1078" t="s">
+        <v>1452</v>
+      </c>
+      <c r="H1078" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1078" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1078">
+        <v>1</v>
+      </c>
+      <c r="K1078">
+        <v>204077447</v>
+      </c>
+      <c r="L1078">
+        <v>204077447</v>
+      </c>
+    </row>
+    <row r="1079" spans="1:12">
+      <c r="A1079">
+        <v>1076</v>
+      </c>
+      <c r="B1079">
+        <v>626402</v>
+      </c>
+      <c r="C1079" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1079" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1079" t="s">
+        <v>1555</v>
+      </c>
+      <c r="F1079" t="s">
+        <v>1556</v>
+      </c>
+      <c r="G1079" t="s">
+        <v>1557</v>
+      </c>
+      <c r="H1079" t="s">
+        <v>396</v>
+      </c>
+      <c r="I1079" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1079">
+        <v>1</v>
+      </c>
+      <c r="K1079">
+        <v>200005024</v>
+      </c>
+      <c r="L1079">
+        <v>200005024</v>
+      </c>
+    </row>
+    <row r="1080" spans="1:12">
+      <c r="A1080">
+        <v>1077</v>
+      </c>
+      <c r="B1080">
+        <v>626402</v>
+      </c>
+      <c r="C1080" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1080" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1080" t="s">
+        <v>1558</v>
+      </c>
+      <c r="F1080" t="s">
+        <v>1559</v>
+      </c>
+      <c r="G1080" t="s">
+        <v>1560</v>
+      </c>
+      <c r="H1080" t="s">
+        <v>400</v>
+      </c>
+      <c r="I1080" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1080">
+        <v>1</v>
+      </c>
+      <c r="K1080">
+        <v>5338400</v>
+      </c>
+      <c r="L1080">
+        <v>5338400</v>
+      </c>
+    </row>
+    <row r="1081" spans="1:12">
+      <c r="A1081">
+        <v>1078</v>
+      </c>
+      <c r="B1081">
+        <v>626402</v>
+      </c>
+      <c r="C1081" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1081" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1081" t="s">
+        <v>1561</v>
+      </c>
+      <c r="F1081" t="s">
+        <v>1562</v>
+      </c>
+      <c r="G1081" t="s">
+        <v>1563</v>
+      </c>
+      <c r="H1081" t="s">
+        <v>400</v>
+      </c>
+      <c r="I1081" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1081">
+        <v>1</v>
+      </c>
+      <c r="K1081">
+        <v>3595474</v>
+      </c>
+      <c r="L1081">
+        <v>3595474</v>
+      </c>
+    </row>
+    <row r="1082" spans="1:12">
+      <c r="A1082">
+        <v>1079</v>
+      </c>
+      <c r="B1082">
+        <v>626402</v>
+      </c>
+      <c r="C1082" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1082" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1082" t="s">
+        <v>1564</v>
+      </c>
+      <c r="F1082" t="s">
+        <v>1565</v>
+      </c>
+      <c r="G1082" t="s">
+        <v>1566</v>
+      </c>
+      <c r="H1082" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1082" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1082">
+        <v>1</v>
+      </c>
+      <c r="K1082">
+        <v>3916354</v>
+      </c>
+      <c r="L1082">
+        <v>3916354</v>
+      </c>
+    </row>
+    <row r="1083" spans="1:12">
+      <c r="A1083">
+        <v>1080</v>
+      </c>
+      <c r="B1083">
+        <v>626402</v>
+      </c>
+      <c r="C1083" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1083" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1083" t="s">
+        <v>1567</v>
+      </c>
+      <c r="F1083" t="s">
+        <v>1568</v>
+      </c>
+      <c r="G1083" t="s">
+        <v>1569</v>
+      </c>
+      <c r="H1083" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1083" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1083">
+        <v>1</v>
+      </c>
+      <c r="K1083">
+        <v>153120000</v>
+      </c>
+      <c r="L1083">
+        <v>153120000</v>
+      </c>
+    </row>
+    <row r="1084" spans="1:12">
+      <c r="A1084">
+        <v>1081</v>
+      </c>
+      <c r="B1084">
+        <v>626402</v>
+      </c>
+      <c r="C1084" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1084" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1084" t="s">
+        <v>1570</v>
+      </c>
+      <c r="F1084" t="s">
+        <v>1571</v>
+      </c>
+      <c r="G1084" t="s">
+        <v>1572</v>
+      </c>
+      <c r="H1084" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1084" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1084">
+        <v>1</v>
+      </c>
+      <c r="K1084">
+        <v>5104000</v>
+      </c>
+      <c r="L1084">
+        <v>5104000</v>
+      </c>
+    </row>
+    <row r="1085" spans="1:12">
+      <c r="A1085">
+        <v>1082</v>
+      </c>
+      <c r="B1085">
+        <v>626402</v>
+      </c>
+      <c r="C1085" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1085" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1085" t="s">
+        <v>1573</v>
+      </c>
+      <c r="F1085" t="s">
+        <v>1574</v>
+      </c>
+      <c r="G1085" t="s">
+        <v>1575</v>
+      </c>
+      <c r="H1085" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1085" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1085">
+        <v>1</v>
+      </c>
+      <c r="K1085">
+        <v>5709000</v>
+      </c>
+      <c r="L1085">
+        <v>5709000</v>
+      </c>
+    </row>
+    <row r="1086" spans="1:12">
+      <c r="A1086">
+        <v>1083</v>
+      </c>
+      <c r="B1086">
+        <v>626402</v>
+      </c>
+      <c r="C1086" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1086" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1086" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F1086" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G1086" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H1086" t="s">
+        <v>744</v>
+      </c>
+      <c r="I1086" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1086">
+        <v>1</v>
+      </c>
+      <c r="K1086">
+        <v>520000</v>
+      </c>
+      <c r="L1086">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="1087" spans="1:12">
+      <c r="A1087">
+        <v>1084</v>
+      </c>
+      <c r="B1087">
+        <v>626402</v>
+      </c>
+      <c r="C1087" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1087" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1087" t="s">
+        <v>1576</v>
+      </c>
+      <c r="F1087" t="s">
+        <v>1577</v>
+      </c>
+      <c r="G1087" t="s">
+        <v>1578</v>
+      </c>
+      <c r="H1087" t="s">
+        <v>775</v>
+      </c>
+      <c r="I1087" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1087">
+        <v>1</v>
+      </c>
+      <c r="K1087">
+        <v>170000</v>
+      </c>
+      <c r="L1087">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="1088" spans="1:12">
+      <c r="A1088">
+        <v>1085</v>
+      </c>
+      <c r="B1088">
+        <v>626402</v>
+      </c>
+      <c r="C1088" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1088" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1088" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F1088" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G1088" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H1088" t="s">
+        <v>744</v>
+      </c>
+      <c r="I1088" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1088">
+        <v>1</v>
+      </c>
+      <c r="K1088">
+        <v>840000</v>
+      </c>
+      <c r="L1088">
+        <v>840000</v>
+      </c>
+    </row>
+    <row r="1089" spans="1:12">
+      <c r="A1089">
+        <v>1086</v>
+      </c>
+      <c r="B1089">
+        <v>626402</v>
+      </c>
+      <c r="C1089" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1089" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1089" t="s">
+        <v>1579</v>
+      </c>
+      <c r="F1089" t="s">
+        <v>1580</v>
+      </c>
+      <c r="G1089" t="s">
+        <v>1581</v>
+      </c>
+      <c r="H1089" t="s">
+        <v>775</v>
+      </c>
+      <c r="I1089" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1089">
+        <v>1</v>
+      </c>
+      <c r="K1089">
+        <v>510000</v>
+      </c>
+      <c r="L1089">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1090" spans="1:12">
+      <c r="A1090">
+        <v>1087</v>
+      </c>
+      <c r="B1090">
+        <v>626402</v>
+      </c>
+      <c r="C1090" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1090" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1090" t="s">
+        <v>1582</v>
+      </c>
+      <c r="F1090" t="s">
+        <v>1583</v>
+      </c>
+      <c r="G1090" t="s">
+        <v>1584</v>
+      </c>
+      <c r="H1090" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1090" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1090">
+        <v>1</v>
+      </c>
+      <c r="K1090">
+        <v>1893500</v>
+      </c>
+      <c r="L1090">
+        <v>1893500</v>
+      </c>
+    </row>
+    <row r="1091" spans="1:12">
+      <c r="A1091">
+        <v>1088</v>
+      </c>
+      <c r="B1091">
+        <v>626402</v>
+      </c>
+      <c r="C1091" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1091" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1091" t="s">
+        <v>1585</v>
+      </c>
+      <c r="F1091" t="s">
+        <v>1586</v>
+      </c>
+      <c r="G1091" t="s">
+        <v>1587</v>
+      </c>
+      <c r="H1091" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1091" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1091">
+        <v>1</v>
+      </c>
+      <c r="K1091">
+        <v>2895000</v>
+      </c>
+      <c r="L1091">
+        <v>2895000</v>
+      </c>
+    </row>
+    <row r="1092" spans="1:12">
+      <c r="A1092">
+        <v>1089</v>
+      </c>
+      <c r="B1092">
+        <v>626402</v>
+      </c>
+      <c r="C1092" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1092" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1092" t="s">
+        <v>1588</v>
+      </c>
+      <c r="F1092" t="s">
+        <v>1589</v>
+      </c>
+      <c r="G1092" t="s">
+        <v>1590</v>
+      </c>
+      <c r="H1092" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1092" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1092">
+        <v>1</v>
+      </c>
+      <c r="K1092">
+        <v>580000</v>
+      </c>
+      <c r="L1092">
+        <v>580000</v>
+      </c>
+    </row>
+    <row r="1093" spans="1:12">
+      <c r="A1093">
+        <v>1090</v>
+      </c>
+      <c r="B1093">
+        <v>626402</v>
+      </c>
+      <c r="C1093" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1093" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1093" t="s">
+        <v>1591</v>
+      </c>
+      <c r="F1093" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G1093" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H1093" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1093" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1093">
+        <v>1</v>
+      </c>
+      <c r="K1093">
+        <v>15312000</v>
+      </c>
+      <c r="L1093">
+        <v>15312000</v>
+      </c>
+    </row>
+    <row r="1094" spans="1:12">
+      <c r="A1094">
+        <v>1091</v>
+      </c>
+      <c r="B1094">
+        <v>626402</v>
+      </c>
+      <c r="C1094" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1094" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1094" t="s">
+        <v>1594</v>
+      </c>
+      <c r="F1094" t="s">
+        <v>1595</v>
+      </c>
+      <c r="G1094" t="s">
+        <v>1596</v>
+      </c>
+      <c r="H1094" t="s">
+        <v>171</v>
+      </c>
+      <c r="I1094" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1094">
+        <v>1</v>
+      </c>
+      <c r="K1094">
+        <v>45936000</v>
+      </c>
+      <c r="L1094">
+        <v>45936000</v>
+      </c>
+    </row>
+    <row r="1095" spans="1:12">
+      <c r="A1095">
+        <v>1092</v>
+      </c>
+      <c r="B1095">
+        <v>626402</v>
+      </c>
+      <c r="C1095" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1095" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1095" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1095" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1095" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1095" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1095" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1095">
+        <v>1</v>
+      </c>
+      <c r="K1095">
+        <v>32169500</v>
+      </c>
+      <c r="L1095">
+        <v>32169500</v>
+      </c>
+    </row>
+    <row r="1096" spans="1:12">
+      <c r="A1096">
+        <v>1093</v>
+      </c>
+      <c r="B1096">
+        <v>626402</v>
+      </c>
+      <c r="C1096" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1096" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1096" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1096" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1096" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1096" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1096" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1096">
+        <v>1</v>
+      </c>
+      <c r="K1096">
+        <v>1323525</v>
+      </c>
+      <c r="L1096">
+        <v>1323525</v>
+      </c>
+    </row>
+    <row r="1097" spans="1:12">
+      <c r="A1097">
+        <v>1094</v>
+      </c>
+      <c r="B1097">
+        <v>626402</v>
+      </c>
+      <c r="C1097" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1097" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1097" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1097" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1097" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1097" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1097" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1097">
+        <v>1</v>
+      </c>
+      <c r="K1097">
+        <v>513238</v>
+      </c>
+      <c r="L1097">
+        <v>513238</v>
+      </c>
+    </row>
+    <row r="1098" spans="1:12">
+      <c r="A1098">
+        <v>1095</v>
+      </c>
+      <c r="B1098">
+        <v>626402</v>
+      </c>
+      <c r="C1098" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1098" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1098" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1098" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1098" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1098" t="s">
+        <v>1599</v>
+      </c>
+      <c r="I1098" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1098">
+        <v>1</v>
+      </c>
+      <c r="K1098">
+        <v>998600</v>
+      </c>
+      <c r="L1098">
+        <v>998600</v>
+      </c>
+    </row>
+    <row r="1099" spans="1:12">
+      <c r="A1099">
+        <v>1096</v>
+      </c>
+      <c r="B1099">
+        <v>626402</v>
+      </c>
+      <c r="C1099" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1099" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1099" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1099" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1099" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1099" t="s">
+        <v>1600</v>
+      </c>
+      <c r="I1099" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1099">
+        <v>1</v>
+      </c>
+      <c r="K1099">
+        <v>2000000</v>
+      </c>
+      <c r="L1099">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="1100" spans="1:12">
+      <c r="A1100">
+        <v>1097</v>
+      </c>
+      <c r="B1100">
+        <v>626402</v>
+      </c>
+      <c r="C1100" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1100" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1100" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1100" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1100" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1100" t="s">
+        <v>1601</v>
+      </c>
+      <c r="I1100" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1100">
+        <v>1</v>
+      </c>
+      <c r="K1100">
+        <v>1997000</v>
+      </c>
+      <c r="L1100">
+        <v>1997000</v>
+      </c>
+    </row>
+    <row r="1101" spans="1:12">
+      <c r="A1101">
+        <v>1098</v>
+      </c>
+      <c r="B1101">
+        <v>626402</v>
+      </c>
+      <c r="C1101" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1101" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1101" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1101" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1101" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1101" t="s">
+        <v>1602</v>
+      </c>
+      <c r="I1101" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1101">
+        <v>1</v>
+      </c>
+      <c r="K1101">
+        <v>1985750</v>
+      </c>
+      <c r="L1101">
+        <v>1985750</v>
+      </c>
+    </row>
+    <row r="1102" spans="1:12">
+      <c r="A1102">
+        <v>1099</v>
+      </c>
+      <c r="B1102">
+        <v>626402</v>
+      </c>
+      <c r="C1102" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1102" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1102" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1102" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1102" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1102" t="s">
+        <v>1603</v>
+      </c>
+      <c r="I1102" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1102">
+        <v>1</v>
+      </c>
+      <c r="K1102">
+        <v>2000000</v>
+      </c>
+      <c r="L1102">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="1103" spans="1:12">
+      <c r="A1103">
+        <v>1100</v>
+      </c>
+      <c r="B1103">
+        <v>626402</v>
+      </c>
+      <c r="C1103" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1103" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1103" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1103" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1103" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1103" t="s">
+        <v>1604</v>
+      </c>
+      <c r="I1103" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1103">
+        <v>1</v>
+      </c>
+      <c r="K1103">
+        <v>1999750</v>
+      </c>
+      <c r="L1103">
+        <v>1999750</v>
+      </c>
+    </row>
+    <row r="1104" spans="1:12">
+      <c r="A1104">
+        <v>1101</v>
+      </c>
+      <c r="B1104">
+        <v>626402</v>
+      </c>
+      <c r="C1104" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1104" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1104" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1104" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1104" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1104" t="s">
+        <v>1605</v>
+      </c>
+      <c r="I1104" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1104">
+        <v>1</v>
+      </c>
+      <c r="K1104">
+        <v>1998500</v>
+      </c>
+      <c r="L1104">
+        <v>1998500</v>
+      </c>
+    </row>
+    <row r="1105" spans="1:12">
+      <c r="A1105">
+        <v>1102</v>
+      </c>
+      <c r="B1105">
+        <v>626402</v>
+      </c>
+      <c r="C1105" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1105" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1105" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1105" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1105" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1105" t="s">
+        <v>1606</v>
+      </c>
+      <c r="I1105" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1105">
+        <v>1</v>
+      </c>
+      <c r="K1105">
+        <v>1995000</v>
+      </c>
+      <c r="L1105">
+        <v>1995000</v>
+      </c>
+    </row>
+    <row r="1106" spans="1:12">
+      <c r="A1106">
+        <v>1103</v>
+      </c>
+      <c r="B1106">
+        <v>626402</v>
+      </c>
+      <c r="C1106" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1106" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1106" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1106" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1106" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1106" t="s">
+        <v>1607</v>
+      </c>
+      <c r="I1106" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1106">
+        <v>1</v>
+      </c>
+      <c r="K1106">
+        <v>1999500</v>
+      </c>
+      <c r="L1106">
+        <v>1999500</v>
+      </c>
+    </row>
+    <row r="1107" spans="1:12">
+      <c r="A1107">
+        <v>1104</v>
+      </c>
+      <c r="B1107">
+        <v>626402</v>
+      </c>
+      <c r="C1107" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1107" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1107" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1107" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1107" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1107" t="s">
+        <v>1608</v>
+      </c>
+      <c r="I1107" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1107">
+        <v>1</v>
+      </c>
+      <c r="K1107">
+        <v>1995900</v>
+      </c>
+      <c r="L1107">
+        <v>1995900</v>
+      </c>
+    </row>
+    <row r="1108" spans="1:12">
+      <c r="A1108">
+        <v>1105</v>
+      </c>
+      <c r="B1108">
+        <v>626402</v>
+      </c>
+      <c r="C1108" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1108" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1108" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1108" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1108" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1108" t="s">
+        <v>1609</v>
+      </c>
+      <c r="I1108" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1108">
+        <v>1</v>
+      </c>
+      <c r="K1108">
+        <v>1991000</v>
+      </c>
+      <c r="L1108">
+        <v>1991000</v>
+      </c>
+    </row>
+    <row r="1109" spans="1:12">
+      <c r="A1109">
+        <v>1106</v>
+      </c>
+      <c r="B1109">
+        <v>626402</v>
+      </c>
+      <c r="C1109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1109" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1109" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1109" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1109" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1109" t="s">
+        <v>1610</v>
+      </c>
+      <c r="I1109" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1109">
+        <v>1</v>
+      </c>
+      <c r="K1109">
+        <v>1998000</v>
+      </c>
+      <c r="L1109">
+        <v>1998000</v>
+      </c>
+    </row>
+    <row r="1110" spans="1:12">
+      <c r="A1110">
+        <v>1107</v>
+      </c>
+      <c r="B1110">
+        <v>626402</v>
+      </c>
+      <c r="C1110" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1110" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1110" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1110" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1110" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1110" t="s">
+        <v>1611</v>
+      </c>
+      <c r="I1110" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1110">
+        <v>1</v>
+      </c>
+      <c r="K1110">
+        <v>999000</v>
+      </c>
+      <c r="L1110">
+        <v>999000</v>
+      </c>
+    </row>
+    <row r="1111" spans="1:12">
+      <c r="A1111">
+        <v>1108</v>
+      </c>
+      <c r="B1111">
+        <v>626402</v>
+      </c>
+      <c r="C1111" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1111" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1111" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1111" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1111" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1111" t="s">
+        <v>1612</v>
+      </c>
+      <c r="I1111" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1111">
+        <v>1</v>
+      </c>
+      <c r="K1111">
+        <v>985000</v>
+      </c>
+      <c r="L1111">
+        <v>985000</v>
+      </c>
+    </row>
+    <row r="1112" spans="1:12">
+      <c r="A1112">
+        <v>1109</v>
+      </c>
+      <c r="B1112">
+        <v>626402</v>
+      </c>
+      <c r="C1112" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1112" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1112" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1112" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1112" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1112" t="s">
+        <v>1613</v>
+      </c>
+      <c r="I1112" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1112">
+        <v>1</v>
+      </c>
+      <c r="K1112">
+        <v>1997500</v>
+      </c>
+      <c r="L1112">
+        <v>1997500</v>
+      </c>
+    </row>
+    <row r="1113" spans="1:12">
+      <c r="A1113">
+        <v>1110</v>
+      </c>
+      <c r="B1113">
+        <v>626402</v>
+      </c>
+      <c r="C1113" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1113" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1113" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1113" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1113" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1113" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1113" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1113">
+        <v>1</v>
+      </c>
+      <c r="K1113">
+        <v>43500</v>
+      </c>
+      <c r="L1113">
+        <v>43500</v>
+      </c>
+    </row>
+    <row r="1114" spans="1:12">
+      <c r="A1114">
+        <v>1111</v>
+      </c>
+      <c r="B1114">
+        <v>626402</v>
+      </c>
+      <c r="C1114" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1114" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1114" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1114" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1114" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1114" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1114" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1114">
+        <v>1</v>
+      </c>
+      <c r="K1114">
+        <v>2712116</v>
+      </c>
+      <c r="L1114">
+        <v>2712116</v>
+      </c>
+    </row>
+    <row r="1115" spans="1:12">
+      <c r="A1115">
+        <v>1112</v>
+      </c>
+      <c r="B1115">
+        <v>626402</v>
+      </c>
+      <c r="C1115" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1115" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1115" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1115" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1115" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1115" t="s">
+        <v>1614</v>
+      </c>
+      <c r="I1115" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1115">
+        <v>1</v>
+      </c>
+      <c r="K1115">
+        <v>5500000</v>
+      </c>
+      <c r="L1115">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="1116" spans="1:12">
+      <c r="A1116">
+        <v>1113</v>
+      </c>
+      <c r="B1116">
+        <v>626402</v>
+      </c>
+      <c r="C1116" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1116" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1116" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1116" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1116" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1116" t="s">
+        <v>1615</v>
+      </c>
+      <c r="I1116" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1116">
+        <v>1</v>
+      </c>
+      <c r="K1116">
+        <v>5500000</v>
+      </c>
+      <c r="L1116">
+        <v>5500000</v>
+      </c>
+    </row>
+    <row r="1117" spans="1:12">
+      <c r="A1117">
+        <v>1114</v>
+      </c>
+      <c r="B1117">
+        <v>626402</v>
+      </c>
+      <c r="C1117" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1117" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1117" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1117" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1117" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1117" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1117" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1117">
+        <v>1</v>
+      </c>
+      <c r="K1117">
+        <v>79000</v>
+      </c>
+      <c r="L1117">
+        <v>79000</v>
+      </c>
+    </row>
+    <row r="1118" spans="1:12">
+      <c r="A1118">
+        <v>1115</v>
+      </c>
+      <c r="B1118">
+        <v>626402</v>
+      </c>
+      <c r="C1118" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1118" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1118" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1118" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1118" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1118" t="s">
+        <v>1616</v>
+      </c>
+      <c r="I1118" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1118">
+        <v>1</v>
+      </c>
+      <c r="K1118">
+        <v>2351735</v>
+      </c>
+      <c r="L1118">
+        <v>2351735</v>
+      </c>
+    </row>
+    <row r="1119" spans="1:12">
+      <c r="A1119">
+        <v>1116</v>
+      </c>
+      <c r="B1119">
+        <v>626402</v>
+      </c>
+      <c r="C1119" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1119" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1119" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1119" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1119" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1119" t="s">
+        <v>772</v>
+      </c>
+      <c r="I1119" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1119">
+        <v>1</v>
+      </c>
+      <c r="K1119">
+        <v>3775088</v>
+      </c>
+      <c r="L1119">
+        <v>3775088</v>
+      </c>
+    </row>
+    <row r="1120" spans="1:12">
+      <c r="A1120">
+        <v>1117</v>
+      </c>
+      <c r="B1120">
+        <v>626402</v>
+      </c>
+      <c r="C1120" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1120" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1120" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1120" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1120" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1120" t="s">
+        <v>426</v>
+      </c>
+      <c r="I1120" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1120">
+        <v>1</v>
+      </c>
+      <c r="K1120">
+        <v>6150000</v>
+      </c>
+      <c r="L1120">
+        <v>6150000</v>
+      </c>
+    </row>
+    <row r="1121" spans="1:12">
+      <c r="A1121">
+        <v>1118</v>
+      </c>
+      <c r="B1121">
+        <v>626402</v>
+      </c>
+      <c r="C1121" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1121" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1121" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1121" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1121" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1121" t="s">
+        <v>773</v>
+      </c>
+      <c r="I1121" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1121">
+        <v>1</v>
+      </c>
+      <c r="K1121">
+        <v>1600000</v>
+      </c>
+      <c r="L1121">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="1122" spans="1:12">
+      <c r="A1122">
+        <v>1119</v>
+      </c>
+      <c r="B1122">
+        <v>626402</v>
+      </c>
+      <c r="C1122" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1122" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1122" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1122" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1122" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1122" t="s">
+        <v>1617</v>
+      </c>
+      <c r="I1122" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1122">
+        <v>1</v>
+      </c>
+      <c r="K1122">
+        <v>1300000</v>
+      </c>
+      <c r="L1122">
+        <v>1300000</v>
+      </c>
+    </row>
+    <row r="1123" spans="1:12">
+      <c r="A1123">
+        <v>1120</v>
+      </c>
+      <c r="B1123">
+        <v>626402</v>
+      </c>
+      <c r="C1123" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1123" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1123" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1123" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1123" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1123" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1123" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1123">
+        <v>1</v>
+      </c>
+      <c r="K1123">
+        <v>530000</v>
+      </c>
+      <c r="L1123">
+        <v>530000</v>
+      </c>
+    </row>
+    <row r="1124" spans="1:12">
+      <c r="A1124">
+        <v>1121</v>
+      </c>
+      <c r="B1124">
+        <v>626402</v>
+      </c>
+      <c r="C1124" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1124" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1124" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1124" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1124" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1124" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1124" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1124">
+        <v>1</v>
+      </c>
+      <c r="K1124">
+        <v>980000</v>
+      </c>
+      <c r="L1124">
+        <v>980000</v>
+      </c>
+    </row>
+    <row r="1125" spans="1:12">
+      <c r="A1125">
+        <v>1122</v>
+      </c>
+      <c r="B1125">
+        <v>626402</v>
+      </c>
+      <c r="C1125" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1125" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1125" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1125" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1125" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1125" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1125" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1125">
+        <v>1</v>
+      </c>
+      <c r="K1125">
+        <v>2570103</v>
+      </c>
+      <c r="L1125">
+        <v>2570103</v>
+      </c>
+    </row>
+    <row r="1126" spans="1:12">
+      <c r="A1126">
+        <v>1123</v>
+      </c>
+      <c r="B1126">
+        <v>626402</v>
+      </c>
+      <c r="C1126" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1126" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1126" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1126" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1126" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1126" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I1126" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1126">
+        <v>1</v>
+      </c>
+      <c r="K1126">
+        <v>4590000</v>
+      </c>
+      <c r="L1126">
+        <v>4590000</v>
+      </c>
+    </row>
+    <row r="1127" spans="1:12">
+      <c r="A1127">
+        <v>1124</v>
+      </c>
+      <c r="B1127">
+        <v>626402</v>
+      </c>
+      <c r="C1127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1127" t="s">
+        <v>1386</v>
+      </c>
+      <c r="E1127" t="s">
+        <v>1597</v>
+      </c>
+      <c r="F1127" t="s">
+        <v>1598</v>
+      </c>
+      <c r="G1127" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1127" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1127" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1127">
+        <v>1</v>
+      </c>
+      <c r="K1127">
+        <v>1190000</v>
+      </c>
+      <c r="L1127">
+        <v>1190000</v>
+      </c>
+    </row>
+    <row r="1128" spans="1:12">
+      <c r="A1128">
+        <v>1125</v>
+      </c>
+      <c r="B1128">
+        <v>626402</v>
+      </c>
+      <c r="C1128" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1128" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1128" t="s">
+        <v>1618</v>
+      </c>
+      <c r="F1128" t="s">
+        <v>1619</v>
+      </c>
+      <c r="G1128" t="s">
+        <v>1620</v>
+      </c>
+      <c r="H1128" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1128" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1128">
+        <v>1</v>
+      </c>
+      <c r="K1128">
+        <v>198356216</v>
+      </c>
+      <c r="L1128">
+        <v>198356216</v>
+      </c>
+    </row>
+    <row r="1129" spans="1:12">
+      <c r="A1129">
+        <v>1126</v>
+      </c>
+      <c r="B1129">
+        <v>626402</v>
+      </c>
+      <c r="C1129" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1129" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1129" t="s">
+        <v>1621</v>
+      </c>
+      <c r="F1129" t="s">
+        <v>1622</v>
+      </c>
+      <c r="G1129" t="s">
+        <v>1623</v>
+      </c>
+      <c r="H1129" t="s">
+        <v>917</v>
+      </c>
+      <c r="I1129" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1129">
+        <v>1</v>
+      </c>
+      <c r="K1129">
+        <v>25000000</v>
+      </c>
+      <c r="L1129">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="1130" spans="1:12">
+      <c r="A1130">
+        <v>1127</v>
+      </c>
+      <c r="B1130">
+        <v>626402</v>
+      </c>
+      <c r="C1130" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1130" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E1130" t="s">
+        <v>1624</v>
+      </c>
+      <c r="F1130" t="s">
+        <v>1625</v>
+      </c>
+      <c r="G1130" t="s">
+        <v>1626</v>
+      </c>
+      <c r="H1130" t="s">
+        <v>646</v>
+      </c>
+      <c r="I1130" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1130">
+        <v>1</v>
+      </c>
+      <c r="K1130">
+        <v>33300000</v>
+      </c>
+      <c r="L1130">
+        <v>33300000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1714">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1830">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -5036,6 +5036,27 @@
     <t>Penggantian uang persediaan KKP untuk keperluan belanja barang (BPP Puslatluhkp)</t>
   </si>
   <si>
+    <t>2024-04-04</t>
+  </si>
+  <si>
+    <t>'00403T</t>
+  </si>
+  <si>
+    <t>'241751303010050</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang.Perdin Jkt-Bogor (PP) an. Norma dan Ihsan sesuai ST No B.498/BPPSDM.4/KP.440/II/2024 Tgl 29/2/2024,B.563/BPPSDM.4/KP.440/III/2024 Tgl 6/3/2024 keg. mendampingi kunker Tim BAPPENAS dan rekon percepatan TLHP</t>
+  </si>
+  <si>
+    <t>'00404T</t>
+  </si>
+  <si>
+    <t>'241751303009920</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya penelitian peserta tubel S2 IPB an. Astrid Marietadewi sesuai SK Nomor 520 Tahun 2022 Tgl 11 Agst 2022</t>
+  </si>
+  <si>
     <t>'00405T</t>
   </si>
   <si>
@@ -5157,6 +5178,333 @@
   </si>
   <si>
     <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.AE.000281</t>
+  </si>
+  <si>
+    <t>2024-04-02</t>
+  </si>
+  <si>
+    <t>'00417T</t>
+  </si>
+  <si>
+    <t>'241751303009337</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 4 pegawai sesuai ST Nomor B.2146/BPPSDM.1/KP.440/III/2024 tanggal 1 MAret 2024 an. Tri Yuwono dkk</t>
+  </si>
+  <si>
+    <t>'00418T</t>
+  </si>
+  <si>
+    <t>'241751303009367</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 2 pegawai sesuai ST Nomor B.2164/BPPSDM.1/KP.440/III/2024 tanggal 4 Maret 2024 an. Putut Erie Sudjito dkk</t>
+  </si>
+  <si>
+    <t>'00419T</t>
+  </si>
+  <si>
+    <t>'241751303009914</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Biotek (PP) tgl 19 Maret 2024 an. Fajar dan Samsul sesuai ST No 669/BPPSDM.4/KP.440/III/2024 Tgl 18 Maret 2024, keg. Koordinasi Pelaksanaan Pembelajaran Taruna Berprestasi</t>
+  </si>
+  <si>
+    <t>'00420T</t>
+  </si>
+  <si>
+    <t>'241751303009284</t>
+  </si>
+  <si>
+    <t>'00421T</t>
+  </si>
+  <si>
+    <t>'241751303010049</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.501/BPPSDM.5/KP.440/III/2024 Tanggal 23 Maret 2024.an Desi Arisandi.</t>
+  </si>
+  <si>
+    <t>'00422T</t>
+  </si>
+  <si>
+    <t>'241751303010053</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.501/BPPSDM.5/KP.440/III/2024 Tanggal 23 Maret 2024.an kenneky purisektie kohar.</t>
+  </si>
+  <si>
+    <t>2024-04-03</t>
+  </si>
+  <si>
+    <t>'00425T</t>
+  </si>
+  <si>
+    <t>'241751301009699</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Jasa Profesi Reviewer Penelitian Terapan Terpusat an. Yudi, dkk sesuai SK PPK No KEP.36/BPPSDM.4/II/2024  tgl 20 Februari 2024, Surat Perintag Plt. Pusdik NoB.424/BPPSDM.4/KP.440/II/2024 tgl 20 Feb 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.522151.03212DL.2376ABW.A000000001.00000.1.0151.2.000000.000000.001.051.0A.000185</t>
+  </si>
+  <si>
+    <t>'00426T</t>
+  </si>
+  <si>
+    <t>'241751303010051</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.508/BPPSDM.5/KP.440/III/2024 Tanggal 19 Maret 2024 a.n Lilly A Pregiwati</t>
+  </si>
+  <si>
+    <t>'00427T</t>
+  </si>
+  <si>
+    <t>'241751303010052</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.475/BPPSDM.5/KP.440/III/2024 Tanggal 19 Maret 2024 a.n Zuhairiah dkk</t>
+  </si>
+  <si>
+    <t>'00428T</t>
+  </si>
+  <si>
+    <t>'241751303010048</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Semarang (PP) tgl 7-10 Maret 2024 an.Wawan, dkk sesuai ST No B.618/BPPSDM.4/KP.440/III/2024 Tgl 13/3/2024, Perdin Jkt-Makasar(PP) ST No B.552/BPPSDM.4/KP.440/III/2024 Tgl 5/3/2024 keg. Koordinasi TUBEL</t>
+  </si>
+  <si>
+    <t>'00429T</t>
+  </si>
+  <si>
+    <t>'241751302010264</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Modal Sesuai SPK NO:781/PPK/BRSDM.I/III/2024 Tgl.19-3-2024, BAST No:BAST.881/PPK/BRSDM.1/III/2024 Tgl.22-3-2024,BAP No:882/PPK/BRSDM.1/III/2024 Tgl.22-3-2024 Pengadaan alat pengolah data sekretariat BRSDM</t>
+  </si>
+  <si>
+    <t>'626402.175.532111.03212WA.2378CAN.A000000001.00000.1.0151.2.000000.000000.001.101.0A.000249</t>
+  </si>
+  <si>
+    <t>'00430T</t>
+  </si>
+  <si>
+    <t>'241751303010055</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.102.0A.000846</t>
+  </si>
+  <si>
+    <t>'00431T</t>
+  </si>
+  <si>
+    <t>'241751303010057</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan bulan Maret tahun 2024 untuk 75 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00432T</t>
+  </si>
+  <si>
+    <t>'241751303010056</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan untuk keperluan belanja barang (BPP 001 Puslatluh kp)</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0C.000157</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0A.000955</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.DA.000537</t>
+  </si>
+  <si>
+    <t>'626402.175.523121.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.202.0D.001300</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.201.0B.000965</t>
+  </si>
+  <si>
+    <t>'00433T</t>
+  </si>
+  <si>
+    <t>'241751303010058</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan bulan Maret tahun 2024 untuk 2 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00434T</t>
+  </si>
+  <si>
+    <t>'241751305000686</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan bulan Maret tahun 2024 untuk 1 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00435T</t>
+  </si>
+  <si>
+    <t>'241751303010054</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-BBRPPBKP (PP) tgl 21 Maret 2024 an. Marlina sesuai ST No B.712/BPPSDM.4/KP.440/III/2024 Tgl 21 Maret 2024, keg. Koordinasi Pelaksanaan Implementasi Proposal Berprestasi di BBRPPBKP</t>
+  </si>
+  <si>
+    <t>'00436T</t>
+  </si>
+  <si>
+    <t>'241751302010361</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang-Sesuai SPK No:1210/SPK/PPBJ/BPPSDM.5/XII/2023 Tgl.29-12-2023,BAST No:BAST.1213/PPBJ.PL/BPPSDM.5/III/2024.Tgl.31-3-2024,BAP No:1213/PPBJ.PL/BPPSDM.5/IV/2024 Tgl.01-04-2024.Pembayaran Bulan Maret 2024</t>
+  </si>
+  <si>
+    <t>'00437T</t>
+  </si>
+  <si>
+    <t>'241751302010362</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang-Sesuai SPK No:1220/SPK/PPBJ/BPPSDM.5/XII/2023 Tgl.29-12-2023,BAST No:BAST.1223/PPBJ.PL/BPPSDM.5/III/2024.Tgl.31-03-2024,BAP No:1223/PPBJ.PL/BPPSDM.5/IV/2024 Tgl.01-04-2024.Pembayaran Bulan Maret 2024</t>
+  </si>
+  <si>
+    <t>'00438T</t>
+  </si>
+  <si>
+    <t>'241751301009813</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang-Sesuai SPK No:1230/SPK/PPBJ/BPPSDM.5/XII/2023 Tgl.29-12-2023,BAST No:BAST.1233/PPBJ.PL/BPPSDM.5/III/2024.Tgl.31-03-2024,BAP No:1233/PPBJ.PL/BPPSDM.5/IV/2024 Tgl.01-04-2024.Pembayaran Bulan Maret 2024 </t>
+  </si>
+  <si>
+    <t>'00439T</t>
+  </si>
+  <si>
+    <t>'241751303010070</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan bulan Maret tahun 2024 untuk 33 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00442T</t>
+  </si>
+  <si>
+    <t>'241751303010065</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 1 pegawai sesuai ST Nomor B.532/BPPSDM.5/KP.440/III/2024 tanggal 26 Maret 2024 an.Puji Rohayati</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0D.000048</t>
+  </si>
+  <si>
+    <t>'00443T</t>
+  </si>
+  <si>
+    <t>'241751303010059</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 2 pegawai sesuai ST Nomor B.500/BPPSDM.5/KP.440/III/2024 tanggal 23 Maret 2024 an.Andi Nur Hartoto dkk</t>
+  </si>
+  <si>
+    <t>'00444T</t>
+  </si>
+  <si>
+    <t>'241751303010066</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2811/BPPSDM.1/KP.440/III/2024 Tanggal 14 Maret 2024 a.n Priyo Purwantoro</t>
+  </si>
+  <si>
+    <t>'00445T</t>
+  </si>
+  <si>
+    <t>'241751303010067</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.2955/BPPSDM.1/KP.440/III/2024 Tanggal 20 Maret 2024 a.n Asmara Damayanti, dkk</t>
+  </si>
+  <si>
+    <t>'00446T</t>
+  </si>
+  <si>
+    <t>'241751303010060</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.3057/BPPSDM.1/KP.440/III/2024 Tanggal 25 Maret 2024 a.n Wawan Nurliansyah, dkk</t>
+  </si>
+  <si>
+    <t>'00447T</t>
+  </si>
+  <si>
+    <t>'241751303010064</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.2922/BPPSDM.1/KP.440/III/2024 Tanggal 19 Maret 2024 a.n Nurhayati, dkk</t>
+  </si>
+  <si>
+    <t>'00448T</t>
+  </si>
+  <si>
+    <t>'241751303010063</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.430/BPPSDM/KP.440/III/2024 Tanggal 8 Maret 2024 a.n Rudi Alek Wahyudin</t>
+  </si>
+  <si>
+    <t>'00449T</t>
+  </si>
+  <si>
+    <t>'241751303010068</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.357/BPPSDM/KP.440/III/2024 Tanggal 1 Maret 2024 a.n I Nyoman Radiarta</t>
+  </si>
+  <si>
+    <t>'00450T</t>
+  </si>
+  <si>
+    <t>'241751303010069</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan bulan Maret tahun 2024 untuk 41 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00451T</t>
+  </si>
+  <si>
+    <t>'241751303010035</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2964/BPPSDM.1/KP.440/III/2024 Tanggal 20 Maret 2024 a.n Yulianto Ujang F.</t>
+  </si>
+  <si>
+    <t>'00452T</t>
+  </si>
+  <si>
+    <t>'241751301009817</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:000008/PUS//KWT/III/2024 Tgl.4 Maret 2024</t>
+  </si>
+  <si>
+    <t>'00455T</t>
+  </si>
+  <si>
+    <t>'241751301009798</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang sesuai Kwitansi Nomor 000007/PUS/KWT/III/2024 Tanggal 4 Maret 2024.</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.106.0A.000359</t>
   </si>
 </sst>
 </file>
@@ -5498,7 +5846,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L1230"/>
+  <dimension ref="A1:L1305"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -50441,19 +50789,19 @@
         <v>13</v>
       </c>
       <c r="D1185" t="s">
-        <v>1667</v>
+        <v>1673</v>
       </c>
       <c r="E1185" t="s">
-        <v>1673</v>
+        <v>1674</v>
       </c>
       <c r="F1185" t="s">
-        <v>1674</v>
+        <v>1675</v>
       </c>
       <c r="G1185" t="s">
-        <v>121</v>
+        <v>1676</v>
       </c>
       <c r="H1185" t="s">
-        <v>255</v>
+        <v>704</v>
       </c>
       <c r="I1185" t="s">
         <v>19</v>
@@ -50462,10 +50810,10 @@
         <v>1</v>
       </c>
       <c r="K1185">
-        <v>7545850</v>
+        <v>2152000</v>
       </c>
       <c r="L1185">
-        <v>7545850</v>
+        <v>2152000</v>
       </c>
     </row>
     <row r="1186" spans="1:12">
@@ -50479,19 +50827,19 @@
         <v>13</v>
       </c>
       <c r="D1186" t="s">
-        <v>1667</v>
+        <v>1673</v>
       </c>
       <c r="E1186" t="s">
-        <v>1673</v>
+        <v>1677</v>
       </c>
       <c r="F1186" t="s">
-        <v>1674</v>
+        <v>1678</v>
       </c>
       <c r="G1186" t="s">
-        <v>121</v>
+        <v>1679</v>
       </c>
       <c r="H1186" t="s">
-        <v>1675</v>
+        <v>545</v>
       </c>
       <c r="I1186" t="s">
         <v>19</v>
@@ -50500,10 +50848,10 @@
         <v>1</v>
       </c>
       <c r="K1186">
-        <v>117000</v>
+        <v>15000000</v>
       </c>
       <c r="L1186">
-        <v>117000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="1187" spans="1:12">
@@ -50520,16 +50868,16 @@
         <v>1667</v>
       </c>
       <c r="E1187" t="s">
-        <v>1673</v>
+        <v>1680</v>
       </c>
       <c r="F1187" t="s">
-        <v>1674</v>
+        <v>1681</v>
       </c>
       <c r="G1187" t="s">
         <v>121</v>
       </c>
       <c r="H1187" t="s">
-        <v>498</v>
+        <v>255</v>
       </c>
       <c r="I1187" t="s">
         <v>19</v>
@@ -50538,10 +50886,10 @@
         <v>1</v>
       </c>
       <c r="K1187">
-        <v>360554</v>
+        <v>7545850</v>
       </c>
       <c r="L1187">
-        <v>360554</v>
+        <v>7545850</v>
       </c>
     </row>
     <row r="1188" spans="1:12">
@@ -50558,16 +50906,16 @@
         <v>1667</v>
       </c>
       <c r="E1188" t="s">
-        <v>1673</v>
+        <v>1680</v>
       </c>
       <c r="F1188" t="s">
-        <v>1674</v>
+        <v>1681</v>
       </c>
       <c r="G1188" t="s">
         <v>121</v>
       </c>
       <c r="H1188" t="s">
-        <v>1676</v>
+        <v>1682</v>
       </c>
       <c r="I1188" t="s">
         <v>19</v>
@@ -50576,10 +50924,10 @@
         <v>1</v>
       </c>
       <c r="K1188">
-        <v>520636</v>
+        <v>117000</v>
       </c>
       <c r="L1188">
-        <v>520636</v>
+        <v>117000</v>
       </c>
     </row>
     <row r="1189" spans="1:12">
@@ -50596,16 +50944,16 @@
         <v>1667</v>
       </c>
       <c r="E1189" t="s">
-        <v>1673</v>
+        <v>1680</v>
       </c>
       <c r="F1189" t="s">
-        <v>1674</v>
+        <v>1681</v>
       </c>
       <c r="G1189" t="s">
         <v>121</v>
       </c>
       <c r="H1189" t="s">
-        <v>131</v>
+        <v>498</v>
       </c>
       <c r="I1189" t="s">
         <v>19</v>
@@ -50614,10 +50962,10 @@
         <v>1</v>
       </c>
       <c r="K1189">
-        <v>1475000</v>
+        <v>360554</v>
       </c>
       <c r="L1189">
-        <v>1475000</v>
+        <v>360554</v>
       </c>
     </row>
     <row r="1190" spans="1:12">
@@ -50634,16 +50982,16 @@
         <v>1667</v>
       </c>
       <c r="E1190" t="s">
-        <v>1673</v>
+        <v>1680</v>
       </c>
       <c r="F1190" t="s">
-        <v>1674</v>
+        <v>1681</v>
       </c>
       <c r="G1190" t="s">
         <v>121</v>
       </c>
       <c r="H1190" t="s">
-        <v>128</v>
+        <v>1683</v>
       </c>
       <c r="I1190" t="s">
         <v>19</v>
@@ -50652,10 +51000,10 @@
         <v>1</v>
       </c>
       <c r="K1190">
-        <v>1982935</v>
+        <v>520636</v>
       </c>
       <c r="L1190">
-        <v>1982935</v>
+        <v>520636</v>
       </c>
     </row>
     <row r="1191" spans="1:12">
@@ -50672,16 +51020,16 @@
         <v>1667</v>
       </c>
       <c r="E1191" t="s">
-        <v>1673</v>
+        <v>1680</v>
       </c>
       <c r="F1191" t="s">
-        <v>1674</v>
+        <v>1681</v>
       </c>
       <c r="G1191" t="s">
         <v>121</v>
       </c>
       <c r="H1191" t="s">
-        <v>275</v>
+        <v>131</v>
       </c>
       <c r="I1191" t="s">
         <v>19</v>
@@ -50690,10 +51038,10 @@
         <v>1</v>
       </c>
       <c r="K1191">
-        <v>200000</v>
+        <v>1475000</v>
       </c>
       <c r="L1191">
-        <v>200000</v>
+        <v>1475000</v>
       </c>
     </row>
     <row r="1192" spans="1:12">
@@ -50710,16 +51058,16 @@
         <v>1667</v>
       </c>
       <c r="E1192" t="s">
-        <v>1677</v>
+        <v>1680</v>
       </c>
       <c r="F1192" t="s">
-        <v>1678</v>
+        <v>1681</v>
       </c>
       <c r="G1192" t="s">
-        <v>1679</v>
+        <v>121</v>
       </c>
       <c r="H1192" t="s">
-        <v>273</v>
+        <v>128</v>
       </c>
       <c r="I1192" t="s">
         <v>19</v>
@@ -50728,10 +51076,10 @@
         <v>1</v>
       </c>
       <c r="K1192">
-        <v>823800</v>
+        <v>1982935</v>
       </c>
       <c r="L1192">
-        <v>823800</v>
+        <v>1982935</v>
       </c>
     </row>
     <row r="1193" spans="1:12">
@@ -50754,10 +51102,10 @@
         <v>1681</v>
       </c>
       <c r="G1193" t="s">
-        <v>1682</v>
+        <v>121</v>
       </c>
       <c r="H1193" t="s">
-        <v>1683</v>
+        <v>275</v>
       </c>
       <c r="I1193" t="s">
         <v>19</v>
@@ -50766,10 +51114,10 @@
         <v>1</v>
       </c>
       <c r="K1193">
-        <v>3800914</v>
+        <v>200000</v>
       </c>
       <c r="L1193">
-        <v>3800914</v>
+        <v>200000</v>
       </c>
     </row>
     <row r="1194" spans="1:12">
@@ -50792,10 +51140,10 @@
         <v>1685</v>
       </c>
       <c r="G1194" t="s">
-        <v>1682</v>
+        <v>1686</v>
       </c>
       <c r="H1194" t="s">
-        <v>1683</v>
+        <v>273</v>
       </c>
       <c r="I1194" t="s">
         <v>19</v>
@@ -50804,10 +51152,10 @@
         <v>1</v>
       </c>
       <c r="K1194">
-        <v>8128678</v>
+        <v>823800</v>
       </c>
       <c r="L1194">
-        <v>8128678</v>
+        <v>823800</v>
       </c>
     </row>
     <row r="1195" spans="1:12">
@@ -50821,19 +51169,19 @@
         <v>13</v>
       </c>
       <c r="D1195" t="s">
-        <v>1243</v>
+        <v>1667</v>
       </c>
       <c r="E1195" t="s">
-        <v>1686</v>
+        <v>1687</v>
       </c>
       <c r="F1195" t="s">
-        <v>1687</v>
+        <v>1688</v>
       </c>
       <c r="G1195" t="s">
-        <v>1688</v>
+        <v>1689</v>
       </c>
       <c r="H1195" t="s">
-        <v>545</v>
+        <v>1690</v>
       </c>
       <c r="I1195" t="s">
         <v>19</v>
@@ -50842,10 +51190,10 @@
         <v>1</v>
       </c>
       <c r="K1195">
-        <v>9000000</v>
+        <v>3800914</v>
       </c>
       <c r="L1195">
-        <v>9000000</v>
+        <v>3800914</v>
       </c>
     </row>
     <row r="1196" spans="1:12">
@@ -50859,20 +51207,20 @@
         <v>13</v>
       </c>
       <c r="D1196" t="s">
-        <v>1243</v>
+        <v>1667</v>
       </c>
       <c r="E1196" t="s">
+        <v>1691</v>
+      </c>
+      <c r="F1196" t="s">
+        <v>1692</v>
+      </c>
+      <c r="G1196" t="s">
         <v>1689</v>
       </c>
-      <c r="F1196" t="s">
+      <c r="H1196" t="s">
         <v>1690</v>
       </c>
-      <c r="G1196" t="s">
-        <v>1691</v>
-      </c>
-      <c r="H1196" t="s">
-        <v>704</v>
-      </c>
       <c r="I1196" t="s">
         <v>19</v>
       </c>
@@ -50880,10 +51228,10 @@
         <v>1</v>
       </c>
       <c r="K1196">
-        <v>1443500</v>
+        <v>8128678</v>
       </c>
       <c r="L1196">
-        <v>1443500</v>
+        <v>8128678</v>
       </c>
     </row>
     <row r="1197" spans="1:12">
@@ -50900,16 +51248,16 @@
         <v>1243</v>
       </c>
       <c r="E1197" t="s">
-        <v>1692</v>
+        <v>1693</v>
       </c>
       <c r="F1197" t="s">
-        <v>1693</v>
+        <v>1694</v>
       </c>
       <c r="G1197" t="s">
-        <v>1477</v>
+        <v>1695</v>
       </c>
       <c r="H1197" t="s">
-        <v>510</v>
+        <v>545</v>
       </c>
       <c r="I1197" t="s">
         <v>19</v>
@@ -50918,10 +51266,10 @@
         <v>1</v>
       </c>
       <c r="K1197">
-        <v>9394645</v>
+        <v>9000000</v>
       </c>
       <c r="L1197">
-        <v>9394645</v>
+        <v>9000000</v>
       </c>
     </row>
     <row r="1198" spans="1:12">
@@ -50938,16 +51286,16 @@
         <v>1243</v>
       </c>
       <c r="E1198" t="s">
-        <v>1694</v>
+        <v>1696</v>
       </c>
       <c r="F1198" t="s">
-        <v>1695</v>
+        <v>1697</v>
       </c>
       <c r="G1198" t="s">
-        <v>1696</v>
+        <v>1698</v>
       </c>
       <c r="H1198" t="s">
-        <v>164</v>
+        <v>704</v>
       </c>
       <c r="I1198" t="s">
         <v>19</v>
@@ -50956,10 +51304,10 @@
         <v>1</v>
       </c>
       <c r="K1198">
-        <v>37772000</v>
+        <v>1443500</v>
       </c>
       <c r="L1198">
-        <v>37772000</v>
+        <v>1443500</v>
       </c>
     </row>
     <row r="1199" spans="1:12">
@@ -50976,16 +51324,16 @@
         <v>1243</v>
       </c>
       <c r="E1199" t="s">
-        <v>1697</v>
+        <v>1699</v>
       </c>
       <c r="F1199" t="s">
-        <v>1698</v>
+        <v>1700</v>
       </c>
       <c r="G1199" t="s">
-        <v>1630</v>
+        <v>1477</v>
       </c>
       <c r="H1199" t="s">
-        <v>164</v>
+        <v>510</v>
       </c>
       <c r="I1199" t="s">
         <v>19</v>
@@ -50994,10 +51342,10 @@
         <v>1</v>
       </c>
       <c r="K1199">
-        <v>15312000</v>
+        <v>9394645</v>
       </c>
       <c r="L1199">
-        <v>15312000</v>
+        <v>9394645</v>
       </c>
     </row>
     <row r="1200" spans="1:12">
@@ -51011,19 +51359,19 @@
         <v>13</v>
       </c>
       <c r="D1200" t="s">
-        <v>1667</v>
+        <v>1243</v>
       </c>
       <c r="E1200" t="s">
-        <v>1699</v>
+        <v>1701</v>
       </c>
       <c r="F1200" t="s">
-        <v>1700</v>
+        <v>1702</v>
       </c>
       <c r="G1200" t="s">
-        <v>429</v>
+        <v>1703</v>
       </c>
       <c r="H1200" t="s">
-        <v>255</v>
+        <v>164</v>
       </c>
       <c r="I1200" t="s">
         <v>19</v>
@@ -51032,10 +51380,10 @@
         <v>1</v>
       </c>
       <c r="K1200">
-        <v>10711500</v>
+        <v>37772000</v>
       </c>
       <c r="L1200">
-        <v>10711500</v>
+        <v>37772000</v>
       </c>
     </row>
     <row r="1201" spans="1:12">
@@ -51049,19 +51397,19 @@
         <v>13</v>
       </c>
       <c r="D1201" t="s">
-        <v>1667</v>
+        <v>1243</v>
       </c>
       <c r="E1201" t="s">
-        <v>1699</v>
+        <v>1704</v>
       </c>
       <c r="F1201" t="s">
-        <v>1700</v>
+        <v>1705</v>
       </c>
       <c r="G1201" t="s">
-        <v>429</v>
+        <v>1630</v>
       </c>
       <c r="H1201" t="s">
-        <v>257</v>
+        <v>164</v>
       </c>
       <c r="I1201" t="s">
         <v>19</v>
@@ -51070,10 +51418,10 @@
         <v>1</v>
       </c>
       <c r="K1201">
-        <v>8213000</v>
+        <v>15312000</v>
       </c>
       <c r="L1201">
-        <v>8213000</v>
+        <v>15312000</v>
       </c>
     </row>
     <row r="1202" spans="1:12">
@@ -51090,16 +51438,16 @@
         <v>1667</v>
       </c>
       <c r="E1202" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1202" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1202" t="s">
         <v>429</v>
       </c>
       <c r="H1202" t="s">
-        <v>164</v>
+        <v>255</v>
       </c>
       <c r="I1202" t="s">
         <v>19</v>
@@ -51108,10 +51456,10 @@
         <v>1</v>
       </c>
       <c r="K1202">
-        <v>10208000</v>
+        <v>10711500</v>
       </c>
       <c r="L1202">
-        <v>10208000</v>
+        <v>10711500</v>
       </c>
     </row>
     <row r="1203" spans="1:12">
@@ -51128,16 +51476,16 @@
         <v>1667</v>
       </c>
       <c r="E1203" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1203" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1203" t="s">
         <v>429</v>
       </c>
       <c r="H1203" t="s">
-        <v>431</v>
+        <v>257</v>
       </c>
       <c r="I1203" t="s">
         <v>19</v>
@@ -51146,10 +51494,10 @@
         <v>1</v>
       </c>
       <c r="K1203">
-        <v>4678666</v>
+        <v>8213000</v>
       </c>
       <c r="L1203">
-        <v>4678666</v>
+        <v>8213000</v>
       </c>
     </row>
     <row r="1204" spans="1:12">
@@ -51166,16 +51514,16 @@
         <v>1667</v>
       </c>
       <c r="E1204" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1204" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1204" t="s">
         <v>429</v>
       </c>
       <c r="H1204" t="s">
-        <v>261</v>
+        <v>164</v>
       </c>
       <c r="I1204" t="s">
         <v>19</v>
@@ -51184,10 +51532,10 @@
         <v>1</v>
       </c>
       <c r="K1204">
-        <v>753500</v>
+        <v>10208000</v>
       </c>
       <c r="L1204">
-        <v>753500</v>
+        <v>10208000</v>
       </c>
     </row>
     <row r="1205" spans="1:12">
@@ -51204,16 +51552,16 @@
         <v>1667</v>
       </c>
       <c r="E1205" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1205" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1205" t="s">
         <v>429</v>
       </c>
       <c r="H1205" t="s">
-        <v>1701</v>
+        <v>431</v>
       </c>
       <c r="I1205" t="s">
         <v>19</v>
@@ -51222,10 +51570,10 @@
         <v>1</v>
       </c>
       <c r="K1205">
-        <v>1996650</v>
+        <v>4678666</v>
       </c>
       <c r="L1205">
-        <v>1996650</v>
+        <v>4678666</v>
       </c>
     </row>
     <row r="1206" spans="1:12">
@@ -51242,16 +51590,16 @@
         <v>1667</v>
       </c>
       <c r="E1206" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1206" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1206" t="s">
         <v>429</v>
       </c>
       <c r="H1206" t="s">
-        <v>1702</v>
+        <v>261</v>
       </c>
       <c r="I1206" t="s">
         <v>19</v>
@@ -51260,10 +51608,10 @@
         <v>1</v>
       </c>
       <c r="K1206">
-        <v>992500</v>
+        <v>753500</v>
       </c>
       <c r="L1206">
-        <v>992500</v>
+        <v>753500</v>
       </c>
     </row>
     <row r="1207" spans="1:12">
@@ -51280,16 +51628,16 @@
         <v>1667</v>
       </c>
       <c r="E1207" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1207" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1207" t="s">
         <v>429</v>
       </c>
       <c r="H1207" t="s">
-        <v>1703</v>
+        <v>1708</v>
       </c>
       <c r="I1207" t="s">
         <v>19</v>
@@ -51298,10 +51646,10 @@
         <v>1</v>
       </c>
       <c r="K1207">
-        <v>2000000</v>
+        <v>1996650</v>
       </c>
       <c r="L1207">
-        <v>2000000</v>
+        <v>1996650</v>
       </c>
     </row>
     <row r="1208" spans="1:12">
@@ -51318,16 +51666,16 @@
         <v>1667</v>
       </c>
       <c r="E1208" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1208" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1208" t="s">
         <v>429</v>
       </c>
       <c r="H1208" t="s">
-        <v>1704</v>
+        <v>1709</v>
       </c>
       <c r="I1208" t="s">
         <v>19</v>
@@ -51336,10 +51684,10 @@
         <v>1</v>
       </c>
       <c r="K1208">
-        <v>2000000</v>
+        <v>992500</v>
       </c>
       <c r="L1208">
-        <v>2000000</v>
+        <v>992500</v>
       </c>
     </row>
     <row r="1209" spans="1:12">
@@ -51356,16 +51704,16 @@
         <v>1667</v>
       </c>
       <c r="E1209" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1209" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1209" t="s">
         <v>429</v>
       </c>
       <c r="H1209" t="s">
-        <v>1705</v>
+        <v>1710</v>
       </c>
       <c r="I1209" t="s">
         <v>19</v>
@@ -51374,10 +51722,10 @@
         <v>1</v>
       </c>
       <c r="K1209">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
       <c r="L1209">
-        <v>1000000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="1210" spans="1:12">
@@ -51394,16 +51742,16 @@
         <v>1667</v>
       </c>
       <c r="E1210" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1210" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1210" t="s">
         <v>429</v>
       </c>
       <c r="H1210" t="s">
-        <v>1185</v>
+        <v>1711</v>
       </c>
       <c r="I1210" t="s">
         <v>19</v>
@@ -51412,10 +51760,10 @@
         <v>1</v>
       </c>
       <c r="K1210">
-        <v>5250000</v>
+        <v>2000000</v>
       </c>
       <c r="L1210">
-        <v>5250000</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="1211" spans="1:12">
@@ -51432,16 +51780,16 @@
         <v>1667</v>
       </c>
       <c r="E1211" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1211" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1211" t="s">
         <v>429</v>
       </c>
       <c r="H1211" t="s">
-        <v>267</v>
+        <v>1712</v>
       </c>
       <c r="I1211" t="s">
         <v>19</v>
@@ -51450,10 +51798,10 @@
         <v>1</v>
       </c>
       <c r="K1211">
-        <v>5590000</v>
+        <v>1000000</v>
       </c>
       <c r="L1211">
-        <v>5590000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="1212" spans="1:12">
@@ -51470,16 +51818,16 @@
         <v>1667</v>
       </c>
       <c r="E1212" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1212" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1212" t="s">
         <v>429</v>
       </c>
       <c r="H1212" t="s">
-        <v>1706</v>
+        <v>1185</v>
       </c>
       <c r="I1212" t="s">
         <v>19</v>
@@ -51488,10 +51836,10 @@
         <v>1</v>
       </c>
       <c r="K1212">
-        <v>997900</v>
+        <v>5250000</v>
       </c>
       <c r="L1212">
-        <v>997900</v>
+        <v>5250000</v>
       </c>
     </row>
     <row r="1213" spans="1:12">
@@ -51508,16 +51856,16 @@
         <v>1667</v>
       </c>
       <c r="E1213" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1213" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1213" t="s">
         <v>429</v>
       </c>
       <c r="H1213" t="s">
-        <v>1707</v>
+        <v>267</v>
       </c>
       <c r="I1213" t="s">
         <v>19</v>
@@ -51526,10 +51874,10 @@
         <v>1</v>
       </c>
       <c r="K1213">
-        <v>996000</v>
+        <v>5590000</v>
       </c>
       <c r="L1213">
-        <v>996000</v>
+        <v>5590000</v>
       </c>
     </row>
     <row r="1214" spans="1:12">
@@ -51546,16 +51894,16 @@
         <v>1667</v>
       </c>
       <c r="E1214" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1214" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1214" t="s">
         <v>429</v>
       </c>
       <c r="H1214" t="s">
-        <v>1708</v>
+        <v>1713</v>
       </c>
       <c r="I1214" t="s">
         <v>19</v>
@@ -51564,10 +51912,10 @@
         <v>1</v>
       </c>
       <c r="K1214">
-        <v>1997000</v>
+        <v>997900</v>
       </c>
       <c r="L1214">
-        <v>1997000</v>
+        <v>997900</v>
       </c>
     </row>
     <row r="1215" spans="1:12">
@@ -51584,16 +51932,16 @@
         <v>1667</v>
       </c>
       <c r="E1215" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1215" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1215" t="s">
         <v>429</v>
       </c>
       <c r="H1215" t="s">
-        <v>1709</v>
+        <v>1714</v>
       </c>
       <c r="I1215" t="s">
         <v>19</v>
@@ -51602,10 +51950,10 @@
         <v>1</v>
       </c>
       <c r="K1215">
-        <v>1999000</v>
+        <v>996000</v>
       </c>
       <c r="L1215">
-        <v>1999000</v>
+        <v>996000</v>
       </c>
     </row>
     <row r="1216" spans="1:12">
@@ -51622,16 +51970,16 @@
         <v>1667</v>
       </c>
       <c r="E1216" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1216" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1216" t="s">
         <v>429</v>
       </c>
       <c r="H1216" t="s">
-        <v>1710</v>
+        <v>1715</v>
       </c>
       <c r="I1216" t="s">
         <v>19</v>
@@ -51640,10 +51988,10 @@
         <v>1</v>
       </c>
       <c r="K1216">
-        <v>2000000</v>
+        <v>1997000</v>
       </c>
       <c r="L1216">
-        <v>2000000</v>
+        <v>1997000</v>
       </c>
     </row>
     <row r="1217" spans="1:12">
@@ -51660,16 +52008,16 @@
         <v>1667</v>
       </c>
       <c r="E1217" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1217" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1217" t="s">
         <v>429</v>
       </c>
       <c r="H1217" t="s">
-        <v>1711</v>
+        <v>1716</v>
       </c>
       <c r="I1217" t="s">
         <v>19</v>
@@ -51678,10 +52026,10 @@
         <v>1</v>
       </c>
       <c r="K1217">
-        <v>892500</v>
+        <v>1999000</v>
       </c>
       <c r="L1217">
-        <v>892500</v>
+        <v>1999000</v>
       </c>
     </row>
     <row r="1218" spans="1:12">
@@ -51698,16 +52046,16 @@
         <v>1667</v>
       </c>
       <c r="E1218" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1218" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1218" t="s">
         <v>429</v>
       </c>
       <c r="H1218" t="s">
-        <v>122</v>
+        <v>1717</v>
       </c>
       <c r="I1218" t="s">
         <v>19</v>
@@ -51716,10 +52064,10 @@
         <v>1</v>
       </c>
       <c r="K1218">
-        <v>571650</v>
+        <v>2000000</v>
       </c>
       <c r="L1218">
-        <v>571650</v>
+        <v>2000000</v>
       </c>
     </row>
     <row r="1219" spans="1:12">
@@ -51736,16 +52084,16 @@
         <v>1667</v>
       </c>
       <c r="E1219" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1219" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1219" t="s">
         <v>429</v>
       </c>
       <c r="H1219" t="s">
-        <v>1712</v>
+        <v>1718</v>
       </c>
       <c r="I1219" t="s">
         <v>19</v>
@@ -51754,10 +52102,10 @@
         <v>1</v>
       </c>
       <c r="K1219">
-        <v>1100000</v>
+        <v>892500</v>
       </c>
       <c r="L1219">
-        <v>1100000</v>
+        <v>892500</v>
       </c>
     </row>
     <row r="1220" spans="1:12">
@@ -51774,16 +52122,16 @@
         <v>1667</v>
       </c>
       <c r="E1220" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1220" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1220" t="s">
         <v>429</v>
       </c>
       <c r="H1220" t="s">
-        <v>743</v>
+        <v>122</v>
       </c>
       <c r="I1220" t="s">
         <v>19</v>
@@ -51792,10 +52140,10 @@
         <v>1</v>
       </c>
       <c r="K1220">
-        <v>1800000</v>
+        <v>571650</v>
       </c>
       <c r="L1220">
-        <v>1800000</v>
+        <v>571650</v>
       </c>
     </row>
     <row r="1221" spans="1:12">
@@ -51812,16 +52160,16 @@
         <v>1667</v>
       </c>
       <c r="E1221" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1221" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1221" t="s">
         <v>429</v>
       </c>
       <c r="H1221" t="s">
-        <v>1191</v>
+        <v>1719</v>
       </c>
       <c r="I1221" t="s">
         <v>19</v>
@@ -51830,10 +52178,10 @@
         <v>1</v>
       </c>
       <c r="K1221">
-        <v>3600000</v>
+        <v>1100000</v>
       </c>
       <c r="L1221">
-        <v>3600000</v>
+        <v>1100000</v>
       </c>
     </row>
     <row r="1222" spans="1:12">
@@ -51850,16 +52198,16 @@
         <v>1667</v>
       </c>
       <c r="E1222" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1222" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1222" t="s">
         <v>429</v>
       </c>
       <c r="H1222" t="s">
-        <v>432</v>
+        <v>743</v>
       </c>
       <c r="I1222" t="s">
         <v>19</v>
@@ -51868,10 +52216,10 @@
         <v>1</v>
       </c>
       <c r="K1222">
-        <v>750000</v>
+        <v>1800000</v>
       </c>
       <c r="L1222">
-        <v>750000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="1223" spans="1:12">
@@ -51888,16 +52236,16 @@
         <v>1667</v>
       </c>
       <c r="E1223" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1223" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1223" t="s">
         <v>429</v>
       </c>
       <c r="H1223" t="s">
-        <v>646</v>
+        <v>1191</v>
       </c>
       <c r="I1223" t="s">
         <v>19</v>
@@ -51906,10 +52254,10 @@
         <v>1</v>
       </c>
       <c r="K1223">
-        <v>1410000</v>
+        <v>3600000</v>
       </c>
       <c r="L1223">
-        <v>1410000</v>
+        <v>3600000</v>
       </c>
     </row>
     <row r="1224" spans="1:12">
@@ -51926,16 +52274,16 @@
         <v>1667</v>
       </c>
       <c r="E1224" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1224" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1224" t="s">
         <v>429</v>
       </c>
       <c r="H1224" t="s">
-        <v>1713</v>
+        <v>432</v>
       </c>
       <c r="I1224" t="s">
         <v>19</v>
@@ -51944,10 +52292,10 @@
         <v>1</v>
       </c>
       <c r="K1224">
-        <v>7556000</v>
+        <v>750000</v>
       </c>
       <c r="L1224">
-        <v>7556000</v>
+        <v>750000</v>
       </c>
     </row>
     <row r="1225" spans="1:12">
@@ -51964,16 +52312,16 @@
         <v>1667</v>
       </c>
       <c r="E1225" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1225" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1225" t="s">
         <v>429</v>
       </c>
       <c r="H1225" t="s">
-        <v>275</v>
+        <v>646</v>
       </c>
       <c r="I1225" t="s">
         <v>19</v>
@@ -51982,10 +52330,10 @@
         <v>1</v>
       </c>
       <c r="K1225">
-        <v>600000</v>
+        <v>1410000</v>
       </c>
       <c r="L1225">
-        <v>600000</v>
+        <v>1410000</v>
       </c>
     </row>
     <row r="1226" spans="1:12">
@@ -52002,16 +52350,16 @@
         <v>1667</v>
       </c>
       <c r="E1226" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1226" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1226" t="s">
         <v>429</v>
       </c>
       <c r="H1226" t="s">
-        <v>736</v>
+        <v>1720</v>
       </c>
       <c r="I1226" t="s">
         <v>19</v>
@@ -52020,10 +52368,10 @@
         <v>1</v>
       </c>
       <c r="K1226">
-        <v>1190000</v>
+        <v>7556000</v>
       </c>
       <c r="L1226">
-        <v>1190000</v>
+        <v>7556000</v>
       </c>
     </row>
     <row r="1227" spans="1:12">
@@ -52040,16 +52388,16 @@
         <v>1667</v>
       </c>
       <c r="E1227" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1227" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1227" t="s">
         <v>429</v>
       </c>
       <c r="H1227" t="s">
-        <v>737</v>
+        <v>275</v>
       </c>
       <c r="I1227" t="s">
         <v>19</v>
@@ -52058,10 +52406,10 @@
         <v>1</v>
       </c>
       <c r="K1227">
-        <v>390000</v>
+        <v>600000</v>
       </c>
       <c r="L1227">
-        <v>390000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="1228" spans="1:12">
@@ -52078,16 +52426,16 @@
         <v>1667</v>
       </c>
       <c r="E1228" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1228" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1228" t="s">
         <v>429</v>
       </c>
       <c r="H1228" t="s">
-        <v>276</v>
+        <v>736</v>
       </c>
       <c r="I1228" t="s">
         <v>19</v>
@@ -52096,10 +52444,10 @@
         <v>1</v>
       </c>
       <c r="K1228">
-        <v>4420000</v>
+        <v>1190000</v>
       </c>
       <c r="L1228">
-        <v>4420000</v>
+        <v>1190000</v>
       </c>
     </row>
     <row r="1229" spans="1:12">
@@ -52116,16 +52464,16 @@
         <v>1667</v>
       </c>
       <c r="E1229" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1229" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1229" t="s">
         <v>429</v>
       </c>
       <c r="H1229" t="s">
-        <v>277</v>
+        <v>737</v>
       </c>
       <c r="I1229" t="s">
         <v>19</v>
@@ -52134,10 +52482,10 @@
         <v>1</v>
       </c>
       <c r="K1229">
-        <v>1340000</v>
+        <v>390000</v>
       </c>
       <c r="L1229">
-        <v>1340000</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="1230" spans="1:12">
@@ -52154,28 +52502,2878 @@
         <v>1667</v>
       </c>
       <c r="E1230" t="s">
-        <v>1699</v>
+        <v>1706</v>
       </c>
       <c r="F1230" t="s">
-        <v>1700</v>
+        <v>1707</v>
       </c>
       <c r="G1230" t="s">
         <v>429</v>
       </c>
       <c r="H1230" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1230" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1230">
+        <v>1</v>
+      </c>
+      <c r="K1230">
+        <v>4420000</v>
+      </c>
+      <c r="L1230">
+        <v>4420000</v>
+      </c>
+    </row>
+    <row r="1231" spans="1:12">
+      <c r="A1231">
+        <v>1228</v>
+      </c>
+      <c r="B1231">
+        <v>626402</v>
+      </c>
+      <c r="C1231" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1231" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E1231" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F1231" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G1231" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1231" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1231" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1231">
+        <v>1</v>
+      </c>
+      <c r="K1231">
+        <v>1340000</v>
+      </c>
+      <c r="L1231">
+        <v>1340000</v>
+      </c>
+    </row>
+    <row r="1232" spans="1:12">
+      <c r="A1232">
+        <v>1229</v>
+      </c>
+      <c r="B1232">
+        <v>626402</v>
+      </c>
+      <c r="C1232" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1232" t="s">
+        <v>1667</v>
+      </c>
+      <c r="E1232" t="s">
+        <v>1706</v>
+      </c>
+      <c r="F1232" t="s">
+        <v>1707</v>
+      </c>
+      <c r="G1232" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1232" t="s">
         <v>312</v>
       </c>
-      <c r="I1230" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1230">
-        <v>1</v>
-      </c>
-      <c r="K1230">
+      <c r="I1232" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1232">
+        <v>1</v>
+      </c>
+      <c r="K1232">
         <v>340000</v>
       </c>
-      <c r="L1230">
+      <c r="L1232">
         <v>340000</v>
+      </c>
+    </row>
+    <row r="1233" spans="1:12">
+      <c r="A1233">
+        <v>1230</v>
+      </c>
+      <c r="B1233">
+        <v>626402</v>
+      </c>
+      <c r="C1233" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1233" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E1233" t="s">
+        <v>1722</v>
+      </c>
+      <c r="F1233" t="s">
+        <v>1723</v>
+      </c>
+      <c r="G1233" t="s">
+        <v>1724</v>
+      </c>
+      <c r="H1233" t="s">
+        <v>1347</v>
+      </c>
+      <c r="I1233" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1233">
+        <v>1</v>
+      </c>
+      <c r="K1233">
+        <v>1061000</v>
+      </c>
+      <c r="L1233">
+        <v>1061000</v>
+      </c>
+    </row>
+    <row r="1234" spans="1:12">
+      <c r="A1234">
+        <v>1231</v>
+      </c>
+      <c r="B1234">
+        <v>626402</v>
+      </c>
+      <c r="C1234" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1234" t="s">
+        <v>1721</v>
+      </c>
+      <c r="E1234" t="s">
+        <v>1725</v>
+      </c>
+      <c r="F1234" t="s">
+        <v>1726</v>
+      </c>
+      <c r="G1234" t="s">
+        <v>1727</v>
+      </c>
+      <c r="H1234" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1234" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1234">
+        <v>1</v>
+      </c>
+      <c r="K1234">
+        <v>1167000</v>
+      </c>
+      <c r="L1234">
+        <v>1167000</v>
+      </c>
+    </row>
+    <row r="1235" spans="1:12">
+      <c r="A1235">
+        <v>1232</v>
+      </c>
+      <c r="B1235">
+        <v>626402</v>
+      </c>
+      <c r="C1235" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1235" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1235" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F1235" t="s">
+        <v>1729</v>
+      </c>
+      <c r="G1235" t="s">
+        <v>1730</v>
+      </c>
+      <c r="H1235" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I1235" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1235">
+        <v>1</v>
+      </c>
+      <c r="K1235">
+        <v>460000</v>
+      </c>
+      <c r="L1235">
+        <v>460000</v>
+      </c>
+    </row>
+    <row r="1236" spans="1:12">
+      <c r="A1236">
+        <v>1233</v>
+      </c>
+      <c r="B1236">
+        <v>626402</v>
+      </c>
+      <c r="C1236" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1236" t="s">
+        <v>1243</v>
+      </c>
+      <c r="E1236" t="s">
+        <v>1731</v>
+      </c>
+      <c r="F1236" t="s">
+        <v>1732</v>
+      </c>
+      <c r="G1236" t="s">
+        <v>1462</v>
+      </c>
+      <c r="H1236" t="s">
+        <v>164</v>
+      </c>
+      <c r="I1236" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1236">
+        <v>1</v>
+      </c>
+      <c r="K1236">
+        <v>5104000</v>
+      </c>
+      <c r="L1236">
+        <v>5104000</v>
+      </c>
+    </row>
+    <row r="1237" spans="1:12">
+      <c r="A1237">
+        <v>1234</v>
+      </c>
+      <c r="B1237">
+        <v>626402</v>
+      </c>
+      <c r="C1237" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1237" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1237" t="s">
+        <v>1733</v>
+      </c>
+      <c r="F1237" t="s">
+        <v>1734</v>
+      </c>
+      <c r="G1237" t="s">
+        <v>1735</v>
+      </c>
+      <c r="H1237" t="s">
+        <v>629</v>
+      </c>
+      <c r="I1237" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1237">
+        <v>1</v>
+      </c>
+      <c r="K1237">
+        <v>1788900</v>
+      </c>
+      <c r="L1237">
+        <v>1788900</v>
+      </c>
+    </row>
+    <row r="1238" spans="1:12">
+      <c r="A1238">
+        <v>1235</v>
+      </c>
+      <c r="B1238">
+        <v>626402</v>
+      </c>
+      <c r="C1238" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1238" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1238" t="s">
+        <v>1736</v>
+      </c>
+      <c r="F1238" t="s">
+        <v>1737</v>
+      </c>
+      <c r="G1238" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H1238" t="s">
+        <v>630</v>
+      </c>
+      <c r="I1238" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1238">
+        <v>1</v>
+      </c>
+      <c r="K1238">
+        <v>1174500</v>
+      </c>
+      <c r="L1238">
+        <v>1174500</v>
+      </c>
+    </row>
+    <row r="1239" spans="1:12">
+      <c r="A1239">
+        <v>1236</v>
+      </c>
+      <c r="B1239">
+        <v>626402</v>
+      </c>
+      <c r="C1239" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1239" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1239" t="s">
+        <v>1740</v>
+      </c>
+      <c r="F1239" t="s">
+        <v>1741</v>
+      </c>
+      <c r="G1239" t="s">
+        <v>1742</v>
+      </c>
+      <c r="H1239" t="s">
+        <v>1743</v>
+      </c>
+      <c r="I1239" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1239">
+        <v>1</v>
+      </c>
+      <c r="K1239">
+        <v>1350000</v>
+      </c>
+      <c r="L1239">
+        <v>1350000</v>
+      </c>
+    </row>
+    <row r="1240" spans="1:12">
+      <c r="A1240">
+        <v>1237</v>
+      </c>
+      <c r="B1240">
+        <v>626402</v>
+      </c>
+      <c r="C1240" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1240" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1240" t="s">
+        <v>1744</v>
+      </c>
+      <c r="F1240" t="s">
+        <v>1745</v>
+      </c>
+      <c r="G1240" t="s">
+        <v>1746</v>
+      </c>
+      <c r="H1240" t="s">
+        <v>377</v>
+      </c>
+      <c r="I1240" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1240">
+        <v>1</v>
+      </c>
+      <c r="K1240">
+        <v>1040000</v>
+      </c>
+      <c r="L1240">
+        <v>1040000</v>
+      </c>
+    </row>
+    <row r="1241" spans="1:12">
+      <c r="A1241">
+        <v>1238</v>
+      </c>
+      <c r="B1241">
+        <v>626402</v>
+      </c>
+      <c r="C1241" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1241" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1241" t="s">
+        <v>1747</v>
+      </c>
+      <c r="F1241" t="s">
+        <v>1748</v>
+      </c>
+      <c r="G1241" t="s">
+        <v>1749</v>
+      </c>
+      <c r="H1241" t="s">
+        <v>377</v>
+      </c>
+      <c r="I1241" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1241">
+        <v>1</v>
+      </c>
+      <c r="K1241">
+        <v>2892300</v>
+      </c>
+      <c r="L1241">
+        <v>2892300</v>
+      </c>
+    </row>
+    <row r="1242" spans="1:12">
+      <c r="A1242">
+        <v>1239</v>
+      </c>
+      <c r="B1242">
+        <v>626402</v>
+      </c>
+      <c r="C1242" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1242" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1242" t="s">
+        <v>1750</v>
+      </c>
+      <c r="F1242" t="s">
+        <v>1751</v>
+      </c>
+      <c r="G1242" t="s">
+        <v>1752</v>
+      </c>
+      <c r="H1242" t="s">
+        <v>706</v>
+      </c>
+      <c r="I1242" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1242">
+        <v>1</v>
+      </c>
+      <c r="K1242">
+        <v>21209450</v>
+      </c>
+      <c r="L1242">
+        <v>21209450</v>
+      </c>
+    </row>
+    <row r="1243" spans="1:12">
+      <c r="A1243">
+        <v>1240</v>
+      </c>
+      <c r="B1243">
+        <v>626402</v>
+      </c>
+      <c r="C1243" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1243" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1243" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F1243" t="s">
+        <v>1754</v>
+      </c>
+      <c r="G1243" t="s">
+        <v>1755</v>
+      </c>
+      <c r="H1243" t="s">
+        <v>1756</v>
+      </c>
+      <c r="I1243" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1243">
+        <v>1</v>
+      </c>
+      <c r="K1243">
+        <v>191350000</v>
+      </c>
+      <c r="L1243">
+        <v>191350000</v>
+      </c>
+    </row>
+    <row r="1244" spans="1:12">
+      <c r="A1244">
+        <v>1241</v>
+      </c>
+      <c r="B1244">
+        <v>626402</v>
+      </c>
+      <c r="C1244" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1244" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1244" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F1244" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G1244" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1244" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1244" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1244">
+        <v>1</v>
+      </c>
+      <c r="K1244">
+        <v>2772000</v>
+      </c>
+      <c r="L1244">
+        <v>2772000</v>
+      </c>
+    </row>
+    <row r="1245" spans="1:12">
+      <c r="A1245">
+        <v>1242</v>
+      </c>
+      <c r="B1245">
+        <v>626402</v>
+      </c>
+      <c r="C1245" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1245" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1245" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F1245" t="s">
+        <v>1758</v>
+      </c>
+      <c r="G1245" t="s">
+        <v>121</v>
+      </c>
+      <c r="H1245" t="s">
+        <v>1759</v>
+      </c>
+      <c r="I1245" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1245">
+        <v>1</v>
+      </c>
+      <c r="K1245">
+        <v>4523983</v>
+      </c>
+      <c r="L1245">
+        <v>4523983</v>
+      </c>
+    </row>
+    <row r="1246" spans="1:12">
+      <c r="A1246">
+        <v>1243</v>
+      </c>
+      <c r="B1246">
+        <v>626402</v>
+      </c>
+      <c r="C1246" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1246" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1246" t="s">
+        <v>1760</v>
+      </c>
+      <c r="F1246" t="s">
+        <v>1761</v>
+      </c>
+      <c r="G1246" t="s">
+        <v>1762</v>
+      </c>
+      <c r="H1246" t="s">
+        <v>400</v>
+      </c>
+      <c r="I1246" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1246">
+        <v>1</v>
+      </c>
+      <c r="K1246">
+        <v>425218469</v>
+      </c>
+      <c r="L1246">
+        <v>425218469</v>
+      </c>
+    </row>
+    <row r="1247" spans="1:12">
+      <c r="A1247">
+        <v>1244</v>
+      </c>
+      <c r="B1247">
+        <v>626402</v>
+      </c>
+      <c r="C1247" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1247" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1247" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1247" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1247" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1247" t="s">
+        <v>444</v>
+      </c>
+      <c r="I1247" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1247">
+        <v>1</v>
+      </c>
+      <c r="K1247">
+        <v>5104000</v>
+      </c>
+      <c r="L1247">
+        <v>5104000</v>
+      </c>
+    </row>
+    <row r="1248" spans="1:12">
+      <c r="A1248">
+        <v>1245</v>
+      </c>
+      <c r="B1248">
+        <v>626402</v>
+      </c>
+      <c r="C1248" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1248" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1248" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1248" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1248" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1248" t="s">
+        <v>874</v>
+      </c>
+      <c r="I1248" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1248">
+        <v>1</v>
+      </c>
+      <c r="K1248">
+        <v>11230000</v>
+      </c>
+      <c r="L1248">
+        <v>11230000</v>
+      </c>
+    </row>
+    <row r="1249" spans="1:12">
+      <c r="A1249">
+        <v>1246</v>
+      </c>
+      <c r="B1249">
+        <v>626402</v>
+      </c>
+      <c r="C1249" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1249" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1249" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1249" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1249" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1249" t="s">
+        <v>445</v>
+      </c>
+      <c r="I1249" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1249">
+        <v>1</v>
+      </c>
+      <c r="K1249">
+        <v>770000</v>
+      </c>
+      <c r="L1249">
+        <v>770000</v>
+      </c>
+    </row>
+    <row r="1250" spans="1:12">
+      <c r="A1250">
+        <v>1247</v>
+      </c>
+      <c r="B1250">
+        <v>626402</v>
+      </c>
+      <c r="C1250" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1250" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1250" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1250" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1250" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1250" t="s">
+        <v>1438</v>
+      </c>
+      <c r="I1250" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1250">
+        <v>1</v>
+      </c>
+      <c r="K1250">
+        <v>1168000</v>
+      </c>
+      <c r="L1250">
+        <v>1168000</v>
+      </c>
+    </row>
+    <row r="1251" spans="1:12">
+      <c r="A1251">
+        <v>1248</v>
+      </c>
+      <c r="B1251">
+        <v>626402</v>
+      </c>
+      <c r="C1251" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1251" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1251" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1251" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1251" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1251" t="s">
+        <v>1439</v>
+      </c>
+      <c r="I1251" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1251">
+        <v>1</v>
+      </c>
+      <c r="K1251">
+        <v>972000</v>
+      </c>
+      <c r="L1251">
+        <v>972000</v>
+      </c>
+    </row>
+    <row r="1252" spans="1:12">
+      <c r="A1252">
+        <v>1249</v>
+      </c>
+      <c r="B1252">
+        <v>626402</v>
+      </c>
+      <c r="C1252" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1252" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1252" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1252" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1252" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1252" t="s">
+        <v>1440</v>
+      </c>
+      <c r="I1252" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1252">
+        <v>1</v>
+      </c>
+      <c r="K1252">
+        <v>486000</v>
+      </c>
+      <c r="L1252">
+        <v>486000</v>
+      </c>
+    </row>
+    <row r="1253" spans="1:12">
+      <c r="A1253">
+        <v>1250</v>
+      </c>
+      <c r="B1253">
+        <v>626402</v>
+      </c>
+      <c r="C1253" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1253" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1253" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1253" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1253" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1253" t="s">
+        <v>1441</v>
+      </c>
+      <c r="I1253" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1253">
+        <v>1</v>
+      </c>
+      <c r="K1253">
+        <v>408000</v>
+      </c>
+      <c r="L1253">
+        <v>408000</v>
+      </c>
+    </row>
+    <row r="1254" spans="1:12">
+      <c r="A1254">
+        <v>1251</v>
+      </c>
+      <c r="B1254">
+        <v>626402</v>
+      </c>
+      <c r="C1254" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1254" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1254" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1254" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1254" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1254" t="s">
+        <v>877</v>
+      </c>
+      <c r="I1254" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1254">
+        <v>1</v>
+      </c>
+      <c r="K1254">
+        <v>863000</v>
+      </c>
+      <c r="L1254">
+        <v>863000</v>
+      </c>
+    </row>
+    <row r="1255" spans="1:12">
+      <c r="A1255">
+        <v>1252</v>
+      </c>
+      <c r="B1255">
+        <v>626402</v>
+      </c>
+      <c r="C1255" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1255" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1255" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1255" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1255" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1255" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I1255" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1255">
+        <v>1</v>
+      </c>
+      <c r="K1255">
+        <v>2310000</v>
+      </c>
+      <c r="L1255">
+        <v>2310000</v>
+      </c>
+    </row>
+    <row r="1256" spans="1:12">
+      <c r="A1256">
+        <v>1253</v>
+      </c>
+      <c r="B1256">
+        <v>626402</v>
+      </c>
+      <c r="C1256" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1256" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1256" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1256" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1256" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1256" t="s">
+        <v>449</v>
+      </c>
+      <c r="I1256" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1256">
+        <v>1</v>
+      </c>
+      <c r="K1256">
+        <v>616000</v>
+      </c>
+      <c r="L1256">
+        <v>616000</v>
+      </c>
+    </row>
+    <row r="1257" spans="1:12">
+      <c r="A1257">
+        <v>1254</v>
+      </c>
+      <c r="B1257">
+        <v>626402</v>
+      </c>
+      <c r="C1257" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1257" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1257" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1257" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1257" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1257" t="s">
+        <v>597</v>
+      </c>
+      <c r="I1257" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1257">
+        <v>1</v>
+      </c>
+      <c r="K1257">
+        <v>2805000</v>
+      </c>
+      <c r="L1257">
+        <v>2805000</v>
+      </c>
+    </row>
+    <row r="1258" spans="1:12">
+      <c r="A1258">
+        <v>1255</v>
+      </c>
+      <c r="B1258">
+        <v>626402</v>
+      </c>
+      <c r="C1258" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1258" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1258" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1258" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1258" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1258" t="s">
+        <v>1766</v>
+      </c>
+      <c r="I1258" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1258">
+        <v>1</v>
+      </c>
+      <c r="K1258">
+        <v>1000000</v>
+      </c>
+      <c r="L1258">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1259" spans="1:12">
+      <c r="A1259">
+        <v>1256</v>
+      </c>
+      <c r="B1259">
+        <v>626402</v>
+      </c>
+      <c r="C1259" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1259" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1259" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1259" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1259" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1259" t="s">
+        <v>1767</v>
+      </c>
+      <c r="I1259" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1259">
+        <v>1</v>
+      </c>
+      <c r="K1259">
+        <v>1155000</v>
+      </c>
+      <c r="L1259">
+        <v>1155000</v>
+      </c>
+    </row>
+    <row r="1260" spans="1:12">
+      <c r="A1260">
+        <v>1257</v>
+      </c>
+      <c r="B1260">
+        <v>626402</v>
+      </c>
+      <c r="C1260" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1260" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1260" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1260" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1260" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1260" t="s">
+        <v>624</v>
+      </c>
+      <c r="I1260" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1260">
+        <v>1</v>
+      </c>
+      <c r="K1260">
+        <v>1000000</v>
+      </c>
+      <c r="L1260">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1261" spans="1:12">
+      <c r="A1261">
+        <v>1258</v>
+      </c>
+      <c r="B1261">
+        <v>626402</v>
+      </c>
+      <c r="C1261" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1261" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1261" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1261" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1261" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1261" t="s">
+        <v>625</v>
+      </c>
+      <c r="I1261" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1261">
+        <v>1</v>
+      </c>
+      <c r="K1261">
+        <v>1000000</v>
+      </c>
+      <c r="L1261">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1262" spans="1:12">
+      <c r="A1262">
+        <v>1259</v>
+      </c>
+      <c r="B1262">
+        <v>626402</v>
+      </c>
+      <c r="C1262" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1262" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1262" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1262" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1262" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1262" t="s">
+        <v>881</v>
+      </c>
+      <c r="I1262" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1262">
+        <v>1</v>
+      </c>
+      <c r="K1262">
+        <v>1000000</v>
+      </c>
+      <c r="L1262">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1263" spans="1:12">
+      <c r="A1263">
+        <v>1260</v>
+      </c>
+      <c r="B1263">
+        <v>626402</v>
+      </c>
+      <c r="C1263" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1263" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1263" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1263" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1263" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1263" t="s">
+        <v>882</v>
+      </c>
+      <c r="I1263" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1263">
+        <v>1</v>
+      </c>
+      <c r="K1263">
+        <v>1000000</v>
+      </c>
+      <c r="L1263">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1264" spans="1:12">
+      <c r="A1264">
+        <v>1261</v>
+      </c>
+      <c r="B1264">
+        <v>626402</v>
+      </c>
+      <c r="C1264" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1264" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1264" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1264" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1264" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1264" t="s">
+        <v>452</v>
+      </c>
+      <c r="I1264" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1264">
+        <v>1</v>
+      </c>
+      <c r="K1264">
+        <v>3157000</v>
+      </c>
+      <c r="L1264">
+        <v>3157000</v>
+      </c>
+    </row>
+    <row r="1265" spans="1:12">
+      <c r="A1265">
+        <v>1262</v>
+      </c>
+      <c r="B1265">
+        <v>626402</v>
+      </c>
+      <c r="C1265" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1265" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1265" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1265" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1265" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1265" t="s">
+        <v>626</v>
+      </c>
+      <c r="I1265" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1265">
+        <v>1</v>
+      </c>
+      <c r="K1265">
+        <v>1000000</v>
+      </c>
+      <c r="L1265">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1266" spans="1:12">
+      <c r="A1266">
+        <v>1263</v>
+      </c>
+      <c r="B1266">
+        <v>626402</v>
+      </c>
+      <c r="C1266" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1266" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1266" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1266" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1266" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1266" t="s">
+        <v>627</v>
+      </c>
+      <c r="I1266" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1266">
+        <v>1</v>
+      </c>
+      <c r="K1266">
+        <v>1000000</v>
+      </c>
+      <c r="L1266">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1267" spans="1:12">
+      <c r="A1267">
+        <v>1264</v>
+      </c>
+      <c r="B1267">
+        <v>626402</v>
+      </c>
+      <c r="C1267" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1267" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1267" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1267" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1267" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1267" t="s">
+        <v>1768</v>
+      </c>
+      <c r="I1267" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1267">
+        <v>1</v>
+      </c>
+      <c r="K1267">
+        <v>4000000</v>
+      </c>
+      <c r="L1267">
+        <v>4000000</v>
+      </c>
+    </row>
+    <row r="1268" spans="1:12">
+      <c r="A1268">
+        <v>1265</v>
+      </c>
+      <c r="B1268">
+        <v>626402</v>
+      </c>
+      <c r="C1268" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1268" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1268" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1268" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1268" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1268" t="s">
+        <v>600</v>
+      </c>
+      <c r="I1268" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1268">
+        <v>1</v>
+      </c>
+      <c r="K1268">
+        <v>1000000</v>
+      </c>
+      <c r="L1268">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1269" spans="1:12">
+      <c r="A1269">
+        <v>1266</v>
+      </c>
+      <c r="B1269">
+        <v>626402</v>
+      </c>
+      <c r="C1269" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1269" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1269" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1269" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1269" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1269" t="s">
+        <v>887</v>
+      </c>
+      <c r="I1269" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1269">
+        <v>1</v>
+      </c>
+      <c r="K1269">
+        <v>1278000</v>
+      </c>
+      <c r="L1269">
+        <v>1278000</v>
+      </c>
+    </row>
+    <row r="1270" spans="1:12">
+      <c r="A1270">
+        <v>1267</v>
+      </c>
+      <c r="B1270">
+        <v>626402</v>
+      </c>
+      <c r="C1270" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1270" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1270" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1270" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1270" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1270" t="s">
+        <v>888</v>
+      </c>
+      <c r="I1270" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1270">
+        <v>1</v>
+      </c>
+      <c r="K1270">
+        <v>3881200</v>
+      </c>
+      <c r="L1270">
+        <v>3881200</v>
+      </c>
+    </row>
+    <row r="1271" spans="1:12">
+      <c r="A1271">
+        <v>1268</v>
+      </c>
+      <c r="B1271">
+        <v>626402</v>
+      </c>
+      <c r="C1271" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1271" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1271" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1271" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1271" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1271" t="s">
+        <v>1769</v>
+      </c>
+      <c r="I1271" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1271">
+        <v>1</v>
+      </c>
+      <c r="K1271">
+        <v>10800000</v>
+      </c>
+      <c r="L1271">
+        <v>10800000</v>
+      </c>
+    </row>
+    <row r="1272" spans="1:12">
+      <c r="A1272">
+        <v>1269</v>
+      </c>
+      <c r="B1272">
+        <v>626402</v>
+      </c>
+      <c r="C1272" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1272" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1272" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1272" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1272" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1272" t="s">
+        <v>378</v>
+      </c>
+      <c r="I1272" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1272">
+        <v>1</v>
+      </c>
+      <c r="K1272">
+        <v>1539000</v>
+      </c>
+      <c r="L1272">
+        <v>1539000</v>
+      </c>
+    </row>
+    <row r="1273" spans="1:12">
+      <c r="A1273">
+        <v>1270</v>
+      </c>
+      <c r="B1273">
+        <v>626402</v>
+      </c>
+      <c r="C1273" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1273" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1273" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1273" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1273" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1273" t="s">
+        <v>864</v>
+      </c>
+      <c r="I1273" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1273">
+        <v>1</v>
+      </c>
+      <c r="K1273">
+        <v>5728900</v>
+      </c>
+      <c r="L1273">
+        <v>5728900</v>
+      </c>
+    </row>
+    <row r="1274" spans="1:12">
+      <c r="A1274">
+        <v>1271</v>
+      </c>
+      <c r="B1274">
+        <v>626402</v>
+      </c>
+      <c r="C1274" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1274" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1274" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1274" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1274" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1274" t="s">
+        <v>369</v>
+      </c>
+      <c r="I1274" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1274">
+        <v>1</v>
+      </c>
+      <c r="K1274">
+        <v>1496000</v>
+      </c>
+      <c r="L1274">
+        <v>1496000</v>
+      </c>
+    </row>
+    <row r="1275" spans="1:12">
+      <c r="A1275">
+        <v>1272</v>
+      </c>
+      <c r="B1275">
+        <v>626402</v>
+      </c>
+      <c r="C1275" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1275" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1275" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1275" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1275" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1275" t="s">
+        <v>438</v>
+      </c>
+      <c r="I1275" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1275">
+        <v>1</v>
+      </c>
+      <c r="K1275">
+        <v>2172000</v>
+      </c>
+      <c r="L1275">
+        <v>2172000</v>
+      </c>
+    </row>
+    <row r="1276" spans="1:12">
+      <c r="A1276">
+        <v>1273</v>
+      </c>
+      <c r="B1276">
+        <v>626402</v>
+      </c>
+      <c r="C1276" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1276" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1276" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1276" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1276" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1276" t="s">
+        <v>440</v>
+      </c>
+      <c r="I1276" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1276">
+        <v>1</v>
+      </c>
+      <c r="K1276">
+        <v>2040000</v>
+      </c>
+      <c r="L1276">
+        <v>2040000</v>
+      </c>
+    </row>
+    <row r="1277" spans="1:12">
+      <c r="A1277">
+        <v>1274</v>
+      </c>
+      <c r="B1277">
+        <v>626402</v>
+      </c>
+      <c r="C1277" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1277" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1277" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1277" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1277" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1277" t="s">
+        <v>460</v>
+      </c>
+      <c r="I1277" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1277">
+        <v>1</v>
+      </c>
+      <c r="K1277">
+        <v>2040000</v>
+      </c>
+      <c r="L1277">
+        <v>2040000</v>
+      </c>
+    </row>
+    <row r="1278" spans="1:12">
+      <c r="A1278">
+        <v>1275</v>
+      </c>
+      <c r="B1278">
+        <v>626402</v>
+      </c>
+      <c r="C1278" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1278" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1278" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1278" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1278" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1278" t="s">
+        <v>889</v>
+      </c>
+      <c r="I1278" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1278">
+        <v>1</v>
+      </c>
+      <c r="K1278">
+        <v>2060000</v>
+      </c>
+      <c r="L1278">
+        <v>2060000</v>
+      </c>
+    </row>
+    <row r="1279" spans="1:12">
+      <c r="A1279">
+        <v>1276</v>
+      </c>
+      <c r="B1279">
+        <v>626402</v>
+      </c>
+      <c r="C1279" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1279" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1279" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1279" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1279" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1279" t="s">
+        <v>890</v>
+      </c>
+      <c r="I1279" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1279">
+        <v>1</v>
+      </c>
+      <c r="K1279">
+        <v>3191000</v>
+      </c>
+      <c r="L1279">
+        <v>3191000</v>
+      </c>
+    </row>
+    <row r="1280" spans="1:12">
+      <c r="A1280">
+        <v>1277</v>
+      </c>
+      <c r="B1280">
+        <v>626402</v>
+      </c>
+      <c r="C1280" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1280" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1280" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1280" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1280" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1280" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I1280" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1280">
+        <v>1</v>
+      </c>
+      <c r="K1280">
+        <v>1360000</v>
+      </c>
+      <c r="L1280">
+        <v>1360000</v>
+      </c>
+    </row>
+    <row r="1281" spans="1:12">
+      <c r="A1281">
+        <v>1278</v>
+      </c>
+      <c r="B1281">
+        <v>626402</v>
+      </c>
+      <c r="C1281" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1281" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1281" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1281" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1281" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1281" t="s">
+        <v>464</v>
+      </c>
+      <c r="I1281" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1281">
+        <v>1</v>
+      </c>
+      <c r="K1281">
+        <v>2380000</v>
+      </c>
+      <c r="L1281">
+        <v>2380000</v>
+      </c>
+    </row>
+    <row r="1282" spans="1:12">
+      <c r="A1282">
+        <v>1279</v>
+      </c>
+      <c r="B1282">
+        <v>626402</v>
+      </c>
+      <c r="C1282" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1282" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1282" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1282" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1282" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1282" t="s">
+        <v>618</v>
+      </c>
+      <c r="I1282" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1282">
+        <v>1</v>
+      </c>
+      <c r="K1282">
+        <v>5100000</v>
+      </c>
+      <c r="L1282">
+        <v>5100000</v>
+      </c>
+    </row>
+    <row r="1283" spans="1:12">
+      <c r="A1283">
+        <v>1280</v>
+      </c>
+      <c r="B1283">
+        <v>626402</v>
+      </c>
+      <c r="C1283" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1283" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1283" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1283" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1283" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1283" t="s">
+        <v>621</v>
+      </c>
+      <c r="I1283" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1283">
+        <v>1</v>
+      </c>
+      <c r="K1283">
+        <v>5250000</v>
+      </c>
+      <c r="L1283">
+        <v>5250000</v>
+      </c>
+    </row>
+    <row r="1284" spans="1:12">
+      <c r="A1284">
+        <v>1281</v>
+      </c>
+      <c r="B1284">
+        <v>626402</v>
+      </c>
+      <c r="C1284" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1284" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1284" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1284" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1284" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1284" t="s">
+        <v>467</v>
+      </c>
+      <c r="I1284" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1284">
+        <v>1</v>
+      </c>
+      <c r="K1284">
+        <v>2464000</v>
+      </c>
+      <c r="L1284">
+        <v>2464000</v>
+      </c>
+    </row>
+    <row r="1285" spans="1:12">
+      <c r="A1285">
+        <v>1282</v>
+      </c>
+      <c r="B1285">
+        <v>626402</v>
+      </c>
+      <c r="C1285" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1285" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1285" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F1285" t="s">
+        <v>1764</v>
+      </c>
+      <c r="G1285" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1285" t="s">
+        <v>218</v>
+      </c>
+      <c r="I1285" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1285">
+        <v>1</v>
+      </c>
+      <c r="K1285">
+        <v>4092200</v>
+      </c>
+      <c r="L1285">
+        <v>4092200</v>
+      </c>
+    </row>
+    <row r="1286" spans="1:12">
+      <c r="A1286">
+        <v>1283</v>
+      </c>
+      <c r="B1286">
+        <v>626402</v>
+      </c>
+      <c r="C1286" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1286" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1286" t="s">
+        <v>1771</v>
+      </c>
+      <c r="F1286" t="s">
+        <v>1772</v>
+      </c>
+      <c r="G1286" t="s">
+        <v>1773</v>
+      </c>
+      <c r="H1286" t="s">
+        <v>510</v>
+      </c>
+      <c r="I1286" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1286">
+        <v>1</v>
+      </c>
+      <c r="K1286">
+        <v>9177893</v>
+      </c>
+      <c r="L1286">
+        <v>9177893</v>
+      </c>
+    </row>
+    <row r="1287" spans="1:12">
+      <c r="A1287">
+        <v>1284</v>
+      </c>
+      <c r="B1287">
+        <v>626402</v>
+      </c>
+      <c r="C1287" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1287" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1287" t="s">
+        <v>1774</v>
+      </c>
+      <c r="F1287" t="s">
+        <v>1775</v>
+      </c>
+      <c r="G1287" t="s">
+        <v>1776</v>
+      </c>
+      <c r="H1287" t="s">
+        <v>400</v>
+      </c>
+      <c r="I1287" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1287">
+        <v>1</v>
+      </c>
+      <c r="K1287">
+        <v>5337713</v>
+      </c>
+      <c r="L1287">
+        <v>5337713</v>
+      </c>
+    </row>
+    <row r="1288" spans="1:12">
+      <c r="A1288">
+        <v>1285</v>
+      </c>
+      <c r="B1288">
+        <v>626402</v>
+      </c>
+      <c r="C1288" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1288" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1288" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F1288" t="s">
+        <v>1778</v>
+      </c>
+      <c r="G1288" t="s">
+        <v>1779</v>
+      </c>
+      <c r="H1288" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I1288" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1288">
+        <v>1</v>
+      </c>
+      <c r="K1288">
+        <v>210000</v>
+      </c>
+      <c r="L1288">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="1289" spans="1:12">
+      <c r="A1289">
+        <v>1286</v>
+      </c>
+      <c r="B1289">
+        <v>626402</v>
+      </c>
+      <c r="C1289" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1289" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1289" t="s">
+        <v>1780</v>
+      </c>
+      <c r="F1289" t="s">
+        <v>1781</v>
+      </c>
+      <c r="G1289" t="s">
+        <v>1782</v>
+      </c>
+      <c r="H1289" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1289" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1289">
+        <v>1</v>
+      </c>
+      <c r="K1289">
+        <v>7428768</v>
+      </c>
+      <c r="L1289">
+        <v>7428768</v>
+      </c>
+    </row>
+    <row r="1290" spans="1:12">
+      <c r="A1290">
+        <v>1287</v>
+      </c>
+      <c r="B1290">
+        <v>626402</v>
+      </c>
+      <c r="C1290" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1290" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1290" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F1290" t="s">
+        <v>1784</v>
+      </c>
+      <c r="G1290" t="s">
+        <v>1785</v>
+      </c>
+      <c r="H1290" t="s">
+        <v>348</v>
+      </c>
+      <c r="I1290" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1290">
+        <v>1</v>
+      </c>
+      <c r="K1290">
+        <v>28720670</v>
+      </c>
+      <c r="L1290">
+        <v>28720670</v>
+      </c>
+    </row>
+    <row r="1291" spans="1:12">
+      <c r="A1291">
+        <v>1288</v>
+      </c>
+      <c r="B1291">
+        <v>626402</v>
+      </c>
+      <c r="C1291" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1291" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1291" t="s">
+        <v>1786</v>
+      </c>
+      <c r="F1291" t="s">
+        <v>1787</v>
+      </c>
+      <c r="G1291" t="s">
+        <v>1788</v>
+      </c>
+      <c r="H1291" t="s">
+        <v>344</v>
+      </c>
+      <c r="I1291" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1291">
+        <v>1</v>
+      </c>
+      <c r="K1291">
+        <v>28720670</v>
+      </c>
+      <c r="L1291">
+        <v>28720670</v>
+      </c>
+    </row>
+    <row r="1292" spans="1:12">
+      <c r="A1292">
+        <v>1289</v>
+      </c>
+      <c r="B1292">
+        <v>626402</v>
+      </c>
+      <c r="C1292" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1292" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1292" t="s">
+        <v>1789</v>
+      </c>
+      <c r="F1292" t="s">
+        <v>1790</v>
+      </c>
+      <c r="G1292" t="s">
+        <v>1791</v>
+      </c>
+      <c r="H1292" t="s">
+        <v>396</v>
+      </c>
+      <c r="I1292" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1292">
+        <v>1</v>
+      </c>
+      <c r="K1292">
+        <v>200001641</v>
+      </c>
+      <c r="L1292">
+        <v>200001641</v>
+      </c>
+    </row>
+    <row r="1293" spans="1:12">
+      <c r="A1293">
+        <v>1290</v>
+      </c>
+      <c r="B1293">
+        <v>626402</v>
+      </c>
+      <c r="C1293" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1293" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1293" t="s">
+        <v>1792</v>
+      </c>
+      <c r="F1293" t="s">
+        <v>1793</v>
+      </c>
+      <c r="G1293" t="s">
+        <v>1794</v>
+      </c>
+      <c r="H1293" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I1293" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1293">
+        <v>1</v>
+      </c>
+      <c r="K1293">
+        <v>1472270</v>
+      </c>
+      <c r="L1293">
+        <v>1472270</v>
+      </c>
+    </row>
+    <row r="1294" spans="1:12">
+      <c r="A1294">
+        <v>1291</v>
+      </c>
+      <c r="B1294">
+        <v>626402</v>
+      </c>
+      <c r="C1294" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1294" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1294" t="s">
+        <v>1796</v>
+      </c>
+      <c r="F1294" t="s">
+        <v>1797</v>
+      </c>
+      <c r="G1294" t="s">
+        <v>1798</v>
+      </c>
+      <c r="H1294" t="s">
+        <v>1795</v>
+      </c>
+      <c r="I1294" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1294">
+        <v>1</v>
+      </c>
+      <c r="K1294">
+        <v>8447339</v>
+      </c>
+      <c r="L1294">
+        <v>8447339</v>
+      </c>
+    </row>
+    <row r="1295" spans="1:12">
+      <c r="A1295">
+        <v>1292</v>
+      </c>
+      <c r="B1295">
+        <v>626402</v>
+      </c>
+      <c r="C1295" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1295" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1295" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F1295" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G1295" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H1295" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I1295" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1295">
+        <v>1</v>
+      </c>
+      <c r="K1295">
+        <v>420000</v>
+      </c>
+      <c r="L1295">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="1296" spans="1:12">
+      <c r="A1296">
+        <v>1293</v>
+      </c>
+      <c r="B1296">
+        <v>626402</v>
+      </c>
+      <c r="C1296" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1296" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1296" t="s">
+        <v>1799</v>
+      </c>
+      <c r="F1296" t="s">
+        <v>1800</v>
+      </c>
+      <c r="G1296" t="s">
+        <v>1801</v>
+      </c>
+      <c r="H1296" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I1296" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1296">
+        <v>1</v>
+      </c>
+      <c r="K1296">
+        <v>170000</v>
+      </c>
+      <c r="L1296">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="1297" spans="1:12">
+      <c r="A1297">
+        <v>1294</v>
+      </c>
+      <c r="B1297">
+        <v>626402</v>
+      </c>
+      <c r="C1297" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1297" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1297" t="s">
+        <v>1802</v>
+      </c>
+      <c r="F1297" t="s">
+        <v>1803</v>
+      </c>
+      <c r="G1297" t="s">
+        <v>1804</v>
+      </c>
+      <c r="H1297" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1297" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1297">
+        <v>1</v>
+      </c>
+      <c r="K1297">
+        <v>1774500</v>
+      </c>
+      <c r="L1297">
+        <v>1774500</v>
+      </c>
+    </row>
+    <row r="1298" spans="1:12">
+      <c r="A1298">
+        <v>1295</v>
+      </c>
+      <c r="B1298">
+        <v>626402</v>
+      </c>
+      <c r="C1298" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1298" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1298" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F1298" t="s">
+        <v>1806</v>
+      </c>
+      <c r="G1298" t="s">
+        <v>1807</v>
+      </c>
+      <c r="H1298" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1298" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1298">
+        <v>1</v>
+      </c>
+      <c r="K1298">
+        <v>2020000</v>
+      </c>
+      <c r="L1298">
+        <v>2020000</v>
+      </c>
+    </row>
+    <row r="1299" spans="1:12">
+      <c r="A1299">
+        <v>1296</v>
+      </c>
+      <c r="B1299">
+        <v>626402</v>
+      </c>
+      <c r="C1299" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1299" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1299" t="s">
+        <v>1808</v>
+      </c>
+      <c r="F1299" t="s">
+        <v>1809</v>
+      </c>
+      <c r="G1299" t="s">
+        <v>1810</v>
+      </c>
+      <c r="H1299" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1299" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1299">
+        <v>1</v>
+      </c>
+      <c r="K1299">
+        <v>1393500</v>
+      </c>
+      <c r="L1299">
+        <v>1393500</v>
+      </c>
+    </row>
+    <row r="1300" spans="1:12">
+      <c r="A1300">
+        <v>1297</v>
+      </c>
+      <c r="B1300">
+        <v>626402</v>
+      </c>
+      <c r="C1300" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1300" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1300" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F1300" t="s">
+        <v>1812</v>
+      </c>
+      <c r="G1300" t="s">
+        <v>1813</v>
+      </c>
+      <c r="H1300" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1300" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1300">
+        <v>1</v>
+      </c>
+      <c r="K1300">
+        <v>580000</v>
+      </c>
+      <c r="L1300">
+        <v>580000</v>
+      </c>
+    </row>
+    <row r="1301" spans="1:12">
+      <c r="A1301">
+        <v>1298</v>
+      </c>
+      <c r="B1301">
+        <v>626402</v>
+      </c>
+      <c r="C1301" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1301" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1301" t="s">
+        <v>1814</v>
+      </c>
+      <c r="F1301" t="s">
+        <v>1815</v>
+      </c>
+      <c r="G1301" t="s">
+        <v>1816</v>
+      </c>
+      <c r="H1301" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1301" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1301">
+        <v>1</v>
+      </c>
+      <c r="K1301">
+        <v>630000</v>
+      </c>
+      <c r="L1301">
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="1302" spans="1:12">
+      <c r="A1302">
+        <v>1299</v>
+      </c>
+      <c r="B1302">
+        <v>626402</v>
+      </c>
+      <c r="C1302" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1302" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E1302" t="s">
+        <v>1817</v>
+      </c>
+      <c r="F1302" t="s">
+        <v>1818</v>
+      </c>
+      <c r="G1302" t="s">
+        <v>1819</v>
+      </c>
+      <c r="H1302" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1302" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1302">
+        <v>1</v>
+      </c>
+      <c r="K1302">
+        <v>207801975</v>
+      </c>
+      <c r="L1302">
+        <v>207801975</v>
+      </c>
+    </row>
+    <row r="1303" spans="1:12">
+      <c r="A1303">
+        <v>1300</v>
+      </c>
+      <c r="B1303">
+        <v>626402</v>
+      </c>
+      <c r="C1303" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1303" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1303" t="s">
+        <v>1820</v>
+      </c>
+      <c r="F1303" t="s">
+        <v>1821</v>
+      </c>
+      <c r="G1303" t="s">
+        <v>1822</v>
+      </c>
+      <c r="H1303" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1303" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1303">
+        <v>1</v>
+      </c>
+      <c r="K1303">
+        <v>3861980</v>
+      </c>
+      <c r="L1303">
+        <v>3861980</v>
+      </c>
+    </row>
+    <row r="1304" spans="1:12">
+      <c r="A1304">
+        <v>1301</v>
+      </c>
+      <c r="B1304">
+        <v>626402</v>
+      </c>
+      <c r="C1304" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1304" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1304" t="s">
+        <v>1823</v>
+      </c>
+      <c r="F1304" t="s">
+        <v>1824</v>
+      </c>
+      <c r="G1304" t="s">
+        <v>1825</v>
+      </c>
+      <c r="H1304" t="s">
+        <v>658</v>
+      </c>
+      <c r="I1304" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1304">
+        <v>1</v>
+      </c>
+      <c r="K1304">
+        <v>12375000</v>
+      </c>
+      <c r="L1304">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="1305" spans="1:12">
+      <c r="A1305">
+        <v>1302</v>
+      </c>
+      <c r="B1305">
+        <v>626402</v>
+      </c>
+      <c r="C1305" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1305" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1305" t="s">
+        <v>1826</v>
+      </c>
+      <c r="F1305" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G1305" t="s">
+        <v>1828</v>
+      </c>
+      <c r="H1305" t="s">
+        <v>1829</v>
+      </c>
+      <c r="I1305" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1305">
+        <v>1</v>
+      </c>
+      <c r="K1305">
+        <v>2400000</v>
+      </c>
+      <c r="L1305">
+        <v>2400000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1830">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2049">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -5393,6 +5393,27 @@
     <t>Pembayaran tunjangan kinerja susulan bulan Maret tahun 2024 untuk 33 Pegawai/Anggota Polri/Prajurit TNI.</t>
   </si>
   <si>
+    <t>2024-04-05</t>
+  </si>
+  <si>
+    <t>'00440T</t>
+  </si>
+  <si>
+    <t>'241751303010702</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 2 pegawai sesuai ST Nomor B.511/BPPSDM.5/KP.440/III/2024 tanggal 25 MAret 2024 an.Supriyadi dkk</t>
+  </si>
+  <si>
+    <t>'00441T</t>
+  </si>
+  <si>
+    <t>'241751303010776</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 1 pegawai sesuai ST Nomor B.511/BPPSDM.5/KP.440/III/2024 tanggal 25 MAret 2024 an.Fitra Aditama</t>
+  </si>
+  <si>
     <t>'00442T</t>
   </si>
   <si>
@@ -5505,6 +5526,642 @@
   </si>
   <si>
     <t>'626402.175.521211.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.106.0A.000359</t>
+  </si>
+  <si>
+    <t>'00456T</t>
+  </si>
+  <si>
+    <t>'241751303010661</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.2933/BPPSDM.1/KP.440/III/2024 Tanggal 19 Maret 2024 a.n Muhammad Guntur, dkk</t>
+  </si>
+  <si>
+    <t>'00457T</t>
+  </si>
+  <si>
+    <t>'241751303010660</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.1306/BPPSDM.1/KP.440/II/2024 Tanggal 27 Februari 2024 a.n Don Bapkas Nisnoni</t>
+  </si>
+  <si>
+    <t>'00458T</t>
+  </si>
+  <si>
+    <t>'241751303010663</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 1 pegawai sesuai ST Nomor B.496/BPPSDM.5/KP.440/III/2024 tanggal 22 Maret 2024 an.Lilly Aprilya Pregiwati</t>
+  </si>
+  <si>
+    <t>'00459T</t>
+  </si>
+  <si>
+    <t>'241751303010774</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 3 pegawai sesuai ST Nomor B.496/BPPSDM.5/KP.440/III/2024 tanggal 22 Maret 2024 an.Riza Satriawan dkk</t>
+  </si>
+  <si>
+    <t>'00460T</t>
+  </si>
+  <si>
+    <t>'241751303010662</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2954/BPPSDM.1/KP.440/III/2024 Tanggal 20 Maret 2024 a.n Rahmadi Sunoko</t>
+  </si>
+  <si>
+    <t>'00461T</t>
+  </si>
+  <si>
+    <t>'241751303010612</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3022/BPPSDM.1/KP.440/III/2024 Tanggal 22 Maret 2024 a.n Putut Erie Sudjito, dkk.</t>
+  </si>
+  <si>
+    <t>'00462T</t>
+  </si>
+  <si>
+    <t>'241751303010775</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3022/BPPSDM.1/KP.440/III/2024 Tanggal 22 Maret 2024 a.n Suhartono</t>
+  </si>
+  <si>
+    <t>'00467T</t>
+  </si>
+  <si>
+    <t>'241751303010512</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.3060/BPPSDM.1/KP.440/III/2024 Tanggal 25 Maret 2024 a.n Diwa Redina T, dkk</t>
+  </si>
+  <si>
+    <t>'00468T</t>
+  </si>
+  <si>
+    <t>'241751303010513</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.2865/BPPSDM.1/KP.440/III/2024 Tanggal 15 Maret 2024 a.n Wahyu Widodo, dkk.</t>
+  </si>
+  <si>
+    <t>'00469T</t>
+  </si>
+  <si>
+    <t>'241751303010511</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 6 pegawai sesuai ST Nomor B.2910,B.2924,B.2967/BPPSDM.1/KP.440/III/2024 Tanggal 19 dan 20 Maret 2024 a.n Hari Purwanto, dkk.</t>
+  </si>
+  <si>
+    <t>'00470T</t>
+  </si>
+  <si>
+    <t>'241751301010361</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:C.TEL.03/KU.370/DGS-B30002000/2024 Tanggal 14 Maret 2024</t>
+  </si>
+  <si>
+    <t>'00471T</t>
+  </si>
+  <si>
+    <t>'241751303010529</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:008/KWT-2/AMA/II/2024 Tanggal 7 Maret 2024</t>
+  </si>
+  <si>
+    <t>'00472T</t>
+  </si>
+  <si>
+    <t>'241751303010514</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja modal sesuai kuitansi nomor 001/KWT/BIP/III/2024 tgl. 5 Maret 2024 pembelian AC split gedung II BPPSDM Ancol.</t>
+  </si>
+  <si>
+    <t>'00473T</t>
+  </si>
+  <si>
+    <t>'241751302010916</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:013/KWT/JIA/III/2024 Tanggal 13 Maret 2024</t>
+  </si>
+  <si>
+    <t>'00474T</t>
+  </si>
+  <si>
+    <t>'241751303010530</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:002/KWT/CGP/III/2024 Tanggal 4 Maret 2024</t>
+  </si>
+  <si>
+    <t>'00478T</t>
+  </si>
+  <si>
+    <t>'241751301010313</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:LP-BI/012/3/2024 Tanggal 8 Maret 2024</t>
+  </si>
+  <si>
+    <t>'00480T</t>
+  </si>
+  <si>
+    <t>'241751302010909</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:020/KW/PT-HAM/III/2024 Tanggal 20 Maret 2024</t>
+  </si>
+  <si>
+    <t>2024-04-16</t>
+  </si>
+  <si>
+    <t>'00486T</t>
+  </si>
+  <si>
+    <t>'241751303010863</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2963/BPPSDM.1/KP.440/III/2024 Tanggal 20 Maret 2024 a.n Putut Erie S.</t>
+  </si>
+  <si>
+    <t>'00487T</t>
+  </si>
+  <si>
+    <t>'241751303010862</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.3092/BPPSDM.1/KP.440/III/2024 Tanggal 25 Maret 2024 a.n Hendarsyah, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.BB.001123</t>
+  </si>
+  <si>
+    <t>'00489T</t>
+  </si>
+  <si>
+    <t>'241751303010861</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2925/BPPSDM.1/KP.440/III/2024 Tanggal 19 Maret 2024 a.n Asep Sutiana</t>
+  </si>
+  <si>
+    <t>'00490T</t>
+  </si>
+  <si>
+    <t>'241751303010864</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2925/BPPSDM.1/KP.440/III/2024 Tanggal 19 Maret 2024 a.n Ofan Bosman</t>
+  </si>
+  <si>
+    <t>'00491T</t>
+  </si>
+  <si>
+    <t>'241751303010859</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.3070/BPPSDM.1/KP.440/III/2024 Tanggal 25 Maret 2024 a.n Darwanto, dkk</t>
+  </si>
+  <si>
+    <t>'00492T</t>
+  </si>
+  <si>
+    <t>'241751303010860</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.2936/BPPSDM.1/KP.440/III/2024 Tanggal 19 Maret 2024 a.n Rizky Hendriansyah Saputra</t>
+  </si>
+  <si>
+    <t>'00493T</t>
+  </si>
+  <si>
+    <t>'241751301010649</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 73/IV Tanggal 1 April 2024 Biaya Sewa Mesin Foto Copy Bulan Maret 2024</t>
+  </si>
+  <si>
+    <t>'00494T</t>
+  </si>
+  <si>
+    <t>'241751301010655</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 29/MS/IV/2024 Tanggal 1 April 2024 Pemeliharaan akuarium kantor BPPSDM Ancol bulan Maret 2024</t>
+  </si>
+  <si>
+    <t>'00495T</t>
+  </si>
+  <si>
+    <t>'241751303010846</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 009/KWT-2/AMA/III/2024 Tanggal 28 Maret 2024</t>
+  </si>
+  <si>
+    <t>'00496T</t>
+  </si>
+  <si>
+    <t>'241751301010637</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 28/MS/IV/2024 Tanggal 1 April 2024 Pemeliharaan akuarium Kantor BPPSDM GMB III Lt 6 dan 7 bulan Maret 2024</t>
+  </si>
+  <si>
+    <t>'00497T</t>
+  </si>
+  <si>
+    <t>'241751301010636</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 044/NNI/III/2024 Tanggal 28 Maret 2024 Estetika Kantor Bulan Maret 2024</t>
+  </si>
+  <si>
+    <t>'00498T</t>
+  </si>
+  <si>
+    <t>'241751301010632</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 015/PE/KWT/III/2024 Tanggal 21 Maret 2024 Perawatan Gedung BPPSDM Ancol</t>
+  </si>
+  <si>
+    <t>'00499T</t>
+  </si>
+  <si>
+    <t>'241751303010845</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.2980,B.3032/BPPSDM.1/KP.440/III/2024 Tanggal 20 dan 23 Maret 2024 a.n Anindya Legia P, dkk</t>
+  </si>
+  <si>
+    <t>'00500T</t>
+  </si>
+  <si>
+    <t>'241751303010842</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja BarangPerjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.2696,B.3032/BPPSDM.1/KP.440/III/2024 Tanggal 20 dan 23 Maret 2024 a.n Siti Amania, dkk</t>
+  </si>
+  <si>
+    <t>'00501T</t>
+  </si>
+  <si>
+    <t>'241751301010634</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor 0000011/PUS/KWT/III/2024 Tanggal 25 Maret 2024</t>
+  </si>
+  <si>
+    <t>'00502T</t>
+  </si>
+  <si>
+    <t>'241751303010839</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 1 pegawai sesuai ST Nomor B.561/BPPSDM.5/KP.440/IV/2024 tanggal 02 April 2024 an.Supriyadi</t>
+  </si>
+  <si>
+    <t>'00503T</t>
+  </si>
+  <si>
+    <t>'241751301010639</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai kwitansi nomor 005/CP-KWITANSI/III/2024 22 Februari 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.522141.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AB.001651</t>
+  </si>
+  <si>
+    <t>'00504T</t>
+  </si>
+  <si>
+    <t>'241751303010844</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 1 pegawai sesuai ST Nomor B.561/BPPSDM.5/KP.440/IV/2024 tanggal 02 April 2024 an.Fitra Aditama</t>
+  </si>
+  <si>
+    <t>'00505T</t>
+  </si>
+  <si>
+    <t>'241751301010633</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:841/PPK/BRSDM.1/PL.410/III/2024 Tgl.18-3-2024,BAST No:BAST.1005/PPK/BRSDM.1/IV/2024 Tgl.1-4-2024,BAP No:1006/PPK/BRSDM.1/IV/2024 Tgl.1-4-2024 Jasa Penggantian sealant kaca Gd.I BPPSDM</t>
+  </si>
+  <si>
+    <t>'00506T</t>
+  </si>
+  <si>
+    <t>'241751303010843</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 4 pegawai sesuai ST Nomor B.559/BPPSDM.5/KP.440/IV/2024 tanggal 02 April 2024 an.Endah Septiani dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.201.0D.001147</t>
+  </si>
+  <si>
+    <t>'00507T</t>
+  </si>
+  <si>
+    <t>'241751302011178</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:3/PPK/BRSDM.1/I/2024 Tgl.2-1-2024,BAST No:BAST.982/PPK/BRSDM.1/III/2024 Tgl.31-3-2024,BAP No:1003/PPK/BRSDM.1/IV/2024 Tgl.1-4-2024 Pengadaan Jasa tenaga kebersihan sekretariat BRSDM TA 2024 (TERMIN 3)</t>
+  </si>
+  <si>
+    <t>'00508T</t>
+  </si>
+  <si>
+    <t>'241751301010635</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:4/PPK/BRSDM.1/I/2024 Tgl.2-1-2024,BAST No:BAST.981/PPK/BRSDM.1/III/2024 Tgl.31-3-2024,BAP No:1002/PPK/BRSDM.1/IV/2024 Tgl.1-4-2024 Pengadaan jasa satuan pegamanan sekretariat BRSDM TA 2024 (TERMIN 3)</t>
+  </si>
+  <si>
+    <t>'00510T</t>
+  </si>
+  <si>
+    <t>'241751303010838</t>
+  </si>
+  <si>
+    <t>'00514T</t>
+  </si>
+  <si>
+    <t>'241751301010856</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai kwitansi nomor 1300034659 tanggal 28 Maret 2024.</t>
+  </si>
+  <si>
+    <t>2024-04-17</t>
+  </si>
+  <si>
+    <t>'00515T</t>
+  </si>
+  <si>
+    <t>'241751302011521</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang. Perdin Jkt-Bogor(PP) tgl 7/3/2024 an. Luh Dewi sesuai ST No B.567/BPPSDM.4/KP.440/III/2024 Tgl 6/3/2024, keg. Menghadiri lokakarya pendidikan lingkup AUP th 2024 </t>
+  </si>
+  <si>
+    <t>'00516T</t>
+  </si>
+  <si>
+    <t>'241751302011405</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai kwitansi nomor 064 tanggal 1 April 2024.</t>
+  </si>
+  <si>
+    <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AC.000458</t>
+  </si>
+  <si>
+    <t>'00517T</t>
+  </si>
+  <si>
+    <t>'241751301010863</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai kwitansi nomor 044/KWT/SPM/III/2024 tanggal 28 Maret 2024.</t>
+  </si>
+  <si>
+    <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BC.000512</t>
+  </si>
+  <si>
+    <t>'00518T</t>
+  </si>
+  <si>
+    <t>'241751302011404</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai kwitansi nomor 1025/KWT/JIA/III/2024 tanggal 25 Maret 2024.</t>
+  </si>
+  <si>
+    <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BC.000525</t>
+  </si>
+  <si>
+    <t>'00519T</t>
+  </si>
+  <si>
+    <t>'241751303010841</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 1 pegawai sesuai ST Nomor B.562/BPPSDM.5/KP.440/IV/2024 tanggal 02 April 2024 an.M Zohari</t>
+  </si>
+  <si>
+    <t>'00520T</t>
+  </si>
+  <si>
+    <t>'241751303011002</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 2 pegawai sesuai ST Nomor B.562/BPPSDM.5/KP.440/IV/2024 tanggal 02 April 2024 an.Parid dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.201.0D.001503</t>
+  </si>
+  <si>
+    <t>'00521T</t>
+  </si>
+  <si>
+    <t>'241751302011438</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai kwitansi nomor 01/KW/PT-HAM/IV/2024 tanggal 1 April 2024.</t>
+  </si>
+  <si>
+    <t>'00522T</t>
+  </si>
+  <si>
+    <t>'241751303010840</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 4 pegawai sesuai ST Nomor B.388/BPPSDM.2/KP.440/III/2024 tanggal 28 Maret 2024 an.Azmi Nasution dkk</t>
+  </si>
+  <si>
+    <t>'00523T</t>
+  </si>
+  <si>
+    <t>'241751302011388</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai kwitansi nomor 01/KWT/PT-HAM/IV/2024 tanggal 1 April 2024.</t>
+  </si>
+  <si>
+    <t>'00524T</t>
+  </si>
+  <si>
+    <t>'241751301010861</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai kwitansi nomor 042/KWT/SPM/III/2024 tanggal 28 Maret 2024.</t>
+  </si>
+  <si>
+    <t>'00525T</t>
+  </si>
+  <si>
+    <t>'241751301010862</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai kwitansi nomor O43/KWT/SPM/III/2024 tanggal 28 Maret 2024.</t>
+  </si>
+  <si>
+    <t>'00526T</t>
+  </si>
+  <si>
+    <t>'241751303011030</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai kwitansi nomor 07/K/TD/III/2024 tanggal 28 Maret 2024.</t>
+  </si>
+  <si>
+    <t>'00527T</t>
+  </si>
+  <si>
+    <t>'241751302011467</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai kwitansi nomor 071/KW-AH/IV/2024 tanggal 1 April 2024</t>
+  </si>
+  <si>
+    <t>'00528T</t>
+  </si>
+  <si>
+    <t>'241751301010853</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang sesuai kwitansi nomor 059/BSM/SET.BPPSDM/IV/2024 tanggal 1 April 2024</t>
+  </si>
+  <si>
+    <t>'00529T</t>
+  </si>
+  <si>
+    <t>'241751303011086</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.102.0B.000852</t>
+  </si>
+  <si>
+    <t>'626402.175.522151.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AC.001089</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0A.000878</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0C.000906</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.956.101.BA.000304</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0B.000893</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0B.000894</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AA.001067</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.AC.001092</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.106.0B.001725</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0C.000908</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0C.000909</t>
+  </si>
+  <si>
+    <t>'626402.175.524119.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.BB.001127</t>
+  </si>
+  <si>
+    <t>'00530T</t>
+  </si>
+  <si>
+    <t>'241751303011091</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0B.000236</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0C.001003</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.4345EBC.A000000001.00000.1.0151.2.000000.000000.996.302.0A.001354</t>
+  </si>
+  <si>
+    <t>'626402.175.521219.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0B.001657</t>
+  </si>
+  <si>
+    <t>'626402.175.521219.03212WA.4345EBC.A000000001.00000.1.0151.2.000000.000000.996.301.0B.001342</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GA.000570</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.GA.000572</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.4345EBC.A000000001.00000.1.0151.2.000000.000000.996.301.0B.001343</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.4345EBC.A000000001.00000.1.0151.2.000000.000000.996.301.0B.001344</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.4345EBC.A000000001.00000.1.0151.2.000000.000000.996.302.0A.001357</t>
+  </si>
+  <si>
+    <t>'00531T</t>
+  </si>
+  <si>
+    <t>'241751303011092</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Pegawai berupa Gaji Susulan pegawai PPPK Pusdik bulan Maret 2024 untuk 1 pegawai/1 Jiwa</t>
+  </si>
+  <si>
+    <t>'00532T</t>
+  </si>
+  <si>
+    <t>'241751301010840</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:0686/AGA.04.02//F06010000/2024 Tgl.2-4-2024 Tagihan listrik Bln. April 2024 untuk pemakaian energi listrik bln.maret 2024 Gd.BBPSDM Ancol</t>
+  </si>
+  <si>
+    <t>'00533T</t>
+  </si>
+  <si>
+    <t>'241751303011029</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:1710/UMUM/2/2024 Tgl.4-4-2024 Biaya pengiriman pos Bln.maret 2024</t>
+  </si>
+  <si>
+    <t>'00534T</t>
+  </si>
+  <si>
+    <t>'241751303011093</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran gaji susulan pegawai PPPK bulan April 2024 untuk 1 pegawai/1 Jiwa)</t>
   </si>
 </sst>
 </file>
@@ -5846,7 +6503,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L1305"/>
+  <dimension ref="A1:L1450"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -54893,19 +55550,19 @@
         <v>13</v>
       </c>
       <c r="D1293" t="s">
-        <v>1673</v>
+        <v>1792</v>
       </c>
       <c r="E1293" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="F1293" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="G1293" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="H1293" t="s">
-        <v>1795</v>
+        <v>378</v>
       </c>
       <c r="I1293" t="s">
         <v>19</v>
@@ -54914,10 +55571,10 @@
         <v>1</v>
       </c>
       <c r="K1293">
-        <v>1472270</v>
+        <v>3540067</v>
       </c>
       <c r="L1293">
-        <v>1472270</v>
+        <v>3540067</v>
       </c>
     </row>
     <row r="1294" spans="1:12">
@@ -54931,7 +55588,7 @@
         <v>13</v>
       </c>
       <c r="D1294" t="s">
-        <v>1673</v>
+        <v>1792</v>
       </c>
       <c r="E1294" t="s">
         <v>1796</v>
@@ -54943,7 +55600,7 @@
         <v>1798</v>
       </c>
       <c r="H1294" t="s">
-        <v>1795</v>
+        <v>378</v>
       </c>
       <c r="I1294" t="s">
         <v>19</v>
@@ -54952,10 +55609,10 @@
         <v>1</v>
       </c>
       <c r="K1294">
-        <v>8447339</v>
+        <v>1735000</v>
       </c>
       <c r="L1294">
-        <v>8447339</v>
+        <v>1735000</v>
       </c>
     </row>
     <row r="1295" spans="1:12">
@@ -54981,7 +55638,7 @@
         <v>1801</v>
       </c>
       <c r="H1295" t="s">
-        <v>1195</v>
+        <v>1802</v>
       </c>
       <c r="I1295" t="s">
         <v>19</v>
@@ -54990,10 +55647,10 @@
         <v>1</v>
       </c>
       <c r="K1295">
-        <v>420000</v>
+        <v>1472270</v>
       </c>
       <c r="L1295">
-        <v>420000</v>
+        <v>1472270</v>
       </c>
     </row>
     <row r="1296" spans="1:12">
@@ -55010,16 +55667,16 @@
         <v>1673</v>
       </c>
       <c r="E1296" t="s">
-        <v>1799</v>
+        <v>1803</v>
       </c>
       <c r="F1296" t="s">
-        <v>1800</v>
+        <v>1804</v>
       </c>
       <c r="G1296" t="s">
-        <v>1801</v>
+        <v>1805</v>
       </c>
       <c r="H1296" t="s">
-        <v>1196</v>
+        <v>1802</v>
       </c>
       <c r="I1296" t="s">
         <v>19</v>
@@ -55028,10 +55685,10 @@
         <v>1</v>
       </c>
       <c r="K1296">
-        <v>170000</v>
+        <v>8447339</v>
       </c>
       <c r="L1296">
-        <v>170000</v>
+        <v>8447339</v>
       </c>
     </row>
     <row r="1297" spans="1:12">
@@ -55048,16 +55705,16 @@
         <v>1673</v>
       </c>
       <c r="E1297" t="s">
-        <v>1802</v>
+        <v>1806</v>
       </c>
       <c r="F1297" t="s">
-        <v>1803</v>
+        <v>1807</v>
       </c>
       <c r="G1297" t="s">
-        <v>1804</v>
+        <v>1808</v>
       </c>
       <c r="H1297" t="s">
-        <v>128</v>
+        <v>1195</v>
       </c>
       <c r="I1297" t="s">
         <v>19</v>
@@ -55066,10 +55723,10 @@
         <v>1</v>
       </c>
       <c r="K1297">
-        <v>1774500</v>
+        <v>420000</v>
       </c>
       <c r="L1297">
-        <v>1774500</v>
+        <v>420000</v>
       </c>
     </row>
     <row r="1298" spans="1:12">
@@ -55086,16 +55743,16 @@
         <v>1673</v>
       </c>
       <c r="E1298" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="F1298" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="G1298" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="H1298" t="s">
-        <v>272</v>
+        <v>1196</v>
       </c>
       <c r="I1298" t="s">
         <v>19</v>
@@ -55104,10 +55761,10 @@
         <v>1</v>
       </c>
       <c r="K1298">
-        <v>2020000</v>
+        <v>170000</v>
       </c>
       <c r="L1298">
-        <v>2020000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="1299" spans="1:12">
@@ -55124,16 +55781,16 @@
         <v>1673</v>
       </c>
       <c r="E1299" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="F1299" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="G1299" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="H1299" t="s">
-        <v>275</v>
+        <v>128</v>
       </c>
       <c r="I1299" t="s">
         <v>19</v>
@@ -55142,10 +55799,10 @@
         <v>1</v>
       </c>
       <c r="K1299">
-        <v>1393500</v>
+        <v>1774500</v>
       </c>
       <c r="L1299">
-        <v>1393500</v>
+        <v>1774500</v>
       </c>
     </row>
     <row r="1300" spans="1:12">
@@ -55162,16 +55819,16 @@
         <v>1673</v>
       </c>
       <c r="E1300" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="F1300" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="G1300" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="H1300" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="I1300" t="s">
         <v>19</v>
@@ -55180,10 +55837,10 @@
         <v>1</v>
       </c>
       <c r="K1300">
-        <v>580000</v>
+        <v>2020000</v>
       </c>
       <c r="L1300">
-        <v>580000</v>
+        <v>2020000</v>
       </c>
     </row>
     <row r="1301" spans="1:12">
@@ -55200,13 +55857,13 @@
         <v>1673</v>
       </c>
       <c r="E1301" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="F1301" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="G1301" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="H1301" t="s">
         <v>275</v>
@@ -55218,10 +55875,10 @@
         <v>1</v>
       </c>
       <c r="K1301">
-        <v>630000</v>
+        <v>1393500</v>
       </c>
       <c r="L1301">
-        <v>630000</v>
+        <v>1393500</v>
       </c>
     </row>
     <row r="1302" spans="1:12">
@@ -55235,19 +55892,19 @@
         <v>13</v>
       </c>
       <c r="D1302" t="s">
-        <v>1739</v>
+        <v>1673</v>
       </c>
       <c r="E1302" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="F1302" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="G1302" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="H1302" t="s">
-        <v>80</v>
+        <v>275</v>
       </c>
       <c r="I1302" t="s">
         <v>19</v>
@@ -55256,10 +55913,10 @@
         <v>1</v>
       </c>
       <c r="K1302">
-        <v>207801975</v>
+        <v>580000</v>
       </c>
       <c r="L1302">
-        <v>207801975</v>
+        <v>580000</v>
       </c>
     </row>
     <row r="1303" spans="1:12">
@@ -55276,16 +55933,16 @@
         <v>1673</v>
       </c>
       <c r="E1303" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="F1303" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="G1303" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="H1303" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="I1303" t="s">
         <v>19</v>
@@ -55294,10 +55951,10 @@
         <v>1</v>
       </c>
       <c r="K1303">
-        <v>3861980</v>
+        <v>630000</v>
       </c>
       <c r="L1303">
-        <v>3861980</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="1304" spans="1:12">
@@ -55311,19 +55968,19 @@
         <v>13</v>
       </c>
       <c r="D1304" t="s">
-        <v>1673</v>
+        <v>1739</v>
       </c>
       <c r="E1304" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="F1304" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="G1304" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="H1304" t="s">
-        <v>658</v>
+        <v>80</v>
       </c>
       <c r="I1304" t="s">
         <v>19</v>
@@ -55332,10 +55989,10 @@
         <v>1</v>
       </c>
       <c r="K1304">
-        <v>12375000</v>
+        <v>207801975</v>
       </c>
       <c r="L1304">
-        <v>12375000</v>
+        <v>207801975</v>
       </c>
     </row>
     <row r="1305" spans="1:12">
@@ -55352,16 +56009,16 @@
         <v>1673</v>
       </c>
       <c r="E1305" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="F1305" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="G1305" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="H1305" t="s">
-        <v>1829</v>
+        <v>272</v>
       </c>
       <c r="I1305" t="s">
         <v>19</v>
@@ -55370,10 +56027,5520 @@
         <v>1</v>
       </c>
       <c r="K1305">
+        <v>3861980</v>
+      </c>
+      <c r="L1305">
+        <v>3861980</v>
+      </c>
+    </row>
+    <row r="1306" spans="1:12">
+      <c r="A1306">
+        <v>1303</v>
+      </c>
+      <c r="B1306">
+        <v>626402</v>
+      </c>
+      <c r="C1306" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1306" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1306" t="s">
+        <v>1830</v>
+      </c>
+      <c r="F1306" t="s">
+        <v>1831</v>
+      </c>
+      <c r="G1306" t="s">
+        <v>1832</v>
+      </c>
+      <c r="H1306" t="s">
+        <v>658</v>
+      </c>
+      <c r="I1306" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1306">
+        <v>1</v>
+      </c>
+      <c r="K1306">
+        <v>12375000</v>
+      </c>
+      <c r="L1306">
+        <v>12375000</v>
+      </c>
+    </row>
+    <row r="1307" spans="1:12">
+      <c r="A1307">
+        <v>1304</v>
+      </c>
+      <c r="B1307">
+        <v>626402</v>
+      </c>
+      <c r="C1307" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1307" t="s">
+        <v>1673</v>
+      </c>
+      <c r="E1307" t="s">
+        <v>1833</v>
+      </c>
+      <c r="F1307" t="s">
+        <v>1834</v>
+      </c>
+      <c r="G1307" t="s">
+        <v>1835</v>
+      </c>
+      <c r="H1307" t="s">
+        <v>1836</v>
+      </c>
+      <c r="I1307" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1307">
+        <v>1</v>
+      </c>
+      <c r="K1307">
         <v>2400000</v>
       </c>
-      <c r="L1305">
+      <c r="L1307">
         <v>2400000</v>
+      </c>
+    </row>
+    <row r="1308" spans="1:12">
+      <c r="A1308">
+        <v>1305</v>
+      </c>
+      <c r="B1308">
+        <v>626402</v>
+      </c>
+      <c r="C1308" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1308" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1308" t="s">
+        <v>1837</v>
+      </c>
+      <c r="F1308" t="s">
+        <v>1838</v>
+      </c>
+      <c r="G1308" t="s">
+        <v>1839</v>
+      </c>
+      <c r="H1308" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1308" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1308">
+        <v>1</v>
+      </c>
+      <c r="K1308">
+        <v>3822500</v>
+      </c>
+      <c r="L1308">
+        <v>3822500</v>
+      </c>
+    </row>
+    <row r="1309" spans="1:12">
+      <c r="A1309">
+        <v>1306</v>
+      </c>
+      <c r="B1309">
+        <v>626402</v>
+      </c>
+      <c r="C1309" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1309" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1309" t="s">
+        <v>1840</v>
+      </c>
+      <c r="F1309" t="s">
+        <v>1841</v>
+      </c>
+      <c r="G1309" t="s">
+        <v>1842</v>
+      </c>
+      <c r="H1309" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1309" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1309">
+        <v>1</v>
+      </c>
+      <c r="K1309">
+        <v>6492680</v>
+      </c>
+      <c r="L1309">
+        <v>6492680</v>
+      </c>
+    </row>
+    <row r="1310" spans="1:12">
+      <c r="A1310">
+        <v>1307</v>
+      </c>
+      <c r="B1310">
+        <v>626402</v>
+      </c>
+      <c r="C1310" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1310" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1310" t="s">
+        <v>1843</v>
+      </c>
+      <c r="F1310" t="s">
+        <v>1844</v>
+      </c>
+      <c r="G1310" t="s">
+        <v>1845</v>
+      </c>
+      <c r="H1310" t="s">
+        <v>377</v>
+      </c>
+      <c r="I1310" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1310">
+        <v>1</v>
+      </c>
+      <c r="K1310">
+        <v>2199000</v>
+      </c>
+      <c r="L1310">
+        <v>2199000</v>
+      </c>
+    </row>
+    <row r="1311" spans="1:12">
+      <c r="A1311">
+        <v>1308</v>
+      </c>
+      <c r="B1311">
+        <v>626402</v>
+      </c>
+      <c r="C1311" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1311" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1311" t="s">
+        <v>1846</v>
+      </c>
+      <c r="F1311" t="s">
+        <v>1847</v>
+      </c>
+      <c r="G1311" t="s">
+        <v>1848</v>
+      </c>
+      <c r="H1311" t="s">
+        <v>377</v>
+      </c>
+      <c r="I1311" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1311">
+        <v>1</v>
+      </c>
+      <c r="K1311">
+        <v>5684600</v>
+      </c>
+      <c r="L1311">
+        <v>5684600</v>
+      </c>
+    </row>
+    <row r="1312" spans="1:12">
+      <c r="A1312">
+        <v>1309</v>
+      </c>
+      <c r="B1312">
+        <v>626402</v>
+      </c>
+      <c r="C1312" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1312" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1312" t="s">
+        <v>1849</v>
+      </c>
+      <c r="F1312" t="s">
+        <v>1850</v>
+      </c>
+      <c r="G1312" t="s">
+        <v>1851</v>
+      </c>
+      <c r="H1312" t="s">
+        <v>732</v>
+      </c>
+      <c r="I1312" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1312">
+        <v>1</v>
+      </c>
+      <c r="K1312">
+        <v>3770253</v>
+      </c>
+      <c r="L1312">
+        <v>3770253</v>
+      </c>
+    </row>
+    <row r="1313" spans="1:12">
+      <c r="A1313">
+        <v>1310</v>
+      </c>
+      <c r="B1313">
+        <v>626402</v>
+      </c>
+      <c r="C1313" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1313" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1313" t="s">
+        <v>1852</v>
+      </c>
+      <c r="F1313" t="s">
+        <v>1853</v>
+      </c>
+      <c r="G1313" t="s">
+        <v>1854</v>
+      </c>
+      <c r="H1313" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1313" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1313">
+        <v>1</v>
+      </c>
+      <c r="K1313">
+        <v>455000</v>
+      </c>
+      <c r="L1313">
+        <v>455000</v>
+      </c>
+    </row>
+    <row r="1314" spans="1:12">
+      <c r="A1314">
+        <v>1311</v>
+      </c>
+      <c r="B1314">
+        <v>626402</v>
+      </c>
+      <c r="C1314" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1314" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1314" t="s">
+        <v>1855</v>
+      </c>
+      <c r="F1314" t="s">
+        <v>1856</v>
+      </c>
+      <c r="G1314" t="s">
+        <v>1857</v>
+      </c>
+      <c r="H1314" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1314" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1314">
+        <v>1</v>
+      </c>
+      <c r="K1314">
+        <v>465872</v>
+      </c>
+      <c r="L1314">
+        <v>465872</v>
+      </c>
+    </row>
+    <row r="1315" spans="1:12">
+      <c r="A1315">
+        <v>1312</v>
+      </c>
+      <c r="B1315">
+        <v>626402</v>
+      </c>
+      <c r="C1315" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1315" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1315" t="s">
+        <v>1858</v>
+      </c>
+      <c r="F1315" t="s">
+        <v>1859</v>
+      </c>
+      <c r="G1315" t="s">
+        <v>1860</v>
+      </c>
+      <c r="H1315" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1315" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1315">
+        <v>1</v>
+      </c>
+      <c r="K1315">
+        <v>5758500</v>
+      </c>
+      <c r="L1315">
+        <v>5758500</v>
+      </c>
+    </row>
+    <row r="1316" spans="1:12">
+      <c r="A1316">
+        <v>1313</v>
+      </c>
+      <c r="B1316">
+        <v>626402</v>
+      </c>
+      <c r="C1316" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1316" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1316" t="s">
+        <v>1861</v>
+      </c>
+      <c r="F1316" t="s">
+        <v>1862</v>
+      </c>
+      <c r="G1316" t="s">
+        <v>1863</v>
+      </c>
+      <c r="H1316" t="s">
+        <v>1117</v>
+      </c>
+      <c r="I1316" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1316">
+        <v>1</v>
+      </c>
+      <c r="K1316">
+        <v>3776000</v>
+      </c>
+      <c r="L1316">
+        <v>3776000</v>
+      </c>
+    </row>
+    <row r="1317" spans="1:12">
+      <c r="A1317">
+        <v>1314</v>
+      </c>
+      <c r="B1317">
+        <v>626402</v>
+      </c>
+      <c r="C1317" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1317" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1317" t="s">
+        <v>1864</v>
+      </c>
+      <c r="F1317" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G1317" t="s">
+        <v>1866</v>
+      </c>
+      <c r="H1317" t="s">
+        <v>1759</v>
+      </c>
+      <c r="I1317" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1317">
+        <v>1</v>
+      </c>
+      <c r="K1317">
+        <v>14398500</v>
+      </c>
+      <c r="L1317">
+        <v>14398500</v>
+      </c>
+    </row>
+    <row r="1318" spans="1:12">
+      <c r="A1318">
+        <v>1315</v>
+      </c>
+      <c r="B1318">
+        <v>626402</v>
+      </c>
+      <c r="C1318" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1318" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1318" t="s">
+        <v>1867</v>
+      </c>
+      <c r="F1318" t="s">
+        <v>1868</v>
+      </c>
+      <c r="G1318" t="s">
+        <v>1869</v>
+      </c>
+      <c r="H1318" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1318" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1318">
+        <v>1</v>
+      </c>
+      <c r="K1318">
+        <v>4403326</v>
+      </c>
+      <c r="L1318">
+        <v>4403326</v>
+      </c>
+    </row>
+    <row r="1319" spans="1:12">
+      <c r="A1319">
+        <v>1316</v>
+      </c>
+      <c r="B1319">
+        <v>626402</v>
+      </c>
+      <c r="C1319" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1319" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1319" t="s">
+        <v>1870</v>
+      </c>
+      <c r="F1319" t="s">
+        <v>1871</v>
+      </c>
+      <c r="G1319" t="s">
+        <v>1872</v>
+      </c>
+      <c r="H1319" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1319" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1319">
+        <v>1</v>
+      </c>
+      <c r="K1319">
+        <v>3108000</v>
+      </c>
+      <c r="L1319">
+        <v>3108000</v>
+      </c>
+    </row>
+    <row r="1320" spans="1:12">
+      <c r="A1320">
+        <v>1317</v>
+      </c>
+      <c r="B1320">
+        <v>626402</v>
+      </c>
+      <c r="C1320" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1320" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1320" t="s">
+        <v>1873</v>
+      </c>
+      <c r="F1320" t="s">
+        <v>1874</v>
+      </c>
+      <c r="G1320" t="s">
+        <v>1875</v>
+      </c>
+      <c r="H1320" t="s">
+        <v>494</v>
+      </c>
+      <c r="I1320" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1320">
+        <v>1</v>
+      </c>
+      <c r="K1320">
+        <v>20535000</v>
+      </c>
+      <c r="L1320">
+        <v>20535000</v>
+      </c>
+    </row>
+    <row r="1321" spans="1:12">
+      <c r="A1321">
+        <v>1318</v>
+      </c>
+      <c r="B1321">
+        <v>626402</v>
+      </c>
+      <c r="C1321" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1321" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1321" t="s">
+        <v>1876</v>
+      </c>
+      <c r="F1321" t="s">
+        <v>1877</v>
+      </c>
+      <c r="G1321" t="s">
+        <v>1878</v>
+      </c>
+      <c r="H1321" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1321" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1321">
+        <v>1</v>
+      </c>
+      <c r="K1321">
+        <v>3690750</v>
+      </c>
+      <c r="L1321">
+        <v>3690750</v>
+      </c>
+    </row>
+    <row r="1322" spans="1:12">
+      <c r="A1322">
+        <v>1319</v>
+      </c>
+      <c r="B1322">
+        <v>626402</v>
+      </c>
+      <c r="C1322" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1322" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1322" t="s">
+        <v>1879</v>
+      </c>
+      <c r="F1322" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G1322" t="s">
+        <v>1881</v>
+      </c>
+      <c r="H1322" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1322" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1322">
+        <v>1</v>
+      </c>
+      <c r="K1322">
+        <v>17720040</v>
+      </c>
+      <c r="L1322">
+        <v>17720040</v>
+      </c>
+    </row>
+    <row r="1323" spans="1:12">
+      <c r="A1323">
+        <v>1320</v>
+      </c>
+      <c r="B1323">
+        <v>626402</v>
+      </c>
+      <c r="C1323" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1323" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1323" t="s">
+        <v>1882</v>
+      </c>
+      <c r="F1323" t="s">
+        <v>1883</v>
+      </c>
+      <c r="G1323" t="s">
+        <v>1884</v>
+      </c>
+      <c r="H1323" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1323" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1323">
+        <v>1</v>
+      </c>
+      <c r="K1323">
+        <v>26827500</v>
+      </c>
+      <c r="L1323">
+        <v>26827500</v>
+      </c>
+    </row>
+    <row r="1324" spans="1:12">
+      <c r="A1324">
+        <v>1321</v>
+      </c>
+      <c r="B1324">
+        <v>626402</v>
+      </c>
+      <c r="C1324" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1324" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1324" t="s">
+        <v>1885</v>
+      </c>
+      <c r="F1324" t="s">
+        <v>1886</v>
+      </c>
+      <c r="G1324" t="s">
+        <v>1887</v>
+      </c>
+      <c r="H1324" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1324" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1324">
+        <v>1</v>
+      </c>
+      <c r="K1324">
+        <v>45787500</v>
+      </c>
+      <c r="L1324">
+        <v>45787500</v>
+      </c>
+    </row>
+    <row r="1325" spans="1:12">
+      <c r="A1325">
+        <v>1322</v>
+      </c>
+      <c r="B1325">
+        <v>626402</v>
+      </c>
+      <c r="C1325" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1325" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1325" t="s">
+        <v>1889</v>
+      </c>
+      <c r="F1325" t="s">
+        <v>1890</v>
+      </c>
+      <c r="G1325" t="s">
+        <v>1891</v>
+      </c>
+      <c r="H1325" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1325" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1325">
+        <v>1</v>
+      </c>
+      <c r="K1325">
+        <v>1184280</v>
+      </c>
+      <c r="L1325">
+        <v>1184280</v>
+      </c>
+    </row>
+    <row r="1326" spans="1:12">
+      <c r="A1326">
+        <v>1323</v>
+      </c>
+      <c r="B1326">
+        <v>626402</v>
+      </c>
+      <c r="C1326" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1326" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1326" t="s">
+        <v>1892</v>
+      </c>
+      <c r="F1326" t="s">
+        <v>1893</v>
+      </c>
+      <c r="G1326" t="s">
+        <v>1894</v>
+      </c>
+      <c r="H1326" t="s">
+        <v>1895</v>
+      </c>
+      <c r="I1326" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1326">
+        <v>1</v>
+      </c>
+      <c r="K1326">
+        <v>13503070</v>
+      </c>
+      <c r="L1326">
+        <v>13503070</v>
+      </c>
+    </row>
+    <row r="1327" spans="1:12">
+      <c r="A1327">
+        <v>1324</v>
+      </c>
+      <c r="B1327">
+        <v>626402</v>
+      </c>
+      <c r="C1327" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1327" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1327" t="s">
+        <v>1896</v>
+      </c>
+      <c r="F1327" t="s">
+        <v>1897</v>
+      </c>
+      <c r="G1327" t="s">
+        <v>1898</v>
+      </c>
+      <c r="H1327" t="s">
+        <v>733</v>
+      </c>
+      <c r="I1327" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1327">
+        <v>1</v>
+      </c>
+      <c r="K1327">
+        <v>4214480</v>
+      </c>
+      <c r="L1327">
+        <v>4214480</v>
+      </c>
+    </row>
+    <row r="1328" spans="1:12">
+      <c r="A1328">
+        <v>1325</v>
+      </c>
+      <c r="B1328">
+        <v>626402</v>
+      </c>
+      <c r="C1328" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1328" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1328" t="s">
+        <v>1899</v>
+      </c>
+      <c r="F1328" t="s">
+        <v>1900</v>
+      </c>
+      <c r="G1328" t="s">
+        <v>1901</v>
+      </c>
+      <c r="H1328" t="s">
+        <v>733</v>
+      </c>
+      <c r="I1328" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1328">
+        <v>1</v>
+      </c>
+      <c r="K1328">
+        <v>5483480</v>
+      </c>
+      <c r="L1328">
+        <v>5483480</v>
+      </c>
+    </row>
+    <row r="1329" spans="1:12">
+      <c r="A1329">
+        <v>1326</v>
+      </c>
+      <c r="B1329">
+        <v>626402</v>
+      </c>
+      <c r="C1329" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1329" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1329" t="s">
+        <v>1902</v>
+      </c>
+      <c r="F1329" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G1329" t="s">
+        <v>1904</v>
+      </c>
+      <c r="H1329" t="s">
+        <v>733</v>
+      </c>
+      <c r="I1329" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1329">
+        <v>1</v>
+      </c>
+      <c r="K1329">
+        <v>5612500</v>
+      </c>
+      <c r="L1329">
+        <v>5612500</v>
+      </c>
+    </row>
+    <row r="1330" spans="1:12">
+      <c r="A1330">
+        <v>1327</v>
+      </c>
+      <c r="B1330">
+        <v>626402</v>
+      </c>
+      <c r="C1330" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1330" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1330" t="s">
+        <v>1905</v>
+      </c>
+      <c r="F1330" t="s">
+        <v>1906</v>
+      </c>
+      <c r="G1330" t="s">
+        <v>1907</v>
+      </c>
+      <c r="H1330" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1330" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1330">
+        <v>1</v>
+      </c>
+      <c r="K1330">
+        <v>3037000</v>
+      </c>
+      <c r="L1330">
+        <v>3037000</v>
+      </c>
+    </row>
+    <row r="1331" spans="1:12">
+      <c r="A1331">
+        <v>1328</v>
+      </c>
+      <c r="B1331">
+        <v>626402</v>
+      </c>
+      <c r="C1331" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1331" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1331" t="s">
+        <v>1908</v>
+      </c>
+      <c r="F1331" t="s">
+        <v>1909</v>
+      </c>
+      <c r="G1331" t="s">
+        <v>1910</v>
+      </c>
+      <c r="H1331" t="s">
+        <v>912</v>
+      </c>
+      <c r="I1331" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1331">
+        <v>1</v>
+      </c>
+      <c r="K1331">
+        <v>10700000</v>
+      </c>
+      <c r="L1331">
+        <v>10700000</v>
+      </c>
+    </row>
+    <row r="1332" spans="1:12">
+      <c r="A1332">
+        <v>1329</v>
+      </c>
+      <c r="B1332">
+        <v>626402</v>
+      </c>
+      <c r="C1332" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1332" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1332" t="s">
+        <v>1911</v>
+      </c>
+      <c r="F1332" t="s">
+        <v>1912</v>
+      </c>
+      <c r="G1332" t="s">
+        <v>1913</v>
+      </c>
+      <c r="H1332" t="s">
+        <v>639</v>
+      </c>
+      <c r="I1332" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1332">
+        <v>1</v>
+      </c>
+      <c r="K1332">
+        <v>9000000</v>
+      </c>
+      <c r="L1332">
+        <v>9000000</v>
+      </c>
+    </row>
+    <row r="1333" spans="1:12">
+      <c r="A1333">
+        <v>1330</v>
+      </c>
+      <c r="B1333">
+        <v>626402</v>
+      </c>
+      <c r="C1333" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1333" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1333" t="s">
+        <v>1914</v>
+      </c>
+      <c r="F1333" t="s">
+        <v>1915</v>
+      </c>
+      <c r="G1333" t="s">
+        <v>1916</v>
+      </c>
+      <c r="H1333" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1333" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1333">
+        <v>1</v>
+      </c>
+      <c r="K1333">
+        <v>6965250</v>
+      </c>
+      <c r="L1333">
+        <v>6965250</v>
+      </c>
+    </row>
+    <row r="1334" spans="1:12">
+      <c r="A1334">
+        <v>1331</v>
+      </c>
+      <c r="B1334">
+        <v>626402</v>
+      </c>
+      <c r="C1334" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1334" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1334" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F1334" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G1334" t="s">
+        <v>1919</v>
+      </c>
+      <c r="H1334" t="s">
+        <v>635</v>
+      </c>
+      <c r="I1334" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1334">
+        <v>1</v>
+      </c>
+      <c r="K1334">
+        <v>4500000</v>
+      </c>
+      <c r="L1334">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="1335" spans="1:12">
+      <c r="A1335">
+        <v>1332</v>
+      </c>
+      <c r="B1335">
+        <v>626402</v>
+      </c>
+      <c r="C1335" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1335" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1335" t="s">
+        <v>1920</v>
+      </c>
+      <c r="F1335" t="s">
+        <v>1921</v>
+      </c>
+      <c r="G1335" t="s">
+        <v>1922</v>
+      </c>
+      <c r="H1335" t="s">
+        <v>336</v>
+      </c>
+      <c r="I1335" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1335">
+        <v>1</v>
+      </c>
+      <c r="K1335">
+        <v>20000000</v>
+      </c>
+      <c r="L1335">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="1336" spans="1:12">
+      <c r="A1336">
+        <v>1333</v>
+      </c>
+      <c r="B1336">
+        <v>626402</v>
+      </c>
+      <c r="C1336" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1336" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1336" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F1336" t="s">
+        <v>1924</v>
+      </c>
+      <c r="G1336" t="s">
+        <v>1925</v>
+      </c>
+      <c r="H1336" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1336" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1336">
+        <v>1</v>
+      </c>
+      <c r="K1336">
+        <v>6846480</v>
+      </c>
+      <c r="L1336">
+        <v>6846480</v>
+      </c>
+    </row>
+    <row r="1337" spans="1:12">
+      <c r="A1337">
+        <v>1334</v>
+      </c>
+      <c r="B1337">
+        <v>626402</v>
+      </c>
+      <c r="C1337" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1337" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1337" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F1337" t="s">
+        <v>1927</v>
+      </c>
+      <c r="G1337" t="s">
+        <v>1928</v>
+      </c>
+      <c r="H1337" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1337" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1337">
+        <v>1</v>
+      </c>
+      <c r="K1337">
+        <v>3999000</v>
+      </c>
+      <c r="L1337">
+        <v>3999000</v>
+      </c>
+    </row>
+    <row r="1338" spans="1:12">
+      <c r="A1338">
+        <v>1335</v>
+      </c>
+      <c r="B1338">
+        <v>626402</v>
+      </c>
+      <c r="C1338" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1338" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1338" t="s">
+        <v>1929</v>
+      </c>
+      <c r="F1338" t="s">
+        <v>1930</v>
+      </c>
+      <c r="G1338" t="s">
+        <v>1931</v>
+      </c>
+      <c r="H1338" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1338" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1338">
+        <v>1</v>
+      </c>
+      <c r="K1338">
+        <v>8864920</v>
+      </c>
+      <c r="L1338">
+        <v>8864920</v>
+      </c>
+    </row>
+    <row r="1339" spans="1:12">
+      <c r="A1339">
+        <v>1336</v>
+      </c>
+      <c r="B1339">
+        <v>626402</v>
+      </c>
+      <c r="C1339" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1339" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1339" t="s">
+        <v>1932</v>
+      </c>
+      <c r="F1339" t="s">
+        <v>1933</v>
+      </c>
+      <c r="G1339" t="s">
+        <v>1934</v>
+      </c>
+      <c r="H1339" t="s">
+        <v>658</v>
+      </c>
+      <c r="I1339" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1339">
+        <v>1</v>
+      </c>
+      <c r="K1339">
+        <v>17187500</v>
+      </c>
+      <c r="L1339">
+        <v>17187500</v>
+      </c>
+    </row>
+    <row r="1340" spans="1:12">
+      <c r="A1340">
+        <v>1337</v>
+      </c>
+      <c r="B1340">
+        <v>626402</v>
+      </c>
+      <c r="C1340" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1340" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1340" t="s">
+        <v>1935</v>
+      </c>
+      <c r="F1340" t="s">
+        <v>1936</v>
+      </c>
+      <c r="G1340" t="s">
+        <v>1937</v>
+      </c>
+      <c r="H1340" t="s">
+        <v>437</v>
+      </c>
+      <c r="I1340" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1340">
+        <v>1</v>
+      </c>
+      <c r="K1340">
+        <v>2540000</v>
+      </c>
+      <c r="L1340">
+        <v>2540000</v>
+      </c>
+    </row>
+    <row r="1341" spans="1:12">
+      <c r="A1341">
+        <v>1338</v>
+      </c>
+      <c r="B1341">
+        <v>626402</v>
+      </c>
+      <c r="C1341" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1341" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1341" t="s">
+        <v>1938</v>
+      </c>
+      <c r="F1341" t="s">
+        <v>1939</v>
+      </c>
+      <c r="G1341" t="s">
+        <v>1940</v>
+      </c>
+      <c r="H1341" t="s">
+        <v>1941</v>
+      </c>
+      <c r="I1341" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1341">
+        <v>1</v>
+      </c>
+      <c r="K1341">
+        <v>24500000</v>
+      </c>
+      <c r="L1341">
+        <v>24500000</v>
+      </c>
+    </row>
+    <row r="1342" spans="1:12">
+      <c r="A1342">
+        <v>1339</v>
+      </c>
+      <c r="B1342">
+        <v>626402</v>
+      </c>
+      <c r="C1342" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1342" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1342" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F1342" t="s">
+        <v>1943</v>
+      </c>
+      <c r="G1342" t="s">
+        <v>1944</v>
+      </c>
+      <c r="H1342" t="s">
+        <v>439</v>
+      </c>
+      <c r="I1342" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1342">
+        <v>1</v>
+      </c>
+      <c r="K1342">
+        <v>3610000</v>
+      </c>
+      <c r="L1342">
+        <v>3610000</v>
+      </c>
+    </row>
+    <row r="1343" spans="1:12">
+      <c r="A1343">
+        <v>1340</v>
+      </c>
+      <c r="B1343">
+        <v>626402</v>
+      </c>
+      <c r="C1343" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1343" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1343" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F1343" t="s">
+        <v>1946</v>
+      </c>
+      <c r="G1343" t="s">
+        <v>1947</v>
+      </c>
+      <c r="H1343" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1343" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1343">
+        <v>1</v>
+      </c>
+      <c r="K1343">
+        <v>179306780</v>
+      </c>
+      <c r="L1343">
+        <v>179306780</v>
+      </c>
+    </row>
+    <row r="1344" spans="1:12">
+      <c r="A1344">
+        <v>1341</v>
+      </c>
+      <c r="B1344">
+        <v>626402</v>
+      </c>
+      <c r="C1344" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1344" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1344" t="s">
+        <v>1948</v>
+      </c>
+      <c r="F1344" t="s">
+        <v>1949</v>
+      </c>
+      <c r="G1344" t="s">
+        <v>1950</v>
+      </c>
+      <c r="H1344" t="s">
+        <v>1951</v>
+      </c>
+      <c r="I1344" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1344">
+        <v>1</v>
+      </c>
+      <c r="K1344">
+        <v>5161999</v>
+      </c>
+      <c r="L1344">
+        <v>5161999</v>
+      </c>
+    </row>
+    <row r="1345" spans="1:12">
+      <c r="A1345">
+        <v>1342</v>
+      </c>
+      <c r="B1345">
+        <v>626402</v>
+      </c>
+      <c r="C1345" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1345" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1345" t="s">
+        <v>1952</v>
+      </c>
+      <c r="F1345" t="s">
+        <v>1953</v>
+      </c>
+      <c r="G1345" t="s">
+        <v>1954</v>
+      </c>
+      <c r="H1345" t="s">
+        <v>410</v>
+      </c>
+      <c r="I1345" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1345">
+        <v>1</v>
+      </c>
+      <c r="K1345">
+        <v>344600832</v>
+      </c>
+      <c r="L1345">
+        <v>344600832</v>
+      </c>
+    </row>
+    <row r="1346" spans="1:12">
+      <c r="A1346">
+        <v>1343</v>
+      </c>
+      <c r="B1346">
+        <v>626402</v>
+      </c>
+      <c r="C1346" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1346" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1346" t="s">
+        <v>1955</v>
+      </c>
+      <c r="F1346" t="s">
+        <v>1956</v>
+      </c>
+      <c r="G1346" t="s">
+        <v>1957</v>
+      </c>
+      <c r="H1346" t="s">
+        <v>414</v>
+      </c>
+      <c r="I1346" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1346">
+        <v>1</v>
+      </c>
+      <c r="K1346">
+        <v>287622627</v>
+      </c>
+      <c r="L1346">
+        <v>287622627</v>
+      </c>
+    </row>
+    <row r="1347" spans="1:12">
+      <c r="A1347">
+        <v>1344</v>
+      </c>
+      <c r="B1347">
+        <v>626402</v>
+      </c>
+      <c r="C1347" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1347" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1347" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F1347" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G1347" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1347" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1347" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1347">
+        <v>1</v>
+      </c>
+      <c r="K1347">
+        <v>2060000</v>
+      </c>
+      <c r="L1347">
+        <v>2060000</v>
+      </c>
+    </row>
+    <row r="1348" spans="1:12">
+      <c r="A1348">
+        <v>1345</v>
+      </c>
+      <c r="B1348">
+        <v>626402</v>
+      </c>
+      <c r="C1348" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1348" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1348" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F1348" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G1348" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1348" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1348" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1348">
+        <v>1</v>
+      </c>
+      <c r="K1348">
+        <v>914355</v>
+      </c>
+      <c r="L1348">
+        <v>914355</v>
+      </c>
+    </row>
+    <row r="1349" spans="1:12">
+      <c r="A1349">
+        <v>1346</v>
+      </c>
+      <c r="B1349">
+        <v>626402</v>
+      </c>
+      <c r="C1349" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1349" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1349" t="s">
+        <v>1958</v>
+      </c>
+      <c r="F1349" t="s">
+        <v>1959</v>
+      </c>
+      <c r="G1349" t="s">
+        <v>406</v>
+      </c>
+      <c r="H1349" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1349" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1349">
+        <v>1</v>
+      </c>
+      <c r="K1349">
+        <v>197500</v>
+      </c>
+      <c r="L1349">
+        <v>197500</v>
+      </c>
+    </row>
+    <row r="1350" spans="1:12">
+      <c r="A1350">
+        <v>1347</v>
+      </c>
+      <c r="B1350">
+        <v>626402</v>
+      </c>
+      <c r="C1350" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1350" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1350" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F1350" t="s">
+        <v>1961</v>
+      </c>
+      <c r="G1350" t="s">
+        <v>1962</v>
+      </c>
+      <c r="H1350" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1350" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1350">
+        <v>1</v>
+      </c>
+      <c r="K1350">
+        <v>11965800</v>
+      </c>
+      <c r="L1350">
+        <v>11965800</v>
+      </c>
+    </row>
+    <row r="1351" spans="1:12">
+      <c r="A1351">
+        <v>1348</v>
+      </c>
+      <c r="B1351">
+        <v>626402</v>
+      </c>
+      <c r="C1351" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1351" t="s">
+        <v>1963</v>
+      </c>
+      <c r="E1351" t="s">
+        <v>1964</v>
+      </c>
+      <c r="F1351" t="s">
+        <v>1965</v>
+      </c>
+      <c r="G1351" t="s">
+        <v>1966</v>
+      </c>
+      <c r="H1351" t="s">
+        <v>1509</v>
+      </c>
+      <c r="I1351" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1351">
+        <v>1</v>
+      </c>
+      <c r="K1351">
+        <v>787000</v>
+      </c>
+      <c r="L1351">
+        <v>787000</v>
+      </c>
+    </row>
+    <row r="1352" spans="1:12">
+      <c r="A1352">
+        <v>1349</v>
+      </c>
+      <c r="B1352">
+        <v>626402</v>
+      </c>
+      <c r="C1352" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1352" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1352" t="s">
+        <v>1967</v>
+      </c>
+      <c r="F1352" t="s">
+        <v>1968</v>
+      </c>
+      <c r="G1352" t="s">
+        <v>1969</v>
+      </c>
+      <c r="H1352" t="s">
+        <v>1970</v>
+      </c>
+      <c r="I1352" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1352">
+        <v>1</v>
+      </c>
+      <c r="K1352">
+        <v>2358750</v>
+      </c>
+      <c r="L1352">
+        <v>2358750</v>
+      </c>
+    </row>
+    <row r="1353" spans="1:12">
+      <c r="A1353">
+        <v>1350</v>
+      </c>
+      <c r="B1353">
+        <v>626402</v>
+      </c>
+      <c r="C1353" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1353" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1353" t="s">
+        <v>1971</v>
+      </c>
+      <c r="F1353" t="s">
+        <v>1972</v>
+      </c>
+      <c r="G1353" t="s">
+        <v>1973</v>
+      </c>
+      <c r="H1353" t="s">
+        <v>1974</v>
+      </c>
+      <c r="I1353" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1353">
+        <v>1</v>
+      </c>
+      <c r="K1353">
+        <v>14208000</v>
+      </c>
+      <c r="L1353">
+        <v>14208000</v>
+      </c>
+    </row>
+    <row r="1354" spans="1:12">
+      <c r="A1354">
+        <v>1351</v>
+      </c>
+      <c r="B1354">
+        <v>626402</v>
+      </c>
+      <c r="C1354" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1354" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1354" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F1354" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G1354" t="s">
+        <v>1977</v>
+      </c>
+      <c r="H1354" t="s">
+        <v>1978</v>
+      </c>
+      <c r="I1354" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1354">
+        <v>1</v>
+      </c>
+      <c r="K1354">
+        <v>2000000</v>
+      </c>
+      <c r="L1354">
+        <v>2000000</v>
+      </c>
+    </row>
+    <row r="1355" spans="1:12">
+      <c r="A1355">
+        <v>1352</v>
+      </c>
+      <c r="B1355">
+        <v>626402</v>
+      </c>
+      <c r="C1355" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1355" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1355" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F1355" t="s">
+        <v>1980</v>
+      </c>
+      <c r="G1355" t="s">
+        <v>1981</v>
+      </c>
+      <c r="H1355" t="s">
+        <v>889</v>
+      </c>
+      <c r="I1355" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1355">
+        <v>1</v>
+      </c>
+      <c r="K1355">
+        <v>2510000</v>
+      </c>
+      <c r="L1355">
+        <v>2510000</v>
+      </c>
+    </row>
+    <row r="1356" spans="1:12">
+      <c r="A1356">
+        <v>1353</v>
+      </c>
+      <c r="B1356">
+        <v>626402</v>
+      </c>
+      <c r="C1356" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1356" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1356" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F1356" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G1356" t="s">
+        <v>1984</v>
+      </c>
+      <c r="H1356" t="s">
+        <v>1985</v>
+      </c>
+      <c r="I1356" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1356">
+        <v>1</v>
+      </c>
+      <c r="K1356">
+        <v>3620000</v>
+      </c>
+      <c r="L1356">
+        <v>3620000</v>
+      </c>
+    </row>
+    <row r="1357" spans="1:12">
+      <c r="A1357">
+        <v>1354</v>
+      </c>
+      <c r="B1357">
+        <v>626402</v>
+      </c>
+      <c r="C1357" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1357" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1357" t="s">
+        <v>1986</v>
+      </c>
+      <c r="F1357" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G1357" t="s">
+        <v>1988</v>
+      </c>
+      <c r="H1357" t="s">
+        <v>921</v>
+      </c>
+      <c r="I1357" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1357">
+        <v>1</v>
+      </c>
+      <c r="K1357">
+        <v>6474000</v>
+      </c>
+      <c r="L1357">
+        <v>6474000</v>
+      </c>
+    </row>
+    <row r="1358" spans="1:12">
+      <c r="A1358">
+        <v>1355</v>
+      </c>
+      <c r="B1358">
+        <v>626402</v>
+      </c>
+      <c r="C1358" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1358" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1358" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F1358" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G1358" t="s">
+        <v>1991</v>
+      </c>
+      <c r="H1358" t="s">
+        <v>237</v>
+      </c>
+      <c r="I1358" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1358">
+        <v>1</v>
+      </c>
+      <c r="K1358">
+        <v>1720000</v>
+      </c>
+      <c r="L1358">
+        <v>1720000</v>
+      </c>
+    </row>
+    <row r="1359" spans="1:12">
+      <c r="A1359">
+        <v>1356</v>
+      </c>
+      <c r="B1359">
+        <v>626402</v>
+      </c>
+      <c r="C1359" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1359" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1359" t="s">
+        <v>1989</v>
+      </c>
+      <c r="F1359" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G1359" t="s">
+        <v>1991</v>
+      </c>
+      <c r="H1359" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1359" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1359">
+        <v>1</v>
+      </c>
+      <c r="K1359">
+        <v>725500</v>
+      </c>
+      <c r="L1359">
+        <v>725500</v>
+      </c>
+    </row>
+    <row r="1360" spans="1:12">
+      <c r="A1360">
+        <v>1357</v>
+      </c>
+      <c r="B1360">
+        <v>626402</v>
+      </c>
+      <c r="C1360" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1360" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1360" t="s">
+        <v>1992</v>
+      </c>
+      <c r="F1360" t="s">
+        <v>1993</v>
+      </c>
+      <c r="G1360" t="s">
+        <v>1994</v>
+      </c>
+      <c r="H1360" t="s">
+        <v>925</v>
+      </c>
+      <c r="I1360" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1360">
+        <v>1</v>
+      </c>
+      <c r="K1360">
+        <v>8300000</v>
+      </c>
+      <c r="L1360">
+        <v>8300000</v>
+      </c>
+    </row>
+    <row r="1361" spans="1:12">
+      <c r="A1361">
+        <v>1358</v>
+      </c>
+      <c r="B1361">
+        <v>626402</v>
+      </c>
+      <c r="C1361" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1361" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1361" t="s">
+        <v>1995</v>
+      </c>
+      <c r="F1361" t="s">
+        <v>1996</v>
+      </c>
+      <c r="G1361" t="s">
+        <v>1997</v>
+      </c>
+      <c r="H1361" t="s">
+        <v>1974</v>
+      </c>
+      <c r="I1361" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1361">
+        <v>1</v>
+      </c>
+      <c r="K1361">
+        <v>25308000</v>
+      </c>
+      <c r="L1361">
+        <v>25308000</v>
+      </c>
+    </row>
+    <row r="1362" spans="1:12">
+      <c r="A1362">
+        <v>1359</v>
+      </c>
+      <c r="B1362">
+        <v>626402</v>
+      </c>
+      <c r="C1362" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1362" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1362" t="s">
+        <v>1998</v>
+      </c>
+      <c r="F1362" t="s">
+        <v>1999</v>
+      </c>
+      <c r="G1362" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H1362" t="s">
+        <v>1974</v>
+      </c>
+      <c r="I1362" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1362">
+        <v>1</v>
+      </c>
+      <c r="K1362">
+        <v>46620000</v>
+      </c>
+      <c r="L1362">
+        <v>46620000</v>
+      </c>
+    </row>
+    <row r="1363" spans="1:12">
+      <c r="A1363">
+        <v>1360</v>
+      </c>
+      <c r="B1363">
+        <v>626402</v>
+      </c>
+      <c r="C1363" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1363" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1363" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F1363" t="s">
+        <v>2002</v>
+      </c>
+      <c r="G1363" t="s">
+        <v>2003</v>
+      </c>
+      <c r="H1363" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1363" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1363">
+        <v>1</v>
+      </c>
+      <c r="K1363">
+        <v>2053500</v>
+      </c>
+      <c r="L1363">
+        <v>2053500</v>
+      </c>
+    </row>
+    <row r="1364" spans="1:12">
+      <c r="A1364">
+        <v>1361</v>
+      </c>
+      <c r="B1364">
+        <v>626402</v>
+      </c>
+      <c r="C1364" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1364" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1364" t="s">
+        <v>2004</v>
+      </c>
+      <c r="F1364" t="s">
+        <v>2005</v>
+      </c>
+      <c r="G1364" t="s">
+        <v>2006</v>
+      </c>
+      <c r="H1364" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1364" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1364">
+        <v>1</v>
+      </c>
+      <c r="K1364">
+        <v>20000000</v>
+      </c>
+      <c r="L1364">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="1365" spans="1:12">
+      <c r="A1365">
+        <v>1362</v>
+      </c>
+      <c r="B1365">
+        <v>626402</v>
+      </c>
+      <c r="C1365" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1365" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1365" t="s">
+        <v>2007</v>
+      </c>
+      <c r="F1365" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G1365" t="s">
+        <v>2009</v>
+      </c>
+      <c r="H1365" t="s">
+        <v>1069</v>
+      </c>
+      <c r="I1365" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1365">
+        <v>1</v>
+      </c>
+      <c r="K1365">
+        <v>18459300</v>
+      </c>
+      <c r="L1365">
+        <v>18459300</v>
+      </c>
+    </row>
+    <row r="1366" spans="1:12">
+      <c r="A1366">
+        <v>1363</v>
+      </c>
+      <c r="B1366">
+        <v>626402</v>
+      </c>
+      <c r="C1366" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1366" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1366" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1366" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1366" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1366" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1366" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1366">
+        <v>1</v>
+      </c>
+      <c r="K1366">
+        <v>12384580</v>
+      </c>
+      <c r="L1366">
+        <v>12384580</v>
+      </c>
+    </row>
+    <row r="1367" spans="1:12">
+      <c r="A1367">
+        <v>1364</v>
+      </c>
+      <c r="B1367">
+        <v>626402</v>
+      </c>
+      <c r="C1367" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1367" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1367" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1367" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1367" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1367" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1367" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1367">
+        <v>1</v>
+      </c>
+      <c r="K1367">
+        <v>18093124</v>
+      </c>
+      <c r="L1367">
+        <v>18093124</v>
+      </c>
+    </row>
+    <row r="1368" spans="1:12">
+      <c r="A1368">
+        <v>1365</v>
+      </c>
+      <c r="B1368">
+        <v>626402</v>
+      </c>
+      <c r="C1368" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1368" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1368" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1368" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1368" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1368" t="s">
+        <v>665</v>
+      </c>
+      <c r="I1368" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1368">
+        <v>1</v>
+      </c>
+      <c r="K1368">
+        <v>936850</v>
+      </c>
+      <c r="L1368">
+        <v>936850</v>
+      </c>
+    </row>
+    <row r="1369" spans="1:12">
+      <c r="A1369">
+        <v>1366</v>
+      </c>
+      <c r="B1369">
+        <v>626402</v>
+      </c>
+      <c r="C1369" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1369" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1369" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1369" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1369" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1369" t="s">
+        <v>1645</v>
+      </c>
+      <c r="I1369" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1369">
+        <v>1</v>
+      </c>
+      <c r="K1369">
+        <v>1993350</v>
+      </c>
+      <c r="L1369">
+        <v>1993350</v>
+      </c>
+    </row>
+    <row r="1370" spans="1:12">
+      <c r="A1370">
+        <v>1367</v>
+      </c>
+      <c r="B1370">
+        <v>626402</v>
+      </c>
+      <c r="C1370" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1370" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1370" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1370" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1370" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1370" t="s">
+        <v>2012</v>
+      </c>
+      <c r="I1370" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1370">
+        <v>1</v>
+      </c>
+      <c r="K1370">
+        <v>1998150</v>
+      </c>
+      <c r="L1370">
+        <v>1998150</v>
+      </c>
+    </row>
+    <row r="1371" spans="1:12">
+      <c r="A1371">
+        <v>1368</v>
+      </c>
+      <c r="B1371">
+        <v>626402</v>
+      </c>
+      <c r="C1371" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1371" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1371" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1371" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1371" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1371" t="s">
+        <v>2013</v>
+      </c>
+      <c r="I1371" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1371">
+        <v>1</v>
+      </c>
+      <c r="K1371">
+        <v>2700000</v>
+      </c>
+      <c r="L1371">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="1372" spans="1:12">
+      <c r="A1372">
+        <v>1369</v>
+      </c>
+      <c r="B1372">
+        <v>626402</v>
+      </c>
+      <c r="C1372" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1372" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1372" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1372" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1372" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1372" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1372" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1372">
+        <v>1</v>
+      </c>
+      <c r="K1372">
+        <v>3168005</v>
+      </c>
+      <c r="L1372">
+        <v>3168005</v>
+      </c>
+    </row>
+    <row r="1373" spans="1:12">
+      <c r="A1373">
+        <v>1370</v>
+      </c>
+      <c r="B1373">
+        <v>626402</v>
+      </c>
+      <c r="C1373" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1373" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1373" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1373" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1373" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1373" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1373" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1373">
+        <v>1</v>
+      </c>
+      <c r="K1373">
+        <v>3468500</v>
+      </c>
+      <c r="L1373">
+        <v>3468500</v>
+      </c>
+    </row>
+    <row r="1374" spans="1:12">
+      <c r="A1374">
+        <v>1371</v>
+      </c>
+      <c r="B1374">
+        <v>626402</v>
+      </c>
+      <c r="C1374" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1374" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1374" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1374" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1374" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1374" t="s">
+        <v>1720</v>
+      </c>
+      <c r="I1374" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1374">
+        <v>1</v>
+      </c>
+      <c r="K1374">
+        <v>743000</v>
+      </c>
+      <c r="L1374">
+        <v>743000</v>
+      </c>
+    </row>
+    <row r="1375" spans="1:12">
+      <c r="A1375">
+        <v>1372</v>
+      </c>
+      <c r="B1375">
+        <v>626402</v>
+      </c>
+      <c r="C1375" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1375" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1375" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1375" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1375" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1375" t="s">
+        <v>305</v>
+      </c>
+      <c r="I1375" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1375">
+        <v>1</v>
+      </c>
+      <c r="K1375">
+        <v>313500</v>
+      </c>
+      <c r="L1375">
+        <v>313500</v>
+      </c>
+    </row>
+    <row r="1376" spans="1:12">
+      <c r="A1376">
+        <v>1373</v>
+      </c>
+      <c r="B1376">
+        <v>626402</v>
+      </c>
+      <c r="C1376" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1376" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1376" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1376" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1376" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1376" t="s">
+        <v>1192</v>
+      </c>
+      <c r="I1376" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1376">
+        <v>1</v>
+      </c>
+      <c r="K1376">
+        <v>6417000</v>
+      </c>
+      <c r="L1376">
+        <v>6417000</v>
+      </c>
+    </row>
+    <row r="1377" spans="1:12">
+      <c r="A1377">
+        <v>1374</v>
+      </c>
+      <c r="B1377">
+        <v>626402</v>
+      </c>
+      <c r="C1377" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1377" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1377" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1377" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1377" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1377" t="s">
+        <v>1193</v>
+      </c>
+      <c r="I1377" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1377">
+        <v>1</v>
+      </c>
+      <c r="K1377">
+        <v>2242060</v>
+      </c>
+      <c r="L1377">
+        <v>2242060</v>
+      </c>
+    </row>
+    <row r="1378" spans="1:12">
+      <c r="A1378">
+        <v>1375</v>
+      </c>
+      <c r="B1378">
+        <v>626402</v>
+      </c>
+      <c r="C1378" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1378" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1378" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1378" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1378" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1378" t="s">
+        <v>1759</v>
+      </c>
+      <c r="I1378" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1378">
+        <v>1</v>
+      </c>
+      <c r="K1378">
+        <v>8782000</v>
+      </c>
+      <c r="L1378">
+        <v>8782000</v>
+      </c>
+    </row>
+    <row r="1379" spans="1:12">
+      <c r="A1379">
+        <v>1376</v>
+      </c>
+      <c r="B1379">
+        <v>626402</v>
+      </c>
+      <c r="C1379" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1379" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1379" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1379" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1379" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1379" t="s">
+        <v>2014</v>
+      </c>
+      <c r="I1379" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1379">
+        <v>1</v>
+      </c>
+      <c r="K1379">
+        <v>3000000</v>
+      </c>
+      <c r="L1379">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="1380" spans="1:12">
+      <c r="A1380">
+        <v>1377</v>
+      </c>
+      <c r="B1380">
+        <v>626402</v>
+      </c>
+      <c r="C1380" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1380" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1380" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1380" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1380" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1380" t="s">
+        <v>1351</v>
+      </c>
+      <c r="I1380" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1380">
+        <v>1</v>
+      </c>
+      <c r="K1380">
+        <v>2934300</v>
+      </c>
+      <c r="L1380">
+        <v>2934300</v>
+      </c>
+    </row>
+    <row r="1381" spans="1:12">
+      <c r="A1381">
+        <v>1378</v>
+      </c>
+      <c r="B1381">
+        <v>626402</v>
+      </c>
+      <c r="C1381" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1381" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1381" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1381" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1381" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1381" t="s">
+        <v>2015</v>
+      </c>
+      <c r="I1381" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1381">
+        <v>1</v>
+      </c>
+      <c r="K1381">
+        <v>2025000</v>
+      </c>
+      <c r="L1381">
+        <v>2025000</v>
+      </c>
+    </row>
+    <row r="1382" spans="1:12">
+      <c r="A1382">
+        <v>1379</v>
+      </c>
+      <c r="B1382">
+        <v>626402</v>
+      </c>
+      <c r="C1382" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1382" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1382" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1382" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1382" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1382" t="s">
+        <v>118</v>
+      </c>
+      <c r="I1382" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1382">
+        <v>1</v>
+      </c>
+      <c r="K1382">
+        <v>3586500</v>
+      </c>
+      <c r="L1382">
+        <v>3586500</v>
+      </c>
+    </row>
+    <row r="1383" spans="1:12">
+      <c r="A1383">
+        <v>1380</v>
+      </c>
+      <c r="B1383">
+        <v>626402</v>
+      </c>
+      <c r="C1383" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1383" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1383" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1383" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1383" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1383" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1383" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1383">
+        <v>1</v>
+      </c>
+      <c r="K1383">
+        <v>11648500</v>
+      </c>
+      <c r="L1383">
+        <v>11648500</v>
+      </c>
+    </row>
+    <row r="1384" spans="1:12">
+      <c r="A1384">
+        <v>1381</v>
+      </c>
+      <c r="B1384">
+        <v>626402</v>
+      </c>
+      <c r="C1384" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1384" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1384" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1384" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1384" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1384" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1384" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1384">
+        <v>1</v>
+      </c>
+      <c r="K1384">
+        <v>357393</v>
+      </c>
+      <c r="L1384">
+        <v>357393</v>
+      </c>
+    </row>
+    <row r="1385" spans="1:12">
+      <c r="A1385">
+        <v>1382</v>
+      </c>
+      <c r="B1385">
+        <v>626402</v>
+      </c>
+      <c r="C1385" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1385" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1385" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1385" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1385" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1385" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1385" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1385">
+        <v>1</v>
+      </c>
+      <c r="K1385">
+        <v>1095000</v>
+      </c>
+      <c r="L1385">
+        <v>1095000</v>
+      </c>
+    </row>
+    <row r="1386" spans="1:12">
+      <c r="A1386">
+        <v>1383</v>
+      </c>
+      <c r="B1386">
+        <v>626402</v>
+      </c>
+      <c r="C1386" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1386" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1386" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1386" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1386" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1386" t="s">
+        <v>734</v>
+      </c>
+      <c r="I1386" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1386">
+        <v>1</v>
+      </c>
+      <c r="K1386">
+        <v>1020000</v>
+      </c>
+      <c r="L1386">
+        <v>1020000</v>
+      </c>
+    </row>
+    <row r="1387" spans="1:12">
+      <c r="A1387">
+        <v>1384</v>
+      </c>
+      <c r="B1387">
+        <v>626402</v>
+      </c>
+      <c r="C1387" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1387" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1387" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1387" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1387" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1387" t="s">
+        <v>2016</v>
+      </c>
+      <c r="I1387" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1387">
+        <v>1</v>
+      </c>
+      <c r="K1387">
+        <v>1360000</v>
+      </c>
+      <c r="L1387">
+        <v>1360000</v>
+      </c>
+    </row>
+    <row r="1388" spans="1:12">
+      <c r="A1388">
+        <v>1385</v>
+      </c>
+      <c r="B1388">
+        <v>626402</v>
+      </c>
+      <c r="C1388" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1388" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1388" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1388" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1388" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1388" t="s">
+        <v>735</v>
+      </c>
+      <c r="I1388" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1388">
+        <v>1</v>
+      </c>
+      <c r="K1388">
+        <v>680000</v>
+      </c>
+      <c r="L1388">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="1389" spans="1:12">
+      <c r="A1389">
+        <v>1386</v>
+      </c>
+      <c r="B1389">
+        <v>626402</v>
+      </c>
+      <c r="C1389" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1389" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1389" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1389" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1389" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1389" t="s">
+        <v>2017</v>
+      </c>
+      <c r="I1389" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1389">
+        <v>1</v>
+      </c>
+      <c r="K1389">
+        <v>340000</v>
+      </c>
+      <c r="L1389">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="1390" spans="1:12">
+      <c r="A1390">
+        <v>1387</v>
+      </c>
+      <c r="B1390">
+        <v>626402</v>
+      </c>
+      <c r="C1390" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1390" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1390" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1390" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1390" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1390" t="s">
+        <v>2018</v>
+      </c>
+      <c r="I1390" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1390">
+        <v>1</v>
+      </c>
+      <c r="K1390">
+        <v>260000</v>
+      </c>
+      <c r="L1390">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="1391" spans="1:12">
+      <c r="A1391">
+        <v>1388</v>
+      </c>
+      <c r="B1391">
+        <v>626402</v>
+      </c>
+      <c r="C1391" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1391" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1391" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1391" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1391" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1391" t="s">
+        <v>671</v>
+      </c>
+      <c r="I1391" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1391">
+        <v>1</v>
+      </c>
+      <c r="K1391">
+        <v>1530000</v>
+      </c>
+      <c r="L1391">
+        <v>1530000</v>
+      </c>
+    </row>
+    <row r="1392" spans="1:12">
+      <c r="A1392">
+        <v>1389</v>
+      </c>
+      <c r="B1392">
+        <v>626402</v>
+      </c>
+      <c r="C1392" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1392" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1392" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1392" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1392" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1392" t="s">
+        <v>2019</v>
+      </c>
+      <c r="I1392" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1392">
+        <v>1</v>
+      </c>
+      <c r="K1392">
+        <v>900000</v>
+      </c>
+      <c r="L1392">
+        <v>900000</v>
+      </c>
+    </row>
+    <row r="1393" spans="1:12">
+      <c r="A1393">
+        <v>1390</v>
+      </c>
+      <c r="B1393">
+        <v>626402</v>
+      </c>
+      <c r="C1393" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1393" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1393" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1393" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1393" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1393" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I1393" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1393">
+        <v>1</v>
+      </c>
+      <c r="K1393">
+        <v>510000</v>
+      </c>
+      <c r="L1393">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1394" spans="1:12">
+      <c r="A1394">
+        <v>1391</v>
+      </c>
+      <c r="B1394">
+        <v>626402</v>
+      </c>
+      <c r="C1394" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1394" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1394" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1394" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1394" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1394" t="s">
+        <v>2020</v>
+      </c>
+      <c r="I1394" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1394">
+        <v>1</v>
+      </c>
+      <c r="K1394">
+        <v>760000</v>
+      </c>
+      <c r="L1394">
+        <v>760000</v>
+      </c>
+    </row>
+    <row r="1395" spans="1:12">
+      <c r="A1395">
+        <v>1392</v>
+      </c>
+      <c r="B1395">
+        <v>626402</v>
+      </c>
+      <c r="C1395" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1395" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1395" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1395" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1395" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1395" t="s">
+        <v>725</v>
+      </c>
+      <c r="I1395" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1395">
+        <v>1</v>
+      </c>
+      <c r="K1395">
+        <v>340000</v>
+      </c>
+      <c r="L1395">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="1396" spans="1:12">
+      <c r="A1396">
+        <v>1393</v>
+      </c>
+      <c r="B1396">
+        <v>626402</v>
+      </c>
+      <c r="C1396" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1396" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1396" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1396" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1396" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1396" t="s">
+        <v>1195</v>
+      </c>
+      <c r="I1396" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1396">
+        <v>1</v>
+      </c>
+      <c r="K1396">
+        <v>260000</v>
+      </c>
+      <c r="L1396">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="1397" spans="1:12">
+      <c r="A1397">
+        <v>1394</v>
+      </c>
+      <c r="B1397">
+        <v>626402</v>
+      </c>
+      <c r="C1397" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1397" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1397" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1397" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1397" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1397" t="s">
+        <v>1196</v>
+      </c>
+      <c r="I1397" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1397">
+        <v>1</v>
+      </c>
+      <c r="K1397">
+        <v>340000</v>
+      </c>
+      <c r="L1397">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="1398" spans="1:12">
+      <c r="A1398">
+        <v>1395</v>
+      </c>
+      <c r="B1398">
+        <v>626402</v>
+      </c>
+      <c r="C1398" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1398" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1398" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1398" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1398" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1398" t="s">
+        <v>278</v>
+      </c>
+      <c r="I1398" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1398">
+        <v>1</v>
+      </c>
+      <c r="K1398">
+        <v>130000</v>
+      </c>
+      <c r="L1398">
+        <v>130000</v>
+      </c>
+    </row>
+    <row r="1399" spans="1:12">
+      <c r="A1399">
+        <v>1396</v>
+      </c>
+      <c r="B1399">
+        <v>626402</v>
+      </c>
+      <c r="C1399" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1399" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1399" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1399" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1399" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1399" t="s">
+        <v>279</v>
+      </c>
+      <c r="I1399" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1399">
+        <v>1</v>
+      </c>
+      <c r="K1399">
+        <v>510000</v>
+      </c>
+      <c r="L1399">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1400" spans="1:12">
+      <c r="A1400">
+        <v>1397</v>
+      </c>
+      <c r="B1400">
+        <v>626402</v>
+      </c>
+      <c r="C1400" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1400" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1400" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1400" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1400" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1400" t="s">
+        <v>2021</v>
+      </c>
+      <c r="I1400" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1400">
+        <v>1</v>
+      </c>
+      <c r="K1400">
+        <v>340000</v>
+      </c>
+      <c r="L1400">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="1401" spans="1:12">
+      <c r="A1401">
+        <v>1398</v>
+      </c>
+      <c r="B1401">
+        <v>626402</v>
+      </c>
+      <c r="C1401" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1401" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1401" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1401" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1401" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1401" t="s">
+        <v>312</v>
+      </c>
+      <c r="I1401" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1401">
+        <v>1</v>
+      </c>
+      <c r="K1401">
+        <v>170000</v>
+      </c>
+      <c r="L1401">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="1402" spans="1:12">
+      <c r="A1402">
+        <v>1399</v>
+      </c>
+      <c r="B1402">
+        <v>626402</v>
+      </c>
+      <c r="C1402" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1402" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1402" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1402" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1402" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1402" t="s">
+        <v>471</v>
+      </c>
+      <c r="I1402" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1402">
+        <v>1</v>
+      </c>
+      <c r="K1402">
+        <v>210000</v>
+      </c>
+      <c r="L1402">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="1403" spans="1:12">
+      <c r="A1403">
+        <v>1400</v>
+      </c>
+      <c r="B1403">
+        <v>626402</v>
+      </c>
+      <c r="C1403" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1403" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1403" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1403" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1403" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1403" t="s">
+        <v>2022</v>
+      </c>
+      <c r="I1403" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1403">
+        <v>1</v>
+      </c>
+      <c r="K1403">
+        <v>1020000</v>
+      </c>
+      <c r="L1403">
+        <v>1020000</v>
+      </c>
+    </row>
+    <row r="1404" spans="1:12">
+      <c r="A1404">
+        <v>1401</v>
+      </c>
+      <c r="B1404">
+        <v>626402</v>
+      </c>
+      <c r="C1404" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1404" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1404" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1404" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1404" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1404" t="s">
+        <v>2023</v>
+      </c>
+      <c r="I1404" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1404">
+        <v>1</v>
+      </c>
+      <c r="K1404">
+        <v>1020000</v>
+      </c>
+      <c r="L1404">
+        <v>1020000</v>
+      </c>
+    </row>
+    <row r="1405" spans="1:12">
+      <c r="A1405">
+        <v>1402</v>
+      </c>
+      <c r="B1405">
+        <v>626402</v>
+      </c>
+      <c r="C1405" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1405" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1405" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F1405" t="s">
+        <v>2011</v>
+      </c>
+      <c r="G1405" t="s">
+        <v>429</v>
+      </c>
+      <c r="H1405" t="s">
+        <v>2024</v>
+      </c>
+      <c r="I1405" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1405">
+        <v>1</v>
+      </c>
+      <c r="K1405">
+        <v>250500</v>
+      </c>
+      <c r="L1405">
+        <v>250500</v>
+      </c>
+    </row>
+    <row r="1406" spans="1:12">
+      <c r="A1406">
+        <v>1403</v>
+      </c>
+      <c r="B1406">
+        <v>626402</v>
+      </c>
+      <c r="C1406" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1406" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1406" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1406" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1406" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1406" t="s">
+        <v>929</v>
+      </c>
+      <c r="I1406" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1406">
+        <v>1</v>
+      </c>
+      <c r="K1406">
+        <v>1263000</v>
+      </c>
+      <c r="L1406">
+        <v>1263000</v>
+      </c>
+    </row>
+    <row r="1407" spans="1:12">
+      <c r="A1407">
+        <v>1404</v>
+      </c>
+      <c r="B1407">
+        <v>626402</v>
+      </c>
+      <c r="C1407" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1407" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1407" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1407" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1407" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1407" t="s">
+        <v>930</v>
+      </c>
+      <c r="I1407" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1407">
+        <v>1</v>
+      </c>
+      <c r="K1407">
+        <v>5327516</v>
+      </c>
+      <c r="L1407">
+        <v>5327516</v>
+      </c>
+    </row>
+    <row r="1408" spans="1:12">
+      <c r="A1408">
+        <v>1405</v>
+      </c>
+      <c r="B1408">
+        <v>626402</v>
+      </c>
+      <c r="C1408" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1408" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1408" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1408" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1408" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1408" t="s">
+        <v>931</v>
+      </c>
+      <c r="I1408" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1408">
+        <v>1</v>
+      </c>
+      <c r="K1408">
+        <v>250813</v>
+      </c>
+      <c r="L1408">
+        <v>250813</v>
+      </c>
+    </row>
+    <row r="1409" spans="1:12">
+      <c r="A1409">
+        <v>1406</v>
+      </c>
+      <c r="B1409">
+        <v>626402</v>
+      </c>
+      <c r="C1409" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1409" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1409" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1409" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1409" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1409" t="s">
+        <v>933</v>
+      </c>
+      <c r="I1409" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1409">
+        <v>1</v>
+      </c>
+      <c r="K1409">
+        <v>1400000</v>
+      </c>
+      <c r="L1409">
+        <v>1400000</v>
+      </c>
+    </row>
+    <row r="1410" spans="1:12">
+      <c r="A1410">
+        <v>1407</v>
+      </c>
+      <c r="B1410">
+        <v>626402</v>
+      </c>
+      <c r="C1410" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1410" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1410" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1410" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1410" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1410" t="s">
+        <v>934</v>
+      </c>
+      <c r="I1410" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1410">
+        <v>1</v>
+      </c>
+      <c r="K1410">
+        <v>270000</v>
+      </c>
+      <c r="L1410">
+        <v>270000</v>
+      </c>
+    </row>
+    <row r="1411" spans="1:12">
+      <c r="A1411">
+        <v>1408</v>
+      </c>
+      <c r="B1411">
+        <v>626402</v>
+      </c>
+      <c r="C1411" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1411" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1411" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1411" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1411" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1411" t="s">
+        <v>1499</v>
+      </c>
+      <c r="I1411" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1411">
+        <v>1</v>
+      </c>
+      <c r="K1411">
+        <v>1328000</v>
+      </c>
+      <c r="L1411">
+        <v>1328000</v>
+      </c>
+    </row>
+    <row r="1412" spans="1:12">
+      <c r="A1412">
+        <v>1409</v>
+      </c>
+      <c r="B1412">
+        <v>626402</v>
+      </c>
+      <c r="C1412" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1412" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1412" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1412" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1412" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1412" t="s">
+        <v>1500</v>
+      </c>
+      <c r="I1412" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1412">
+        <v>1</v>
+      </c>
+      <c r="K1412">
+        <v>980000</v>
+      </c>
+      <c r="L1412">
+        <v>980000</v>
+      </c>
+    </row>
+    <row r="1413" spans="1:12">
+      <c r="A1413">
+        <v>1410</v>
+      </c>
+      <c r="B1413">
+        <v>626402</v>
+      </c>
+      <c r="C1413" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1413" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1413" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1413" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1413" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1413" t="s">
+        <v>1501</v>
+      </c>
+      <c r="I1413" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1413">
+        <v>1</v>
+      </c>
+      <c r="K1413">
+        <v>980000</v>
+      </c>
+      <c r="L1413">
+        <v>980000</v>
+      </c>
+    </row>
+    <row r="1414" spans="1:12">
+      <c r="A1414">
+        <v>1411</v>
+      </c>
+      <c r="B1414">
+        <v>626402</v>
+      </c>
+      <c r="C1414" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1414" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1414" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1414" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1414" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1414" t="s">
+        <v>1503</v>
+      </c>
+      <c r="I1414" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1414">
+        <v>1</v>
+      </c>
+      <c r="K1414">
+        <v>300000</v>
+      </c>
+      <c r="L1414">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="1415" spans="1:12">
+      <c r="A1415">
+        <v>1412</v>
+      </c>
+      <c r="B1415">
+        <v>626402</v>
+      </c>
+      <c r="C1415" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1415" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1415" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1415" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1415" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1415" t="s">
+        <v>1505</v>
+      </c>
+      <c r="I1415" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1415">
+        <v>1</v>
+      </c>
+      <c r="K1415">
+        <v>300000</v>
+      </c>
+      <c r="L1415">
+        <v>300000</v>
+      </c>
+    </row>
+    <row r="1416" spans="1:12">
+      <c r="A1416">
+        <v>1413</v>
+      </c>
+      <c r="B1416">
+        <v>626402</v>
+      </c>
+      <c r="C1416" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1416" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1416" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1416" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1416" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1416" t="s">
+        <v>1506</v>
+      </c>
+      <c r="I1416" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1416">
+        <v>1</v>
+      </c>
+      <c r="K1416">
+        <v>2994000</v>
+      </c>
+      <c r="L1416">
+        <v>2994000</v>
+      </c>
+    </row>
+    <row r="1417" spans="1:12">
+      <c r="A1417">
+        <v>1414</v>
+      </c>
+      <c r="B1417">
+        <v>626402</v>
+      </c>
+      <c r="C1417" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1417" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1417" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1417" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1417" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1417" t="s">
+        <v>2027</v>
+      </c>
+      <c r="I1417" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1417">
+        <v>1</v>
+      </c>
+      <c r="K1417">
+        <v>7467500</v>
+      </c>
+      <c r="L1417">
+        <v>7467500</v>
+      </c>
+    </row>
+    <row r="1418" spans="1:12">
+      <c r="A1418">
+        <v>1415</v>
+      </c>
+      <c r="B1418">
+        <v>626402</v>
+      </c>
+      <c r="C1418" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1418" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1418" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1418" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1418" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1418" t="s">
+        <v>207</v>
+      </c>
+      <c r="I1418" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1418">
+        <v>1</v>
+      </c>
+      <c r="K1418">
+        <v>825000</v>
+      </c>
+      <c r="L1418">
+        <v>825000</v>
+      </c>
+    </row>
+    <row r="1419" spans="1:12">
+      <c r="A1419">
+        <v>1416</v>
+      </c>
+      <c r="B1419">
+        <v>626402</v>
+      </c>
+      <c r="C1419" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1419" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1419" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1419" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1419" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1419" t="s">
+        <v>2028</v>
+      </c>
+      <c r="I1419" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1419">
+        <v>1</v>
+      </c>
+      <c r="K1419">
+        <v>1035000</v>
+      </c>
+      <c r="L1419">
+        <v>1035000</v>
+      </c>
+    </row>
+    <row r="1420" spans="1:12">
+      <c r="A1420">
+        <v>1417</v>
+      </c>
+      <c r="B1420">
+        <v>626402</v>
+      </c>
+      <c r="C1420" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1420" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1420" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1420" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1420" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1420" t="s">
+        <v>690</v>
+      </c>
+      <c r="I1420" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1420">
+        <v>1</v>
+      </c>
+      <c r="K1420">
+        <v>474000</v>
+      </c>
+      <c r="L1420">
+        <v>474000</v>
+      </c>
+    </row>
+    <row r="1421" spans="1:12">
+      <c r="A1421">
+        <v>1418</v>
+      </c>
+      <c r="B1421">
+        <v>626402</v>
+      </c>
+      <c r="C1421" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1421" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1421" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1421" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1421" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1421" t="s">
+        <v>691</v>
+      </c>
+      <c r="I1421" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1421">
+        <v>1</v>
+      </c>
+      <c r="K1421">
+        <v>716500</v>
+      </c>
+      <c r="L1421">
+        <v>716500</v>
+      </c>
+    </row>
+    <row r="1422" spans="1:12">
+      <c r="A1422">
+        <v>1419</v>
+      </c>
+      <c r="B1422">
+        <v>626402</v>
+      </c>
+      <c r="C1422" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1422" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1422" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1422" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1422" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1422" t="s">
+        <v>692</v>
+      </c>
+      <c r="I1422" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1422">
+        <v>1</v>
+      </c>
+      <c r="K1422">
+        <v>1015100</v>
+      </c>
+      <c r="L1422">
+        <v>1015100</v>
+      </c>
+    </row>
+    <row r="1423" spans="1:12">
+      <c r="A1423">
+        <v>1420</v>
+      </c>
+      <c r="B1423">
+        <v>626402</v>
+      </c>
+      <c r="C1423" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1423" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1423" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1423" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1423" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1423" t="s">
+        <v>2029</v>
+      </c>
+      <c r="I1423" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1423">
+        <v>1</v>
+      </c>
+      <c r="K1423">
+        <v>2627500</v>
+      </c>
+      <c r="L1423">
+        <v>2627500</v>
+      </c>
+    </row>
+    <row r="1424" spans="1:12">
+      <c r="A1424">
+        <v>1421</v>
+      </c>
+      <c r="B1424">
+        <v>626402</v>
+      </c>
+      <c r="C1424" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1424" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1424" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1424" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1424" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1424" t="s">
+        <v>2030</v>
+      </c>
+      <c r="I1424" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1424">
+        <v>1</v>
+      </c>
+      <c r="K1424">
+        <v>4640750</v>
+      </c>
+      <c r="L1424">
+        <v>4640750</v>
+      </c>
+    </row>
+    <row r="1425" spans="1:12">
+      <c r="A1425">
+        <v>1422</v>
+      </c>
+      <c r="B1425">
+        <v>626402</v>
+      </c>
+      <c r="C1425" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1425" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1425" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1425" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1425" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1425" t="s">
+        <v>1507</v>
+      </c>
+      <c r="I1425" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1425">
+        <v>1</v>
+      </c>
+      <c r="K1425">
+        <v>24240000</v>
+      </c>
+      <c r="L1425">
+        <v>24240000</v>
+      </c>
+    </row>
+    <row r="1426" spans="1:12">
+      <c r="A1426">
+        <v>1423</v>
+      </c>
+      <c r="B1426">
+        <v>626402</v>
+      </c>
+      <c r="C1426" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1426" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1426" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1426" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1426" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1426" t="s">
+        <v>2031</v>
+      </c>
+      <c r="I1426" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1426">
+        <v>1</v>
+      </c>
+      <c r="K1426">
+        <v>2319000</v>
+      </c>
+      <c r="L1426">
+        <v>2319000</v>
+      </c>
+    </row>
+    <row r="1427" spans="1:12">
+      <c r="A1427">
+        <v>1424</v>
+      </c>
+      <c r="B1427">
+        <v>626402</v>
+      </c>
+      <c r="C1427" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1427" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1427" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1427" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1427" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1427" t="s">
+        <v>2032</v>
+      </c>
+      <c r="I1427" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1427">
+        <v>1</v>
+      </c>
+      <c r="K1427">
+        <v>2786759</v>
+      </c>
+      <c r="L1427">
+        <v>2786759</v>
+      </c>
+    </row>
+    <row r="1428" spans="1:12">
+      <c r="A1428">
+        <v>1425</v>
+      </c>
+      <c r="B1428">
+        <v>626402</v>
+      </c>
+      <c r="C1428" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1428" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1428" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1428" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1428" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1428" t="s">
+        <v>2033</v>
+      </c>
+      <c r="I1428" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1428">
+        <v>1</v>
+      </c>
+      <c r="K1428">
+        <v>710000</v>
+      </c>
+      <c r="L1428">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="1429" spans="1:12">
+      <c r="A1429">
+        <v>1426</v>
+      </c>
+      <c r="B1429">
+        <v>626402</v>
+      </c>
+      <c r="C1429" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1429" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1429" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1429" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1429" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1429" t="s">
+        <v>941</v>
+      </c>
+      <c r="I1429" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1429">
+        <v>1</v>
+      </c>
+      <c r="K1429">
+        <v>515000</v>
+      </c>
+      <c r="L1429">
+        <v>515000</v>
+      </c>
+    </row>
+    <row r="1430" spans="1:12">
+      <c r="A1430">
+        <v>1427</v>
+      </c>
+      <c r="B1430">
+        <v>626402</v>
+      </c>
+      <c r="C1430" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1430" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1430" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1430" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1430" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1430" t="s">
+        <v>2034</v>
+      </c>
+      <c r="I1430" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1430">
+        <v>1</v>
+      </c>
+      <c r="K1430">
+        <v>1470000</v>
+      </c>
+      <c r="L1430">
+        <v>1470000</v>
+      </c>
+    </row>
+    <row r="1431" spans="1:12">
+      <c r="A1431">
+        <v>1428</v>
+      </c>
+      <c r="B1431">
+        <v>626402</v>
+      </c>
+      <c r="C1431" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1431" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1431" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1431" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1431" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1431" t="s">
+        <v>2035</v>
+      </c>
+      <c r="I1431" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1431">
+        <v>1</v>
+      </c>
+      <c r="K1431">
+        <v>994000</v>
+      </c>
+      <c r="L1431">
+        <v>994000</v>
+      </c>
+    </row>
+    <row r="1432" spans="1:12">
+      <c r="A1432">
+        <v>1429</v>
+      </c>
+      <c r="B1432">
+        <v>626402</v>
+      </c>
+      <c r="C1432" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1432" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1432" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1432" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1432" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1432" t="s">
+        <v>2036</v>
+      </c>
+      <c r="I1432" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1432">
+        <v>1</v>
+      </c>
+      <c r="K1432">
+        <v>1000000</v>
+      </c>
+      <c r="L1432">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1433" spans="1:12">
+      <c r="A1433">
+        <v>1430</v>
+      </c>
+      <c r="B1433">
+        <v>626402</v>
+      </c>
+      <c r="C1433" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1433" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1433" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1433" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1433" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1433" t="s">
+        <v>1508</v>
+      </c>
+      <c r="I1433" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1433">
+        <v>1</v>
+      </c>
+      <c r="K1433">
+        <v>4950000</v>
+      </c>
+      <c r="L1433">
+        <v>4950000</v>
+      </c>
+    </row>
+    <row r="1434" spans="1:12">
+      <c r="A1434">
+        <v>1431</v>
+      </c>
+      <c r="B1434">
+        <v>626402</v>
+      </c>
+      <c r="C1434" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1434" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1434" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1434" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1434" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1434" t="s">
+        <v>943</v>
+      </c>
+      <c r="I1434" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1434">
+        <v>1</v>
+      </c>
+      <c r="K1434">
+        <v>1330452</v>
+      </c>
+      <c r="L1434">
+        <v>1330452</v>
+      </c>
+    </row>
+    <row r="1435" spans="1:12">
+      <c r="A1435">
+        <v>1432</v>
+      </c>
+      <c r="B1435">
+        <v>626402</v>
+      </c>
+      <c r="C1435" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1435" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1435" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1435" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1435" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1435" t="s">
+        <v>944</v>
+      </c>
+      <c r="I1435" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1435">
+        <v>1</v>
+      </c>
+      <c r="K1435">
+        <v>7392500</v>
+      </c>
+      <c r="L1435">
+        <v>7392500</v>
+      </c>
+    </row>
+    <row r="1436" spans="1:12">
+      <c r="A1436">
+        <v>1433</v>
+      </c>
+      <c r="B1436">
+        <v>626402</v>
+      </c>
+      <c r="C1436" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1436" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1436" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1436" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1436" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1436" t="s">
+        <v>945</v>
+      </c>
+      <c r="I1436" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1436">
+        <v>1</v>
+      </c>
+      <c r="K1436">
+        <v>700000</v>
+      </c>
+      <c r="L1436">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="1437" spans="1:12">
+      <c r="A1437">
+        <v>1434</v>
+      </c>
+      <c r="B1437">
+        <v>626402</v>
+      </c>
+      <c r="C1437" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1437" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1437" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1437" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1437" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1437" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1437" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1437">
+        <v>1</v>
+      </c>
+      <c r="K1437">
+        <v>7385454</v>
+      </c>
+      <c r="L1437">
+        <v>7385454</v>
+      </c>
+    </row>
+    <row r="1438" spans="1:12">
+      <c r="A1438">
+        <v>1435</v>
+      </c>
+      <c r="B1438">
+        <v>626402</v>
+      </c>
+      <c r="C1438" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1438" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1438" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1438" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1438" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1438" t="s">
+        <v>192</v>
+      </c>
+      <c r="I1438" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1438">
+        <v>1</v>
+      </c>
+      <c r="K1438">
+        <v>5543341</v>
+      </c>
+      <c r="L1438">
+        <v>5543341</v>
+      </c>
+    </row>
+    <row r="1439" spans="1:12">
+      <c r="A1439">
+        <v>1436</v>
+      </c>
+      <c r="B1439">
+        <v>626402</v>
+      </c>
+      <c r="C1439" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1439" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1439" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1439" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1439" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1439" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1439" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1439">
+        <v>1</v>
+      </c>
+      <c r="K1439">
+        <v>2210000</v>
+      </c>
+      <c r="L1439">
+        <v>2210000</v>
+      </c>
+    </row>
+    <row r="1440" spans="1:12">
+      <c r="A1440">
+        <v>1437</v>
+      </c>
+      <c r="B1440">
+        <v>626402</v>
+      </c>
+      <c r="C1440" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1440" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1440" t="s">
+        <v>2025</v>
+      </c>
+      <c r="F1440" t="s">
+        <v>2026</v>
+      </c>
+      <c r="G1440" t="s">
+        <v>1498</v>
+      </c>
+      <c r="H1440" t="s">
+        <v>1511</v>
+      </c>
+      <c r="I1440" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1440">
+        <v>1</v>
+      </c>
+      <c r="K1440">
+        <v>340000</v>
+      </c>
+      <c r="L1440">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="1441" spans="1:12">
+      <c r="A1441">
+        <v>1438</v>
+      </c>
+      <c r="B1441">
+        <v>626402</v>
+      </c>
+      <c r="C1441" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1441" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1441" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F1441" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G1441" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H1441" t="s">
+        <v>1492</v>
+      </c>
+      <c r="I1441" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1441">
+        <v>1</v>
+      </c>
+      <c r="K1441">
+        <v>3203600</v>
+      </c>
+      <c r="L1441">
+        <v>3203600</v>
+      </c>
+    </row>
+    <row r="1442" spans="1:12">
+      <c r="A1442">
+        <v>1439</v>
+      </c>
+      <c r="B1442">
+        <v>626402</v>
+      </c>
+      <c r="C1442" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1442" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1442" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F1442" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G1442" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H1442" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I1442" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1442">
+        <v>1</v>
+      </c>
+      <c r="K1442">
+        <v>75</v>
+      </c>
+      <c r="L1442">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="1443" spans="1:12">
+      <c r="A1443">
+        <v>1440</v>
+      </c>
+      <c r="B1443">
+        <v>626402</v>
+      </c>
+      <c r="C1443" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1443" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1443" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F1443" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G1443" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H1443" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I1443" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1443">
+        <v>1</v>
+      </c>
+      <c r="K1443">
+        <v>520000</v>
+      </c>
+      <c r="L1443">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="1444" spans="1:12">
+      <c r="A1444">
+        <v>1441</v>
+      </c>
+      <c r="B1444">
+        <v>626402</v>
+      </c>
+      <c r="C1444" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1444" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1444" t="s">
+        <v>2037</v>
+      </c>
+      <c r="F1444" t="s">
+        <v>2038</v>
+      </c>
+      <c r="G1444" t="s">
+        <v>2039</v>
+      </c>
+      <c r="H1444" t="s">
+        <v>1495</v>
+      </c>
+      <c r="I1444" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1444">
+        <v>1</v>
+      </c>
+      <c r="K1444">
+        <v>72420</v>
+      </c>
+      <c r="L1444">
+        <v>72420</v>
+      </c>
+    </row>
+    <row r="1445" spans="1:12">
+      <c r="A1445">
+        <v>1442</v>
+      </c>
+      <c r="B1445">
+        <v>626402</v>
+      </c>
+      <c r="C1445" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1445" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1445" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F1445" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G1445" t="s">
+        <v>2042</v>
+      </c>
+      <c r="H1445" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1445" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1445">
+        <v>1</v>
+      </c>
+      <c r="K1445">
+        <v>146497495</v>
+      </c>
+      <c r="L1445">
+        <v>146497495</v>
+      </c>
+    </row>
+    <row r="1446" spans="1:12">
+      <c r="A1446">
+        <v>1443</v>
+      </c>
+      <c r="B1446">
+        <v>626402</v>
+      </c>
+      <c r="C1446" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1446" t="s">
+        <v>1888</v>
+      </c>
+      <c r="E1446" t="s">
+        <v>2043</v>
+      </c>
+      <c r="F1446" t="s">
+        <v>2044</v>
+      </c>
+      <c r="G1446" t="s">
+        <v>2045</v>
+      </c>
+      <c r="H1446" t="s">
+        <v>260</v>
+      </c>
+      <c r="I1446" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1446">
+        <v>1</v>
+      </c>
+      <c r="K1446">
+        <v>5490500</v>
+      </c>
+      <c r="L1446">
+        <v>5490500</v>
+      </c>
+    </row>
+    <row r="1447" spans="1:12">
+      <c r="A1447">
+        <v>1444</v>
+      </c>
+      <c r="B1447">
+        <v>626402</v>
+      </c>
+      <c r="C1447" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1447" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1447" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F1447" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G1447" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H1447" t="s">
+        <v>1492</v>
+      </c>
+      <c r="I1447" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1447">
+        <v>1</v>
+      </c>
+      <c r="K1447">
+        <v>3203600</v>
+      </c>
+      <c r="L1447">
+        <v>3203600</v>
+      </c>
+    </row>
+    <row r="1448" spans="1:12">
+      <c r="A1448">
+        <v>1445</v>
+      </c>
+      <c r="B1448">
+        <v>626402</v>
+      </c>
+      <c r="C1448" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1448" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1448" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F1448" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G1448" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H1448" t="s">
+        <v>1493</v>
+      </c>
+      <c r="I1448" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1448">
+        <v>1</v>
+      </c>
+      <c r="K1448">
+        <v>57</v>
+      </c>
+      <c r="L1448">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="1449" spans="1:12">
+      <c r="A1449">
+        <v>1446</v>
+      </c>
+      <c r="B1449">
+        <v>626402</v>
+      </c>
+      <c r="C1449" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1449" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1449" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F1449" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G1449" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H1449" t="s">
+        <v>1494</v>
+      </c>
+      <c r="I1449" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1449">
+        <v>1</v>
+      </c>
+      <c r="K1449">
+        <v>520000</v>
+      </c>
+      <c r="L1449">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="1450" spans="1:12">
+      <c r="A1450">
+        <v>1447</v>
+      </c>
+      <c r="B1450">
+        <v>626402</v>
+      </c>
+      <c r="C1450" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1450" t="s">
+        <v>1792</v>
+      </c>
+      <c r="E1450" t="s">
+        <v>2046</v>
+      </c>
+      <c r="F1450" t="s">
+        <v>2047</v>
+      </c>
+      <c r="G1450" t="s">
+        <v>2048</v>
+      </c>
+      <c r="H1450" t="s">
+        <v>1495</v>
+      </c>
+      <c r="I1450" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1450">
+        <v>1</v>
+      </c>
+      <c r="K1450">
+        <v>72420</v>
+      </c>
+      <c r="L1450">
+        <v>72420</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2213">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -6426,6 +6426,234 @@
   </si>
   <si>
     <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor: 34319170,34318714,34319371 Tanggal 28 Maret 2024 Tagihan AIR PAM Gd.BRSDM Ancol Bln.Februari 2024</t>
+  </si>
+  <si>
+    <t>2024-04-23</t>
+  </si>
+  <si>
+    <t>'00554T</t>
+  </si>
+  <si>
+    <t>'241751303012054</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.507/BPPSDM/KP.440/III/2024 Tanggal 19 Maret 2024 a.n I Nyoman Radiarta</t>
+  </si>
+  <si>
+    <t>'00555T</t>
+  </si>
+  <si>
+    <t>'241751303011975</t>
+  </si>
+  <si>
+    <t>'00556T</t>
+  </si>
+  <si>
+    <t>'241751303012061</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.2935/BPPSDM.1/KP.440/III/2024 Tanggal 19 Maret 2024 a.n Guruh Saputra, dkk</t>
+  </si>
+  <si>
+    <t>'00557T</t>
+  </si>
+  <si>
+    <t>'241751303012060</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 4 pegawai sesuai ST Nomor B.2753/BPPSDM.1/KP.440/III/2024 Tanggal 8 Maret 2024 a.n Suryadi, dkk</t>
+  </si>
+  <si>
+    <t>'00559T</t>
+  </si>
+  <si>
+    <t>'241751303011976</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan KKP untuk keperluan belanja barang (BPP 001 Set.BPPSDMKP)</t>
+  </si>
+  <si>
+    <t>'00560T</t>
+  </si>
+  <si>
+    <t>'241751303012057</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST Nomor B.2934/BPPSDM.1/KP.440/III/2024 Tanggal 19 Maret 2024 a.n Suryadi, dkk</t>
+  </si>
+  <si>
+    <t>'00561T</t>
+  </si>
+  <si>
+    <t>'241751303012055</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.572/BPPSDM/KP.440/III/2024 Tanggal 26 Maret 2024 a.n I Nyoman Radiarta</t>
+  </si>
+  <si>
+    <t>'00562T</t>
+  </si>
+  <si>
+    <t>'241751303012058</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3100/BPPSDM.1/KP.440/III/2024 Tanggal 26 Maret 2024 a.n I Wayan Purya Arnata</t>
+  </si>
+  <si>
+    <t>'00563T</t>
+  </si>
+  <si>
+    <t>'241751303012053</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja BarangPerjalanan Dinas untuk 3 pegawai sesuai ST Nomor B.3394/BPPSDM.1/KP.440/IV/2024 Tanggal 19 April 2024 a.n Asmara Damayanti, dkk</t>
+  </si>
+  <si>
+    <t>'00564T</t>
+  </si>
+  <si>
+    <t>'241751303012059</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja BarangPerjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3105/BPPSDM.1/KP.440/III/2024 Tanggal 26 Maret 2024 a.n I Wayan Purya Arnata</t>
+  </si>
+  <si>
+    <t>'00565T</t>
+  </si>
+  <si>
+    <t>'241751303012056</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja BarangPerjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.572/BPPSDM.1/KP.440/III/2024 Tanggal 26 Maret 2024 a.n I Nyoman Radiarta</t>
+  </si>
+  <si>
+    <t>2024-04-25</t>
+  </si>
+  <si>
+    <t>'00566T</t>
+  </si>
+  <si>
+    <t>'241751303012429</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja barang perdin untuk 2 pegawai sesuai ST Nomor B.545/BPPSDM.5/KP.440/III/2024 tanggal 31 Maret 2024 an.Mas Adi Pranggono dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2375AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0B.001427</t>
+  </si>
+  <si>
+    <t>2024-04-24</t>
+  </si>
+  <si>
+    <t>'00567T</t>
+  </si>
+  <si>
+    <t>'241751305000814</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:BR/03112024 Tanggal 12 Februari 2024</t>
+  </si>
+  <si>
+    <t>'00571T</t>
+  </si>
+  <si>
+    <t>'241751303012334</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3282/BPPSDM.1/KP.440/IV/2024 Tanggal 4 April 2024 a.n Amsari</t>
+  </si>
+  <si>
+    <t>'00572T</t>
+  </si>
+  <si>
+    <t>'241751303012336</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3282/BPPSDM.1/KP.440/IV/2024 Tanggal 4 April 2024 a.n Fajar Ali Gunawan</t>
+  </si>
+  <si>
+    <t>'00573T</t>
+  </si>
+  <si>
+    <t>'241751303012335</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.598/BPPSDM/KP.440/III/2024 Tanggal 28 Maret 2024 a.n I Nyoman Radiarta</t>
+  </si>
+  <si>
+    <t>'00574T</t>
+  </si>
+  <si>
+    <t>'241751303012337</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3168/BPPSDM.1/KP.440/III/2024 Tanggal 28 Maret 2024 a.n Wahyu Widodo</t>
+  </si>
+  <si>
+    <t>'00575T</t>
+  </si>
+  <si>
+    <t>'241751303012460</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.3255/BPPSDM.1/TU.330/IV/2024 Tanggal 3 April 2024 a.n Falsa Besti Pralampita, dkk</t>
+  </si>
+  <si>
+    <t>'00576T</t>
+  </si>
+  <si>
+    <t>'241751302012834</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:91A/KWT/STSK/PT/III/2024 Tanggal 4 Maret 2024</t>
+  </si>
+  <si>
+    <t>'00577T</t>
+  </si>
+  <si>
+    <t>'241751303012333</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan KKP untuk keperluan belanja barang  (BPP 001 Set.BPPSDM)</t>
+  </si>
+  <si>
+    <t>'00581T</t>
+  </si>
+  <si>
+    <t>'241751301012104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Sesuai Kuitansi Nomor:188/SERA/TRAC-JKT1/IV/2024 Tanggal 1 April 2024 </t>
+  </si>
+  <si>
+    <t>'00585T</t>
+  </si>
+  <si>
+    <t>'241751303012436</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3360/BPPSDM.1/KP.440/IV/2024 Tanggal 18 April 2024 a.n Dewi Ayu Utari</t>
+  </si>
+  <si>
+    <t>'00586T</t>
+  </si>
+  <si>
+    <t>'241751303012435</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.3360/BPPSDM.1/KP.440/IV/2024 Tanggal 18 April 2024 a.n Ifik Fabiyanto, dkk</t>
+  </si>
+  <si>
+    <t>2024-04-26</t>
+  </si>
+  <si>
+    <t>'00596T</t>
+  </si>
+  <si>
+    <t>'241751301012282</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:601/PPK/BPPSDM.1/III/2024 Tgl.15-3-2024,BAST No:BAST.1141/PPK/BPPSDM.1/IV/2024 Tgl.17-4-2024,BAP No:1142/PPK/BPPSDM.1/IV/2024 Tgl.17-4-2024 Jasa Pengembangan Fitur Dashboard Data Center BPPSDM</t>
   </si>
 </sst>
 </file>
@@ -6767,7 +6995,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L1483"/>
+  <dimension ref="A1:L1515"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -63059,6 +63287,1222 @@
       </c>
       <c r="L1483">
         <v>14659298</v>
+      </c>
+    </row>
+    <row r="1484" spans="1:12">
+      <c r="A1484">
+        <v>1481</v>
+      </c>
+      <c r="B1484">
+        <v>626402</v>
+      </c>
+      <c r="C1484" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1484" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1484" t="s">
+        <v>2138</v>
+      </c>
+      <c r="F1484" t="s">
+        <v>2139</v>
+      </c>
+      <c r="G1484" t="s">
+        <v>2140</v>
+      </c>
+      <c r="H1484" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1484" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1484">
+        <v>1</v>
+      </c>
+      <c r="K1484">
+        <v>2340000</v>
+      </c>
+      <c r="L1484">
+        <v>2340000</v>
+      </c>
+    </row>
+    <row r="1485" spans="1:12">
+      <c r="A1485">
+        <v>1482</v>
+      </c>
+      <c r="B1485">
+        <v>626402</v>
+      </c>
+      <c r="C1485" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1485" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E1485" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F1485" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G1485" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H1485" t="s">
+        <v>179</v>
+      </c>
+      <c r="I1485" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1485">
+        <v>1</v>
+      </c>
+      <c r="K1485">
+        <v>2746322</v>
+      </c>
+      <c r="L1485">
+        <v>2746322</v>
+      </c>
+    </row>
+    <row r="1486" spans="1:12">
+      <c r="A1486">
+        <v>1483</v>
+      </c>
+      <c r="B1486">
+        <v>626402</v>
+      </c>
+      <c r="C1486" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1486" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E1486" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F1486" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G1486" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H1486" t="s">
+        <v>379</v>
+      </c>
+      <c r="I1486" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1486">
+        <v>1</v>
+      </c>
+      <c r="K1486">
+        <v>1208000</v>
+      </c>
+      <c r="L1486">
+        <v>1208000</v>
+      </c>
+    </row>
+    <row r="1487" spans="1:12">
+      <c r="A1487">
+        <v>1484</v>
+      </c>
+      <c r="B1487">
+        <v>626402</v>
+      </c>
+      <c r="C1487" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1487" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E1487" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F1487" t="s">
+        <v>2142</v>
+      </c>
+      <c r="G1487" t="s">
+        <v>1672</v>
+      </c>
+      <c r="H1487" t="s">
+        <v>629</v>
+      </c>
+      <c r="I1487" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1487">
+        <v>1</v>
+      </c>
+      <c r="K1487">
+        <v>1459000</v>
+      </c>
+      <c r="L1487">
+        <v>1459000</v>
+      </c>
+    </row>
+    <row r="1488" spans="1:12">
+      <c r="A1488">
+        <v>1485</v>
+      </c>
+      <c r="B1488">
+        <v>626402</v>
+      </c>
+      <c r="C1488" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1488" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1488" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F1488" t="s">
+        <v>2144</v>
+      </c>
+      <c r="G1488" t="s">
+        <v>2145</v>
+      </c>
+      <c r="H1488" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1488" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1488">
+        <v>1</v>
+      </c>
+      <c r="K1488">
+        <v>2188500</v>
+      </c>
+      <c r="L1488">
+        <v>2188500</v>
+      </c>
+    </row>
+    <row r="1489" spans="1:12">
+      <c r="A1489">
+        <v>1486</v>
+      </c>
+      <c r="B1489">
+        <v>626402</v>
+      </c>
+      <c r="C1489" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1489" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1489" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F1489" t="s">
+        <v>2147</v>
+      </c>
+      <c r="G1489" t="s">
+        <v>2148</v>
+      </c>
+      <c r="H1489" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1489" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1489">
+        <v>1</v>
+      </c>
+      <c r="K1489">
+        <v>3341800</v>
+      </c>
+      <c r="L1489">
+        <v>3341800</v>
+      </c>
+    </row>
+    <row r="1490" spans="1:12">
+      <c r="A1490">
+        <v>1487</v>
+      </c>
+      <c r="B1490">
+        <v>626402</v>
+      </c>
+      <c r="C1490" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1490" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E1490" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F1490" t="s">
+        <v>2150</v>
+      </c>
+      <c r="G1490" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H1490" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1490" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1490">
+        <v>1</v>
+      </c>
+      <c r="K1490">
+        <v>2158625</v>
+      </c>
+      <c r="L1490">
+        <v>2158625</v>
+      </c>
+    </row>
+    <row r="1491" spans="1:12">
+      <c r="A1491">
+        <v>1488</v>
+      </c>
+      <c r="B1491">
+        <v>626402</v>
+      </c>
+      <c r="C1491" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1491" t="s">
+        <v>2106</v>
+      </c>
+      <c r="E1491" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F1491" t="s">
+        <v>2150</v>
+      </c>
+      <c r="G1491" t="s">
+        <v>2151</v>
+      </c>
+      <c r="H1491" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1491" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1491">
+        <v>1</v>
+      </c>
+      <c r="K1491">
+        <v>14515040</v>
+      </c>
+      <c r="L1491">
+        <v>14515040</v>
+      </c>
+    </row>
+    <row r="1492" spans="1:12">
+      <c r="A1492">
+        <v>1489</v>
+      </c>
+      <c r="B1492">
+        <v>626402</v>
+      </c>
+      <c r="C1492" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1492" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1492" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F1492" t="s">
+        <v>2153</v>
+      </c>
+      <c r="G1492" t="s">
+        <v>2154</v>
+      </c>
+      <c r="H1492" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1492" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1492">
+        <v>1</v>
+      </c>
+      <c r="K1492">
+        <v>4053000</v>
+      </c>
+      <c r="L1492">
+        <v>4053000</v>
+      </c>
+    </row>
+    <row r="1493" spans="1:12">
+      <c r="A1493">
+        <v>1490</v>
+      </c>
+      <c r="B1493">
+        <v>626402</v>
+      </c>
+      <c r="C1493" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1493" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1493" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F1493" t="s">
+        <v>2156</v>
+      </c>
+      <c r="G1493" t="s">
+        <v>2157</v>
+      </c>
+      <c r="H1493" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1493" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1493">
+        <v>1</v>
+      </c>
+      <c r="K1493">
+        <v>1830000</v>
+      </c>
+      <c r="L1493">
+        <v>1830000</v>
+      </c>
+    </row>
+    <row r="1494" spans="1:12">
+      <c r="A1494">
+        <v>1491</v>
+      </c>
+      <c r="B1494">
+        <v>626402</v>
+      </c>
+      <c r="C1494" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1494" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1494" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F1494" t="s">
+        <v>2159</v>
+      </c>
+      <c r="G1494" t="s">
+        <v>2160</v>
+      </c>
+      <c r="H1494" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1494" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1494">
+        <v>1</v>
+      </c>
+      <c r="K1494">
+        <v>805000</v>
+      </c>
+      <c r="L1494">
+        <v>805000</v>
+      </c>
+    </row>
+    <row r="1495" spans="1:12">
+      <c r="A1495">
+        <v>1492</v>
+      </c>
+      <c r="B1495">
+        <v>626402</v>
+      </c>
+      <c r="C1495" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1495" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1495" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F1495" t="s">
+        <v>2162</v>
+      </c>
+      <c r="G1495" t="s">
+        <v>2163</v>
+      </c>
+      <c r="H1495" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1495" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1495">
+        <v>1</v>
+      </c>
+      <c r="K1495">
+        <v>7986000</v>
+      </c>
+      <c r="L1495">
+        <v>7986000</v>
+      </c>
+    </row>
+    <row r="1496" spans="1:12">
+      <c r="A1496">
+        <v>1493</v>
+      </c>
+      <c r="B1496">
+        <v>626402</v>
+      </c>
+      <c r="C1496" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1496" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1496" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F1496" t="s">
+        <v>2165</v>
+      </c>
+      <c r="G1496" t="s">
+        <v>2166</v>
+      </c>
+      <c r="H1496" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1496" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1496">
+        <v>1</v>
+      </c>
+      <c r="K1496">
+        <v>175000</v>
+      </c>
+      <c r="L1496">
+        <v>175000</v>
+      </c>
+    </row>
+    <row r="1497" spans="1:12">
+      <c r="A1497">
+        <v>1494</v>
+      </c>
+      <c r="B1497">
+        <v>626402</v>
+      </c>
+      <c r="C1497" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1497" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1497" t="s">
+        <v>2167</v>
+      </c>
+      <c r="F1497" t="s">
+        <v>2168</v>
+      </c>
+      <c r="G1497" t="s">
+        <v>2169</v>
+      </c>
+      <c r="H1497" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1497" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1497">
+        <v>1</v>
+      </c>
+      <c r="K1497">
+        <v>1200000</v>
+      </c>
+      <c r="L1497">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="1498" spans="1:12">
+      <c r="A1498">
+        <v>1495</v>
+      </c>
+      <c r="B1498">
+        <v>626402</v>
+      </c>
+      <c r="C1498" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1498" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E1498" t="s">
+        <v>2171</v>
+      </c>
+      <c r="F1498" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G1498" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H1498" t="s">
+        <v>2174</v>
+      </c>
+      <c r="I1498" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1498">
+        <v>1</v>
+      </c>
+      <c r="K1498">
+        <v>686000</v>
+      </c>
+      <c r="L1498">
+        <v>686000</v>
+      </c>
+    </row>
+    <row r="1499" spans="1:12">
+      <c r="A1499">
+        <v>1496</v>
+      </c>
+      <c r="B1499">
+        <v>626402</v>
+      </c>
+      <c r="C1499" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1499" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E1499" t="s">
+        <v>2171</v>
+      </c>
+      <c r="F1499" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G1499" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H1499" t="s">
+        <v>455</v>
+      </c>
+      <c r="I1499" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1499">
+        <v>1</v>
+      </c>
+      <c r="K1499">
+        <v>2580000</v>
+      </c>
+      <c r="L1499">
+        <v>2580000</v>
+      </c>
+    </row>
+    <row r="1500" spans="1:12">
+      <c r="A1500">
+        <v>1497</v>
+      </c>
+      <c r="B1500">
+        <v>626402</v>
+      </c>
+      <c r="C1500" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1500" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E1500" t="s">
+        <v>2171</v>
+      </c>
+      <c r="F1500" t="s">
+        <v>2172</v>
+      </c>
+      <c r="G1500" t="s">
+        <v>2173</v>
+      </c>
+      <c r="H1500" t="s">
+        <v>456</v>
+      </c>
+      <c r="I1500" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1500">
+        <v>1</v>
+      </c>
+      <c r="K1500">
+        <v>875000</v>
+      </c>
+      <c r="L1500">
+        <v>875000</v>
+      </c>
+    </row>
+    <row r="1501" spans="1:12">
+      <c r="A1501">
+        <v>1498</v>
+      </c>
+      <c r="B1501">
+        <v>626402</v>
+      </c>
+      <c r="C1501" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1501" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E1501" t="s">
+        <v>2176</v>
+      </c>
+      <c r="F1501" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G1501" t="s">
+        <v>2178</v>
+      </c>
+      <c r="H1501" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1501" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1501">
+        <v>1</v>
+      </c>
+      <c r="K1501">
+        <v>31950000</v>
+      </c>
+      <c r="L1501">
+        <v>31950000</v>
+      </c>
+    </row>
+    <row r="1502" spans="1:12">
+      <c r="A1502">
+        <v>1499</v>
+      </c>
+      <c r="B1502">
+        <v>626402</v>
+      </c>
+      <c r="C1502" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1502" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E1502" t="s">
+        <v>2179</v>
+      </c>
+      <c r="F1502" t="s">
+        <v>2180</v>
+      </c>
+      <c r="G1502" t="s">
+        <v>2181</v>
+      </c>
+      <c r="H1502" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1502" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1502">
+        <v>1</v>
+      </c>
+      <c r="K1502">
+        <v>881000</v>
+      </c>
+      <c r="L1502">
+        <v>881000</v>
+      </c>
+    </row>
+    <row r="1503" spans="1:12">
+      <c r="A1503">
+        <v>1500</v>
+      </c>
+      <c r="B1503">
+        <v>626402</v>
+      </c>
+      <c r="C1503" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1503" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E1503" t="s">
+        <v>2182</v>
+      </c>
+      <c r="F1503" t="s">
+        <v>2183</v>
+      </c>
+      <c r="G1503" t="s">
+        <v>2184</v>
+      </c>
+      <c r="H1503" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1503" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1503">
+        <v>1</v>
+      </c>
+      <c r="K1503">
+        <v>430000</v>
+      </c>
+      <c r="L1503">
+        <v>430000</v>
+      </c>
+    </row>
+    <row r="1504" spans="1:12">
+      <c r="A1504">
+        <v>1501</v>
+      </c>
+      <c r="B1504">
+        <v>626402</v>
+      </c>
+      <c r="C1504" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1504" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E1504" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F1504" t="s">
+        <v>2186</v>
+      </c>
+      <c r="G1504" t="s">
+        <v>2187</v>
+      </c>
+      <c r="H1504" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1504" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1504">
+        <v>1</v>
+      </c>
+      <c r="K1504">
+        <v>1790000</v>
+      </c>
+      <c r="L1504">
+        <v>1790000</v>
+      </c>
+    </row>
+    <row r="1505" spans="1:12">
+      <c r="A1505">
+        <v>1502</v>
+      </c>
+      <c r="B1505">
+        <v>626402</v>
+      </c>
+      <c r="C1505" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1505" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E1505" t="s">
+        <v>2188</v>
+      </c>
+      <c r="F1505" t="s">
+        <v>2189</v>
+      </c>
+      <c r="G1505" t="s">
+        <v>2190</v>
+      </c>
+      <c r="H1505" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1505" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1505">
+        <v>1</v>
+      </c>
+      <c r="K1505">
+        <v>774500</v>
+      </c>
+      <c r="L1505">
+        <v>774500</v>
+      </c>
+    </row>
+    <row r="1506" spans="1:12">
+      <c r="A1506">
+        <v>1503</v>
+      </c>
+      <c r="B1506">
+        <v>626402</v>
+      </c>
+      <c r="C1506" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1506" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E1506" t="s">
+        <v>2191</v>
+      </c>
+      <c r="F1506" t="s">
+        <v>2192</v>
+      </c>
+      <c r="G1506" t="s">
+        <v>2193</v>
+      </c>
+      <c r="H1506" t="s">
+        <v>660</v>
+      </c>
+      <c r="I1506" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1506">
+        <v>1</v>
+      </c>
+      <c r="K1506">
+        <v>5874243</v>
+      </c>
+      <c r="L1506">
+        <v>5874243</v>
+      </c>
+    </row>
+    <row r="1507" spans="1:12">
+      <c r="A1507">
+        <v>1504</v>
+      </c>
+      <c r="B1507">
+        <v>626402</v>
+      </c>
+      <c r="C1507" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1507" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E1507" t="s">
+        <v>2194</v>
+      </c>
+      <c r="F1507" t="s">
+        <v>2195</v>
+      </c>
+      <c r="G1507" t="s">
+        <v>2196</v>
+      </c>
+      <c r="H1507" t="s">
+        <v>199</v>
+      </c>
+      <c r="I1507" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1507">
+        <v>1</v>
+      </c>
+      <c r="K1507">
+        <v>22240000</v>
+      </c>
+      <c r="L1507">
+        <v>22240000</v>
+      </c>
+    </row>
+    <row r="1508" spans="1:12">
+      <c r="A1508">
+        <v>1505</v>
+      </c>
+      <c r="B1508">
+        <v>626402</v>
+      </c>
+      <c r="C1508" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1508" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1508" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F1508" t="s">
+        <v>2198</v>
+      </c>
+      <c r="G1508" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H1508" t="s">
+        <v>267</v>
+      </c>
+      <c r="I1508" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1508">
+        <v>1</v>
+      </c>
+      <c r="K1508">
+        <v>1757120</v>
+      </c>
+      <c r="L1508">
+        <v>1757120</v>
+      </c>
+    </row>
+    <row r="1509" spans="1:12">
+      <c r="A1509">
+        <v>1506</v>
+      </c>
+      <c r="B1509">
+        <v>626402</v>
+      </c>
+      <c r="C1509" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1509" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1509" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F1509" t="s">
+        <v>2198</v>
+      </c>
+      <c r="G1509" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H1509" t="s">
+        <v>499</v>
+      </c>
+      <c r="I1509" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1509">
+        <v>1</v>
+      </c>
+      <c r="K1509">
+        <v>706526</v>
+      </c>
+      <c r="L1509">
+        <v>706526</v>
+      </c>
+    </row>
+    <row r="1510" spans="1:12">
+      <c r="A1510">
+        <v>1507</v>
+      </c>
+      <c r="B1510">
+        <v>626402</v>
+      </c>
+      <c r="C1510" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1510" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1510" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F1510" t="s">
+        <v>2198</v>
+      </c>
+      <c r="G1510" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H1510" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1510" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1510">
+        <v>1</v>
+      </c>
+      <c r="K1510">
+        <v>274016</v>
+      </c>
+      <c r="L1510">
+        <v>274016</v>
+      </c>
+    </row>
+    <row r="1511" spans="1:12">
+      <c r="A1511">
+        <v>1508</v>
+      </c>
+      <c r="B1511">
+        <v>626402</v>
+      </c>
+      <c r="C1511" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1511" t="s">
+        <v>2137</v>
+      </c>
+      <c r="E1511" t="s">
+        <v>2197</v>
+      </c>
+      <c r="F1511" t="s">
+        <v>2198</v>
+      </c>
+      <c r="G1511" t="s">
+        <v>2199</v>
+      </c>
+      <c r="H1511" t="s">
+        <v>275</v>
+      </c>
+      <c r="I1511" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1511">
+        <v>1</v>
+      </c>
+      <c r="K1511">
+        <v>15461257</v>
+      </c>
+      <c r="L1511">
+        <v>15461257</v>
+      </c>
+    </row>
+    <row r="1512" spans="1:12">
+      <c r="A1512">
+        <v>1509</v>
+      </c>
+      <c r="B1512">
+        <v>626402</v>
+      </c>
+      <c r="C1512" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1512" t="s">
+        <v>2175</v>
+      </c>
+      <c r="E1512" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F1512" t="s">
+        <v>2201</v>
+      </c>
+      <c r="G1512" t="s">
+        <v>2202</v>
+      </c>
+      <c r="H1512" t="s">
+        <v>917</v>
+      </c>
+      <c r="I1512" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1512">
+        <v>1</v>
+      </c>
+      <c r="K1512">
+        <v>25000000</v>
+      </c>
+      <c r="L1512">
+        <v>25000000</v>
+      </c>
+    </row>
+    <row r="1513" spans="1:12">
+      <c r="A1513">
+        <v>1510</v>
+      </c>
+      <c r="B1513">
+        <v>626402</v>
+      </c>
+      <c r="C1513" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1513" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E1513" t="s">
+        <v>2203</v>
+      </c>
+      <c r="F1513" t="s">
+        <v>2204</v>
+      </c>
+      <c r="G1513" t="s">
+        <v>2205</v>
+      </c>
+      <c r="H1513" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1513" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1513">
+        <v>1</v>
+      </c>
+      <c r="K1513">
+        <v>2662000</v>
+      </c>
+      <c r="L1513">
+        <v>2662000</v>
+      </c>
+    </row>
+    <row r="1514" spans="1:12">
+      <c r="A1514">
+        <v>1511</v>
+      </c>
+      <c r="B1514">
+        <v>626402</v>
+      </c>
+      <c r="C1514" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1514" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E1514" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F1514" t="s">
+        <v>2207</v>
+      </c>
+      <c r="G1514" t="s">
+        <v>2208</v>
+      </c>
+      <c r="H1514" t="s">
+        <v>1459</v>
+      </c>
+      <c r="I1514" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1514">
+        <v>1</v>
+      </c>
+      <c r="K1514">
+        <v>5324000</v>
+      </c>
+      <c r="L1514">
+        <v>5324000</v>
+      </c>
+    </row>
+    <row r="1515" spans="1:12">
+      <c r="A1515">
+        <v>1512</v>
+      </c>
+      <c r="B1515">
+        <v>626402</v>
+      </c>
+      <c r="C1515" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1515" t="s">
+        <v>2209</v>
+      </c>
+      <c r="E1515" t="s">
+        <v>2210</v>
+      </c>
+      <c r="F1515" t="s">
+        <v>2211</v>
+      </c>
+      <c r="G1515" t="s">
+        <v>2212</v>
+      </c>
+      <c r="H1515" t="s">
+        <v>838</v>
+      </c>
+      <c r="I1515" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1515">
+        <v>1</v>
+      </c>
+      <c r="K1515">
+        <v>87000000</v>
+      </c>
+      <c r="L1515">
+        <v>87000000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2611">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -7037,39 +7037,6 @@
     <t>Pembayaran Belanja Barang. Jasa Profesi Reviewer Penelitian Terapan Terpusat an. Friesland dan Masudin , dkk sesuai SK PPK No KEP.36/BPPSDM.4/II/2024 tgl 20 Februari 2024, Surat Perintah Plt. Pusdik NoB.424/BPPSDM.4/K P.440/II/2024 tgl 20 Feb 2024</t>
   </si>
   <si>
-    <t>'00610T</t>
-  </si>
-  <si>
-    <t>'241751303013524</t>
-  </si>
-  <si>
-    <t>'626402.175.521211.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0B.000209</t>
-  </si>
-  <si>
-    <t>'626402.175.521211.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0B.000237</t>
-  </si>
-  <si>
-    <t>'626402.175.521211.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.301.0J.001669</t>
-  </si>
-  <si>
-    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0G.001719</t>
-  </si>
-  <si>
-    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0J.001711</t>
-  </si>
-  <si>
-    <t>'626402.175.521219.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.301.0J.001676</t>
-  </si>
-  <si>
-    <t>'626402.175.521811.03212DL.2376ABW.A000000001.00000.1.0151.2.000000.000000.001.051.0A.000181</t>
-  </si>
-  <si>
-    <t>'626402.175.521811.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0A.000219</t>
-  </si>
-  <si>
-    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0I.001710</t>
-  </si>
-  <si>
     <t>'00612T</t>
   </si>
   <si>
@@ -7448,6 +7415,18 @@
     <t>Pembayaran Belanja Barang. Perdin Jkt-Sda (PP) tgl 19-20 April 2024 keg. koordinasi pentaru ta.2024/2025 an. Tri N sesuai ST No B.873/BPPSDM.4/KP.440/IV/2024 Tgl 18/4/2024</t>
   </si>
   <si>
+    <t>2024-05-14</t>
+  </si>
+  <si>
+    <t>'00655T</t>
+  </si>
+  <si>
+    <t>'241751303014530</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Sda (PP) tgl 19-20 April 2024 keg. koordinasi pentaru ta.2024/2025 an. Yushar sesuai ST No B.873/BPPSDM.4/KP.440/IV/2024 Tgl 18/4/2024</t>
+  </si>
+  <si>
     <t>'00656T</t>
   </si>
   <si>
@@ -7542,6 +7521,333 @@
   </si>
   <si>
     <t>'626402.175.522119.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.102.0C.001733</t>
+  </si>
+  <si>
+    <t>2024-05-13</t>
+  </si>
+  <si>
+    <t>'00666T</t>
+  </si>
+  <si>
+    <t>'241751303014369</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 5 pegawai sesuai ST Nomor B.3357/BPPSDM.1/KP.400/IV/2024 Tanggal 17 April a.n Tri Yuwono, dkk</t>
+  </si>
+  <si>
+    <t>'00667T</t>
+  </si>
+  <si>
+    <t>'241751303014402</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3357/BPPSDM.1/KP.400/IV/2024 Tanggal 17 April a.n Ariesta Putri</t>
+  </si>
+  <si>
+    <t>'00668T</t>
+  </si>
+  <si>
+    <t>'241751303014368</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST Nomor B.3264/BPPSDM.1/KP.400/IV/2024 Tanggal 3 April a.n Indriani Musthapia, dkk</t>
+  </si>
+  <si>
+    <t>'00669T</t>
+  </si>
+  <si>
+    <t>'241751303014403</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3264/BPPSDM.1/KP.400/IV/2024 Tanggal 3 April a.n Ariesta Putri</t>
+  </si>
+  <si>
+    <t>'00670T</t>
+  </si>
+  <si>
+    <t>'241751303014371</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST Nomor B.3484/BPPSDM.1/KP.400/IV/2024 Tanggal 25 April a.n Rahayu Boru Sirait, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0B.000895</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0B.000896</t>
+  </si>
+  <si>
+    <t>'00671T</t>
+  </si>
+  <si>
+    <t>'241751303014366</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.3467/BPPSDM.1/KP.400/IV/2024 Tanggal 24 April a.n Nurhayati, dkk</t>
+  </si>
+  <si>
+    <t>2024-05-08</t>
+  </si>
+  <si>
+    <t>'00672T</t>
+  </si>
+  <si>
+    <t>'241751303014354</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(Pembayaran uang makan pegawai Puslatluh bulan April 2024 untuk 33 pegawai)</t>
+  </si>
+  <si>
+    <t>'00673T</t>
+  </si>
+  <si>
+    <t>'241751303014384</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3295/BPPSDM.1/KP.400/IV/2024 Tanggal 4 April a.n Eka Sunahwati</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.101.0A.000830</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.101.0A.000831</t>
+  </si>
+  <si>
+    <t>'00674T</t>
+  </si>
+  <si>
+    <t>'241751303014335</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Sekretariat BPPSDM bulan April 2024 untuk 74 pegawai)</t>
+  </si>
+  <si>
+    <t>'00675T</t>
+  </si>
+  <si>
+    <t>'241751305000959</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan pegawai Sekretariat BPPSDM bulan April 2024 untuk 2 pegawai)</t>
+  </si>
+  <si>
+    <t>'00676T</t>
+  </si>
+  <si>
+    <t>'241751303014336</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan PPPK sekretariat BPPSDM bulan April 2024 untuk 2 pegawai)</t>
+  </si>
+  <si>
+    <t>'00677T</t>
+  </si>
+  <si>
+    <t>'241751303014370</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 7 pegawai sesuai ST Nomor B.3256,B.3259/BPPSDM.1/KP.400/IV/2024 Tanggal 15 April a.n Ester Sulistyawati, dkk</t>
+  </si>
+  <si>
+    <t>'00678T</t>
+  </si>
+  <si>
+    <t>'241751303014401</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3259/BPPSDM.1/KP.400/IV/2024 Tanggal 15 April a.n Fani Aryanto</t>
+  </si>
+  <si>
+    <t>'00679T</t>
+  </si>
+  <si>
+    <t>'241751303014383</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.3350/BPPSDM.1/KP.400/IV/2024 Tanggal 17 April a.n Asep Sutiana, dkk</t>
+  </si>
+  <si>
+    <t>'00680T</t>
+  </si>
+  <si>
+    <t>'241751303014386</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST Nomor B.3424/BPPSDM.1/KP.400/IV/2024 Tanggal 22 April a.n Putut Erie, dkk</t>
+  </si>
+  <si>
+    <t>'00681T</t>
+  </si>
+  <si>
+    <t>'241751303014367</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3259/BPPSDM.1/KP.400/IV/2024 Tanggal 15 April a.n Elsa Novrita Sari</t>
+  </si>
+  <si>
+    <t>'00682T</t>
+  </si>
+  <si>
+    <t>'241751303014353</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan pegawai Pusdik bulan April tahun 2024 untuk 41 Pegawai.</t>
+  </si>
+  <si>
+    <t>'00683T</t>
+  </si>
+  <si>
+    <t>'241751303014337</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran uang makan PPPK Pusdik bulan April 2024 untuk 1 pegawai)</t>
+  </si>
+  <si>
+    <t>'00684T</t>
+  </si>
+  <si>
+    <t>'241751303014364</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SK no:KEP.19/MEN-KP/KU.611/2022 Tgl.4-3-2022,SK No:KEPMEN KP Nomor 3 Thn 2024 Tgl.1-3-2024,KEP.202 Thn 2024 Tgl.1-3-2024,SK No:KEP.375,377,378,379,380,381,382/KPA/BPPSDMKP/IV/2024 Tgl.1-4-2024 Honorarium PA Bln.April 2024</t>
+  </si>
+  <si>
+    <t>'00685T</t>
+  </si>
+  <si>
+    <t>'241751301014403</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:1001/PPK/BPPSDM.01/IV/2024 Tgl.1-4-2024,BAST No:1081/PPK/BPPSDM.1/IV/2024 Tgl.5-4-2024,BAP No:1082/PPK/BPPSDM.1/IV/2024 Tgl.5-4-2024,SPKPBJ No:256/SERA/TRAC-JKT1/AH/IV/2024 Tgl.5-4-2024 Pengadaan Sewa Kendaraan</t>
+  </si>
+  <si>
+    <t>'00686T</t>
+  </si>
+  <si>
+    <t>'241751303014529</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang. Perdin Jkt-Ancol-Bogor(PP) an. Galuh dan Eli sesuai ST No B.654/BPPSDM.4/KP.440/III/2024 Tgl 15/3/2024, dst keg. koordinasi pelaksanaan anggaran dan kinerja lingkup BPPSDMKP th 2024 dst </t>
+  </si>
+  <si>
+    <t>'00689T</t>
+  </si>
+  <si>
+    <t>'241751303014385</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST Nomor B.3346/BPPSDM.1/KP.400/IV/2024 Tanggal 17 April a.n Liana Sari, dkk</t>
+  </si>
+  <si>
+    <t>'00690T</t>
+  </si>
+  <si>
+    <t>'241751303014365</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.301,B.3608/BPPSDM.1/KP.400/V/2024 Tanggal 2 dan 3 Mei 2024 a.n I Nyoman Radiarta, dkk</t>
+  </si>
+  <si>
+    <t>'00691T</t>
+  </si>
+  <si>
+    <t>'241751303014528</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Jasa Profesi Reviewer Penelitian Terapan Terpusat an. Indah dan Adi SK PPK No KEP.36/BPPSDM.4/II/2024 tgl 20 Februari 2024, Surat Perintah Plt. Pusdik NoB.424/BPPSDM.4/K P.440 /II/2024 tgl 20 Feb 2024</t>
+  </si>
+  <si>
+    <t>'00692T</t>
+  </si>
+  <si>
+    <t>'241751303014540</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan PPPK pusdik bulan Maret tahun 2024 untuk 1 Pegawai.</t>
+  </si>
+  <si>
+    <t>'626402.175.512414.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.001.GB.001690</t>
+  </si>
+  <si>
+    <t>'00693T</t>
+  </si>
+  <si>
+    <t>'241751303014541</t>
+  </si>
+  <si>
+    <t>Pembayaran tunjangan kinerja susulan PPPK Pusdik bulan April tahun 2024 untuk 1 Pegawai/Anggota Polri/Prajurit TNI.</t>
+  </si>
+  <si>
+    <t>'00694T</t>
+  </si>
+  <si>
+    <t>'241751303014535</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3646/BPPSDM.1/KP.440/V/2024 Tanggal 6 Mei 2024 a.n Edwin Lutfi</t>
+  </si>
+  <si>
+    <t>'00695T</t>
+  </si>
+  <si>
+    <t>'241751303014537</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:08/K/TD/IV/2024 Tanggal 29 April 2024</t>
+  </si>
+  <si>
+    <t>'00696T</t>
+  </si>
+  <si>
+    <t>'241751301014402</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:045/NNI/IV/24 Tanggal 30 April 2024</t>
+  </si>
+  <si>
+    <t>'00699T</t>
+  </si>
+  <si>
+    <t>'241751303014534</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang perjalanan dinas untuk 2 pegawai Sesuai ST No:B.3277/BPPSDM.1/KP.440/IV/2024 Tgl.4-4-2024 a.n.Hardian Kumara,dkk.</t>
+  </si>
+  <si>
+    <t>'00701T</t>
+  </si>
+  <si>
+    <t>'241751303014538</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang perjalanan dinas untuk 3 pegawai sesuai ST No:B.3394/BPPSDM.1/KP.440/IV/2024 Tgl.19-4-2024 a.n.Asmara Damayanti,dkk. </t>
+  </si>
+  <si>
+    <t>'00703T</t>
+  </si>
+  <si>
+    <t>'241751303014539</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang perjalanan dinas untuk 2 pegawai sesuai ST No:B.3438/BPPSDM.1/KP.440/IV/2024 Tgl.23-4-2024 a.n.Ollyvia Maria,dkk.</t>
+  </si>
+  <si>
+    <t>'00705T</t>
+  </si>
+  <si>
+    <t>'241751303014536</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang perjalanan dinas untuk 2 pegawai sesuai ST No:B.3360/BPPSDM.1/KP.440/IV/2024 Tgl.18-4-2024 a.n.Penie Lekasari,dkk.</t>
+  </si>
+  <si>
+    <t>'00708T</t>
+  </si>
+  <si>
+    <t>'241751303014531</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang perjalanan dinas untuk 1 pegawai sesuai ST No:B.3360/BPPSDM.1/KP.440/IV/2024 Tgl.18-4-2024 a.n.Dewi Ayu Utari</t>
   </si>
 </sst>
 </file>
@@ -7883,7 +8189,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L1766"/>
+  <dimension ref="A1:L1787"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -70619,10 +70925,10 @@
         <v>2341</v>
       </c>
       <c r="G1653" t="s">
-        <v>1507</v>
+        <v>2342</v>
       </c>
       <c r="H1653" t="s">
-        <v>941</v>
+        <v>392</v>
       </c>
       <c r="I1653" t="s">
         <v>19</v>
@@ -70631,10 +70937,10 @@
         <v>1</v>
       </c>
       <c r="K1653">
-        <v>850000</v>
+        <v>196234560</v>
       </c>
       <c r="L1653">
-        <v>850000</v>
+        <v>196234560</v>
       </c>
     </row>
     <row r="1654" spans="1:12">
@@ -70648,19 +70954,19 @@
         <v>13</v>
       </c>
       <c r="D1654" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1654" t="s">
-        <v>2340</v>
+        <v>2343</v>
       </c>
       <c r="F1654" t="s">
-        <v>2341</v>
+        <v>2344</v>
       </c>
       <c r="G1654" t="s">
-        <v>1507</v>
+        <v>2345</v>
       </c>
       <c r="H1654" t="s">
-        <v>942</v>
+        <v>2293</v>
       </c>
       <c r="I1654" t="s">
         <v>19</v>
@@ -70669,10 +70975,10 @@
         <v>1</v>
       </c>
       <c r="K1654">
-        <v>70000</v>
+        <v>15345972</v>
       </c>
       <c r="L1654">
-        <v>70000</v>
+        <v>15345972</v>
       </c>
     </row>
     <row r="1655" spans="1:12">
@@ -70686,19 +70992,19 @@
         <v>13</v>
       </c>
       <c r="D1655" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1655" t="s">
-        <v>2340</v>
+        <v>2346</v>
       </c>
       <c r="F1655" t="s">
-        <v>2341</v>
+        <v>2347</v>
       </c>
       <c r="G1655" t="s">
-        <v>1507</v>
+        <v>2348</v>
       </c>
       <c r="H1655" t="s">
-        <v>945</v>
+        <v>708</v>
       </c>
       <c r="I1655" t="s">
         <v>19</v>
@@ -70707,10 +71013,10 @@
         <v>1</v>
       </c>
       <c r="K1655">
-        <v>1400000</v>
+        <v>340000</v>
       </c>
       <c r="L1655">
-        <v>1400000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="1656" spans="1:12">
@@ -70724,19 +71030,19 @@
         <v>13</v>
       </c>
       <c r="D1656" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1656" t="s">
-        <v>2340</v>
+        <v>2349</v>
       </c>
       <c r="F1656" t="s">
-        <v>2341</v>
+        <v>2350</v>
       </c>
       <c r="G1656" t="s">
-        <v>1507</v>
+        <v>2351</v>
       </c>
       <c r="H1656" t="s">
-        <v>946</v>
+        <v>128</v>
       </c>
       <c r="I1656" t="s">
         <v>19</v>
@@ -70745,10 +71051,10 @@
         <v>1</v>
       </c>
       <c r="K1656">
-        <v>440000</v>
+        <v>4114620</v>
       </c>
       <c r="L1656">
-        <v>440000</v>
+        <v>4114620</v>
       </c>
     </row>
     <row r="1657" spans="1:12">
@@ -70762,19 +71068,19 @@
         <v>13</v>
       </c>
       <c r="D1657" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1657" t="s">
-        <v>2340</v>
+        <v>2352</v>
       </c>
       <c r="F1657" t="s">
-        <v>2341</v>
+        <v>2353</v>
       </c>
       <c r="G1657" t="s">
-        <v>1507</v>
+        <v>2354</v>
       </c>
       <c r="H1657" t="s">
-        <v>680</v>
+        <v>128</v>
       </c>
       <c r="I1657" t="s">
         <v>19</v>
@@ -70783,10 +71089,10 @@
         <v>1</v>
       </c>
       <c r="K1657">
-        <v>2281300</v>
+        <v>860000</v>
       </c>
       <c r="L1657">
-        <v>2281300</v>
+        <v>860000</v>
       </c>
     </row>
     <row r="1658" spans="1:12">
@@ -70800,19 +71106,19 @@
         <v>13</v>
       </c>
       <c r="D1658" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1658" t="s">
-        <v>2340</v>
+        <v>2355</v>
       </c>
       <c r="F1658" t="s">
-        <v>2341</v>
+        <v>2356</v>
       </c>
       <c r="G1658" t="s">
-        <v>1507</v>
+        <v>2357</v>
       </c>
       <c r="H1658" t="s">
-        <v>681</v>
+        <v>1754</v>
       </c>
       <c r="I1658" t="s">
         <v>19</v>
@@ -70821,10 +71127,10 @@
         <v>1</v>
       </c>
       <c r="K1658">
-        <v>999750</v>
+        <v>1800000</v>
       </c>
       <c r="L1658">
-        <v>999750</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="1659" spans="1:12">
@@ -70838,19 +71144,19 @@
         <v>13</v>
       </c>
       <c r="D1659" t="s">
-        <v>2283</v>
+        <v>2358</v>
       </c>
       <c r="E1659" t="s">
-        <v>2340</v>
+        <v>2359</v>
       </c>
       <c r="F1659" t="s">
-        <v>2341</v>
+        <v>2360</v>
       </c>
       <c r="G1659" t="s">
-        <v>1507</v>
+        <v>2361</v>
       </c>
       <c r="H1659" t="s">
-        <v>1515</v>
+        <v>2362</v>
       </c>
       <c r="I1659" t="s">
         <v>19</v>
@@ -70859,10 +71165,10 @@
         <v>1</v>
       </c>
       <c r="K1659">
-        <v>6941100</v>
+        <v>4323450</v>
       </c>
       <c r="L1659">
-        <v>6941100</v>
+        <v>4323450</v>
       </c>
     </row>
     <row r="1660" spans="1:12">
@@ -70876,19 +71182,19 @@
         <v>13</v>
       </c>
       <c r="D1660" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1660" t="s">
-        <v>2340</v>
+        <v>2363</v>
       </c>
       <c r="F1660" t="s">
-        <v>2341</v>
+        <v>2364</v>
       </c>
       <c r="G1660" t="s">
-        <v>1507</v>
+        <v>2365</v>
       </c>
       <c r="H1660" t="s">
-        <v>683</v>
+        <v>1754</v>
       </c>
       <c r="I1660" t="s">
         <v>19</v>
@@ -70897,10 +71203,10 @@
         <v>1</v>
       </c>
       <c r="K1660">
-        <v>288000</v>
+        <v>1350000</v>
       </c>
       <c r="L1660">
-        <v>288000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="1661" spans="1:12">
@@ -70914,19 +71220,19 @@
         <v>13</v>
       </c>
       <c r="D1661" t="s">
-        <v>2283</v>
+        <v>2358</v>
       </c>
       <c r="E1661" t="s">
-        <v>2340</v>
+        <v>2366</v>
       </c>
       <c r="F1661" t="s">
-        <v>2341</v>
+        <v>2367</v>
       </c>
       <c r="G1661" t="s">
-        <v>1507</v>
+        <v>2368</v>
       </c>
       <c r="H1661" t="s">
-        <v>2342</v>
+        <v>646</v>
       </c>
       <c r="I1661" t="s">
         <v>19</v>
@@ -70935,10 +71241,10 @@
         <v>1</v>
       </c>
       <c r="K1661">
-        <v>800000</v>
+        <v>6259290</v>
       </c>
       <c r="L1661">
-        <v>800000</v>
+        <v>6259290</v>
       </c>
     </row>
     <row r="1662" spans="1:12">
@@ -70952,19 +71258,19 @@
         <v>13</v>
       </c>
       <c r="D1662" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1662" t="s">
-        <v>2340</v>
+        <v>2369</v>
       </c>
       <c r="F1662" t="s">
-        <v>2341</v>
+        <v>2370</v>
       </c>
       <c r="G1662" t="s">
-        <v>1507</v>
+        <v>2371</v>
       </c>
       <c r="H1662" t="s">
-        <v>2343</v>
+        <v>1754</v>
       </c>
       <c r="I1662" t="s">
         <v>19</v>
@@ -70973,10 +71279,10 @@
         <v>1</v>
       </c>
       <c r="K1662">
-        <v>1498750</v>
+        <v>2550000</v>
       </c>
       <c r="L1662">
-        <v>1498750</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="1663" spans="1:12">
@@ -70990,19 +71296,19 @@
         <v>13</v>
       </c>
       <c r="D1663" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1663" t="s">
-        <v>2340</v>
+        <v>2372</v>
       </c>
       <c r="F1663" t="s">
-        <v>2341</v>
+        <v>2373</v>
       </c>
       <c r="G1663" t="s">
-        <v>1507</v>
+        <v>2374</v>
       </c>
       <c r="H1663" t="s">
-        <v>2344</v>
+        <v>708</v>
       </c>
       <c r="I1663" t="s">
         <v>19</v>
@@ -71011,10 +71317,10 @@
         <v>1</v>
       </c>
       <c r="K1663">
-        <v>752000</v>
+        <v>8392620</v>
       </c>
       <c r="L1663">
-        <v>752000</v>
+        <v>8392620</v>
       </c>
     </row>
     <row r="1664" spans="1:12">
@@ -71028,19 +71334,19 @@
         <v>13</v>
       </c>
       <c r="D1664" t="s">
-        <v>2283</v>
+        <v>2358</v>
       </c>
       <c r="E1664" t="s">
-        <v>2340</v>
+        <v>2375</v>
       </c>
       <c r="F1664" t="s">
-        <v>2341</v>
+        <v>2376</v>
       </c>
       <c r="G1664" t="s">
-        <v>1507</v>
+        <v>2377</v>
       </c>
       <c r="H1664" t="s">
-        <v>207</v>
+        <v>646</v>
       </c>
       <c r="I1664" t="s">
         <v>19</v>
@@ -71049,10 +71355,10 @@
         <v>1</v>
       </c>
       <c r="K1664">
-        <v>2695000</v>
+        <v>12162270</v>
       </c>
       <c r="L1664">
-        <v>2695000</v>
+        <v>12162270</v>
       </c>
     </row>
     <row r="1665" spans="1:12">
@@ -71066,19 +71372,19 @@
         <v>13</v>
       </c>
       <c r="D1665" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1665" t="s">
-        <v>2340</v>
+        <v>2378</v>
       </c>
       <c r="F1665" t="s">
-        <v>2341</v>
+        <v>2379</v>
       </c>
       <c r="G1665" t="s">
-        <v>1507</v>
+        <v>2380</v>
       </c>
       <c r="H1665" t="s">
-        <v>2345</v>
+        <v>708</v>
       </c>
       <c r="I1665" t="s">
         <v>19</v>
@@ -71087,10 +71393,10 @@
         <v>1</v>
       </c>
       <c r="K1665">
-        <v>6980000</v>
+        <v>924000</v>
       </c>
       <c r="L1665">
-        <v>6980000</v>
+        <v>924000</v>
       </c>
     </row>
     <row r="1666" spans="1:12">
@@ -71104,19 +71410,19 @@
         <v>13</v>
       </c>
       <c r="D1666" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1666" t="s">
-        <v>2340</v>
+        <v>2381</v>
       </c>
       <c r="F1666" t="s">
-        <v>2341</v>
+        <v>2382</v>
       </c>
       <c r="G1666" t="s">
-        <v>1507</v>
+        <v>2383</v>
       </c>
       <c r="H1666" t="s">
-        <v>2307</v>
+        <v>708</v>
       </c>
       <c r="I1666" t="s">
         <v>19</v>
@@ -71125,10 +71431,10 @@
         <v>1</v>
       </c>
       <c r="K1666">
-        <v>5270000</v>
+        <v>7029620</v>
       </c>
       <c r="L1666">
-        <v>5270000</v>
+        <v>7029620</v>
       </c>
     </row>
     <row r="1667" spans="1:12">
@@ -71142,19 +71448,19 @@
         <v>13</v>
       </c>
       <c r="D1667" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1667" t="s">
-        <v>2340</v>
+        <v>2384</v>
       </c>
       <c r="F1667" t="s">
-        <v>2341</v>
+        <v>2385</v>
       </c>
       <c r="G1667" t="s">
-        <v>1507</v>
+        <v>2386</v>
       </c>
       <c r="H1667" t="s">
-        <v>2346</v>
+        <v>1754</v>
       </c>
       <c r="I1667" t="s">
         <v>19</v>
@@ -71163,10 +71469,10 @@
         <v>1</v>
       </c>
       <c r="K1667">
-        <v>795000</v>
+        <v>1050000</v>
       </c>
       <c r="L1667">
-        <v>795000</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="1668" spans="1:12">
@@ -71180,19 +71486,19 @@
         <v>13</v>
       </c>
       <c r="D1668" t="s">
-        <v>2283</v>
+        <v>2358</v>
       </c>
       <c r="E1668" t="s">
-        <v>2340</v>
+        <v>2387</v>
       </c>
       <c r="F1668" t="s">
-        <v>2341</v>
+        <v>2388</v>
       </c>
       <c r="G1668" t="s">
-        <v>1507</v>
+        <v>2389</v>
       </c>
       <c r="H1668" t="s">
-        <v>694</v>
+        <v>2390</v>
       </c>
       <c r="I1668" t="s">
         <v>19</v>
@@ -71201,10 +71507,10 @@
         <v>1</v>
       </c>
       <c r="K1668">
-        <v>2005000</v>
+        <v>7492500</v>
       </c>
       <c r="L1668">
-        <v>2005000</v>
+        <v>7492500</v>
       </c>
     </row>
     <row r="1669" spans="1:12">
@@ -71218,19 +71524,19 @@
         <v>13</v>
       </c>
       <c r="D1669" t="s">
-        <v>2283</v>
+        <v>2358</v>
       </c>
       <c r="E1669" t="s">
-        <v>2340</v>
+        <v>2391</v>
       </c>
       <c r="F1669" t="s">
-        <v>2341</v>
+        <v>2392</v>
       </c>
       <c r="G1669" t="s">
-        <v>1507</v>
+        <v>2393</v>
       </c>
       <c r="H1669" t="s">
-        <v>699</v>
+        <v>2390</v>
       </c>
       <c r="I1669" t="s">
         <v>19</v>
@@ -71239,10 +71545,10 @@
         <v>1</v>
       </c>
       <c r="K1669">
-        <v>137315</v>
+        <v>8741250</v>
       </c>
       <c r="L1669">
-        <v>137315</v>
+        <v>8741250</v>
       </c>
     </row>
     <row r="1670" spans="1:12">
@@ -71256,19 +71562,19 @@
         <v>13</v>
       </c>
       <c r="D1670" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1670" t="s">
-        <v>2340</v>
+        <v>2394</v>
       </c>
       <c r="F1670" t="s">
-        <v>2341</v>
+        <v>2395</v>
       </c>
       <c r="G1670" t="s">
-        <v>1507</v>
+        <v>2396</v>
       </c>
       <c r="H1670" t="s">
-        <v>2347</v>
+        <v>373</v>
       </c>
       <c r="I1670" t="s">
         <v>19</v>
@@ -71277,10 +71583,10 @@
         <v>1</v>
       </c>
       <c r="K1670">
-        <v>137315</v>
+        <v>7581200</v>
       </c>
       <c r="L1670">
-        <v>137315</v>
+        <v>7581200</v>
       </c>
     </row>
     <row r="1671" spans="1:12">
@@ -71294,19 +71600,19 @@
         <v>13</v>
       </c>
       <c r="D1671" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1671" t="s">
-        <v>2340</v>
+        <v>2397</v>
       </c>
       <c r="F1671" t="s">
-        <v>2341</v>
+        <v>2398</v>
       </c>
       <c r="G1671" t="s">
-        <v>1507</v>
+        <v>2399</v>
       </c>
       <c r="H1671" t="s">
-        <v>2348</v>
+        <v>373</v>
       </c>
       <c r="I1671" t="s">
         <v>19</v>
@@ -71315,10 +71621,10 @@
         <v>1</v>
       </c>
       <c r="K1671">
-        <v>4975000</v>
+        <v>7533000</v>
       </c>
       <c r="L1671">
-        <v>4975000</v>
+        <v>7533000</v>
       </c>
     </row>
     <row r="1672" spans="1:12">
@@ -71332,19 +71638,19 @@
         <v>13</v>
       </c>
       <c r="D1672" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1672" t="s">
-        <v>2340</v>
+        <v>2400</v>
       </c>
       <c r="F1672" t="s">
-        <v>2341</v>
+        <v>2401</v>
       </c>
       <c r="G1672" t="s">
-        <v>1507</v>
+        <v>2402</v>
       </c>
       <c r="H1672" t="s">
-        <v>2349</v>
+        <v>708</v>
       </c>
       <c r="I1672" t="s">
         <v>19</v>
@@ -71353,10 +71659,10 @@
         <v>1</v>
       </c>
       <c r="K1672">
-        <v>2493500</v>
+        <v>827000</v>
       </c>
       <c r="L1672">
-        <v>2493500</v>
+        <v>827000</v>
       </c>
     </row>
     <row r="1673" spans="1:12">
@@ -71370,19 +71676,19 @@
         <v>13</v>
       </c>
       <c r="D1673" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1673" t="s">
-        <v>2340</v>
+        <v>2403</v>
       </c>
       <c r="F1673" t="s">
-        <v>2341</v>
+        <v>2404</v>
       </c>
       <c r="G1673" t="s">
-        <v>1507</v>
+        <v>2405</v>
       </c>
       <c r="H1673" t="s">
-        <v>957</v>
+        <v>708</v>
       </c>
       <c r="I1673" t="s">
         <v>19</v>
@@ -71391,10 +71697,10 @@
         <v>1</v>
       </c>
       <c r="K1673">
-        <v>10367377</v>
+        <v>1006000</v>
       </c>
       <c r="L1673">
-        <v>10367377</v>
+        <v>1006000</v>
       </c>
     </row>
     <row r="1674" spans="1:12">
@@ -71408,19 +71714,19 @@
         <v>13</v>
       </c>
       <c r="D1674" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1674" t="s">
-        <v>2340</v>
+        <v>2406</v>
       </c>
       <c r="F1674" t="s">
-        <v>2341</v>
+        <v>2407</v>
       </c>
       <c r="G1674" t="s">
-        <v>1507</v>
+        <v>2408</v>
       </c>
       <c r="H1674" t="s">
-        <v>209</v>
+        <v>410</v>
       </c>
       <c r="I1674" t="s">
         <v>19</v>
@@ -71429,10 +71735,10 @@
         <v>1</v>
       </c>
       <c r="K1674">
-        <v>17206000</v>
+        <v>198356216</v>
       </c>
       <c r="L1674">
-        <v>17206000</v>
+        <v>198356216</v>
       </c>
     </row>
     <row r="1675" spans="1:12">
@@ -71446,19 +71752,19 @@
         <v>13</v>
       </c>
       <c r="D1675" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1675" t="s">
-        <v>2340</v>
+        <v>2409</v>
       </c>
       <c r="F1675" t="s">
-        <v>2341</v>
+        <v>2410</v>
       </c>
       <c r="G1675" t="s">
-        <v>1507</v>
+        <v>2411</v>
       </c>
       <c r="H1675" t="s">
-        <v>1518</v>
+        <v>344</v>
       </c>
       <c r="I1675" t="s">
         <v>19</v>
@@ -71467,10 +71773,10 @@
         <v>1</v>
       </c>
       <c r="K1675">
-        <v>240000</v>
+        <v>41318160</v>
       </c>
       <c r="L1675">
-        <v>240000</v>
+        <v>41318160</v>
       </c>
     </row>
     <row r="1676" spans="1:12">
@@ -71484,19 +71790,19 @@
         <v>13</v>
       </c>
       <c r="D1676" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1676" t="s">
-        <v>2340</v>
+        <v>2412</v>
       </c>
       <c r="F1676" t="s">
-        <v>2341</v>
+        <v>2413</v>
       </c>
       <c r="G1676" t="s">
-        <v>1507</v>
+        <v>2414</v>
       </c>
       <c r="H1676" t="s">
-        <v>210</v>
+        <v>255</v>
       </c>
       <c r="I1676" t="s">
         <v>19</v>
@@ -71505,10 +71811,10 @@
         <v>1</v>
       </c>
       <c r="K1676">
-        <v>590000</v>
+        <v>7070525</v>
       </c>
       <c r="L1676">
-        <v>590000</v>
+        <v>7070525</v>
       </c>
     </row>
     <row r="1677" spans="1:12">
@@ -71522,19 +71828,19 @@
         <v>13</v>
       </c>
       <c r="D1677" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1677" t="s">
-        <v>2340</v>
+        <v>2412</v>
       </c>
       <c r="F1677" t="s">
-        <v>2341</v>
+        <v>2413</v>
       </c>
       <c r="G1677" t="s">
-        <v>1507</v>
+        <v>2414</v>
       </c>
       <c r="H1677" t="s">
-        <v>707</v>
+        <v>1198</v>
       </c>
       <c r="I1677" t="s">
         <v>19</v>
@@ -71543,10 +71849,10 @@
         <v>1</v>
       </c>
       <c r="K1677">
-        <v>340000</v>
+        <v>2718000</v>
       </c>
       <c r="L1677">
-        <v>340000</v>
+        <v>2718000</v>
       </c>
     </row>
     <row r="1678" spans="1:12">
@@ -71560,19 +71866,19 @@
         <v>13</v>
       </c>
       <c r="D1678" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1678" t="s">
-        <v>2340</v>
+        <v>2412</v>
       </c>
       <c r="F1678" t="s">
-        <v>2341</v>
+        <v>2413</v>
       </c>
       <c r="G1678" t="s">
-        <v>1507</v>
+        <v>2414</v>
       </c>
       <c r="H1678" t="s">
-        <v>515</v>
+        <v>2415</v>
       </c>
       <c r="I1678" t="s">
         <v>19</v>
@@ -71581,10 +71887,10 @@
         <v>1</v>
       </c>
       <c r="K1678">
-        <v>3926360</v>
+        <v>2369838</v>
       </c>
       <c r="L1678">
-        <v>3926360</v>
+        <v>2369838</v>
       </c>
     </row>
     <row r="1679" spans="1:12">
@@ -71598,19 +71904,19 @@
         <v>13</v>
       </c>
       <c r="D1679" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1679" t="s">
-        <v>2340</v>
+        <v>2412</v>
       </c>
       <c r="F1679" t="s">
-        <v>2341</v>
+        <v>2413</v>
       </c>
       <c r="G1679" t="s">
-        <v>1507</v>
+        <v>2414</v>
       </c>
       <c r="H1679" t="s">
-        <v>708</v>
+        <v>1770</v>
       </c>
       <c r="I1679" t="s">
         <v>19</v>
@@ -71619,10 +71925,10 @@
         <v>1</v>
       </c>
       <c r="K1679">
-        <v>8556964</v>
+        <v>2146500</v>
       </c>
       <c r="L1679">
-        <v>8556964</v>
+        <v>2146500</v>
       </c>
     </row>
     <row r="1680" spans="1:12">
@@ -71636,19 +71942,19 @@
         <v>13</v>
       </c>
       <c r="D1680" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1680" t="s">
-        <v>2340</v>
+        <v>2412</v>
       </c>
       <c r="F1680" t="s">
-        <v>2341</v>
+        <v>2413</v>
       </c>
       <c r="G1680" t="s">
-        <v>1507</v>
+        <v>2414</v>
       </c>
       <c r="H1680" t="s">
-        <v>1520</v>
+        <v>128</v>
       </c>
       <c r="I1680" t="s">
         <v>19</v>
@@ -71657,10 +71963,10 @@
         <v>1</v>
       </c>
       <c r="K1680">
-        <v>850000</v>
+        <v>1866750</v>
       </c>
       <c r="L1680">
-        <v>850000</v>
+        <v>1866750</v>
       </c>
     </row>
     <row r="1681" spans="1:12">
@@ -71674,19 +71980,19 @@
         <v>13</v>
       </c>
       <c r="D1681" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1681" t="s">
-        <v>2340</v>
+        <v>2412</v>
       </c>
       <c r="F1681" t="s">
-        <v>2341</v>
+        <v>2413</v>
       </c>
       <c r="G1681" t="s">
-        <v>1507</v>
+        <v>2414</v>
       </c>
       <c r="H1681" t="s">
-        <v>2350</v>
+        <v>275</v>
       </c>
       <c r="I1681" t="s">
         <v>19</v>
@@ -71695,10 +72001,10 @@
         <v>1</v>
       </c>
       <c r="K1681">
-        <v>450000</v>
+        <v>3464868</v>
       </c>
       <c r="L1681">
-        <v>450000</v>
+        <v>3464868</v>
       </c>
     </row>
     <row r="1682" spans="1:12">
@@ -71712,19 +72018,19 @@
         <v>13</v>
       </c>
       <c r="D1682" t="s">
-        <v>2283</v>
+        <v>2239</v>
       </c>
       <c r="E1682" t="s">
-        <v>2351</v>
+        <v>2416</v>
       </c>
       <c r="F1682" t="s">
-        <v>2352</v>
+        <v>2417</v>
       </c>
       <c r="G1682" t="s">
-        <v>2353</v>
+        <v>2418</v>
       </c>
       <c r="H1682" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="I1682" t="s">
         <v>19</v>
@@ -71733,10 +72039,10 @@
         <v>1</v>
       </c>
       <c r="K1682">
-        <v>196234560</v>
+        <v>41318160</v>
       </c>
       <c r="L1682">
-        <v>196234560</v>
+        <v>41318160</v>
       </c>
     </row>
     <row r="1683" spans="1:12">
@@ -71753,16 +72059,16 @@
         <v>2239</v>
       </c>
       <c r="E1683" t="s">
-        <v>2354</v>
+        <v>2419</v>
       </c>
       <c r="F1683" t="s">
-        <v>2355</v>
+        <v>2420</v>
       </c>
       <c r="G1683" t="s">
-        <v>2356</v>
+        <v>2421</v>
       </c>
       <c r="H1683" t="s">
-        <v>2293</v>
+        <v>348</v>
       </c>
       <c r="I1683" t="s">
         <v>19</v>
@@ -71771,10 +72077,10 @@
         <v>1</v>
       </c>
       <c r="K1683">
-        <v>15345972</v>
+        <v>27151923</v>
       </c>
       <c r="L1683">
-        <v>15345972</v>
+        <v>27151923</v>
       </c>
     </row>
     <row r="1684" spans="1:12">
@@ -71791,16 +72097,16 @@
         <v>2239</v>
       </c>
       <c r="E1684" t="s">
-        <v>2357</v>
+        <v>2422</v>
       </c>
       <c r="F1684" t="s">
-        <v>2358</v>
+        <v>2423</v>
       </c>
       <c r="G1684" t="s">
-        <v>2359</v>
+        <v>2424</v>
       </c>
       <c r="H1684" t="s">
-        <v>708</v>
+        <v>1119</v>
       </c>
       <c r="I1684" t="s">
         <v>19</v>
@@ -71809,10 +72115,10 @@
         <v>1</v>
       </c>
       <c r="K1684">
-        <v>340000</v>
+        <v>925000</v>
       </c>
       <c r="L1684">
-        <v>340000</v>
+        <v>925000</v>
       </c>
     </row>
     <row r="1685" spans="1:12">
@@ -71829,16 +72135,16 @@
         <v>2239</v>
       </c>
       <c r="E1685" t="s">
-        <v>2360</v>
+        <v>2425</v>
       </c>
       <c r="F1685" t="s">
-        <v>2361</v>
+        <v>2426</v>
       </c>
       <c r="G1685" t="s">
-        <v>2362</v>
+        <v>2427</v>
       </c>
       <c r="H1685" t="s">
-        <v>128</v>
+        <v>886</v>
       </c>
       <c r="I1685" t="s">
         <v>19</v>
@@ -71847,10 +72153,10 @@
         <v>1</v>
       </c>
       <c r="K1685">
-        <v>4114620</v>
+        <v>5615000</v>
       </c>
       <c r="L1685">
-        <v>4114620</v>
+        <v>5615000</v>
       </c>
     </row>
     <row r="1686" spans="1:12">
@@ -71867,16 +72173,16 @@
         <v>2239</v>
       </c>
       <c r="E1686" t="s">
-        <v>2363</v>
+        <v>2425</v>
       </c>
       <c r="F1686" t="s">
-        <v>2364</v>
+        <v>2426</v>
       </c>
       <c r="G1686" t="s">
-        <v>2365</v>
+        <v>2427</v>
       </c>
       <c r="H1686" t="s">
-        <v>128</v>
+        <v>887</v>
       </c>
       <c r="I1686" t="s">
         <v>19</v>
@@ -71885,10 +72191,10 @@
         <v>1</v>
       </c>
       <c r="K1686">
-        <v>860000</v>
+        <v>330739</v>
       </c>
       <c r="L1686">
-        <v>860000</v>
+        <v>330739</v>
       </c>
     </row>
     <row r="1687" spans="1:12">
@@ -71905,16 +72211,16 @@
         <v>2239</v>
       </c>
       <c r="E1687" t="s">
-        <v>2366</v>
+        <v>2425</v>
       </c>
       <c r="F1687" t="s">
-        <v>2367</v>
+        <v>2426</v>
       </c>
       <c r="G1687" t="s">
-        <v>2368</v>
+        <v>2427</v>
       </c>
       <c r="H1687" t="s">
-        <v>1754</v>
+        <v>888</v>
       </c>
       <c r="I1687" t="s">
         <v>19</v>
@@ -71923,10 +72229,10 @@
         <v>1</v>
       </c>
       <c r="K1687">
-        <v>1800000</v>
+        <v>30321</v>
       </c>
       <c r="L1687">
-        <v>1800000</v>
+        <v>30321</v>
       </c>
     </row>
     <row r="1688" spans="1:12">
@@ -71940,19 +72246,19 @@
         <v>13</v>
       </c>
       <c r="D1688" t="s">
-        <v>2369</v>
+        <v>2239</v>
       </c>
       <c r="E1688" t="s">
-        <v>2370</v>
+        <v>2425</v>
       </c>
       <c r="F1688" t="s">
-        <v>2371</v>
+        <v>2426</v>
       </c>
       <c r="G1688" t="s">
-        <v>2372</v>
+        <v>2427</v>
       </c>
       <c r="H1688" t="s">
-        <v>2373</v>
+        <v>445</v>
       </c>
       <c r="I1688" t="s">
         <v>19</v>
@@ -71961,10 +72267,10 @@
         <v>1</v>
       </c>
       <c r="K1688">
-        <v>4323450</v>
+        <v>7117000</v>
       </c>
       <c r="L1688">
-        <v>4323450</v>
+        <v>7117000</v>
       </c>
     </row>
     <row r="1689" spans="1:12">
@@ -71981,16 +72287,16 @@
         <v>2239</v>
       </c>
       <c r="E1689" t="s">
-        <v>2374</v>
+        <v>2425</v>
       </c>
       <c r="F1689" t="s">
-        <v>2375</v>
+        <v>2426</v>
       </c>
       <c r="G1689" t="s">
-        <v>2376</v>
+        <v>2427</v>
       </c>
       <c r="H1689" t="s">
-        <v>1754</v>
+        <v>1451</v>
       </c>
       <c r="I1689" t="s">
         <v>19</v>
@@ -71999,10 +72305,10 @@
         <v>1</v>
       </c>
       <c r="K1689">
-        <v>1350000</v>
+        <v>1168000</v>
       </c>
       <c r="L1689">
-        <v>1350000</v>
+        <v>1168000</v>
       </c>
     </row>
     <row r="1690" spans="1:12">
@@ -72016,19 +72322,19 @@
         <v>13</v>
       </c>
       <c r="D1690" t="s">
-        <v>2369</v>
+        <v>2239</v>
       </c>
       <c r="E1690" t="s">
-        <v>2377</v>
+        <v>2425</v>
       </c>
       <c r="F1690" t="s">
-        <v>2378</v>
+        <v>2426</v>
       </c>
       <c r="G1690" t="s">
-        <v>2379</v>
+        <v>2427</v>
       </c>
       <c r="H1690" t="s">
-        <v>646</v>
+        <v>1452</v>
       </c>
       <c r="I1690" t="s">
         <v>19</v>
@@ -72037,10 +72343,10 @@
         <v>1</v>
       </c>
       <c r="K1690">
-        <v>6259290</v>
+        <v>972000</v>
       </c>
       <c r="L1690">
-        <v>6259290</v>
+        <v>972000</v>
       </c>
     </row>
     <row r="1691" spans="1:12">
@@ -72057,16 +72363,16 @@
         <v>2239</v>
       </c>
       <c r="E1691" t="s">
-        <v>2380</v>
+        <v>2425</v>
       </c>
       <c r="F1691" t="s">
-        <v>2381</v>
+        <v>2426</v>
       </c>
       <c r="G1691" t="s">
-        <v>2382</v>
+        <v>2427</v>
       </c>
       <c r="H1691" t="s">
-        <v>1754</v>
+        <v>1453</v>
       </c>
       <c r="I1691" t="s">
         <v>19</v>
@@ -72075,10 +72381,10 @@
         <v>1</v>
       </c>
       <c r="K1691">
-        <v>2550000</v>
+        <v>324000</v>
       </c>
       <c r="L1691">
-        <v>2550000</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="1692" spans="1:12">
@@ -72095,16 +72401,16 @@
         <v>2239</v>
       </c>
       <c r="E1692" t="s">
-        <v>2383</v>
+        <v>2425</v>
       </c>
       <c r="F1692" t="s">
-        <v>2384</v>
+        <v>2426</v>
       </c>
       <c r="G1692" t="s">
-        <v>2385</v>
+        <v>2427</v>
       </c>
       <c r="H1692" t="s">
-        <v>708</v>
+        <v>1454</v>
       </c>
       <c r="I1692" t="s">
         <v>19</v>
@@ -72113,10 +72419,10 @@
         <v>1</v>
       </c>
       <c r="K1692">
-        <v>8392620</v>
+        <v>272000</v>
       </c>
       <c r="L1692">
-        <v>8392620</v>
+        <v>272000</v>
       </c>
     </row>
     <row r="1693" spans="1:12">
@@ -72130,19 +72436,19 @@
         <v>13</v>
       </c>
       <c r="D1693" t="s">
-        <v>2369</v>
+        <v>2239</v>
       </c>
       <c r="E1693" t="s">
-        <v>2386</v>
+        <v>2425</v>
       </c>
       <c r="F1693" t="s">
-        <v>2387</v>
+        <v>2426</v>
       </c>
       <c r="G1693" t="s">
-        <v>2388</v>
+        <v>2427</v>
       </c>
       <c r="H1693" t="s">
-        <v>646</v>
+        <v>595</v>
       </c>
       <c r="I1693" t="s">
         <v>19</v>
@@ -72151,10 +72457,10 @@
         <v>1</v>
       </c>
       <c r="K1693">
-        <v>12162270</v>
+        <v>1005000</v>
       </c>
       <c r="L1693">
-        <v>12162270</v>
+        <v>1005000</v>
       </c>
     </row>
     <row r="1694" spans="1:12">
@@ -72171,16 +72477,16 @@
         <v>2239</v>
       </c>
       <c r="E1694" t="s">
-        <v>2389</v>
+        <v>2425</v>
       </c>
       <c r="F1694" t="s">
-        <v>2390</v>
+        <v>2426</v>
       </c>
       <c r="G1694" t="s">
-        <v>2391</v>
+        <v>2427</v>
       </c>
       <c r="H1694" t="s">
-        <v>708</v>
+        <v>2428</v>
       </c>
       <c r="I1694" t="s">
         <v>19</v>
@@ -72189,10 +72495,10 @@
         <v>1</v>
       </c>
       <c r="K1694">
-        <v>924000</v>
+        <v>3250000</v>
       </c>
       <c r="L1694">
-        <v>924000</v>
+        <v>3250000</v>
       </c>
     </row>
     <row r="1695" spans="1:12">
@@ -72209,16 +72515,16 @@
         <v>2239</v>
       </c>
       <c r="E1695" t="s">
-        <v>2392</v>
+        <v>2425</v>
       </c>
       <c r="F1695" t="s">
-        <v>2393</v>
+        <v>2426</v>
       </c>
       <c r="G1695" t="s">
-        <v>2394</v>
+        <v>2427</v>
       </c>
       <c r="H1695" t="s">
-        <v>708</v>
+        <v>452</v>
       </c>
       <c r="I1695" t="s">
         <v>19</v>
@@ -72227,10 +72533,10 @@
         <v>1</v>
       </c>
       <c r="K1695">
-        <v>7029620</v>
+        <v>2310000</v>
       </c>
       <c r="L1695">
-        <v>7029620</v>
+        <v>2310000</v>
       </c>
     </row>
     <row r="1696" spans="1:12">
@@ -72247,16 +72553,16 @@
         <v>2239</v>
       </c>
       <c r="E1696" t="s">
-        <v>2395</v>
+        <v>2425</v>
       </c>
       <c r="F1696" t="s">
-        <v>2396</v>
+        <v>2426</v>
       </c>
       <c r="G1696" t="s">
-        <v>2397</v>
+        <v>2427</v>
       </c>
       <c r="H1696" t="s">
-        <v>1754</v>
+        <v>899</v>
       </c>
       <c r="I1696" t="s">
         <v>19</v>
@@ -72265,10 +72571,10 @@
         <v>1</v>
       </c>
       <c r="K1696">
-        <v>1050000</v>
+        <v>2235000</v>
       </c>
       <c r="L1696">
-        <v>1050000</v>
+        <v>2235000</v>
       </c>
     </row>
     <row r="1697" spans="1:12">
@@ -72282,19 +72588,19 @@
         <v>13</v>
       </c>
       <c r="D1697" t="s">
-        <v>2369</v>
+        <v>2239</v>
       </c>
       <c r="E1697" t="s">
-        <v>2398</v>
+        <v>2425</v>
       </c>
       <c r="F1697" t="s">
-        <v>2399</v>
+        <v>2426</v>
       </c>
       <c r="G1697" t="s">
-        <v>2400</v>
+        <v>2427</v>
       </c>
       <c r="H1697" t="s">
-        <v>2401</v>
+        <v>1813</v>
       </c>
       <c r="I1697" t="s">
         <v>19</v>
@@ -72303,10 +72609,10 @@
         <v>1</v>
       </c>
       <c r="K1697">
-        <v>7492500</v>
+        <v>390604</v>
       </c>
       <c r="L1697">
-        <v>7492500</v>
+        <v>390604</v>
       </c>
     </row>
     <row r="1698" spans="1:12">
@@ -72320,19 +72626,19 @@
         <v>13</v>
       </c>
       <c r="D1698" t="s">
-        <v>2369</v>
+        <v>2239</v>
       </c>
       <c r="E1698" t="s">
-        <v>2402</v>
+        <v>2425</v>
       </c>
       <c r="F1698" t="s">
-        <v>2403</v>
+        <v>2426</v>
       </c>
       <c r="G1698" t="s">
-        <v>2404</v>
+        <v>2427</v>
       </c>
       <c r="H1698" t="s">
-        <v>2401</v>
+        <v>2429</v>
       </c>
       <c r="I1698" t="s">
         <v>19</v>
@@ -72341,10 +72647,10 @@
         <v>1</v>
       </c>
       <c r="K1698">
-        <v>8741250</v>
+        <v>341667</v>
       </c>
       <c r="L1698">
-        <v>8741250</v>
+        <v>341667</v>
       </c>
     </row>
     <row r="1699" spans="1:12">
@@ -72361,16 +72667,16 @@
         <v>2239</v>
       </c>
       <c r="E1699" t="s">
-        <v>2405</v>
+        <v>2425</v>
       </c>
       <c r="F1699" t="s">
-        <v>2406</v>
+        <v>2426</v>
       </c>
       <c r="G1699" t="s">
-        <v>2407</v>
+        <v>2427</v>
       </c>
       <c r="H1699" t="s">
-        <v>373</v>
+        <v>2430</v>
       </c>
       <c r="I1699" t="s">
         <v>19</v>
@@ -72379,10 +72685,10 @@
         <v>1</v>
       </c>
       <c r="K1699">
-        <v>7581200</v>
+        <v>740000</v>
       </c>
       <c r="L1699">
-        <v>7581200</v>
+        <v>740000</v>
       </c>
     </row>
     <row r="1700" spans="1:12">
@@ -72399,16 +72705,16 @@
         <v>2239</v>
       </c>
       <c r="E1700" t="s">
-        <v>2408</v>
+        <v>2425</v>
       </c>
       <c r="F1700" t="s">
-        <v>2409</v>
+        <v>2426</v>
       </c>
       <c r="G1700" t="s">
-        <v>2410</v>
+        <v>2427</v>
       </c>
       <c r="H1700" t="s">
-        <v>373</v>
+        <v>2431</v>
       </c>
       <c r="I1700" t="s">
         <v>19</v>
@@ -72417,10 +72723,10 @@
         <v>1</v>
       </c>
       <c r="K1700">
-        <v>7533000</v>
+        <v>421140</v>
       </c>
       <c r="L1700">
-        <v>7533000</v>
+        <v>421140</v>
       </c>
     </row>
     <row r="1701" spans="1:12">
@@ -72437,16 +72743,16 @@
         <v>2239</v>
       </c>
       <c r="E1701" t="s">
-        <v>2411</v>
+        <v>2425</v>
       </c>
       <c r="F1701" t="s">
-        <v>2412</v>
+        <v>2426</v>
       </c>
       <c r="G1701" t="s">
-        <v>2413</v>
+        <v>2427</v>
       </c>
       <c r="H1701" t="s">
-        <v>708</v>
+        <v>2203</v>
       </c>
       <c r="I1701" t="s">
         <v>19</v>
@@ -72455,10 +72761,10 @@
         <v>1</v>
       </c>
       <c r="K1701">
-        <v>827000</v>
+        <v>5928000</v>
       </c>
       <c r="L1701">
-        <v>827000</v>
+        <v>5928000</v>
       </c>
     </row>
     <row r="1702" spans="1:12">
@@ -72475,16 +72781,16 @@
         <v>2239</v>
       </c>
       <c r="E1702" t="s">
-        <v>2414</v>
+        <v>2425</v>
       </c>
       <c r="F1702" t="s">
-        <v>2415</v>
+        <v>2426</v>
       </c>
       <c r="G1702" t="s">
-        <v>2416</v>
+        <v>2427</v>
       </c>
       <c r="H1702" t="s">
-        <v>708</v>
+        <v>613</v>
       </c>
       <c r="I1702" t="s">
         <v>19</v>
@@ -72493,10 +72799,10 @@
         <v>1</v>
       </c>
       <c r="K1702">
-        <v>1006000</v>
+        <v>6786000</v>
       </c>
       <c r="L1702">
-        <v>1006000</v>
+        <v>6786000</v>
       </c>
     </row>
     <row r="1703" spans="1:12">
@@ -72513,16 +72819,16 @@
         <v>2239</v>
       </c>
       <c r="E1703" t="s">
-        <v>2417</v>
+        <v>2425</v>
       </c>
       <c r="F1703" t="s">
-        <v>2418</v>
+        <v>2426</v>
       </c>
       <c r="G1703" t="s">
-        <v>2419</v>
+        <v>2427</v>
       </c>
       <c r="H1703" t="s">
-        <v>410</v>
+        <v>614</v>
       </c>
       <c r="I1703" t="s">
         <v>19</v>
@@ -72531,10 +72837,10 @@
         <v>1</v>
       </c>
       <c r="K1703">
-        <v>198356216</v>
+        <v>4590000</v>
       </c>
       <c r="L1703">
-        <v>198356216</v>
+        <v>4590000</v>
       </c>
     </row>
     <row r="1704" spans="1:12">
@@ -72551,16 +72857,16 @@
         <v>2239</v>
       </c>
       <c r="E1704" t="s">
-        <v>2420</v>
+        <v>2425</v>
       </c>
       <c r="F1704" t="s">
-        <v>2421</v>
+        <v>2426</v>
       </c>
       <c r="G1704" t="s">
-        <v>2422</v>
+        <v>2427</v>
       </c>
       <c r="H1704" t="s">
-        <v>344</v>
+        <v>377</v>
       </c>
       <c r="I1704" t="s">
         <v>19</v>
@@ -72569,10 +72875,10 @@
         <v>1</v>
       </c>
       <c r="K1704">
-        <v>41318160</v>
+        <v>11365500</v>
       </c>
       <c r="L1704">
-        <v>41318160</v>
+        <v>11365500</v>
       </c>
     </row>
     <row r="1705" spans="1:12">
@@ -72589,16 +72895,16 @@
         <v>2239</v>
       </c>
       <c r="E1705" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="F1705" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="G1705" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="H1705" t="s">
-        <v>255</v>
+        <v>438</v>
       </c>
       <c r="I1705" t="s">
         <v>19</v>
@@ -72607,10 +72913,10 @@
         <v>1</v>
       </c>
       <c r="K1705">
-        <v>7070525</v>
+        <v>680000</v>
       </c>
       <c r="L1705">
-        <v>7070525</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="1706" spans="1:12">
@@ -72627,16 +72933,16 @@
         <v>2239</v>
       </c>
       <c r="E1706" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="F1706" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="G1706" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="H1706" t="s">
-        <v>1198</v>
+        <v>439</v>
       </c>
       <c r="I1706" t="s">
         <v>19</v>
@@ -72645,10 +72951,10 @@
         <v>1</v>
       </c>
       <c r="K1706">
-        <v>2718000</v>
+        <v>1560200</v>
       </c>
       <c r="L1706">
-        <v>2718000</v>
+        <v>1560200</v>
       </c>
     </row>
     <row r="1707" spans="1:12">
@@ -72665,16 +72971,16 @@
         <v>2239</v>
       </c>
       <c r="E1707" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="F1707" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="G1707" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="H1707" t="s">
-        <v>2426</v>
+        <v>459</v>
       </c>
       <c r="I1707" t="s">
         <v>19</v>
@@ -72683,10 +72989,10 @@
         <v>1</v>
       </c>
       <c r="K1707">
-        <v>2369838</v>
+        <v>340000</v>
       </c>
       <c r="L1707">
-        <v>2369838</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="1708" spans="1:12">
@@ -72703,16 +73009,16 @@
         <v>2239</v>
       </c>
       <c r="E1708" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="F1708" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="G1708" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="H1708" t="s">
-        <v>1770</v>
+        <v>2002</v>
       </c>
       <c r="I1708" t="s">
         <v>19</v>
@@ -72721,10 +73027,10 @@
         <v>1</v>
       </c>
       <c r="K1708">
-        <v>2146500</v>
+        <v>1994000</v>
       </c>
       <c r="L1708">
-        <v>2146500</v>
+        <v>1994000</v>
       </c>
     </row>
     <row r="1709" spans="1:12">
@@ -72741,16 +73047,16 @@
         <v>2239</v>
       </c>
       <c r="E1709" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="F1709" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="G1709" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="H1709" t="s">
-        <v>128</v>
+        <v>902</v>
       </c>
       <c r="I1709" t="s">
         <v>19</v>
@@ -72759,10 +73065,10 @@
         <v>1</v>
       </c>
       <c r="K1709">
-        <v>1866750</v>
+        <v>2058500</v>
       </c>
       <c r="L1709">
-        <v>1866750</v>
+        <v>2058500</v>
       </c>
     </row>
     <row r="1710" spans="1:12">
@@ -72779,16 +73085,16 @@
         <v>2239</v>
       </c>
       <c r="E1710" t="s">
-        <v>2423</v>
+        <v>2425</v>
       </c>
       <c r="F1710" t="s">
-        <v>2424</v>
+        <v>2426</v>
       </c>
       <c r="G1710" t="s">
-        <v>2425</v>
+        <v>2427</v>
       </c>
       <c r="H1710" t="s">
-        <v>275</v>
+        <v>1781</v>
       </c>
       <c r="I1710" t="s">
         <v>19</v>
@@ -72797,10 +73103,10 @@
         <v>1</v>
       </c>
       <c r="K1710">
-        <v>3464868</v>
+        <v>510000</v>
       </c>
       <c r="L1710">
-        <v>3464868</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="1711" spans="1:12">
@@ -72817,16 +73123,16 @@
         <v>2239</v>
       </c>
       <c r="E1711" t="s">
+        <v>2425</v>
+      </c>
+      <c r="F1711" t="s">
+        <v>2426</v>
+      </c>
+      <c r="G1711" t="s">
         <v>2427</v>
       </c>
-      <c r="F1711" t="s">
-        <v>2428</v>
-      </c>
-      <c r="G1711" t="s">
-        <v>2429</v>
-      </c>
       <c r="H1711" t="s">
-        <v>348</v>
+        <v>615</v>
       </c>
       <c r="I1711" t="s">
         <v>19</v>
@@ -72835,10 +73141,10 @@
         <v>1</v>
       </c>
       <c r="K1711">
-        <v>41318160</v>
+        <v>1200000</v>
       </c>
       <c r="L1711">
-        <v>41318160</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="1712" spans="1:12">
@@ -72855,16 +73161,16 @@
         <v>2239</v>
       </c>
       <c r="E1712" t="s">
-        <v>2430</v>
+        <v>2425</v>
       </c>
       <c r="F1712" t="s">
-        <v>2431</v>
+        <v>2426</v>
       </c>
       <c r="G1712" t="s">
-        <v>2432</v>
+        <v>2427</v>
       </c>
       <c r="H1712" t="s">
-        <v>348</v>
+        <v>465</v>
       </c>
       <c r="I1712" t="s">
         <v>19</v>
@@ -72873,10 +73179,10 @@
         <v>1</v>
       </c>
       <c r="K1712">
-        <v>27151923</v>
+        <v>680000</v>
       </c>
       <c r="L1712">
-        <v>27151923</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="1713" spans="1:12">
@@ -72893,16 +73199,16 @@
         <v>2239</v>
       </c>
       <c r="E1713" t="s">
-        <v>2433</v>
+        <v>2425</v>
       </c>
       <c r="F1713" t="s">
-        <v>2434</v>
+        <v>2426</v>
       </c>
       <c r="G1713" t="s">
-        <v>2435</v>
+        <v>2427</v>
       </c>
       <c r="H1713" t="s">
-        <v>1119</v>
+        <v>467</v>
       </c>
       <c r="I1713" t="s">
         <v>19</v>
@@ -72911,10 +73217,10 @@
         <v>1</v>
       </c>
       <c r="K1713">
-        <v>925000</v>
+        <v>600000</v>
       </c>
       <c r="L1713">
-        <v>925000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="1714" spans="1:12">
@@ -72931,16 +73237,16 @@
         <v>2239</v>
       </c>
       <c r="E1714" t="s">
-        <v>2436</v>
+        <v>2432</v>
       </c>
       <c r="F1714" t="s">
-        <v>2437</v>
+        <v>2433</v>
       </c>
       <c r="G1714" t="s">
-        <v>2438</v>
+        <v>2434</v>
       </c>
       <c r="H1714" t="s">
-        <v>886</v>
+        <v>2435</v>
       </c>
       <c r="I1714" t="s">
         <v>19</v>
@@ -72949,10 +73255,10 @@
         <v>1</v>
       </c>
       <c r="K1714">
-        <v>5615000</v>
+        <v>666000</v>
       </c>
       <c r="L1714">
-        <v>5615000</v>
+        <v>666000</v>
       </c>
     </row>
     <row r="1715" spans="1:12">
@@ -72978,7 +73284,7 @@
         <v>2438</v>
       </c>
       <c r="H1715" t="s">
-        <v>887</v>
+        <v>396</v>
       </c>
       <c r="I1715" t="s">
         <v>19</v>
@@ -72987,10 +73293,10 @@
         <v>1</v>
       </c>
       <c r="K1715">
-        <v>330739</v>
+        <v>200029106</v>
       </c>
       <c r="L1715">
-        <v>330739</v>
+        <v>200029106</v>
       </c>
     </row>
     <row r="1716" spans="1:12">
@@ -73004,19 +73310,19 @@
         <v>13</v>
       </c>
       <c r="D1716" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1716" t="s">
-        <v>2436</v>
+        <v>2440</v>
       </c>
       <c r="F1716" t="s">
-        <v>2437</v>
+        <v>2441</v>
       </c>
       <c r="G1716" t="s">
-        <v>2438</v>
+        <v>2442</v>
       </c>
       <c r="H1716" t="s">
-        <v>888</v>
+        <v>2443</v>
       </c>
       <c r="I1716" t="s">
         <v>19</v>
@@ -73025,10 +73331,10 @@
         <v>1</v>
       </c>
       <c r="K1716">
-        <v>30321</v>
+        <v>1190000</v>
       </c>
       <c r="L1716">
-        <v>30321</v>
+        <v>1190000</v>
       </c>
     </row>
     <row r="1717" spans="1:12">
@@ -73042,19 +73348,19 @@
         <v>13</v>
       </c>
       <c r="D1717" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1717" t="s">
-        <v>2436</v>
+        <v>2444</v>
       </c>
       <c r="F1717" t="s">
-        <v>2437</v>
+        <v>2445</v>
       </c>
       <c r="G1717" t="s">
-        <v>2438</v>
+        <v>2446</v>
       </c>
       <c r="H1717" t="s">
-        <v>445</v>
+        <v>666</v>
       </c>
       <c r="I1717" t="s">
         <v>19</v>
@@ -73063,10 +73369,10 @@
         <v>1</v>
       </c>
       <c r="K1717">
-        <v>7117000</v>
+        <v>588100</v>
       </c>
       <c r="L1717">
-        <v>7117000</v>
+        <v>588100</v>
       </c>
     </row>
     <row r="1718" spans="1:12">
@@ -73080,19 +73386,19 @@
         <v>13</v>
       </c>
       <c r="D1718" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1718" t="s">
-        <v>2436</v>
+        <v>2444</v>
       </c>
       <c r="F1718" t="s">
-        <v>2437</v>
+        <v>2445</v>
       </c>
       <c r="G1718" t="s">
-        <v>2438</v>
+        <v>2446</v>
       </c>
       <c r="H1718" t="s">
-        <v>1451</v>
+        <v>669</v>
       </c>
       <c r="I1718" t="s">
         <v>19</v>
@@ -73101,10 +73407,10 @@
         <v>1</v>
       </c>
       <c r="K1718">
-        <v>1168000</v>
+        <v>525000</v>
       </c>
       <c r="L1718">
-        <v>1168000</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="1719" spans="1:12">
@@ -73118,19 +73424,19 @@
         <v>13</v>
       </c>
       <c r="D1719" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1719" t="s">
-        <v>2436</v>
+        <v>2447</v>
       </c>
       <c r="F1719" t="s">
-        <v>2437</v>
+        <v>2448</v>
       </c>
       <c r="G1719" t="s">
-        <v>2438</v>
+        <v>2449</v>
       </c>
       <c r="H1719" t="s">
-        <v>1452</v>
+        <v>671</v>
       </c>
       <c r="I1719" t="s">
         <v>19</v>
@@ -73139,10 +73445,10 @@
         <v>1</v>
       </c>
       <c r="K1719">
-        <v>972000</v>
+        <v>1360000</v>
       </c>
       <c r="L1719">
-        <v>972000</v>
+        <v>1360000</v>
       </c>
     </row>
     <row r="1720" spans="1:12">
@@ -73156,19 +73462,19 @@
         <v>13</v>
       </c>
       <c r="D1720" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1720" t="s">
-        <v>2436</v>
+        <v>2450</v>
       </c>
       <c r="F1720" t="s">
-        <v>2437</v>
+        <v>2451</v>
       </c>
       <c r="G1720" t="s">
-        <v>2438</v>
+        <v>2452</v>
       </c>
       <c r="H1720" t="s">
-        <v>1453</v>
+        <v>708</v>
       </c>
       <c r="I1720" t="s">
         <v>19</v>
@@ -73177,10 +73483,10 @@
         <v>1</v>
       </c>
       <c r="K1720">
-        <v>324000</v>
+        <v>986000</v>
       </c>
       <c r="L1720">
-        <v>324000</v>
+        <v>986000</v>
       </c>
     </row>
     <row r="1721" spans="1:12">
@@ -73194,19 +73500,19 @@
         <v>13</v>
       </c>
       <c r="D1721" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1721" t="s">
-        <v>2436</v>
+        <v>2453</v>
       </c>
       <c r="F1721" t="s">
-        <v>2437</v>
+        <v>2454</v>
       </c>
       <c r="G1721" t="s">
-        <v>2438</v>
+        <v>2455</v>
       </c>
       <c r="H1721" t="s">
-        <v>1454</v>
+        <v>671</v>
       </c>
       <c r="I1721" t="s">
         <v>19</v>
@@ -73215,10 +73521,10 @@
         <v>1</v>
       </c>
       <c r="K1721">
-        <v>272000</v>
+        <v>2720000</v>
       </c>
       <c r="L1721">
-        <v>272000</v>
+        <v>2720000</v>
       </c>
     </row>
     <row r="1722" spans="1:12">
@@ -73232,19 +73538,19 @@
         <v>13</v>
       </c>
       <c r="D1722" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1722" t="s">
-        <v>2436</v>
+        <v>2456</v>
       </c>
       <c r="F1722" t="s">
-        <v>2437</v>
+        <v>2457</v>
       </c>
       <c r="G1722" t="s">
-        <v>2438</v>
+        <v>2458</v>
       </c>
       <c r="H1722" t="s">
-        <v>595</v>
+        <v>2459</v>
       </c>
       <c r="I1722" t="s">
         <v>19</v>
@@ -73253,10 +73559,10 @@
         <v>1</v>
       </c>
       <c r="K1722">
-        <v>1005000</v>
+        <v>1122790</v>
       </c>
       <c r="L1722">
-        <v>1005000</v>
+        <v>1122790</v>
       </c>
     </row>
     <row r="1723" spans="1:12">
@@ -73270,19 +73576,19 @@
         <v>13</v>
       </c>
       <c r="D1723" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1723" t="s">
-        <v>2436</v>
+        <v>2460</v>
       </c>
       <c r="F1723" t="s">
-        <v>2437</v>
+        <v>2461</v>
       </c>
       <c r="G1723" t="s">
-        <v>2438</v>
+        <v>2462</v>
       </c>
       <c r="H1723" t="s">
-        <v>2439</v>
+        <v>2459</v>
       </c>
       <c r="I1723" t="s">
         <v>19</v>
@@ -73291,10 +73597,10 @@
         <v>1</v>
       </c>
       <c r="K1723">
-        <v>3250000</v>
+        <v>1422000</v>
       </c>
       <c r="L1723">
-        <v>3250000</v>
+        <v>1422000</v>
       </c>
     </row>
     <row r="1724" spans="1:12">
@@ -73308,19 +73614,19 @@
         <v>13</v>
       </c>
       <c r="D1724" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1724" t="s">
-        <v>2436</v>
+        <v>2463</v>
       </c>
       <c r="F1724" t="s">
-        <v>2437</v>
+        <v>2464</v>
       </c>
       <c r="G1724" t="s">
-        <v>2438</v>
+        <v>2465</v>
       </c>
       <c r="H1724" t="s">
-        <v>452</v>
+        <v>707</v>
       </c>
       <c r="I1724" t="s">
         <v>19</v>
@@ -73329,10 +73635,10 @@
         <v>1</v>
       </c>
       <c r="K1724">
-        <v>2310000</v>
+        <v>4311971</v>
       </c>
       <c r="L1724">
-        <v>2310000</v>
+        <v>4311971</v>
       </c>
     </row>
     <row r="1725" spans="1:12">
@@ -73346,19 +73652,19 @@
         <v>13</v>
       </c>
       <c r="D1725" t="s">
-        <v>2239</v>
+        <v>2466</v>
       </c>
       <c r="E1725" t="s">
-        <v>2436</v>
+        <v>2467</v>
       </c>
       <c r="F1725" t="s">
-        <v>2437</v>
+        <v>2468</v>
       </c>
       <c r="G1725" t="s">
-        <v>2438</v>
+        <v>2469</v>
       </c>
       <c r="H1725" t="s">
-        <v>899</v>
+        <v>707</v>
       </c>
       <c r="I1725" t="s">
         <v>19</v>
@@ -73367,10 +73673,10 @@
         <v>1</v>
       </c>
       <c r="K1725">
-        <v>2235000</v>
+        <v>4133971</v>
       </c>
       <c r="L1725">
-        <v>2235000</v>
+        <v>4133971</v>
       </c>
     </row>
     <row r="1726" spans="1:12">
@@ -73384,19 +73690,19 @@
         <v>13</v>
       </c>
       <c r="D1726" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1726" t="s">
-        <v>2436</v>
+        <v>2470</v>
       </c>
       <c r="F1726" t="s">
-        <v>2437</v>
+        <v>2471</v>
       </c>
       <c r="G1726" t="s">
-        <v>2438</v>
+        <v>2472</v>
       </c>
       <c r="H1726" t="s">
-        <v>1813</v>
+        <v>183</v>
       </c>
       <c r="I1726" t="s">
         <v>19</v>
@@ -73405,10 +73711,10 @@
         <v>1</v>
       </c>
       <c r="K1726">
-        <v>390604</v>
+        <v>892693</v>
       </c>
       <c r="L1726">
-        <v>390604</v>
+        <v>892693</v>
       </c>
     </row>
     <row r="1727" spans="1:12">
@@ -73422,19 +73728,19 @@
         <v>13</v>
       </c>
       <c r="D1727" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1727" t="s">
-        <v>2436</v>
+        <v>2473</v>
       </c>
       <c r="F1727" t="s">
-        <v>2437</v>
+        <v>2474</v>
       </c>
       <c r="G1727" t="s">
-        <v>2438</v>
+        <v>2475</v>
       </c>
       <c r="H1727" t="s">
-        <v>2440</v>
+        <v>183</v>
       </c>
       <c r="I1727" t="s">
         <v>19</v>
@@ -73443,10 +73749,10 @@
         <v>1</v>
       </c>
       <c r="K1727">
-        <v>341667</v>
+        <v>1126000</v>
       </c>
       <c r="L1727">
-        <v>341667</v>
+        <v>1126000</v>
       </c>
     </row>
     <row r="1728" spans="1:12">
@@ -73460,19 +73766,19 @@
         <v>13</v>
       </c>
       <c r="D1728" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1728" t="s">
-        <v>2436</v>
+        <v>2476</v>
       </c>
       <c r="F1728" t="s">
-        <v>2437</v>
+        <v>2477</v>
       </c>
       <c r="G1728" t="s">
-        <v>2438</v>
+        <v>2478</v>
       </c>
       <c r="H1728" t="s">
-        <v>2441</v>
+        <v>183</v>
       </c>
       <c r="I1728" t="s">
         <v>19</v>
@@ -73481,10 +73787,10 @@
         <v>1</v>
       </c>
       <c r="K1728">
-        <v>740000</v>
+        <v>1310000</v>
       </c>
       <c r="L1728">
-        <v>740000</v>
+        <v>1310000</v>
       </c>
     </row>
     <row r="1729" spans="1:12">
@@ -73498,19 +73804,19 @@
         <v>13</v>
       </c>
       <c r="D1729" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1729" t="s">
-        <v>2436</v>
+        <v>2479</v>
       </c>
       <c r="F1729" t="s">
-        <v>2437</v>
+        <v>2480</v>
       </c>
       <c r="G1729" t="s">
-        <v>2438</v>
+        <v>2481</v>
       </c>
       <c r="H1729" t="s">
-        <v>2442</v>
+        <v>291</v>
       </c>
       <c r="I1729" t="s">
         <v>19</v>
@@ -73519,10 +73825,10 @@
         <v>1</v>
       </c>
       <c r="K1729">
-        <v>421140</v>
+        <v>3230000</v>
       </c>
       <c r="L1729">
-        <v>421140</v>
+        <v>3230000</v>
       </c>
     </row>
     <row r="1730" spans="1:12">
@@ -73536,19 +73842,19 @@
         <v>13</v>
       </c>
       <c r="D1730" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1730" t="s">
-        <v>2436</v>
+        <v>2482</v>
       </c>
       <c r="F1730" t="s">
-        <v>2437</v>
+        <v>2483</v>
       </c>
       <c r="G1730" t="s">
-        <v>2438</v>
+        <v>2484</v>
       </c>
       <c r="H1730" t="s">
-        <v>2203</v>
+        <v>392</v>
       </c>
       <c r="I1730" t="s">
         <v>19</v>
@@ -73557,10 +73863,10 @@
         <v>1</v>
       </c>
       <c r="K1730">
-        <v>5928000</v>
+        <v>27167250</v>
       </c>
       <c r="L1730">
-        <v>5928000</v>
+        <v>27167250</v>
       </c>
     </row>
     <row r="1731" spans="1:12">
@@ -73574,19 +73880,19 @@
         <v>13</v>
       </c>
       <c r="D1731" t="s">
-        <v>2239</v>
+        <v>2439</v>
       </c>
       <c r="E1731" t="s">
-        <v>2436</v>
+        <v>2485</v>
       </c>
       <c r="F1731" t="s">
-        <v>2437</v>
+        <v>2486</v>
       </c>
       <c r="G1731" t="s">
-        <v>2438</v>
+        <v>2487</v>
       </c>
       <c r="H1731" t="s">
-        <v>613</v>
+        <v>187</v>
       </c>
       <c r="I1731" t="s">
         <v>19</v>
@@ -73595,10 +73901,10 @@
         <v>1</v>
       </c>
       <c r="K1731">
-        <v>6786000</v>
+        <v>38031435</v>
       </c>
       <c r="L1731">
-        <v>6786000</v>
+        <v>38031435</v>
       </c>
     </row>
     <row r="1732" spans="1:12">
@@ -73615,16 +73921,16 @@
         <v>2239</v>
       </c>
       <c r="E1732" t="s">
-        <v>2436</v>
+        <v>2488</v>
       </c>
       <c r="F1732" t="s">
-        <v>2437</v>
+        <v>2489</v>
       </c>
       <c r="G1732" t="s">
-        <v>2438</v>
+        <v>2490</v>
       </c>
       <c r="H1732" t="s">
-        <v>614</v>
+        <v>400</v>
       </c>
       <c r="I1732" t="s">
         <v>19</v>
@@ -73633,10 +73939,10 @@
         <v>1</v>
       </c>
       <c r="K1732">
-        <v>4590000</v>
+        <v>425592894</v>
       </c>
       <c r="L1732">
-        <v>4590000</v>
+        <v>425592894</v>
       </c>
     </row>
     <row r="1733" spans="1:12">
@@ -73653,16 +73959,16 @@
         <v>2239</v>
       </c>
       <c r="E1733" t="s">
-        <v>2436</v>
+        <v>2491</v>
       </c>
       <c r="F1733" t="s">
-        <v>2437</v>
+        <v>2492</v>
       </c>
       <c r="G1733" t="s">
-        <v>2438</v>
+        <v>2493</v>
       </c>
       <c r="H1733" t="s">
-        <v>377</v>
+        <v>400</v>
       </c>
       <c r="I1733" t="s">
         <v>19</v>
@@ -73671,10 +73977,10 @@
         <v>1</v>
       </c>
       <c r="K1733">
-        <v>11365500</v>
+        <v>5338400</v>
       </c>
       <c r="L1733">
-        <v>11365500</v>
+        <v>5338400</v>
       </c>
     </row>
     <row r="1734" spans="1:12">
@@ -73691,16 +73997,16 @@
         <v>2239</v>
       </c>
       <c r="E1734" t="s">
-        <v>2436</v>
+        <v>2494</v>
       </c>
       <c r="F1734" t="s">
-        <v>2437</v>
+        <v>2495</v>
       </c>
       <c r="G1734" t="s">
-        <v>2438</v>
+        <v>2496</v>
       </c>
       <c r="H1734" t="s">
-        <v>438</v>
+        <v>510</v>
       </c>
       <c r="I1734" t="s">
         <v>19</v>
@@ -73709,10 +74015,10 @@
         <v>1</v>
       </c>
       <c r="K1734">
-        <v>680000</v>
+        <v>9177893</v>
       </c>
       <c r="L1734">
-        <v>680000</v>
+        <v>9177893</v>
       </c>
     </row>
     <row r="1735" spans="1:12">
@@ -73729,16 +74035,16 @@
         <v>2239</v>
       </c>
       <c r="E1735" t="s">
-        <v>2436</v>
+        <v>2497</v>
       </c>
       <c r="F1735" t="s">
-        <v>2437</v>
+        <v>2498</v>
       </c>
       <c r="G1735" t="s">
-        <v>2438</v>
+        <v>2414</v>
       </c>
       <c r="H1735" t="s">
-        <v>439</v>
+        <v>2499</v>
       </c>
       <c r="I1735" t="s">
         <v>19</v>
@@ -73747,10 +74053,10 @@
         <v>1</v>
       </c>
       <c r="K1735">
-        <v>1560200</v>
+        <v>971000</v>
       </c>
       <c r="L1735">
-        <v>1560200</v>
+        <v>971000</v>
       </c>
     </row>
     <row r="1736" spans="1:12">
@@ -73767,16 +74073,16 @@
         <v>2239</v>
       </c>
       <c r="E1736" t="s">
-        <v>2436</v>
+        <v>2497</v>
       </c>
       <c r="F1736" t="s">
-        <v>2437</v>
+        <v>2498</v>
       </c>
       <c r="G1736" t="s">
-        <v>2438</v>
+        <v>2414</v>
       </c>
       <c r="H1736" t="s">
-        <v>459</v>
+        <v>2500</v>
       </c>
       <c r="I1736" t="s">
         <v>19</v>
@@ -73785,10 +74091,10 @@
         <v>1</v>
       </c>
       <c r="K1736">
-        <v>340000</v>
+        <v>161547</v>
       </c>
       <c r="L1736">
-        <v>340000</v>
+        <v>161547</v>
       </c>
     </row>
     <row r="1737" spans="1:12">
@@ -73805,16 +74111,16 @@
         <v>2239</v>
       </c>
       <c r="E1737" t="s">
-        <v>2436</v>
+        <v>2497</v>
       </c>
       <c r="F1737" t="s">
-        <v>2437</v>
+        <v>2498</v>
       </c>
       <c r="G1737" t="s">
-        <v>2438</v>
+        <v>2414</v>
       </c>
       <c r="H1737" t="s">
-        <v>2002</v>
+        <v>2501</v>
       </c>
       <c r="I1737" t="s">
         <v>19</v>
@@ -73823,10 +74129,10 @@
         <v>1</v>
       </c>
       <c r="K1737">
-        <v>1994000</v>
+        <v>14430</v>
       </c>
       <c r="L1737">
-        <v>1994000</v>
+        <v>14430</v>
       </c>
     </row>
     <row r="1738" spans="1:12">
@@ -73843,16 +74149,16 @@
         <v>2239</v>
       </c>
       <c r="E1738" t="s">
-        <v>2436</v>
+        <v>2497</v>
       </c>
       <c r="F1738" t="s">
-        <v>2437</v>
+        <v>2498</v>
       </c>
       <c r="G1738" t="s">
-        <v>2438</v>
+        <v>2414</v>
       </c>
       <c r="H1738" t="s">
-        <v>902</v>
+        <v>1472</v>
       </c>
       <c r="I1738" t="s">
         <v>19</v>
@@ -73861,10 +74167,10 @@
         <v>1</v>
       </c>
       <c r="K1738">
-        <v>2058500</v>
+        <v>1050600</v>
       </c>
       <c r="L1738">
-        <v>2058500</v>
+        <v>1050600</v>
       </c>
     </row>
     <row r="1739" spans="1:12">
@@ -73878,19 +74184,19 @@
         <v>13</v>
       </c>
       <c r="D1739" t="s">
-        <v>2239</v>
+        <v>2502</v>
       </c>
       <c r="E1739" t="s">
-        <v>2436</v>
+        <v>2503</v>
       </c>
       <c r="F1739" t="s">
-        <v>2437</v>
+        <v>2504</v>
       </c>
       <c r="G1739" t="s">
-        <v>2438</v>
+        <v>2505</v>
       </c>
       <c r="H1739" t="s">
-        <v>1781</v>
+        <v>2079</v>
       </c>
       <c r="I1739" t="s">
         <v>19</v>
@@ -73899,10 +74205,10 @@
         <v>1</v>
       </c>
       <c r="K1739">
-        <v>510000</v>
+        <v>850000</v>
       </c>
       <c r="L1739">
-        <v>510000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="1740" spans="1:12">
@@ -73916,19 +74222,19 @@
         <v>13</v>
       </c>
       <c r="D1740" t="s">
-        <v>2239</v>
+        <v>2502</v>
       </c>
       <c r="E1740" t="s">
-        <v>2436</v>
+        <v>2506</v>
       </c>
       <c r="F1740" t="s">
-        <v>2437</v>
+        <v>2507</v>
       </c>
       <c r="G1740" t="s">
-        <v>2438</v>
+        <v>2508</v>
       </c>
       <c r="H1740" t="s">
-        <v>615</v>
+        <v>2079</v>
       </c>
       <c r="I1740" t="s">
         <v>19</v>
@@ -73937,10 +74243,10 @@
         <v>1</v>
       </c>
       <c r="K1740">
-        <v>1200000</v>
+        <v>170000</v>
       </c>
       <c r="L1740">
-        <v>1200000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="1741" spans="1:12">
@@ -73954,19 +74260,19 @@
         <v>13</v>
       </c>
       <c r="D1741" t="s">
-        <v>2239</v>
+        <v>2502</v>
       </c>
       <c r="E1741" t="s">
-        <v>2436</v>
+        <v>2509</v>
       </c>
       <c r="F1741" t="s">
-        <v>2437</v>
+        <v>2510</v>
       </c>
       <c r="G1741" t="s">
-        <v>2438</v>
+        <v>2511</v>
       </c>
       <c r="H1741" t="s">
-        <v>465</v>
+        <v>2080</v>
       </c>
       <c r="I1741" t="s">
         <v>19</v>
@@ -73975,10 +74281,10 @@
         <v>1</v>
       </c>
       <c r="K1741">
-        <v>680000</v>
+        <v>900000</v>
       </c>
       <c r="L1741">
-        <v>680000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="1742" spans="1:12">
@@ -73992,19 +74298,19 @@
         <v>13</v>
       </c>
       <c r="D1742" t="s">
-        <v>2239</v>
+        <v>2502</v>
       </c>
       <c r="E1742" t="s">
-        <v>2436</v>
+        <v>2512</v>
       </c>
       <c r="F1742" t="s">
-        <v>2437</v>
+        <v>2513</v>
       </c>
       <c r="G1742" t="s">
-        <v>2438</v>
+        <v>2514</v>
       </c>
       <c r="H1742" t="s">
-        <v>467</v>
+        <v>2080</v>
       </c>
       <c r="I1742" t="s">
         <v>19</v>
@@ -74013,10 +74319,10 @@
         <v>1</v>
       </c>
       <c r="K1742">
-        <v>600000</v>
+        <v>300000</v>
       </c>
       <c r="L1742">
-        <v>600000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="1743" spans="1:12">
@@ -74030,19 +74336,19 @@
         <v>13</v>
       </c>
       <c r="D1743" t="s">
-        <v>2239</v>
+        <v>2502</v>
       </c>
       <c r="E1743" t="s">
-        <v>2443</v>
+        <v>2515</v>
       </c>
       <c r="F1743" t="s">
-        <v>2444</v>
+        <v>2516</v>
       </c>
       <c r="G1743" t="s">
-        <v>2445</v>
+        <v>2517</v>
       </c>
       <c r="H1743" t="s">
-        <v>2446</v>
+        <v>2518</v>
       </c>
       <c r="I1743" t="s">
         <v>19</v>
@@ -74051,10 +74357,10 @@
         <v>1</v>
       </c>
       <c r="K1743">
-        <v>666000</v>
+        <v>390000</v>
       </c>
       <c r="L1743">
-        <v>666000</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="1744" spans="1:12">
@@ -74068,19 +74374,19 @@
         <v>13</v>
       </c>
       <c r="D1744" t="s">
-        <v>2239</v>
+        <v>2502</v>
       </c>
       <c r="E1744" t="s">
-        <v>2447</v>
+        <v>2515</v>
       </c>
       <c r="F1744" t="s">
-        <v>2448</v>
+        <v>2516</v>
       </c>
       <c r="G1744" t="s">
-        <v>2449</v>
+        <v>2517</v>
       </c>
       <c r="H1744" t="s">
-        <v>396</v>
+        <v>2519</v>
       </c>
       <c r="I1744" t="s">
         <v>19</v>
@@ -74089,10 +74395,10 @@
         <v>1</v>
       </c>
       <c r="K1744">
-        <v>200029106</v>
+        <v>510000</v>
       </c>
       <c r="L1744">
-        <v>200029106</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="1745" spans="1:12">
@@ -74106,19 +74412,19 @@
         <v>13</v>
       </c>
       <c r="D1745" t="s">
-        <v>2450</v>
+        <v>2502</v>
       </c>
       <c r="E1745" t="s">
-        <v>2451</v>
+        <v>2520</v>
       </c>
       <c r="F1745" t="s">
-        <v>2452</v>
+        <v>2521</v>
       </c>
       <c r="G1745" t="s">
-        <v>2453</v>
+        <v>2522</v>
       </c>
       <c r="H1745" t="s">
-        <v>2454</v>
+        <v>1472</v>
       </c>
       <c r="I1745" t="s">
         <v>19</v>
@@ -74127,10 +74433,10 @@
         <v>1</v>
       </c>
       <c r="K1745">
-        <v>1190000</v>
+        <v>1364000</v>
       </c>
       <c r="L1745">
-        <v>1190000</v>
+        <v>1364000</v>
       </c>
     </row>
     <row r="1746" spans="1:12">
@@ -74144,19 +74450,19 @@
         <v>13</v>
       </c>
       <c r="D1746" t="s">
-        <v>2450</v>
+        <v>2523</v>
       </c>
       <c r="E1746" t="s">
-        <v>2455</v>
+        <v>2524</v>
       </c>
       <c r="F1746" t="s">
-        <v>2456</v>
+        <v>2525</v>
       </c>
       <c r="G1746" t="s">
-        <v>2457</v>
+        <v>2526</v>
       </c>
       <c r="H1746" t="s">
-        <v>666</v>
+        <v>786</v>
       </c>
       <c r="I1746" t="s">
         <v>19</v>
@@ -74165,10 +74471,10 @@
         <v>1</v>
       </c>
       <c r="K1746">
-        <v>588100</v>
+        <v>15065000</v>
       </c>
       <c r="L1746">
-        <v>588100</v>
+        <v>15065000</v>
       </c>
     </row>
     <row r="1747" spans="1:12">
@@ -74182,19 +74488,19 @@
         <v>13</v>
       </c>
       <c r="D1747" t="s">
-        <v>2450</v>
+        <v>2502</v>
       </c>
       <c r="E1747" t="s">
-        <v>2455</v>
+        <v>2527</v>
       </c>
       <c r="F1747" t="s">
-        <v>2456</v>
+        <v>2528</v>
       </c>
       <c r="G1747" t="s">
-        <v>2457</v>
+        <v>2529</v>
       </c>
       <c r="H1747" t="s">
-        <v>669</v>
+        <v>2530</v>
       </c>
       <c r="I1747" t="s">
         <v>19</v>
@@ -74203,10 +74509,10 @@
         <v>1</v>
       </c>
       <c r="K1747">
-        <v>525000</v>
+        <v>170000</v>
       </c>
       <c r="L1747">
-        <v>525000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="1748" spans="1:12">
@@ -74220,19 +74526,19 @@
         <v>13</v>
       </c>
       <c r="D1748" t="s">
-        <v>2450</v>
+        <v>2502</v>
       </c>
       <c r="E1748" t="s">
-        <v>2458</v>
+        <v>2527</v>
       </c>
       <c r="F1748" t="s">
-        <v>2459</v>
+        <v>2528</v>
       </c>
       <c r="G1748" t="s">
-        <v>2460</v>
+        <v>2529</v>
       </c>
       <c r="H1748" t="s">
-        <v>671</v>
+        <v>2531</v>
       </c>
       <c r="I1748" t="s">
         <v>19</v>
@@ -74241,10 +74547,10 @@
         <v>1</v>
       </c>
       <c r="K1748">
-        <v>1360000</v>
+        <v>130000</v>
       </c>
       <c r="L1748">
-        <v>1360000</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="1749" spans="1:12">
@@ -74258,19 +74564,19 @@
         <v>13</v>
       </c>
       <c r="D1749" t="s">
-        <v>2450</v>
+        <v>2523</v>
       </c>
       <c r="E1749" t="s">
-        <v>2461</v>
+        <v>2532</v>
       </c>
       <c r="F1749" t="s">
-        <v>2462</v>
+        <v>2533</v>
       </c>
       <c r="G1749" t="s">
-        <v>2463</v>
+        <v>2534</v>
       </c>
       <c r="H1749" t="s">
-        <v>708</v>
+        <v>796</v>
       </c>
       <c r="I1749" t="s">
         <v>19</v>
@@ -74279,10 +74585,10 @@
         <v>1</v>
       </c>
       <c r="K1749">
-        <v>986000</v>
+        <v>30222000</v>
       </c>
       <c r="L1749">
-        <v>986000</v>
+        <v>30222000</v>
       </c>
     </row>
     <row r="1750" spans="1:12">
@@ -74296,19 +74602,19 @@
         <v>13</v>
       </c>
       <c r="D1750" t="s">
-        <v>2450</v>
+        <v>2523</v>
       </c>
       <c r="E1750" t="s">
-        <v>2464</v>
+        <v>2535</v>
       </c>
       <c r="F1750" t="s">
-        <v>2465</v>
+        <v>2536</v>
       </c>
       <c r="G1750" t="s">
-        <v>2466</v>
+        <v>2537</v>
       </c>
       <c r="H1750" t="s">
-        <v>671</v>
+        <v>796</v>
       </c>
       <c r="I1750" t="s">
         <v>19</v>
@@ -74317,10 +74623,10 @@
         <v>1</v>
       </c>
       <c r="K1750">
-        <v>2720000</v>
+        <v>850000</v>
       </c>
       <c r="L1750">
-        <v>2720000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="1751" spans="1:12">
@@ -74334,19 +74640,19 @@
         <v>13</v>
       </c>
       <c r="D1751" t="s">
-        <v>2450</v>
+        <v>2523</v>
       </c>
       <c r="E1751" t="s">
-        <v>2467</v>
+        <v>2538</v>
       </c>
       <c r="F1751" t="s">
-        <v>2468</v>
+        <v>2539</v>
       </c>
       <c r="G1751" t="s">
-        <v>2469</v>
+        <v>2540</v>
       </c>
       <c r="H1751" t="s">
-        <v>2470</v>
+        <v>1119</v>
       </c>
       <c r="I1751" t="s">
         <v>19</v>
@@ -74355,10 +74661,10 @@
         <v>1</v>
       </c>
       <c r="K1751">
-        <v>1122790</v>
+        <v>851000</v>
       </c>
       <c r="L1751">
-        <v>1122790</v>
+        <v>851000</v>
       </c>
     </row>
     <row r="1752" spans="1:12">
@@ -74372,19 +74678,19 @@
         <v>13</v>
       </c>
       <c r="D1752" t="s">
-        <v>2450</v>
+        <v>2502</v>
       </c>
       <c r="E1752" t="s">
-        <v>2471</v>
+        <v>2541</v>
       </c>
       <c r="F1752" t="s">
-        <v>2472</v>
+        <v>2542</v>
       </c>
       <c r="G1752" t="s">
-        <v>2473</v>
+        <v>2543</v>
       </c>
       <c r="H1752" t="s">
-        <v>2470</v>
+        <v>1770</v>
       </c>
       <c r="I1752" t="s">
         <v>19</v>
@@ -74393,10 +74699,10 @@
         <v>1</v>
       </c>
       <c r="K1752">
-        <v>1422000</v>
+        <v>6882000</v>
       </c>
       <c r="L1752">
-        <v>1422000</v>
+        <v>6882000</v>
       </c>
     </row>
     <row r="1753" spans="1:12">
@@ -74410,19 +74716,19 @@
         <v>13</v>
       </c>
       <c r="D1753" t="s">
-        <v>2450</v>
+        <v>2502</v>
       </c>
       <c r="E1753" t="s">
-        <v>2474</v>
+        <v>2544</v>
       </c>
       <c r="F1753" t="s">
-        <v>2475</v>
+        <v>2545</v>
       </c>
       <c r="G1753" t="s">
-        <v>2476</v>
+        <v>2546</v>
       </c>
       <c r="H1753" t="s">
-        <v>707</v>
+        <v>1770</v>
       </c>
       <c r="I1753" t="s">
         <v>19</v>
@@ -74431,10 +74737,10 @@
         <v>1</v>
       </c>
       <c r="K1753">
-        <v>4311971</v>
+        <v>973900</v>
       </c>
       <c r="L1753">
-        <v>4311971</v>
+        <v>973900</v>
       </c>
     </row>
     <row r="1754" spans="1:12">
@@ -74448,19 +74754,19 @@
         <v>13</v>
       </c>
       <c r="D1754" t="s">
-        <v>2450</v>
+        <v>2502</v>
       </c>
       <c r="E1754" t="s">
-        <v>2477</v>
+        <v>2547</v>
       </c>
       <c r="F1754" t="s">
-        <v>2478</v>
+        <v>2548</v>
       </c>
       <c r="G1754" t="s">
-        <v>2479</v>
+        <v>2549</v>
       </c>
       <c r="H1754" t="s">
-        <v>183</v>
+        <v>737</v>
       </c>
       <c r="I1754" t="s">
         <v>19</v>
@@ -74469,10 +74775,10 @@
         <v>1</v>
       </c>
       <c r="K1754">
-        <v>892693</v>
+        <v>11318260</v>
       </c>
       <c r="L1754">
-        <v>892693</v>
+        <v>11318260</v>
       </c>
     </row>
     <row r="1755" spans="1:12">
@@ -74486,16 +74792,16 @@
         <v>13</v>
       </c>
       <c r="D1755" t="s">
-        <v>2450</v>
+        <v>2502</v>
       </c>
       <c r="E1755" t="s">
-        <v>2480</v>
+        <v>2550</v>
       </c>
       <c r="F1755" t="s">
-        <v>2481</v>
+        <v>2551</v>
       </c>
       <c r="G1755" t="s">
-        <v>2482</v>
+        <v>2552</v>
       </c>
       <c r="H1755" t="s">
         <v>183</v>
@@ -74507,10 +74813,10 @@
         <v>1</v>
       </c>
       <c r="K1755">
-        <v>1126000</v>
+        <v>1709500</v>
       </c>
       <c r="L1755">
-        <v>1126000</v>
+        <v>1709500</v>
       </c>
     </row>
     <row r="1756" spans="1:12">
@@ -74524,19 +74830,19 @@
         <v>13</v>
       </c>
       <c r="D1756" t="s">
-        <v>2450</v>
+        <v>2502</v>
       </c>
       <c r="E1756" t="s">
-        <v>2483</v>
+        <v>2553</v>
       </c>
       <c r="F1756" t="s">
-        <v>2484</v>
+        <v>2554</v>
       </c>
       <c r="G1756" t="s">
-        <v>2485</v>
+        <v>2555</v>
       </c>
       <c r="H1756" t="s">
-        <v>183</v>
+        <v>1770</v>
       </c>
       <c r="I1756" t="s">
         <v>19</v>
@@ -74545,10 +74851,10 @@
         <v>1</v>
       </c>
       <c r="K1756">
-        <v>1310000</v>
+        <v>1160000</v>
       </c>
       <c r="L1756">
-        <v>1310000</v>
+        <v>1160000</v>
       </c>
     </row>
     <row r="1757" spans="1:12">
@@ -74562,19 +74868,19 @@
         <v>13</v>
       </c>
       <c r="D1757" t="s">
-        <v>2450</v>
+        <v>2523</v>
       </c>
       <c r="E1757" t="s">
-        <v>2486</v>
+        <v>2556</v>
       </c>
       <c r="F1757" t="s">
-        <v>2487</v>
+        <v>2557</v>
       </c>
       <c r="G1757" t="s">
-        <v>2488</v>
+        <v>2558</v>
       </c>
       <c r="H1757" t="s">
-        <v>291</v>
+        <v>80</v>
       </c>
       <c r="I1757" t="s">
         <v>19</v>
@@ -74583,10 +74889,10 @@
         <v>1</v>
       </c>
       <c r="K1757">
-        <v>3230000</v>
+        <v>207935178</v>
       </c>
       <c r="L1757">
-        <v>3230000</v>
+        <v>207935178</v>
       </c>
     </row>
     <row r="1758" spans="1:12">
@@ -74600,19 +74906,19 @@
         <v>13</v>
       </c>
       <c r="D1758" t="s">
-        <v>2450</v>
+        <v>2523</v>
       </c>
       <c r="E1758" t="s">
-        <v>2489</v>
+        <v>2559</v>
       </c>
       <c r="F1758" t="s">
-        <v>2490</v>
+        <v>2560</v>
       </c>
       <c r="G1758" t="s">
-        <v>2491</v>
+        <v>2561</v>
       </c>
       <c r="H1758" t="s">
-        <v>392</v>
+        <v>2435</v>
       </c>
       <c r="I1758" t="s">
         <v>19</v>
@@ -74621,10 +74927,10 @@
         <v>1</v>
       </c>
       <c r="K1758">
-        <v>27167250</v>
+        <v>592000</v>
       </c>
       <c r="L1758">
-        <v>27167250</v>
+        <v>592000</v>
       </c>
     </row>
     <row r="1759" spans="1:12">
@@ -74638,19 +74944,19 @@
         <v>13</v>
       </c>
       <c r="D1759" t="s">
-        <v>2450</v>
+        <v>2502</v>
       </c>
       <c r="E1759" t="s">
-        <v>2492</v>
+        <v>2562</v>
       </c>
       <c r="F1759" t="s">
-        <v>2493</v>
+        <v>2563</v>
       </c>
       <c r="G1759" t="s">
-        <v>2494</v>
+        <v>2564</v>
       </c>
       <c r="H1759" t="s">
-        <v>187</v>
+        <v>1001</v>
       </c>
       <c r="I1759" t="s">
         <v>19</v>
@@ -74659,10 +74965,10 @@
         <v>1</v>
       </c>
       <c r="K1759">
-        <v>38031435</v>
+        <v>976000</v>
       </c>
       <c r="L1759">
-        <v>38031435</v>
+        <v>976000</v>
       </c>
     </row>
     <row r="1760" spans="1:12">
@@ -74676,19 +74982,19 @@
         <v>13</v>
       </c>
       <c r="D1760" t="s">
-        <v>2239</v>
+        <v>2502</v>
       </c>
       <c r="E1760" t="s">
-        <v>2495</v>
+        <v>2562</v>
       </c>
       <c r="F1760" t="s">
-        <v>2496</v>
+        <v>2563</v>
       </c>
       <c r="G1760" t="s">
-        <v>2497</v>
+        <v>2564</v>
       </c>
       <c r="H1760" t="s">
-        <v>400</v>
+        <v>1002</v>
       </c>
       <c r="I1760" t="s">
         <v>19</v>
@@ -74697,10 +75003,10 @@
         <v>1</v>
       </c>
       <c r="K1760">
-        <v>425592894</v>
+        <v>1908000</v>
       </c>
       <c r="L1760">
-        <v>425592894</v>
+        <v>1908000</v>
       </c>
     </row>
     <row r="1761" spans="1:12">
@@ -74714,19 +75020,19 @@
         <v>13</v>
       </c>
       <c r="D1761" t="s">
-        <v>2239</v>
+        <v>2502</v>
       </c>
       <c r="E1761" t="s">
-        <v>2498</v>
+        <v>2562</v>
       </c>
       <c r="F1761" t="s">
-        <v>2499</v>
+        <v>2563</v>
       </c>
       <c r="G1761" t="s">
-        <v>2500</v>
+        <v>2564</v>
       </c>
       <c r="H1761" t="s">
-        <v>400</v>
+        <v>1003</v>
       </c>
       <c r="I1761" t="s">
         <v>19</v>
@@ -74735,10 +75041,10 @@
         <v>1</v>
       </c>
       <c r="K1761">
-        <v>5338400</v>
+        <v>848000</v>
       </c>
       <c r="L1761">
-        <v>5338400</v>
+        <v>848000</v>
       </c>
     </row>
     <row r="1762" spans="1:12">
@@ -74752,19 +75058,19 @@
         <v>13</v>
       </c>
       <c r="D1762" t="s">
-        <v>2239</v>
+        <v>2502</v>
       </c>
       <c r="E1762" t="s">
-        <v>2501</v>
+        <v>2562</v>
       </c>
       <c r="F1762" t="s">
-        <v>2502</v>
+        <v>2563</v>
       </c>
       <c r="G1762" t="s">
-        <v>2503</v>
+        <v>2564</v>
       </c>
       <c r="H1762" t="s">
-        <v>510</v>
+        <v>1004</v>
       </c>
       <c r="I1762" t="s">
         <v>19</v>
@@ -74773,10 +75079,10 @@
         <v>1</v>
       </c>
       <c r="K1762">
-        <v>9177893</v>
+        <v>1488000</v>
       </c>
       <c r="L1762">
-        <v>9177893</v>
+        <v>1488000</v>
       </c>
     </row>
     <row r="1763" spans="1:12">
@@ -74790,19 +75096,19 @@
         <v>13</v>
       </c>
       <c r="D1763" t="s">
-        <v>2239</v>
+        <v>2502</v>
       </c>
       <c r="E1763" t="s">
-        <v>2504</v>
+        <v>2562</v>
       </c>
       <c r="F1763" t="s">
-        <v>2505</v>
+        <v>2563</v>
       </c>
       <c r="G1763" t="s">
-        <v>2425</v>
+        <v>2564</v>
       </c>
       <c r="H1763" t="s">
-        <v>2506</v>
+        <v>1005</v>
       </c>
       <c r="I1763" t="s">
         <v>19</v>
@@ -74811,10 +75117,10 @@
         <v>1</v>
       </c>
       <c r="K1763">
-        <v>971000</v>
+        <v>1264000</v>
       </c>
       <c r="L1763">
-        <v>971000</v>
+        <v>1264000</v>
       </c>
     </row>
     <row r="1764" spans="1:12">
@@ -74828,19 +75134,19 @@
         <v>13</v>
       </c>
       <c r="D1764" t="s">
-        <v>2239</v>
+        <v>2502</v>
       </c>
       <c r="E1764" t="s">
-        <v>2504</v>
+        <v>2562</v>
       </c>
       <c r="F1764" t="s">
-        <v>2505</v>
+        <v>2563</v>
       </c>
       <c r="G1764" t="s">
-        <v>2425</v>
+        <v>2564</v>
       </c>
       <c r="H1764" t="s">
-        <v>2507</v>
+        <v>1006</v>
       </c>
       <c r="I1764" t="s">
         <v>19</v>
@@ -74849,10 +75155,10 @@
         <v>1</v>
       </c>
       <c r="K1764">
-        <v>161547</v>
+        <v>1092000</v>
       </c>
       <c r="L1764">
-        <v>161547</v>
+        <v>1092000</v>
       </c>
     </row>
     <row r="1765" spans="1:12">
@@ -74866,19 +75172,19 @@
         <v>13</v>
       </c>
       <c r="D1765" t="s">
-        <v>2239</v>
+        <v>2502</v>
       </c>
       <c r="E1765" t="s">
-        <v>2504</v>
+        <v>2562</v>
       </c>
       <c r="F1765" t="s">
-        <v>2505</v>
+        <v>2563</v>
       </c>
       <c r="G1765" t="s">
-        <v>2425</v>
+        <v>2564</v>
       </c>
       <c r="H1765" t="s">
-        <v>2508</v>
+        <v>1007</v>
       </c>
       <c r="I1765" t="s">
         <v>19</v>
@@ -74887,10 +75193,10 @@
         <v>1</v>
       </c>
       <c r="K1765">
-        <v>14430</v>
+        <v>80000</v>
       </c>
       <c r="L1765">
-        <v>14430</v>
+        <v>80000</v>
       </c>
     </row>
     <row r="1766" spans="1:12">
@@ -74904,31 +75210,829 @@
         <v>13</v>
       </c>
       <c r="D1766" t="s">
-        <v>2239</v>
+        <v>2502</v>
       </c>
       <c r="E1766" t="s">
-        <v>2504</v>
+        <v>2562</v>
       </c>
       <c r="F1766" t="s">
-        <v>2505</v>
+        <v>2563</v>
       </c>
       <c r="G1766" t="s">
-        <v>2425</v>
+        <v>2564</v>
       </c>
       <c r="H1766" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I1766" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1766">
+        <v>1</v>
+      </c>
+      <c r="K1766">
+        <v>100000</v>
+      </c>
+      <c r="L1766">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1767" spans="1:12">
+      <c r="A1767">
+        <v>1764</v>
+      </c>
+      <c r="B1767">
+        <v>626402</v>
+      </c>
+      <c r="C1767" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1767" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E1767" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F1767" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G1767" t="s">
+        <v>2564</v>
+      </c>
+      <c r="H1767" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I1767" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1767">
+        <v>1</v>
+      </c>
+      <c r="K1767">
+        <v>392000</v>
+      </c>
+      <c r="L1767">
+        <v>392000</v>
+      </c>
+    </row>
+    <row r="1768" spans="1:12">
+      <c r="A1768">
+        <v>1765</v>
+      </c>
+      <c r="B1768">
+        <v>626402</v>
+      </c>
+      <c r="C1768" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1768" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E1768" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F1768" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G1768" t="s">
+        <v>2564</v>
+      </c>
+      <c r="H1768" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I1768" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1768">
+        <v>1</v>
+      </c>
+      <c r="K1768">
+        <v>120000</v>
+      </c>
+      <c r="L1768">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="1769" spans="1:12">
+      <c r="A1769">
+        <v>1766</v>
+      </c>
+      <c r="B1769">
+        <v>626402</v>
+      </c>
+      <c r="C1769" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1769" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E1769" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F1769" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G1769" t="s">
+        <v>2564</v>
+      </c>
+      <c r="H1769" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I1769" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1769">
+        <v>1</v>
+      </c>
+      <c r="K1769">
+        <v>160000</v>
+      </c>
+      <c r="L1769">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="1770" spans="1:12">
+      <c r="A1770">
+        <v>1767</v>
+      </c>
+      <c r="B1770">
+        <v>626402</v>
+      </c>
+      <c r="C1770" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1770" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E1770" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F1770" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G1770" t="s">
+        <v>2564</v>
+      </c>
+      <c r="H1770" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I1770" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1770">
+        <v>1</v>
+      </c>
+      <c r="K1770">
+        <v>140000</v>
+      </c>
+      <c r="L1770">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="1771" spans="1:12">
+      <c r="A1771">
+        <v>1768</v>
+      </c>
+      <c r="B1771">
+        <v>626402</v>
+      </c>
+      <c r="C1771" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1771" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E1771" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F1771" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G1771" t="s">
+        <v>2564</v>
+      </c>
+      <c r="H1771" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I1771" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1771">
+        <v>1</v>
+      </c>
+      <c r="K1771">
+        <v>360000</v>
+      </c>
+      <c r="L1771">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="1772" spans="1:12">
+      <c r="A1772">
+        <v>1769</v>
+      </c>
+      <c r="B1772">
+        <v>626402</v>
+      </c>
+      <c r="C1772" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1772" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E1772" t="s">
+        <v>2562</v>
+      </c>
+      <c r="F1772" t="s">
+        <v>2563</v>
+      </c>
+      <c r="G1772" t="s">
+        <v>2564</v>
+      </c>
+      <c r="H1772" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I1772" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1772">
+        <v>1</v>
+      </c>
+      <c r="K1772">
+        <v>392000</v>
+      </c>
+      <c r="L1772">
+        <v>392000</v>
+      </c>
+    </row>
+    <row r="1773" spans="1:12">
+      <c r="A1773">
+        <v>1770</v>
+      </c>
+      <c r="B1773">
+        <v>626402</v>
+      </c>
+      <c r="C1773" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1773" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E1773" t="s">
+        <v>2565</v>
+      </c>
+      <c r="F1773" t="s">
+        <v>2566</v>
+      </c>
+      <c r="G1773" t="s">
+        <v>2567</v>
+      </c>
+      <c r="H1773" t="s">
+        <v>929</v>
+      </c>
+      <c r="I1773" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1773">
+        <v>1</v>
+      </c>
+      <c r="K1773">
+        <v>225000000</v>
+      </c>
+      <c r="L1773">
+        <v>225000000</v>
+      </c>
+    </row>
+    <row r="1774" spans="1:12">
+      <c r="A1774">
+        <v>1771</v>
+      </c>
+      <c r="B1774">
+        <v>626402</v>
+      </c>
+      <c r="C1774" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1774" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E1774" t="s">
+        <v>2568</v>
+      </c>
+      <c r="F1774" t="s">
+        <v>2569</v>
+      </c>
+      <c r="G1774" t="s">
+        <v>2570</v>
+      </c>
+      <c r="H1774" t="s">
+        <v>708</v>
+      </c>
+      <c r="I1774" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1774">
+        <v>1</v>
+      </c>
+      <c r="K1774">
+        <v>1184500</v>
+      </c>
+      <c r="L1774">
+        <v>1184500</v>
+      </c>
+    </row>
+    <row r="1775" spans="1:12">
+      <c r="A1775">
+        <v>1772</v>
+      </c>
+      <c r="B1775">
+        <v>626402</v>
+      </c>
+      <c r="C1775" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1775" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E1775" t="s">
+        <v>2571</v>
+      </c>
+      <c r="F1775" t="s">
+        <v>2572</v>
+      </c>
+      <c r="G1775" t="s">
+        <v>2573</v>
+      </c>
+      <c r="H1775" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1775" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1775">
+        <v>1</v>
+      </c>
+      <c r="K1775">
+        <v>8311000</v>
+      </c>
+      <c r="L1775">
+        <v>8311000</v>
+      </c>
+    </row>
+    <row r="1776" spans="1:12">
+      <c r="A1776">
+        <v>1773</v>
+      </c>
+      <c r="B1776">
+        <v>626402</v>
+      </c>
+      <c r="C1776" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1776" t="s">
+        <v>2502</v>
+      </c>
+      <c r="E1776" t="s">
+        <v>2574</v>
+      </c>
+      <c r="F1776" t="s">
+        <v>2575</v>
+      </c>
+      <c r="G1776" t="s">
+        <v>2576</v>
+      </c>
+      <c r="H1776" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1776" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1776">
+        <v>1</v>
+      </c>
+      <c r="K1776">
+        <v>61129600</v>
+      </c>
+      <c r="L1776">
+        <v>61129600</v>
+      </c>
+    </row>
+    <row r="1777" spans="1:12">
+      <c r="A1777">
+        <v>1774</v>
+      </c>
+      <c r="B1777">
+        <v>626402</v>
+      </c>
+      <c r="C1777" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1777" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E1777" t="s">
+        <v>2577</v>
+      </c>
+      <c r="F1777" t="s">
+        <v>2578</v>
+      </c>
+      <c r="G1777" t="s">
+        <v>2579</v>
+      </c>
+      <c r="H1777" t="s">
+        <v>1754</v>
+      </c>
+      <c r="I1777" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1777">
+        <v>1</v>
+      </c>
+      <c r="K1777">
+        <v>3300000</v>
+      </c>
+      <c r="L1777">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="1778" spans="1:12">
+      <c r="A1778">
+        <v>1775</v>
+      </c>
+      <c r="B1778">
+        <v>626402</v>
+      </c>
+      <c r="C1778" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1778" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E1778" t="s">
+        <v>2580</v>
+      </c>
+      <c r="F1778" t="s">
+        <v>2581</v>
+      </c>
+      <c r="G1778" t="s">
+        <v>2582</v>
+      </c>
+      <c r="H1778" t="s">
+        <v>2583</v>
+      </c>
+      <c r="I1778" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1778">
+        <v>1</v>
+      </c>
+      <c r="K1778">
+        <v>4582192</v>
+      </c>
+      <c r="L1778">
+        <v>4582192</v>
+      </c>
+    </row>
+    <row r="1779" spans="1:12">
+      <c r="A1779">
+        <v>1776</v>
+      </c>
+      <c r="B1779">
+        <v>626402</v>
+      </c>
+      <c r="C1779" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1779" t="s">
+        <v>2523</v>
+      </c>
+      <c r="E1779" t="s">
+        <v>2584</v>
+      </c>
+      <c r="F1779" t="s">
+        <v>2585</v>
+      </c>
+      <c r="G1779" t="s">
+        <v>2586</v>
+      </c>
+      <c r="H1779" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1779" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1779">
+        <v>1</v>
+      </c>
+      <c r="K1779">
+        <v>4582743</v>
+      </c>
+      <c r="L1779">
+        <v>4582743</v>
+      </c>
+    </row>
+    <row r="1780" spans="1:12">
+      <c r="A1780">
+        <v>1777</v>
+      </c>
+      <c r="B1780">
+        <v>626402</v>
+      </c>
+      <c r="C1780" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1780" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E1780" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F1780" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G1780" t="s">
+        <v>2589</v>
+      </c>
+      <c r="H1780" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I1780" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1780">
+        <v>1</v>
+      </c>
+      <c r="K1780">
+        <v>10602000</v>
+      </c>
+      <c r="L1780">
+        <v>10602000</v>
+      </c>
+    </row>
+    <row r="1781" spans="1:12">
+      <c r="A1781">
+        <v>1778</v>
+      </c>
+      <c r="B1781">
+        <v>626402</v>
+      </c>
+      <c r="C1781" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1781" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E1781" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F1781" t="s">
+        <v>2591</v>
+      </c>
+      <c r="G1781" t="s">
+        <v>2592</v>
+      </c>
+      <c r="H1781" t="s">
+        <v>587</v>
+      </c>
+      <c r="I1781" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1781">
+        <v>1</v>
+      </c>
+      <c r="K1781">
+        <v>2053500</v>
+      </c>
+      <c r="L1781">
+        <v>2053500</v>
+      </c>
+    </row>
+    <row r="1782" spans="1:12">
+      <c r="A1782">
+        <v>1779</v>
+      </c>
+      <c r="B1782">
+        <v>626402</v>
+      </c>
+      <c r="C1782" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1782" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E1782" t="s">
+        <v>2593</v>
+      </c>
+      <c r="F1782" t="s">
+        <v>2594</v>
+      </c>
+      <c r="G1782" t="s">
+        <v>2595</v>
+      </c>
+      <c r="H1782" t="s">
+        <v>336</v>
+      </c>
+      <c r="I1782" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1782">
+        <v>1</v>
+      </c>
+      <c r="K1782">
+        <v>20000000</v>
+      </c>
+      <c r="L1782">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="1783" spans="1:12">
+      <c r="A1783">
+        <v>1780</v>
+      </c>
+      <c r="B1783">
+        <v>626402</v>
+      </c>
+      <c r="C1783" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1783" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E1783" t="s">
+        <v>2596</v>
+      </c>
+      <c r="F1783" t="s">
+        <v>2597</v>
+      </c>
+      <c r="G1783" t="s">
+        <v>2598</v>
+      </c>
+      <c r="H1783" t="s">
+        <v>418</v>
+      </c>
+      <c r="I1783" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1783">
+        <v>1</v>
+      </c>
+      <c r="K1783">
+        <v>600000</v>
+      </c>
+      <c r="L1783">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="1784" spans="1:12">
+      <c r="A1784">
+        <v>1781</v>
+      </c>
+      <c r="B1784">
+        <v>626402</v>
+      </c>
+      <c r="C1784" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1784" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E1784" t="s">
+        <v>2599</v>
+      </c>
+      <c r="F1784" t="s">
+        <v>2600</v>
+      </c>
+      <c r="G1784" t="s">
+        <v>2601</v>
+      </c>
+      <c r="H1784" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1784" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1784">
+        <v>1</v>
+      </c>
+      <c r="K1784">
+        <v>582380</v>
+      </c>
+      <c r="L1784">
+        <v>582380</v>
+      </c>
+    </row>
+    <row r="1785" spans="1:12">
+      <c r="A1785">
+        <v>1782</v>
+      </c>
+      <c r="B1785">
+        <v>626402</v>
+      </c>
+      <c r="C1785" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1785" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E1785" t="s">
+        <v>2602</v>
+      </c>
+      <c r="F1785" t="s">
+        <v>2603</v>
+      </c>
+      <c r="G1785" t="s">
+        <v>2604</v>
+      </c>
+      <c r="H1785" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I1785" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1785">
+        <v>1</v>
+      </c>
+      <c r="K1785">
+        <v>340000</v>
+      </c>
+      <c r="L1785">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="1786" spans="1:12">
+      <c r="A1786">
+        <v>1783</v>
+      </c>
+      <c r="B1786">
+        <v>626402</v>
+      </c>
+      <c r="C1786" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1786" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E1786" t="s">
+        <v>2605</v>
+      </c>
+      <c r="F1786" t="s">
+        <v>2606</v>
+      </c>
+      <c r="G1786" t="s">
+        <v>2607</v>
+      </c>
+      <c r="H1786" t="s">
         <v>1472</v>
       </c>
-      <c r="I1766" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1766">
-        <v>1</v>
-      </c>
-      <c r="K1766">
-        <v>1050600</v>
-      </c>
-      <c r="L1766">
-        <v>1050600</v>
+      <c r="I1786" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1786">
+        <v>1</v>
+      </c>
+      <c r="K1786">
+        <v>697400</v>
+      </c>
+      <c r="L1786">
+        <v>697400</v>
+      </c>
+    </row>
+    <row r="1787" spans="1:12">
+      <c r="A1787">
+        <v>1784</v>
+      </c>
+      <c r="B1787">
+        <v>626402</v>
+      </c>
+      <c r="C1787" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1787" t="s">
+        <v>2466</v>
+      </c>
+      <c r="E1787" t="s">
+        <v>2608</v>
+      </c>
+      <c r="F1787" t="s">
+        <v>2609</v>
+      </c>
+      <c r="G1787" t="s">
+        <v>2610</v>
+      </c>
+      <c r="H1787" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I1787" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1787">
+        <v>1</v>
+      </c>
+      <c r="K1787">
+        <v>433000</v>
+      </c>
+      <c r="L1787">
+        <v>433000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2611">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2664">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -7037,6 +7037,45 @@
     <t>Pembayaran Belanja Barang. Jasa Profesi Reviewer Penelitian Terapan Terpusat an. Friesland dan Masudin , dkk sesuai SK PPK No KEP.36/BPPSDM.4/II/2024 tgl 20 Februari 2024, Surat Perintah Plt. Pusdik NoB.424/BPPSDM.4/K P.440/II/2024 tgl 20 Feb 2024</t>
   </si>
   <si>
+    <t>'00610T</t>
+  </si>
+  <si>
+    <t>'241751303013524</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.052.0B.000209</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0B.000237</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.301.0J.001669</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0G.001719</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0J.001711</t>
+  </si>
+  <si>
+    <t>'626402.175.521219.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.301.0J.001676</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2376ABW.A000000001.00000.1.0151.2.000000.000000.001.051.0A.000180</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2376ABW.A000000001.00000.1.0151.2.000000.000000.001.051.0A.000181</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0A.000218</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.053.0A.000219</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0I.001710</t>
+  </si>
+  <si>
     <t>'00612T</t>
   </si>
   <si>
@@ -7848,6 +7887,126 @@
   </si>
   <si>
     <t>Pembayaran Belanja Barang perjalanan dinas untuk 1 pegawai sesuai ST No:B.3360/BPPSDM.1/KP.440/IV/2024 Tgl.18-4-2024 a.n.Dewi Ayu Utari</t>
+  </si>
+  <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>'00711T</t>
+  </si>
+  <si>
+    <t>'241751301014751</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Purwakarta-Tegal(PP) tgl 20-21 Maret 2024 an.Yayan H sesuai ST No B.510/BPPSDM.4/KP.440/III/2024 Tgl 19/3/2024, an. Hadi A sesuai ST No B.700/BPPSDM.4/KP.440/III/2024 Tgl 20/3/2024</t>
+  </si>
+  <si>
+    <t>'00712T</t>
+  </si>
+  <si>
+    <t>'241751303014808</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Jasa Profesi Reviewer Penelitian Terapan Terpusat an.Irzal,Akmal,Siti sesuai SK PPK No KEP.36/BPPSDM.4/II/2024 tgl 20 Februari 2024, Surat Perintah Plt. Pusdik NoB.424/BPPSDM.4/K P.440/II/2024 tgl 20 Feb 2024.</t>
+  </si>
+  <si>
+    <t>'00713T</t>
+  </si>
+  <si>
+    <t>'241751303014789</t>
+  </si>
+  <si>
+    <t>'626402.175.521219.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.963.102.0A.000770</t>
+  </si>
+  <si>
+    <t>'626402.175.521252.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AA.001650</t>
+  </si>
+  <si>
+    <t>'626402.175.522119.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.102.0A.001652</t>
+  </si>
+  <si>
+    <t>'626402.175.522119.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.102.0A.001653</t>
+  </si>
+  <si>
+    <t>'626402.175.522151.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0B.000888</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.101.0C.000904</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.000612</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.101.BB.001125</t>
+  </si>
+  <si>
+    <t>'00714T</t>
+  </si>
+  <si>
+    <t>'241751303014790</t>
+  </si>
+  <si>
+    <t>Penggantian Uang Persediaan KKP untuk Keperluan Belanja Barang (BPP 001 Set. BPPSDM)</t>
+  </si>
+  <si>
+    <t>'00716T</t>
+  </si>
+  <si>
+    <t>'241751303014821</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin untuk 2 pegawai sesuai ST No.B.3345/BPPSDM.1/KP.440/IV/2024 Tgl. 17 April 2024 a.n Wisnu Indrabayu dkk</t>
+  </si>
+  <si>
+    <t>'00717T</t>
+  </si>
+  <si>
+    <t>'241751303014809</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang berupa biaya perjadin untuk 4 pegawai sesuai ST No.B.3412/BPPSDM.1/KP.440/IV/2024 Tgl. 22 April 2024 a.n Dewi Rukmasari dkk</t>
+  </si>
+  <si>
+    <t>'00718T</t>
+  </si>
+  <si>
+    <t>'241751303014810</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST No. B.3357/BPPSDM.1/KP.440/IV/2024 Tanggal 17 April 2024 a.n Dewi Rukmasari dkk.</t>
+  </si>
+  <si>
+    <t>'00719T</t>
+  </si>
+  <si>
+    <t>'241751303014820</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 5 pegawai sesuai ST No. B.3377/BPPSDM.1/KP.440/IV/2024 Tanggal 18 April 2024 a.n Rudi Alek Wahyudin dkk.</t>
+  </si>
+  <si>
+    <t>'00720T</t>
+  </si>
+  <si>
+    <t>'241751303014811</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST No. B.3377/BPPSDM.1/KP.440/IV/2024 Tanggal 18 April 2024 a.n Nurhayati dkk</t>
+  </si>
+  <si>
+    <t>'00721T</t>
+  </si>
+  <si>
+    <t>'241751303014812</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST No. B.3176/BPPSDM.1/KP.440/III/2024 Tanggal 28 Maret 2024 a.n I Wayan Purya Arnata dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001770</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001772</t>
   </si>
 </sst>
 </file>
@@ -8189,7 +8348,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L1787"/>
+  <dimension ref="A1:L1862"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -70925,10 +71084,10 @@
         <v>2341</v>
       </c>
       <c r="G1653" t="s">
-        <v>2342</v>
+        <v>1507</v>
       </c>
       <c r="H1653" t="s">
-        <v>392</v>
+        <v>941</v>
       </c>
       <c r="I1653" t="s">
         <v>19</v>
@@ -70937,10 +71096,10 @@
         <v>1</v>
       </c>
       <c r="K1653">
-        <v>196234560</v>
+        <v>850000</v>
       </c>
       <c r="L1653">
-        <v>196234560</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="1654" spans="1:12">
@@ -70954,19 +71113,19 @@
         <v>13</v>
       </c>
       <c r="D1654" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1654" t="s">
-        <v>2343</v>
+        <v>2340</v>
       </c>
       <c r="F1654" t="s">
-        <v>2344</v>
+        <v>2341</v>
       </c>
       <c r="G1654" t="s">
-        <v>2345</v>
+        <v>1507</v>
       </c>
       <c r="H1654" t="s">
-        <v>2293</v>
+        <v>942</v>
       </c>
       <c r="I1654" t="s">
         <v>19</v>
@@ -70975,10 +71134,10 @@
         <v>1</v>
       </c>
       <c r="K1654">
-        <v>15345972</v>
+        <v>70000</v>
       </c>
       <c r="L1654">
-        <v>15345972</v>
+        <v>70000</v>
       </c>
     </row>
     <row r="1655" spans="1:12">
@@ -70992,19 +71151,19 @@
         <v>13</v>
       </c>
       <c r="D1655" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1655" t="s">
-        <v>2346</v>
+        <v>2340</v>
       </c>
       <c r="F1655" t="s">
-        <v>2347</v>
+        <v>2341</v>
       </c>
       <c r="G1655" t="s">
-        <v>2348</v>
+        <v>1507</v>
       </c>
       <c r="H1655" t="s">
-        <v>708</v>
+        <v>945</v>
       </c>
       <c r="I1655" t="s">
         <v>19</v>
@@ -71013,10 +71172,10 @@
         <v>1</v>
       </c>
       <c r="K1655">
-        <v>340000</v>
+        <v>1400000</v>
       </c>
       <c r="L1655">
-        <v>340000</v>
+        <v>1400000</v>
       </c>
     </row>
     <row r="1656" spans="1:12">
@@ -71030,19 +71189,19 @@
         <v>13</v>
       </c>
       <c r="D1656" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1656" t="s">
-        <v>2349</v>
+        <v>2340</v>
       </c>
       <c r="F1656" t="s">
-        <v>2350</v>
+        <v>2341</v>
       </c>
       <c r="G1656" t="s">
-        <v>2351</v>
+        <v>1507</v>
       </c>
       <c r="H1656" t="s">
-        <v>128</v>
+        <v>946</v>
       </c>
       <c r="I1656" t="s">
         <v>19</v>
@@ -71051,10 +71210,10 @@
         <v>1</v>
       </c>
       <c r="K1656">
-        <v>4114620</v>
+        <v>440000</v>
       </c>
       <c r="L1656">
-        <v>4114620</v>
+        <v>440000</v>
       </c>
     </row>
     <row r="1657" spans="1:12">
@@ -71068,19 +71227,19 @@
         <v>13</v>
       </c>
       <c r="D1657" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1657" t="s">
-        <v>2352</v>
+        <v>2340</v>
       </c>
       <c r="F1657" t="s">
-        <v>2353</v>
+        <v>2341</v>
       </c>
       <c r="G1657" t="s">
-        <v>2354</v>
+        <v>1507</v>
       </c>
       <c r="H1657" t="s">
-        <v>128</v>
+        <v>680</v>
       </c>
       <c r="I1657" t="s">
         <v>19</v>
@@ -71089,10 +71248,10 @@
         <v>1</v>
       </c>
       <c r="K1657">
-        <v>860000</v>
+        <v>2281300</v>
       </c>
       <c r="L1657">
-        <v>860000</v>
+        <v>2281300</v>
       </c>
     </row>
     <row r="1658" spans="1:12">
@@ -71106,19 +71265,19 @@
         <v>13</v>
       </c>
       <c r="D1658" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1658" t="s">
-        <v>2355</v>
+        <v>2340</v>
       </c>
       <c r="F1658" t="s">
-        <v>2356</v>
+        <v>2341</v>
       </c>
       <c r="G1658" t="s">
-        <v>2357</v>
+        <v>1507</v>
       </c>
       <c r="H1658" t="s">
-        <v>1754</v>
+        <v>681</v>
       </c>
       <c r="I1658" t="s">
         <v>19</v>
@@ -71127,10 +71286,10 @@
         <v>1</v>
       </c>
       <c r="K1658">
-        <v>1800000</v>
+        <v>999750</v>
       </c>
       <c r="L1658">
-        <v>1800000</v>
+        <v>999750</v>
       </c>
     </row>
     <row r="1659" spans="1:12">
@@ -71144,19 +71303,19 @@
         <v>13</v>
       </c>
       <c r="D1659" t="s">
-        <v>2358</v>
+        <v>2283</v>
       </c>
       <c r="E1659" t="s">
-        <v>2359</v>
+        <v>2340</v>
       </c>
       <c r="F1659" t="s">
-        <v>2360</v>
+        <v>2341</v>
       </c>
       <c r="G1659" t="s">
-        <v>2361</v>
+        <v>1507</v>
       </c>
       <c r="H1659" t="s">
-        <v>2362</v>
+        <v>1515</v>
       </c>
       <c r="I1659" t="s">
         <v>19</v>
@@ -71165,10 +71324,10 @@
         <v>1</v>
       </c>
       <c r="K1659">
-        <v>4323450</v>
+        <v>6941100</v>
       </c>
       <c r="L1659">
-        <v>4323450</v>
+        <v>6941100</v>
       </c>
     </row>
     <row r="1660" spans="1:12">
@@ -71182,19 +71341,19 @@
         <v>13</v>
       </c>
       <c r="D1660" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1660" t="s">
-        <v>2363</v>
+        <v>2340</v>
       </c>
       <c r="F1660" t="s">
-        <v>2364</v>
+        <v>2341</v>
       </c>
       <c r="G1660" t="s">
-        <v>2365</v>
+        <v>1507</v>
       </c>
       <c r="H1660" t="s">
-        <v>1754</v>
+        <v>683</v>
       </c>
       <c r="I1660" t="s">
         <v>19</v>
@@ -71203,10 +71362,10 @@
         <v>1</v>
       </c>
       <c r="K1660">
-        <v>1350000</v>
+        <v>288000</v>
       </c>
       <c r="L1660">
-        <v>1350000</v>
+        <v>288000</v>
       </c>
     </row>
     <row r="1661" spans="1:12">
@@ -71220,19 +71379,19 @@
         <v>13</v>
       </c>
       <c r="D1661" t="s">
-        <v>2358</v>
+        <v>2283</v>
       </c>
       <c r="E1661" t="s">
-        <v>2366</v>
+        <v>2340</v>
       </c>
       <c r="F1661" t="s">
-        <v>2367</v>
+        <v>2341</v>
       </c>
       <c r="G1661" t="s">
-        <v>2368</v>
+        <v>1507</v>
       </c>
       <c r="H1661" t="s">
-        <v>646</v>
+        <v>2342</v>
       </c>
       <c r="I1661" t="s">
         <v>19</v>
@@ -71241,10 +71400,10 @@
         <v>1</v>
       </c>
       <c r="K1661">
-        <v>6259290</v>
+        <v>800000</v>
       </c>
       <c r="L1661">
-        <v>6259290</v>
+        <v>800000</v>
       </c>
     </row>
     <row r="1662" spans="1:12">
@@ -71258,19 +71417,19 @@
         <v>13</v>
       </c>
       <c r="D1662" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1662" t="s">
-        <v>2369</v>
+        <v>2340</v>
       </c>
       <c r="F1662" t="s">
-        <v>2370</v>
+        <v>2341</v>
       </c>
       <c r="G1662" t="s">
-        <v>2371</v>
+        <v>1507</v>
       </c>
       <c r="H1662" t="s">
-        <v>1754</v>
+        <v>2343</v>
       </c>
       <c r="I1662" t="s">
         <v>19</v>
@@ -71279,10 +71438,10 @@
         <v>1</v>
       </c>
       <c r="K1662">
-        <v>2550000</v>
+        <v>1498750</v>
       </c>
       <c r="L1662">
-        <v>2550000</v>
+        <v>1498750</v>
       </c>
     </row>
     <row r="1663" spans="1:12">
@@ -71296,19 +71455,19 @@
         <v>13</v>
       </c>
       <c r="D1663" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1663" t="s">
-        <v>2372</v>
+        <v>2340</v>
       </c>
       <c r="F1663" t="s">
-        <v>2373</v>
+        <v>2341</v>
       </c>
       <c r="G1663" t="s">
-        <v>2374</v>
+        <v>1507</v>
       </c>
       <c r="H1663" t="s">
-        <v>708</v>
+        <v>2344</v>
       </c>
       <c r="I1663" t="s">
         <v>19</v>
@@ -71317,10 +71476,10 @@
         <v>1</v>
       </c>
       <c r="K1663">
-        <v>8392620</v>
+        <v>752000</v>
       </c>
       <c r="L1663">
-        <v>8392620</v>
+        <v>752000</v>
       </c>
     </row>
     <row r="1664" spans="1:12">
@@ -71334,19 +71493,19 @@
         <v>13</v>
       </c>
       <c r="D1664" t="s">
-        <v>2358</v>
+        <v>2283</v>
       </c>
       <c r="E1664" t="s">
-        <v>2375</v>
+        <v>2340</v>
       </c>
       <c r="F1664" t="s">
-        <v>2376</v>
+        <v>2341</v>
       </c>
       <c r="G1664" t="s">
-        <v>2377</v>
+        <v>1507</v>
       </c>
       <c r="H1664" t="s">
-        <v>646</v>
+        <v>207</v>
       </c>
       <c r="I1664" t="s">
         <v>19</v>
@@ -71355,10 +71514,10 @@
         <v>1</v>
       </c>
       <c r="K1664">
-        <v>12162270</v>
+        <v>2695000</v>
       </c>
       <c r="L1664">
-        <v>12162270</v>
+        <v>2695000</v>
       </c>
     </row>
     <row r="1665" spans="1:12">
@@ -71372,19 +71531,19 @@
         <v>13</v>
       </c>
       <c r="D1665" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1665" t="s">
-        <v>2378</v>
+        <v>2340</v>
       </c>
       <c r="F1665" t="s">
-        <v>2379</v>
+        <v>2341</v>
       </c>
       <c r="G1665" t="s">
-        <v>2380</v>
+        <v>1507</v>
       </c>
       <c r="H1665" t="s">
-        <v>708</v>
+        <v>2345</v>
       </c>
       <c r="I1665" t="s">
         <v>19</v>
@@ -71393,10 +71552,10 @@
         <v>1</v>
       </c>
       <c r="K1665">
-        <v>924000</v>
+        <v>5060000</v>
       </c>
       <c r="L1665">
-        <v>924000</v>
+        <v>5060000</v>
       </c>
     </row>
     <row r="1666" spans="1:12">
@@ -71410,19 +71569,19 @@
         <v>13</v>
       </c>
       <c r="D1666" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1666" t="s">
-        <v>2381</v>
+        <v>2340</v>
       </c>
       <c r="F1666" t="s">
-        <v>2382</v>
+        <v>2341</v>
       </c>
       <c r="G1666" t="s">
-        <v>2383</v>
+        <v>1507</v>
       </c>
       <c r="H1666" t="s">
-        <v>708</v>
+        <v>2307</v>
       </c>
       <c r="I1666" t="s">
         <v>19</v>
@@ -71431,10 +71590,10 @@
         <v>1</v>
       </c>
       <c r="K1666">
-        <v>7029620</v>
+        <v>7190000</v>
       </c>
       <c r="L1666">
-        <v>7029620</v>
+        <v>7190000</v>
       </c>
     </row>
     <row r="1667" spans="1:12">
@@ -71448,19 +71607,19 @@
         <v>13</v>
       </c>
       <c r="D1667" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1667" t="s">
-        <v>2384</v>
+        <v>2340</v>
       </c>
       <c r="F1667" t="s">
-        <v>2385</v>
+        <v>2341</v>
       </c>
       <c r="G1667" t="s">
-        <v>2386</v>
+        <v>1507</v>
       </c>
       <c r="H1667" t="s">
-        <v>1754</v>
+        <v>2346</v>
       </c>
       <c r="I1667" t="s">
         <v>19</v>
@@ -71469,10 +71628,10 @@
         <v>1</v>
       </c>
       <c r="K1667">
-        <v>1050000</v>
+        <v>795000</v>
       </c>
       <c r="L1667">
-        <v>1050000</v>
+        <v>795000</v>
       </c>
     </row>
     <row r="1668" spans="1:12">
@@ -71486,19 +71645,19 @@
         <v>13</v>
       </c>
       <c r="D1668" t="s">
-        <v>2358</v>
+        <v>2283</v>
       </c>
       <c r="E1668" t="s">
-        <v>2387</v>
+        <v>2340</v>
       </c>
       <c r="F1668" t="s">
-        <v>2388</v>
+        <v>2341</v>
       </c>
       <c r="G1668" t="s">
-        <v>2389</v>
+        <v>1507</v>
       </c>
       <c r="H1668" t="s">
-        <v>2390</v>
+        <v>694</v>
       </c>
       <c r="I1668" t="s">
         <v>19</v>
@@ -71507,10 +71666,10 @@
         <v>1</v>
       </c>
       <c r="K1668">
-        <v>7492500</v>
+        <v>2005000</v>
       </c>
       <c r="L1668">
-        <v>7492500</v>
+        <v>2005000</v>
       </c>
     </row>
     <row r="1669" spans="1:12">
@@ -71524,19 +71683,19 @@
         <v>13</v>
       </c>
       <c r="D1669" t="s">
-        <v>2358</v>
+        <v>2283</v>
       </c>
       <c r="E1669" t="s">
-        <v>2391</v>
+        <v>2340</v>
       </c>
       <c r="F1669" t="s">
-        <v>2392</v>
+        <v>2341</v>
       </c>
       <c r="G1669" t="s">
-        <v>2393</v>
+        <v>1507</v>
       </c>
       <c r="H1669" t="s">
-        <v>2390</v>
+        <v>699</v>
       </c>
       <c r="I1669" t="s">
         <v>19</v>
@@ -71545,10 +71704,10 @@
         <v>1</v>
       </c>
       <c r="K1669">
-        <v>8741250</v>
+        <v>137315</v>
       </c>
       <c r="L1669">
-        <v>8741250</v>
+        <v>137315</v>
       </c>
     </row>
     <row r="1670" spans="1:12">
@@ -71562,19 +71721,19 @@
         <v>13</v>
       </c>
       <c r="D1670" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1670" t="s">
-        <v>2394</v>
+        <v>2340</v>
       </c>
       <c r="F1670" t="s">
-        <v>2395</v>
+        <v>2341</v>
       </c>
       <c r="G1670" t="s">
-        <v>2396</v>
+        <v>1507</v>
       </c>
       <c r="H1670" t="s">
-        <v>373</v>
+        <v>2347</v>
       </c>
       <c r="I1670" t="s">
         <v>19</v>
@@ -71583,10 +71742,10 @@
         <v>1</v>
       </c>
       <c r="K1670">
-        <v>7581200</v>
+        <v>137315</v>
       </c>
       <c r="L1670">
-        <v>7581200</v>
+        <v>137315</v>
       </c>
     </row>
     <row r="1671" spans="1:12">
@@ -71600,19 +71759,19 @@
         <v>13</v>
       </c>
       <c r="D1671" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1671" t="s">
-        <v>2397</v>
+        <v>2340</v>
       </c>
       <c r="F1671" t="s">
-        <v>2398</v>
+        <v>2341</v>
       </c>
       <c r="G1671" t="s">
-        <v>2399</v>
+        <v>1507</v>
       </c>
       <c r="H1671" t="s">
-        <v>373</v>
+        <v>2348</v>
       </c>
       <c r="I1671" t="s">
         <v>19</v>
@@ -71621,10 +71780,10 @@
         <v>1</v>
       </c>
       <c r="K1671">
-        <v>7533000</v>
+        <v>2979000</v>
       </c>
       <c r="L1671">
-        <v>7533000</v>
+        <v>2979000</v>
       </c>
     </row>
     <row r="1672" spans="1:12">
@@ -71638,19 +71797,19 @@
         <v>13</v>
       </c>
       <c r="D1672" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1672" t="s">
-        <v>2400</v>
+        <v>2340</v>
       </c>
       <c r="F1672" t="s">
-        <v>2401</v>
+        <v>2341</v>
       </c>
       <c r="G1672" t="s">
-        <v>2402</v>
+        <v>1507</v>
       </c>
       <c r="H1672" t="s">
-        <v>708</v>
+        <v>2349</v>
       </c>
       <c r="I1672" t="s">
         <v>19</v>
@@ -71659,10 +71818,10 @@
         <v>1</v>
       </c>
       <c r="K1672">
-        <v>827000</v>
+        <v>1996000</v>
       </c>
       <c r="L1672">
-        <v>827000</v>
+        <v>1996000</v>
       </c>
     </row>
     <row r="1673" spans="1:12">
@@ -71676,19 +71835,19 @@
         <v>13</v>
       </c>
       <c r="D1673" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1673" t="s">
-        <v>2403</v>
+        <v>2340</v>
       </c>
       <c r="F1673" t="s">
-        <v>2404</v>
+        <v>2341</v>
       </c>
       <c r="G1673" t="s">
-        <v>2405</v>
+        <v>1507</v>
       </c>
       <c r="H1673" t="s">
-        <v>708</v>
+        <v>2350</v>
       </c>
       <c r="I1673" t="s">
         <v>19</v>
@@ -71697,10 +71856,10 @@
         <v>1</v>
       </c>
       <c r="K1673">
-        <v>1006000</v>
+        <v>1498500</v>
       </c>
       <c r="L1673">
-        <v>1006000</v>
+        <v>1498500</v>
       </c>
     </row>
     <row r="1674" spans="1:12">
@@ -71714,19 +71873,19 @@
         <v>13</v>
       </c>
       <c r="D1674" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1674" t="s">
-        <v>2406</v>
+        <v>2340</v>
       </c>
       <c r="F1674" t="s">
-        <v>2407</v>
+        <v>2341</v>
       </c>
       <c r="G1674" t="s">
-        <v>2408</v>
+        <v>1507</v>
       </c>
       <c r="H1674" t="s">
-        <v>410</v>
+        <v>2351</v>
       </c>
       <c r="I1674" t="s">
         <v>19</v>
@@ -71735,10 +71894,10 @@
         <v>1</v>
       </c>
       <c r="K1674">
-        <v>198356216</v>
+        <v>995000</v>
       </c>
       <c r="L1674">
-        <v>198356216</v>
+        <v>995000</v>
       </c>
     </row>
     <row r="1675" spans="1:12">
@@ -71752,19 +71911,19 @@
         <v>13</v>
       </c>
       <c r="D1675" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1675" t="s">
-        <v>2409</v>
+        <v>2340</v>
       </c>
       <c r="F1675" t="s">
-        <v>2410</v>
+        <v>2341</v>
       </c>
       <c r="G1675" t="s">
-        <v>2411</v>
+        <v>1507</v>
       </c>
       <c r="H1675" t="s">
-        <v>344</v>
+        <v>957</v>
       </c>
       <c r="I1675" t="s">
         <v>19</v>
@@ -71773,10 +71932,10 @@
         <v>1</v>
       </c>
       <c r="K1675">
-        <v>41318160</v>
+        <v>10367377</v>
       </c>
       <c r="L1675">
-        <v>41318160</v>
+        <v>10367377</v>
       </c>
     </row>
     <row r="1676" spans="1:12">
@@ -71790,19 +71949,19 @@
         <v>13</v>
       </c>
       <c r="D1676" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1676" t="s">
-        <v>2412</v>
+        <v>2340</v>
       </c>
       <c r="F1676" t="s">
-        <v>2413</v>
+        <v>2341</v>
       </c>
       <c r="G1676" t="s">
-        <v>2414</v>
+        <v>1507</v>
       </c>
       <c r="H1676" t="s">
-        <v>255</v>
+        <v>209</v>
       </c>
       <c r="I1676" t="s">
         <v>19</v>
@@ -71811,10 +71970,10 @@
         <v>1</v>
       </c>
       <c r="K1676">
-        <v>7070525</v>
+        <v>17206000</v>
       </c>
       <c r="L1676">
-        <v>7070525</v>
+        <v>17206000</v>
       </c>
     </row>
     <row r="1677" spans="1:12">
@@ -71828,19 +71987,19 @@
         <v>13</v>
       </c>
       <c r="D1677" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1677" t="s">
-        <v>2412</v>
+        <v>2340</v>
       </c>
       <c r="F1677" t="s">
-        <v>2413</v>
+        <v>2341</v>
       </c>
       <c r="G1677" t="s">
-        <v>2414</v>
+        <v>1507</v>
       </c>
       <c r="H1677" t="s">
-        <v>1198</v>
+        <v>1518</v>
       </c>
       <c r="I1677" t="s">
         <v>19</v>
@@ -71849,10 +72008,10 @@
         <v>1</v>
       </c>
       <c r="K1677">
-        <v>2718000</v>
+        <v>240000</v>
       </c>
       <c r="L1677">
-        <v>2718000</v>
+        <v>240000</v>
       </c>
     </row>
     <row r="1678" spans="1:12">
@@ -71866,19 +72025,19 @@
         <v>13</v>
       </c>
       <c r="D1678" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1678" t="s">
-        <v>2412</v>
+        <v>2340</v>
       </c>
       <c r="F1678" t="s">
-        <v>2413</v>
+        <v>2341</v>
       </c>
       <c r="G1678" t="s">
-        <v>2414</v>
+        <v>1507</v>
       </c>
       <c r="H1678" t="s">
-        <v>2415</v>
+        <v>210</v>
       </c>
       <c r="I1678" t="s">
         <v>19</v>
@@ -71887,10 +72046,10 @@
         <v>1</v>
       </c>
       <c r="K1678">
-        <v>2369838</v>
+        <v>590000</v>
       </c>
       <c r="L1678">
-        <v>2369838</v>
+        <v>590000</v>
       </c>
     </row>
     <row r="1679" spans="1:12">
@@ -71904,19 +72063,19 @@
         <v>13</v>
       </c>
       <c r="D1679" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1679" t="s">
-        <v>2412</v>
+        <v>2340</v>
       </c>
       <c r="F1679" t="s">
-        <v>2413</v>
+        <v>2341</v>
       </c>
       <c r="G1679" t="s">
-        <v>2414</v>
+        <v>1507</v>
       </c>
       <c r="H1679" t="s">
-        <v>1770</v>
+        <v>707</v>
       </c>
       <c r="I1679" t="s">
         <v>19</v>
@@ -71925,10 +72084,10 @@
         <v>1</v>
       </c>
       <c r="K1679">
-        <v>2146500</v>
+        <v>340000</v>
       </c>
       <c r="L1679">
-        <v>2146500</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="1680" spans="1:12">
@@ -71942,19 +72101,19 @@
         <v>13</v>
       </c>
       <c r="D1680" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1680" t="s">
-        <v>2412</v>
+        <v>2340</v>
       </c>
       <c r="F1680" t="s">
-        <v>2413</v>
+        <v>2341</v>
       </c>
       <c r="G1680" t="s">
-        <v>2414</v>
+        <v>1507</v>
       </c>
       <c r="H1680" t="s">
-        <v>128</v>
+        <v>515</v>
       </c>
       <c r="I1680" t="s">
         <v>19</v>
@@ -71963,10 +72122,10 @@
         <v>1</v>
       </c>
       <c r="K1680">
-        <v>1866750</v>
+        <v>3926360</v>
       </c>
       <c r="L1680">
-        <v>1866750</v>
+        <v>3926360</v>
       </c>
     </row>
     <row r="1681" spans="1:12">
@@ -71980,19 +72139,19 @@
         <v>13</v>
       </c>
       <c r="D1681" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1681" t="s">
-        <v>2412</v>
+        <v>2340</v>
       </c>
       <c r="F1681" t="s">
-        <v>2413</v>
+        <v>2341</v>
       </c>
       <c r="G1681" t="s">
-        <v>2414</v>
+        <v>1507</v>
       </c>
       <c r="H1681" t="s">
-        <v>275</v>
+        <v>708</v>
       </c>
       <c r="I1681" t="s">
         <v>19</v>
@@ -72001,10 +72160,10 @@
         <v>1</v>
       </c>
       <c r="K1681">
-        <v>3464868</v>
+        <v>8556964</v>
       </c>
       <c r="L1681">
-        <v>3464868</v>
+        <v>8556964</v>
       </c>
     </row>
     <row r="1682" spans="1:12">
@@ -72018,19 +72177,19 @@
         <v>13</v>
       </c>
       <c r="D1682" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1682" t="s">
-        <v>2416</v>
+        <v>2340</v>
       </c>
       <c r="F1682" t="s">
-        <v>2417</v>
+        <v>2341</v>
       </c>
       <c r="G1682" t="s">
-        <v>2418</v>
+        <v>1507</v>
       </c>
       <c r="H1682" t="s">
-        <v>348</v>
+        <v>1520</v>
       </c>
       <c r="I1682" t="s">
         <v>19</v>
@@ -72039,10 +72198,10 @@
         <v>1</v>
       </c>
       <c r="K1682">
-        <v>41318160</v>
+        <v>850000</v>
       </c>
       <c r="L1682">
-        <v>41318160</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="1683" spans="1:12">
@@ -72056,19 +72215,19 @@
         <v>13</v>
       </c>
       <c r="D1683" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1683" t="s">
-        <v>2419</v>
+        <v>2340</v>
       </c>
       <c r="F1683" t="s">
-        <v>2420</v>
+        <v>2341</v>
       </c>
       <c r="G1683" t="s">
-        <v>2421</v>
+        <v>1507</v>
       </c>
       <c r="H1683" t="s">
-        <v>348</v>
+        <v>2352</v>
       </c>
       <c r="I1683" t="s">
         <v>19</v>
@@ -72077,10 +72236,10 @@
         <v>1</v>
       </c>
       <c r="K1683">
-        <v>27151923</v>
+        <v>450000</v>
       </c>
       <c r="L1683">
-        <v>27151923</v>
+        <v>450000</v>
       </c>
     </row>
     <row r="1684" spans="1:12">
@@ -72094,19 +72253,19 @@
         <v>13</v>
       </c>
       <c r="D1684" t="s">
-        <v>2239</v>
+        <v>2283</v>
       </c>
       <c r="E1684" t="s">
-        <v>2422</v>
+        <v>2353</v>
       </c>
       <c r="F1684" t="s">
-        <v>2423</v>
+        <v>2354</v>
       </c>
       <c r="G1684" t="s">
-        <v>2424</v>
+        <v>2355</v>
       </c>
       <c r="H1684" t="s">
-        <v>1119</v>
+        <v>392</v>
       </c>
       <c r="I1684" t="s">
         <v>19</v>
@@ -72115,10 +72274,10 @@
         <v>1</v>
       </c>
       <c r="K1684">
-        <v>925000</v>
+        <v>196234560</v>
       </c>
       <c r="L1684">
-        <v>925000</v>
+        <v>196234560</v>
       </c>
     </row>
     <row r="1685" spans="1:12">
@@ -72135,16 +72294,16 @@
         <v>2239</v>
       </c>
       <c r="E1685" t="s">
-        <v>2425</v>
+        <v>2356</v>
       </c>
       <c r="F1685" t="s">
-        <v>2426</v>
+        <v>2357</v>
       </c>
       <c r="G1685" t="s">
-        <v>2427</v>
+        <v>2358</v>
       </c>
       <c r="H1685" t="s">
-        <v>886</v>
+        <v>2293</v>
       </c>
       <c r="I1685" t="s">
         <v>19</v>
@@ -72153,10 +72312,10 @@
         <v>1</v>
       </c>
       <c r="K1685">
-        <v>5615000</v>
+        <v>15345972</v>
       </c>
       <c r="L1685">
-        <v>5615000</v>
+        <v>15345972</v>
       </c>
     </row>
     <row r="1686" spans="1:12">
@@ -72173,16 +72332,16 @@
         <v>2239</v>
       </c>
       <c r="E1686" t="s">
-        <v>2425</v>
+        <v>2359</v>
       </c>
       <c r="F1686" t="s">
-        <v>2426</v>
+        <v>2360</v>
       </c>
       <c r="G1686" t="s">
-        <v>2427</v>
+        <v>2361</v>
       </c>
       <c r="H1686" t="s">
-        <v>887</v>
+        <v>708</v>
       </c>
       <c r="I1686" t="s">
         <v>19</v>
@@ -72191,10 +72350,10 @@
         <v>1</v>
       </c>
       <c r="K1686">
-        <v>330739</v>
+        <v>340000</v>
       </c>
       <c r="L1686">
-        <v>330739</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="1687" spans="1:12">
@@ -72211,16 +72370,16 @@
         <v>2239</v>
       </c>
       <c r="E1687" t="s">
-        <v>2425</v>
+        <v>2362</v>
       </c>
       <c r="F1687" t="s">
-        <v>2426</v>
+        <v>2363</v>
       </c>
       <c r="G1687" t="s">
-        <v>2427</v>
+        <v>2364</v>
       </c>
       <c r="H1687" t="s">
-        <v>888</v>
+        <v>128</v>
       </c>
       <c r="I1687" t="s">
         <v>19</v>
@@ -72229,10 +72388,10 @@
         <v>1</v>
       </c>
       <c r="K1687">
-        <v>30321</v>
+        <v>4114620</v>
       </c>
       <c r="L1687">
-        <v>30321</v>
+        <v>4114620</v>
       </c>
     </row>
     <row r="1688" spans="1:12">
@@ -72249,16 +72408,16 @@
         <v>2239</v>
       </c>
       <c r="E1688" t="s">
-        <v>2425</v>
+        <v>2365</v>
       </c>
       <c r="F1688" t="s">
-        <v>2426</v>
+        <v>2366</v>
       </c>
       <c r="G1688" t="s">
-        <v>2427</v>
+        <v>2367</v>
       </c>
       <c r="H1688" t="s">
-        <v>445</v>
+        <v>128</v>
       </c>
       <c r="I1688" t="s">
         <v>19</v>
@@ -72267,10 +72426,10 @@
         <v>1</v>
       </c>
       <c r="K1688">
-        <v>7117000</v>
+        <v>860000</v>
       </c>
       <c r="L1688">
-        <v>7117000</v>
+        <v>860000</v>
       </c>
     </row>
     <row r="1689" spans="1:12">
@@ -72287,16 +72446,16 @@
         <v>2239</v>
       </c>
       <c r="E1689" t="s">
-        <v>2425</v>
+        <v>2368</v>
       </c>
       <c r="F1689" t="s">
-        <v>2426</v>
+        <v>2369</v>
       </c>
       <c r="G1689" t="s">
-        <v>2427</v>
+        <v>2370</v>
       </c>
       <c r="H1689" t="s">
-        <v>1451</v>
+        <v>1754</v>
       </c>
       <c r="I1689" t="s">
         <v>19</v>
@@ -72305,10 +72464,10 @@
         <v>1</v>
       </c>
       <c r="K1689">
-        <v>1168000</v>
+        <v>1800000</v>
       </c>
       <c r="L1689">
-        <v>1168000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="1690" spans="1:12">
@@ -72322,19 +72481,19 @@
         <v>13</v>
       </c>
       <c r="D1690" t="s">
-        <v>2239</v>
+        <v>2371</v>
       </c>
       <c r="E1690" t="s">
-        <v>2425</v>
+        <v>2372</v>
       </c>
       <c r="F1690" t="s">
-        <v>2426</v>
+        <v>2373</v>
       </c>
       <c r="G1690" t="s">
-        <v>2427</v>
+        <v>2374</v>
       </c>
       <c r="H1690" t="s">
-        <v>1452</v>
+        <v>2375</v>
       </c>
       <c r="I1690" t="s">
         <v>19</v>
@@ -72343,10 +72502,10 @@
         <v>1</v>
       </c>
       <c r="K1690">
-        <v>972000</v>
+        <v>4323450</v>
       </c>
       <c r="L1690">
-        <v>972000</v>
+        <v>4323450</v>
       </c>
     </row>
     <row r="1691" spans="1:12">
@@ -72363,16 +72522,16 @@
         <v>2239</v>
       </c>
       <c r="E1691" t="s">
-        <v>2425</v>
+        <v>2376</v>
       </c>
       <c r="F1691" t="s">
-        <v>2426</v>
+        <v>2377</v>
       </c>
       <c r="G1691" t="s">
-        <v>2427</v>
+        <v>2378</v>
       </c>
       <c r="H1691" t="s">
-        <v>1453</v>
+        <v>1754</v>
       </c>
       <c r="I1691" t="s">
         <v>19</v>
@@ -72381,10 +72540,10 @@
         <v>1</v>
       </c>
       <c r="K1691">
-        <v>324000</v>
+        <v>1350000</v>
       </c>
       <c r="L1691">
-        <v>324000</v>
+        <v>1350000</v>
       </c>
     </row>
     <row r="1692" spans="1:12">
@@ -72398,19 +72557,19 @@
         <v>13</v>
       </c>
       <c r="D1692" t="s">
-        <v>2239</v>
+        <v>2371</v>
       </c>
       <c r="E1692" t="s">
-        <v>2425</v>
+        <v>2379</v>
       </c>
       <c r="F1692" t="s">
-        <v>2426</v>
+        <v>2380</v>
       </c>
       <c r="G1692" t="s">
-        <v>2427</v>
+        <v>2381</v>
       </c>
       <c r="H1692" t="s">
-        <v>1454</v>
+        <v>646</v>
       </c>
       <c r="I1692" t="s">
         <v>19</v>
@@ -72419,10 +72578,10 @@
         <v>1</v>
       </c>
       <c r="K1692">
-        <v>272000</v>
+        <v>6259290</v>
       </c>
       <c r="L1692">
-        <v>272000</v>
+        <v>6259290</v>
       </c>
     </row>
     <row r="1693" spans="1:12">
@@ -72439,16 +72598,16 @@
         <v>2239</v>
       </c>
       <c r="E1693" t="s">
-        <v>2425</v>
+        <v>2382</v>
       </c>
       <c r="F1693" t="s">
-        <v>2426</v>
+        <v>2383</v>
       </c>
       <c r="G1693" t="s">
-        <v>2427</v>
+        <v>2384</v>
       </c>
       <c r="H1693" t="s">
-        <v>595</v>
+        <v>1754</v>
       </c>
       <c r="I1693" t="s">
         <v>19</v>
@@ -72457,10 +72616,10 @@
         <v>1</v>
       </c>
       <c r="K1693">
-        <v>1005000</v>
+        <v>2550000</v>
       </c>
       <c r="L1693">
-        <v>1005000</v>
+        <v>2550000</v>
       </c>
     </row>
     <row r="1694" spans="1:12">
@@ -72477,16 +72636,16 @@
         <v>2239</v>
       </c>
       <c r="E1694" t="s">
-        <v>2425</v>
+        <v>2385</v>
       </c>
       <c r="F1694" t="s">
-        <v>2426</v>
+        <v>2386</v>
       </c>
       <c r="G1694" t="s">
-        <v>2427</v>
+        <v>2387</v>
       </c>
       <c r="H1694" t="s">
-        <v>2428</v>
+        <v>708</v>
       </c>
       <c r="I1694" t="s">
         <v>19</v>
@@ -72495,10 +72654,10 @@
         <v>1</v>
       </c>
       <c r="K1694">
-        <v>3250000</v>
+        <v>8392620</v>
       </c>
       <c r="L1694">
-        <v>3250000</v>
+        <v>8392620</v>
       </c>
     </row>
     <row r="1695" spans="1:12">
@@ -72512,19 +72671,19 @@
         <v>13</v>
       </c>
       <c r="D1695" t="s">
-        <v>2239</v>
+        <v>2371</v>
       </c>
       <c r="E1695" t="s">
-        <v>2425</v>
+        <v>2388</v>
       </c>
       <c r="F1695" t="s">
-        <v>2426</v>
+        <v>2389</v>
       </c>
       <c r="G1695" t="s">
-        <v>2427</v>
+        <v>2390</v>
       </c>
       <c r="H1695" t="s">
-        <v>452</v>
+        <v>646</v>
       </c>
       <c r="I1695" t="s">
         <v>19</v>
@@ -72533,10 +72692,10 @@
         <v>1</v>
       </c>
       <c r="K1695">
-        <v>2310000</v>
+        <v>12162270</v>
       </c>
       <c r="L1695">
-        <v>2310000</v>
+        <v>12162270</v>
       </c>
     </row>
     <row r="1696" spans="1:12">
@@ -72553,16 +72712,16 @@
         <v>2239</v>
       </c>
       <c r="E1696" t="s">
-        <v>2425</v>
+        <v>2391</v>
       </c>
       <c r="F1696" t="s">
-        <v>2426</v>
+        <v>2392</v>
       </c>
       <c r="G1696" t="s">
-        <v>2427</v>
+        <v>2393</v>
       </c>
       <c r="H1696" t="s">
-        <v>899</v>
+        <v>708</v>
       </c>
       <c r="I1696" t="s">
         <v>19</v>
@@ -72571,10 +72730,10 @@
         <v>1</v>
       </c>
       <c r="K1696">
-        <v>2235000</v>
+        <v>924000</v>
       </c>
       <c r="L1696">
-        <v>2235000</v>
+        <v>924000</v>
       </c>
     </row>
     <row r="1697" spans="1:12">
@@ -72591,16 +72750,16 @@
         <v>2239</v>
       </c>
       <c r="E1697" t="s">
-        <v>2425</v>
+        <v>2394</v>
       </c>
       <c r="F1697" t="s">
-        <v>2426</v>
+        <v>2395</v>
       </c>
       <c r="G1697" t="s">
-        <v>2427</v>
+        <v>2396</v>
       </c>
       <c r="H1697" t="s">
-        <v>1813</v>
+        <v>708</v>
       </c>
       <c r="I1697" t="s">
         <v>19</v>
@@ -72609,10 +72768,10 @@
         <v>1</v>
       </c>
       <c r="K1697">
-        <v>390604</v>
+        <v>7029620</v>
       </c>
       <c r="L1697">
-        <v>390604</v>
+        <v>7029620</v>
       </c>
     </row>
     <row r="1698" spans="1:12">
@@ -72629,16 +72788,16 @@
         <v>2239</v>
       </c>
       <c r="E1698" t="s">
-        <v>2425</v>
+        <v>2397</v>
       </c>
       <c r="F1698" t="s">
-        <v>2426</v>
+        <v>2398</v>
       </c>
       <c r="G1698" t="s">
-        <v>2427</v>
+        <v>2399</v>
       </c>
       <c r="H1698" t="s">
-        <v>2429</v>
+        <v>1754</v>
       </c>
       <c r="I1698" t="s">
         <v>19</v>
@@ -72647,10 +72806,10 @@
         <v>1</v>
       </c>
       <c r="K1698">
-        <v>341667</v>
+        <v>1050000</v>
       </c>
       <c r="L1698">
-        <v>341667</v>
+        <v>1050000</v>
       </c>
     </row>
     <row r="1699" spans="1:12">
@@ -72664,19 +72823,19 @@
         <v>13</v>
       </c>
       <c r="D1699" t="s">
-        <v>2239</v>
+        <v>2371</v>
       </c>
       <c r="E1699" t="s">
-        <v>2425</v>
+        <v>2400</v>
       </c>
       <c r="F1699" t="s">
-        <v>2426</v>
+        <v>2401</v>
       </c>
       <c r="G1699" t="s">
-        <v>2427</v>
+        <v>2402</v>
       </c>
       <c r="H1699" t="s">
-        <v>2430</v>
+        <v>2403</v>
       </c>
       <c r="I1699" t="s">
         <v>19</v>
@@ -72685,10 +72844,10 @@
         <v>1</v>
       </c>
       <c r="K1699">
-        <v>740000</v>
+        <v>7492500</v>
       </c>
       <c r="L1699">
-        <v>740000</v>
+        <v>7492500</v>
       </c>
     </row>
     <row r="1700" spans="1:12">
@@ -72702,19 +72861,19 @@
         <v>13</v>
       </c>
       <c r="D1700" t="s">
-        <v>2239</v>
+        <v>2371</v>
       </c>
       <c r="E1700" t="s">
-        <v>2425</v>
+        <v>2404</v>
       </c>
       <c r="F1700" t="s">
-        <v>2426</v>
+        <v>2405</v>
       </c>
       <c r="G1700" t="s">
-        <v>2427</v>
+        <v>2406</v>
       </c>
       <c r="H1700" t="s">
-        <v>2431</v>
+        <v>2403</v>
       </c>
       <c r="I1700" t="s">
         <v>19</v>
@@ -72723,10 +72882,10 @@
         <v>1</v>
       </c>
       <c r="K1700">
-        <v>421140</v>
+        <v>8741250</v>
       </c>
       <c r="L1700">
-        <v>421140</v>
+        <v>8741250</v>
       </c>
     </row>
     <row r="1701" spans="1:12">
@@ -72743,16 +72902,16 @@
         <v>2239</v>
       </c>
       <c r="E1701" t="s">
-        <v>2425</v>
+        <v>2407</v>
       </c>
       <c r="F1701" t="s">
-        <v>2426</v>
+        <v>2408</v>
       </c>
       <c r="G1701" t="s">
-        <v>2427</v>
+        <v>2409</v>
       </c>
       <c r="H1701" t="s">
-        <v>2203</v>
+        <v>373</v>
       </c>
       <c r="I1701" t="s">
         <v>19</v>
@@ -72761,10 +72920,10 @@
         <v>1</v>
       </c>
       <c r="K1701">
-        <v>5928000</v>
+        <v>7581200</v>
       </c>
       <c r="L1701">
-        <v>5928000</v>
+        <v>7581200</v>
       </c>
     </row>
     <row r="1702" spans="1:12">
@@ -72781,16 +72940,16 @@
         <v>2239</v>
       </c>
       <c r="E1702" t="s">
-        <v>2425</v>
+        <v>2410</v>
       </c>
       <c r="F1702" t="s">
-        <v>2426</v>
+        <v>2411</v>
       </c>
       <c r="G1702" t="s">
-        <v>2427</v>
+        <v>2412</v>
       </c>
       <c r="H1702" t="s">
-        <v>613</v>
+        <v>373</v>
       </c>
       <c r="I1702" t="s">
         <v>19</v>
@@ -72799,10 +72958,10 @@
         <v>1</v>
       </c>
       <c r="K1702">
-        <v>6786000</v>
+        <v>7533000</v>
       </c>
       <c r="L1702">
-        <v>6786000</v>
+        <v>7533000</v>
       </c>
     </row>
     <row r="1703" spans="1:12">
@@ -72819,16 +72978,16 @@
         <v>2239</v>
       </c>
       <c r="E1703" t="s">
-        <v>2425</v>
+        <v>2413</v>
       </c>
       <c r="F1703" t="s">
-        <v>2426</v>
+        <v>2414</v>
       </c>
       <c r="G1703" t="s">
-        <v>2427</v>
+        <v>2415</v>
       </c>
       <c r="H1703" t="s">
-        <v>614</v>
+        <v>708</v>
       </c>
       <c r="I1703" t="s">
         <v>19</v>
@@ -72837,10 +72996,10 @@
         <v>1</v>
       </c>
       <c r="K1703">
-        <v>4590000</v>
+        <v>827000</v>
       </c>
       <c r="L1703">
-        <v>4590000</v>
+        <v>827000</v>
       </c>
     </row>
     <row r="1704" spans="1:12">
@@ -72857,16 +73016,16 @@
         <v>2239</v>
       </c>
       <c r="E1704" t="s">
-        <v>2425</v>
+        <v>2416</v>
       </c>
       <c r="F1704" t="s">
-        <v>2426</v>
+        <v>2417</v>
       </c>
       <c r="G1704" t="s">
-        <v>2427</v>
+        <v>2418</v>
       </c>
       <c r="H1704" t="s">
-        <v>377</v>
+        <v>708</v>
       </c>
       <c r="I1704" t="s">
         <v>19</v>
@@ -72875,10 +73034,10 @@
         <v>1</v>
       </c>
       <c r="K1704">
-        <v>11365500</v>
+        <v>1006000</v>
       </c>
       <c r="L1704">
-        <v>11365500</v>
+        <v>1006000</v>
       </c>
     </row>
     <row r="1705" spans="1:12">
@@ -72895,16 +73054,16 @@
         <v>2239</v>
       </c>
       <c r="E1705" t="s">
-        <v>2425</v>
+        <v>2419</v>
       </c>
       <c r="F1705" t="s">
-        <v>2426</v>
+        <v>2420</v>
       </c>
       <c r="G1705" t="s">
-        <v>2427</v>
+        <v>2421</v>
       </c>
       <c r="H1705" t="s">
-        <v>438</v>
+        <v>410</v>
       </c>
       <c r="I1705" t="s">
         <v>19</v>
@@ -72913,10 +73072,10 @@
         <v>1</v>
       </c>
       <c r="K1705">
-        <v>680000</v>
+        <v>198356216</v>
       </c>
       <c r="L1705">
-        <v>680000</v>
+        <v>198356216</v>
       </c>
     </row>
     <row r="1706" spans="1:12">
@@ -72933,16 +73092,16 @@
         <v>2239</v>
       </c>
       <c r="E1706" t="s">
-        <v>2425</v>
+        <v>2422</v>
       </c>
       <c r="F1706" t="s">
-        <v>2426</v>
+        <v>2423</v>
       </c>
       <c r="G1706" t="s">
-        <v>2427</v>
+        <v>2424</v>
       </c>
       <c r="H1706" t="s">
-        <v>439</v>
+        <v>344</v>
       </c>
       <c r="I1706" t="s">
         <v>19</v>
@@ -72951,10 +73110,10 @@
         <v>1</v>
       </c>
       <c r="K1706">
-        <v>1560200</v>
+        <v>41318160</v>
       </c>
       <c r="L1706">
-        <v>1560200</v>
+        <v>41318160</v>
       </c>
     </row>
     <row r="1707" spans="1:12">
@@ -72980,7 +73139,7 @@
         <v>2427</v>
       </c>
       <c r="H1707" t="s">
-        <v>459</v>
+        <v>255</v>
       </c>
       <c r="I1707" t="s">
         <v>19</v>
@@ -72989,10 +73148,10 @@
         <v>1</v>
       </c>
       <c r="K1707">
-        <v>340000</v>
+        <v>7070525</v>
       </c>
       <c r="L1707">
-        <v>340000</v>
+        <v>7070525</v>
       </c>
     </row>
     <row r="1708" spans="1:12">
@@ -73018,7 +73177,7 @@
         <v>2427</v>
       </c>
       <c r="H1708" t="s">
-        <v>2002</v>
+        <v>1198</v>
       </c>
       <c r="I1708" t="s">
         <v>19</v>
@@ -73027,10 +73186,10 @@
         <v>1</v>
       </c>
       <c r="K1708">
-        <v>1994000</v>
+        <v>2718000</v>
       </c>
       <c r="L1708">
-        <v>1994000</v>
+        <v>2718000</v>
       </c>
     </row>
     <row r="1709" spans="1:12">
@@ -73056,7 +73215,7 @@
         <v>2427</v>
       </c>
       <c r="H1709" t="s">
-        <v>902</v>
+        <v>2428</v>
       </c>
       <c r="I1709" t="s">
         <v>19</v>
@@ -73065,10 +73224,10 @@
         <v>1</v>
       </c>
       <c r="K1709">
-        <v>2058500</v>
+        <v>2369838</v>
       </c>
       <c r="L1709">
-        <v>2058500</v>
+        <v>2369838</v>
       </c>
     </row>
     <row r="1710" spans="1:12">
@@ -73094,7 +73253,7 @@
         <v>2427</v>
       </c>
       <c r="H1710" t="s">
-        <v>1781</v>
+        <v>1770</v>
       </c>
       <c r="I1710" t="s">
         <v>19</v>
@@ -73103,10 +73262,10 @@
         <v>1</v>
       </c>
       <c r="K1710">
-        <v>510000</v>
+        <v>2146500</v>
       </c>
       <c r="L1710">
-        <v>510000</v>
+        <v>2146500</v>
       </c>
     </row>
     <row r="1711" spans="1:12">
@@ -73132,7 +73291,7 @@
         <v>2427</v>
       </c>
       <c r="H1711" t="s">
-        <v>615</v>
+        <v>128</v>
       </c>
       <c r="I1711" t="s">
         <v>19</v>
@@ -73141,10 +73300,10 @@
         <v>1</v>
       </c>
       <c r="K1711">
-        <v>1200000</v>
+        <v>1866750</v>
       </c>
       <c r="L1711">
-        <v>1200000</v>
+        <v>1866750</v>
       </c>
     </row>
     <row r="1712" spans="1:12">
@@ -73170,7 +73329,7 @@
         <v>2427</v>
       </c>
       <c r="H1712" t="s">
-        <v>465</v>
+        <v>275</v>
       </c>
       <c r="I1712" t="s">
         <v>19</v>
@@ -73179,10 +73338,10 @@
         <v>1</v>
       </c>
       <c r="K1712">
-        <v>680000</v>
+        <v>3464868</v>
       </c>
       <c r="L1712">
-        <v>680000</v>
+        <v>3464868</v>
       </c>
     </row>
     <row r="1713" spans="1:12">
@@ -73199,16 +73358,16 @@
         <v>2239</v>
       </c>
       <c r="E1713" t="s">
-        <v>2425</v>
+        <v>2429</v>
       </c>
       <c r="F1713" t="s">
-        <v>2426</v>
+        <v>2430</v>
       </c>
       <c r="G1713" t="s">
-        <v>2427</v>
+        <v>2431</v>
       </c>
       <c r="H1713" t="s">
-        <v>467</v>
+        <v>348</v>
       </c>
       <c r="I1713" t="s">
         <v>19</v>
@@ -73217,10 +73376,10 @@
         <v>1</v>
       </c>
       <c r="K1713">
-        <v>600000</v>
+        <v>41318160</v>
       </c>
       <c r="L1713">
-        <v>600000</v>
+        <v>41318160</v>
       </c>
     </row>
     <row r="1714" spans="1:12">
@@ -73246,7 +73405,7 @@
         <v>2434</v>
       </c>
       <c r="H1714" t="s">
-        <v>2435</v>
+        <v>348</v>
       </c>
       <c r="I1714" t="s">
         <v>19</v>
@@ -73255,10 +73414,10 @@
         <v>1</v>
       </c>
       <c r="K1714">
-        <v>666000</v>
+        <v>27151923</v>
       </c>
       <c r="L1714">
-        <v>666000</v>
+        <v>27151923</v>
       </c>
     </row>
     <row r="1715" spans="1:12">
@@ -73275,16 +73434,16 @@
         <v>2239</v>
       </c>
       <c r="E1715" t="s">
+        <v>2435</v>
+      </c>
+      <c r="F1715" t="s">
         <v>2436</v>
       </c>
-      <c r="F1715" t="s">
+      <c r="G1715" t="s">
         <v>2437</v>
       </c>
-      <c r="G1715" t="s">
-        <v>2438</v>
-      </c>
       <c r="H1715" t="s">
-        <v>396</v>
+        <v>1119</v>
       </c>
       <c r="I1715" t="s">
         <v>19</v>
@@ -73293,10 +73452,10 @@
         <v>1</v>
       </c>
       <c r="K1715">
-        <v>200029106</v>
+        <v>925000</v>
       </c>
       <c r="L1715">
-        <v>200029106</v>
+        <v>925000</v>
       </c>
     </row>
     <row r="1716" spans="1:12">
@@ -73310,19 +73469,19 @@
         <v>13</v>
       </c>
       <c r="D1716" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1716" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1716" t="s">
         <v>2439</v>
       </c>
-      <c r="E1716" t="s">
+      <c r="G1716" t="s">
         <v>2440</v>
       </c>
-      <c r="F1716" t="s">
-        <v>2441</v>
-      </c>
-      <c r="G1716" t="s">
-        <v>2442</v>
-      </c>
       <c r="H1716" t="s">
-        <v>2443</v>
+        <v>886</v>
       </c>
       <c r="I1716" t="s">
         <v>19</v>
@@ -73331,10 +73490,10 @@
         <v>1</v>
       </c>
       <c r="K1716">
-        <v>1190000</v>
+        <v>5615000</v>
       </c>
       <c r="L1716">
-        <v>1190000</v>
+        <v>5615000</v>
       </c>
     </row>
     <row r="1717" spans="1:12">
@@ -73348,19 +73507,19 @@
         <v>13</v>
       </c>
       <c r="D1717" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1717" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1717" t="s">
         <v>2439</v>
       </c>
-      <c r="E1717" t="s">
-        <v>2444</v>
-      </c>
-      <c r="F1717" t="s">
-        <v>2445</v>
-      </c>
       <c r="G1717" t="s">
-        <v>2446</v>
+        <v>2440</v>
       </c>
       <c r="H1717" t="s">
-        <v>666</v>
+        <v>887</v>
       </c>
       <c r="I1717" t="s">
         <v>19</v>
@@ -73369,10 +73528,10 @@
         <v>1</v>
       </c>
       <c r="K1717">
-        <v>588100</v>
+        <v>330739</v>
       </c>
       <c r="L1717">
-        <v>588100</v>
+        <v>330739</v>
       </c>
     </row>
     <row r="1718" spans="1:12">
@@ -73386,19 +73545,19 @@
         <v>13</v>
       </c>
       <c r="D1718" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1718" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1718" t="s">
         <v>2439</v>
       </c>
-      <c r="E1718" t="s">
-        <v>2444</v>
-      </c>
-      <c r="F1718" t="s">
-        <v>2445</v>
-      </c>
       <c r="G1718" t="s">
-        <v>2446</v>
+        <v>2440</v>
       </c>
       <c r="H1718" t="s">
-        <v>669</v>
+        <v>888</v>
       </c>
       <c r="I1718" t="s">
         <v>19</v>
@@ -73407,10 +73566,10 @@
         <v>1</v>
       </c>
       <c r="K1718">
-        <v>525000</v>
+        <v>30321</v>
       </c>
       <c r="L1718">
-        <v>525000</v>
+        <v>30321</v>
       </c>
     </row>
     <row r="1719" spans="1:12">
@@ -73424,19 +73583,19 @@
         <v>13</v>
       </c>
       <c r="D1719" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1719" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1719" t="s">
         <v>2439</v>
       </c>
-      <c r="E1719" t="s">
-        <v>2447</v>
-      </c>
-      <c r="F1719" t="s">
-        <v>2448</v>
-      </c>
       <c r="G1719" t="s">
-        <v>2449</v>
+        <v>2440</v>
       </c>
       <c r="H1719" t="s">
-        <v>671</v>
+        <v>445</v>
       </c>
       <c r="I1719" t="s">
         <v>19</v>
@@ -73445,10 +73604,10 @@
         <v>1</v>
       </c>
       <c r="K1719">
-        <v>1360000</v>
+        <v>7117000</v>
       </c>
       <c r="L1719">
-        <v>1360000</v>
+        <v>7117000</v>
       </c>
     </row>
     <row r="1720" spans="1:12">
@@ -73462,19 +73621,19 @@
         <v>13</v>
       </c>
       <c r="D1720" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1720" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1720" t="s">
         <v>2439</v>
       </c>
-      <c r="E1720" t="s">
-        <v>2450</v>
-      </c>
-      <c r="F1720" t="s">
-        <v>2451</v>
-      </c>
       <c r="G1720" t="s">
-        <v>2452</v>
+        <v>2440</v>
       </c>
       <c r="H1720" t="s">
-        <v>708</v>
+        <v>1451</v>
       </c>
       <c r="I1720" t="s">
         <v>19</v>
@@ -73483,10 +73642,10 @@
         <v>1</v>
       </c>
       <c r="K1720">
-        <v>986000</v>
+        <v>1168000</v>
       </c>
       <c r="L1720">
-        <v>986000</v>
+        <v>1168000</v>
       </c>
     </row>
     <row r="1721" spans="1:12">
@@ -73500,19 +73659,19 @@
         <v>13</v>
       </c>
       <c r="D1721" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1721" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1721" t="s">
         <v>2439</v>
       </c>
-      <c r="E1721" t="s">
-        <v>2453</v>
-      </c>
-      <c r="F1721" t="s">
-        <v>2454</v>
-      </c>
       <c r="G1721" t="s">
-        <v>2455</v>
+        <v>2440</v>
       </c>
       <c r="H1721" t="s">
-        <v>671</v>
+        <v>1452</v>
       </c>
       <c r="I1721" t="s">
         <v>19</v>
@@ -73521,10 +73680,10 @@
         <v>1</v>
       </c>
       <c r="K1721">
-        <v>2720000</v>
+        <v>972000</v>
       </c>
       <c r="L1721">
-        <v>2720000</v>
+        <v>972000</v>
       </c>
     </row>
     <row r="1722" spans="1:12">
@@ -73538,19 +73697,19 @@
         <v>13</v>
       </c>
       <c r="D1722" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1722" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1722" t="s">
         <v>2439</v>
       </c>
-      <c r="E1722" t="s">
-        <v>2456</v>
-      </c>
-      <c r="F1722" t="s">
-        <v>2457</v>
-      </c>
       <c r="G1722" t="s">
-        <v>2458</v>
+        <v>2440</v>
       </c>
       <c r="H1722" t="s">
-        <v>2459</v>
+        <v>1453</v>
       </c>
       <c r="I1722" t="s">
         <v>19</v>
@@ -73559,10 +73718,10 @@
         <v>1</v>
       </c>
       <c r="K1722">
-        <v>1122790</v>
+        <v>324000</v>
       </c>
       <c r="L1722">
-        <v>1122790</v>
+        <v>324000</v>
       </c>
     </row>
     <row r="1723" spans="1:12">
@@ -73576,19 +73735,19 @@
         <v>13</v>
       </c>
       <c r="D1723" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1723" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1723" t="s">
         <v>2439</v>
       </c>
-      <c r="E1723" t="s">
-        <v>2460</v>
-      </c>
-      <c r="F1723" t="s">
-        <v>2461</v>
-      </c>
       <c r="G1723" t="s">
-        <v>2462</v>
+        <v>2440</v>
       </c>
       <c r="H1723" t="s">
-        <v>2459</v>
+        <v>1454</v>
       </c>
       <c r="I1723" t="s">
         <v>19</v>
@@ -73597,10 +73756,10 @@
         <v>1</v>
       </c>
       <c r="K1723">
-        <v>1422000</v>
+        <v>272000</v>
       </c>
       <c r="L1723">
-        <v>1422000</v>
+        <v>272000</v>
       </c>
     </row>
     <row r="1724" spans="1:12">
@@ -73614,19 +73773,19 @@
         <v>13</v>
       </c>
       <c r="D1724" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1724" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1724" t="s">
         <v>2439</v>
       </c>
-      <c r="E1724" t="s">
-        <v>2463</v>
-      </c>
-      <c r="F1724" t="s">
-        <v>2464</v>
-      </c>
       <c r="G1724" t="s">
-        <v>2465</v>
+        <v>2440</v>
       </c>
       <c r="H1724" t="s">
-        <v>707</v>
+        <v>595</v>
       </c>
       <c r="I1724" t="s">
         <v>19</v>
@@ -73635,10 +73794,10 @@
         <v>1</v>
       </c>
       <c r="K1724">
-        <v>4311971</v>
+        <v>1005000</v>
       </c>
       <c r="L1724">
-        <v>4311971</v>
+        <v>1005000</v>
       </c>
     </row>
     <row r="1725" spans="1:12">
@@ -73652,19 +73811,19 @@
         <v>13</v>
       </c>
       <c r="D1725" t="s">
-        <v>2466</v>
+        <v>2239</v>
       </c>
       <c r="E1725" t="s">
-        <v>2467</v>
+        <v>2438</v>
       </c>
       <c r="F1725" t="s">
-        <v>2468</v>
+        <v>2439</v>
       </c>
       <c r="G1725" t="s">
-        <v>2469</v>
+        <v>2440</v>
       </c>
       <c r="H1725" t="s">
-        <v>707</v>
+        <v>2441</v>
       </c>
       <c r="I1725" t="s">
         <v>19</v>
@@ -73673,10 +73832,10 @@
         <v>1</v>
       </c>
       <c r="K1725">
-        <v>4133971</v>
+        <v>3250000</v>
       </c>
       <c r="L1725">
-        <v>4133971</v>
+        <v>3250000</v>
       </c>
     </row>
     <row r="1726" spans="1:12">
@@ -73690,19 +73849,19 @@
         <v>13</v>
       </c>
       <c r="D1726" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1726" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1726" t="s">
         <v>2439</v>
       </c>
-      <c r="E1726" t="s">
-        <v>2470</v>
-      </c>
-      <c r="F1726" t="s">
-        <v>2471</v>
-      </c>
       <c r="G1726" t="s">
-        <v>2472</v>
+        <v>2440</v>
       </c>
       <c r="H1726" t="s">
-        <v>183</v>
+        <v>452</v>
       </c>
       <c r="I1726" t="s">
         <v>19</v>
@@ -73711,10 +73870,10 @@
         <v>1</v>
       </c>
       <c r="K1726">
-        <v>892693</v>
+        <v>2310000</v>
       </c>
       <c r="L1726">
-        <v>892693</v>
+        <v>2310000</v>
       </c>
     </row>
     <row r="1727" spans="1:12">
@@ -73728,19 +73887,19 @@
         <v>13</v>
       </c>
       <c r="D1727" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1727" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1727" t="s">
         <v>2439</v>
       </c>
-      <c r="E1727" t="s">
-        <v>2473</v>
-      </c>
-      <c r="F1727" t="s">
-        <v>2474</v>
-      </c>
       <c r="G1727" t="s">
-        <v>2475</v>
+        <v>2440</v>
       </c>
       <c r="H1727" t="s">
-        <v>183</v>
+        <v>899</v>
       </c>
       <c r="I1727" t="s">
         <v>19</v>
@@ -73749,10 +73908,10 @@
         <v>1</v>
       </c>
       <c r="K1727">
-        <v>1126000</v>
+        <v>2235000</v>
       </c>
       <c r="L1727">
-        <v>1126000</v>
+        <v>2235000</v>
       </c>
     </row>
     <row r="1728" spans="1:12">
@@ -73766,19 +73925,19 @@
         <v>13</v>
       </c>
       <c r="D1728" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1728" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1728" t="s">
         <v>2439</v>
       </c>
-      <c r="E1728" t="s">
-        <v>2476</v>
-      </c>
-      <c r="F1728" t="s">
-        <v>2477</v>
-      </c>
       <c r="G1728" t="s">
-        <v>2478</v>
+        <v>2440</v>
       </c>
       <c r="H1728" t="s">
-        <v>183</v>
+        <v>1813</v>
       </c>
       <c r="I1728" t="s">
         <v>19</v>
@@ -73787,10 +73946,10 @@
         <v>1</v>
       </c>
       <c r="K1728">
-        <v>1310000</v>
+        <v>390604</v>
       </c>
       <c r="L1728">
-        <v>1310000</v>
+        <v>390604</v>
       </c>
     </row>
     <row r="1729" spans="1:12">
@@ -73804,19 +73963,19 @@
         <v>13</v>
       </c>
       <c r="D1729" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1729" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1729" t="s">
         <v>2439</v>
       </c>
-      <c r="E1729" t="s">
-        <v>2479</v>
-      </c>
-      <c r="F1729" t="s">
-        <v>2480</v>
-      </c>
       <c r="G1729" t="s">
-        <v>2481</v>
+        <v>2440</v>
       </c>
       <c r="H1729" t="s">
-        <v>291</v>
+        <v>2442</v>
       </c>
       <c r="I1729" t="s">
         <v>19</v>
@@ -73825,10 +73984,10 @@
         <v>1</v>
       </c>
       <c r="K1729">
-        <v>3230000</v>
+        <v>341667</v>
       </c>
       <c r="L1729">
-        <v>3230000</v>
+        <v>341667</v>
       </c>
     </row>
     <row r="1730" spans="1:12">
@@ -73842,19 +74001,19 @@
         <v>13</v>
       </c>
       <c r="D1730" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1730" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1730" t="s">
         <v>2439</v>
       </c>
-      <c r="E1730" t="s">
-        <v>2482</v>
-      </c>
-      <c r="F1730" t="s">
-        <v>2483</v>
-      </c>
       <c r="G1730" t="s">
-        <v>2484</v>
+        <v>2440</v>
       </c>
       <c r="H1730" t="s">
-        <v>392</v>
+        <v>2443</v>
       </c>
       <c r="I1730" t="s">
         <v>19</v>
@@ -73863,10 +74022,10 @@
         <v>1</v>
       </c>
       <c r="K1730">
-        <v>27167250</v>
+        <v>740000</v>
       </c>
       <c r="L1730">
-        <v>27167250</v>
+        <v>740000</v>
       </c>
     </row>
     <row r="1731" spans="1:12">
@@ -73880,19 +74039,19 @@
         <v>13</v>
       </c>
       <c r="D1731" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1731" t="s">
+        <v>2438</v>
+      </c>
+      <c r="F1731" t="s">
         <v>2439</v>
       </c>
-      <c r="E1731" t="s">
-        <v>2485</v>
-      </c>
-      <c r="F1731" t="s">
-        <v>2486</v>
-      </c>
       <c r="G1731" t="s">
-        <v>2487</v>
+        <v>2440</v>
       </c>
       <c r="H1731" t="s">
-        <v>187</v>
+        <v>2444</v>
       </c>
       <c r="I1731" t="s">
         <v>19</v>
@@ -73901,10 +74060,10 @@
         <v>1</v>
       </c>
       <c r="K1731">
-        <v>38031435</v>
+        <v>421140</v>
       </c>
       <c r="L1731">
-        <v>38031435</v>
+        <v>421140</v>
       </c>
     </row>
     <row r="1732" spans="1:12">
@@ -73921,16 +74080,16 @@
         <v>2239</v>
       </c>
       <c r="E1732" t="s">
-        <v>2488</v>
+        <v>2438</v>
       </c>
       <c r="F1732" t="s">
-        <v>2489</v>
+        <v>2439</v>
       </c>
       <c r="G1732" t="s">
-        <v>2490</v>
+        <v>2440</v>
       </c>
       <c r="H1732" t="s">
-        <v>400</v>
+        <v>2203</v>
       </c>
       <c r="I1732" t="s">
         <v>19</v>
@@ -73939,10 +74098,10 @@
         <v>1</v>
       </c>
       <c r="K1732">
-        <v>425592894</v>
+        <v>5928000</v>
       </c>
       <c r="L1732">
-        <v>425592894</v>
+        <v>5928000</v>
       </c>
     </row>
     <row r="1733" spans="1:12">
@@ -73959,16 +74118,16 @@
         <v>2239</v>
       </c>
       <c r="E1733" t="s">
-        <v>2491</v>
+        <v>2438</v>
       </c>
       <c r="F1733" t="s">
-        <v>2492</v>
+        <v>2439</v>
       </c>
       <c r="G1733" t="s">
-        <v>2493</v>
+        <v>2440</v>
       </c>
       <c r="H1733" t="s">
-        <v>400</v>
+        <v>613</v>
       </c>
       <c r="I1733" t="s">
         <v>19</v>
@@ -73977,10 +74136,10 @@
         <v>1</v>
       </c>
       <c r="K1733">
-        <v>5338400</v>
+        <v>6786000</v>
       </c>
       <c r="L1733">
-        <v>5338400</v>
+        <v>6786000</v>
       </c>
     </row>
     <row r="1734" spans="1:12">
@@ -73997,16 +74156,16 @@
         <v>2239</v>
       </c>
       <c r="E1734" t="s">
-        <v>2494</v>
+        <v>2438</v>
       </c>
       <c r="F1734" t="s">
-        <v>2495</v>
+        <v>2439</v>
       </c>
       <c r="G1734" t="s">
-        <v>2496</v>
+        <v>2440</v>
       </c>
       <c r="H1734" t="s">
-        <v>510</v>
+        <v>614</v>
       </c>
       <c r="I1734" t="s">
         <v>19</v>
@@ -74015,10 +74174,10 @@
         <v>1</v>
       </c>
       <c r="K1734">
-        <v>9177893</v>
+        <v>4590000</v>
       </c>
       <c r="L1734">
-        <v>9177893</v>
+        <v>4590000</v>
       </c>
     </row>
     <row r="1735" spans="1:12">
@@ -74035,16 +74194,16 @@
         <v>2239</v>
       </c>
       <c r="E1735" t="s">
-        <v>2497</v>
+        <v>2438</v>
       </c>
       <c r="F1735" t="s">
-        <v>2498</v>
+        <v>2439</v>
       </c>
       <c r="G1735" t="s">
-        <v>2414</v>
+        <v>2440</v>
       </c>
       <c r="H1735" t="s">
-        <v>2499</v>
+        <v>377</v>
       </c>
       <c r="I1735" t="s">
         <v>19</v>
@@ -74053,10 +74212,10 @@
         <v>1</v>
       </c>
       <c r="K1735">
-        <v>971000</v>
+        <v>11365500</v>
       </c>
       <c r="L1735">
-        <v>971000</v>
+        <v>11365500</v>
       </c>
     </row>
     <row r="1736" spans="1:12">
@@ -74073,16 +74232,16 @@
         <v>2239</v>
       </c>
       <c r="E1736" t="s">
-        <v>2497</v>
+        <v>2438</v>
       </c>
       <c r="F1736" t="s">
-        <v>2498</v>
+        <v>2439</v>
       </c>
       <c r="G1736" t="s">
-        <v>2414</v>
+        <v>2440</v>
       </c>
       <c r="H1736" t="s">
-        <v>2500</v>
+        <v>438</v>
       </c>
       <c r="I1736" t="s">
         <v>19</v>
@@ -74091,10 +74250,10 @@
         <v>1</v>
       </c>
       <c r="K1736">
-        <v>161547</v>
+        <v>680000</v>
       </c>
       <c r="L1736">
-        <v>161547</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="1737" spans="1:12">
@@ -74111,16 +74270,16 @@
         <v>2239</v>
       </c>
       <c r="E1737" t="s">
-        <v>2497</v>
+        <v>2438</v>
       </c>
       <c r="F1737" t="s">
-        <v>2498</v>
+        <v>2439</v>
       </c>
       <c r="G1737" t="s">
-        <v>2414</v>
+        <v>2440</v>
       </c>
       <c r="H1737" t="s">
-        <v>2501</v>
+        <v>439</v>
       </c>
       <c r="I1737" t="s">
         <v>19</v>
@@ -74129,10 +74288,10 @@
         <v>1</v>
       </c>
       <c r="K1737">
-        <v>14430</v>
+        <v>1560200</v>
       </c>
       <c r="L1737">
-        <v>14430</v>
+        <v>1560200</v>
       </c>
     </row>
     <row r="1738" spans="1:12">
@@ -74149,16 +74308,16 @@
         <v>2239</v>
       </c>
       <c r="E1738" t="s">
-        <v>2497</v>
+        <v>2438</v>
       </c>
       <c r="F1738" t="s">
-        <v>2498</v>
+        <v>2439</v>
       </c>
       <c r="G1738" t="s">
-        <v>2414</v>
+        <v>2440</v>
       </c>
       <c r="H1738" t="s">
-        <v>1472</v>
+        <v>459</v>
       </c>
       <c r="I1738" t="s">
         <v>19</v>
@@ -74167,10 +74326,10 @@
         <v>1</v>
       </c>
       <c r="K1738">
-        <v>1050600</v>
+        <v>340000</v>
       </c>
       <c r="L1738">
-        <v>1050600</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="1739" spans="1:12">
@@ -74184,19 +74343,19 @@
         <v>13</v>
       </c>
       <c r="D1739" t="s">
-        <v>2502</v>
+        <v>2239</v>
       </c>
       <c r="E1739" t="s">
-        <v>2503</v>
+        <v>2438</v>
       </c>
       <c r="F1739" t="s">
-        <v>2504</v>
+        <v>2439</v>
       </c>
       <c r="G1739" t="s">
-        <v>2505</v>
+        <v>2440</v>
       </c>
       <c r="H1739" t="s">
-        <v>2079</v>
+        <v>2002</v>
       </c>
       <c r="I1739" t="s">
         <v>19</v>
@@ -74205,10 +74364,10 @@
         <v>1</v>
       </c>
       <c r="K1739">
-        <v>850000</v>
+        <v>1994000</v>
       </c>
       <c r="L1739">
-        <v>850000</v>
+        <v>1994000</v>
       </c>
     </row>
     <row r="1740" spans="1:12">
@@ -74222,19 +74381,19 @@
         <v>13</v>
       </c>
       <c r="D1740" t="s">
-        <v>2502</v>
+        <v>2239</v>
       </c>
       <c r="E1740" t="s">
-        <v>2506</v>
+        <v>2438</v>
       </c>
       <c r="F1740" t="s">
-        <v>2507</v>
+        <v>2439</v>
       </c>
       <c r="G1740" t="s">
-        <v>2508</v>
+        <v>2440</v>
       </c>
       <c r="H1740" t="s">
-        <v>2079</v>
+        <v>902</v>
       </c>
       <c r="I1740" t="s">
         <v>19</v>
@@ -74243,10 +74402,10 @@
         <v>1</v>
       </c>
       <c r="K1740">
-        <v>170000</v>
+        <v>2058500</v>
       </c>
       <c r="L1740">
-        <v>170000</v>
+        <v>2058500</v>
       </c>
     </row>
     <row r="1741" spans="1:12">
@@ -74260,19 +74419,19 @@
         <v>13</v>
       </c>
       <c r="D1741" t="s">
-        <v>2502</v>
+        <v>2239</v>
       </c>
       <c r="E1741" t="s">
-        <v>2509</v>
+        <v>2438</v>
       </c>
       <c r="F1741" t="s">
-        <v>2510</v>
+        <v>2439</v>
       </c>
       <c r="G1741" t="s">
-        <v>2511</v>
+        <v>2440</v>
       </c>
       <c r="H1741" t="s">
-        <v>2080</v>
+        <v>1781</v>
       </c>
       <c r="I1741" t="s">
         <v>19</v>
@@ -74281,10 +74440,10 @@
         <v>1</v>
       </c>
       <c r="K1741">
-        <v>900000</v>
+        <v>510000</v>
       </c>
       <c r="L1741">
-        <v>900000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="1742" spans="1:12">
@@ -74298,19 +74457,19 @@
         <v>13</v>
       </c>
       <c r="D1742" t="s">
-        <v>2502</v>
+        <v>2239</v>
       </c>
       <c r="E1742" t="s">
-        <v>2512</v>
+        <v>2438</v>
       </c>
       <c r="F1742" t="s">
-        <v>2513</v>
+        <v>2439</v>
       </c>
       <c r="G1742" t="s">
-        <v>2514</v>
+        <v>2440</v>
       </c>
       <c r="H1742" t="s">
-        <v>2080</v>
+        <v>615</v>
       </c>
       <c r="I1742" t="s">
         <v>19</v>
@@ -74319,10 +74478,10 @@
         <v>1</v>
       </c>
       <c r="K1742">
-        <v>300000</v>
+        <v>1200000</v>
       </c>
       <c r="L1742">
-        <v>300000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="1743" spans="1:12">
@@ -74336,19 +74495,19 @@
         <v>13</v>
       </c>
       <c r="D1743" t="s">
-        <v>2502</v>
+        <v>2239</v>
       </c>
       <c r="E1743" t="s">
-        <v>2515</v>
+        <v>2438</v>
       </c>
       <c r="F1743" t="s">
-        <v>2516</v>
+        <v>2439</v>
       </c>
       <c r="G1743" t="s">
-        <v>2517</v>
+        <v>2440</v>
       </c>
       <c r="H1743" t="s">
-        <v>2518</v>
+        <v>465</v>
       </c>
       <c r="I1743" t="s">
         <v>19</v>
@@ -74357,10 +74516,10 @@
         <v>1</v>
       </c>
       <c r="K1743">
-        <v>390000</v>
+        <v>680000</v>
       </c>
       <c r="L1743">
-        <v>390000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="1744" spans="1:12">
@@ -74374,19 +74533,19 @@
         <v>13</v>
       </c>
       <c r="D1744" t="s">
-        <v>2502</v>
+        <v>2239</v>
       </c>
       <c r="E1744" t="s">
-        <v>2515</v>
+        <v>2438</v>
       </c>
       <c r="F1744" t="s">
-        <v>2516</v>
+        <v>2439</v>
       </c>
       <c r="G1744" t="s">
-        <v>2517</v>
+        <v>2440</v>
       </c>
       <c r="H1744" t="s">
-        <v>2519</v>
+        <v>467</v>
       </c>
       <c r="I1744" t="s">
         <v>19</v>
@@ -74395,10 +74554,10 @@
         <v>1</v>
       </c>
       <c r="K1744">
-        <v>510000</v>
+        <v>600000</v>
       </c>
       <c r="L1744">
-        <v>510000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="1745" spans="1:12">
@@ -74412,19 +74571,19 @@
         <v>13</v>
       </c>
       <c r="D1745" t="s">
-        <v>2502</v>
+        <v>2239</v>
       </c>
       <c r="E1745" t="s">
-        <v>2520</v>
+        <v>2445</v>
       </c>
       <c r="F1745" t="s">
-        <v>2521</v>
+        <v>2446</v>
       </c>
       <c r="G1745" t="s">
-        <v>2522</v>
+        <v>2447</v>
       </c>
       <c r="H1745" t="s">
-        <v>1472</v>
+        <v>2448</v>
       </c>
       <c r="I1745" t="s">
         <v>19</v>
@@ -74433,10 +74592,10 @@
         <v>1</v>
       </c>
       <c r="K1745">
-        <v>1364000</v>
+        <v>666000</v>
       </c>
       <c r="L1745">
-        <v>1364000</v>
+        <v>666000</v>
       </c>
     </row>
     <row r="1746" spans="1:12">
@@ -74450,19 +74609,19 @@
         <v>13</v>
       </c>
       <c r="D1746" t="s">
-        <v>2523</v>
+        <v>2239</v>
       </c>
       <c r="E1746" t="s">
-        <v>2524</v>
+        <v>2449</v>
       </c>
       <c r="F1746" t="s">
-        <v>2525</v>
+        <v>2450</v>
       </c>
       <c r="G1746" t="s">
-        <v>2526</v>
+        <v>2451</v>
       </c>
       <c r="H1746" t="s">
-        <v>786</v>
+        <v>396</v>
       </c>
       <c r="I1746" t="s">
         <v>19</v>
@@ -74471,10 +74630,10 @@
         <v>1</v>
       </c>
       <c r="K1746">
-        <v>15065000</v>
+        <v>200029106</v>
       </c>
       <c r="L1746">
-        <v>15065000</v>
+        <v>200029106</v>
       </c>
     </row>
     <row r="1747" spans="1:12">
@@ -74488,19 +74647,19 @@
         <v>13</v>
       </c>
       <c r="D1747" t="s">
-        <v>2502</v>
+        <v>2452</v>
       </c>
       <c r="E1747" t="s">
-        <v>2527</v>
+        <v>2453</v>
       </c>
       <c r="F1747" t="s">
-        <v>2528</v>
+        <v>2454</v>
       </c>
       <c r="G1747" t="s">
-        <v>2529</v>
+        <v>2455</v>
       </c>
       <c r="H1747" t="s">
-        <v>2530</v>
+        <v>2456</v>
       </c>
       <c r="I1747" t="s">
         <v>19</v>
@@ -74509,10 +74668,10 @@
         <v>1</v>
       </c>
       <c r="K1747">
-        <v>170000</v>
+        <v>1190000</v>
       </c>
       <c r="L1747">
-        <v>170000</v>
+        <v>1190000</v>
       </c>
     </row>
     <row r="1748" spans="1:12">
@@ -74526,19 +74685,19 @@
         <v>13</v>
       </c>
       <c r="D1748" t="s">
-        <v>2502</v>
+        <v>2452</v>
       </c>
       <c r="E1748" t="s">
-        <v>2527</v>
+        <v>2457</v>
       </c>
       <c r="F1748" t="s">
-        <v>2528</v>
+        <v>2458</v>
       </c>
       <c r="G1748" t="s">
-        <v>2529</v>
+        <v>2459</v>
       </c>
       <c r="H1748" t="s">
-        <v>2531</v>
+        <v>666</v>
       </c>
       <c r="I1748" t="s">
         <v>19</v>
@@ -74547,10 +74706,10 @@
         <v>1</v>
       </c>
       <c r="K1748">
-        <v>130000</v>
+        <v>588100</v>
       </c>
       <c r="L1748">
-        <v>130000</v>
+        <v>588100</v>
       </c>
     </row>
     <row r="1749" spans="1:12">
@@ -74564,19 +74723,19 @@
         <v>13</v>
       </c>
       <c r="D1749" t="s">
-        <v>2523</v>
+        <v>2452</v>
       </c>
       <c r="E1749" t="s">
-        <v>2532</v>
+        <v>2457</v>
       </c>
       <c r="F1749" t="s">
-        <v>2533</v>
+        <v>2458</v>
       </c>
       <c r="G1749" t="s">
-        <v>2534</v>
+        <v>2459</v>
       </c>
       <c r="H1749" t="s">
-        <v>796</v>
+        <v>669</v>
       </c>
       <c r="I1749" t="s">
         <v>19</v>
@@ -74585,10 +74744,10 @@
         <v>1</v>
       </c>
       <c r="K1749">
-        <v>30222000</v>
+        <v>525000</v>
       </c>
       <c r="L1749">
-        <v>30222000</v>
+        <v>525000</v>
       </c>
     </row>
     <row r="1750" spans="1:12">
@@ -74602,19 +74761,19 @@
         <v>13</v>
       </c>
       <c r="D1750" t="s">
-        <v>2523</v>
+        <v>2452</v>
       </c>
       <c r="E1750" t="s">
-        <v>2535</v>
+        <v>2460</v>
       </c>
       <c r="F1750" t="s">
-        <v>2536</v>
+        <v>2461</v>
       </c>
       <c r="G1750" t="s">
-        <v>2537</v>
+        <v>2462</v>
       </c>
       <c r="H1750" t="s">
-        <v>796</v>
+        <v>671</v>
       </c>
       <c r="I1750" t="s">
         <v>19</v>
@@ -74623,10 +74782,10 @@
         <v>1</v>
       </c>
       <c r="K1750">
-        <v>850000</v>
+        <v>1360000</v>
       </c>
       <c r="L1750">
-        <v>850000</v>
+        <v>1360000</v>
       </c>
     </row>
     <row r="1751" spans="1:12">
@@ -74640,19 +74799,19 @@
         <v>13</v>
       </c>
       <c r="D1751" t="s">
-        <v>2523</v>
+        <v>2452</v>
       </c>
       <c r="E1751" t="s">
-        <v>2538</v>
+        <v>2463</v>
       </c>
       <c r="F1751" t="s">
-        <v>2539</v>
+        <v>2464</v>
       </c>
       <c r="G1751" t="s">
-        <v>2540</v>
+        <v>2465</v>
       </c>
       <c r="H1751" t="s">
-        <v>1119</v>
+        <v>708</v>
       </c>
       <c r="I1751" t="s">
         <v>19</v>
@@ -74661,10 +74820,10 @@
         <v>1</v>
       </c>
       <c r="K1751">
-        <v>851000</v>
+        <v>986000</v>
       </c>
       <c r="L1751">
-        <v>851000</v>
+        <v>986000</v>
       </c>
     </row>
     <row r="1752" spans="1:12">
@@ -74678,19 +74837,19 @@
         <v>13</v>
       </c>
       <c r="D1752" t="s">
-        <v>2502</v>
+        <v>2452</v>
       </c>
       <c r="E1752" t="s">
-        <v>2541</v>
+        <v>2466</v>
       </c>
       <c r="F1752" t="s">
-        <v>2542</v>
+        <v>2467</v>
       </c>
       <c r="G1752" t="s">
-        <v>2543</v>
+        <v>2468</v>
       </c>
       <c r="H1752" t="s">
-        <v>1770</v>
+        <v>671</v>
       </c>
       <c r="I1752" t="s">
         <v>19</v>
@@ -74699,10 +74858,10 @@
         <v>1</v>
       </c>
       <c r="K1752">
-        <v>6882000</v>
+        <v>2720000</v>
       </c>
       <c r="L1752">
-        <v>6882000</v>
+        <v>2720000</v>
       </c>
     </row>
     <row r="1753" spans="1:12">
@@ -74716,19 +74875,19 @@
         <v>13</v>
       </c>
       <c r="D1753" t="s">
-        <v>2502</v>
+        <v>2452</v>
       </c>
       <c r="E1753" t="s">
-        <v>2544</v>
+        <v>2469</v>
       </c>
       <c r="F1753" t="s">
-        <v>2545</v>
+        <v>2470</v>
       </c>
       <c r="G1753" t="s">
-        <v>2546</v>
+        <v>2471</v>
       </c>
       <c r="H1753" t="s">
-        <v>1770</v>
+        <v>2472</v>
       </c>
       <c r="I1753" t="s">
         <v>19</v>
@@ -74737,10 +74896,10 @@
         <v>1</v>
       </c>
       <c r="K1753">
-        <v>973900</v>
+        <v>1122790</v>
       </c>
       <c r="L1753">
-        <v>973900</v>
+        <v>1122790</v>
       </c>
     </row>
     <row r="1754" spans="1:12">
@@ -74754,19 +74913,19 @@
         <v>13</v>
       </c>
       <c r="D1754" t="s">
-        <v>2502</v>
+        <v>2452</v>
       </c>
       <c r="E1754" t="s">
-        <v>2547</v>
+        <v>2473</v>
       </c>
       <c r="F1754" t="s">
-        <v>2548</v>
+        <v>2474</v>
       </c>
       <c r="G1754" t="s">
-        <v>2549</v>
+        <v>2475</v>
       </c>
       <c r="H1754" t="s">
-        <v>737</v>
+        <v>2472</v>
       </c>
       <c r="I1754" t="s">
         <v>19</v>
@@ -74775,10 +74934,10 @@
         <v>1</v>
       </c>
       <c r="K1754">
-        <v>11318260</v>
+        <v>1422000</v>
       </c>
       <c r="L1754">
-        <v>11318260</v>
+        <v>1422000</v>
       </c>
     </row>
     <row r="1755" spans="1:12">
@@ -74792,19 +74951,19 @@
         <v>13</v>
       </c>
       <c r="D1755" t="s">
-        <v>2502</v>
+        <v>2452</v>
       </c>
       <c r="E1755" t="s">
-        <v>2550</v>
+        <v>2476</v>
       </c>
       <c r="F1755" t="s">
-        <v>2551</v>
+        <v>2477</v>
       </c>
       <c r="G1755" t="s">
-        <v>2552</v>
+        <v>2478</v>
       </c>
       <c r="H1755" t="s">
-        <v>183</v>
+        <v>707</v>
       </c>
       <c r="I1755" t="s">
         <v>19</v>
@@ -74813,10 +74972,10 @@
         <v>1</v>
       </c>
       <c r="K1755">
-        <v>1709500</v>
+        <v>4311971</v>
       </c>
       <c r="L1755">
-        <v>1709500</v>
+        <v>4311971</v>
       </c>
     </row>
     <row r="1756" spans="1:12">
@@ -74830,19 +74989,19 @@
         <v>13</v>
       </c>
       <c r="D1756" t="s">
-        <v>2502</v>
+        <v>2479</v>
       </c>
       <c r="E1756" t="s">
-        <v>2553</v>
+        <v>2480</v>
       </c>
       <c r="F1756" t="s">
-        <v>2554</v>
+        <v>2481</v>
       </c>
       <c r="G1756" t="s">
-        <v>2555</v>
+        <v>2482</v>
       </c>
       <c r="H1756" t="s">
-        <v>1770</v>
+        <v>707</v>
       </c>
       <c r="I1756" t="s">
         <v>19</v>
@@ -74851,10 +75010,10 @@
         <v>1</v>
       </c>
       <c r="K1756">
-        <v>1160000</v>
+        <v>4133971</v>
       </c>
       <c r="L1756">
-        <v>1160000</v>
+        <v>4133971</v>
       </c>
     </row>
     <row r="1757" spans="1:12">
@@ -74868,19 +75027,19 @@
         <v>13</v>
       </c>
       <c r="D1757" t="s">
-        <v>2523</v>
+        <v>2452</v>
       </c>
       <c r="E1757" t="s">
-        <v>2556</v>
+        <v>2483</v>
       </c>
       <c r="F1757" t="s">
-        <v>2557</v>
+        <v>2484</v>
       </c>
       <c r="G1757" t="s">
-        <v>2558</v>
+        <v>2485</v>
       </c>
       <c r="H1757" t="s">
-        <v>80</v>
+        <v>183</v>
       </c>
       <c r="I1757" t="s">
         <v>19</v>
@@ -74889,10 +75048,10 @@
         <v>1</v>
       </c>
       <c r="K1757">
-        <v>207935178</v>
+        <v>892693</v>
       </c>
       <c r="L1757">
-        <v>207935178</v>
+        <v>892693</v>
       </c>
     </row>
     <row r="1758" spans="1:12">
@@ -74906,19 +75065,19 @@
         <v>13</v>
       </c>
       <c r="D1758" t="s">
-        <v>2523</v>
+        <v>2452</v>
       </c>
       <c r="E1758" t="s">
-        <v>2559</v>
+        <v>2486</v>
       </c>
       <c r="F1758" t="s">
-        <v>2560</v>
+        <v>2487</v>
       </c>
       <c r="G1758" t="s">
-        <v>2561</v>
+        <v>2488</v>
       </c>
       <c r="H1758" t="s">
-        <v>2435</v>
+        <v>183</v>
       </c>
       <c r="I1758" t="s">
         <v>19</v>
@@ -74927,10 +75086,10 @@
         <v>1</v>
       </c>
       <c r="K1758">
-        <v>592000</v>
+        <v>1126000</v>
       </c>
       <c r="L1758">
-        <v>592000</v>
+        <v>1126000</v>
       </c>
     </row>
     <row r="1759" spans="1:12">
@@ -74944,19 +75103,19 @@
         <v>13</v>
       </c>
       <c r="D1759" t="s">
-        <v>2502</v>
+        <v>2452</v>
       </c>
       <c r="E1759" t="s">
-        <v>2562</v>
+        <v>2489</v>
       </c>
       <c r="F1759" t="s">
-        <v>2563</v>
+        <v>2490</v>
       </c>
       <c r="G1759" t="s">
-        <v>2564</v>
+        <v>2491</v>
       </c>
       <c r="H1759" t="s">
-        <v>1001</v>
+        <v>183</v>
       </c>
       <c r="I1759" t="s">
         <v>19</v>
@@ -74965,10 +75124,10 @@
         <v>1</v>
       </c>
       <c r="K1759">
-        <v>976000</v>
+        <v>1310000</v>
       </c>
       <c r="L1759">
-        <v>976000</v>
+        <v>1310000</v>
       </c>
     </row>
     <row r="1760" spans="1:12">
@@ -74982,19 +75141,19 @@
         <v>13</v>
       </c>
       <c r="D1760" t="s">
-        <v>2502</v>
+        <v>2452</v>
       </c>
       <c r="E1760" t="s">
-        <v>2562</v>
+        <v>2492</v>
       </c>
       <c r="F1760" t="s">
-        <v>2563</v>
+        <v>2493</v>
       </c>
       <c r="G1760" t="s">
-        <v>2564</v>
+        <v>2494</v>
       </c>
       <c r="H1760" t="s">
-        <v>1002</v>
+        <v>291</v>
       </c>
       <c r="I1760" t="s">
         <v>19</v>
@@ -75003,10 +75162,10 @@
         <v>1</v>
       </c>
       <c r="K1760">
-        <v>1908000</v>
+        <v>3230000</v>
       </c>
       <c r="L1760">
-        <v>1908000</v>
+        <v>3230000</v>
       </c>
     </row>
     <row r="1761" spans="1:12">
@@ -75020,19 +75179,19 @@
         <v>13</v>
       </c>
       <c r="D1761" t="s">
-        <v>2502</v>
+        <v>2452</v>
       </c>
       <c r="E1761" t="s">
-        <v>2562</v>
+        <v>2495</v>
       </c>
       <c r="F1761" t="s">
-        <v>2563</v>
+        <v>2496</v>
       </c>
       <c r="G1761" t="s">
-        <v>2564</v>
+        <v>2497</v>
       </c>
       <c r="H1761" t="s">
-        <v>1003</v>
+        <v>392</v>
       </c>
       <c r="I1761" t="s">
         <v>19</v>
@@ -75041,10 +75200,10 @@
         <v>1</v>
       </c>
       <c r="K1761">
-        <v>848000</v>
+        <v>27167250</v>
       </c>
       <c r="L1761">
-        <v>848000</v>
+        <v>27167250</v>
       </c>
     </row>
     <row r="1762" spans="1:12">
@@ -75058,19 +75217,19 @@
         <v>13</v>
       </c>
       <c r="D1762" t="s">
-        <v>2502</v>
+        <v>2452</v>
       </c>
       <c r="E1762" t="s">
-        <v>2562</v>
+        <v>2498</v>
       </c>
       <c r="F1762" t="s">
-        <v>2563</v>
+        <v>2499</v>
       </c>
       <c r="G1762" t="s">
-        <v>2564</v>
+        <v>2500</v>
       </c>
       <c r="H1762" t="s">
-        <v>1004</v>
+        <v>187</v>
       </c>
       <c r="I1762" t="s">
         <v>19</v>
@@ -75079,10 +75238,10 @@
         <v>1</v>
       </c>
       <c r="K1762">
-        <v>1488000</v>
+        <v>38031435</v>
       </c>
       <c r="L1762">
-        <v>1488000</v>
+        <v>38031435</v>
       </c>
     </row>
     <row r="1763" spans="1:12">
@@ -75096,19 +75255,19 @@
         <v>13</v>
       </c>
       <c r="D1763" t="s">
+        <v>2239</v>
+      </c>
+      <c r="E1763" t="s">
+        <v>2501</v>
+      </c>
+      <c r="F1763" t="s">
         <v>2502</v>
       </c>
-      <c r="E1763" t="s">
-        <v>2562</v>
-      </c>
-      <c r="F1763" t="s">
-        <v>2563</v>
-      </c>
       <c r="G1763" t="s">
-        <v>2564</v>
+        <v>2503</v>
       </c>
       <c r="H1763" t="s">
-        <v>1005</v>
+        <v>400</v>
       </c>
       <c r="I1763" t="s">
         <v>19</v>
@@ -75117,10 +75276,10 @@
         <v>1</v>
       </c>
       <c r="K1763">
-        <v>1264000</v>
+        <v>425592894</v>
       </c>
       <c r="L1763">
-        <v>1264000</v>
+        <v>425592894</v>
       </c>
     </row>
     <row r="1764" spans="1:12">
@@ -75134,19 +75293,19 @@
         <v>13</v>
       </c>
       <c r="D1764" t="s">
-        <v>2502</v>
+        <v>2239</v>
       </c>
       <c r="E1764" t="s">
-        <v>2562</v>
+        <v>2504</v>
       </c>
       <c r="F1764" t="s">
-        <v>2563</v>
+        <v>2505</v>
       </c>
       <c r="G1764" t="s">
-        <v>2564</v>
+        <v>2506</v>
       </c>
       <c r="H1764" t="s">
-        <v>1006</v>
+        <v>400</v>
       </c>
       <c r="I1764" t="s">
         <v>19</v>
@@ -75155,10 +75314,10 @@
         <v>1</v>
       </c>
       <c r="K1764">
-        <v>1092000</v>
+        <v>5338400</v>
       </c>
       <c r="L1764">
-        <v>1092000</v>
+        <v>5338400</v>
       </c>
     </row>
     <row r="1765" spans="1:12">
@@ -75172,19 +75331,19 @@
         <v>13</v>
       </c>
       <c r="D1765" t="s">
-        <v>2502</v>
+        <v>2239</v>
       </c>
       <c r="E1765" t="s">
-        <v>2562</v>
+        <v>2507</v>
       </c>
       <c r="F1765" t="s">
-        <v>2563</v>
+        <v>2508</v>
       </c>
       <c r="G1765" t="s">
-        <v>2564</v>
+        <v>2509</v>
       </c>
       <c r="H1765" t="s">
-        <v>1007</v>
+        <v>510</v>
       </c>
       <c r="I1765" t="s">
         <v>19</v>
@@ -75193,10 +75352,10 @@
         <v>1</v>
       </c>
       <c r="K1765">
-        <v>80000</v>
+        <v>9177893</v>
       </c>
       <c r="L1765">
-        <v>80000</v>
+        <v>9177893</v>
       </c>
     </row>
     <row r="1766" spans="1:12">
@@ -75210,19 +75369,19 @@
         <v>13</v>
       </c>
       <c r="D1766" t="s">
-        <v>2502</v>
+        <v>2239</v>
       </c>
       <c r="E1766" t="s">
-        <v>2562</v>
+        <v>2510</v>
       </c>
       <c r="F1766" t="s">
-        <v>2563</v>
+        <v>2511</v>
       </c>
       <c r="G1766" t="s">
-        <v>2564</v>
+        <v>2427</v>
       </c>
       <c r="H1766" t="s">
-        <v>1008</v>
+        <v>2512</v>
       </c>
       <c r="I1766" t="s">
         <v>19</v>
@@ -75231,10 +75390,10 @@
         <v>1</v>
       </c>
       <c r="K1766">
-        <v>100000</v>
+        <v>971000</v>
       </c>
       <c r="L1766">
-        <v>100000</v>
+        <v>971000</v>
       </c>
     </row>
     <row r="1767" spans="1:12">
@@ -75248,19 +75407,19 @@
         <v>13</v>
       </c>
       <c r="D1767" t="s">
-        <v>2502</v>
+        <v>2239</v>
       </c>
       <c r="E1767" t="s">
-        <v>2562</v>
+        <v>2510</v>
       </c>
       <c r="F1767" t="s">
-        <v>2563</v>
+        <v>2511</v>
       </c>
       <c r="G1767" t="s">
-        <v>2564</v>
+        <v>2427</v>
       </c>
       <c r="H1767" t="s">
-        <v>1009</v>
+        <v>2513</v>
       </c>
       <c r="I1767" t="s">
         <v>19</v>
@@ -75269,10 +75428,10 @@
         <v>1</v>
       </c>
       <c r="K1767">
-        <v>392000</v>
+        <v>161547</v>
       </c>
       <c r="L1767">
-        <v>392000</v>
+        <v>161547</v>
       </c>
     </row>
     <row r="1768" spans="1:12">
@@ -75286,19 +75445,19 @@
         <v>13</v>
       </c>
       <c r="D1768" t="s">
-        <v>2502</v>
+        <v>2239</v>
       </c>
       <c r="E1768" t="s">
-        <v>2562</v>
+        <v>2510</v>
       </c>
       <c r="F1768" t="s">
-        <v>2563</v>
+        <v>2511</v>
       </c>
       <c r="G1768" t="s">
-        <v>2564</v>
+        <v>2427</v>
       </c>
       <c r="H1768" t="s">
-        <v>1010</v>
+        <v>2514</v>
       </c>
       <c r="I1768" t="s">
         <v>19</v>
@@ -75307,10 +75466,10 @@
         <v>1</v>
       </c>
       <c r="K1768">
-        <v>120000</v>
+        <v>14430</v>
       </c>
       <c r="L1768">
-        <v>120000</v>
+        <v>14430</v>
       </c>
     </row>
     <row r="1769" spans="1:12">
@@ -75324,19 +75483,19 @@
         <v>13</v>
       </c>
       <c r="D1769" t="s">
-        <v>2502</v>
+        <v>2239</v>
       </c>
       <c r="E1769" t="s">
-        <v>2562</v>
+        <v>2510</v>
       </c>
       <c r="F1769" t="s">
-        <v>2563</v>
+        <v>2511</v>
       </c>
       <c r="G1769" t="s">
-        <v>2564</v>
+        <v>2427</v>
       </c>
       <c r="H1769" t="s">
-        <v>1011</v>
+        <v>1472</v>
       </c>
       <c r="I1769" t="s">
         <v>19</v>
@@ -75345,10 +75504,10 @@
         <v>1</v>
       </c>
       <c r="K1769">
-        <v>160000</v>
+        <v>1050600</v>
       </c>
       <c r="L1769">
-        <v>160000</v>
+        <v>1050600</v>
       </c>
     </row>
     <row r="1770" spans="1:12">
@@ -75362,19 +75521,19 @@
         <v>13</v>
       </c>
       <c r="D1770" t="s">
-        <v>2502</v>
+        <v>2515</v>
       </c>
       <c r="E1770" t="s">
-        <v>2562</v>
+        <v>2516</v>
       </c>
       <c r="F1770" t="s">
-        <v>2563</v>
+        <v>2517</v>
       </c>
       <c r="G1770" t="s">
-        <v>2564</v>
+        <v>2518</v>
       </c>
       <c r="H1770" t="s">
-        <v>1012</v>
+        <v>2079</v>
       </c>
       <c r="I1770" t="s">
         <v>19</v>
@@ -75383,10 +75542,10 @@
         <v>1</v>
       </c>
       <c r="K1770">
-        <v>140000</v>
+        <v>850000</v>
       </c>
       <c r="L1770">
-        <v>140000</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="1771" spans="1:12">
@@ -75400,19 +75559,19 @@
         <v>13</v>
       </c>
       <c r="D1771" t="s">
-        <v>2502</v>
+        <v>2515</v>
       </c>
       <c r="E1771" t="s">
-        <v>2562</v>
+        <v>2519</v>
       </c>
       <c r="F1771" t="s">
-        <v>2563</v>
+        <v>2520</v>
       </c>
       <c r="G1771" t="s">
-        <v>2564</v>
+        <v>2521</v>
       </c>
       <c r="H1771" t="s">
-        <v>1013</v>
+        <v>2079</v>
       </c>
       <c r="I1771" t="s">
         <v>19</v>
@@ -75421,10 +75580,10 @@
         <v>1</v>
       </c>
       <c r="K1771">
-        <v>360000</v>
+        <v>170000</v>
       </c>
       <c r="L1771">
-        <v>360000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="1772" spans="1:12">
@@ -75438,19 +75597,19 @@
         <v>13</v>
       </c>
       <c r="D1772" t="s">
-        <v>2502</v>
+        <v>2515</v>
       </c>
       <c r="E1772" t="s">
-        <v>2562</v>
+        <v>2522</v>
       </c>
       <c r="F1772" t="s">
-        <v>2563</v>
+        <v>2523</v>
       </c>
       <c r="G1772" t="s">
-        <v>2564</v>
+        <v>2524</v>
       </c>
       <c r="H1772" t="s">
-        <v>1014</v>
+        <v>2080</v>
       </c>
       <c r="I1772" t="s">
         <v>19</v>
@@ -75459,10 +75618,10 @@
         <v>1</v>
       </c>
       <c r="K1772">
-        <v>392000</v>
+        <v>900000</v>
       </c>
       <c r="L1772">
-        <v>392000</v>
+        <v>900000</v>
       </c>
     </row>
     <row r="1773" spans="1:12">
@@ -75476,19 +75635,19 @@
         <v>13</v>
       </c>
       <c r="D1773" t="s">
-        <v>2502</v>
+        <v>2515</v>
       </c>
       <c r="E1773" t="s">
-        <v>2565</v>
+        <v>2525</v>
       </c>
       <c r="F1773" t="s">
-        <v>2566</v>
+        <v>2526</v>
       </c>
       <c r="G1773" t="s">
-        <v>2567</v>
+        <v>2527</v>
       </c>
       <c r="H1773" t="s">
-        <v>929</v>
+        <v>2080</v>
       </c>
       <c r="I1773" t="s">
         <v>19</v>
@@ -75497,10 +75656,10 @@
         <v>1</v>
       </c>
       <c r="K1773">
-        <v>225000000</v>
+        <v>300000</v>
       </c>
       <c r="L1773">
-        <v>225000000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="1774" spans="1:12">
@@ -75514,19 +75673,19 @@
         <v>13</v>
       </c>
       <c r="D1774" t="s">
-        <v>2466</v>
+        <v>2515</v>
       </c>
       <c r="E1774" t="s">
-        <v>2568</v>
+        <v>2528</v>
       </c>
       <c r="F1774" t="s">
-        <v>2569</v>
+        <v>2529</v>
       </c>
       <c r="G1774" t="s">
-        <v>2570</v>
+        <v>2530</v>
       </c>
       <c r="H1774" t="s">
-        <v>708</v>
+        <v>2531</v>
       </c>
       <c r="I1774" t="s">
         <v>19</v>
@@ -75535,10 +75694,10 @@
         <v>1</v>
       </c>
       <c r="K1774">
-        <v>1184500</v>
+        <v>390000</v>
       </c>
       <c r="L1774">
-        <v>1184500</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="1775" spans="1:12">
@@ -75552,19 +75711,19 @@
         <v>13</v>
       </c>
       <c r="D1775" t="s">
-        <v>2502</v>
+        <v>2515</v>
       </c>
       <c r="E1775" t="s">
-        <v>2571</v>
+        <v>2528</v>
       </c>
       <c r="F1775" t="s">
-        <v>2572</v>
+        <v>2529</v>
       </c>
       <c r="G1775" t="s">
-        <v>2573</v>
+        <v>2530</v>
       </c>
       <c r="H1775" t="s">
-        <v>128</v>
+        <v>2532</v>
       </c>
       <c r="I1775" t="s">
         <v>19</v>
@@ -75573,10 +75732,10 @@
         <v>1</v>
       </c>
       <c r="K1775">
-        <v>8311000</v>
+        <v>510000</v>
       </c>
       <c r="L1775">
-        <v>8311000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="1776" spans="1:12">
@@ -75590,19 +75749,19 @@
         <v>13</v>
       </c>
       <c r="D1776" t="s">
-        <v>2502</v>
+        <v>2515</v>
       </c>
       <c r="E1776" t="s">
-        <v>2574</v>
+        <v>2533</v>
       </c>
       <c r="F1776" t="s">
-        <v>2575</v>
+        <v>2534</v>
       </c>
       <c r="G1776" t="s">
-        <v>2576</v>
+        <v>2535</v>
       </c>
       <c r="H1776" t="s">
-        <v>187</v>
+        <v>1472</v>
       </c>
       <c r="I1776" t="s">
         <v>19</v>
@@ -75611,10 +75770,10 @@
         <v>1</v>
       </c>
       <c r="K1776">
-        <v>61129600</v>
+        <v>1364000</v>
       </c>
       <c r="L1776">
-        <v>61129600</v>
+        <v>1364000</v>
       </c>
     </row>
     <row r="1777" spans="1:12">
@@ -75628,19 +75787,19 @@
         <v>13</v>
       </c>
       <c r="D1777" t="s">
-        <v>2466</v>
+        <v>2536</v>
       </c>
       <c r="E1777" t="s">
-        <v>2577</v>
+        <v>2537</v>
       </c>
       <c r="F1777" t="s">
-        <v>2578</v>
+        <v>2538</v>
       </c>
       <c r="G1777" t="s">
-        <v>2579</v>
+        <v>2539</v>
       </c>
       <c r="H1777" t="s">
-        <v>1754</v>
+        <v>786</v>
       </c>
       <c r="I1777" t="s">
         <v>19</v>
@@ -75649,10 +75808,10 @@
         <v>1</v>
       </c>
       <c r="K1777">
-        <v>3300000</v>
+        <v>15065000</v>
       </c>
       <c r="L1777">
-        <v>3300000</v>
+        <v>15065000</v>
       </c>
     </row>
     <row r="1778" spans="1:12">
@@ -75666,19 +75825,19 @@
         <v>13</v>
       </c>
       <c r="D1778" t="s">
-        <v>2523</v>
+        <v>2515</v>
       </c>
       <c r="E1778" t="s">
-        <v>2580</v>
+        <v>2540</v>
       </c>
       <c r="F1778" t="s">
-        <v>2581</v>
+        <v>2541</v>
       </c>
       <c r="G1778" t="s">
-        <v>2582</v>
+        <v>2542</v>
       </c>
       <c r="H1778" t="s">
-        <v>2583</v>
+        <v>2543</v>
       </c>
       <c r="I1778" t="s">
         <v>19</v>
@@ -75687,10 +75846,10 @@
         <v>1</v>
       </c>
       <c r="K1778">
-        <v>4582192</v>
+        <v>170000</v>
       </c>
       <c r="L1778">
-        <v>4582192</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="1779" spans="1:12">
@@ -75704,19 +75863,19 @@
         <v>13</v>
       </c>
       <c r="D1779" t="s">
-        <v>2523</v>
+        <v>2515</v>
       </c>
       <c r="E1779" t="s">
-        <v>2584</v>
+        <v>2540</v>
       </c>
       <c r="F1779" t="s">
-        <v>2585</v>
+        <v>2541</v>
       </c>
       <c r="G1779" t="s">
-        <v>2586</v>
+        <v>2542</v>
       </c>
       <c r="H1779" t="s">
-        <v>80</v>
+        <v>2544</v>
       </c>
       <c r="I1779" t="s">
         <v>19</v>
@@ -75725,10 +75884,10 @@
         <v>1</v>
       </c>
       <c r="K1779">
-        <v>4582743</v>
+        <v>130000</v>
       </c>
       <c r="L1779">
-        <v>4582743</v>
+        <v>130000</v>
       </c>
     </row>
     <row r="1780" spans="1:12">
@@ -75742,19 +75901,19 @@
         <v>13</v>
       </c>
       <c r="D1780" t="s">
-        <v>2466</v>
+        <v>2536</v>
       </c>
       <c r="E1780" t="s">
-        <v>2587</v>
+        <v>2545</v>
       </c>
       <c r="F1780" t="s">
-        <v>2588</v>
+        <v>2546</v>
       </c>
       <c r="G1780" t="s">
-        <v>2589</v>
+        <v>2547</v>
       </c>
       <c r="H1780" t="s">
-        <v>1532</v>
+        <v>796</v>
       </c>
       <c r="I1780" t="s">
         <v>19</v>
@@ -75763,10 +75922,10 @@
         <v>1</v>
       </c>
       <c r="K1780">
-        <v>10602000</v>
+        <v>30222000</v>
       </c>
       <c r="L1780">
-        <v>10602000</v>
+        <v>30222000</v>
       </c>
     </row>
     <row r="1781" spans="1:12">
@@ -75780,19 +75939,19 @@
         <v>13</v>
       </c>
       <c r="D1781" t="s">
-        <v>2466</v>
+        <v>2536</v>
       </c>
       <c r="E1781" t="s">
-        <v>2590</v>
+        <v>2548</v>
       </c>
       <c r="F1781" t="s">
-        <v>2591</v>
+        <v>2549</v>
       </c>
       <c r="G1781" t="s">
-        <v>2592</v>
+        <v>2550</v>
       </c>
       <c r="H1781" t="s">
-        <v>587</v>
+        <v>796</v>
       </c>
       <c r="I1781" t="s">
         <v>19</v>
@@ -75801,10 +75960,10 @@
         <v>1</v>
       </c>
       <c r="K1781">
-        <v>2053500</v>
+        <v>850000</v>
       </c>
       <c r="L1781">
-        <v>2053500</v>
+        <v>850000</v>
       </c>
     </row>
     <row r="1782" spans="1:12">
@@ -75818,19 +75977,19 @@
         <v>13</v>
       </c>
       <c r="D1782" t="s">
-        <v>2466</v>
+        <v>2536</v>
       </c>
       <c r="E1782" t="s">
-        <v>2593</v>
+        <v>2551</v>
       </c>
       <c r="F1782" t="s">
-        <v>2594</v>
+        <v>2552</v>
       </c>
       <c r="G1782" t="s">
-        <v>2595</v>
+        <v>2553</v>
       </c>
       <c r="H1782" t="s">
-        <v>336</v>
+        <v>1119</v>
       </c>
       <c r="I1782" t="s">
         <v>19</v>
@@ -75839,10 +75998,10 @@
         <v>1</v>
       </c>
       <c r="K1782">
-        <v>20000000</v>
+        <v>851000</v>
       </c>
       <c r="L1782">
-        <v>20000000</v>
+        <v>851000</v>
       </c>
     </row>
     <row r="1783" spans="1:12">
@@ -75856,19 +76015,19 @@
         <v>13</v>
       </c>
       <c r="D1783" t="s">
-        <v>2466</v>
+        <v>2515</v>
       </c>
       <c r="E1783" t="s">
-        <v>2596</v>
+        <v>2554</v>
       </c>
       <c r="F1783" t="s">
-        <v>2597</v>
+        <v>2555</v>
       </c>
       <c r="G1783" t="s">
-        <v>2598</v>
+        <v>2556</v>
       </c>
       <c r="H1783" t="s">
-        <v>418</v>
+        <v>1770</v>
       </c>
       <c r="I1783" t="s">
         <v>19</v>
@@ -75877,10 +76036,10 @@
         <v>1</v>
       </c>
       <c r="K1783">
-        <v>600000</v>
+        <v>6882000</v>
       </c>
       <c r="L1783">
-        <v>600000</v>
+        <v>6882000</v>
       </c>
     </row>
     <row r="1784" spans="1:12">
@@ -75894,19 +76053,19 @@
         <v>13</v>
       </c>
       <c r="D1784" t="s">
-        <v>2466</v>
+        <v>2515</v>
       </c>
       <c r="E1784" t="s">
-        <v>2599</v>
+        <v>2557</v>
       </c>
       <c r="F1784" t="s">
-        <v>2600</v>
+        <v>2558</v>
       </c>
       <c r="G1784" t="s">
-        <v>2601</v>
+        <v>2559</v>
       </c>
       <c r="H1784" t="s">
-        <v>274</v>
+        <v>1770</v>
       </c>
       <c r="I1784" t="s">
         <v>19</v>
@@ -75915,10 +76074,10 @@
         <v>1</v>
       </c>
       <c r="K1784">
-        <v>582380</v>
+        <v>973900</v>
       </c>
       <c r="L1784">
-        <v>582380</v>
+        <v>973900</v>
       </c>
     </row>
     <row r="1785" spans="1:12">
@@ -75932,19 +76091,19 @@
         <v>13</v>
       </c>
       <c r="D1785" t="s">
-        <v>2466</v>
+        <v>2515</v>
       </c>
       <c r="E1785" t="s">
-        <v>2602</v>
+        <v>2560</v>
       </c>
       <c r="F1785" t="s">
-        <v>2603</v>
+        <v>2561</v>
       </c>
       <c r="G1785" t="s">
-        <v>2604</v>
+        <v>2562</v>
       </c>
       <c r="H1785" t="s">
-        <v>1017</v>
+        <v>737</v>
       </c>
       <c r="I1785" t="s">
         <v>19</v>
@@ -75953,10 +76112,10 @@
         <v>1</v>
       </c>
       <c r="K1785">
-        <v>340000</v>
+        <v>11318260</v>
       </c>
       <c r="L1785">
-        <v>340000</v>
+        <v>11318260</v>
       </c>
     </row>
     <row r="1786" spans="1:12">
@@ -75970,19 +76129,19 @@
         <v>13</v>
       </c>
       <c r="D1786" t="s">
-        <v>2466</v>
+        <v>2515</v>
       </c>
       <c r="E1786" t="s">
-        <v>2605</v>
+        <v>2563</v>
       </c>
       <c r="F1786" t="s">
-        <v>2606</v>
+        <v>2564</v>
       </c>
       <c r="G1786" t="s">
-        <v>2607</v>
+        <v>2565</v>
       </c>
       <c r="H1786" t="s">
-        <v>1472</v>
+        <v>183</v>
       </c>
       <c r="I1786" t="s">
         <v>19</v>
@@ -75991,10 +76150,10 @@
         <v>1</v>
       </c>
       <c r="K1786">
-        <v>697400</v>
+        <v>1709500</v>
       </c>
       <c r="L1786">
-        <v>697400</v>
+        <v>1709500</v>
       </c>
     </row>
     <row r="1787" spans="1:12">
@@ -76008,31 +76167,2881 @@
         <v>13</v>
       </c>
       <c r="D1787" t="s">
-        <v>2466</v>
+        <v>2515</v>
       </c>
       <c r="E1787" t="s">
+        <v>2566</v>
+      </c>
+      <c r="F1787" t="s">
+        <v>2567</v>
+      </c>
+      <c r="G1787" t="s">
+        <v>2568</v>
+      </c>
+      <c r="H1787" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I1787" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1787">
+        <v>1</v>
+      </c>
+      <c r="K1787">
+        <v>1160000</v>
+      </c>
+      <c r="L1787">
+        <v>1160000</v>
+      </c>
+    </row>
+    <row r="1788" spans="1:12">
+      <c r="A1788">
+        <v>1785</v>
+      </c>
+      <c r="B1788">
+        <v>626402</v>
+      </c>
+      <c r="C1788" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1788" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E1788" t="s">
+        <v>2569</v>
+      </c>
+      <c r="F1788" t="s">
+        <v>2570</v>
+      </c>
+      <c r="G1788" t="s">
+        <v>2571</v>
+      </c>
+      <c r="H1788" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1788" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1788">
+        <v>1</v>
+      </c>
+      <c r="K1788">
+        <v>207935178</v>
+      </c>
+      <c r="L1788">
+        <v>207935178</v>
+      </c>
+    </row>
+    <row r="1789" spans="1:12">
+      <c r="A1789">
+        <v>1786</v>
+      </c>
+      <c r="B1789">
+        <v>626402</v>
+      </c>
+      <c r="C1789" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1789" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E1789" t="s">
+        <v>2572</v>
+      </c>
+      <c r="F1789" t="s">
+        <v>2573</v>
+      </c>
+      <c r="G1789" t="s">
+        <v>2574</v>
+      </c>
+      <c r="H1789" t="s">
+        <v>2448</v>
+      </c>
+      <c r="I1789" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1789">
+        <v>1</v>
+      </c>
+      <c r="K1789">
+        <v>592000</v>
+      </c>
+      <c r="L1789">
+        <v>592000</v>
+      </c>
+    </row>
+    <row r="1790" spans="1:12">
+      <c r="A1790">
+        <v>1787</v>
+      </c>
+      <c r="B1790">
+        <v>626402</v>
+      </c>
+      <c r="C1790" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1790" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1790" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1790" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G1790" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H1790" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I1790" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1790">
+        <v>1</v>
+      </c>
+      <c r="K1790">
+        <v>976000</v>
+      </c>
+      <c r="L1790">
+        <v>976000</v>
+      </c>
+    </row>
+    <row r="1791" spans="1:12">
+      <c r="A1791">
+        <v>1788</v>
+      </c>
+      <c r="B1791">
+        <v>626402</v>
+      </c>
+      <c r="C1791" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1791" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1791" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1791" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G1791" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H1791" t="s">
+        <v>1002</v>
+      </c>
+      <c r="I1791" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1791">
+        <v>1</v>
+      </c>
+      <c r="K1791">
+        <v>1908000</v>
+      </c>
+      <c r="L1791">
+        <v>1908000</v>
+      </c>
+    </row>
+    <row r="1792" spans="1:12">
+      <c r="A1792">
+        <v>1789</v>
+      </c>
+      <c r="B1792">
+        <v>626402</v>
+      </c>
+      <c r="C1792" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1792" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1792" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1792" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G1792" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H1792" t="s">
+        <v>1003</v>
+      </c>
+      <c r="I1792" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1792">
+        <v>1</v>
+      </c>
+      <c r="K1792">
+        <v>848000</v>
+      </c>
+      <c r="L1792">
+        <v>848000</v>
+      </c>
+    </row>
+    <row r="1793" spans="1:12">
+      <c r="A1793">
+        <v>1790</v>
+      </c>
+      <c r="B1793">
+        <v>626402</v>
+      </c>
+      <c r="C1793" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1793" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1793" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1793" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G1793" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H1793" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I1793" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1793">
+        <v>1</v>
+      </c>
+      <c r="K1793">
+        <v>1488000</v>
+      </c>
+      <c r="L1793">
+        <v>1488000</v>
+      </c>
+    </row>
+    <row r="1794" spans="1:12">
+      <c r="A1794">
+        <v>1791</v>
+      </c>
+      <c r="B1794">
+        <v>626402</v>
+      </c>
+      <c r="C1794" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1794" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1794" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1794" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G1794" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H1794" t="s">
+        <v>1005</v>
+      </c>
+      <c r="I1794" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1794">
+        <v>1</v>
+      </c>
+      <c r="K1794">
+        <v>1264000</v>
+      </c>
+      <c r="L1794">
+        <v>1264000</v>
+      </c>
+    </row>
+    <row r="1795" spans="1:12">
+      <c r="A1795">
+        <v>1792</v>
+      </c>
+      <c r="B1795">
+        <v>626402</v>
+      </c>
+      <c r="C1795" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1795" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1795" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1795" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G1795" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H1795" t="s">
+        <v>1006</v>
+      </c>
+      <c r="I1795" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1795">
+        <v>1</v>
+      </c>
+      <c r="K1795">
+        <v>1092000</v>
+      </c>
+      <c r="L1795">
+        <v>1092000</v>
+      </c>
+    </row>
+    <row r="1796" spans="1:12">
+      <c r="A1796">
+        <v>1793</v>
+      </c>
+      <c r="B1796">
+        <v>626402</v>
+      </c>
+      <c r="C1796" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1796" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1796" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1796" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G1796" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H1796" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I1796" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1796">
+        <v>1</v>
+      </c>
+      <c r="K1796">
+        <v>80000</v>
+      </c>
+      <c r="L1796">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="1797" spans="1:12">
+      <c r="A1797">
+        <v>1794</v>
+      </c>
+      <c r="B1797">
+        <v>626402</v>
+      </c>
+      <c r="C1797" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1797" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1797" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1797" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G1797" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H1797" t="s">
+        <v>1008</v>
+      </c>
+      <c r="I1797" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1797">
+        <v>1</v>
+      </c>
+      <c r="K1797">
+        <v>100000</v>
+      </c>
+      <c r="L1797">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1798" spans="1:12">
+      <c r="A1798">
+        <v>1795</v>
+      </c>
+      <c r="B1798">
+        <v>626402</v>
+      </c>
+      <c r="C1798" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1798" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1798" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1798" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G1798" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H1798" t="s">
+        <v>1009</v>
+      </c>
+      <c r="I1798" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1798">
+        <v>1</v>
+      </c>
+      <c r="K1798">
+        <v>392000</v>
+      </c>
+      <c r="L1798">
+        <v>392000</v>
+      </c>
+    </row>
+    <row r="1799" spans="1:12">
+      <c r="A1799">
+        <v>1796</v>
+      </c>
+      <c r="B1799">
+        <v>626402</v>
+      </c>
+      <c r="C1799" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1799" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1799" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1799" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G1799" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H1799" t="s">
+        <v>1010</v>
+      </c>
+      <c r="I1799" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1799">
+        <v>1</v>
+      </c>
+      <c r="K1799">
+        <v>120000</v>
+      </c>
+      <c r="L1799">
+        <v>120000</v>
+      </c>
+    </row>
+    <row r="1800" spans="1:12">
+      <c r="A1800">
+        <v>1797</v>
+      </c>
+      <c r="B1800">
+        <v>626402</v>
+      </c>
+      <c r="C1800" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1800" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1800" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1800" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G1800" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H1800" t="s">
+        <v>1011</v>
+      </c>
+      <c r="I1800" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1800">
+        <v>1</v>
+      </c>
+      <c r="K1800">
+        <v>160000</v>
+      </c>
+      <c r="L1800">
+        <v>160000</v>
+      </c>
+    </row>
+    <row r="1801" spans="1:12">
+      <c r="A1801">
+        <v>1798</v>
+      </c>
+      <c r="B1801">
+        <v>626402</v>
+      </c>
+      <c r="C1801" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1801" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1801" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1801" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G1801" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H1801" t="s">
+        <v>1012</v>
+      </c>
+      <c r="I1801" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1801">
+        <v>1</v>
+      </c>
+      <c r="K1801">
+        <v>140000</v>
+      </c>
+      <c r="L1801">
+        <v>140000</v>
+      </c>
+    </row>
+    <row r="1802" spans="1:12">
+      <c r="A1802">
+        <v>1799</v>
+      </c>
+      <c r="B1802">
+        <v>626402</v>
+      </c>
+      <c r="C1802" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1802" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1802" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1802" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G1802" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H1802" t="s">
+        <v>1013</v>
+      </c>
+      <c r="I1802" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1802">
+        <v>1</v>
+      </c>
+      <c r="K1802">
+        <v>360000</v>
+      </c>
+      <c r="L1802">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="1803" spans="1:12">
+      <c r="A1803">
+        <v>1800</v>
+      </c>
+      <c r="B1803">
+        <v>626402</v>
+      </c>
+      <c r="C1803" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1803" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1803" t="s">
+        <v>2575</v>
+      </c>
+      <c r="F1803" t="s">
+        <v>2576</v>
+      </c>
+      <c r="G1803" t="s">
+        <v>2577</v>
+      </c>
+      <c r="H1803" t="s">
+        <v>1014</v>
+      </c>
+      <c r="I1803" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1803">
+        <v>1</v>
+      </c>
+      <c r="K1803">
+        <v>392000</v>
+      </c>
+      <c r="L1803">
+        <v>392000</v>
+      </c>
+    </row>
+    <row r="1804" spans="1:12">
+      <c r="A1804">
+        <v>1801</v>
+      </c>
+      <c r="B1804">
+        <v>626402</v>
+      </c>
+      <c r="C1804" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1804" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1804" t="s">
+        <v>2578</v>
+      </c>
+      <c r="F1804" t="s">
+        <v>2579</v>
+      </c>
+      <c r="G1804" t="s">
+        <v>2580</v>
+      </c>
+      <c r="H1804" t="s">
+        <v>929</v>
+      </c>
+      <c r="I1804" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1804">
+        <v>1</v>
+      </c>
+      <c r="K1804">
+        <v>225000000</v>
+      </c>
+      <c r="L1804">
+        <v>225000000</v>
+      </c>
+    </row>
+    <row r="1805" spans="1:12">
+      <c r="A1805">
+        <v>1802</v>
+      </c>
+      <c r="B1805">
+        <v>626402</v>
+      </c>
+      <c r="C1805" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1805" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1805" t="s">
+        <v>2581</v>
+      </c>
+      <c r="F1805" t="s">
+        <v>2582</v>
+      </c>
+      <c r="G1805" t="s">
+        <v>2583</v>
+      </c>
+      <c r="H1805" t="s">
+        <v>708</v>
+      </c>
+      <c r="I1805" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1805">
+        <v>1</v>
+      </c>
+      <c r="K1805">
+        <v>1184500</v>
+      </c>
+      <c r="L1805">
+        <v>1184500</v>
+      </c>
+    </row>
+    <row r="1806" spans="1:12">
+      <c r="A1806">
+        <v>1803</v>
+      </c>
+      <c r="B1806">
+        <v>626402</v>
+      </c>
+      <c r="C1806" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1806" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1806" t="s">
+        <v>2584</v>
+      </c>
+      <c r="F1806" t="s">
+        <v>2585</v>
+      </c>
+      <c r="G1806" t="s">
+        <v>2586</v>
+      </c>
+      <c r="H1806" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1806" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1806">
+        <v>1</v>
+      </c>
+      <c r="K1806">
+        <v>8311000</v>
+      </c>
+      <c r="L1806">
+        <v>8311000</v>
+      </c>
+    </row>
+    <row r="1807" spans="1:12">
+      <c r="A1807">
+        <v>1804</v>
+      </c>
+      <c r="B1807">
+        <v>626402</v>
+      </c>
+      <c r="C1807" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1807" t="s">
+        <v>2515</v>
+      </c>
+      <c r="E1807" t="s">
+        <v>2587</v>
+      </c>
+      <c r="F1807" t="s">
+        <v>2588</v>
+      </c>
+      <c r="G1807" t="s">
+        <v>2589</v>
+      </c>
+      <c r="H1807" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1807" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1807">
+        <v>1</v>
+      </c>
+      <c r="K1807">
+        <v>61129600</v>
+      </c>
+      <c r="L1807">
+        <v>61129600</v>
+      </c>
+    </row>
+    <row r="1808" spans="1:12">
+      <c r="A1808">
+        <v>1805</v>
+      </c>
+      <c r="B1808">
+        <v>626402</v>
+      </c>
+      <c r="C1808" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1808" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1808" t="s">
+        <v>2590</v>
+      </c>
+      <c r="F1808" t="s">
+        <v>2591</v>
+      </c>
+      <c r="G1808" t="s">
+        <v>2592</v>
+      </c>
+      <c r="H1808" t="s">
+        <v>1754</v>
+      </c>
+      <c r="I1808" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1808">
+        <v>1</v>
+      </c>
+      <c r="K1808">
+        <v>3300000</v>
+      </c>
+      <c r="L1808">
+        <v>3300000</v>
+      </c>
+    </row>
+    <row r="1809" spans="1:12">
+      <c r="A1809">
+        <v>1806</v>
+      </c>
+      <c r="B1809">
+        <v>626402</v>
+      </c>
+      <c r="C1809" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1809" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E1809" t="s">
+        <v>2593</v>
+      </c>
+      <c r="F1809" t="s">
+        <v>2594</v>
+      </c>
+      <c r="G1809" t="s">
+        <v>2595</v>
+      </c>
+      <c r="H1809" t="s">
+        <v>2596</v>
+      </c>
+      <c r="I1809" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1809">
+        <v>1</v>
+      </c>
+      <c r="K1809">
+        <v>4582192</v>
+      </c>
+      <c r="L1809">
+        <v>4582192</v>
+      </c>
+    </row>
+    <row r="1810" spans="1:12">
+      <c r="A1810">
+        <v>1807</v>
+      </c>
+      <c r="B1810">
+        <v>626402</v>
+      </c>
+      <c r="C1810" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1810" t="s">
+        <v>2536</v>
+      </c>
+      <c r="E1810" t="s">
+        <v>2597</v>
+      </c>
+      <c r="F1810" t="s">
+        <v>2598</v>
+      </c>
+      <c r="G1810" t="s">
+        <v>2599</v>
+      </c>
+      <c r="H1810" t="s">
+        <v>80</v>
+      </c>
+      <c r="I1810" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1810">
+        <v>1</v>
+      </c>
+      <c r="K1810">
+        <v>4582743</v>
+      </c>
+      <c r="L1810">
+        <v>4582743</v>
+      </c>
+    </row>
+    <row r="1811" spans="1:12">
+      <c r="A1811">
+        <v>1808</v>
+      </c>
+      <c r="B1811">
+        <v>626402</v>
+      </c>
+      <c r="C1811" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1811" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1811" t="s">
+        <v>2600</v>
+      </c>
+      <c r="F1811" t="s">
+        <v>2601</v>
+      </c>
+      <c r="G1811" t="s">
+        <v>2602</v>
+      </c>
+      <c r="H1811" t="s">
+        <v>1532</v>
+      </c>
+      <c r="I1811" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1811">
+        <v>1</v>
+      </c>
+      <c r="K1811">
+        <v>10602000</v>
+      </c>
+      <c r="L1811">
+        <v>10602000</v>
+      </c>
+    </row>
+    <row r="1812" spans="1:12">
+      <c r="A1812">
+        <v>1809</v>
+      </c>
+      <c r="B1812">
+        <v>626402</v>
+      </c>
+      <c r="C1812" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1812" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1812" t="s">
+        <v>2603</v>
+      </c>
+      <c r="F1812" t="s">
+        <v>2604</v>
+      </c>
+      <c r="G1812" t="s">
+        <v>2605</v>
+      </c>
+      <c r="H1812" t="s">
+        <v>587</v>
+      </c>
+      <c r="I1812" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1812">
+        <v>1</v>
+      </c>
+      <c r="K1812">
+        <v>2053500</v>
+      </c>
+      <c r="L1812">
+        <v>2053500</v>
+      </c>
+    </row>
+    <row r="1813" spans="1:12">
+      <c r="A1813">
+        <v>1810</v>
+      </c>
+      <c r="B1813">
+        <v>626402</v>
+      </c>
+      <c r="C1813" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1813" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1813" t="s">
+        <v>2606</v>
+      </c>
+      <c r="F1813" t="s">
+        <v>2607</v>
+      </c>
+      <c r="G1813" t="s">
         <v>2608</v>
       </c>
-      <c r="F1787" t="s">
+      <c r="H1813" t="s">
+        <v>336</v>
+      </c>
+      <c r="I1813" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1813">
+        <v>1</v>
+      </c>
+      <c r="K1813">
+        <v>20000000</v>
+      </c>
+      <c r="L1813">
+        <v>20000000</v>
+      </c>
+    </row>
+    <row r="1814" spans="1:12">
+      <c r="A1814">
+        <v>1811</v>
+      </c>
+      <c r="B1814">
+        <v>626402</v>
+      </c>
+      <c r="C1814" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1814" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1814" t="s">
         <v>2609</v>
       </c>
-      <c r="G1787" t="s">
+      <c r="F1814" t="s">
         <v>2610</v>
       </c>
-      <c r="H1787" t="s">
+      <c r="G1814" t="s">
+        <v>2611</v>
+      </c>
+      <c r="H1814" t="s">
+        <v>418</v>
+      </c>
+      <c r="I1814" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1814">
+        <v>1</v>
+      </c>
+      <c r="K1814">
+        <v>600000</v>
+      </c>
+      <c r="L1814">
+        <v>600000</v>
+      </c>
+    </row>
+    <row r="1815" spans="1:12">
+      <c r="A1815">
+        <v>1812</v>
+      </c>
+      <c r="B1815">
+        <v>626402</v>
+      </c>
+      <c r="C1815" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1815" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1815" t="s">
+        <v>2612</v>
+      </c>
+      <c r="F1815" t="s">
+        <v>2613</v>
+      </c>
+      <c r="G1815" t="s">
+        <v>2614</v>
+      </c>
+      <c r="H1815" t="s">
+        <v>274</v>
+      </c>
+      <c r="I1815" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1815">
+        <v>1</v>
+      </c>
+      <c r="K1815">
+        <v>582380</v>
+      </c>
+      <c r="L1815">
+        <v>582380</v>
+      </c>
+    </row>
+    <row r="1816" spans="1:12">
+      <c r="A1816">
+        <v>1813</v>
+      </c>
+      <c r="B1816">
+        <v>626402</v>
+      </c>
+      <c r="C1816" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1816" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1816" t="s">
+        <v>2615</v>
+      </c>
+      <c r="F1816" t="s">
+        <v>2616</v>
+      </c>
+      <c r="G1816" t="s">
+        <v>2617</v>
+      </c>
+      <c r="H1816" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I1816" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1816">
+        <v>1</v>
+      </c>
+      <c r="K1816">
+        <v>340000</v>
+      </c>
+      <c r="L1816">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="1817" spans="1:12">
+      <c r="A1817">
+        <v>1814</v>
+      </c>
+      <c r="B1817">
+        <v>626402</v>
+      </c>
+      <c r="C1817" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1817" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1817" t="s">
+        <v>2618</v>
+      </c>
+      <c r="F1817" t="s">
+        <v>2619</v>
+      </c>
+      <c r="G1817" t="s">
+        <v>2620</v>
+      </c>
+      <c r="H1817" t="s">
         <v>1472</v>
       </c>
-      <c r="I1787" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1787">
-        <v>1</v>
-      </c>
-      <c r="K1787">
+      <c r="I1817" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1817">
+        <v>1</v>
+      </c>
+      <c r="K1817">
+        <v>697400</v>
+      </c>
+      <c r="L1817">
+        <v>697400</v>
+      </c>
+    </row>
+    <row r="1818" spans="1:12">
+      <c r="A1818">
+        <v>1815</v>
+      </c>
+      <c r="B1818">
+        <v>626402</v>
+      </c>
+      <c r="C1818" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1818" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1818" t="s">
+        <v>2621</v>
+      </c>
+      <c r="F1818" t="s">
+        <v>2622</v>
+      </c>
+      <c r="G1818" t="s">
+        <v>2623</v>
+      </c>
+      <c r="H1818" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I1818" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1818">
+        <v>1</v>
+      </c>
+      <c r="K1818">
         <v>433000</v>
       </c>
-      <c r="L1787">
+      <c r="L1818">
         <v>433000</v>
+      </c>
+    </row>
+    <row r="1819" spans="1:12">
+      <c r="A1819">
+        <v>1816</v>
+      </c>
+      <c r="B1819">
+        <v>626402</v>
+      </c>
+      <c r="C1819" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1819" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E1819" t="s">
+        <v>2625</v>
+      </c>
+      <c r="F1819" t="s">
+        <v>2626</v>
+      </c>
+      <c r="G1819" t="s">
+        <v>2627</v>
+      </c>
+      <c r="H1819" t="s">
+        <v>708</v>
+      </c>
+      <c r="I1819" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1819">
+        <v>1</v>
+      </c>
+      <c r="K1819">
+        <v>2580000</v>
+      </c>
+      <c r="L1819">
+        <v>2580000</v>
+      </c>
+    </row>
+    <row r="1820" spans="1:12">
+      <c r="A1820">
+        <v>1817</v>
+      </c>
+      <c r="B1820">
+        <v>626402</v>
+      </c>
+      <c r="C1820" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1820" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E1820" t="s">
+        <v>2628</v>
+      </c>
+      <c r="F1820" t="s">
+        <v>2629</v>
+      </c>
+      <c r="G1820" t="s">
+        <v>2630</v>
+      </c>
+      <c r="H1820" t="s">
+        <v>1754</v>
+      </c>
+      <c r="I1820" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1820">
+        <v>1</v>
+      </c>
+      <c r="K1820">
+        <v>3000000</v>
+      </c>
+      <c r="L1820">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="1821" spans="1:12">
+      <c r="A1821">
+        <v>1818</v>
+      </c>
+      <c r="B1821">
+        <v>626402</v>
+      </c>
+      <c r="C1821" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1821" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1821" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1821" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1821" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1821" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1821" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1821">
+        <v>1</v>
+      </c>
+      <c r="K1821">
+        <v>18920300</v>
+      </c>
+      <c r="L1821">
+        <v>18920300</v>
+      </c>
+    </row>
+    <row r="1822" spans="1:12">
+      <c r="A1822">
+        <v>1819</v>
+      </c>
+      <c r="B1822">
+        <v>626402</v>
+      </c>
+      <c r="C1822" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1822" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1822" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1822" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1822" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1822" t="s">
+        <v>257</v>
+      </c>
+      <c r="I1822" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1822">
+        <v>1</v>
+      </c>
+      <c r="K1822">
+        <v>2592447</v>
+      </c>
+      <c r="L1822">
+        <v>2592447</v>
+      </c>
+    </row>
+    <row r="1823" spans="1:12">
+      <c r="A1823">
+        <v>1820</v>
+      </c>
+      <c r="B1823">
+        <v>626402</v>
+      </c>
+      <c r="C1823" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1823" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1823" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1823" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1823" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1823" t="s">
+        <v>431</v>
+      </c>
+      <c r="I1823" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1823">
+        <v>1</v>
+      </c>
+      <c r="K1823">
+        <v>5104000</v>
+      </c>
+      <c r="L1823">
+        <v>5104000</v>
+      </c>
+    </row>
+    <row r="1824" spans="1:12">
+      <c r="A1824">
+        <v>1821</v>
+      </c>
+      <c r="B1824">
+        <v>626402</v>
+      </c>
+      <c r="C1824" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1824" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1824" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1824" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1824" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1824" t="s">
+        <v>2633</v>
+      </c>
+      <c r="I1824" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1824">
+        <v>1</v>
+      </c>
+      <c r="K1824">
+        <v>25600000</v>
+      </c>
+      <c r="L1824">
+        <v>25600000</v>
+      </c>
+    </row>
+    <row r="1825" spans="1:12">
+      <c r="A1825">
+        <v>1822</v>
+      </c>
+      <c r="B1825">
+        <v>626402</v>
+      </c>
+      <c r="C1825" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1825" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1825" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1825" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1825" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1825" t="s">
+        <v>2634</v>
+      </c>
+      <c r="I1825" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1825">
+        <v>1</v>
+      </c>
+      <c r="K1825">
+        <v>981000</v>
+      </c>
+      <c r="L1825">
+        <v>981000</v>
+      </c>
+    </row>
+    <row r="1826" spans="1:12">
+      <c r="A1826">
+        <v>1823</v>
+      </c>
+      <c r="B1826">
+        <v>626402</v>
+      </c>
+      <c r="C1826" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1826" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1826" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1826" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1826" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1826" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I1826" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1826">
+        <v>1</v>
+      </c>
+      <c r="K1826">
+        <v>147000</v>
+      </c>
+      <c r="L1826">
+        <v>147000</v>
+      </c>
+    </row>
+    <row r="1827" spans="1:12">
+      <c r="A1827">
+        <v>1824</v>
+      </c>
+      <c r="B1827">
+        <v>626402</v>
+      </c>
+      <c r="C1827" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1827" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1827" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1827" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1827" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1827" t="s">
+        <v>756</v>
+      </c>
+      <c r="I1827" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1827">
+        <v>1</v>
+      </c>
+      <c r="K1827">
+        <v>298590</v>
+      </c>
+      <c r="L1827">
+        <v>298590</v>
+      </c>
+    </row>
+    <row r="1828" spans="1:12">
+      <c r="A1828">
+        <v>1825</v>
+      </c>
+      <c r="B1828">
+        <v>626402</v>
+      </c>
+      <c r="C1828" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1828" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1828" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1828" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1828" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1828" t="s">
+        <v>122</v>
+      </c>
+      <c r="I1828" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1828">
+        <v>1</v>
+      </c>
+      <c r="K1828">
+        <v>2584749</v>
+      </c>
+      <c r="L1828">
+        <v>2584749</v>
+      </c>
+    </row>
+    <row r="1829" spans="1:12">
+      <c r="A1829">
+        <v>1826</v>
+      </c>
+      <c r="B1829">
+        <v>626402</v>
+      </c>
+      <c r="C1829" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1829" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1829" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1829" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1829" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1829" t="s">
+        <v>2635</v>
+      </c>
+      <c r="I1829" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1829">
+        <v>1</v>
+      </c>
+      <c r="K1829">
+        <v>1498500</v>
+      </c>
+      <c r="L1829">
+        <v>1498500</v>
+      </c>
+    </row>
+    <row r="1830" spans="1:12">
+      <c r="A1830">
+        <v>1827</v>
+      </c>
+      <c r="B1830">
+        <v>626402</v>
+      </c>
+      <c r="C1830" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1830" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1830" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1830" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1830" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1830" t="s">
+        <v>2636</v>
+      </c>
+      <c r="I1830" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1830">
+        <v>1</v>
+      </c>
+      <c r="K1830">
+        <v>2500000</v>
+      </c>
+      <c r="L1830">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="1831" spans="1:12">
+      <c r="A1831">
+        <v>1828</v>
+      </c>
+      <c r="B1831">
+        <v>626402</v>
+      </c>
+      <c r="C1831" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1831" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1831" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1831" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1831" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1831" t="s">
+        <v>1730</v>
+      </c>
+      <c r="I1831" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1831">
+        <v>1</v>
+      </c>
+      <c r="K1831">
+        <v>1000000</v>
+      </c>
+      <c r="L1831">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1832" spans="1:12">
+      <c r="A1832">
+        <v>1829</v>
+      </c>
+      <c r="B1832">
+        <v>626402</v>
+      </c>
+      <c r="C1832" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1832" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1832" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1832" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1832" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1832" t="s">
+        <v>2637</v>
+      </c>
+      <c r="I1832" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1832">
+        <v>1</v>
+      </c>
+      <c r="K1832">
+        <v>3000000</v>
+      </c>
+      <c r="L1832">
+        <v>3000000</v>
+      </c>
+    </row>
+    <row r="1833" spans="1:12">
+      <c r="A1833">
+        <v>1830</v>
+      </c>
+      <c r="B1833">
+        <v>626402</v>
+      </c>
+      <c r="C1833" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1833" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1833" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1833" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1833" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1833" t="s">
+        <v>269</v>
+      </c>
+      <c r="I1833" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1833">
+        <v>1</v>
+      </c>
+      <c r="K1833">
+        <v>2854103</v>
+      </c>
+      <c r="L1833">
+        <v>2854103</v>
+      </c>
+    </row>
+    <row r="1834" spans="1:12">
+      <c r="A1834">
+        <v>1831</v>
+      </c>
+      <c r="B1834">
+        <v>626402</v>
+      </c>
+      <c r="C1834" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1834" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1834" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1834" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1834" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1834" t="s">
+        <v>1661</v>
+      </c>
+      <c r="I1834" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1834">
+        <v>1</v>
+      </c>
+      <c r="K1834">
+        <v>2850000</v>
+      </c>
+      <c r="L1834">
+        <v>2850000</v>
+      </c>
+    </row>
+    <row r="1835" spans="1:12">
+      <c r="A1835">
+        <v>1832</v>
+      </c>
+      <c r="B1835">
+        <v>626402</v>
+      </c>
+      <c r="C1835" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1835" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1835" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1835" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1835" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1835" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1835" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1835">
+        <v>1</v>
+      </c>
+      <c r="K1835">
+        <v>100000</v>
+      </c>
+      <c r="L1835">
+        <v>100000</v>
+      </c>
+    </row>
+    <row r="1836" spans="1:12">
+      <c r="A1836">
+        <v>1833</v>
+      </c>
+      <c r="B1836">
+        <v>626402</v>
+      </c>
+      <c r="C1836" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1836" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1836" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1836" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1836" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1836" t="s">
+        <v>639</v>
+      </c>
+      <c r="I1836" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1836">
+        <v>1</v>
+      </c>
+      <c r="K1836">
+        <v>124000</v>
+      </c>
+      <c r="L1836">
+        <v>124000</v>
+      </c>
+    </row>
+    <row r="1837" spans="1:12">
+      <c r="A1837">
+        <v>1834</v>
+      </c>
+      <c r="B1837">
+        <v>626402</v>
+      </c>
+      <c r="C1837" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1837" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1837" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1837" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1837" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1837" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1837" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1837">
+        <v>1</v>
+      </c>
+      <c r="K1837">
+        <v>286000</v>
+      </c>
+      <c r="L1837">
+        <v>286000</v>
+      </c>
+    </row>
+    <row r="1838" spans="1:12">
+      <c r="A1838">
+        <v>1835</v>
+      </c>
+      <c r="B1838">
+        <v>626402</v>
+      </c>
+      <c r="C1838" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1838" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1838" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1838" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1838" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1838" t="s">
+        <v>737</v>
+      </c>
+      <c r="I1838" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1838">
+        <v>1</v>
+      </c>
+      <c r="K1838">
+        <v>1020000</v>
+      </c>
+      <c r="L1838">
+        <v>1020000</v>
+      </c>
+    </row>
+    <row r="1839" spans="1:12">
+      <c r="A1839">
+        <v>1836</v>
+      </c>
+      <c r="B1839">
+        <v>626402</v>
+      </c>
+      <c r="C1839" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1839" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1839" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1839" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1839" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1839" t="s">
+        <v>1770</v>
+      </c>
+      <c r="I1839" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1839">
+        <v>1</v>
+      </c>
+      <c r="K1839">
+        <v>9487710</v>
+      </c>
+      <c r="L1839">
+        <v>9487710</v>
+      </c>
+    </row>
+    <row r="1840" spans="1:12">
+      <c r="A1840">
+        <v>1837</v>
+      </c>
+      <c r="B1840">
+        <v>626402</v>
+      </c>
+      <c r="C1840" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1840" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1840" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1840" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1840" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1840" t="s">
+        <v>2638</v>
+      </c>
+      <c r="I1840" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1840">
+        <v>1</v>
+      </c>
+      <c r="K1840">
+        <v>2700000</v>
+      </c>
+      <c r="L1840">
+        <v>2700000</v>
+      </c>
+    </row>
+    <row r="1841" spans="1:12">
+      <c r="A1841">
+        <v>1838</v>
+      </c>
+      <c r="B1841">
+        <v>626402</v>
+      </c>
+      <c r="C1841" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1841" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1841" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1841" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1841" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1841" t="s">
+        <v>666</v>
+      </c>
+      <c r="I1841" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1841">
+        <v>1</v>
+      </c>
+      <c r="K1841">
+        <v>1554000</v>
+      </c>
+      <c r="L1841">
+        <v>1554000</v>
+      </c>
+    </row>
+    <row r="1842" spans="1:12">
+      <c r="A1842">
+        <v>1839</v>
+      </c>
+      <c r="B1842">
+        <v>626402</v>
+      </c>
+      <c r="C1842" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1842" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1842" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1842" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1842" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1842" t="s">
+        <v>669</v>
+      </c>
+      <c r="I1842" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1842">
+        <v>1</v>
+      </c>
+      <c r="K1842">
+        <v>2010000</v>
+      </c>
+      <c r="L1842">
+        <v>2010000</v>
+      </c>
+    </row>
+    <row r="1843" spans="1:12">
+      <c r="A1843">
+        <v>1840</v>
+      </c>
+      <c r="B1843">
+        <v>626402</v>
+      </c>
+      <c r="C1843" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1843" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1843" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1843" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1843" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1843" t="s">
+        <v>183</v>
+      </c>
+      <c r="I1843" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1843">
+        <v>1</v>
+      </c>
+      <c r="K1843">
+        <v>1131820</v>
+      </c>
+      <c r="L1843">
+        <v>1131820</v>
+      </c>
+    </row>
+    <row r="1844" spans="1:12">
+      <c r="A1844">
+        <v>1841</v>
+      </c>
+      <c r="B1844">
+        <v>626402</v>
+      </c>
+      <c r="C1844" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1844" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1844" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1844" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1844" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1844" t="s">
+        <v>738</v>
+      </c>
+      <c r="I1844" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1844">
+        <v>1</v>
+      </c>
+      <c r="K1844">
+        <v>2380000</v>
+      </c>
+      <c r="L1844">
+        <v>2380000</v>
+      </c>
+    </row>
+    <row r="1845" spans="1:12">
+      <c r="A1845">
+        <v>1842</v>
+      </c>
+      <c r="B1845">
+        <v>626402</v>
+      </c>
+      <c r="C1845" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1845" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1845" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1845" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1845" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1845" t="s">
+        <v>2078</v>
+      </c>
+      <c r="I1845" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1845">
+        <v>1</v>
+      </c>
+      <c r="K1845">
+        <v>1530000</v>
+      </c>
+      <c r="L1845">
+        <v>1530000</v>
+      </c>
+    </row>
+    <row r="1846" spans="1:12">
+      <c r="A1846">
+        <v>1843</v>
+      </c>
+      <c r="B1846">
+        <v>626402</v>
+      </c>
+      <c r="C1846" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1846" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1846" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1846" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1846" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1846" t="s">
+        <v>2336</v>
+      </c>
+      <c r="I1846" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1846">
+        <v>1</v>
+      </c>
+      <c r="K1846">
+        <v>510000</v>
+      </c>
+      <c r="L1846">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1847" spans="1:12">
+      <c r="A1847">
+        <v>1844</v>
+      </c>
+      <c r="B1847">
+        <v>626402</v>
+      </c>
+      <c r="C1847" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1847" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1847" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1847" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1847" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1847" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I1847" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1847">
+        <v>1</v>
+      </c>
+      <c r="K1847">
+        <v>340000</v>
+      </c>
+      <c r="L1847">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="1848" spans="1:12">
+      <c r="A1848">
+        <v>1845</v>
+      </c>
+      <c r="B1848">
+        <v>626402</v>
+      </c>
+      <c r="C1848" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1848" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1848" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1848" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1848" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1848" t="s">
+        <v>671</v>
+      </c>
+      <c r="I1848" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1848">
+        <v>1</v>
+      </c>
+      <c r="K1848">
+        <v>680000</v>
+      </c>
+      <c r="L1848">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="1849" spans="1:12">
+      <c r="A1849">
+        <v>1846</v>
+      </c>
+      <c r="B1849">
+        <v>626402</v>
+      </c>
+      <c r="C1849" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1849" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1849" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1849" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1849" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1849" t="s">
+        <v>740</v>
+      </c>
+      <c r="I1849" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1849">
+        <v>1</v>
+      </c>
+      <c r="K1849">
+        <v>510000</v>
+      </c>
+      <c r="L1849">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1850" spans="1:12">
+      <c r="A1850">
+        <v>1847</v>
+      </c>
+      <c r="B1850">
+        <v>626402</v>
+      </c>
+      <c r="C1850" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1850" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1850" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1850" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1850" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1850" t="s">
+        <v>2639</v>
+      </c>
+      <c r="I1850" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1850">
+        <v>1</v>
+      </c>
+      <c r="K1850">
+        <v>2380000</v>
+      </c>
+      <c r="L1850">
+        <v>2380000</v>
+      </c>
+    </row>
+    <row r="1851" spans="1:12">
+      <c r="A1851">
+        <v>1848</v>
+      </c>
+      <c r="B1851">
+        <v>626402</v>
+      </c>
+      <c r="C1851" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1851" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1851" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1851" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1851" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1851" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1851" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1851">
+        <v>1</v>
+      </c>
+      <c r="K1851">
+        <v>680000</v>
+      </c>
+      <c r="L1851">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="1852" spans="1:12">
+      <c r="A1852">
+        <v>1849</v>
+      </c>
+      <c r="B1852">
+        <v>626402</v>
+      </c>
+      <c r="C1852" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1852" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1852" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1852" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1852" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1852" t="s">
+        <v>2640</v>
+      </c>
+      <c r="I1852" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1852">
+        <v>1</v>
+      </c>
+      <c r="K1852">
+        <v>510000</v>
+      </c>
+      <c r="L1852">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1853" spans="1:12">
+      <c r="A1853">
+        <v>1850</v>
+      </c>
+      <c r="B1853">
+        <v>626402</v>
+      </c>
+      <c r="C1853" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1853" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1853" t="s">
+        <v>2631</v>
+      </c>
+      <c r="F1853" t="s">
+        <v>2632</v>
+      </c>
+      <c r="G1853" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1853" t="s">
+        <v>778</v>
+      </c>
+      <c r="I1853" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1853">
+        <v>1</v>
+      </c>
+      <c r="K1853">
+        <v>1190000</v>
+      </c>
+      <c r="L1853">
+        <v>1190000</v>
+      </c>
+    </row>
+    <row r="1854" spans="1:12">
+      <c r="A1854">
+        <v>1851</v>
+      </c>
+      <c r="B1854">
+        <v>626402</v>
+      </c>
+      <c r="C1854" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1854" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1854" t="s">
+        <v>2641</v>
+      </c>
+      <c r="F1854" t="s">
+        <v>2642</v>
+      </c>
+      <c r="G1854" t="s">
+        <v>2643</v>
+      </c>
+      <c r="H1854" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1854" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1854">
+        <v>1</v>
+      </c>
+      <c r="K1854">
+        <v>2744000</v>
+      </c>
+      <c r="L1854">
+        <v>2744000</v>
+      </c>
+    </row>
+    <row r="1855" spans="1:12">
+      <c r="A1855">
+        <v>1852</v>
+      </c>
+      <c r="B1855">
+        <v>626402</v>
+      </c>
+      <c r="C1855" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1855" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E1855" t="s">
+        <v>2644</v>
+      </c>
+      <c r="F1855" t="s">
+        <v>2645</v>
+      </c>
+      <c r="G1855" t="s">
+        <v>2646</v>
+      </c>
+      <c r="H1855" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1855" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1855">
+        <v>1</v>
+      </c>
+      <c r="K1855">
+        <v>4948288</v>
+      </c>
+      <c r="L1855">
+        <v>4948288</v>
+      </c>
+    </row>
+    <row r="1856" spans="1:12">
+      <c r="A1856">
+        <v>1853</v>
+      </c>
+      <c r="B1856">
+        <v>626402</v>
+      </c>
+      <c r="C1856" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1856" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E1856" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F1856" t="s">
+        <v>2648</v>
+      </c>
+      <c r="G1856" t="s">
+        <v>2649</v>
+      </c>
+      <c r="H1856" t="s">
+        <v>671</v>
+      </c>
+      <c r="I1856" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1856">
+        <v>1</v>
+      </c>
+      <c r="K1856">
+        <v>520000</v>
+      </c>
+      <c r="L1856">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="1857" spans="1:12">
+      <c r="A1857">
+        <v>1854</v>
+      </c>
+      <c r="B1857">
+        <v>626402</v>
+      </c>
+      <c r="C1857" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1857" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E1857" t="s">
+        <v>2647</v>
+      </c>
+      <c r="F1857" t="s">
+        <v>2648</v>
+      </c>
+      <c r="G1857" t="s">
+        <v>2649</v>
+      </c>
+      <c r="H1857" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1857" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1857">
+        <v>1</v>
+      </c>
+      <c r="K1857">
+        <v>680000</v>
+      </c>
+      <c r="L1857">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="1858" spans="1:12">
+      <c r="A1858">
+        <v>1855</v>
+      </c>
+      <c r="B1858">
+        <v>626402</v>
+      </c>
+      <c r="C1858" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1858" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E1858" t="s">
+        <v>2650</v>
+      </c>
+      <c r="F1858" t="s">
+        <v>2651</v>
+      </c>
+      <c r="G1858" t="s">
+        <v>2652</v>
+      </c>
+      <c r="H1858" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I1858" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1858">
+        <v>1</v>
+      </c>
+      <c r="K1858">
+        <v>510000</v>
+      </c>
+      <c r="L1858">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1859" spans="1:12">
+      <c r="A1859">
+        <v>1856</v>
+      </c>
+      <c r="B1859">
+        <v>626402</v>
+      </c>
+      <c r="C1859" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1859" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E1859" t="s">
+        <v>2653</v>
+      </c>
+      <c r="F1859" t="s">
+        <v>2654</v>
+      </c>
+      <c r="G1859" t="s">
+        <v>2655</v>
+      </c>
+      <c r="H1859" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1859" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1859">
+        <v>1</v>
+      </c>
+      <c r="K1859">
+        <v>1677500</v>
+      </c>
+      <c r="L1859">
+        <v>1677500</v>
+      </c>
+    </row>
+    <row r="1860" spans="1:12">
+      <c r="A1860">
+        <v>1857</v>
+      </c>
+      <c r="B1860">
+        <v>626402</v>
+      </c>
+      <c r="C1860" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1860" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E1860" t="s">
+        <v>2656</v>
+      </c>
+      <c r="F1860" t="s">
+        <v>2657</v>
+      </c>
+      <c r="G1860" t="s">
+        <v>2658</v>
+      </c>
+      <c r="H1860" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1860" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1860">
+        <v>1</v>
+      </c>
+      <c r="K1860">
+        <v>721500</v>
+      </c>
+      <c r="L1860">
+        <v>721500</v>
+      </c>
+    </row>
+    <row r="1861" spans="1:12">
+      <c r="A1861">
+        <v>1858</v>
+      </c>
+      <c r="B1861">
+        <v>626402</v>
+      </c>
+      <c r="C1861" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1861" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E1861" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F1861" t="s">
+        <v>2660</v>
+      </c>
+      <c r="G1861" t="s">
+        <v>2661</v>
+      </c>
+      <c r="H1861" t="s">
+        <v>2662</v>
+      </c>
+      <c r="I1861" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1861">
+        <v>1</v>
+      </c>
+      <c r="K1861">
+        <v>1461500</v>
+      </c>
+      <c r="L1861">
+        <v>1461500</v>
+      </c>
+    </row>
+    <row r="1862" spans="1:12">
+      <c r="A1862">
+        <v>1859</v>
+      </c>
+      <c r="B1862">
+        <v>626402</v>
+      </c>
+      <c r="C1862" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1862" t="s">
+        <v>2624</v>
+      </c>
+      <c r="E1862" t="s">
+        <v>2659</v>
+      </c>
+      <c r="F1862" t="s">
+        <v>2660</v>
+      </c>
+      <c r="G1862" t="s">
+        <v>2661</v>
+      </c>
+      <c r="H1862" t="s">
+        <v>2663</v>
+      </c>
+      <c r="I1862" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1862">
+        <v>1</v>
+      </c>
+      <c r="K1862">
+        <v>3330000</v>
+      </c>
+      <c r="L1862">
+        <v>3330000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2816">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -7769,6 +7769,30 @@
     <t xml:space="preserve">Pembayaran Belanja Barang. Perdin Jkt-Ancol-Bogor(PP) an. Galuh dan Eli sesuai ST No B.654/BPPSDM.4/KP.440/III/2024 Tgl 15/3/2024, dst keg. koordinasi pelaksanaan anggaran dan kinerja lingkup BPPSDMKP th 2024 dst </t>
   </si>
   <si>
+    <t>2024-05-15</t>
+  </si>
+  <si>
+    <t>'00687T</t>
+  </si>
+  <si>
+    <t>'241751303014832</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Karawang -Jkt tgl 25 April 2024 keg. koordinasi persiapan lounching MBKM an. Mextaria dan Johan sesuai ST No B.929/BPPSDM.4/KP.440/IV/2024 Tgl 25/4/2024</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.952.301.0G.001697</t>
+  </si>
+  <si>
+    <t>'00688T</t>
+  </si>
+  <si>
+    <t>'241751302015730</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Karawang -Jkt tgl 25 April 2024 keg. koordinasi persiapan lounching MBKM an. Luh Dewi sesuai ST No B.929/BPPSDM.4/KP.440/IV/2024 Tgl 25/4/2024</t>
+  </si>
+  <si>
     <t>'00689T</t>
   </si>
   <si>
@@ -7871,6 +7895,15 @@
     <t>Pembayaran Belanja Barang perjalanan dinas untuk 2 pegawai sesuai ST No:B.3438/BPPSDM.1/KP.440/IV/2024 Tgl.23-4-2024 a.n.Ollyvia Maria,dkk.</t>
   </si>
   <si>
+    <t>'00704T</t>
+  </si>
+  <si>
+    <t>'241751303014835</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin an. Winda tgl 25 April 2024 sesuai ST B.930/BPPSDMKP.4/KP.440/2024 tgl 25 April 2024, keg melaksanakan rapat progres realisasi maksimum pencairan tahap I.</t>
+  </si>
+  <si>
     <t>'00705T</t>
   </si>
   <si>
@@ -7880,6 +7913,15 @@
     <t>Pembayaran Belanja Barang perjalanan dinas untuk 2 pegawai sesuai ST No:B.3360/BPPSDM.1/KP.440/IV/2024 Tgl.18-4-2024 a.n.Penie Lekasari,dkk.</t>
   </si>
   <si>
+    <t>'00706T</t>
+  </si>
+  <si>
+    <t>'241751303014834</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin ke Gedung I BPPSDM an Arif W dan Bayu tgl 25 April 2024 sesuai ST No B.930/BPPSDM.4/KP.440/IV/2024 tgl 25 April 2024 keg rapat progres realisasi maksimum tahap I</t>
+  </si>
+  <si>
     <t>'00708T</t>
   </si>
   <si>
@@ -7889,7 +7931,22 @@
     <t>Pembayaran Belanja Barang perjalanan dinas untuk 1 pegawai sesuai ST No:B.3360/BPPSDM.1/KP.440/IV/2024 Tgl.18-4-2024 a.n.Dewi Ayu Utari</t>
   </si>
   <si>
-    <t>2024-05-15</t>
+    <t>'00709T</t>
+  </si>
+  <si>
+    <t>'241751303014833</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin dalam kota ke Gedung BPPSDM Ancol an. Agung P Tgl 25-4-2024 sesuai ST No B.930/BPPSDM.4/KP.440/IV/2024 tgl 25-4-2024 keg rapat progres realisasi maksimum tahap I.</t>
+  </si>
+  <si>
+    <t>'00710T</t>
+  </si>
+  <si>
+    <t>'241751301014804</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin dalam kota ke Gedung BPPSDM Ancol an. Dwi Ayu Tgl 25 April 2024 sesuai ST No B.930/BPPSDM.4/KP.440/IV/2024 tgl 25 April 2024 keg rapat progres realisasi maksimum tahap I.</t>
   </si>
   <si>
     <t>'00711T</t>
@@ -8007,6 +8064,405 @@
   </si>
   <si>
     <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001772</t>
+  </si>
+  <si>
+    <t>2024-05-16</t>
+  </si>
+  <si>
+    <t>'00722T</t>
+  </si>
+  <si>
+    <t>'241751303014976</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3378/BPPSDM.1/KP.440/IV/2024 Tanggal 18 APRIL 2024 a.n M. Danial Yusuf</t>
+  </si>
+  <si>
+    <t>'00723T</t>
+  </si>
+  <si>
+    <t>'241751303014979</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.3427/BPPSDM.1/KP.440/IV/2024 Tanggal 22 April 2024 a.n Nina Triana, dkk</t>
+  </si>
+  <si>
+    <t>'00724T</t>
+  </si>
+  <si>
+    <t>'241751303014980</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.3453/BPPSDM.1/KP.440/IV/2024 Tanggal 23 April 2024 a.n Siti Amania, dkk</t>
+  </si>
+  <si>
+    <t>'00725T</t>
+  </si>
+  <si>
+    <t>'241751305001004</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3281/BPPSDM.1/KP.440/IV/2024 Tanggal 4 April 2024 a.n Siti Nurhayati</t>
+  </si>
+  <si>
+    <t>'00726T</t>
+  </si>
+  <si>
+    <t>'241751303014978</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.3281/BPPSDM.1/KP.440/IV/2024 Tanggal 4 April 2024 a.n Irma  Yulianti, dkk</t>
+  </si>
+  <si>
+    <t>'00727T</t>
+  </si>
+  <si>
+    <t>'241751301014935</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang  Tagihan Sewa Mesin Foto COpy bulan April tahun 2024 Sesuai Kuitansi Nomor 74/V Tanggal 2 Mei 2024</t>
+  </si>
+  <si>
+    <t>'00728T</t>
+  </si>
+  <si>
+    <t>'241751303014984</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST Nomor B.3525/BPPSDM.1/KP.440/IV/2024 Tanggal 26 April 2024 a.n Wawan Nurliansyah, dkk</t>
+  </si>
+  <si>
+    <t>'00729T</t>
+  </si>
+  <si>
+    <t>'241751303014981</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3558/BPPSDM.1/KP.440/IV/2024 Tanggal 29 April 2024 a.n Nurhayati</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.000608</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001507</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001508</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001749</t>
+  </si>
+  <si>
+    <t>'00730T</t>
+  </si>
+  <si>
+    <t>'241751303014982</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3492/BPPSDM.1/KP.440/IV/2024 Tanggal 25 April 2024 a.n Fajar Ali Gunawan</t>
+  </si>
+  <si>
+    <t>'00731T</t>
+  </si>
+  <si>
+    <t>'241751303014983</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3492/BPPSDM.1/KP.440/IV/2024 Tanggal 25 April 2024 a.n Amsari</t>
+  </si>
+  <si>
+    <t>'00735T</t>
+  </si>
+  <si>
+    <t>'241751303014975</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(Pembayaran uang makan pegawai Pusdik bulan April 2024 untuk 38 pegawai)</t>
+  </si>
+  <si>
+    <t>'00736T</t>
+  </si>
+  <si>
+    <t>'241751303014864</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya jurnal publikasi peserta tubel S2 IPB an. Aditya Jaka S sesuai SK KaBRSDMKP No 520 Tahun 2022 Tgl 11/8/2022 dan SK PPK No KEP 16/BRSDM.4/I/2024 Tgl 03/01/2024</t>
+  </si>
+  <si>
+    <t>'00737T</t>
+  </si>
+  <si>
+    <t>'241751303014860</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya Jurnal peserta tubel S3 UGM an. Muji Prihajatno sesuai SK KPA No 757 Tahun 2021 Tgl 13/08/2021 dan SK PPK No KEP 16/BPPSDM.4/I/2024 Tgl 03/01/2024</t>
+  </si>
+  <si>
+    <t>'00741T</t>
+  </si>
+  <si>
+    <t>'241751303015121</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas Untuk 3 Pegawai Sesuai ST No:B.3721/BPPSDM.1/KP.440/IV/2024 Tgl.13-5-2024 a.n.Diwa Redina Tiurlan,dkk.</t>
+  </si>
+  <si>
+    <t>'00742T</t>
+  </si>
+  <si>
+    <t>'241751303015314</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 12 pegawai sesuai ST No:3721/BPPSDM.1/KP.440/IV/2024 Tgl.13-5-2024 a.n.Liana Sari,dkk.</t>
+  </si>
+  <si>
+    <t>'00744T</t>
+  </si>
+  <si>
+    <t>'241751303015119</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang perjalanan dinas luar negeri untuk 2 pegawai sesuai ST No:B-014928/KEMENSETNEG/Set/KTLN/LN.0120/08/2024 Tgl.6-5-2024 a.n.I Nyoman Radiarta,dkk.</t>
+  </si>
+  <si>
+    <t>'00746T</t>
+  </si>
+  <si>
+    <t>'241751303015114</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST No.B3451/BPPSDM.1/KP.440/IV/2024 tgl 23 April 2024 a.n Don Bapkas Nisnoni,dkk</t>
+  </si>
+  <si>
+    <t>'00747T</t>
+  </si>
+  <si>
+    <t>'241751303015115</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST No.B.3706/BPPSDM.1/KP.440/V/2024 tgl 8 Mei 2024 a.n Siti Amania, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.102.0A.000354</t>
+  </si>
+  <si>
+    <t>'00748T</t>
+  </si>
+  <si>
+    <t>'241751305001014</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST No.B.3579/BPPSDM.1/KP.440/IV/2024 tgl 30 April 2024 a.n Siti Nurhayati</t>
+  </si>
+  <si>
+    <t>'00749T</t>
+  </si>
+  <si>
+    <t>'241751303015123</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST No.B.3579/BPPSDM.1/KP.440/IV/2024 tgl 30 April 2024 a.n M. Danial Yusuf, dkk</t>
+  </si>
+  <si>
+    <t>'00750T</t>
+  </si>
+  <si>
+    <t>'241751301015023</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:2/PPK/BRSDM.1/I/2024 Tgl.2-1-2024,BAST No:BAST.1325/PPK/BRSDM.1/IV/2024 Tgl.30-4-2024,BAP No:1326/PPK/BRSDM.1/PPK/IV/2024 Tgl.30-4-2024 Pengadaan jasa internet provider sekretariat BRSDM TA 2024 Termin 4</t>
+  </si>
+  <si>
+    <t>'00751T</t>
+  </si>
+  <si>
+    <t>'241751303015116</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST No.B.3582/BPPSDM.1/KP.440/IV/2024 tgl 30 April 2024 a.n Siti Amania R, dkk</t>
+  </si>
+  <si>
+    <t>'00752T</t>
+  </si>
+  <si>
+    <t>'241751303015117</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST No.B.3581/BPPSDM.1/KP.440/IV/2024 tgl 30 April 2024 a.n Siti Amania R, dkk</t>
+  </si>
+  <si>
+    <t>'00753T</t>
+  </si>
+  <si>
+    <t>'241751301015106</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai SPK No:4/PPK/BRSDM.1/I/2024 Tgl.2-1-2024,BAST No:1323/PPK/BRSDM.1/IV/2024 Tgl.30-4-2024,BAP No:1324/PPK/BRSDM.1/IV/2024 Tgl.30-4-2024 Pengadaan jasa satuan pegamanan sekretariat BRSDM TA 2024 Termin 4</t>
+  </si>
+  <si>
+    <t>'00754T</t>
+  </si>
+  <si>
+    <t>'241751303015118</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST No.B.3493/BPPSDM.1/KP.440/IV/2024 tgl 25 April 2024 a.n Yatin Agus Riyadi</t>
+  </si>
+  <si>
+    <t>'00755T</t>
+  </si>
+  <si>
+    <t>'241751301015109</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai kuitansi Nomor:074/IF-RC/JKT/CS/I/24 tgl.29-2-2024</t>
+  </si>
+  <si>
+    <t>'00756T</t>
+  </si>
+  <si>
+    <t>'241751303015124</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST No.B.3580/BPPSDM.1/KP.440/IV/2024 tgl 29 April 2024 a.n Afriza Aziz</t>
+  </si>
+  <si>
+    <t>'00757T</t>
+  </si>
+  <si>
+    <t>'241751303015120</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST No.B.3020/BPPSDM.1/KP.440/III/2024 tgl 22 Maret 2024 a.n Rizky Hendriansyah S</t>
+  </si>
+  <si>
+    <t>'00758T</t>
+  </si>
+  <si>
+    <t>'241751303015122</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST No.B.3581/BPPSDM.1/KP.440/IV/2024 tgl 30 April 2024 a.n Irma Yulianti</t>
+  </si>
+  <si>
+    <t>'00759T</t>
+  </si>
+  <si>
+    <t>'241751303015113</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 5 pegawai sesuai ST No.B.3581/BPPSDM.1/KP.440/IV/2024 tgl 30 April 2024 a.n Rudi Alek,dkk</t>
+  </si>
+  <si>
+    <t>'00762T</t>
+  </si>
+  <si>
+    <t>'241751303015196</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 4 pegawai sesuai ST No.B.3512,B3602/BPPSDM.1/KP.440/IV/2024 tgl 26-4-24, 2-5-24 a.n Hari Purwanto, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.103.0A.000861</t>
+  </si>
+  <si>
+    <t>'00763T</t>
+  </si>
+  <si>
+    <t>'241751303015313</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 5 pegawai sesuai ST Nomor B.3020/BPPSDM.1/KP.440/III/2024 Tanggal 22 Maret 2024 a.n Rudi Alek Wahyudin, dkk</t>
+  </si>
+  <si>
+    <t>'00764T</t>
+  </si>
+  <si>
+    <t>'241751303015199</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST No.B.3512/BPPSDM.1/KP.440/IV/2024 tgl 26 April 2024 a.n Fani Aryanto</t>
+  </si>
+  <si>
+    <t>'00765T</t>
+  </si>
+  <si>
+    <t>'241751303015200</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST No.B.3456/BPPSDM.1/KP.440/IV/2024 tgl 23 April 2024 a.n Anindya Legia, dkk</t>
+  </si>
+  <si>
+    <t>'00766T</t>
+  </si>
+  <si>
+    <t>'241751303015198</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST No.B.3525/BPPSDM.1/KP.440/IV/2024 tgl 26 April 2024 a.n Faris Rayan, dkk</t>
+  </si>
+  <si>
+    <t>'00767T</t>
+  </si>
+  <si>
+    <t>'241751303015315</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 5 pegawai sesuai ST Nomor B.3430,3547/BRSDM.1/KP.440/IV/2024 Tgl. 22 dan 29 April 2024 a.n Percy Chandra N, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.103.0A.000859</t>
+  </si>
+  <si>
+    <t>'00768T</t>
+  </si>
+  <si>
+    <t>'241751303015197</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST No.B.3667/BPPSDM.1/KP.440/V/2024 tgl 6 Mei 2024 a.n Liana Sari, dkk</t>
+  </si>
+  <si>
+    <t>'00769T</t>
+  </si>
+  <si>
+    <t>'241751303015191</t>
+  </si>
+  <si>
+    <t>'626402.175.521811.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.953.101.0A.001396</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001780</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001781</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001783</t>
+  </si>
+  <si>
+    <t>2024-05-20</t>
+  </si>
+  <si>
+    <t>'00773T</t>
+  </si>
+  <si>
+    <t>'241751303015687</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0C.000243</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0G.001187</t>
+  </si>
+  <si>
+    <t>'00791T</t>
+  </si>
+  <si>
+    <t>'241751303015688</t>
+  </si>
+  <si>
+    <t>'626402.175.521211.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000494</t>
   </si>
 </sst>
 </file>
@@ -8348,7 +8804,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L1862"/>
+  <dimension ref="A1:L1946"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -76889,19 +77345,19 @@
         <v>13</v>
       </c>
       <c r="D1806" t="s">
-        <v>2515</v>
+        <v>2584</v>
       </c>
       <c r="E1806" t="s">
-        <v>2584</v>
+        <v>2585</v>
       </c>
       <c r="F1806" t="s">
-        <v>2585</v>
+        <v>2586</v>
       </c>
       <c r="G1806" t="s">
-        <v>2586</v>
+        <v>2587</v>
       </c>
       <c r="H1806" t="s">
-        <v>128</v>
+        <v>2588</v>
       </c>
       <c r="I1806" t="s">
         <v>19</v>
@@ -76910,10 +77366,10 @@
         <v>1</v>
       </c>
       <c r="K1806">
-        <v>8311000</v>
+        <v>946000</v>
       </c>
       <c r="L1806">
-        <v>8311000</v>
+        <v>946000</v>
       </c>
     </row>
     <row r="1807" spans="1:12">
@@ -76927,20 +77383,20 @@
         <v>13</v>
       </c>
       <c r="D1807" t="s">
-        <v>2515</v>
+        <v>2584</v>
       </c>
       <c r="E1807" t="s">
-        <v>2587</v>
+        <v>2589</v>
       </c>
       <c r="F1807" t="s">
+        <v>2590</v>
+      </c>
+      <c r="G1807" t="s">
+        <v>2591</v>
+      </c>
+      <c r="H1807" t="s">
         <v>2588</v>
       </c>
-      <c r="G1807" t="s">
-        <v>2589</v>
-      </c>
-      <c r="H1807" t="s">
-        <v>187</v>
-      </c>
       <c r="I1807" t="s">
         <v>19</v>
       </c>
@@ -76948,10 +77404,10 @@
         <v>1</v>
       </c>
       <c r="K1807">
-        <v>61129600</v>
+        <v>754000</v>
       </c>
       <c r="L1807">
-        <v>61129600</v>
+        <v>754000</v>
       </c>
     </row>
     <row r="1808" spans="1:12">
@@ -76965,19 +77421,19 @@
         <v>13</v>
       </c>
       <c r="D1808" t="s">
-        <v>2479</v>
+        <v>2515</v>
       </c>
       <c r="E1808" t="s">
-        <v>2590</v>
+        <v>2592</v>
       </c>
       <c r="F1808" t="s">
-        <v>2591</v>
+        <v>2593</v>
       </c>
       <c r="G1808" t="s">
-        <v>2592</v>
+        <v>2594</v>
       </c>
       <c r="H1808" t="s">
-        <v>1754</v>
+        <v>128</v>
       </c>
       <c r="I1808" t="s">
         <v>19</v>
@@ -76986,10 +77442,10 @@
         <v>1</v>
       </c>
       <c r="K1808">
-        <v>3300000</v>
+        <v>8311000</v>
       </c>
       <c r="L1808">
-        <v>3300000</v>
+        <v>8311000</v>
       </c>
     </row>
     <row r="1809" spans="1:12">
@@ -77003,19 +77459,19 @@
         <v>13</v>
       </c>
       <c r="D1809" t="s">
-        <v>2536</v>
+        <v>2515</v>
       </c>
       <c r="E1809" t="s">
-        <v>2593</v>
+        <v>2595</v>
       </c>
       <c r="F1809" t="s">
-        <v>2594</v>
+        <v>2596</v>
       </c>
       <c r="G1809" t="s">
-        <v>2595</v>
+        <v>2597</v>
       </c>
       <c r="H1809" t="s">
-        <v>2596</v>
+        <v>187</v>
       </c>
       <c r="I1809" t="s">
         <v>19</v>
@@ -77024,10 +77480,10 @@
         <v>1</v>
       </c>
       <c r="K1809">
-        <v>4582192</v>
+        <v>61129600</v>
       </c>
       <c r="L1809">
-        <v>4582192</v>
+        <v>61129600</v>
       </c>
     </row>
     <row r="1810" spans="1:12">
@@ -77041,19 +77497,19 @@
         <v>13</v>
       </c>
       <c r="D1810" t="s">
-        <v>2536</v>
+        <v>2479</v>
       </c>
       <c r="E1810" t="s">
-        <v>2597</v>
+        <v>2598</v>
       </c>
       <c r="F1810" t="s">
-        <v>2598</v>
+        <v>2599</v>
       </c>
       <c r="G1810" t="s">
-        <v>2599</v>
+        <v>2600</v>
       </c>
       <c r="H1810" t="s">
-        <v>80</v>
+        <v>1754</v>
       </c>
       <c r="I1810" t="s">
         <v>19</v>
@@ -77062,10 +77518,10 @@
         <v>1</v>
       </c>
       <c r="K1810">
-        <v>4582743</v>
+        <v>3300000</v>
       </c>
       <c r="L1810">
-        <v>4582743</v>
+        <v>3300000</v>
       </c>
     </row>
     <row r="1811" spans="1:12">
@@ -77079,19 +77535,19 @@
         <v>13</v>
       </c>
       <c r="D1811" t="s">
-        <v>2479</v>
+        <v>2536</v>
       </c>
       <c r="E1811" t="s">
-        <v>2600</v>
+        <v>2601</v>
       </c>
       <c r="F1811" t="s">
-        <v>2601</v>
+        <v>2602</v>
       </c>
       <c r="G1811" t="s">
-        <v>2602</v>
+        <v>2603</v>
       </c>
       <c r="H1811" t="s">
-        <v>1532</v>
+        <v>2604</v>
       </c>
       <c r="I1811" t="s">
         <v>19</v>
@@ -77100,10 +77556,10 @@
         <v>1</v>
       </c>
       <c r="K1811">
-        <v>10602000</v>
+        <v>4582192</v>
       </c>
       <c r="L1811">
-        <v>10602000</v>
+        <v>4582192</v>
       </c>
     </row>
     <row r="1812" spans="1:12">
@@ -77117,19 +77573,19 @@
         <v>13</v>
       </c>
       <c r="D1812" t="s">
-        <v>2479</v>
+        <v>2536</v>
       </c>
       <c r="E1812" t="s">
-        <v>2603</v>
+        <v>2605</v>
       </c>
       <c r="F1812" t="s">
-        <v>2604</v>
+        <v>2606</v>
       </c>
       <c r="G1812" t="s">
-        <v>2605</v>
+        <v>2607</v>
       </c>
       <c r="H1812" t="s">
-        <v>587</v>
+        <v>80</v>
       </c>
       <c r="I1812" t="s">
         <v>19</v>
@@ -77138,10 +77594,10 @@
         <v>1</v>
       </c>
       <c r="K1812">
-        <v>2053500</v>
+        <v>4582743</v>
       </c>
       <c r="L1812">
-        <v>2053500</v>
+        <v>4582743</v>
       </c>
     </row>
     <row r="1813" spans="1:12">
@@ -77158,16 +77614,16 @@
         <v>2479</v>
       </c>
       <c r="E1813" t="s">
-        <v>2606</v>
+        <v>2608</v>
       </c>
       <c r="F1813" t="s">
-        <v>2607</v>
+        <v>2609</v>
       </c>
       <c r="G1813" t="s">
-        <v>2608</v>
+        <v>2610</v>
       </c>
       <c r="H1813" t="s">
-        <v>336</v>
+        <v>1532</v>
       </c>
       <c r="I1813" t="s">
         <v>19</v>
@@ -77176,10 +77632,10 @@
         <v>1</v>
       </c>
       <c r="K1813">
-        <v>20000000</v>
+        <v>10602000</v>
       </c>
       <c r="L1813">
-        <v>20000000</v>
+        <v>10602000</v>
       </c>
     </row>
     <row r="1814" spans="1:12">
@@ -77196,16 +77652,16 @@
         <v>2479</v>
       </c>
       <c r="E1814" t="s">
-        <v>2609</v>
+        <v>2611</v>
       </c>
       <c r="F1814" t="s">
-        <v>2610</v>
+        <v>2612</v>
       </c>
       <c r="G1814" t="s">
-        <v>2611</v>
+        <v>2613</v>
       </c>
       <c r="H1814" t="s">
-        <v>418</v>
+        <v>587</v>
       </c>
       <c r="I1814" t="s">
         <v>19</v>
@@ -77214,10 +77670,10 @@
         <v>1</v>
       </c>
       <c r="K1814">
-        <v>600000</v>
+        <v>2053500</v>
       </c>
       <c r="L1814">
-        <v>600000</v>
+        <v>2053500</v>
       </c>
     </row>
     <row r="1815" spans="1:12">
@@ -77234,16 +77690,16 @@
         <v>2479</v>
       </c>
       <c r="E1815" t="s">
-        <v>2612</v>
+        <v>2614</v>
       </c>
       <c r="F1815" t="s">
-        <v>2613</v>
+        <v>2615</v>
       </c>
       <c r="G1815" t="s">
-        <v>2614</v>
+        <v>2616</v>
       </c>
       <c r="H1815" t="s">
-        <v>274</v>
+        <v>336</v>
       </c>
       <c r="I1815" t="s">
         <v>19</v>
@@ -77252,10 +77708,10 @@
         <v>1</v>
       </c>
       <c r="K1815">
-        <v>582380</v>
+        <v>20000000</v>
       </c>
       <c r="L1815">
-        <v>582380</v>
+        <v>20000000</v>
       </c>
     </row>
     <row r="1816" spans="1:12">
@@ -77272,16 +77728,16 @@
         <v>2479</v>
       </c>
       <c r="E1816" t="s">
-        <v>2615</v>
+        <v>2617</v>
       </c>
       <c r="F1816" t="s">
-        <v>2616</v>
+        <v>2618</v>
       </c>
       <c r="G1816" t="s">
-        <v>2617</v>
+        <v>2619</v>
       </c>
       <c r="H1816" t="s">
-        <v>1017</v>
+        <v>418</v>
       </c>
       <c r="I1816" t="s">
         <v>19</v>
@@ -77290,10 +77746,10 @@
         <v>1</v>
       </c>
       <c r="K1816">
-        <v>340000</v>
+        <v>600000</v>
       </c>
       <c r="L1816">
-        <v>340000</v>
+        <v>600000</v>
       </c>
     </row>
     <row r="1817" spans="1:12">
@@ -77310,16 +77766,16 @@
         <v>2479</v>
       </c>
       <c r="E1817" t="s">
-        <v>2618</v>
+        <v>2620</v>
       </c>
       <c r="F1817" t="s">
-        <v>2619</v>
+        <v>2621</v>
       </c>
       <c r="G1817" t="s">
-        <v>2620</v>
+        <v>2622</v>
       </c>
       <c r="H1817" t="s">
-        <v>1472</v>
+        <v>274</v>
       </c>
       <c r="I1817" t="s">
         <v>19</v>
@@ -77328,10 +77784,10 @@
         <v>1</v>
       </c>
       <c r="K1817">
-        <v>697400</v>
+        <v>582380</v>
       </c>
       <c r="L1817">
-        <v>697400</v>
+        <v>582380</v>
       </c>
     </row>
     <row r="1818" spans="1:12">
@@ -77348,16 +77804,16 @@
         <v>2479</v>
       </c>
       <c r="E1818" t="s">
-        <v>2621</v>
+        <v>2623</v>
       </c>
       <c r="F1818" t="s">
-        <v>2622</v>
+        <v>2624</v>
       </c>
       <c r="G1818" t="s">
-        <v>2623</v>
+        <v>2625</v>
       </c>
       <c r="H1818" t="s">
-        <v>1472</v>
+        <v>1017</v>
       </c>
       <c r="I1818" t="s">
         <v>19</v>
@@ -77366,10 +77822,10 @@
         <v>1</v>
       </c>
       <c r="K1818">
-        <v>433000</v>
+        <v>340000</v>
       </c>
       <c r="L1818">
-        <v>433000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="1819" spans="1:12">
@@ -77383,19 +77839,19 @@
         <v>13</v>
       </c>
       <c r="D1819" t="s">
-        <v>2624</v>
+        <v>2584</v>
       </c>
       <c r="E1819" t="s">
-        <v>2625</v>
+        <v>2626</v>
       </c>
       <c r="F1819" t="s">
-        <v>2626</v>
+        <v>2627</v>
       </c>
       <c r="G1819" t="s">
-        <v>2627</v>
+        <v>2628</v>
       </c>
       <c r="H1819" t="s">
-        <v>708</v>
+        <v>1522</v>
       </c>
       <c r="I1819" t="s">
         <v>19</v>
@@ -77404,10 +77860,10 @@
         <v>1</v>
       </c>
       <c r="K1819">
-        <v>2580000</v>
+        <v>170000</v>
       </c>
       <c r="L1819">
-        <v>2580000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="1820" spans="1:12">
@@ -77421,19 +77877,19 @@
         <v>13</v>
       </c>
       <c r="D1820" t="s">
-        <v>2624</v>
+        <v>2479</v>
       </c>
       <c r="E1820" t="s">
-        <v>2628</v>
+        <v>2629</v>
       </c>
       <c r="F1820" t="s">
-        <v>2629</v>
+        <v>2630</v>
       </c>
       <c r="G1820" t="s">
-        <v>2630</v>
+        <v>2631</v>
       </c>
       <c r="H1820" t="s">
-        <v>1754</v>
+        <v>1472</v>
       </c>
       <c r="I1820" t="s">
         <v>19</v>
@@ -77442,10 +77898,10 @@
         <v>1</v>
       </c>
       <c r="K1820">
-        <v>3000000</v>
+        <v>697400</v>
       </c>
       <c r="L1820">
-        <v>3000000</v>
+        <v>697400</v>
       </c>
     </row>
     <row r="1821" spans="1:12">
@@ -77459,19 +77915,19 @@
         <v>13</v>
       </c>
       <c r="D1821" t="s">
-        <v>2479</v>
+        <v>2584</v>
       </c>
       <c r="E1821" t="s">
-        <v>2631</v>
+        <v>2632</v>
       </c>
       <c r="F1821" t="s">
-        <v>2632</v>
+        <v>2633</v>
       </c>
       <c r="G1821" t="s">
-        <v>2334</v>
+        <v>2634</v>
       </c>
       <c r="H1821" t="s">
-        <v>255</v>
+        <v>1522</v>
       </c>
       <c r="I1821" t="s">
         <v>19</v>
@@ -77480,10 +77936,10 @@
         <v>1</v>
       </c>
       <c r="K1821">
-        <v>18920300</v>
+        <v>340000</v>
       </c>
       <c r="L1821">
-        <v>18920300</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="1822" spans="1:12">
@@ -77500,16 +77956,16 @@
         <v>2479</v>
       </c>
       <c r="E1822" t="s">
-        <v>2631</v>
+        <v>2635</v>
       </c>
       <c r="F1822" t="s">
-        <v>2632</v>
+        <v>2636</v>
       </c>
       <c r="G1822" t="s">
-        <v>2334</v>
+        <v>2637</v>
       </c>
       <c r="H1822" t="s">
-        <v>257</v>
+        <v>1472</v>
       </c>
       <c r="I1822" t="s">
         <v>19</v>
@@ -77518,10 +77974,10 @@
         <v>1</v>
       </c>
       <c r="K1822">
-        <v>2592447</v>
+        <v>433000</v>
       </c>
       <c r="L1822">
-        <v>2592447</v>
+        <v>433000</v>
       </c>
     </row>
     <row r="1823" spans="1:12">
@@ -77535,19 +77991,19 @@
         <v>13</v>
       </c>
       <c r="D1823" t="s">
-        <v>2479</v>
+        <v>2584</v>
       </c>
       <c r="E1823" t="s">
-        <v>2631</v>
+        <v>2638</v>
       </c>
       <c r="F1823" t="s">
-        <v>2632</v>
+        <v>2639</v>
       </c>
       <c r="G1823" t="s">
-        <v>2334</v>
+        <v>2640</v>
       </c>
       <c r="H1823" t="s">
-        <v>431</v>
+        <v>1522</v>
       </c>
       <c r="I1823" t="s">
         <v>19</v>
@@ -77556,10 +78012,10 @@
         <v>1</v>
       </c>
       <c r="K1823">
-        <v>5104000</v>
+        <v>170000</v>
       </c>
       <c r="L1823">
-        <v>5104000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="1824" spans="1:12">
@@ -77573,19 +78029,19 @@
         <v>13</v>
       </c>
       <c r="D1824" t="s">
-        <v>2479</v>
+        <v>2584</v>
       </c>
       <c r="E1824" t="s">
-        <v>2631</v>
+        <v>2641</v>
       </c>
       <c r="F1824" t="s">
-        <v>2632</v>
+        <v>2642</v>
       </c>
       <c r="G1824" t="s">
-        <v>2334</v>
+        <v>2643</v>
       </c>
       <c r="H1824" t="s">
-        <v>2633</v>
+        <v>1522</v>
       </c>
       <c r="I1824" t="s">
         <v>19</v>
@@ -77594,10 +78050,10 @@
         <v>1</v>
       </c>
       <c r="K1824">
-        <v>25600000</v>
+        <v>170000</v>
       </c>
       <c r="L1824">
-        <v>25600000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="1825" spans="1:12">
@@ -77611,19 +78067,19 @@
         <v>13</v>
       </c>
       <c r="D1825" t="s">
-        <v>2479</v>
+        <v>2584</v>
       </c>
       <c r="E1825" t="s">
-        <v>2631</v>
+        <v>2644</v>
       </c>
       <c r="F1825" t="s">
-        <v>2632</v>
+        <v>2645</v>
       </c>
       <c r="G1825" t="s">
-        <v>2334</v>
+        <v>2646</v>
       </c>
       <c r="H1825" t="s">
-        <v>2634</v>
+        <v>708</v>
       </c>
       <c r="I1825" t="s">
         <v>19</v>
@@ -77632,10 +78088,10 @@
         <v>1</v>
       </c>
       <c r="K1825">
-        <v>981000</v>
+        <v>2580000</v>
       </c>
       <c r="L1825">
-        <v>981000</v>
+        <v>2580000</v>
       </c>
     </row>
     <row r="1826" spans="1:12">
@@ -77649,19 +78105,19 @@
         <v>13</v>
       </c>
       <c r="D1826" t="s">
-        <v>2479</v>
+        <v>2584</v>
       </c>
       <c r="E1826" t="s">
-        <v>2631</v>
+        <v>2647</v>
       </c>
       <c r="F1826" t="s">
-        <v>2632</v>
+        <v>2648</v>
       </c>
       <c r="G1826" t="s">
-        <v>2334</v>
+        <v>2649</v>
       </c>
       <c r="H1826" t="s">
-        <v>1203</v>
+        <v>1754</v>
       </c>
       <c r="I1826" t="s">
         <v>19</v>
@@ -77670,10 +78126,10 @@
         <v>1</v>
       </c>
       <c r="K1826">
-        <v>147000</v>
+        <v>3000000</v>
       </c>
       <c r="L1826">
-        <v>147000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="1827" spans="1:12">
@@ -77690,16 +78146,16 @@
         <v>2479</v>
       </c>
       <c r="E1827" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1827" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1827" t="s">
         <v>2334</v>
       </c>
       <c r="H1827" t="s">
-        <v>756</v>
+        <v>255</v>
       </c>
       <c r="I1827" t="s">
         <v>19</v>
@@ -77708,10 +78164,10 @@
         <v>1</v>
       </c>
       <c r="K1827">
-        <v>298590</v>
+        <v>18920300</v>
       </c>
       <c r="L1827">
-        <v>298590</v>
+        <v>18920300</v>
       </c>
     </row>
     <row r="1828" spans="1:12">
@@ -77728,16 +78184,16 @@
         <v>2479</v>
       </c>
       <c r="E1828" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1828" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1828" t="s">
         <v>2334</v>
       </c>
       <c r="H1828" t="s">
-        <v>122</v>
+        <v>257</v>
       </c>
       <c r="I1828" t="s">
         <v>19</v>
@@ -77746,10 +78202,10 @@
         <v>1</v>
       </c>
       <c r="K1828">
-        <v>2584749</v>
+        <v>2592447</v>
       </c>
       <c r="L1828">
-        <v>2584749</v>
+        <v>2592447</v>
       </c>
     </row>
     <row r="1829" spans="1:12">
@@ -77766,16 +78222,16 @@
         <v>2479</v>
       </c>
       <c r="E1829" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1829" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1829" t="s">
         <v>2334</v>
       </c>
       <c r="H1829" t="s">
-        <v>2635</v>
+        <v>431</v>
       </c>
       <c r="I1829" t="s">
         <v>19</v>
@@ -77784,10 +78240,10 @@
         <v>1</v>
       </c>
       <c r="K1829">
-        <v>1498500</v>
+        <v>5104000</v>
       </c>
       <c r="L1829">
-        <v>1498500</v>
+        <v>5104000</v>
       </c>
     </row>
     <row r="1830" spans="1:12">
@@ -77804,16 +78260,16 @@
         <v>2479</v>
       </c>
       <c r="E1830" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1830" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1830" t="s">
         <v>2334</v>
       </c>
       <c r="H1830" t="s">
-        <v>2636</v>
+        <v>2652</v>
       </c>
       <c r="I1830" t="s">
         <v>19</v>
@@ -77822,10 +78278,10 @@
         <v>1</v>
       </c>
       <c r="K1830">
-        <v>2500000</v>
+        <v>25600000</v>
       </c>
       <c r="L1830">
-        <v>2500000</v>
+        <v>25600000</v>
       </c>
     </row>
     <row r="1831" spans="1:12">
@@ -77842,16 +78298,16 @@
         <v>2479</v>
       </c>
       <c r="E1831" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1831" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1831" t="s">
         <v>2334</v>
       </c>
       <c r="H1831" t="s">
-        <v>1730</v>
+        <v>2653</v>
       </c>
       <c r="I1831" t="s">
         <v>19</v>
@@ -77860,10 +78316,10 @@
         <v>1</v>
       </c>
       <c r="K1831">
-        <v>1000000</v>
+        <v>981000</v>
       </c>
       <c r="L1831">
-        <v>1000000</v>
+        <v>981000</v>
       </c>
     </row>
     <row r="1832" spans="1:12">
@@ -77880,16 +78336,16 @@
         <v>2479</v>
       </c>
       <c r="E1832" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1832" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1832" t="s">
         <v>2334</v>
       </c>
       <c r="H1832" t="s">
-        <v>2637</v>
+        <v>1203</v>
       </c>
       <c r="I1832" t="s">
         <v>19</v>
@@ -77898,10 +78354,10 @@
         <v>1</v>
       </c>
       <c r="K1832">
-        <v>3000000</v>
+        <v>147000</v>
       </c>
       <c r="L1832">
-        <v>3000000</v>
+        <v>147000</v>
       </c>
     </row>
     <row r="1833" spans="1:12">
@@ -77918,16 +78374,16 @@
         <v>2479</v>
       </c>
       <c r="E1833" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1833" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1833" t="s">
         <v>2334</v>
       </c>
       <c r="H1833" t="s">
-        <v>269</v>
+        <v>756</v>
       </c>
       <c r="I1833" t="s">
         <v>19</v>
@@ -77936,10 +78392,10 @@
         <v>1</v>
       </c>
       <c r="K1833">
-        <v>2854103</v>
+        <v>298590</v>
       </c>
       <c r="L1833">
-        <v>2854103</v>
+        <v>298590</v>
       </c>
     </row>
     <row r="1834" spans="1:12">
@@ -77956,16 +78412,16 @@
         <v>2479</v>
       </c>
       <c r="E1834" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1834" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1834" t="s">
         <v>2334</v>
       </c>
       <c r="H1834" t="s">
-        <v>1661</v>
+        <v>122</v>
       </c>
       <c r="I1834" t="s">
         <v>19</v>
@@ -77974,10 +78430,10 @@
         <v>1</v>
       </c>
       <c r="K1834">
-        <v>2850000</v>
+        <v>2584749</v>
       </c>
       <c r="L1834">
-        <v>2850000</v>
+        <v>2584749</v>
       </c>
     </row>
     <row r="1835" spans="1:12">
@@ -77994,16 +78450,16 @@
         <v>2479</v>
       </c>
       <c r="E1835" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1835" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1835" t="s">
         <v>2334</v>
       </c>
       <c r="H1835" t="s">
-        <v>270</v>
+        <v>2654</v>
       </c>
       <c r="I1835" t="s">
         <v>19</v>
@@ -78012,10 +78468,10 @@
         <v>1</v>
       </c>
       <c r="K1835">
-        <v>100000</v>
+        <v>1498500</v>
       </c>
       <c r="L1835">
-        <v>100000</v>
+        <v>1498500</v>
       </c>
     </row>
     <row r="1836" spans="1:12">
@@ -78032,16 +78488,16 @@
         <v>2479</v>
       </c>
       <c r="E1836" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1836" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1836" t="s">
         <v>2334</v>
       </c>
       <c r="H1836" t="s">
-        <v>639</v>
+        <v>2655</v>
       </c>
       <c r="I1836" t="s">
         <v>19</v>
@@ -78050,10 +78506,10 @@
         <v>1</v>
       </c>
       <c r="K1836">
-        <v>124000</v>
+        <v>2500000</v>
       </c>
       <c r="L1836">
-        <v>124000</v>
+        <v>2500000</v>
       </c>
     </row>
     <row r="1837" spans="1:12">
@@ -78070,16 +78526,16 @@
         <v>2479</v>
       </c>
       <c r="E1837" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1837" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1837" t="s">
         <v>2334</v>
       </c>
       <c r="H1837" t="s">
-        <v>131</v>
+        <v>1730</v>
       </c>
       <c r="I1837" t="s">
         <v>19</v>
@@ -78088,10 +78544,10 @@
         <v>1</v>
       </c>
       <c r="K1837">
-        <v>286000</v>
+        <v>1000000</v>
       </c>
       <c r="L1837">
-        <v>286000</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="1838" spans="1:12">
@@ -78108,16 +78564,16 @@
         <v>2479</v>
       </c>
       <c r="E1838" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1838" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1838" t="s">
         <v>2334</v>
       </c>
       <c r="H1838" t="s">
-        <v>737</v>
+        <v>2656</v>
       </c>
       <c r="I1838" t="s">
         <v>19</v>
@@ -78126,10 +78582,10 @@
         <v>1</v>
       </c>
       <c r="K1838">
-        <v>1020000</v>
+        <v>3000000</v>
       </c>
       <c r="L1838">
-        <v>1020000</v>
+        <v>3000000</v>
       </c>
     </row>
     <row r="1839" spans="1:12">
@@ -78146,16 +78602,16 @@
         <v>2479</v>
       </c>
       <c r="E1839" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1839" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1839" t="s">
         <v>2334</v>
       </c>
       <c r="H1839" t="s">
-        <v>1770</v>
+        <v>269</v>
       </c>
       <c r="I1839" t="s">
         <v>19</v>
@@ -78164,10 +78620,10 @@
         <v>1</v>
       </c>
       <c r="K1839">
-        <v>9487710</v>
+        <v>2854103</v>
       </c>
       <c r="L1839">
-        <v>9487710</v>
+        <v>2854103</v>
       </c>
     </row>
     <row r="1840" spans="1:12">
@@ -78184,16 +78640,16 @@
         <v>2479</v>
       </c>
       <c r="E1840" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1840" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1840" t="s">
         <v>2334</v>
       </c>
       <c r="H1840" t="s">
-        <v>2638</v>
+        <v>1661</v>
       </c>
       <c r="I1840" t="s">
         <v>19</v>
@@ -78202,10 +78658,10 @@
         <v>1</v>
       </c>
       <c r="K1840">
-        <v>2700000</v>
+        <v>2850000</v>
       </c>
       <c r="L1840">
-        <v>2700000</v>
+        <v>2850000</v>
       </c>
     </row>
     <row r="1841" spans="1:12">
@@ -78222,16 +78678,16 @@
         <v>2479</v>
       </c>
       <c r="E1841" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1841" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1841" t="s">
         <v>2334</v>
       </c>
       <c r="H1841" t="s">
-        <v>666</v>
+        <v>270</v>
       </c>
       <c r="I1841" t="s">
         <v>19</v>
@@ -78240,10 +78696,10 @@
         <v>1</v>
       </c>
       <c r="K1841">
-        <v>1554000</v>
+        <v>100000</v>
       </c>
       <c r="L1841">
-        <v>1554000</v>
+        <v>100000</v>
       </c>
     </row>
     <row r="1842" spans="1:12">
@@ -78260,16 +78716,16 @@
         <v>2479</v>
       </c>
       <c r="E1842" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1842" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1842" t="s">
         <v>2334</v>
       </c>
       <c r="H1842" t="s">
-        <v>669</v>
+        <v>639</v>
       </c>
       <c r="I1842" t="s">
         <v>19</v>
@@ -78278,10 +78734,10 @@
         <v>1</v>
       </c>
       <c r="K1842">
-        <v>2010000</v>
+        <v>124000</v>
       </c>
       <c r="L1842">
-        <v>2010000</v>
+        <v>124000</v>
       </c>
     </row>
     <row r="1843" spans="1:12">
@@ -78298,16 +78754,16 @@
         <v>2479</v>
       </c>
       <c r="E1843" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1843" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1843" t="s">
         <v>2334</v>
       </c>
       <c r="H1843" t="s">
-        <v>183</v>
+        <v>131</v>
       </c>
       <c r="I1843" t="s">
         <v>19</v>
@@ -78316,10 +78772,10 @@
         <v>1</v>
       </c>
       <c r="K1843">
-        <v>1131820</v>
+        <v>286000</v>
       </c>
       <c r="L1843">
-        <v>1131820</v>
+        <v>286000</v>
       </c>
     </row>
     <row r="1844" spans="1:12">
@@ -78336,16 +78792,16 @@
         <v>2479</v>
       </c>
       <c r="E1844" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1844" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1844" t="s">
         <v>2334</v>
       </c>
       <c r="H1844" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I1844" t="s">
         <v>19</v>
@@ -78354,10 +78810,10 @@
         <v>1</v>
       </c>
       <c r="K1844">
-        <v>2380000</v>
+        <v>1020000</v>
       </c>
       <c r="L1844">
-        <v>2380000</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="1845" spans="1:12">
@@ -78374,16 +78830,16 @@
         <v>2479</v>
       </c>
       <c r="E1845" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1845" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1845" t="s">
         <v>2334</v>
       </c>
       <c r="H1845" t="s">
-        <v>2078</v>
+        <v>1770</v>
       </c>
       <c r="I1845" t="s">
         <v>19</v>
@@ -78392,10 +78848,10 @@
         <v>1</v>
       </c>
       <c r="K1845">
-        <v>1530000</v>
+        <v>9487710</v>
       </c>
       <c r="L1845">
-        <v>1530000</v>
+        <v>9487710</v>
       </c>
     </row>
     <row r="1846" spans="1:12">
@@ -78412,16 +78868,16 @@
         <v>2479</v>
       </c>
       <c r="E1846" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1846" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1846" t="s">
         <v>2334</v>
       </c>
       <c r="H1846" t="s">
-        <v>2336</v>
+        <v>2657</v>
       </c>
       <c r="I1846" t="s">
         <v>19</v>
@@ -78430,10 +78886,10 @@
         <v>1</v>
       </c>
       <c r="K1846">
-        <v>510000</v>
+        <v>2700000</v>
       </c>
       <c r="L1846">
-        <v>510000</v>
+        <v>2700000</v>
       </c>
     </row>
     <row r="1847" spans="1:12">
@@ -78450,16 +78906,16 @@
         <v>2479</v>
       </c>
       <c r="E1847" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1847" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1847" t="s">
         <v>2334</v>
       </c>
       <c r="H1847" t="s">
-        <v>1207</v>
+        <v>666</v>
       </c>
       <c r="I1847" t="s">
         <v>19</v>
@@ -78468,10 +78924,10 @@
         <v>1</v>
       </c>
       <c r="K1847">
-        <v>340000</v>
+        <v>1554000</v>
       </c>
       <c r="L1847">
-        <v>340000</v>
+        <v>1554000</v>
       </c>
     </row>
     <row r="1848" spans="1:12">
@@ -78488,16 +78944,16 @@
         <v>2479</v>
       </c>
       <c r="E1848" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1848" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1848" t="s">
         <v>2334</v>
       </c>
       <c r="H1848" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I1848" t="s">
         <v>19</v>
@@ -78506,10 +78962,10 @@
         <v>1</v>
       </c>
       <c r="K1848">
-        <v>680000</v>
+        <v>2010000</v>
       </c>
       <c r="L1848">
-        <v>680000</v>
+        <v>2010000</v>
       </c>
     </row>
     <row r="1849" spans="1:12">
@@ -78526,16 +78982,16 @@
         <v>2479</v>
       </c>
       <c r="E1849" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1849" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1849" t="s">
         <v>2334</v>
       </c>
       <c r="H1849" t="s">
-        <v>740</v>
+        <v>183</v>
       </c>
       <c r="I1849" t="s">
         <v>19</v>
@@ -78544,10 +79000,10 @@
         <v>1</v>
       </c>
       <c r="K1849">
-        <v>510000</v>
+        <v>1131820</v>
       </c>
       <c r="L1849">
-        <v>510000</v>
+        <v>1131820</v>
       </c>
     </row>
     <row r="1850" spans="1:12">
@@ -78564,16 +79020,16 @@
         <v>2479</v>
       </c>
       <c r="E1850" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1850" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1850" t="s">
         <v>2334</v>
       </c>
       <c r="H1850" t="s">
-        <v>2639</v>
+        <v>738</v>
       </c>
       <c r="I1850" t="s">
         <v>19</v>
@@ -78602,16 +79058,16 @@
         <v>2479</v>
       </c>
       <c r="E1851" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1851" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1851" t="s">
         <v>2334</v>
       </c>
       <c r="H1851" t="s">
-        <v>110</v>
+        <v>2078</v>
       </c>
       <c r="I1851" t="s">
         <v>19</v>
@@ -78620,10 +79076,10 @@
         <v>1</v>
       </c>
       <c r="K1851">
-        <v>680000</v>
+        <v>1530000</v>
       </c>
       <c r="L1851">
-        <v>680000</v>
+        <v>1530000</v>
       </c>
     </row>
     <row r="1852" spans="1:12">
@@ -78640,16 +79096,16 @@
         <v>2479</v>
       </c>
       <c r="E1852" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1852" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1852" t="s">
         <v>2334</v>
       </c>
       <c r="H1852" t="s">
-        <v>2640</v>
+        <v>2336</v>
       </c>
       <c r="I1852" t="s">
         <v>19</v>
@@ -78678,16 +79134,16 @@
         <v>2479</v>
       </c>
       <c r="E1853" t="s">
-        <v>2631</v>
+        <v>2650</v>
       </c>
       <c r="F1853" t="s">
-        <v>2632</v>
+        <v>2651</v>
       </c>
       <c r="G1853" t="s">
         <v>2334</v>
       </c>
       <c r="H1853" t="s">
-        <v>778</v>
+        <v>1207</v>
       </c>
       <c r="I1853" t="s">
         <v>19</v>
@@ -78696,10 +79152,10 @@
         <v>1</v>
       </c>
       <c r="K1853">
-        <v>1190000</v>
+        <v>340000</v>
       </c>
       <c r="L1853">
-        <v>1190000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="1854" spans="1:12">
@@ -78716,16 +79172,16 @@
         <v>2479</v>
       </c>
       <c r="E1854" t="s">
-        <v>2641</v>
+        <v>2650</v>
       </c>
       <c r="F1854" t="s">
-        <v>2642</v>
+        <v>2651</v>
       </c>
       <c r="G1854" t="s">
-        <v>2643</v>
+        <v>2334</v>
       </c>
       <c r="H1854" t="s">
-        <v>128</v>
+        <v>671</v>
       </c>
       <c r="I1854" t="s">
         <v>19</v>
@@ -78734,10 +79190,10 @@
         <v>1</v>
       </c>
       <c r="K1854">
-        <v>2744000</v>
+        <v>680000</v>
       </c>
       <c r="L1854">
-        <v>2744000</v>
+        <v>680000</v>
       </c>
     </row>
     <row r="1855" spans="1:12">
@@ -78751,19 +79207,19 @@
         <v>13</v>
       </c>
       <c r="D1855" t="s">
-        <v>2624</v>
+        <v>2479</v>
       </c>
       <c r="E1855" t="s">
-        <v>2644</v>
+        <v>2650</v>
       </c>
       <c r="F1855" t="s">
-        <v>2645</v>
+        <v>2651</v>
       </c>
       <c r="G1855" t="s">
-        <v>2646</v>
+        <v>2334</v>
       </c>
       <c r="H1855" t="s">
-        <v>128</v>
+        <v>740</v>
       </c>
       <c r="I1855" t="s">
         <v>19</v>
@@ -78772,10 +79228,10 @@
         <v>1</v>
       </c>
       <c r="K1855">
-        <v>4948288</v>
+        <v>510000</v>
       </c>
       <c r="L1855">
-        <v>4948288</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="1856" spans="1:12">
@@ -78789,19 +79245,19 @@
         <v>13</v>
       </c>
       <c r="D1856" t="s">
-        <v>2624</v>
+        <v>2479</v>
       </c>
       <c r="E1856" t="s">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="F1856" t="s">
-        <v>2648</v>
+        <v>2651</v>
       </c>
       <c r="G1856" t="s">
-        <v>2649</v>
+        <v>2334</v>
       </c>
       <c r="H1856" t="s">
-        <v>671</v>
+        <v>2658</v>
       </c>
       <c r="I1856" t="s">
         <v>19</v>
@@ -78810,10 +79266,10 @@
         <v>1</v>
       </c>
       <c r="K1856">
-        <v>520000</v>
+        <v>2380000</v>
       </c>
       <c r="L1856">
-        <v>520000</v>
+        <v>2380000</v>
       </c>
     </row>
     <row r="1857" spans="1:12">
@@ -78827,19 +79283,19 @@
         <v>13</v>
       </c>
       <c r="D1857" t="s">
-        <v>2624</v>
+        <v>2479</v>
       </c>
       <c r="E1857" t="s">
-        <v>2647</v>
+        <v>2650</v>
       </c>
       <c r="F1857" t="s">
-        <v>2648</v>
+        <v>2651</v>
       </c>
       <c r="G1857" t="s">
-        <v>2649</v>
+        <v>2334</v>
       </c>
       <c r="H1857" t="s">
-        <v>291</v>
+        <v>110</v>
       </c>
       <c r="I1857" t="s">
         <v>19</v>
@@ -78865,7 +79321,7 @@
         <v>13</v>
       </c>
       <c r="D1858" t="s">
-        <v>2624</v>
+        <v>2479</v>
       </c>
       <c r="E1858" t="s">
         <v>2650</v>
@@ -78874,10 +79330,10 @@
         <v>2651</v>
       </c>
       <c r="G1858" t="s">
-        <v>2652</v>
+        <v>2334</v>
       </c>
       <c r="H1858" t="s">
-        <v>1207</v>
+        <v>2659</v>
       </c>
       <c r="I1858" t="s">
         <v>19</v>
@@ -78903,19 +79359,19 @@
         <v>13</v>
       </c>
       <c r="D1859" t="s">
-        <v>2624</v>
+        <v>2479</v>
       </c>
       <c r="E1859" t="s">
-        <v>2653</v>
+        <v>2650</v>
       </c>
       <c r="F1859" t="s">
-        <v>2654</v>
+        <v>2651</v>
       </c>
       <c r="G1859" t="s">
-        <v>2655</v>
+        <v>2334</v>
       </c>
       <c r="H1859" t="s">
-        <v>148</v>
+        <v>778</v>
       </c>
       <c r="I1859" t="s">
         <v>19</v>
@@ -78924,10 +79380,10 @@
         <v>1</v>
       </c>
       <c r="K1859">
-        <v>1677500</v>
+        <v>1190000</v>
       </c>
       <c r="L1859">
-        <v>1677500</v>
+        <v>1190000</v>
       </c>
     </row>
     <row r="1860" spans="1:12">
@@ -78941,19 +79397,19 @@
         <v>13</v>
       </c>
       <c r="D1860" t="s">
-        <v>2624</v>
+        <v>2479</v>
       </c>
       <c r="E1860" t="s">
-        <v>2656</v>
+        <v>2660</v>
       </c>
       <c r="F1860" t="s">
-        <v>2657</v>
+        <v>2661</v>
       </c>
       <c r="G1860" t="s">
-        <v>2658</v>
+        <v>2662</v>
       </c>
       <c r="H1860" t="s">
-        <v>148</v>
+        <v>128</v>
       </c>
       <c r="I1860" t="s">
         <v>19</v>
@@ -78962,10 +79418,10 @@
         <v>1</v>
       </c>
       <c r="K1860">
-        <v>721500</v>
+        <v>2744000</v>
       </c>
       <c r="L1860">
-        <v>721500</v>
+        <v>2744000</v>
       </c>
     </row>
     <row r="1861" spans="1:12">
@@ -78979,19 +79435,19 @@
         <v>13</v>
       </c>
       <c r="D1861" t="s">
-        <v>2624</v>
+        <v>2584</v>
       </c>
       <c r="E1861" t="s">
-        <v>2659</v>
+        <v>2663</v>
       </c>
       <c r="F1861" t="s">
-        <v>2660</v>
+        <v>2664</v>
       </c>
       <c r="G1861" t="s">
-        <v>2661</v>
+        <v>2665</v>
       </c>
       <c r="H1861" t="s">
-        <v>2662</v>
+        <v>128</v>
       </c>
       <c r="I1861" t="s">
         <v>19</v>
@@ -79000,10 +79456,10 @@
         <v>1</v>
       </c>
       <c r="K1861">
-        <v>1461500</v>
+        <v>4948288</v>
       </c>
       <c r="L1861">
-        <v>1461500</v>
+        <v>4948288</v>
       </c>
     </row>
     <row r="1862" spans="1:12">
@@ -79017,19 +79473,19 @@
         <v>13</v>
       </c>
       <c r="D1862" t="s">
-        <v>2624</v>
+        <v>2584</v>
       </c>
       <c r="E1862" t="s">
-        <v>2659</v>
+        <v>2666</v>
       </c>
       <c r="F1862" t="s">
-        <v>2660</v>
+        <v>2667</v>
       </c>
       <c r="G1862" t="s">
-        <v>2661</v>
+        <v>2668</v>
       </c>
       <c r="H1862" t="s">
-        <v>2663</v>
+        <v>671</v>
       </c>
       <c r="I1862" t="s">
         <v>19</v>
@@ -79038,10 +79494,3202 @@
         <v>1</v>
       </c>
       <c r="K1862">
+        <v>520000</v>
+      </c>
+      <c r="L1862">
+        <v>520000</v>
+      </c>
+    </row>
+    <row r="1863" spans="1:12">
+      <c r="A1863">
+        <v>1860</v>
+      </c>
+      <c r="B1863">
+        <v>626402</v>
+      </c>
+      <c r="C1863" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1863" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1863" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F1863" t="s">
+        <v>2667</v>
+      </c>
+      <c r="G1863" t="s">
+        <v>2668</v>
+      </c>
+      <c r="H1863" t="s">
+        <v>291</v>
+      </c>
+      <c r="I1863" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1863">
+        <v>1</v>
+      </c>
+      <c r="K1863">
+        <v>680000</v>
+      </c>
+      <c r="L1863">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="1864" spans="1:12">
+      <c r="A1864">
+        <v>1861</v>
+      </c>
+      <c r="B1864">
+        <v>626402</v>
+      </c>
+      <c r="C1864" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1864" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1864" t="s">
+        <v>2669</v>
+      </c>
+      <c r="F1864" t="s">
+        <v>2670</v>
+      </c>
+      <c r="G1864" t="s">
+        <v>2671</v>
+      </c>
+      <c r="H1864" t="s">
+        <v>1207</v>
+      </c>
+      <c r="I1864" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1864">
+        <v>1</v>
+      </c>
+      <c r="K1864">
+        <v>510000</v>
+      </c>
+      <c r="L1864">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1865" spans="1:12">
+      <c r="A1865">
+        <v>1862</v>
+      </c>
+      <c r="B1865">
+        <v>626402</v>
+      </c>
+      <c r="C1865" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1865" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1865" t="s">
+        <v>2672</v>
+      </c>
+      <c r="F1865" t="s">
+        <v>2673</v>
+      </c>
+      <c r="G1865" t="s">
+        <v>2674</v>
+      </c>
+      <c r="H1865" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1865" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1865">
+        <v>1</v>
+      </c>
+      <c r="K1865">
+        <v>1677500</v>
+      </c>
+      <c r="L1865">
+        <v>1677500</v>
+      </c>
+    </row>
+    <row r="1866" spans="1:12">
+      <c r="A1866">
+        <v>1863</v>
+      </c>
+      <c r="B1866">
+        <v>626402</v>
+      </c>
+      <c r="C1866" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1866" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1866" t="s">
+        <v>2675</v>
+      </c>
+      <c r="F1866" t="s">
+        <v>2676</v>
+      </c>
+      <c r="G1866" t="s">
+        <v>2677</v>
+      </c>
+      <c r="H1866" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1866" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1866">
+        <v>1</v>
+      </c>
+      <c r="K1866">
+        <v>721500</v>
+      </c>
+      <c r="L1866">
+        <v>721500</v>
+      </c>
+    </row>
+    <row r="1867" spans="1:12">
+      <c r="A1867">
+        <v>1864</v>
+      </c>
+      <c r="B1867">
+        <v>626402</v>
+      </c>
+      <c r="C1867" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1867" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1867" t="s">
+        <v>2678</v>
+      </c>
+      <c r="F1867" t="s">
+        <v>2679</v>
+      </c>
+      <c r="G1867" t="s">
+        <v>2680</v>
+      </c>
+      <c r="H1867" t="s">
+        <v>2681</v>
+      </c>
+      <c r="I1867" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1867">
+        <v>1</v>
+      </c>
+      <c r="K1867">
+        <v>1461500</v>
+      </c>
+      <c r="L1867">
+        <v>1461500</v>
+      </c>
+    </row>
+    <row r="1868" spans="1:12">
+      <c r="A1868">
+        <v>1865</v>
+      </c>
+      <c r="B1868">
+        <v>626402</v>
+      </c>
+      <c r="C1868" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1868" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1868" t="s">
+        <v>2678</v>
+      </c>
+      <c r="F1868" t="s">
+        <v>2679</v>
+      </c>
+      <c r="G1868" t="s">
+        <v>2680</v>
+      </c>
+      <c r="H1868" t="s">
+        <v>2682</v>
+      </c>
+      <c r="I1868" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1868">
+        <v>1</v>
+      </c>
+      <c r="K1868">
         <v>3330000</v>
       </c>
-      <c r="L1862">
+      <c r="L1868">
         <v>3330000</v>
+      </c>
+    </row>
+    <row r="1869" spans="1:12">
+      <c r="A1869">
+        <v>1866</v>
+      </c>
+      <c r="B1869">
+        <v>626402</v>
+      </c>
+      <c r="C1869" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1869" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1869" t="s">
+        <v>2684</v>
+      </c>
+      <c r="F1869" t="s">
+        <v>2685</v>
+      </c>
+      <c r="G1869" t="s">
+        <v>2686</v>
+      </c>
+      <c r="H1869" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1869" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1869">
+        <v>1</v>
+      </c>
+      <c r="K1869">
+        <v>250000</v>
+      </c>
+      <c r="L1869">
+        <v>250000</v>
+      </c>
+    </row>
+    <row r="1870" spans="1:12">
+      <c r="A1870">
+        <v>1867</v>
+      </c>
+      <c r="B1870">
+        <v>626402</v>
+      </c>
+      <c r="C1870" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1870" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1870" t="s">
+        <v>2687</v>
+      </c>
+      <c r="F1870" t="s">
+        <v>2688</v>
+      </c>
+      <c r="G1870" t="s">
+        <v>2689</v>
+      </c>
+      <c r="H1870" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I1870" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1870">
+        <v>1</v>
+      </c>
+      <c r="K1870">
+        <v>1020000</v>
+      </c>
+      <c r="L1870">
+        <v>1020000</v>
+      </c>
+    </row>
+    <row r="1871" spans="1:12">
+      <c r="A1871">
+        <v>1868</v>
+      </c>
+      <c r="B1871">
+        <v>626402</v>
+      </c>
+      <c r="C1871" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1871" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1871" t="s">
+        <v>2690</v>
+      </c>
+      <c r="F1871" t="s">
+        <v>2691</v>
+      </c>
+      <c r="G1871" t="s">
+        <v>2692</v>
+      </c>
+      <c r="H1871" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1871" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1871">
+        <v>1</v>
+      </c>
+      <c r="K1871">
+        <v>340000</v>
+      </c>
+      <c r="L1871">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="1872" spans="1:12">
+      <c r="A1872">
+        <v>1869</v>
+      </c>
+      <c r="B1872">
+        <v>626402</v>
+      </c>
+      <c r="C1872" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1872" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1872" t="s">
+        <v>2693</v>
+      </c>
+      <c r="F1872" t="s">
+        <v>2694</v>
+      </c>
+      <c r="G1872" t="s">
+        <v>2695</v>
+      </c>
+      <c r="H1872" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1872" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1872">
+        <v>1</v>
+      </c>
+      <c r="K1872">
+        <v>170000</v>
+      </c>
+      <c r="L1872">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="1873" spans="1:12">
+      <c r="A1873">
+        <v>1870</v>
+      </c>
+      <c r="B1873">
+        <v>626402</v>
+      </c>
+      <c r="C1873" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1873" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1873" t="s">
+        <v>2693</v>
+      </c>
+      <c r="F1873" t="s">
+        <v>2694</v>
+      </c>
+      <c r="G1873" t="s">
+        <v>2695</v>
+      </c>
+      <c r="H1873" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1873" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1873">
+        <v>1</v>
+      </c>
+      <c r="K1873">
+        <v>210000</v>
+      </c>
+      <c r="L1873">
+        <v>210000</v>
+      </c>
+    </row>
+    <row r="1874" spans="1:12">
+      <c r="A1874">
+        <v>1871</v>
+      </c>
+      <c r="B1874">
+        <v>626402</v>
+      </c>
+      <c r="C1874" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1874" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1874" t="s">
+        <v>2696</v>
+      </c>
+      <c r="F1874" t="s">
+        <v>2697</v>
+      </c>
+      <c r="G1874" t="s">
+        <v>2698</v>
+      </c>
+      <c r="H1874" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1874" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1874">
+        <v>1</v>
+      </c>
+      <c r="K1874">
+        <v>340000</v>
+      </c>
+      <c r="L1874">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="1875" spans="1:12">
+      <c r="A1875">
+        <v>1872</v>
+      </c>
+      <c r="B1875">
+        <v>626402</v>
+      </c>
+      <c r="C1875" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1875" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1875" t="s">
+        <v>2696</v>
+      </c>
+      <c r="F1875" t="s">
+        <v>2697</v>
+      </c>
+      <c r="G1875" t="s">
+        <v>2698</v>
+      </c>
+      <c r="H1875" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1875" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1875">
+        <v>1</v>
+      </c>
+      <c r="K1875">
+        <v>420000</v>
+      </c>
+      <c r="L1875">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="1876" spans="1:12">
+      <c r="A1876">
+        <v>1873</v>
+      </c>
+      <c r="B1876">
+        <v>626402</v>
+      </c>
+      <c r="C1876" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1876" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1876" t="s">
+        <v>2699</v>
+      </c>
+      <c r="F1876" t="s">
+        <v>2700</v>
+      </c>
+      <c r="G1876" t="s">
+        <v>2701</v>
+      </c>
+      <c r="H1876" t="s">
+        <v>895</v>
+      </c>
+      <c r="I1876" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1876">
+        <v>1</v>
+      </c>
+      <c r="K1876">
+        <v>10700000</v>
+      </c>
+      <c r="L1876">
+        <v>10700000</v>
+      </c>
+    </row>
+    <row r="1877" spans="1:12">
+      <c r="A1877">
+        <v>1874</v>
+      </c>
+      <c r="B1877">
+        <v>626402</v>
+      </c>
+      <c r="C1877" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1877" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1877" t="s">
+        <v>2702</v>
+      </c>
+      <c r="F1877" t="s">
+        <v>2703</v>
+      </c>
+      <c r="G1877" t="s">
+        <v>2704</v>
+      </c>
+      <c r="H1877" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1877" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1877">
+        <v>1</v>
+      </c>
+      <c r="K1877">
+        <v>2642000</v>
+      </c>
+      <c r="L1877">
+        <v>2642000</v>
+      </c>
+    </row>
+    <row r="1878" spans="1:12">
+      <c r="A1878">
+        <v>1875</v>
+      </c>
+      <c r="B1878">
+        <v>626402</v>
+      </c>
+      <c r="C1878" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1878" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1878" t="s">
+        <v>2705</v>
+      </c>
+      <c r="F1878" t="s">
+        <v>2706</v>
+      </c>
+      <c r="G1878" t="s">
+        <v>2707</v>
+      </c>
+      <c r="H1878" t="s">
+        <v>2708</v>
+      </c>
+      <c r="I1878" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1878">
+        <v>1</v>
+      </c>
+      <c r="K1878">
+        <v>700000</v>
+      </c>
+      <c r="L1878">
+        <v>700000</v>
+      </c>
+    </row>
+    <row r="1879" spans="1:12">
+      <c r="A1879">
+        <v>1876</v>
+      </c>
+      <c r="B1879">
+        <v>626402</v>
+      </c>
+      <c r="C1879" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1879" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1879" t="s">
+        <v>2705</v>
+      </c>
+      <c r="F1879" t="s">
+        <v>2706</v>
+      </c>
+      <c r="G1879" t="s">
+        <v>2707</v>
+      </c>
+      <c r="H1879" t="s">
+        <v>2709</v>
+      </c>
+      <c r="I1879" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1879">
+        <v>1</v>
+      </c>
+      <c r="K1879">
+        <v>2528000</v>
+      </c>
+      <c r="L1879">
+        <v>2528000</v>
+      </c>
+    </row>
+    <row r="1880" spans="1:12">
+      <c r="A1880">
+        <v>1877</v>
+      </c>
+      <c r="B1880">
+        <v>626402</v>
+      </c>
+      <c r="C1880" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1880" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1880" t="s">
+        <v>2705</v>
+      </c>
+      <c r="F1880" t="s">
+        <v>2706</v>
+      </c>
+      <c r="G1880" t="s">
+        <v>2707</v>
+      </c>
+      <c r="H1880" t="s">
+        <v>2710</v>
+      </c>
+      <c r="I1880" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1880">
+        <v>1</v>
+      </c>
+      <c r="K1880">
+        <v>1520000</v>
+      </c>
+      <c r="L1880">
+        <v>1520000</v>
+      </c>
+    </row>
+    <row r="1881" spans="1:12">
+      <c r="A1881">
+        <v>1878</v>
+      </c>
+      <c r="B1881">
+        <v>626402</v>
+      </c>
+      <c r="C1881" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1881" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1881" t="s">
+        <v>2705</v>
+      </c>
+      <c r="F1881" t="s">
+        <v>2706</v>
+      </c>
+      <c r="G1881" t="s">
+        <v>2707</v>
+      </c>
+      <c r="H1881" t="s">
+        <v>2711</v>
+      </c>
+      <c r="I1881" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1881">
+        <v>1</v>
+      </c>
+      <c r="K1881">
+        <v>500500</v>
+      </c>
+      <c r="L1881">
+        <v>500500</v>
+      </c>
+    </row>
+    <row r="1882" spans="1:12">
+      <c r="A1882">
+        <v>1879</v>
+      </c>
+      <c r="B1882">
+        <v>626402</v>
+      </c>
+      <c r="C1882" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1882" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1882" t="s">
+        <v>2712</v>
+      </c>
+      <c r="F1882" t="s">
+        <v>2713</v>
+      </c>
+      <c r="G1882" t="s">
+        <v>2714</v>
+      </c>
+      <c r="H1882" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I1882" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1882">
+        <v>1</v>
+      </c>
+      <c r="K1882">
+        <v>1290000</v>
+      </c>
+      <c r="L1882">
+        <v>1290000</v>
+      </c>
+    </row>
+    <row r="1883" spans="1:12">
+      <c r="A1883">
+        <v>1880</v>
+      </c>
+      <c r="B1883">
+        <v>626402</v>
+      </c>
+      <c r="C1883" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1883" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1883" t="s">
+        <v>2715</v>
+      </c>
+      <c r="F1883" t="s">
+        <v>2716</v>
+      </c>
+      <c r="G1883" t="s">
+        <v>2717</v>
+      </c>
+      <c r="H1883" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I1883" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1883">
+        <v>1</v>
+      </c>
+      <c r="K1883">
+        <v>2187100</v>
+      </c>
+      <c r="L1883">
+        <v>2187100</v>
+      </c>
+    </row>
+    <row r="1884" spans="1:12">
+      <c r="A1884">
+        <v>1881</v>
+      </c>
+      <c r="B1884">
+        <v>626402</v>
+      </c>
+      <c r="C1884" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1884" t="s">
+        <v>2479</v>
+      </c>
+      <c r="E1884" t="s">
+        <v>2718</v>
+      </c>
+      <c r="F1884" t="s">
+        <v>2719</v>
+      </c>
+      <c r="G1884" t="s">
+        <v>2720</v>
+      </c>
+      <c r="H1884" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1884" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1884">
+        <v>1</v>
+      </c>
+      <c r="K1884">
+        <v>18058000</v>
+      </c>
+      <c r="L1884">
+        <v>18058000</v>
+      </c>
+    </row>
+    <row r="1885" spans="1:12">
+      <c r="A1885">
+        <v>1882</v>
+      </c>
+      <c r="B1885">
+        <v>626402</v>
+      </c>
+      <c r="C1885" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1885" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1885" t="s">
+        <v>2721</v>
+      </c>
+      <c r="F1885" t="s">
+        <v>2722</v>
+      </c>
+      <c r="G1885" t="s">
+        <v>2723</v>
+      </c>
+      <c r="H1885" t="s">
+        <v>545</v>
+      </c>
+      <c r="I1885" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1885">
+        <v>1</v>
+      </c>
+      <c r="K1885">
+        <v>1000000</v>
+      </c>
+      <c r="L1885">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="1886" spans="1:12">
+      <c r="A1886">
+        <v>1883</v>
+      </c>
+      <c r="B1886">
+        <v>626402</v>
+      </c>
+      <c r="C1886" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1886" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1886" t="s">
+        <v>2724</v>
+      </c>
+      <c r="F1886" t="s">
+        <v>2725</v>
+      </c>
+      <c r="G1886" t="s">
+        <v>2726</v>
+      </c>
+      <c r="H1886" t="s">
+        <v>545</v>
+      </c>
+      <c r="I1886" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1886">
+        <v>1</v>
+      </c>
+      <c r="K1886">
+        <v>13567207</v>
+      </c>
+      <c r="L1886">
+        <v>13567207</v>
+      </c>
+    </row>
+    <row r="1887" spans="1:12">
+      <c r="A1887">
+        <v>1884</v>
+      </c>
+      <c r="B1887">
+        <v>626402</v>
+      </c>
+      <c r="C1887" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1887" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1887" t="s">
+        <v>2727</v>
+      </c>
+      <c r="F1887" t="s">
+        <v>2728</v>
+      </c>
+      <c r="G1887" t="s">
+        <v>2729</v>
+      </c>
+      <c r="H1887" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1887" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1887">
+        <v>1</v>
+      </c>
+      <c r="K1887">
+        <v>6306000</v>
+      </c>
+      <c r="L1887">
+        <v>6306000</v>
+      </c>
+    </row>
+    <row r="1888" spans="1:12">
+      <c r="A1888">
+        <v>1885</v>
+      </c>
+      <c r="B1888">
+        <v>626402</v>
+      </c>
+      <c r="C1888" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1888" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1888" t="s">
+        <v>2730</v>
+      </c>
+      <c r="F1888" t="s">
+        <v>2731</v>
+      </c>
+      <c r="G1888" t="s">
+        <v>2732</v>
+      </c>
+      <c r="H1888" t="s">
+        <v>518</v>
+      </c>
+      <c r="I1888" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1888">
+        <v>1</v>
+      </c>
+      <c r="K1888">
+        <v>21494000</v>
+      </c>
+      <c r="L1888">
+        <v>21494000</v>
+      </c>
+    </row>
+    <row r="1889" spans="1:12">
+      <c r="A1889">
+        <v>1886</v>
+      </c>
+      <c r="B1889">
+        <v>626402</v>
+      </c>
+      <c r="C1889" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1889" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1889" t="s">
+        <v>2733</v>
+      </c>
+      <c r="F1889" t="s">
+        <v>2734</v>
+      </c>
+      <c r="G1889" t="s">
+        <v>2735</v>
+      </c>
+      <c r="H1889" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1889" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1889">
+        <v>1</v>
+      </c>
+      <c r="K1889">
+        <v>109088174</v>
+      </c>
+      <c r="L1889">
+        <v>109088174</v>
+      </c>
+    </row>
+    <row r="1890" spans="1:12">
+      <c r="A1890">
+        <v>1887</v>
+      </c>
+      <c r="B1890">
+        <v>626402</v>
+      </c>
+      <c r="C1890" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1890" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1890" t="s">
+        <v>2736</v>
+      </c>
+      <c r="F1890" t="s">
+        <v>2737</v>
+      </c>
+      <c r="G1890" t="s">
+        <v>2738</v>
+      </c>
+      <c r="H1890" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1890" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1890">
+        <v>1</v>
+      </c>
+      <c r="K1890">
+        <v>6789200</v>
+      </c>
+      <c r="L1890">
+        <v>6789200</v>
+      </c>
+    </row>
+    <row r="1891" spans="1:12">
+      <c r="A1891">
+        <v>1888</v>
+      </c>
+      <c r="B1891">
+        <v>626402</v>
+      </c>
+      <c r="C1891" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1891" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1891" t="s">
+        <v>2739</v>
+      </c>
+      <c r="F1891" t="s">
+        <v>2740</v>
+      </c>
+      <c r="G1891" t="s">
+        <v>2741</v>
+      </c>
+      <c r="H1891" t="s">
+        <v>2742</v>
+      </c>
+      <c r="I1891" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1891">
+        <v>1</v>
+      </c>
+      <c r="K1891">
+        <v>10188060</v>
+      </c>
+      <c r="L1891">
+        <v>10188060</v>
+      </c>
+    </row>
+    <row r="1892" spans="1:12">
+      <c r="A1892">
+        <v>1889</v>
+      </c>
+      <c r="B1892">
+        <v>626402</v>
+      </c>
+      <c r="C1892" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1892" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1892" t="s">
+        <v>2743</v>
+      </c>
+      <c r="F1892" t="s">
+        <v>2744</v>
+      </c>
+      <c r="G1892" t="s">
+        <v>2745</v>
+      </c>
+      <c r="H1892" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1892" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1892">
+        <v>1</v>
+      </c>
+      <c r="K1892">
+        <v>340000</v>
+      </c>
+      <c r="L1892">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="1893" spans="1:12">
+      <c r="A1893">
+        <v>1890</v>
+      </c>
+      <c r="B1893">
+        <v>626402</v>
+      </c>
+      <c r="C1893" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1893" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1893" t="s">
+        <v>2743</v>
+      </c>
+      <c r="F1893" t="s">
+        <v>2744</v>
+      </c>
+      <c r="G1893" t="s">
+        <v>2745</v>
+      </c>
+      <c r="H1893" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1893" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1893">
+        <v>1</v>
+      </c>
+      <c r="K1893">
+        <v>420000</v>
+      </c>
+      <c r="L1893">
+        <v>420000</v>
+      </c>
+    </row>
+    <row r="1894" spans="1:12">
+      <c r="A1894">
+        <v>1891</v>
+      </c>
+      <c r="B1894">
+        <v>626402</v>
+      </c>
+      <c r="C1894" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1894" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1894" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F1894" t="s">
+        <v>2747</v>
+      </c>
+      <c r="G1894" t="s">
+        <v>2748</v>
+      </c>
+      <c r="H1894" t="s">
+        <v>276</v>
+      </c>
+      <c r="I1894" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1894">
+        <v>1</v>
+      </c>
+      <c r="K1894">
+        <v>1020000</v>
+      </c>
+      <c r="L1894">
+        <v>1020000</v>
+      </c>
+    </row>
+    <row r="1895" spans="1:12">
+      <c r="A1895">
+        <v>1892</v>
+      </c>
+      <c r="B1895">
+        <v>626402</v>
+      </c>
+      <c r="C1895" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1895" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1895" t="s">
+        <v>2746</v>
+      </c>
+      <c r="F1895" t="s">
+        <v>2747</v>
+      </c>
+      <c r="G1895" t="s">
+        <v>2748</v>
+      </c>
+      <c r="H1895" t="s">
+        <v>277</v>
+      </c>
+      <c r="I1895" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1895">
+        <v>1</v>
+      </c>
+      <c r="K1895">
+        <v>1260000</v>
+      </c>
+      <c r="L1895">
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="1896" spans="1:12">
+      <c r="A1896">
+        <v>1893</v>
+      </c>
+      <c r="B1896">
+        <v>626402</v>
+      </c>
+      <c r="C1896" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1896" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1896" t="s">
+        <v>2749</v>
+      </c>
+      <c r="F1896" t="s">
+        <v>2750</v>
+      </c>
+      <c r="G1896" t="s">
+        <v>2751</v>
+      </c>
+      <c r="H1896" t="s">
+        <v>478</v>
+      </c>
+      <c r="I1896" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1896">
+        <v>1</v>
+      </c>
+      <c r="K1896">
+        <v>53000000</v>
+      </c>
+      <c r="L1896">
+        <v>53000000</v>
+      </c>
+    </row>
+    <row r="1897" spans="1:12">
+      <c r="A1897">
+        <v>1894</v>
+      </c>
+      <c r="B1897">
+        <v>626402</v>
+      </c>
+      <c r="C1897" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1897" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1897" t="s">
+        <v>2752</v>
+      </c>
+      <c r="F1897" t="s">
+        <v>2753</v>
+      </c>
+      <c r="G1897" t="s">
+        <v>2754</v>
+      </c>
+      <c r="H1897" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1897" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1897">
+        <v>1</v>
+      </c>
+      <c r="K1897">
+        <v>3462500</v>
+      </c>
+      <c r="L1897">
+        <v>3462500</v>
+      </c>
+    </row>
+    <row r="1898" spans="1:12">
+      <c r="A1898">
+        <v>1895</v>
+      </c>
+      <c r="B1898">
+        <v>626402</v>
+      </c>
+      <c r="C1898" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1898" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1898" t="s">
+        <v>2755</v>
+      </c>
+      <c r="F1898" t="s">
+        <v>2756</v>
+      </c>
+      <c r="G1898" t="s">
+        <v>2757</v>
+      </c>
+      <c r="H1898" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1898" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1898">
+        <v>1</v>
+      </c>
+      <c r="K1898">
+        <v>1662000</v>
+      </c>
+      <c r="L1898">
+        <v>1662000</v>
+      </c>
+    </row>
+    <row r="1899" spans="1:12">
+      <c r="A1899">
+        <v>1896</v>
+      </c>
+      <c r="B1899">
+        <v>626402</v>
+      </c>
+      <c r="C1899" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1899" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1899" t="s">
+        <v>2758</v>
+      </c>
+      <c r="F1899" t="s">
+        <v>2759</v>
+      </c>
+      <c r="G1899" t="s">
+        <v>2760</v>
+      </c>
+      <c r="H1899" t="s">
+        <v>414</v>
+      </c>
+      <c r="I1899" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1899">
+        <v>1</v>
+      </c>
+      <c r="K1899">
+        <v>165675384</v>
+      </c>
+      <c r="L1899">
+        <v>165675384</v>
+      </c>
+    </row>
+    <row r="1900" spans="1:12">
+      <c r="A1900">
+        <v>1897</v>
+      </c>
+      <c r="B1900">
+        <v>626402</v>
+      </c>
+      <c r="C1900" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1900" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1900" t="s">
+        <v>2761</v>
+      </c>
+      <c r="F1900" t="s">
+        <v>2762</v>
+      </c>
+      <c r="G1900" t="s">
+        <v>2763</v>
+      </c>
+      <c r="H1900" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1900" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1900">
+        <v>1</v>
+      </c>
+      <c r="K1900">
+        <v>1772500</v>
+      </c>
+      <c r="L1900">
+        <v>1772500</v>
+      </c>
+    </row>
+    <row r="1901" spans="1:12">
+      <c r="A1901">
+        <v>1898</v>
+      </c>
+      <c r="B1901">
+        <v>626402</v>
+      </c>
+      <c r="C1901" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1901" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1901" t="s">
+        <v>2764</v>
+      </c>
+      <c r="F1901" t="s">
+        <v>2765</v>
+      </c>
+      <c r="G1901" t="s">
+        <v>2766</v>
+      </c>
+      <c r="H1901" t="s">
+        <v>2375</v>
+      </c>
+      <c r="I1901" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1901">
+        <v>1</v>
+      </c>
+      <c r="K1901">
+        <v>4323450</v>
+      </c>
+      <c r="L1901">
+        <v>4323450</v>
+      </c>
+    </row>
+    <row r="1902" spans="1:12">
+      <c r="A1902">
+        <v>1899</v>
+      </c>
+      <c r="B1902">
+        <v>626402</v>
+      </c>
+      <c r="C1902" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1902" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1902" t="s">
+        <v>2767</v>
+      </c>
+      <c r="F1902" t="s">
+        <v>2768</v>
+      </c>
+      <c r="G1902" t="s">
+        <v>2769</v>
+      </c>
+      <c r="H1902" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1902" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1902">
+        <v>1</v>
+      </c>
+      <c r="K1902">
+        <v>3771405</v>
+      </c>
+      <c r="L1902">
+        <v>3771405</v>
+      </c>
+    </row>
+    <row r="1903" spans="1:12">
+      <c r="A1903">
+        <v>1900</v>
+      </c>
+      <c r="B1903">
+        <v>626402</v>
+      </c>
+      <c r="C1903" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1903" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1903" t="s">
+        <v>2770</v>
+      </c>
+      <c r="F1903" t="s">
+        <v>2771</v>
+      </c>
+      <c r="G1903" t="s">
+        <v>2772</v>
+      </c>
+      <c r="H1903" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1903" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1903">
+        <v>1</v>
+      </c>
+      <c r="K1903">
+        <v>2017000</v>
+      </c>
+      <c r="L1903">
+        <v>2017000</v>
+      </c>
+    </row>
+    <row r="1904" spans="1:12">
+      <c r="A1904">
+        <v>1901</v>
+      </c>
+      <c r="B1904">
+        <v>626402</v>
+      </c>
+      <c r="C1904" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1904" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1904" t="s">
+        <v>2773</v>
+      </c>
+      <c r="F1904" t="s">
+        <v>2774</v>
+      </c>
+      <c r="G1904" t="s">
+        <v>2775</v>
+      </c>
+      <c r="H1904" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1904" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1904">
+        <v>1</v>
+      </c>
+      <c r="K1904">
+        <v>767000</v>
+      </c>
+      <c r="L1904">
+        <v>767000</v>
+      </c>
+    </row>
+    <row r="1905" spans="1:12">
+      <c r="A1905">
+        <v>1902</v>
+      </c>
+      <c r="B1905">
+        <v>626402</v>
+      </c>
+      <c r="C1905" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1905" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1905" t="s">
+        <v>2776</v>
+      </c>
+      <c r="F1905" t="s">
+        <v>2777</v>
+      </c>
+      <c r="G1905" t="s">
+        <v>2778</v>
+      </c>
+      <c r="H1905" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1905" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1905">
+        <v>1</v>
+      </c>
+      <c r="K1905">
+        <v>650000</v>
+      </c>
+      <c r="L1905">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="1906" spans="1:12">
+      <c r="A1906">
+        <v>1903</v>
+      </c>
+      <c r="B1906">
+        <v>626402</v>
+      </c>
+      <c r="C1906" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1906" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1906" t="s">
+        <v>2776</v>
+      </c>
+      <c r="F1906" t="s">
+        <v>2777</v>
+      </c>
+      <c r="G1906" t="s">
+        <v>2778</v>
+      </c>
+      <c r="H1906" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1906" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1906">
+        <v>1</v>
+      </c>
+      <c r="K1906">
+        <v>680000</v>
+      </c>
+      <c r="L1906">
+        <v>680000</v>
+      </c>
+    </row>
+    <row r="1907" spans="1:12">
+      <c r="A1907">
+        <v>1904</v>
+      </c>
+      <c r="B1907">
+        <v>626402</v>
+      </c>
+      <c r="C1907" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1907" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1907" t="s">
+        <v>2779</v>
+      </c>
+      <c r="F1907" t="s">
+        <v>2780</v>
+      </c>
+      <c r="G1907" t="s">
+        <v>2781</v>
+      </c>
+      <c r="H1907" t="s">
+        <v>2782</v>
+      </c>
+      <c r="I1907" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1907">
+        <v>1</v>
+      </c>
+      <c r="K1907">
+        <v>1020000</v>
+      </c>
+      <c r="L1907">
+        <v>1020000</v>
+      </c>
+    </row>
+    <row r="1908" spans="1:12">
+      <c r="A1908">
+        <v>1905</v>
+      </c>
+      <c r="B1908">
+        <v>626402</v>
+      </c>
+      <c r="C1908" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1908" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1908" t="s">
+        <v>2783</v>
+      </c>
+      <c r="F1908" t="s">
+        <v>2784</v>
+      </c>
+      <c r="G1908" t="s">
+        <v>2785</v>
+      </c>
+      <c r="H1908" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1908" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1908">
+        <v>1</v>
+      </c>
+      <c r="K1908">
+        <v>10415000</v>
+      </c>
+      <c r="L1908">
+        <v>10415000</v>
+      </c>
+    </row>
+    <row r="1909" spans="1:12">
+      <c r="A1909">
+        <v>1906</v>
+      </c>
+      <c r="B1909">
+        <v>626402</v>
+      </c>
+      <c r="C1909" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1909" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1909" t="s">
+        <v>2786</v>
+      </c>
+      <c r="F1909" t="s">
+        <v>2787</v>
+      </c>
+      <c r="G1909" t="s">
+        <v>2788</v>
+      </c>
+      <c r="H1909" t="s">
+        <v>2782</v>
+      </c>
+      <c r="I1909" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1909">
+        <v>1</v>
+      </c>
+      <c r="K1909">
+        <v>170000</v>
+      </c>
+      <c r="L1909">
+        <v>170000</v>
+      </c>
+    </row>
+    <row r="1910" spans="1:12">
+      <c r="A1910">
+        <v>1907</v>
+      </c>
+      <c r="B1910">
+        <v>626402</v>
+      </c>
+      <c r="C1910" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1910" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1910" t="s">
+        <v>2789</v>
+      </c>
+      <c r="F1910" t="s">
+        <v>2790</v>
+      </c>
+      <c r="G1910" t="s">
+        <v>2791</v>
+      </c>
+      <c r="H1910" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1910" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1910">
+        <v>1</v>
+      </c>
+      <c r="K1910">
+        <v>9711000</v>
+      </c>
+      <c r="L1910">
+        <v>9711000</v>
+      </c>
+    </row>
+    <row r="1911" spans="1:12">
+      <c r="A1911">
+        <v>1908</v>
+      </c>
+      <c r="B1911">
+        <v>626402</v>
+      </c>
+      <c r="C1911" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1911" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1911" t="s">
+        <v>2792</v>
+      </c>
+      <c r="F1911" t="s">
+        <v>2793</v>
+      </c>
+      <c r="G1911" t="s">
+        <v>2794</v>
+      </c>
+      <c r="H1911" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1911" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1911">
+        <v>1</v>
+      </c>
+      <c r="K1911">
+        <v>1988500</v>
+      </c>
+      <c r="L1911">
+        <v>1988500</v>
+      </c>
+    </row>
+    <row r="1912" spans="1:12">
+      <c r="A1912">
+        <v>1909</v>
+      </c>
+      <c r="B1912">
+        <v>626402</v>
+      </c>
+      <c r="C1912" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1912" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1912" t="s">
+        <v>2795</v>
+      </c>
+      <c r="F1912" t="s">
+        <v>2796</v>
+      </c>
+      <c r="G1912" t="s">
+        <v>2797</v>
+      </c>
+      <c r="H1912" t="s">
+        <v>2798</v>
+      </c>
+      <c r="I1912" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1912">
+        <v>1</v>
+      </c>
+      <c r="K1912">
+        <v>14285500</v>
+      </c>
+      <c r="L1912">
+        <v>14285500</v>
+      </c>
+    </row>
+    <row r="1913" spans="1:12">
+      <c r="A1913">
+        <v>1910</v>
+      </c>
+      <c r="B1913">
+        <v>626402</v>
+      </c>
+      <c r="C1913" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1913" t="s">
+        <v>2683</v>
+      </c>
+      <c r="E1913" t="s">
+        <v>2799</v>
+      </c>
+      <c r="F1913" t="s">
+        <v>2800</v>
+      </c>
+      <c r="G1913" t="s">
+        <v>2801</v>
+      </c>
+      <c r="H1913" t="s">
+        <v>128</v>
+      </c>
+      <c r="I1913" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1913">
+        <v>1</v>
+      </c>
+      <c r="K1913">
+        <v>5162941</v>
+      </c>
+      <c r="L1913">
+        <v>5162941</v>
+      </c>
+    </row>
+    <row r="1914" spans="1:12">
+      <c r="A1914">
+        <v>1911</v>
+      </c>
+      <c r="B1914">
+        <v>626402</v>
+      </c>
+      <c r="C1914" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1914" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1914" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F1914" t="s">
+        <v>2803</v>
+      </c>
+      <c r="G1914" t="s">
+        <v>2427</v>
+      </c>
+      <c r="H1914" t="s">
+        <v>2804</v>
+      </c>
+      <c r="I1914" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1914">
+        <v>1</v>
+      </c>
+      <c r="K1914">
+        <v>1615500</v>
+      </c>
+      <c r="L1914">
+        <v>1615500</v>
+      </c>
+    </row>
+    <row r="1915" spans="1:12">
+      <c r="A1915">
+        <v>1912</v>
+      </c>
+      <c r="B1915">
+        <v>626402</v>
+      </c>
+      <c r="C1915" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1915" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1915" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F1915" t="s">
+        <v>2803</v>
+      </c>
+      <c r="G1915" t="s">
+        <v>2427</v>
+      </c>
+      <c r="H1915" t="s">
+        <v>270</v>
+      </c>
+      <c r="I1915" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1915">
+        <v>1</v>
+      </c>
+      <c r="K1915">
+        <v>328000</v>
+      </c>
+      <c r="L1915">
+        <v>328000</v>
+      </c>
+    </row>
+    <row r="1916" spans="1:12">
+      <c r="A1916">
+        <v>1913</v>
+      </c>
+      <c r="B1916">
+        <v>626402</v>
+      </c>
+      <c r="C1916" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1916" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1916" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F1916" t="s">
+        <v>2803</v>
+      </c>
+      <c r="G1916" t="s">
+        <v>2427</v>
+      </c>
+      <c r="H1916" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1916" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1916">
+        <v>1</v>
+      </c>
+      <c r="K1916">
+        <v>2578300</v>
+      </c>
+      <c r="L1916">
+        <v>2578300</v>
+      </c>
+    </row>
+    <row r="1917" spans="1:12">
+      <c r="A1917">
+        <v>1914</v>
+      </c>
+      <c r="B1917">
+        <v>626402</v>
+      </c>
+      <c r="C1917" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1917" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1917" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F1917" t="s">
+        <v>2803</v>
+      </c>
+      <c r="G1917" t="s">
+        <v>2427</v>
+      </c>
+      <c r="H1917" t="s">
+        <v>273</v>
+      </c>
+      <c r="I1917" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1917">
+        <v>1</v>
+      </c>
+      <c r="K1917">
+        <v>6117800</v>
+      </c>
+      <c r="L1917">
+        <v>6117800</v>
+      </c>
+    </row>
+    <row r="1918" spans="1:12">
+      <c r="A1918">
+        <v>1915</v>
+      </c>
+      <c r="B1918">
+        <v>626402</v>
+      </c>
+      <c r="C1918" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1918" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1918" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F1918" t="s">
+        <v>2803</v>
+      </c>
+      <c r="G1918" t="s">
+        <v>2427</v>
+      </c>
+      <c r="H1918" t="s">
+        <v>2805</v>
+      </c>
+      <c r="I1918" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1918">
+        <v>1</v>
+      </c>
+      <c r="K1918">
+        <v>7938950</v>
+      </c>
+      <c r="L1918">
+        <v>7938950</v>
+      </c>
+    </row>
+    <row r="1919" spans="1:12">
+      <c r="A1919">
+        <v>1916</v>
+      </c>
+      <c r="B1919">
+        <v>626402</v>
+      </c>
+      <c r="C1919" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1919" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1919" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F1919" t="s">
+        <v>2803</v>
+      </c>
+      <c r="G1919" t="s">
+        <v>2427</v>
+      </c>
+      <c r="H1919" t="s">
+        <v>2806</v>
+      </c>
+      <c r="I1919" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1919">
+        <v>1</v>
+      </c>
+      <c r="K1919">
+        <v>11558000</v>
+      </c>
+      <c r="L1919">
+        <v>11558000</v>
+      </c>
+    </row>
+    <row r="1920" spans="1:12">
+      <c r="A1920">
+        <v>1917</v>
+      </c>
+      <c r="B1920">
+        <v>626402</v>
+      </c>
+      <c r="C1920" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1920" t="s">
+        <v>2584</v>
+      </c>
+      <c r="E1920" t="s">
+        <v>2802</v>
+      </c>
+      <c r="F1920" t="s">
+        <v>2803</v>
+      </c>
+      <c r="G1920" t="s">
+        <v>2427</v>
+      </c>
+      <c r="H1920" t="s">
+        <v>2807</v>
+      </c>
+      <c r="I1920" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1920">
+        <v>1</v>
+      </c>
+      <c r="K1920">
+        <v>631256</v>
+      </c>
+      <c r="L1920">
+        <v>631256</v>
+      </c>
+    </row>
+    <row r="1921" spans="1:12">
+      <c r="A1921">
+        <v>1918</v>
+      </c>
+      <c r="B1921">
+        <v>626402</v>
+      </c>
+      <c r="C1921" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1921" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1921" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1921" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1921" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1921" t="s">
+        <v>941</v>
+      </c>
+      <c r="I1921" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1921">
+        <v>1</v>
+      </c>
+      <c r="K1921">
+        <v>686440</v>
+      </c>
+      <c r="L1921">
+        <v>686440</v>
+      </c>
+    </row>
+    <row r="1922" spans="1:12">
+      <c r="A1922">
+        <v>1919</v>
+      </c>
+      <c r="B1922">
+        <v>626402</v>
+      </c>
+      <c r="C1922" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1922" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1922" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1922" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1922" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1922" t="s">
+        <v>942</v>
+      </c>
+      <c r="I1922" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1922">
+        <v>1</v>
+      </c>
+      <c r="K1922">
+        <v>49640000</v>
+      </c>
+      <c r="L1922">
+        <v>49640000</v>
+      </c>
+    </row>
+    <row r="1923" spans="1:12">
+      <c r="A1923">
+        <v>1920</v>
+      </c>
+      <c r="B1923">
+        <v>626402</v>
+      </c>
+      <c r="C1923" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1923" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1923" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1923" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1923" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1923" t="s">
+        <v>680</v>
+      </c>
+      <c r="I1923" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1923">
+        <v>1</v>
+      </c>
+      <c r="K1923">
+        <v>360000</v>
+      </c>
+      <c r="L1923">
+        <v>360000</v>
+      </c>
+    </row>
+    <row r="1924" spans="1:12">
+      <c r="A1924">
+        <v>1921</v>
+      </c>
+      <c r="B1924">
+        <v>626402</v>
+      </c>
+      <c r="C1924" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1924" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1924" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1924" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1924" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1924" t="s">
+        <v>1515</v>
+      </c>
+      <c r="I1924" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1924">
+        <v>1</v>
+      </c>
+      <c r="K1924">
+        <v>2573000</v>
+      </c>
+      <c r="L1924">
+        <v>2573000</v>
+      </c>
+    </row>
+    <row r="1925" spans="1:12">
+      <c r="A1925">
+        <v>1922</v>
+      </c>
+      <c r="B1925">
+        <v>626402</v>
+      </c>
+      <c r="C1925" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1925" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1925" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1925" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1925" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1925" t="s">
+        <v>2343</v>
+      </c>
+      <c r="I1925" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1925">
+        <v>1</v>
+      </c>
+      <c r="K1925">
+        <v>1499500</v>
+      </c>
+      <c r="L1925">
+        <v>1499500</v>
+      </c>
+    </row>
+    <row r="1926" spans="1:12">
+      <c r="A1926">
+        <v>1923</v>
+      </c>
+      <c r="B1926">
+        <v>626402</v>
+      </c>
+      <c r="C1926" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1926" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1926" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1926" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1926" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1926" t="s">
+        <v>2811</v>
+      </c>
+      <c r="I1926" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1926">
+        <v>1</v>
+      </c>
+      <c r="K1926">
+        <v>5770000</v>
+      </c>
+      <c r="L1926">
+        <v>5770000</v>
+      </c>
+    </row>
+    <row r="1927" spans="1:12">
+      <c r="A1927">
+        <v>1924</v>
+      </c>
+      <c r="B1927">
+        <v>626402</v>
+      </c>
+      <c r="C1927" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1927" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1927" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1927" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1927" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1927" t="s">
+        <v>2345</v>
+      </c>
+      <c r="I1927" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1927">
+        <v>1</v>
+      </c>
+      <c r="K1927">
+        <v>4340000</v>
+      </c>
+      <c r="L1927">
+        <v>4340000</v>
+      </c>
+    </row>
+    <row r="1928" spans="1:12">
+      <c r="A1928">
+        <v>1925</v>
+      </c>
+      <c r="B1928">
+        <v>626402</v>
+      </c>
+      <c r="C1928" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1928" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1928" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1928" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1928" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1928" t="s">
+        <v>695</v>
+      </c>
+      <c r="I1928" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1928">
+        <v>1</v>
+      </c>
+      <c r="K1928">
+        <v>2749000</v>
+      </c>
+      <c r="L1928">
+        <v>2749000</v>
+      </c>
+    </row>
+    <row r="1929" spans="1:12">
+      <c r="A1929">
+        <v>1926</v>
+      </c>
+      <c r="B1929">
+        <v>626402</v>
+      </c>
+      <c r="C1929" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1929" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1929" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1929" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1929" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1929" t="s">
+        <v>2812</v>
+      </c>
+      <c r="I1929" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1929">
+        <v>1</v>
+      </c>
+      <c r="K1929">
+        <v>144000</v>
+      </c>
+      <c r="L1929">
+        <v>144000</v>
+      </c>
+    </row>
+    <row r="1930" spans="1:12">
+      <c r="A1930">
+        <v>1927</v>
+      </c>
+      <c r="B1930">
+        <v>626402</v>
+      </c>
+      <c r="C1930" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1930" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1930" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1930" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1930" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1930" t="s">
+        <v>2348</v>
+      </c>
+      <c r="I1930" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1930">
+        <v>1</v>
+      </c>
+      <c r="K1930">
+        <v>390000</v>
+      </c>
+      <c r="L1930">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="1931" spans="1:12">
+      <c r="A1931">
+        <v>1928</v>
+      </c>
+      <c r="B1931">
+        <v>626402</v>
+      </c>
+      <c r="C1931" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1931" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1931" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1931" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1931" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1931" t="s">
+        <v>2349</v>
+      </c>
+      <c r="I1931" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1931">
+        <v>1</v>
+      </c>
+      <c r="K1931">
+        <v>880200</v>
+      </c>
+      <c r="L1931">
+        <v>880200</v>
+      </c>
+    </row>
+    <row r="1932" spans="1:12">
+      <c r="A1932">
+        <v>1929</v>
+      </c>
+      <c r="B1932">
+        <v>626402</v>
+      </c>
+      <c r="C1932" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1932" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1932" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1932" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1932" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1932" t="s">
+        <v>1517</v>
+      </c>
+      <c r="I1932" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1932">
+        <v>1</v>
+      </c>
+      <c r="K1932">
+        <v>4950000</v>
+      </c>
+      <c r="L1932">
+        <v>4950000</v>
+      </c>
+    </row>
+    <row r="1933" spans="1:12">
+      <c r="A1933">
+        <v>1930</v>
+      </c>
+      <c r="B1933">
+        <v>626402</v>
+      </c>
+      <c r="C1933" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1933" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1933" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1933" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1933" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1933" t="s">
+        <v>957</v>
+      </c>
+      <c r="I1933" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1933">
+        <v>1</v>
+      </c>
+      <c r="K1933">
+        <v>650000</v>
+      </c>
+      <c r="L1933">
+        <v>650000</v>
+      </c>
+    </row>
+    <row r="1934" spans="1:12">
+      <c r="A1934">
+        <v>1931</v>
+      </c>
+      <c r="B1934">
+        <v>626402</v>
+      </c>
+      <c r="C1934" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1934" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1934" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1934" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1934" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1934" t="s">
+        <v>959</v>
+      </c>
+      <c r="I1934" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1934">
+        <v>1</v>
+      </c>
+      <c r="K1934">
+        <v>529750</v>
+      </c>
+      <c r="L1934">
+        <v>529750</v>
+      </c>
+    </row>
+    <row r="1935" spans="1:12">
+      <c r="A1935">
+        <v>1932</v>
+      </c>
+      <c r="B1935">
+        <v>626402</v>
+      </c>
+      <c r="C1935" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1935" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1935" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1935" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1935" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1935" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I1935" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1935">
+        <v>1</v>
+      </c>
+      <c r="K1935">
+        <v>20104248</v>
+      </c>
+      <c r="L1935">
+        <v>20104248</v>
+      </c>
+    </row>
+    <row r="1936" spans="1:12">
+      <c r="A1936">
+        <v>1933</v>
+      </c>
+      <c r="B1936">
+        <v>626402</v>
+      </c>
+      <c r="C1936" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1936" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1936" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1936" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1936" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1936" t="s">
+        <v>210</v>
+      </c>
+      <c r="I1936" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1936">
+        <v>1</v>
+      </c>
+      <c r="K1936">
+        <v>1010000</v>
+      </c>
+      <c r="L1936">
+        <v>1010000</v>
+      </c>
+    </row>
+    <row r="1937" spans="1:12">
+      <c r="A1937">
+        <v>1934</v>
+      </c>
+      <c r="B1937">
+        <v>626402</v>
+      </c>
+      <c r="C1937" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1937" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1937" t="s">
+        <v>2809</v>
+      </c>
+      <c r="F1937" t="s">
+        <v>2810</v>
+      </c>
+      <c r="G1937" t="s">
+        <v>940</v>
+      </c>
+      <c r="H1937" t="s">
+        <v>212</v>
+      </c>
+      <c r="I1937" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1937">
+        <v>1</v>
+      </c>
+      <c r="K1937">
+        <v>710000</v>
+      </c>
+      <c r="L1937">
+        <v>710000</v>
+      </c>
+    </row>
+    <row r="1938" spans="1:12">
+      <c r="A1938">
+        <v>1935</v>
+      </c>
+      <c r="B1938">
+        <v>626402</v>
+      </c>
+      <c r="C1938" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1938" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1938" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F1938" t="s">
+        <v>2814</v>
+      </c>
+      <c r="G1938" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1938" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1938" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1938">
+        <v>1</v>
+      </c>
+      <c r="K1938">
+        <v>60247031</v>
+      </c>
+      <c r="L1938">
+        <v>60247031</v>
+      </c>
+    </row>
+    <row r="1939" spans="1:12">
+      <c r="A1939">
+        <v>1936</v>
+      </c>
+      <c r="B1939">
+        <v>626402</v>
+      </c>
+      <c r="C1939" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1939" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1939" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F1939" t="s">
+        <v>2814</v>
+      </c>
+      <c r="G1939" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1939" t="s">
+        <v>2815</v>
+      </c>
+      <c r="I1939" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1939">
+        <v>1</v>
+      </c>
+      <c r="K1939">
+        <v>4500000</v>
+      </c>
+      <c r="L1939">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="1940" spans="1:12">
+      <c r="A1940">
+        <v>1937</v>
+      </c>
+      <c r="B1940">
+        <v>626402</v>
+      </c>
+      <c r="C1940" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1940" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1940" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F1940" t="s">
+        <v>2814</v>
+      </c>
+      <c r="G1940" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1940" t="s">
+        <v>498</v>
+      </c>
+      <c r="I1940" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1940">
+        <v>1</v>
+      </c>
+      <c r="K1940">
+        <v>45000</v>
+      </c>
+      <c r="L1940">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="1941" spans="1:12">
+      <c r="A1941">
+        <v>1938</v>
+      </c>
+      <c r="B1941">
+        <v>626402</v>
+      </c>
+      <c r="C1941" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1941" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1941" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F1941" t="s">
+        <v>2814</v>
+      </c>
+      <c r="G1941" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1941" t="s">
+        <v>745</v>
+      </c>
+      <c r="I1941" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1941">
+        <v>1</v>
+      </c>
+      <c r="K1941">
+        <v>1200000</v>
+      </c>
+      <c r="L1941">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="1942" spans="1:12">
+      <c r="A1942">
+        <v>1939</v>
+      </c>
+      <c r="B1942">
+        <v>626402</v>
+      </c>
+      <c r="C1942" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1942" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1942" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F1942" t="s">
+        <v>2814</v>
+      </c>
+      <c r="G1942" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1942" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1942" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1942">
+        <v>1</v>
+      </c>
+      <c r="K1942">
+        <v>1290000</v>
+      </c>
+      <c r="L1942">
+        <v>1290000</v>
+      </c>
+    </row>
+    <row r="1943" spans="1:12">
+      <c r="A1943">
+        <v>1940</v>
+      </c>
+      <c r="B1943">
+        <v>626402</v>
+      </c>
+      <c r="C1943" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1943" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1943" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F1943" t="s">
+        <v>2814</v>
+      </c>
+      <c r="G1943" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1943" t="s">
+        <v>2798</v>
+      </c>
+      <c r="I1943" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1943">
+        <v>1</v>
+      </c>
+      <c r="K1943">
+        <v>8043180</v>
+      </c>
+      <c r="L1943">
+        <v>8043180</v>
+      </c>
+    </row>
+    <row r="1944" spans="1:12">
+      <c r="A1944">
+        <v>1941</v>
+      </c>
+      <c r="B1944">
+        <v>626402</v>
+      </c>
+      <c r="C1944" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1944" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1944" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F1944" t="s">
+        <v>2814</v>
+      </c>
+      <c r="G1944" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1944" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1944" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1944">
+        <v>1</v>
+      </c>
+      <c r="K1944">
+        <v>9439500</v>
+      </c>
+      <c r="L1944">
+        <v>9439500</v>
+      </c>
+    </row>
+    <row r="1945" spans="1:12">
+      <c r="A1945">
+        <v>1942</v>
+      </c>
+      <c r="B1945">
+        <v>626402</v>
+      </c>
+      <c r="C1945" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1945" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1945" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F1945" t="s">
+        <v>2814</v>
+      </c>
+      <c r="G1945" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1945" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I1945" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1945">
+        <v>1</v>
+      </c>
+      <c r="K1945">
+        <v>1800000</v>
+      </c>
+      <c r="L1945">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="1946" spans="1:12">
+      <c r="A1946">
+        <v>1943</v>
+      </c>
+      <c r="B1946">
+        <v>626402</v>
+      </c>
+      <c r="C1946" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1946" t="s">
+        <v>2808</v>
+      </c>
+      <c r="E1946" t="s">
+        <v>2813</v>
+      </c>
+      <c r="F1946" t="s">
+        <v>2814</v>
+      </c>
+      <c r="G1946" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1946" t="s">
+        <v>332</v>
+      </c>
+      <c r="I1946" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1946">
+        <v>1</v>
+      </c>
+      <c r="K1946">
+        <v>430000</v>
+      </c>
+      <c r="L1946">
+        <v>430000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2816">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2938">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -8354,6 +8354,30 @@
     <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 5 pegawai sesuai ST No.B.3581/BPPSDM.1/KP.440/IV/2024 tgl 30 April 2024 a.n Rudi Alek,dkk</t>
   </si>
   <si>
+    <t>2024-05-21</t>
+  </si>
+  <si>
+    <t>'00760T</t>
+  </si>
+  <si>
+    <t>'241751303015950</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jakarta - Poltek AUP an. Endang Masduki tgl 25 Apri 2024 sesuai ST No B.910/BPPSDM.4/KP.440/IV/2024 tgl 24 Paril 2024 keg Monitoring PBJ.</t>
+  </si>
+  <si>
+    <t>'00761T</t>
+  </si>
+  <si>
+    <t>'241751301016090</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-BBRSEKP an Ariani Andayani tgl 7 Mei 2024 sesuai ST No B.1019/BPPSDM.4/KP.440/V/2024 tgl 6 Mei 2024 dalam rangka rapat pembahasan JUKLAKK SFV.</t>
+  </si>
+  <si>
+    <t>'626402.175.524113.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.051.0A.001738</t>
+  </si>
+  <si>
     <t>'00762T</t>
   </si>
   <si>
@@ -8441,9 +8465,39 @@
     <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001783</t>
   </si>
   <si>
+    <t>'00770T</t>
+  </si>
+  <si>
+    <t>'241751303015949</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Ancol an Tanto, Ivan, Wawan tgl 24-26 April 2024 sesuai ST No B.903/BPPSDM.4/KP.440/IV/2024 tgl 23 April 2024 Keg Penilaian Guru dan Dosen Berprestasi.</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212DL.2376AFA.A000000001.00000.1.0151.2.000000.000000.001.054.0C.000248</t>
+  </si>
+  <si>
+    <t>'00771T</t>
+  </si>
+  <si>
+    <t>'241751303015948</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Biaya penelitian peserta tubel S2 IPB an. Dwi Hany Yanti sesuai SK Nomor 520 Tahun 2022 Tgl 11 Agst 2022</t>
+  </si>
+  <si>
     <t>2024-05-20</t>
   </si>
   <si>
+    <t>'00772T</t>
+  </si>
+  <si>
+    <t>'241751303015945</t>
+  </si>
+  <si>
+    <t>Penggantian uang persediaan KKP untuk keperluan belanja barang</t>
+  </si>
+  <si>
     <t>'00773T</t>
   </si>
   <si>
@@ -8456,6 +8510,147 @@
     <t>'626402.175.521211.03212WA.2378EBD.A000000001.00000.1.0151.2.000000.000000.955.301.0G.001187</t>
   </si>
   <si>
+    <t>'00774T</t>
+  </si>
+  <si>
+    <t>'241751303015953</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 4 pegawai sesuai ST Nomor B.3446/BPPSDM.1/KP.440/IV/2024 Tanggal 23 April 2024 a.n Nur Widyantoro, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBC.A000000001.00000.1.0151.2.000000.000000.954.102.0A.000849</t>
+  </si>
+  <si>
+    <t>'00775T</t>
+  </si>
+  <si>
+    <t>'241751303015954</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST Nomor B.3792/BPPSDM.1/KP.440/V/2024 Tanggal 14 Mei 2024 a.n Agung Purnomo, dkk</t>
+  </si>
+  <si>
+    <t>'00776T</t>
+  </si>
+  <si>
+    <t>'241751303015952</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST Nomor B.3815/BPPSDM.1/KP.440/V/2024 Tanggal 15 Mei 2024 a.n Putut Erie, dkk</t>
+  </si>
+  <si>
+    <t>'00777T</t>
+  </si>
+  <si>
+    <t>'241751303015946</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.3815/BPPSDM.1/KP.440/V/2024 Tanggal 15 Mei 2024 a.n Suhartono</t>
+  </si>
+  <si>
+    <t>'00779T</t>
+  </si>
+  <si>
+    <t>'241751303015955</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST Nomor B.707/BPPSDM/KP.440/IV/2024 Tanggal 22 April 2024 a.n I Nyoman Radiarta</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001784</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001786</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001787</t>
+  </si>
+  <si>
+    <t>'00780T</t>
+  </si>
+  <si>
+    <t>'241751303015956</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Biaya tiket perjalanan dinas Luar Negeri PP (Jakarta-Amerika) untuk 2 pegawai Sesuai ST No:B.300/MEN-BPPSDM/KP.440/V/2024 Tgl.3 Mei 2024 a.n.I Nyoman Radiarta,dkk.</t>
+  </si>
+  <si>
+    <t>'00781T</t>
+  </si>
+  <si>
+    <t>'241751301016095</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:34321047,34320390,34320846 Tgl.31 April 2024 Tagihan Air PAM Gd.BPPSDM Ancol Bln.April 2024</t>
+  </si>
+  <si>
+    <t>'00782T</t>
+  </si>
+  <si>
+    <t>'241751304000116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang sesuai Kuitansi Nomor:0182/AGA.04.02/020700/2024 Tgl.6 Mei 2024 Tagihan rekening listrik Gd.Arsip BPPSDM Depok Bln.Mei 2024 untuk pemakaian energi listrik Bln.April 2024 </t>
+  </si>
+  <si>
+    <t>'00783T</t>
+  </si>
+  <si>
+    <t>'241751303015951</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 5 pegawai sesuai ST Nomor B.3645/BPPSDM.1/KP.440/V/2024 Tanggal 6 Mei 2024 a.n Putut Erie S, dkk</t>
+  </si>
+  <si>
+    <t>'00784T</t>
+  </si>
+  <si>
+    <t>'241751303015947</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 6 pegawai sesuai ST Nomor B.3645/BPPSDM.1/KP.440/V/2024 Tanggal 6 Mei 2024 a.n Ahmad Ridwan, dkk</t>
+  </si>
+  <si>
+    <t>'00785T</t>
+  </si>
+  <si>
+    <t>'241751301016096</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang sesuai Kuitansi Nomor:C.TEL.05/KU.370/DGS-B30002000/2024 Tgl.13 Mei 2024 Tagihan Jasa Telekonikasi Gd.BPPSDM Ancol Bln.Mei 2024 </t>
+  </si>
+  <si>
+    <t>'00786T</t>
+  </si>
+  <si>
+    <t>'241751301016123</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:082/JSA.1/SET BPPSDM/V/2024 Tgl.6 Mei 2024</t>
+  </si>
+  <si>
+    <t>'00787T</t>
+  </si>
+  <si>
+    <t>'241751302017241</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:00008/CAM-KW/IV/2024 Tgl.30 April 2024</t>
+  </si>
+  <si>
+    <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BC.001732</t>
+  </si>
+  <si>
+    <t>'00789T</t>
+  </si>
+  <si>
+    <t>'241751301016124</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Sesuai Kuitansi Nomor:2402042/PCRC Tgl.7 Mei 2024</t>
+  </si>
+  <si>
     <t>'00791T</t>
   </si>
   <si>
@@ -8463,6 +8658,177 @@
   </si>
   <si>
     <t>'626402.175.521211.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.AD.000494</t>
+  </si>
+  <si>
+    <t>'00792T</t>
+  </si>
+  <si>
+    <t>'241751301016115</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Jasa Profesi Reviewer Penelitian Terapan Terpusat an. Abdul Hamid sesuai SK PPK No KEP.36/BPPSDM.4/II/2024 tgl 20 Februari 2024, Surat Perintah Plt. Pusdik NoB.424/BPPSD M.4/K P.440/II/2024 tgl 20 Feb 2024.</t>
+  </si>
+  <si>
+    <t>'00796T</t>
+  </si>
+  <si>
+    <t>'241751301016125</t>
+  </si>
+  <si>
+    <t>'00797T</t>
+  </si>
+  <si>
+    <t>'241751303015999</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Poltek Karawang an Mextaria,tgl 30 April 2024, ST No B.980/BPPSDM.4/KP.440/IV/2024 tgl 30 April 2024 keg persiapan SFV Poltek Karawang.</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.958.306.0B.001660</t>
+  </si>
+  <si>
+    <t>'00798T</t>
+  </si>
+  <si>
+    <t>'241751302017240</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Poltek Karawang an Luh Dewi,tgl 30 April 2024, ST No B.980/BPPSDM.4/KP.440/IV/2024 tgl 30 April 2024 keg persiapan SFV Poltek Karawang.</t>
+  </si>
+  <si>
+    <t>'00799T</t>
+  </si>
+  <si>
+    <t>'241751303016000</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Poltek Karawang an Mextaria,Wawan, Amri tgl 1-3 Mei 2024, ST No B.981/BPPSDM.4/KP.440/IV/2024 tgl 30 April 2024 keg persiapan dan pelaksanaan HARDIKNAS.</t>
+  </si>
+  <si>
+    <t>'00800T</t>
+  </si>
+  <si>
+    <t>'241751301016116</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Poltek Karawang an Ariani,tgl 2-3 Mei 2024, ST No B.981/BPPSDM.4/KP.440/IV/2024 tgl 30 April 2024 keg persiapan dan pelaksanaan HARDIKNAS.</t>
+  </si>
+  <si>
+    <t>'00801T</t>
+  </si>
+  <si>
+    <t>'241751303016001</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Poltek Karawang an Arif, Winda, Lina,tgl 2-3 Mei 2024, ST No B.981/BPPSDM.4/KP.440/IV/2024 tgl 30 April 2024 keg persiapan dan pelaksanaan HARDIKNAS.</t>
+  </si>
+  <si>
+    <t>'00802T</t>
+  </si>
+  <si>
+    <t>'241751302017239</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Poltek Karawang an Luh Dewi,tgl 1-3 Mei 2024, ST No B.981/BPPSDM.4/KP.440/IV/2024 tgl 30 April 2024 keg persiapan dan pelaksanaan HARDIKNAS.</t>
+  </si>
+  <si>
+    <t>'00803T</t>
+  </si>
+  <si>
+    <t>'241751303016019</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Pengadaan bahan kimia sesuai kuitansi no 090/INV/IV/2024 tanggal 30/4/2024.</t>
+  </si>
+  <si>
+    <t>'00804T</t>
+  </si>
+  <si>
+    <t>'241751301016117</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Gedung BPPSDM Ancol an Henry, Yusvita,tgl 23-28 April 2024, ST No B.903/BPPSDM.4/KP.440/IV/2024 tgl 23 April 2024 keg penilaian Guru dan Dosen Berprestasi.</t>
+  </si>
+  <si>
+    <t>'00805T</t>
+  </si>
+  <si>
+    <t>'241751303016002</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang. Perdin Jkt-Gedung BPPSDM Ancol an Heri, Wiwit,tgl 23-28 April 2024, ST No B.903/BPPSDM.4/KP.440/IV/2024 tgl 23 April 2024 keg penilaian Guru dan Dosen Berprestasi.</t>
+  </si>
+  <si>
+    <t>2024-05-22</t>
+  </si>
+  <si>
+    <t>'00812T</t>
+  </si>
+  <si>
+    <t>'241751303015976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST No. B.3564,B.3592/BPPSDM.1/KP.440/IV/2024 Tanggal 30/4/24 dan 2/5/24 a.n Dewi Ayu Utari, dkk </t>
+  </si>
+  <si>
+    <t>'00813T</t>
+  </si>
+  <si>
+    <t>'241751303015984</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST No. B.768/BPPSDM/KP.440/IV/2024 Tanggal 30/4/24 a.n I Nyoman Radiarta</t>
+  </si>
+  <si>
+    <t>'00814T</t>
+  </si>
+  <si>
+    <t>'241751303015985</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST No. B.3575/BPPSDM.1/KP.440/IV/2024 Tanggal 30/4/24 a.n Guruh Saputra, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524111.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.001773</t>
+  </si>
+  <si>
+    <t>'00815T</t>
+  </si>
+  <si>
+    <t>'241751303015977</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST No. B.3379/BPPSDM.1/KP.440/IV/2024 Tanggal 18/4/2  a.n Guruh Saputra, dkk</t>
+  </si>
+  <si>
+    <t>'00816T</t>
+  </si>
+  <si>
+    <t>'241751303015978</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST No. B.3349/BPPSDM.1/KP.440/IV/2024 Tanggal 17/4/2 a.n Guruh Saputra, dkk</t>
+  </si>
+  <si>
+    <t>'626402.175.524114.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.962.101.0B.000611</t>
+  </si>
+  <si>
+    <t>'00817T</t>
+  </si>
+  <si>
+    <t>'241751303015979</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST No. B.3431/BPPSDM.1/KP.440/IV/2024 Tanggal 22/4/2 a.n Guruh Saputra, dkk</t>
+  </si>
+  <si>
+    <t>'00818T</t>
+  </si>
+  <si>
+    <t>'241751303015986</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST No. B.3284/BPPSDM.1/KP.440/IV/2024 Tanggal 4/4/2 a.n I Wayan Purya</t>
   </si>
 </sst>
 </file>
@@ -8804,7 +9170,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L1946"/>
+  <dimension ref="A1:L1995"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -81183,19 +81549,19 @@
         <v>13</v>
       </c>
       <c r="D1907" t="s">
-        <v>2683</v>
+        <v>2779</v>
       </c>
       <c r="E1907" t="s">
-        <v>2779</v>
+        <v>2780</v>
       </c>
       <c r="F1907" t="s">
-        <v>2780</v>
+        <v>2781</v>
       </c>
       <c r="G1907" t="s">
-        <v>2781</v>
+        <v>2782</v>
       </c>
       <c r="H1907" t="s">
-        <v>2782</v>
+        <v>708</v>
       </c>
       <c r="I1907" t="s">
         <v>19</v>
@@ -81204,10 +81570,10 @@
         <v>1</v>
       </c>
       <c r="K1907">
-        <v>1020000</v>
+        <v>170000</v>
       </c>
       <c r="L1907">
-        <v>1020000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="1908" spans="1:12">
@@ -81221,7 +81587,7 @@
         <v>13</v>
       </c>
       <c r="D1908" t="s">
-        <v>2683</v>
+        <v>2779</v>
       </c>
       <c r="E1908" t="s">
         <v>2783</v>
@@ -81233,7 +81599,7 @@
         <v>2785</v>
       </c>
       <c r="H1908" t="s">
-        <v>319</v>
+        <v>2786</v>
       </c>
       <c r="I1908" t="s">
         <v>19</v>
@@ -81242,10 +81608,10 @@
         <v>1</v>
       </c>
       <c r="K1908">
-        <v>10415000</v>
+        <v>170000</v>
       </c>
       <c r="L1908">
-        <v>10415000</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="1909" spans="1:12">
@@ -81262,16 +81628,16 @@
         <v>2683</v>
       </c>
       <c r="E1909" t="s">
-        <v>2786</v>
+        <v>2787</v>
       </c>
       <c r="F1909" t="s">
-        <v>2787</v>
+        <v>2788</v>
       </c>
       <c r="G1909" t="s">
-        <v>2788</v>
+        <v>2789</v>
       </c>
       <c r="H1909" t="s">
-        <v>2782</v>
+        <v>2790</v>
       </c>
       <c r="I1909" t="s">
         <v>19</v>
@@ -81280,10 +81646,10 @@
         <v>1</v>
       </c>
       <c r="K1909">
-        <v>170000</v>
+        <v>1020000</v>
       </c>
       <c r="L1909">
-        <v>170000</v>
+        <v>1020000</v>
       </c>
     </row>
     <row r="1910" spans="1:12">
@@ -81300,16 +81666,16 @@
         <v>2683</v>
       </c>
       <c r="E1910" t="s">
-        <v>2789</v>
+        <v>2791</v>
       </c>
       <c r="F1910" t="s">
-        <v>2790</v>
+        <v>2792</v>
       </c>
       <c r="G1910" t="s">
-        <v>2791</v>
+        <v>2793</v>
       </c>
       <c r="H1910" t="s">
-        <v>273</v>
+        <v>319</v>
       </c>
       <c r="I1910" t="s">
         <v>19</v>
@@ -81318,10 +81684,10 @@
         <v>1</v>
       </c>
       <c r="K1910">
-        <v>9711000</v>
+        <v>10415000</v>
       </c>
       <c r="L1910">
-        <v>9711000</v>
+        <v>10415000</v>
       </c>
     </row>
     <row r="1911" spans="1:12">
@@ -81338,16 +81704,16 @@
         <v>2683</v>
       </c>
       <c r="E1911" t="s">
-        <v>2792</v>
+        <v>2794</v>
       </c>
       <c r="F1911" t="s">
-        <v>2793</v>
+        <v>2795</v>
       </c>
       <c r="G1911" t="s">
-        <v>2794</v>
+        <v>2796</v>
       </c>
       <c r="H1911" t="s">
-        <v>128</v>
+        <v>2790</v>
       </c>
       <c r="I1911" t="s">
         <v>19</v>
@@ -81356,10 +81722,10 @@
         <v>1</v>
       </c>
       <c r="K1911">
-        <v>1988500</v>
+        <v>170000</v>
       </c>
       <c r="L1911">
-        <v>1988500</v>
+        <v>170000</v>
       </c>
     </row>
     <row r="1912" spans="1:12">
@@ -81376,16 +81742,16 @@
         <v>2683</v>
       </c>
       <c r="E1912" t="s">
-        <v>2795</v>
+        <v>2797</v>
       </c>
       <c r="F1912" t="s">
-        <v>2796</v>
+        <v>2798</v>
       </c>
       <c r="G1912" t="s">
-        <v>2797</v>
+        <v>2799</v>
       </c>
       <c r="H1912" t="s">
-        <v>2798</v>
+        <v>273</v>
       </c>
       <c r="I1912" t="s">
         <v>19</v>
@@ -81394,10 +81760,10 @@
         <v>1</v>
       </c>
       <c r="K1912">
-        <v>14285500</v>
+        <v>9711000</v>
       </c>
       <c r="L1912">
-        <v>14285500</v>
+        <v>9711000</v>
       </c>
     </row>
     <row r="1913" spans="1:12">
@@ -81414,13 +81780,13 @@
         <v>2683</v>
       </c>
       <c r="E1913" t="s">
-        <v>2799</v>
+        <v>2800</v>
       </c>
       <c r="F1913" t="s">
-        <v>2800</v>
+        <v>2801</v>
       </c>
       <c r="G1913" t="s">
-        <v>2801</v>
+        <v>2802</v>
       </c>
       <c r="H1913" t="s">
         <v>128</v>
@@ -81432,10 +81798,10 @@
         <v>1</v>
       </c>
       <c r="K1913">
-        <v>5162941</v>
+        <v>1988500</v>
       </c>
       <c r="L1913">
-        <v>5162941</v>
+        <v>1988500</v>
       </c>
     </row>
     <row r="1914" spans="1:12">
@@ -81449,19 +81815,19 @@
         <v>13</v>
       </c>
       <c r="D1914" t="s">
-        <v>2584</v>
+        <v>2683</v>
       </c>
       <c r="E1914" t="s">
-        <v>2802</v>
+        <v>2803</v>
       </c>
       <c r="F1914" t="s">
-        <v>2803</v>
+        <v>2804</v>
       </c>
       <c r="G1914" t="s">
-        <v>2427</v>
+        <v>2805</v>
       </c>
       <c r="H1914" t="s">
-        <v>2804</v>
+        <v>2806</v>
       </c>
       <c r="I1914" t="s">
         <v>19</v>
@@ -81470,10 +81836,10 @@
         <v>1</v>
       </c>
       <c r="K1914">
-        <v>1615500</v>
+        <v>14285500</v>
       </c>
       <c r="L1914">
-        <v>1615500</v>
+        <v>14285500</v>
       </c>
     </row>
     <row r="1915" spans="1:12">
@@ -81487,19 +81853,19 @@
         <v>13</v>
       </c>
       <c r="D1915" t="s">
-        <v>2584</v>
+        <v>2683</v>
       </c>
       <c r="E1915" t="s">
-        <v>2802</v>
+        <v>2807</v>
       </c>
       <c r="F1915" t="s">
-        <v>2803</v>
+        <v>2808</v>
       </c>
       <c r="G1915" t="s">
-        <v>2427</v>
+        <v>2809</v>
       </c>
       <c r="H1915" t="s">
-        <v>270</v>
+        <v>128</v>
       </c>
       <c r="I1915" t="s">
         <v>19</v>
@@ -81508,10 +81874,10 @@
         <v>1</v>
       </c>
       <c r="K1915">
-        <v>328000</v>
+        <v>5162941</v>
       </c>
       <c r="L1915">
-        <v>328000</v>
+        <v>5162941</v>
       </c>
     </row>
     <row r="1916" spans="1:12">
@@ -81528,16 +81894,16 @@
         <v>2584</v>
       </c>
       <c r="E1916" t="s">
-        <v>2802</v>
+        <v>2810</v>
       </c>
       <c r="F1916" t="s">
-        <v>2803</v>
+        <v>2811</v>
       </c>
       <c r="G1916" t="s">
         <v>2427</v>
       </c>
       <c r="H1916" t="s">
-        <v>272</v>
+        <v>2812</v>
       </c>
       <c r="I1916" t="s">
         <v>19</v>
@@ -81546,10 +81912,10 @@
         <v>1</v>
       </c>
       <c r="K1916">
-        <v>2578300</v>
+        <v>1615500</v>
       </c>
       <c r="L1916">
-        <v>2578300</v>
+        <v>1615500</v>
       </c>
     </row>
     <row r="1917" spans="1:12">
@@ -81566,16 +81932,16 @@
         <v>2584</v>
       </c>
       <c r="E1917" t="s">
-        <v>2802</v>
+        <v>2810</v>
       </c>
       <c r="F1917" t="s">
-        <v>2803</v>
+        <v>2811</v>
       </c>
       <c r="G1917" t="s">
         <v>2427</v>
       </c>
       <c r="H1917" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="I1917" t="s">
         <v>19</v>
@@ -81584,10 +81950,10 @@
         <v>1</v>
       </c>
       <c r="K1917">
-        <v>6117800</v>
+        <v>328000</v>
       </c>
       <c r="L1917">
-        <v>6117800</v>
+        <v>328000</v>
       </c>
     </row>
     <row r="1918" spans="1:12">
@@ -81604,16 +81970,16 @@
         <v>2584</v>
       </c>
       <c r="E1918" t="s">
-        <v>2802</v>
+        <v>2810</v>
       </c>
       <c r="F1918" t="s">
-        <v>2803</v>
+        <v>2811</v>
       </c>
       <c r="G1918" t="s">
         <v>2427</v>
       </c>
       <c r="H1918" t="s">
-        <v>2805</v>
+        <v>272</v>
       </c>
       <c r="I1918" t="s">
         <v>19</v>
@@ -81622,10 +81988,10 @@
         <v>1</v>
       </c>
       <c r="K1918">
-        <v>7938950</v>
+        <v>2578300</v>
       </c>
       <c r="L1918">
-        <v>7938950</v>
+        <v>2578300</v>
       </c>
     </row>
     <row r="1919" spans="1:12">
@@ -81642,16 +82008,16 @@
         <v>2584</v>
       </c>
       <c r="E1919" t="s">
-        <v>2802</v>
+        <v>2810</v>
       </c>
       <c r="F1919" t="s">
-        <v>2803</v>
+        <v>2811</v>
       </c>
       <c r="G1919" t="s">
         <v>2427</v>
       </c>
       <c r="H1919" t="s">
-        <v>2806</v>
+        <v>273</v>
       </c>
       <c r="I1919" t="s">
         <v>19</v>
@@ -81660,10 +82026,10 @@
         <v>1</v>
       </c>
       <c r="K1919">
-        <v>11558000</v>
+        <v>6117800</v>
       </c>
       <c r="L1919">
-        <v>11558000</v>
+        <v>6117800</v>
       </c>
     </row>
     <row r="1920" spans="1:12">
@@ -81680,16 +82046,16 @@
         <v>2584</v>
       </c>
       <c r="E1920" t="s">
-        <v>2802</v>
+        <v>2810</v>
       </c>
       <c r="F1920" t="s">
-        <v>2803</v>
+        <v>2811</v>
       </c>
       <c r="G1920" t="s">
         <v>2427</v>
       </c>
       <c r="H1920" t="s">
-        <v>2807</v>
+        <v>2813</v>
       </c>
       <c r="I1920" t="s">
         <v>19</v>
@@ -81698,10 +82064,10 @@
         <v>1</v>
       </c>
       <c r="K1920">
-        <v>631256</v>
+        <v>7938950</v>
       </c>
       <c r="L1920">
-        <v>631256</v>
+        <v>7938950</v>
       </c>
     </row>
     <row r="1921" spans="1:12">
@@ -81715,19 +82081,19 @@
         <v>13</v>
       </c>
       <c r="D1921" t="s">
-        <v>2808</v>
+        <v>2584</v>
       </c>
       <c r="E1921" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="F1921" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="G1921" t="s">
-        <v>940</v>
+        <v>2427</v>
       </c>
       <c r="H1921" t="s">
-        <v>941</v>
+        <v>2814</v>
       </c>
       <c r="I1921" t="s">
         <v>19</v>
@@ -81736,10 +82102,10 @@
         <v>1</v>
       </c>
       <c r="K1921">
-        <v>686440</v>
+        <v>11558000</v>
       </c>
       <c r="L1921">
-        <v>686440</v>
+        <v>11558000</v>
       </c>
     </row>
     <row r="1922" spans="1:12">
@@ -81753,19 +82119,19 @@
         <v>13</v>
       </c>
       <c r="D1922" t="s">
-        <v>2808</v>
+        <v>2584</v>
       </c>
       <c r="E1922" t="s">
-        <v>2809</v>
+        <v>2810</v>
       </c>
       <c r="F1922" t="s">
-        <v>2810</v>
+        <v>2811</v>
       </c>
       <c r="G1922" t="s">
-        <v>940</v>
+        <v>2427</v>
       </c>
       <c r="H1922" t="s">
-        <v>942</v>
+        <v>2815</v>
       </c>
       <c r="I1922" t="s">
         <v>19</v>
@@ -81774,10 +82140,10 @@
         <v>1</v>
       </c>
       <c r="K1922">
-        <v>49640000</v>
+        <v>631256</v>
       </c>
       <c r="L1922">
-        <v>49640000</v>
+        <v>631256</v>
       </c>
     </row>
     <row r="1923" spans="1:12">
@@ -81791,19 +82157,19 @@
         <v>13</v>
       </c>
       <c r="D1923" t="s">
-        <v>2808</v>
+        <v>2779</v>
       </c>
       <c r="E1923" t="s">
-        <v>2809</v>
+        <v>2816</v>
       </c>
       <c r="F1923" t="s">
-        <v>2810</v>
+        <v>2817</v>
       </c>
       <c r="G1923" t="s">
-        <v>940</v>
+        <v>2818</v>
       </c>
       <c r="H1923" t="s">
-        <v>680</v>
+        <v>2819</v>
       </c>
       <c r="I1923" t="s">
         <v>19</v>
@@ -81812,10 +82178,10 @@
         <v>1</v>
       </c>
       <c r="K1923">
-        <v>360000</v>
+        <v>1530000</v>
       </c>
       <c r="L1923">
-        <v>360000</v>
+        <v>1530000</v>
       </c>
     </row>
     <row r="1924" spans="1:12">
@@ -81829,19 +82195,19 @@
         <v>13</v>
       </c>
       <c r="D1924" t="s">
-        <v>2808</v>
+        <v>2779</v>
       </c>
       <c r="E1924" t="s">
-        <v>2809</v>
+        <v>2820</v>
       </c>
       <c r="F1924" t="s">
-        <v>2810</v>
+        <v>2821</v>
       </c>
       <c r="G1924" t="s">
-        <v>940</v>
+        <v>2822</v>
       </c>
       <c r="H1924" t="s">
-        <v>1515</v>
+        <v>545</v>
       </c>
       <c r="I1924" t="s">
         <v>19</v>
@@ -81850,10 +82216,10 @@
         <v>1</v>
       </c>
       <c r="K1924">
-        <v>2573000</v>
+        <v>15000000</v>
       </c>
       <c r="L1924">
-        <v>2573000</v>
+        <v>15000000</v>
       </c>
     </row>
     <row r="1925" spans="1:12">
@@ -81867,19 +82233,19 @@
         <v>13</v>
       </c>
       <c r="D1925" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1925" t="s">
-        <v>2809</v>
+        <v>2824</v>
       </c>
       <c r="F1925" t="s">
-        <v>2810</v>
+        <v>2825</v>
       </c>
       <c r="G1925" t="s">
-        <v>940</v>
+        <v>2826</v>
       </c>
       <c r="H1925" t="s">
-        <v>2343</v>
+        <v>255</v>
       </c>
       <c r="I1925" t="s">
         <v>19</v>
@@ -81888,10 +82254,10 @@
         <v>1</v>
       </c>
       <c r="K1925">
-        <v>1499500</v>
+        <v>319500</v>
       </c>
       <c r="L1925">
-        <v>1499500</v>
+        <v>319500</v>
       </c>
     </row>
     <row r="1926" spans="1:12">
@@ -81905,19 +82271,19 @@
         <v>13</v>
       </c>
       <c r="D1926" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1926" t="s">
-        <v>2809</v>
+        <v>2824</v>
       </c>
       <c r="F1926" t="s">
-        <v>2810</v>
+        <v>2825</v>
       </c>
       <c r="G1926" t="s">
-        <v>940</v>
+        <v>2826</v>
       </c>
       <c r="H1926" t="s">
-        <v>2811</v>
+        <v>1690</v>
       </c>
       <c r="I1926" t="s">
         <v>19</v>
@@ -81926,10 +82292,10 @@
         <v>1</v>
       </c>
       <c r="K1926">
-        <v>5770000</v>
+        <v>248184</v>
       </c>
       <c r="L1926">
-        <v>5770000</v>
+        <v>248184</v>
       </c>
     </row>
     <row r="1927" spans="1:12">
@@ -81943,19 +82309,19 @@
         <v>13</v>
       </c>
       <c r="D1927" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1927" t="s">
-        <v>2809</v>
+        <v>2824</v>
       </c>
       <c r="F1927" t="s">
-        <v>2810</v>
+        <v>2825</v>
       </c>
       <c r="G1927" t="s">
-        <v>940</v>
+        <v>2826</v>
       </c>
       <c r="H1927" t="s">
-        <v>2345</v>
+        <v>267</v>
       </c>
       <c r="I1927" t="s">
         <v>19</v>
@@ -81964,10 +82330,10 @@
         <v>1</v>
       </c>
       <c r="K1927">
-        <v>4340000</v>
+        <v>1065600</v>
       </c>
       <c r="L1927">
-        <v>4340000</v>
+        <v>1065600</v>
       </c>
     </row>
     <row r="1928" spans="1:12">
@@ -81981,19 +82347,19 @@
         <v>13</v>
       </c>
       <c r="D1928" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1928" t="s">
-        <v>2809</v>
+        <v>2824</v>
       </c>
       <c r="F1928" t="s">
-        <v>2810</v>
+        <v>2825</v>
       </c>
       <c r="G1928" t="s">
-        <v>940</v>
+        <v>2826</v>
       </c>
       <c r="H1928" t="s">
-        <v>695</v>
+        <v>131</v>
       </c>
       <c r="I1928" t="s">
         <v>19</v>
@@ -82002,10 +82368,10 @@
         <v>1</v>
       </c>
       <c r="K1928">
-        <v>2749000</v>
+        <v>3430000</v>
       </c>
       <c r="L1928">
-        <v>2749000</v>
+        <v>3430000</v>
       </c>
     </row>
     <row r="1929" spans="1:12">
@@ -82019,19 +82385,19 @@
         <v>13</v>
       </c>
       <c r="D1929" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1929" t="s">
-        <v>2809</v>
+        <v>2827</v>
       </c>
       <c r="F1929" t="s">
-        <v>2810</v>
+        <v>2828</v>
       </c>
       <c r="G1929" t="s">
         <v>940</v>
       </c>
       <c r="H1929" t="s">
-        <v>2812</v>
+        <v>941</v>
       </c>
       <c r="I1929" t="s">
         <v>19</v>
@@ -82040,10 +82406,10 @@
         <v>1</v>
       </c>
       <c r="K1929">
-        <v>144000</v>
+        <v>686440</v>
       </c>
       <c r="L1929">
-        <v>144000</v>
+        <v>686440</v>
       </c>
     </row>
     <row r="1930" spans="1:12">
@@ -82057,19 +82423,19 @@
         <v>13</v>
       </c>
       <c r="D1930" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1930" t="s">
-        <v>2809</v>
+        <v>2827</v>
       </c>
       <c r="F1930" t="s">
-        <v>2810</v>
+        <v>2828</v>
       </c>
       <c r="G1930" t="s">
         <v>940</v>
       </c>
       <c r="H1930" t="s">
-        <v>2348</v>
+        <v>942</v>
       </c>
       <c r="I1930" t="s">
         <v>19</v>
@@ -82078,10 +82444,10 @@
         <v>1</v>
       </c>
       <c r="K1930">
-        <v>390000</v>
+        <v>49640000</v>
       </c>
       <c r="L1930">
-        <v>390000</v>
+        <v>49640000</v>
       </c>
     </row>
     <row r="1931" spans="1:12">
@@ -82095,19 +82461,19 @@
         <v>13</v>
       </c>
       <c r="D1931" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1931" t="s">
-        <v>2809</v>
+        <v>2827</v>
       </c>
       <c r="F1931" t="s">
-        <v>2810</v>
+        <v>2828</v>
       </c>
       <c r="G1931" t="s">
         <v>940</v>
       </c>
       <c r="H1931" t="s">
-        <v>2349</v>
+        <v>680</v>
       </c>
       <c r="I1931" t="s">
         <v>19</v>
@@ -82116,10 +82482,10 @@
         <v>1</v>
       </c>
       <c r="K1931">
-        <v>880200</v>
+        <v>360000</v>
       </c>
       <c r="L1931">
-        <v>880200</v>
+        <v>360000</v>
       </c>
     </row>
     <row r="1932" spans="1:12">
@@ -82133,19 +82499,19 @@
         <v>13</v>
       </c>
       <c r="D1932" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1932" t="s">
-        <v>2809</v>
+        <v>2827</v>
       </c>
       <c r="F1932" t="s">
-        <v>2810</v>
+        <v>2828</v>
       </c>
       <c r="G1932" t="s">
         <v>940</v>
       </c>
       <c r="H1932" t="s">
-        <v>1517</v>
+        <v>1515</v>
       </c>
       <c r="I1932" t="s">
         <v>19</v>
@@ -82154,10 +82520,10 @@
         <v>1</v>
       </c>
       <c r="K1932">
-        <v>4950000</v>
+        <v>2573000</v>
       </c>
       <c r="L1932">
-        <v>4950000</v>
+        <v>2573000</v>
       </c>
     </row>
     <row r="1933" spans="1:12">
@@ -82171,19 +82537,19 @@
         <v>13</v>
       </c>
       <c r="D1933" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1933" t="s">
-        <v>2809</v>
+        <v>2827</v>
       </c>
       <c r="F1933" t="s">
-        <v>2810</v>
+        <v>2828</v>
       </c>
       <c r="G1933" t="s">
         <v>940</v>
       </c>
       <c r="H1933" t="s">
-        <v>957</v>
+        <v>2343</v>
       </c>
       <c r="I1933" t="s">
         <v>19</v>
@@ -82192,10 +82558,10 @@
         <v>1</v>
       </c>
       <c r="K1933">
-        <v>650000</v>
+        <v>1499500</v>
       </c>
       <c r="L1933">
-        <v>650000</v>
+        <v>1499500</v>
       </c>
     </row>
     <row r="1934" spans="1:12">
@@ -82209,19 +82575,19 @@
         <v>13</v>
       </c>
       <c r="D1934" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1934" t="s">
-        <v>2809</v>
+        <v>2827</v>
       </c>
       <c r="F1934" t="s">
-        <v>2810</v>
+        <v>2828</v>
       </c>
       <c r="G1934" t="s">
         <v>940</v>
       </c>
       <c r="H1934" t="s">
-        <v>959</v>
+        <v>2829</v>
       </c>
       <c r="I1934" t="s">
         <v>19</v>
@@ -82230,10 +82596,10 @@
         <v>1</v>
       </c>
       <c r="K1934">
-        <v>529750</v>
+        <v>5770000</v>
       </c>
       <c r="L1934">
-        <v>529750</v>
+        <v>5770000</v>
       </c>
     </row>
     <row r="1935" spans="1:12">
@@ -82247,19 +82613,19 @@
         <v>13</v>
       </c>
       <c r="D1935" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1935" t="s">
-        <v>2809</v>
+        <v>2827</v>
       </c>
       <c r="F1935" t="s">
-        <v>2810</v>
+        <v>2828</v>
       </c>
       <c r="G1935" t="s">
         <v>940</v>
       </c>
       <c r="H1935" t="s">
-        <v>1518</v>
+        <v>2345</v>
       </c>
       <c r="I1935" t="s">
         <v>19</v>
@@ -82268,10 +82634,10 @@
         <v>1</v>
       </c>
       <c r="K1935">
-        <v>20104248</v>
+        <v>4340000</v>
       </c>
       <c r="L1935">
-        <v>20104248</v>
+        <v>4340000</v>
       </c>
     </row>
     <row r="1936" spans="1:12">
@@ -82285,19 +82651,19 @@
         <v>13</v>
       </c>
       <c r="D1936" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1936" t="s">
-        <v>2809</v>
+        <v>2827</v>
       </c>
       <c r="F1936" t="s">
-        <v>2810</v>
+        <v>2828</v>
       </c>
       <c r="G1936" t="s">
         <v>940</v>
       </c>
       <c r="H1936" t="s">
-        <v>210</v>
+        <v>695</v>
       </c>
       <c r="I1936" t="s">
         <v>19</v>
@@ -82306,10 +82672,10 @@
         <v>1</v>
       </c>
       <c r="K1936">
-        <v>1010000</v>
+        <v>2749000</v>
       </c>
       <c r="L1936">
-        <v>1010000</v>
+        <v>2749000</v>
       </c>
     </row>
     <row r="1937" spans="1:12">
@@ -82323,19 +82689,19 @@
         <v>13</v>
       </c>
       <c r="D1937" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1937" t="s">
-        <v>2809</v>
+        <v>2827</v>
       </c>
       <c r="F1937" t="s">
-        <v>2810</v>
+        <v>2828</v>
       </c>
       <c r="G1937" t="s">
         <v>940</v>
       </c>
       <c r="H1937" t="s">
-        <v>212</v>
+        <v>2830</v>
       </c>
       <c r="I1937" t="s">
         <v>19</v>
@@ -82344,10 +82710,10 @@
         <v>1</v>
       </c>
       <c r="K1937">
-        <v>710000</v>
+        <v>144000</v>
       </c>
       <c r="L1937">
-        <v>710000</v>
+        <v>144000</v>
       </c>
     </row>
     <row r="1938" spans="1:12">
@@ -82361,19 +82727,19 @@
         <v>13</v>
       </c>
       <c r="D1938" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1938" t="s">
-        <v>2813</v>
+        <v>2827</v>
       </c>
       <c r="F1938" t="s">
-        <v>2814</v>
+        <v>2828</v>
       </c>
       <c r="G1938" t="s">
-        <v>2334</v>
+        <v>940</v>
       </c>
       <c r="H1938" t="s">
-        <v>255</v>
+        <v>2348</v>
       </c>
       <c r="I1938" t="s">
         <v>19</v>
@@ -82382,10 +82748,10 @@
         <v>1</v>
       </c>
       <c r="K1938">
-        <v>60247031</v>
+        <v>390000</v>
       </c>
       <c r="L1938">
-        <v>60247031</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="1939" spans="1:12">
@@ -82399,19 +82765,19 @@
         <v>13</v>
       </c>
       <c r="D1939" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1939" t="s">
-        <v>2813</v>
+        <v>2827</v>
       </c>
       <c r="F1939" t="s">
-        <v>2814</v>
+        <v>2828</v>
       </c>
       <c r="G1939" t="s">
-        <v>2334</v>
+        <v>940</v>
       </c>
       <c r="H1939" t="s">
-        <v>2815</v>
+        <v>2349</v>
       </c>
       <c r="I1939" t="s">
         <v>19</v>
@@ -82420,10 +82786,10 @@
         <v>1</v>
       </c>
       <c r="K1939">
-        <v>4500000</v>
+        <v>880200</v>
       </c>
       <c r="L1939">
-        <v>4500000</v>
+        <v>880200</v>
       </c>
     </row>
     <row r="1940" spans="1:12">
@@ -82437,19 +82803,19 @@
         <v>13</v>
       </c>
       <c r="D1940" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1940" t="s">
-        <v>2813</v>
+        <v>2827</v>
       </c>
       <c r="F1940" t="s">
-        <v>2814</v>
+        <v>2828</v>
       </c>
       <c r="G1940" t="s">
-        <v>2334</v>
+        <v>940</v>
       </c>
       <c r="H1940" t="s">
-        <v>498</v>
+        <v>1517</v>
       </c>
       <c r="I1940" t="s">
         <v>19</v>
@@ -82458,10 +82824,10 @@
         <v>1</v>
       </c>
       <c r="K1940">
-        <v>45000</v>
+        <v>4950000</v>
       </c>
       <c r="L1940">
-        <v>45000</v>
+        <v>4950000</v>
       </c>
     </row>
     <row r="1941" spans="1:12">
@@ -82475,19 +82841,19 @@
         <v>13</v>
       </c>
       <c r="D1941" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1941" t="s">
-        <v>2813</v>
+        <v>2827</v>
       </c>
       <c r="F1941" t="s">
-        <v>2814</v>
+        <v>2828</v>
       </c>
       <c r="G1941" t="s">
-        <v>2334</v>
+        <v>940</v>
       </c>
       <c r="H1941" t="s">
-        <v>745</v>
+        <v>957</v>
       </c>
       <c r="I1941" t="s">
         <v>19</v>
@@ -82496,10 +82862,10 @@
         <v>1</v>
       </c>
       <c r="K1941">
-        <v>1200000</v>
+        <v>650000</v>
       </c>
       <c r="L1941">
-        <v>1200000</v>
+        <v>650000</v>
       </c>
     </row>
     <row r="1942" spans="1:12">
@@ -82513,19 +82879,19 @@
         <v>13</v>
       </c>
       <c r="D1942" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1942" t="s">
-        <v>2813</v>
+        <v>2827</v>
       </c>
       <c r="F1942" t="s">
-        <v>2814</v>
+        <v>2828</v>
       </c>
       <c r="G1942" t="s">
-        <v>2334</v>
+        <v>940</v>
       </c>
       <c r="H1942" t="s">
-        <v>272</v>
+        <v>959</v>
       </c>
       <c r="I1942" t="s">
         <v>19</v>
@@ -82534,10 +82900,10 @@
         <v>1</v>
       </c>
       <c r="K1942">
-        <v>1290000</v>
+        <v>529750</v>
       </c>
       <c r="L1942">
-        <v>1290000</v>
+        <v>529750</v>
       </c>
     </row>
     <row r="1943" spans="1:12">
@@ -82551,19 +82917,19 @@
         <v>13</v>
       </c>
       <c r="D1943" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1943" t="s">
-        <v>2813</v>
+        <v>2827</v>
       </c>
       <c r="F1943" t="s">
-        <v>2814</v>
+        <v>2828</v>
       </c>
       <c r="G1943" t="s">
-        <v>2334</v>
+        <v>940</v>
       </c>
       <c r="H1943" t="s">
-        <v>2798</v>
+        <v>1518</v>
       </c>
       <c r="I1943" t="s">
         <v>19</v>
@@ -82572,10 +82938,10 @@
         <v>1</v>
       </c>
       <c r="K1943">
-        <v>8043180</v>
+        <v>20104248</v>
       </c>
       <c r="L1943">
-        <v>8043180</v>
+        <v>20104248</v>
       </c>
     </row>
     <row r="1944" spans="1:12">
@@ -82589,19 +82955,19 @@
         <v>13</v>
       </c>
       <c r="D1944" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1944" t="s">
-        <v>2813</v>
+        <v>2827</v>
       </c>
       <c r="F1944" t="s">
-        <v>2814</v>
+        <v>2828</v>
       </c>
       <c r="G1944" t="s">
-        <v>2334</v>
+        <v>940</v>
       </c>
       <c r="H1944" t="s">
-        <v>319</v>
+        <v>210</v>
       </c>
       <c r="I1944" t="s">
         <v>19</v>
@@ -82610,10 +82976,10 @@
         <v>1</v>
       </c>
       <c r="K1944">
-        <v>9439500</v>
+        <v>1010000</v>
       </c>
       <c r="L1944">
-        <v>9439500</v>
+        <v>1010000</v>
       </c>
     </row>
     <row r="1945" spans="1:12">
@@ -82627,19 +82993,19 @@
         <v>13</v>
       </c>
       <c r="D1945" t="s">
-        <v>2808</v>
+        <v>2823</v>
       </c>
       <c r="E1945" t="s">
-        <v>2813</v>
+        <v>2827</v>
       </c>
       <c r="F1945" t="s">
-        <v>2814</v>
+        <v>2828</v>
       </c>
       <c r="G1945" t="s">
-        <v>2334</v>
+        <v>940</v>
       </c>
       <c r="H1945" t="s">
-        <v>1017</v>
+        <v>212</v>
       </c>
       <c r="I1945" t="s">
         <v>19</v>
@@ -82648,10 +83014,10 @@
         <v>1</v>
       </c>
       <c r="K1945">
-        <v>1800000</v>
+        <v>710000</v>
       </c>
       <c r="L1945">
-        <v>1800000</v>
+        <v>710000</v>
       </c>
     </row>
     <row r="1946" spans="1:12">
@@ -82665,31 +83031,1893 @@
         <v>13</v>
       </c>
       <c r="D1946" t="s">
-        <v>2808</v>
+        <v>2779</v>
       </c>
       <c r="E1946" t="s">
-        <v>2813</v>
+        <v>2831</v>
       </c>
       <c r="F1946" t="s">
-        <v>2814</v>
+        <v>2832</v>
       </c>
       <c r="G1946" t="s">
+        <v>2833</v>
+      </c>
+      <c r="H1946" t="s">
+        <v>2834</v>
+      </c>
+      <c r="I1946" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1946">
+        <v>1</v>
+      </c>
+      <c r="K1946">
+        <v>1700000</v>
+      </c>
+      <c r="L1946">
+        <v>1700000</v>
+      </c>
+    </row>
+    <row r="1947" spans="1:12">
+      <c r="A1947">
+        <v>1944</v>
+      </c>
+      <c r="B1947">
+        <v>626402</v>
+      </c>
+      <c r="C1947" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1947" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1947" t="s">
+        <v>2835</v>
+      </c>
+      <c r="F1947" t="s">
+        <v>2836</v>
+      </c>
+      <c r="G1947" t="s">
+        <v>2837</v>
+      </c>
+      <c r="H1947" t="s">
+        <v>1697</v>
+      </c>
+      <c r="I1947" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1947">
+        <v>1</v>
+      </c>
+      <c r="K1947">
+        <v>26594762</v>
+      </c>
+      <c r="L1947">
+        <v>26594762</v>
+      </c>
+    </row>
+    <row r="1948" spans="1:12">
+      <c r="A1948">
+        <v>1945</v>
+      </c>
+      <c r="B1948">
+        <v>626402</v>
+      </c>
+      <c r="C1948" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1948" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1948" t="s">
+        <v>2838</v>
+      </c>
+      <c r="F1948" t="s">
+        <v>2839</v>
+      </c>
+      <c r="G1948" t="s">
+        <v>2840</v>
+      </c>
+      <c r="H1948" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I1948" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1948">
+        <v>1</v>
+      </c>
+      <c r="K1948">
+        <v>3782696</v>
+      </c>
+      <c r="L1948">
+        <v>3782696</v>
+      </c>
+    </row>
+    <row r="1949" spans="1:12">
+      <c r="A1949">
+        <v>1946</v>
+      </c>
+      <c r="B1949">
+        <v>626402</v>
+      </c>
+      <c r="C1949" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1949" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1949" t="s">
+        <v>2841</v>
+      </c>
+      <c r="F1949" t="s">
+        <v>2842</v>
+      </c>
+      <c r="G1949" t="s">
+        <v>2843</v>
+      </c>
+      <c r="H1949" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I1949" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1949">
+        <v>1</v>
+      </c>
+      <c r="K1949">
+        <v>1140000</v>
+      </c>
+      <c r="L1949">
+        <v>1140000</v>
+      </c>
+    </row>
+    <row r="1950" spans="1:12">
+      <c r="A1950">
+        <v>1947</v>
+      </c>
+      <c r="B1950">
+        <v>626402</v>
+      </c>
+      <c r="C1950" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1950" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1950" t="s">
+        <v>2844</v>
+      </c>
+      <c r="F1950" t="s">
+        <v>2845</v>
+      </c>
+      <c r="G1950" t="s">
+        <v>2846</v>
+      </c>
+      <c r="H1950" t="s">
+        <v>2847</v>
+      </c>
+      <c r="I1950" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1950">
+        <v>1</v>
+      </c>
+      <c r="K1950">
+        <v>13135460</v>
+      </c>
+      <c r="L1950">
+        <v>13135460</v>
+      </c>
+    </row>
+    <row r="1951" spans="1:12">
+      <c r="A1951">
+        <v>1948</v>
+      </c>
+      <c r="B1951">
+        <v>626402</v>
+      </c>
+      <c r="C1951" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1951" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1951" t="s">
+        <v>2844</v>
+      </c>
+      <c r="F1951" t="s">
+        <v>2845</v>
+      </c>
+      <c r="G1951" t="s">
+        <v>2846</v>
+      </c>
+      <c r="H1951" t="s">
+        <v>2848</v>
+      </c>
+      <c r="I1951" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1951">
+        <v>1</v>
+      </c>
+      <c r="K1951">
+        <v>2340000</v>
+      </c>
+      <c r="L1951">
+        <v>2340000</v>
+      </c>
+    </row>
+    <row r="1952" spans="1:12">
+      <c r="A1952">
+        <v>1949</v>
+      </c>
+      <c r="B1952">
+        <v>626402</v>
+      </c>
+      <c r="C1952" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1952" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1952" t="s">
+        <v>2844</v>
+      </c>
+      <c r="F1952" t="s">
+        <v>2845</v>
+      </c>
+      <c r="G1952" t="s">
+        <v>2846</v>
+      </c>
+      <c r="H1952" t="s">
+        <v>2849</v>
+      </c>
+      <c r="I1952" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1952">
+        <v>1</v>
+      </c>
+      <c r="K1952">
+        <v>3600000</v>
+      </c>
+      <c r="L1952">
+        <v>3600000</v>
+      </c>
+    </row>
+    <row r="1953" spans="1:12">
+      <c r="A1953">
+        <v>1950</v>
+      </c>
+      <c r="B1953">
+        <v>626402</v>
+      </c>
+      <c r="C1953" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1953" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1953" t="s">
+        <v>2850</v>
+      </c>
+      <c r="F1953" t="s">
+        <v>2851</v>
+      </c>
+      <c r="G1953" t="s">
+        <v>2852</v>
+      </c>
+      <c r="H1953" t="s">
+        <v>187</v>
+      </c>
+      <c r="I1953" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1953">
+        <v>1</v>
+      </c>
+      <c r="K1953">
+        <v>241230000</v>
+      </c>
+      <c r="L1953">
+        <v>241230000</v>
+      </c>
+    </row>
+    <row r="1954" spans="1:12">
+      <c r="A1954">
+        <v>1951</v>
+      </c>
+      <c r="B1954">
+        <v>626402</v>
+      </c>
+      <c r="C1954" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1954" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1954" t="s">
+        <v>2853</v>
+      </c>
+      <c r="F1954" t="s">
+        <v>2854</v>
+      </c>
+      <c r="G1954" t="s">
+        <v>2855</v>
+      </c>
+      <c r="H1954" t="s">
+        <v>97</v>
+      </c>
+      <c r="I1954" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1954">
+        <v>1</v>
+      </c>
+      <c r="K1954">
+        <v>7941284</v>
+      </c>
+      <c r="L1954">
+        <v>7941284</v>
+      </c>
+    </row>
+    <row r="1955" spans="1:12">
+      <c r="A1955">
+        <v>1952</v>
+      </c>
+      <c r="B1955">
+        <v>626402</v>
+      </c>
+      <c r="C1955" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1955" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1955" t="s">
+        <v>2856</v>
+      </c>
+      <c r="F1955" t="s">
+        <v>2857</v>
+      </c>
+      <c r="G1955" t="s">
+        <v>2858</v>
+      </c>
+      <c r="H1955" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1955" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1955">
+        <v>1</v>
+      </c>
+      <c r="K1955">
+        <v>2207520</v>
+      </c>
+      <c r="L1955">
+        <v>2207520</v>
+      </c>
+    </row>
+    <row r="1956" spans="1:12">
+      <c r="A1956">
+        <v>1953</v>
+      </c>
+      <c r="B1956">
+        <v>626402</v>
+      </c>
+      <c r="C1956" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1956" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1956" t="s">
+        <v>2859</v>
+      </c>
+      <c r="F1956" t="s">
+        <v>2860</v>
+      </c>
+      <c r="G1956" t="s">
+        <v>2861</v>
+      </c>
+      <c r="H1956" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I1956" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1956">
+        <v>1</v>
+      </c>
+      <c r="K1956">
+        <v>5120378</v>
+      </c>
+      <c r="L1956">
+        <v>5120378</v>
+      </c>
+    </row>
+    <row r="1957" spans="1:12">
+      <c r="A1957">
+        <v>1954</v>
+      </c>
+      <c r="B1957">
+        <v>626402</v>
+      </c>
+      <c r="C1957" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1957" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1957" t="s">
+        <v>2862</v>
+      </c>
+      <c r="F1957" t="s">
+        <v>2863</v>
+      </c>
+      <c r="G1957" t="s">
+        <v>2864</v>
+      </c>
+      <c r="H1957" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I1957" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1957">
+        <v>1</v>
+      </c>
+      <c r="K1957">
+        <v>6710770</v>
+      </c>
+      <c r="L1957">
+        <v>6710770</v>
+      </c>
+    </row>
+    <row r="1958" spans="1:12">
+      <c r="A1958">
+        <v>1955</v>
+      </c>
+      <c r="B1958">
+        <v>626402</v>
+      </c>
+      <c r="C1958" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1958" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1958" t="s">
+        <v>2865</v>
+      </c>
+      <c r="F1958" t="s">
+        <v>2866</v>
+      </c>
+      <c r="G1958" t="s">
+        <v>2867</v>
+      </c>
+      <c r="H1958" t="s">
+        <v>101</v>
+      </c>
+      <c r="I1958" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1958">
+        <v>1</v>
+      </c>
+      <c r="K1958">
+        <v>4376397</v>
+      </c>
+      <c r="L1958">
+        <v>4376397</v>
+      </c>
+    </row>
+    <row r="1959" spans="1:12">
+      <c r="A1959">
+        <v>1956</v>
+      </c>
+      <c r="B1959">
+        <v>626402</v>
+      </c>
+      <c r="C1959" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1959" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1959" t="s">
+        <v>2868</v>
+      </c>
+      <c r="F1959" t="s">
+        <v>2869</v>
+      </c>
+      <c r="G1959" t="s">
+        <v>2870</v>
+      </c>
+      <c r="H1959" t="s">
+        <v>2040</v>
+      </c>
+      <c r="I1959" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1959">
+        <v>1</v>
+      </c>
+      <c r="K1959">
+        <v>16352520</v>
+      </c>
+      <c r="L1959">
+        <v>16352520</v>
+      </c>
+    </row>
+    <row r="1960" spans="1:12">
+      <c r="A1960">
+        <v>1957</v>
+      </c>
+      <c r="B1960">
+        <v>626402</v>
+      </c>
+      <c r="C1960" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1960" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1960" t="s">
+        <v>2871</v>
+      </c>
+      <c r="F1960" t="s">
+        <v>2872</v>
+      </c>
+      <c r="G1960" t="s">
+        <v>2873</v>
+      </c>
+      <c r="H1960" t="s">
+        <v>2874</v>
+      </c>
+      <c r="I1960" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1960">
+        <v>1</v>
+      </c>
+      <c r="K1960">
+        <v>3837270</v>
+      </c>
+      <c r="L1960">
+        <v>3837270</v>
+      </c>
+    </row>
+    <row r="1961" spans="1:12">
+      <c r="A1961">
+        <v>1958</v>
+      </c>
+      <c r="B1961">
+        <v>626402</v>
+      </c>
+      <c r="C1961" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1961" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1961" t="s">
+        <v>2875</v>
+      </c>
+      <c r="F1961" t="s">
+        <v>2876</v>
+      </c>
+      <c r="G1961" t="s">
+        <v>2877</v>
+      </c>
+      <c r="H1961" t="s">
+        <v>2375</v>
+      </c>
+      <c r="I1961" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1961">
+        <v>1</v>
+      </c>
+      <c r="K1961">
+        <v>4323450</v>
+      </c>
+      <c r="L1961">
+        <v>4323450</v>
+      </c>
+    </row>
+    <row r="1962" spans="1:12">
+      <c r="A1962">
+        <v>1959</v>
+      </c>
+      <c r="B1962">
+        <v>626402</v>
+      </c>
+      <c r="C1962" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1962" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E1962" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F1962" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G1962" t="s">
         <v>2334</v>
       </c>
-      <c r="H1946" t="s">
+      <c r="H1962" t="s">
+        <v>255</v>
+      </c>
+      <c r="I1962" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1962">
+        <v>1</v>
+      </c>
+      <c r="K1962">
+        <v>60247031</v>
+      </c>
+      <c r="L1962">
+        <v>60247031</v>
+      </c>
+    </row>
+    <row r="1963" spans="1:12">
+      <c r="A1963">
+        <v>1960</v>
+      </c>
+      <c r="B1963">
+        <v>626402</v>
+      </c>
+      <c r="C1963" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1963" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E1963" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F1963" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G1963" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1963" t="s">
+        <v>2880</v>
+      </c>
+      <c r="I1963" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1963">
+        <v>1</v>
+      </c>
+      <c r="K1963">
+        <v>4500000</v>
+      </c>
+      <c r="L1963">
+        <v>4500000</v>
+      </c>
+    </row>
+    <row r="1964" spans="1:12">
+      <c r="A1964">
+        <v>1961</v>
+      </c>
+      <c r="B1964">
+        <v>626402</v>
+      </c>
+      <c r="C1964" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1964" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E1964" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F1964" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G1964" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1964" t="s">
+        <v>498</v>
+      </c>
+      <c r="I1964" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1964">
+        <v>1</v>
+      </c>
+      <c r="K1964">
+        <v>45000</v>
+      </c>
+      <c r="L1964">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="1965" spans="1:12">
+      <c r="A1965">
+        <v>1962</v>
+      </c>
+      <c r="B1965">
+        <v>626402</v>
+      </c>
+      <c r="C1965" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1965" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E1965" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F1965" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G1965" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1965" t="s">
+        <v>745</v>
+      </c>
+      <c r="I1965" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1965">
+        <v>1</v>
+      </c>
+      <c r="K1965">
+        <v>1200000</v>
+      </c>
+      <c r="L1965">
+        <v>1200000</v>
+      </c>
+    </row>
+    <row r="1966" spans="1:12">
+      <c r="A1966">
+        <v>1963</v>
+      </c>
+      <c r="B1966">
+        <v>626402</v>
+      </c>
+      <c r="C1966" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1966" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E1966" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F1966" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G1966" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1966" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1966" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1966">
+        <v>1</v>
+      </c>
+      <c r="K1966">
+        <v>1290000</v>
+      </c>
+      <c r="L1966">
+        <v>1290000</v>
+      </c>
+    </row>
+    <row r="1967" spans="1:12">
+      <c r="A1967">
+        <v>1964</v>
+      </c>
+      <c r="B1967">
+        <v>626402</v>
+      </c>
+      <c r="C1967" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1967" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E1967" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F1967" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G1967" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1967" t="s">
+        <v>2806</v>
+      </c>
+      <c r="I1967" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1967">
+        <v>1</v>
+      </c>
+      <c r="K1967">
+        <v>8043180</v>
+      </c>
+      <c r="L1967">
+        <v>8043180</v>
+      </c>
+    </row>
+    <row r="1968" spans="1:12">
+      <c r="A1968">
+        <v>1965</v>
+      </c>
+      <c r="B1968">
+        <v>626402</v>
+      </c>
+      <c r="C1968" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1968" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E1968" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F1968" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G1968" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1968" t="s">
+        <v>319</v>
+      </c>
+      <c r="I1968" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1968">
+        <v>1</v>
+      </c>
+      <c r="K1968">
+        <v>9439500</v>
+      </c>
+      <c r="L1968">
+        <v>9439500</v>
+      </c>
+    </row>
+    <row r="1969" spans="1:12">
+      <c r="A1969">
+        <v>1966</v>
+      </c>
+      <c r="B1969">
+        <v>626402</v>
+      </c>
+      <c r="C1969" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1969" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E1969" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F1969" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G1969" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1969" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I1969" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1969">
+        <v>1</v>
+      </c>
+      <c r="K1969">
+        <v>1800000</v>
+      </c>
+      <c r="L1969">
+        <v>1800000</v>
+      </c>
+    </row>
+    <row r="1970" spans="1:12">
+      <c r="A1970">
+        <v>1967</v>
+      </c>
+      <c r="B1970">
+        <v>626402</v>
+      </c>
+      <c r="C1970" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1970" t="s">
+        <v>2823</v>
+      </c>
+      <c r="E1970" t="s">
+        <v>2878</v>
+      </c>
+      <c r="F1970" t="s">
+        <v>2879</v>
+      </c>
+      <c r="G1970" t="s">
+        <v>2334</v>
+      </c>
+      <c r="H1970" t="s">
         <v>332</v>
       </c>
-      <c r="I1946" t="s">
-        <v>19</v>
-      </c>
-      <c r="J1946">
-        <v>1</v>
-      </c>
-      <c r="K1946">
+      <c r="I1970" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1970">
+        <v>1</v>
+      </c>
+      <c r="K1970">
         <v>430000</v>
       </c>
-      <c r="L1946">
+      <c r="L1970">
         <v>430000</v>
+      </c>
+    </row>
+    <row r="1971" spans="1:12">
+      <c r="A1971">
+        <v>1968</v>
+      </c>
+      <c r="B1971">
+        <v>626402</v>
+      </c>
+      <c r="C1971" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1971" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1971" t="s">
+        <v>2881</v>
+      </c>
+      <c r="F1971" t="s">
+        <v>2882</v>
+      </c>
+      <c r="G1971" t="s">
+        <v>2883</v>
+      </c>
+      <c r="H1971" t="s">
+        <v>1754</v>
+      </c>
+      <c r="I1971" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1971">
+        <v>1</v>
+      </c>
+      <c r="K1971">
+        <v>1650000</v>
+      </c>
+      <c r="L1971">
+        <v>1650000</v>
+      </c>
+    </row>
+    <row r="1972" spans="1:12">
+      <c r="A1972">
+        <v>1969</v>
+      </c>
+      <c r="B1972">
+        <v>626402</v>
+      </c>
+      <c r="C1972" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1972" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1972" t="s">
+        <v>2884</v>
+      </c>
+      <c r="F1972" t="s">
+        <v>2885</v>
+      </c>
+      <c r="G1972" t="s">
+        <v>2406</v>
+      </c>
+      <c r="H1972" t="s">
+        <v>2375</v>
+      </c>
+      <c r="I1972" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1972">
+        <v>1</v>
+      </c>
+      <c r="K1972">
+        <v>8741250</v>
+      </c>
+      <c r="L1972">
+        <v>8741250</v>
+      </c>
+    </row>
+    <row r="1973" spans="1:12">
+      <c r="A1973">
+        <v>1970</v>
+      </c>
+      <c r="B1973">
+        <v>626402</v>
+      </c>
+      <c r="C1973" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1973" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1973" t="s">
+        <v>2886</v>
+      </c>
+      <c r="F1973" t="s">
+        <v>2887</v>
+      </c>
+      <c r="G1973" t="s">
+        <v>2888</v>
+      </c>
+      <c r="H1973" t="s">
+        <v>2889</v>
+      </c>
+      <c r="I1973" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1973">
+        <v>1</v>
+      </c>
+      <c r="K1973">
+        <v>890000</v>
+      </c>
+      <c r="L1973">
+        <v>890000</v>
+      </c>
+    </row>
+    <row r="1974" spans="1:12">
+      <c r="A1974">
+        <v>1971</v>
+      </c>
+      <c r="B1974">
+        <v>626402</v>
+      </c>
+      <c r="C1974" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1974" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1974" t="s">
+        <v>2890</v>
+      </c>
+      <c r="F1974" t="s">
+        <v>2891</v>
+      </c>
+      <c r="G1974" t="s">
+        <v>2892</v>
+      </c>
+      <c r="H1974" t="s">
+        <v>2889</v>
+      </c>
+      <c r="I1974" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1974">
+        <v>1</v>
+      </c>
+      <c r="K1974">
+        <v>975000</v>
+      </c>
+      <c r="L1974">
+        <v>975000</v>
+      </c>
+    </row>
+    <row r="1975" spans="1:12">
+      <c r="A1975">
+        <v>1972</v>
+      </c>
+      <c r="B1975">
+        <v>626402</v>
+      </c>
+      <c r="C1975" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1975" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1975" t="s">
+        <v>2893</v>
+      </c>
+      <c r="F1975" t="s">
+        <v>2894</v>
+      </c>
+      <c r="G1975" t="s">
+        <v>2895</v>
+      </c>
+      <c r="H1975" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I1975" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1975">
+        <v>1</v>
+      </c>
+      <c r="K1975">
+        <v>4108500</v>
+      </c>
+      <c r="L1975">
+        <v>4108500</v>
+      </c>
+    </row>
+    <row r="1976" spans="1:12">
+      <c r="A1976">
+        <v>1973</v>
+      </c>
+      <c r="B1976">
+        <v>626402</v>
+      </c>
+      <c r="C1976" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1976" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1976" t="s">
+        <v>2896</v>
+      </c>
+      <c r="F1976" t="s">
+        <v>2897</v>
+      </c>
+      <c r="G1976" t="s">
+        <v>2898</v>
+      </c>
+      <c r="H1976" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I1976" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1976">
+        <v>1</v>
+      </c>
+      <c r="K1976">
+        <v>1174000</v>
+      </c>
+      <c r="L1976">
+        <v>1174000</v>
+      </c>
+    </row>
+    <row r="1977" spans="1:12">
+      <c r="A1977">
+        <v>1974</v>
+      </c>
+      <c r="B1977">
+        <v>626402</v>
+      </c>
+      <c r="C1977" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1977" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1977" t="s">
+        <v>2899</v>
+      </c>
+      <c r="F1977" t="s">
+        <v>2900</v>
+      </c>
+      <c r="G1977" t="s">
+        <v>2901</v>
+      </c>
+      <c r="H1977" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I1977" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1977">
+        <v>1</v>
+      </c>
+      <c r="K1977">
+        <v>2325000</v>
+      </c>
+      <c r="L1977">
+        <v>2325000</v>
+      </c>
+    </row>
+    <row r="1978" spans="1:12">
+      <c r="A1978">
+        <v>1975</v>
+      </c>
+      <c r="B1978">
+        <v>626402</v>
+      </c>
+      <c r="C1978" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1978" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1978" t="s">
+        <v>2902</v>
+      </c>
+      <c r="F1978" t="s">
+        <v>2903</v>
+      </c>
+      <c r="G1978" t="s">
+        <v>2904</v>
+      </c>
+      <c r="H1978" t="s">
+        <v>1518</v>
+      </c>
+      <c r="I1978" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1978">
+        <v>1</v>
+      </c>
+      <c r="K1978">
+        <v>2733000</v>
+      </c>
+      <c r="L1978">
+        <v>2733000</v>
+      </c>
+    </row>
+    <row r="1979" spans="1:12">
+      <c r="A1979">
+        <v>1976</v>
+      </c>
+      <c r="B1979">
+        <v>626402</v>
+      </c>
+      <c r="C1979" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1979" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1979" t="s">
+        <v>2905</v>
+      </c>
+      <c r="F1979" t="s">
+        <v>2906</v>
+      </c>
+      <c r="G1979" t="s">
+        <v>2907</v>
+      </c>
+      <c r="H1979" t="s">
+        <v>2293</v>
+      </c>
+      <c r="I1979" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1979">
+        <v>1</v>
+      </c>
+      <c r="K1979">
+        <v>821400</v>
+      </c>
+      <c r="L1979">
+        <v>821400</v>
+      </c>
+    </row>
+    <row r="1980" spans="1:12">
+      <c r="A1980">
+        <v>1977</v>
+      </c>
+      <c r="B1980">
+        <v>626402</v>
+      </c>
+      <c r="C1980" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1980" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1980" t="s">
+        <v>2908</v>
+      </c>
+      <c r="F1980" t="s">
+        <v>2909</v>
+      </c>
+      <c r="G1980" t="s">
+        <v>2910</v>
+      </c>
+      <c r="H1980" t="s">
+        <v>2819</v>
+      </c>
+      <c r="I1980" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1980">
+        <v>1</v>
+      </c>
+      <c r="K1980">
+        <v>4971030</v>
+      </c>
+      <c r="L1980">
+        <v>4971030</v>
+      </c>
+    </row>
+    <row r="1981" spans="1:12">
+      <c r="A1981">
+        <v>1978</v>
+      </c>
+      <c r="B1981">
+        <v>626402</v>
+      </c>
+      <c r="C1981" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1981" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1981" t="s">
+        <v>2911</v>
+      </c>
+      <c r="F1981" t="s">
+        <v>2912</v>
+      </c>
+      <c r="G1981" t="s">
+        <v>2913</v>
+      </c>
+      <c r="H1981" t="s">
+        <v>2819</v>
+      </c>
+      <c r="I1981" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1981">
+        <v>1</v>
+      </c>
+      <c r="K1981">
+        <v>510000</v>
+      </c>
+      <c r="L1981">
+        <v>510000</v>
+      </c>
+    </row>
+    <row r="1982" spans="1:12">
+      <c r="A1982">
+        <v>1979</v>
+      </c>
+      <c r="B1982">
+        <v>626402</v>
+      </c>
+      <c r="C1982" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1982" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1982" t="s">
+        <v>2915</v>
+      </c>
+      <c r="F1982" t="s">
+        <v>2916</v>
+      </c>
+      <c r="G1982" t="s">
+        <v>2917</v>
+      </c>
+      <c r="H1982" t="s">
+        <v>1472</v>
+      </c>
+      <c r="I1982" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1982">
+        <v>1</v>
+      </c>
+      <c r="K1982">
+        <v>1813500</v>
+      </c>
+      <c r="L1982">
+        <v>1813500</v>
+      </c>
+    </row>
+    <row r="1983" spans="1:12">
+      <c r="A1983">
+        <v>1980</v>
+      </c>
+      <c r="B1983">
+        <v>626402</v>
+      </c>
+      <c r="C1983" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1983" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1983" t="s">
+        <v>2918</v>
+      </c>
+      <c r="F1983" t="s">
+        <v>2919</v>
+      </c>
+      <c r="G1983" t="s">
+        <v>2920</v>
+      </c>
+      <c r="H1983" t="s">
+        <v>2682</v>
+      </c>
+      <c r="I1983" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1983">
+        <v>1</v>
+      </c>
+      <c r="K1983">
+        <v>1260000</v>
+      </c>
+      <c r="L1983">
+        <v>1260000</v>
+      </c>
+    </row>
+    <row r="1984" spans="1:12">
+      <c r="A1984">
+        <v>1981</v>
+      </c>
+      <c r="B1984">
+        <v>626402</v>
+      </c>
+      <c r="C1984" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1984" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1984" t="s">
+        <v>2921</v>
+      </c>
+      <c r="F1984" t="s">
+        <v>2922</v>
+      </c>
+      <c r="G1984" t="s">
+        <v>2923</v>
+      </c>
+      <c r="H1984" t="s">
+        <v>2682</v>
+      </c>
+      <c r="I1984" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1984">
+        <v>1</v>
+      </c>
+      <c r="K1984">
+        <v>2580000</v>
+      </c>
+      <c r="L1984">
+        <v>2580000</v>
+      </c>
+    </row>
+    <row r="1985" spans="1:12">
+      <c r="A1985">
+        <v>1982</v>
+      </c>
+      <c r="B1985">
+        <v>626402</v>
+      </c>
+      <c r="C1985" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1985" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1985" t="s">
+        <v>2921</v>
+      </c>
+      <c r="F1985" t="s">
+        <v>2922</v>
+      </c>
+      <c r="G1985" t="s">
+        <v>2923</v>
+      </c>
+      <c r="H1985" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I1985" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1985">
+        <v>1</v>
+      </c>
+      <c r="K1985">
+        <v>829100</v>
+      </c>
+      <c r="L1985">
+        <v>829100</v>
+      </c>
+    </row>
+    <row r="1986" spans="1:12">
+      <c r="A1986">
+        <v>1983</v>
+      </c>
+      <c r="B1986">
+        <v>626402</v>
+      </c>
+      <c r="C1986" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1986" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1986" t="s">
+        <v>2925</v>
+      </c>
+      <c r="F1986" t="s">
+        <v>2926</v>
+      </c>
+      <c r="G1986" t="s">
+        <v>2927</v>
+      </c>
+      <c r="H1986" t="s">
+        <v>2682</v>
+      </c>
+      <c r="I1986" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1986">
+        <v>1</v>
+      </c>
+      <c r="K1986">
+        <v>315000</v>
+      </c>
+      <c r="L1986">
+        <v>315000</v>
+      </c>
+    </row>
+    <row r="1987" spans="1:12">
+      <c r="A1987">
+        <v>1984</v>
+      </c>
+      <c r="B1987">
+        <v>626402</v>
+      </c>
+      <c r="C1987" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1987" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1987" t="s">
+        <v>2925</v>
+      </c>
+      <c r="F1987" t="s">
+        <v>2926</v>
+      </c>
+      <c r="G1987" t="s">
+        <v>2927</v>
+      </c>
+      <c r="H1987" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I1987" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1987">
+        <v>1</v>
+      </c>
+      <c r="K1987">
+        <v>545310</v>
+      </c>
+      <c r="L1987">
+        <v>545310</v>
+      </c>
+    </row>
+    <row r="1988" spans="1:12">
+      <c r="A1988">
+        <v>1985</v>
+      </c>
+      <c r="B1988">
+        <v>626402</v>
+      </c>
+      <c r="C1988" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1988" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1988" t="s">
+        <v>2928</v>
+      </c>
+      <c r="F1988" t="s">
+        <v>2929</v>
+      </c>
+      <c r="G1988" t="s">
+        <v>2930</v>
+      </c>
+      <c r="H1988" t="s">
+        <v>2931</v>
+      </c>
+      <c r="I1988" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1988">
+        <v>1</v>
+      </c>
+      <c r="K1988">
+        <v>630000</v>
+      </c>
+      <c r="L1988">
+        <v>630000</v>
+      </c>
+    </row>
+    <row r="1989" spans="1:12">
+      <c r="A1989">
+        <v>1986</v>
+      </c>
+      <c r="B1989">
+        <v>626402</v>
+      </c>
+      <c r="C1989" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1989" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1989" t="s">
+        <v>2928</v>
+      </c>
+      <c r="F1989" t="s">
+        <v>2929</v>
+      </c>
+      <c r="G1989" t="s">
+        <v>2930</v>
+      </c>
+      <c r="H1989" t="s">
+        <v>2658</v>
+      </c>
+      <c r="I1989" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1989">
+        <v>1</v>
+      </c>
+      <c r="K1989">
+        <v>340000</v>
+      </c>
+      <c r="L1989">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="1990" spans="1:12">
+      <c r="A1990">
+        <v>1987</v>
+      </c>
+      <c r="B1990">
+        <v>626402</v>
+      </c>
+      <c r="C1990" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1990" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1990" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F1990" t="s">
+        <v>2933</v>
+      </c>
+      <c r="G1990" t="s">
+        <v>2934</v>
+      </c>
+      <c r="H1990" t="s">
+        <v>2847</v>
+      </c>
+      <c r="I1990" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1990">
+        <v>1</v>
+      </c>
+      <c r="K1990">
+        <v>390000</v>
+      </c>
+      <c r="L1990">
+        <v>390000</v>
+      </c>
+    </row>
+    <row r="1991" spans="1:12">
+      <c r="A1991">
+        <v>1988</v>
+      </c>
+      <c r="B1991">
+        <v>626402</v>
+      </c>
+      <c r="C1991" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1991" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1991" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F1991" t="s">
+        <v>2933</v>
+      </c>
+      <c r="G1991" t="s">
+        <v>2934</v>
+      </c>
+      <c r="H1991" t="s">
+        <v>2848</v>
+      </c>
+      <c r="I1991" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1991">
+        <v>1</v>
+      </c>
+      <c r="K1991">
+        <v>2730000</v>
+      </c>
+      <c r="L1991">
+        <v>2730000</v>
+      </c>
+    </row>
+    <row r="1992" spans="1:12">
+      <c r="A1992">
+        <v>1989</v>
+      </c>
+      <c r="B1992">
+        <v>626402</v>
+      </c>
+      <c r="C1992" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1992" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1992" t="s">
+        <v>2932</v>
+      </c>
+      <c r="F1992" t="s">
+        <v>2933</v>
+      </c>
+      <c r="G1992" t="s">
+        <v>2934</v>
+      </c>
+      <c r="H1992" t="s">
+        <v>2849</v>
+      </c>
+      <c r="I1992" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1992">
+        <v>1</v>
+      </c>
+      <c r="K1992">
+        <v>2140000</v>
+      </c>
+      <c r="L1992">
+        <v>2140000</v>
+      </c>
+    </row>
+    <row r="1993" spans="1:12">
+      <c r="A1993">
+        <v>1990</v>
+      </c>
+      <c r="B1993">
+        <v>626402</v>
+      </c>
+      <c r="C1993" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1993" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1993" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1993" t="s">
+        <v>2936</v>
+      </c>
+      <c r="G1993" t="s">
+        <v>2937</v>
+      </c>
+      <c r="H1993" t="s">
+        <v>2681</v>
+      </c>
+      <c r="I1993" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1993">
+        <v>1</v>
+      </c>
+      <c r="K1993">
+        <v>625000</v>
+      </c>
+      <c r="L1993">
+        <v>625000</v>
+      </c>
+    </row>
+    <row r="1994" spans="1:12">
+      <c r="A1994">
+        <v>1991</v>
+      </c>
+      <c r="B1994">
+        <v>626402</v>
+      </c>
+      <c r="C1994" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1994" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1994" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1994" t="s">
+        <v>2936</v>
+      </c>
+      <c r="G1994" t="s">
+        <v>2937</v>
+      </c>
+      <c r="H1994" t="s">
+        <v>2682</v>
+      </c>
+      <c r="I1994" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1994">
+        <v>1</v>
+      </c>
+      <c r="K1994">
+        <v>760000</v>
+      </c>
+      <c r="L1994">
+        <v>760000</v>
+      </c>
+    </row>
+    <row r="1995" spans="1:12">
+      <c r="A1995">
+        <v>1992</v>
+      </c>
+      <c r="B1995">
+        <v>626402</v>
+      </c>
+      <c r="C1995" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1995" t="s">
+        <v>2914</v>
+      </c>
+      <c r="E1995" t="s">
+        <v>2935</v>
+      </c>
+      <c r="F1995" t="s">
+        <v>2936</v>
+      </c>
+      <c r="G1995" t="s">
+        <v>2937</v>
+      </c>
+      <c r="H1995" t="s">
+        <v>2924</v>
+      </c>
+      <c r="I1995" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1995">
+        <v>1</v>
+      </c>
+      <c r="K1995">
+        <v>248000</v>
+      </c>
+      <c r="L1995">
+        <v>248000</v>
       </c>
     </row>
   </sheetData>

--- a/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
+++ b/Database/MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2938">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="2964">
   <si>
     <t>MONITORING DETAIL TRANSAKSI FA 16 SEGMEN VERSI SP2D</t>
   </si>
@@ -8642,6 +8642,15 @@
     <t>'626402.175.523121.03212WA.2378EBA.A000000001.00000.1.0151.2.000000.000000.994.002.BC.001732</t>
   </si>
   <si>
+    <t>'00788T</t>
+  </si>
+  <si>
+    <t>'241751301016303</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang sesuai Kuitansi Nomor:2401471/PCRC Tgl.2 April 2024</t>
+  </si>
+  <si>
     <t>'00789T</t>
   </si>
   <si>
@@ -8669,6 +8678,12 @@
     <t>Pembayaran Belanja Barang. Jasa Profesi Reviewer Penelitian Terapan Terpusat an. Abdul Hamid sesuai SK PPK No KEP.36/BPPSDM.4/II/2024 tgl 20 Februari 2024, Surat Perintah Plt. Pusdik NoB.424/BPPSD M.4/K P.440/II/2024 tgl 20 Feb 2024.</t>
   </si>
   <si>
+    <t>'00795T</t>
+  </si>
+  <si>
+    <t>'241751301016304</t>
+  </si>
+  <si>
     <t>'00796T</t>
   </si>
   <si>
@@ -8829,6 +8844,69 @@
   </si>
   <si>
     <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST No. B.3284/BPPSDM.1/KP.440/IV/2024 Tanggal 4/4/2 a.n I Wayan Purya</t>
+  </si>
+  <si>
+    <t>'00823T</t>
+  </si>
+  <si>
+    <t>'241751303016184</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST No.B.3829/BPPSDM.1/KP.440/V/20224 tgl 15 Mei 2024 a.n Nina Lusmiati</t>
+  </si>
+  <si>
+    <t>'00824T</t>
+  </si>
+  <si>
+    <t>'241751303016186</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST No.B.3829/BPPSDM.1/KP.440/V/20224 tgl 15 Mei 2024 a.n Wawan Nurliansyah, dkk</t>
+  </si>
+  <si>
+    <t>'00825T</t>
+  </si>
+  <si>
+    <t>'241751303016188</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 1 pegawai sesuai ST No.B.3678/BPPSDM.1/KP.440/V/20224 tgl 7 Mei 2024 a.n Nina Lusmiati, dkk</t>
+  </si>
+  <si>
+    <t>'00827T</t>
+  </si>
+  <si>
+    <t>'241751303016187</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 3 pegawai sesuai ST No.B.3667/BPPSDM.1/KP.440/V/20224 tgl 6 Mei 2024 a.n Wawan Nurliansyah, dkk</t>
+  </si>
+  <si>
+    <t>'00831T</t>
+  </si>
+  <si>
+    <t>'241751303016182</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran kekurangan gaji PP No 5 Tahun 2024 pegawai Pusdik bulan Maret 2024 untuk 4 pegawai/15 Jiwa)</t>
+  </si>
+  <si>
+    <t>'00832T</t>
+  </si>
+  <si>
+    <t>'241751303016181</t>
+  </si>
+  <si>
+    <t>Pembayaran belanja pegawai(pembayaran kekurangan tunjangan fungsional pegawai Sekretariat BPPSDM bulan Mei 2024 untuk 8 pegawai/21 Jiwa)</t>
+  </si>
+  <si>
+    <t>'00835T</t>
+  </si>
+  <si>
+    <t>'241751303016185</t>
+  </si>
+  <si>
+    <t>Pembayaran Belanja Barang Perjalanan Dinas untuk 2 pegawai sesuai ST No.B.3589/BPPSDM.1/KP.440/IV/20224 tgl 30 April 2024 a.n Bachtiar, dkk</t>
   </si>
 </sst>
 </file>
@@ -9170,7 +9248,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:L1995"/>
+  <dimension ref="A1:L2012"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="L3" sqref="L3"/>
@@ -83622,10 +83700,10 @@
         <v>1</v>
       </c>
       <c r="K1961">
-        <v>4323450</v>
+        <v>4323250</v>
       </c>
       <c r="L1961">
-        <v>4323450</v>
+        <v>4323250</v>
       </c>
     </row>
     <row r="1962" spans="1:12">
@@ -83639,7 +83717,7 @@
         <v>13</v>
       </c>
       <c r="D1962" t="s">
-        <v>2823</v>
+        <v>2779</v>
       </c>
       <c r="E1962" t="s">
         <v>2878</v>
@@ -83648,10 +83726,10 @@
         <v>2879</v>
       </c>
       <c r="G1962" t="s">
-        <v>2334</v>
+        <v>2880</v>
       </c>
       <c r="H1962" t="s">
-        <v>255</v>
+        <v>2375</v>
       </c>
       <c r="I1962" t="s">
         <v>19</v>
@@ -83660,10 +83738,10 @@
         <v>1</v>
       </c>
       <c r="K1962">
-        <v>60247031</v>
+        <v>4323450</v>
       </c>
       <c r="L1962">
-        <v>60247031</v>
+        <v>4323450</v>
       </c>
     </row>
     <row r="1963" spans="1:12">
@@ -83680,16 +83758,16 @@
         <v>2823</v>
       </c>
       <c r="E1963" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="F1963" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="G1963" t="s">
         <v>2334</v>
       </c>
       <c r="H1963" t="s">
-        <v>2880</v>
+        <v>255</v>
       </c>
       <c r="I1963" t="s">
         <v>19</v>
@@ -83698,10 +83776,10 @@
         <v>1</v>
       </c>
       <c r="K1963">
-        <v>4500000</v>
+        <v>60247031</v>
       </c>
       <c r="L1963">
-        <v>4500000</v>
+        <v>60247031</v>
       </c>
     </row>
     <row r="1964" spans="1:12">
@@ -83718,16 +83796,16 @@
         <v>2823</v>
       </c>
       <c r="E1964" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="F1964" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="G1964" t="s">
         <v>2334</v>
       </c>
       <c r="H1964" t="s">
-        <v>498</v>
+        <v>2883</v>
       </c>
       <c r="I1964" t="s">
         <v>19</v>
@@ -83736,10 +83814,10 @@
         <v>1</v>
       </c>
       <c r="K1964">
-        <v>45000</v>
+        <v>4500000</v>
       </c>
       <c r="L1964">
-        <v>45000</v>
+        <v>4500000</v>
       </c>
     </row>
     <row r="1965" spans="1:12">
@@ -83756,16 +83834,16 @@
         <v>2823</v>
       </c>
       <c r="E1965" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="F1965" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="G1965" t="s">
         <v>2334</v>
       </c>
       <c r="H1965" t="s">
-        <v>745</v>
+        <v>498</v>
       </c>
       <c r="I1965" t="s">
         <v>19</v>
@@ -83774,10 +83852,10 @@
         <v>1</v>
       </c>
       <c r="K1965">
-        <v>1200000</v>
+        <v>45000</v>
       </c>
       <c r="L1965">
-        <v>1200000</v>
+        <v>45000</v>
       </c>
     </row>
     <row r="1966" spans="1:12">
@@ -83794,16 +83872,16 @@
         <v>2823</v>
       </c>
       <c r="E1966" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="F1966" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="G1966" t="s">
         <v>2334</v>
       </c>
       <c r="H1966" t="s">
-        <v>272</v>
+        <v>745</v>
       </c>
       <c r="I1966" t="s">
         <v>19</v>
@@ -83812,10 +83890,10 @@
         <v>1</v>
       </c>
       <c r="K1966">
-        <v>1290000</v>
+        <v>1200000</v>
       </c>
       <c r="L1966">
-        <v>1290000</v>
+        <v>1200000</v>
       </c>
     </row>
     <row r="1967" spans="1:12">
@@ -83832,16 +83910,16 @@
         <v>2823</v>
       </c>
       <c r="E1967" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="F1967" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="G1967" t="s">
         <v>2334</v>
       </c>
       <c r="H1967" t="s">
-        <v>2806</v>
+        <v>272</v>
       </c>
       <c r="I1967" t="s">
         <v>19</v>
@@ -83850,10 +83928,10 @@
         <v>1</v>
       </c>
       <c r="K1967">
-        <v>8043180</v>
+        <v>1290000</v>
       </c>
       <c r="L1967">
-        <v>8043180</v>
+        <v>1290000</v>
       </c>
     </row>
     <row r="1968" spans="1:12">
@@ -83870,16 +83948,16 @@
         <v>2823</v>
       </c>
       <c r="E1968" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="F1968" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="G1968" t="s">
         <v>2334</v>
       </c>
       <c r="H1968" t="s">
-        <v>319</v>
+        <v>2806</v>
       </c>
       <c r="I1968" t="s">
         <v>19</v>
@@ -83888,10 +83966,10 @@
         <v>1</v>
       </c>
       <c r="K1968">
-        <v>9439500</v>
+        <v>8043180</v>
       </c>
       <c r="L1968">
-        <v>9439500</v>
+        <v>8043180</v>
       </c>
     </row>
     <row r="1969" spans="1:12">
@@ -83908,16 +83986,16 @@
         <v>2823</v>
       </c>
       <c r="E1969" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="F1969" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="G1969" t="s">
         <v>2334</v>
       </c>
       <c r="H1969" t="s">
-        <v>1017</v>
+        <v>319</v>
       </c>
       <c r="I1969" t="s">
         <v>19</v>
@@ -83926,10 +84004,10 @@
         <v>1</v>
       </c>
       <c r="K1969">
-        <v>1800000</v>
+        <v>9439500</v>
       </c>
       <c r="L1969">
-        <v>1800000</v>
+        <v>9439500</v>
       </c>
     </row>
     <row r="1970" spans="1:12">
@@ -83946,16 +84024,16 @@
         <v>2823</v>
       </c>
       <c r="E1970" t="s">
-        <v>2878</v>
+        <v>2881</v>
       </c>
       <c r="F1970" t="s">
-        <v>2879</v>
+        <v>2882</v>
       </c>
       <c r="G1970" t="s">
         <v>2334</v>
       </c>
       <c r="H1970" t="s">
-        <v>332</v>
+        <v>1017</v>
       </c>
       <c r="I1970" t="s">
         <v>19</v>
@@ -83964,10 +84042,10 @@
         <v>1</v>
       </c>
       <c r="K1970">
-        <v>430000</v>
+        <v>1800000</v>
       </c>
       <c r="L1970">
-        <v>430000</v>
+        <v>1800000</v>
       </c>
     </row>
     <row r="1971" spans="1:12">
@@ -83981,7 +84059,7 @@
         <v>13</v>
       </c>
       <c r="D1971" t="s">
-        <v>2779</v>
+        <v>2823</v>
       </c>
       <c r="E1971" t="s">
         <v>2881</v>
@@ -83990,10 +84068,10 @@
         <v>2882</v>
       </c>
       <c r="G1971" t="s">
-        <v>2883</v>
+        <v>2334</v>
       </c>
       <c r="H1971" t="s">
-        <v>1754</v>
+        <v>332</v>
       </c>
       <c r="I1971" t="s">
         <v>19</v>
@@ -84002,10 +84080,10 @@
         <v>1</v>
       </c>
       <c r="K1971">
-        <v>1650000</v>
+        <v>430000</v>
       </c>
       <c r="L1971">
-        <v>1650000</v>
+        <v>430000</v>
       </c>
     </row>
     <row r="1972" spans="1:12">
@@ -84028,10 +84106,10 @@
         <v>2885</v>
       </c>
       <c r="G1972" t="s">
-        <v>2406</v>
+        <v>2886</v>
       </c>
       <c r="H1972" t="s">
-        <v>2375</v>
+        <v>1754</v>
       </c>
       <c r="I1972" t="s">
         <v>19</v>
@@ -84040,10 +84118,10 @@
         <v>1</v>
       </c>
       <c r="K1972">
-        <v>8741250</v>
+        <v>1650000</v>
       </c>
       <c r="L1972">
-        <v>8741250</v>
+        <v>1650000</v>
       </c>
     </row>
     <row r="1973" spans="1:12">
@@ -84060,16 +84138,16 @@
         <v>2779</v>
       </c>
       <c r="E1973" t="s">
-        <v>2886</v>
+        <v>2887</v>
       </c>
       <c r="F1973" t="s">
-        <v>2887</v>
+        <v>2888</v>
       </c>
       <c r="G1973" t="s">
-        <v>2888</v>
+        <v>2402</v>
       </c>
       <c r="H1973" t="s">
-        <v>2889</v>
+        <v>2375</v>
       </c>
       <c r="I1973" t="s">
         <v>19</v>
@@ -84078,10 +84156,10 @@
         <v>1</v>
       </c>
       <c r="K1973">
-        <v>890000</v>
+        <v>7492500</v>
       </c>
       <c r="L1973">
-        <v>890000</v>
+        <v>7492500</v>
       </c>
     </row>
     <row r="1974" spans="1:12">
@@ -84098,16 +84176,16 @@
         <v>2779</v>
       </c>
       <c r="E1974" t="s">
+        <v>2889</v>
+      </c>
+      <c r="F1974" t="s">
         <v>2890</v>
       </c>
-      <c r="F1974" t="s">
-        <v>2891</v>
-      </c>
       <c r="G1974" t="s">
-        <v>2892</v>
+        <v>2406</v>
       </c>
       <c r="H1974" t="s">
-        <v>2889</v>
+        <v>2375</v>
       </c>
       <c r="I1974" t="s">
         <v>19</v>
@@ -84116,10 +84194,10 @@
         <v>1</v>
       </c>
       <c r="K1974">
-        <v>975000</v>
+        <v>8741250</v>
       </c>
       <c r="L1974">
-        <v>975000</v>
+        <v>8741250</v>
       </c>
     </row>
     <row r="1975" spans="1:12">
@@ -84136,17 +84214,17 @@
         <v>2779</v>
       </c>
       <c r="E1975" t="s">
+        <v>2891</v>
+      </c>
+      <c r="F1975" t="s">
+        <v>2892</v>
+      </c>
+      <c r="G1975" t="s">
         <v>2893</v>
       </c>
-      <c r="F1975" t="s">
+      <c r="H1975" t="s">
         <v>2894</v>
       </c>
-      <c r="G1975" t="s">
-        <v>2895</v>
-      </c>
-      <c r="H1975" t="s">
-        <v>1518</v>
-      </c>
       <c r="I1975" t="s">
         <v>19</v>
       </c>
@@ -84154,10 +84232,10 @@
         <v>1</v>
       </c>
       <c r="K1975">
-        <v>4108500</v>
+        <v>890000</v>
       </c>
       <c r="L1975">
-        <v>4108500</v>
+        <v>890000</v>
       </c>
     </row>
     <row r="1976" spans="1:12">
@@ -84174,16 +84252,16 @@
         <v>2779</v>
       </c>
       <c r="E1976" t="s">
+        <v>2895</v>
+      </c>
+      <c r="F1976" t="s">
         <v>2896</v>
       </c>
-      <c r="F1976" t="s">
+      <c r="G1976" t="s">
         <v>2897</v>
       </c>
-      <c r="G1976" t="s">
-        <v>2898</v>
-      </c>
       <c r="H1976" t="s">
-        <v>1518</v>
+        <v>2894</v>
       </c>
       <c r="I1976" t="s">
         <v>19</v>
@@ -84192,10 +84270,10 @@
         <v>1</v>
       </c>
       <c r="K1976">
-        <v>1174000</v>
+        <v>975000</v>
       </c>
       <c r="L1976">
-        <v>1174000</v>
+        <v>975000</v>
       </c>
     </row>
     <row r="1977" spans="1:12">
@@ -84212,13 +84290,13 @@
         <v>2779</v>
       </c>
       <c r="E1977" t="s">
+        <v>2898</v>
+      </c>
+      <c r="F1977" t="s">
         <v>2899</v>
       </c>
-      <c r="F1977" t="s">
+      <c r="G1977" t="s">
         <v>2900</v>
-      </c>
-      <c r="G1977" t="s">
-        <v>2901</v>
       </c>
       <c r="H1977" t="s">
         <v>1518</v>
@@ -84230,10 +84308,10 @@
         <v>1</v>
       </c>
       <c r="K1977">
-        <v>2325000</v>
+        <v>4108500</v>
       </c>
       <c r="L1977">
-        <v>2325000</v>
+        <v>4108500</v>
       </c>
     </row>
     <row r="1978" spans="1:12">
@@ -84250,13 +84328,13 @@
         <v>2779</v>
       </c>
       <c r="E1978" t="s">
+        <v>2901</v>
+      </c>
+      <c r="F1978" t="s">
         <v>2902</v>
       </c>
-      <c r="F1978" t="s">
+      <c r="G1978" t="s">
         <v>2903</v>
-      </c>
-      <c r="G1978" t="s">
-        <v>2904</v>
       </c>
       <c r="H1978" t="s">
         <v>1518</v>
@@ -84268,10 +84346,10 @@
         <v>1</v>
       </c>
       <c r="K1978">
-        <v>2733000</v>
+        <v>1174000</v>
       </c>
       <c r="L1978">
-        <v>2733000</v>
+        <v>1174000</v>
       </c>
     </row>
     <row r="1979" spans="1:12">
@@ -84288,16 +84366,16 @@
         <v>2779</v>
       </c>
       <c r="E1979" t="s">
+        <v>2904</v>
+      </c>
+      <c r="F1979" t="s">
         <v>2905</v>
       </c>
-      <c r="F1979" t="s">
+      <c r="G1979" t="s">
         <v>2906</v>
       </c>
-      <c r="G1979" t="s">
-        <v>2907</v>
-      </c>
       <c r="H1979" t="s">
-        <v>2293</v>
+        <v>1518</v>
       </c>
       <c r="I1979" t="s">
         <v>19</v>
@@ -84306,10 +84384,10 @@
         <v>1</v>
       </c>
       <c r="K1979">
-        <v>821400</v>
+        <v>2325000</v>
       </c>
       <c r="L1979">
-        <v>821400</v>
+        <v>2325000</v>
       </c>
     </row>
     <row r="1980" spans="1:12">
@@ -84326,16 +84404,16 @@
         <v>2779</v>
       </c>
       <c r="E1980" t="s">
+        <v>2907</v>
+      </c>
+      <c r="F1980" t="s">
         <v>2908</v>
       </c>
-      <c r="F1980" t="s">
+      <c r="G1980" t="s">
         <v>2909</v>
       </c>
-      <c r="G1980" t="s">
-        <v>2910</v>
-      </c>
       <c r="H1980" t="s">
-        <v>2819</v>
+        <v>1518</v>
       </c>
       <c r="I1980" t="s">
         <v>19</v>
@@ -84344,10 +84422,10 @@
         <v>1</v>
       </c>
       <c r="K1980">
-        <v>4971030</v>
+        <v>2733000</v>
       </c>
       <c r="L1980">
-        <v>4971030</v>
+        <v>2733000</v>
       </c>
     </row>
     <row r="1981" spans="1:12">
@@ -84364,16 +84442,16 @@
         <v>2779</v>
       </c>
       <c r="E1981" t="s">
+        <v>2910</v>
+      </c>
+      <c r="F1981" t="s">
         <v>2911</v>
       </c>
-      <c r="F1981" t="s">
+      <c r="G1981" t="s">
         <v>2912</v>
       </c>
-      <c r="G1981" t="s">
-        <v>2913</v>
-      </c>
       <c r="H1981" t="s">
-        <v>2819</v>
+        <v>2293</v>
       </c>
       <c r="I1981" t="s">
         <v>19</v>
@@ -84382,10 +84460,10 @@
         <v>1</v>
       </c>
       <c r="K1981">
-        <v>510000</v>
+        <v>821400</v>
       </c>
       <c r="L1981">
-        <v>510000</v>
+        <v>821400</v>
       </c>
     </row>
     <row r="1982" spans="1:12">
@@ -84399,19 +84477,19 @@
         <v>13</v>
       </c>
       <c r="D1982" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E1982" t="s">
+        <v>2913</v>
+      </c>
+      <c r="F1982" t="s">
         <v>2914</v>
       </c>
-      <c r="E1982" t="s">
+      <c r="G1982" t="s">
         <v>2915</v>
       </c>
-      <c r="F1982" t="s">
-        <v>2916</v>
-      </c>
-      <c r="G1982" t="s">
-        <v>2917</v>
-      </c>
       <c r="H1982" t="s">
-        <v>1472</v>
+        <v>2819</v>
       </c>
       <c r="I1982" t="s">
         <v>19</v>
@@ -84420,10 +84498,10 @@
         <v>1</v>
       </c>
       <c r="K1982">
-        <v>1813500</v>
+        <v>4971030</v>
       </c>
       <c r="L1982">
-        <v>1813500</v>
+        <v>4971030</v>
       </c>
     </row>
     <row r="1983" spans="1:12">
@@ -84437,19 +84515,19 @@
         <v>13</v>
       </c>
       <c r="D1983" t="s">
-        <v>2914</v>
+        <v>2779</v>
       </c>
       <c r="E1983" t="s">
+        <v>2916</v>
+      </c>
+      <c r="F1983" t="s">
+        <v>2917</v>
+      </c>
+      <c r="G1983" t="s">
         <v>2918</v>
       </c>
-      <c r="F1983" t="s">
-        <v>2919</v>
-      </c>
-      <c r="G1983" t="s">
-        <v>2920</v>
-      </c>
       <c r="H1983" t="s">
-        <v>2682</v>
+        <v>2819</v>
       </c>
       <c r="I1983" t="s">
         <v>19</v>
@@ -84458,10 +84536,10 @@
         <v>1</v>
       </c>
       <c r="K1983">
-        <v>1260000</v>
+        <v>510000</v>
       </c>
       <c r="L1983">
-        <v>1260000</v>
+        <v>510000</v>
       </c>
     </row>
     <row r="1984" spans="1:12">
@@ -84475,19 +84553,19 @@
         <v>13</v>
       </c>
       <c r="D1984" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="E1984" t="s">
+        <v>2920</v>
+      </c>
+      <c r="F1984" t="s">
         <v>2921</v>
       </c>
-      <c r="F1984" t="s">
+      <c r="G1984" t="s">
         <v>2922</v>
       </c>
-      <c r="G1984" t="s">
-        <v>2923</v>
-      </c>
       <c r="H1984" t="s">
-        <v>2682</v>
+        <v>1472</v>
       </c>
       <c r="I1984" t="s">
         <v>19</v>
@@ -84496,10 +84574,10 @@
         <v>1</v>
       </c>
       <c r="K1984">
-        <v>2580000</v>
+        <v>1813500</v>
       </c>
       <c r="L1984">
-        <v>2580000</v>
+        <v>1813500</v>
       </c>
     </row>
     <row r="1985" spans="1:12">
@@ -84513,19 +84591,19 @@
         <v>13</v>
       </c>
       <c r="D1985" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="E1985" t="s">
-        <v>2921</v>
+        <v>2923</v>
       </c>
       <c r="F1985" t="s">
-        <v>2922</v>
+        <v>2924</v>
       </c>
       <c r="G1985" t="s">
-        <v>2923</v>
+        <v>2925</v>
       </c>
       <c r="H1985" t="s">
-        <v>2924</v>
+        <v>2682</v>
       </c>
       <c r="I1985" t="s">
         <v>19</v>
@@ -84534,10 +84612,10 @@
         <v>1</v>
       </c>
       <c r="K1985">
-        <v>829100</v>
+        <v>1260000</v>
       </c>
       <c r="L1985">
-        <v>829100</v>
+        <v>1260000</v>
       </c>
     </row>
     <row r="1986" spans="1:12">
@@ -84551,16 +84629,16 @@
         <v>13</v>
       </c>
       <c r="D1986" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="E1986" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="F1986" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="G1986" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="H1986" t="s">
         <v>2682</v>
@@ -84572,10 +84650,10 @@
         <v>1</v>
       </c>
       <c r="K1986">
-        <v>315000</v>
+        <v>2580000</v>
       </c>
       <c r="L1986">
-        <v>315000</v>
+        <v>2580000</v>
       </c>
     </row>
     <row r="1987" spans="1:12">
@@ -84589,19 +84667,19 @@
         <v>13</v>
       </c>
       <c r="D1987" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="E1987" t="s">
-        <v>2925</v>
+        <v>2926</v>
       </c>
       <c r="F1987" t="s">
-        <v>2926</v>
+        <v>2927</v>
       </c>
       <c r="G1987" t="s">
-        <v>2927</v>
+        <v>2928</v>
       </c>
       <c r="H1987" t="s">
-        <v>2924</v>
+        <v>2929</v>
       </c>
       <c r="I1987" t="s">
         <v>19</v>
@@ -84610,10 +84688,10 @@
         <v>1</v>
       </c>
       <c r="K1987">
-        <v>545310</v>
+        <v>829100</v>
       </c>
       <c r="L1987">
-        <v>545310</v>
+        <v>829100</v>
       </c>
     </row>
     <row r="1988" spans="1:12">
@@ -84627,19 +84705,19 @@
         <v>13</v>
       </c>
       <c r="D1988" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="E1988" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="F1988" t="s">
-        <v>2929</v>
+        <v>2931</v>
       </c>
       <c r="G1988" t="s">
-        <v>2930</v>
+        <v>2932</v>
       </c>
       <c r="H1988" t="s">
-        <v>2931</v>
+        <v>2682</v>
       </c>
       <c r="I1988" t="s">
         <v>19</v>
@@ -84648,10 +84726,10 @@
         <v>1</v>
       </c>
       <c r="K1988">
-        <v>630000</v>
+        <v>315000</v>
       </c>
       <c r="L1988">
-        <v>630000</v>
+        <v>315000</v>
       </c>
     </row>
     <row r="1989" spans="1:12">
@@ -84665,20 +84743,20 @@
         <v>13</v>
       </c>
       <c r="D1989" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="E1989" t="s">
-        <v>2928</v>
+        <v>2930</v>
       </c>
       <c r="F1989" t="s">
+        <v>2931</v>
+      </c>
+      <c r="G1989" t="s">
+        <v>2932</v>
+      </c>
+      <c r="H1989" t="s">
         <v>2929</v>
       </c>
-      <c r="G1989" t="s">
-        <v>2930</v>
-      </c>
-      <c r="H1989" t="s">
-        <v>2658</v>
-      </c>
       <c r="I1989" t="s">
         <v>19</v>
       </c>
@@ -84686,10 +84764,10 @@
         <v>1</v>
       </c>
       <c r="K1989">
-        <v>340000</v>
+        <v>545310</v>
       </c>
       <c r="L1989">
-        <v>340000</v>
+        <v>545310</v>
       </c>
     </row>
     <row r="1990" spans="1:12">
@@ -84703,19 +84781,19 @@
         <v>13</v>
       </c>
       <c r="D1990" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="E1990" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="F1990" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="G1990" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="H1990" t="s">
-        <v>2847</v>
+        <v>2936</v>
       </c>
       <c r="I1990" t="s">
         <v>19</v>
@@ -84724,10 +84802,10 @@
         <v>1</v>
       </c>
       <c r="K1990">
-        <v>390000</v>
+        <v>630000</v>
       </c>
       <c r="L1990">
-        <v>390000</v>
+        <v>630000</v>
       </c>
     </row>
     <row r="1991" spans="1:12">
@@ -84741,19 +84819,19 @@
         <v>13</v>
       </c>
       <c r="D1991" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="E1991" t="s">
-        <v>2932</v>
+        <v>2933</v>
       </c>
       <c r="F1991" t="s">
-        <v>2933</v>
+        <v>2934</v>
       </c>
       <c r="G1991" t="s">
-        <v>2934</v>
+        <v>2935</v>
       </c>
       <c r="H1991" t="s">
-        <v>2848</v>
+        <v>2658</v>
       </c>
       <c r="I1991" t="s">
         <v>19</v>
@@ -84762,10 +84840,10 @@
         <v>1</v>
       </c>
       <c r="K1991">
-        <v>2730000</v>
+        <v>340000</v>
       </c>
       <c r="L1991">
-        <v>2730000</v>
+        <v>340000</v>
       </c>
     </row>
     <row r="1992" spans="1:12">
@@ -84779,19 +84857,19 @@
         <v>13</v>
       </c>
       <c r="D1992" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="E1992" t="s">
-        <v>2932</v>
+        <v>2937</v>
       </c>
       <c r="F1992" t="s">
-        <v>2933</v>
+        <v>2938</v>
       </c>
       <c r="G1992" t="s">
-        <v>2934</v>
+        <v>2939</v>
       </c>
       <c r="H1992" t="s">
-        <v>2849</v>
+        <v>2847</v>
       </c>
       <c r="I1992" t="s">
         <v>19</v>
@@ -84800,10 +84878,10 @@
         <v>1</v>
       </c>
       <c r="K1992">
-        <v>2140000</v>
+        <v>390000</v>
       </c>
       <c r="L1992">
-        <v>2140000</v>
+        <v>390000</v>
       </c>
     </row>
     <row r="1993" spans="1:12">
@@ -84817,19 +84895,19 @@
         <v>13</v>
       </c>
       <c r="D1993" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="E1993" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
       <c r="F1993" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
       <c r="G1993" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="H1993" t="s">
-        <v>2681</v>
+        <v>2848</v>
       </c>
       <c r="I1993" t="s">
         <v>19</v>
@@ -84838,10 +84916,10 @@
         <v>1</v>
       </c>
       <c r="K1993">
-        <v>625000</v>
+        <v>2730000</v>
       </c>
       <c r="L1993">
-        <v>625000</v>
+        <v>2730000</v>
       </c>
     </row>
     <row r="1994" spans="1:12">
@@ -84855,19 +84933,19 @@
         <v>13</v>
       </c>
       <c r="D1994" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="E1994" t="s">
-        <v>2935</v>
+        <v>2937</v>
       </c>
       <c r="F1994" t="s">
-        <v>2936</v>
+        <v>2938</v>
       </c>
       <c r="G1994" t="s">
-        <v>2937</v>
+        <v>2939</v>
       </c>
       <c r="H1994" t="s">
-        <v>2682</v>
+        <v>2849</v>
       </c>
       <c r="I1994" t="s">
         <v>19</v>
@@ -84876,10 +84954,10 @@
         <v>1</v>
       </c>
       <c r="K1994">
-        <v>760000</v>
+        <v>2140000</v>
       </c>
       <c r="L1994">
-        <v>760000</v>
+        <v>2140000</v>
       </c>
     </row>
     <row r="1995" spans="1:12">
@@ -84893,19 +84971,19 @@
         <v>13</v>
       </c>
       <c r="D1995" t="s">
-        <v>2914</v>
+        <v>2919</v>
       </c>
       <c r="E1995" t="s">
-        <v>2935</v>
+        <v>2940</v>
       </c>
       <c r="F1995" t="s">
-        <v>2936</v>
+        <v>2941</v>
       </c>
       <c r="G1995" t="s">
-        <v>2937</v>
+        <v>2942</v>
       </c>
       <c r="H1995" t="s">
-        <v>2924</v>
+        <v>2681</v>
       </c>
       <c r="I1995" t="s">
         <v>19</v>
@@ -84914,10 +84992,656 @@
         <v>1</v>
       </c>
       <c r="K1995">
+        <v>625000</v>
+      </c>
+      <c r="L1995">
+        <v>625000</v>
+      </c>
+    </row>
+    <row r="1996" spans="1:12">
+      <c r="A1996">
+        <v>1993</v>
+      </c>
+      <c r="B1996">
+        <v>626402</v>
+      </c>
+      <c r="C1996" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1996" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E1996" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F1996" t="s">
+        <v>2941</v>
+      </c>
+      <c r="G1996" t="s">
+        <v>2942</v>
+      </c>
+      <c r="H1996" t="s">
+        <v>2682</v>
+      </c>
+      <c r="I1996" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1996">
+        <v>1</v>
+      </c>
+      <c r="K1996">
+        <v>760000</v>
+      </c>
+      <c r="L1996">
+        <v>760000</v>
+      </c>
+    </row>
+    <row r="1997" spans="1:12">
+      <c r="A1997">
+        <v>1994</v>
+      </c>
+      <c r="B1997">
+        <v>626402</v>
+      </c>
+      <c r="C1997" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1997" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E1997" t="s">
+        <v>2940</v>
+      </c>
+      <c r="F1997" t="s">
+        <v>2941</v>
+      </c>
+      <c r="G1997" t="s">
+        <v>2942</v>
+      </c>
+      <c r="H1997" t="s">
+        <v>2929</v>
+      </c>
+      <c r="I1997" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1997">
+        <v>1</v>
+      </c>
+      <c r="K1997">
         <v>248000</v>
       </c>
-      <c r="L1995">
+      <c r="L1997">
         <v>248000</v>
+      </c>
+    </row>
+    <row r="1998" spans="1:12">
+      <c r="A1998">
+        <v>1995</v>
+      </c>
+      <c r="B1998">
+        <v>626402</v>
+      </c>
+      <c r="C1998" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1998" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E1998" t="s">
+        <v>2943</v>
+      </c>
+      <c r="F1998" t="s">
+        <v>2944</v>
+      </c>
+      <c r="G1998" t="s">
+        <v>2945</v>
+      </c>
+      <c r="H1998" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1998" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1998">
+        <v>1</v>
+      </c>
+      <c r="K1998">
+        <v>5915000</v>
+      </c>
+      <c r="L1998">
+        <v>5915000</v>
+      </c>
+    </row>
+    <row r="1999" spans="1:12">
+      <c r="A1999">
+        <v>1996</v>
+      </c>
+      <c r="B1999">
+        <v>626402</v>
+      </c>
+      <c r="C1999" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1999" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E1999" t="s">
+        <v>2946</v>
+      </c>
+      <c r="F1999" t="s">
+        <v>2947</v>
+      </c>
+      <c r="G1999" t="s">
+        <v>2948</v>
+      </c>
+      <c r="H1999" t="s">
+        <v>272</v>
+      </c>
+      <c r="I1999" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1999">
+        <v>1</v>
+      </c>
+      <c r="K1999">
+        <v>11830000</v>
+      </c>
+      <c r="L1999">
+        <v>11830000</v>
+      </c>
+    </row>
+    <row r="2000" spans="1:12">
+      <c r="A2000">
+        <v>1997</v>
+      </c>
+      <c r="B2000">
+        <v>626402</v>
+      </c>
+      <c r="C2000" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2000" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2000" t="s">
+        <v>2949</v>
+      </c>
+      <c r="F2000" t="s">
+        <v>2950</v>
+      </c>
+      <c r="G2000" t="s">
+        <v>2951</v>
+      </c>
+      <c r="H2000" t="s">
+        <v>1208</v>
+      </c>
+      <c r="I2000" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2000">
+        <v>1</v>
+      </c>
+      <c r="K2000">
+        <v>260000</v>
+      </c>
+      <c r="L2000">
+        <v>260000</v>
+      </c>
+    </row>
+    <row r="2001" spans="1:12">
+      <c r="A2001">
+        <v>1998</v>
+      </c>
+      <c r="B2001">
+        <v>626402</v>
+      </c>
+      <c r="C2001" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2001" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2001" t="s">
+        <v>2949</v>
+      </c>
+      <c r="F2001" t="s">
+        <v>2950</v>
+      </c>
+      <c r="G2001" t="s">
+        <v>2951</v>
+      </c>
+      <c r="H2001" t="s">
+        <v>1209</v>
+      </c>
+      <c r="I2001" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2001">
+        <v>1</v>
+      </c>
+      <c r="K2001">
+        <v>340000</v>
+      </c>
+      <c r="L2001">
+        <v>340000</v>
+      </c>
+    </row>
+    <row r="2002" spans="1:12">
+      <c r="A2002">
+        <v>1999</v>
+      </c>
+      <c r="B2002">
+        <v>626402</v>
+      </c>
+      <c r="C2002" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2002" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2002" t="s">
+        <v>2952</v>
+      </c>
+      <c r="F2002" t="s">
+        <v>2953</v>
+      </c>
+      <c r="G2002" t="s">
+        <v>2954</v>
+      </c>
+      <c r="H2002" t="s">
+        <v>131</v>
+      </c>
+      <c r="I2002" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2002">
+        <v>1</v>
+      </c>
+      <c r="K2002">
+        <v>5386500</v>
+      </c>
+      <c r="L2002">
+        <v>5386500</v>
+      </c>
+    </row>
+    <row r="2003" spans="1:12">
+      <c r="A2003">
+        <v>2000</v>
+      </c>
+      <c r="B2003">
+        <v>626402</v>
+      </c>
+      <c r="C2003" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2003" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E2003" t="s">
+        <v>2955</v>
+      </c>
+      <c r="F2003" t="s">
+        <v>2956</v>
+      </c>
+      <c r="G2003" t="s">
+        <v>2957</v>
+      </c>
+      <c r="H2003" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2003" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2003">
+        <v>1</v>
+      </c>
+      <c r="K2003">
+        <v>2255200</v>
+      </c>
+      <c r="L2003">
+        <v>2255200</v>
+      </c>
+    </row>
+    <row r="2004" spans="1:12">
+      <c r="A2004">
+        <v>2001</v>
+      </c>
+      <c r="B2004">
+        <v>626402</v>
+      </c>
+      <c r="C2004" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2004" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E2004" t="s">
+        <v>2955</v>
+      </c>
+      <c r="F2004" t="s">
+        <v>2956</v>
+      </c>
+      <c r="G2004" t="s">
+        <v>2957</v>
+      </c>
+      <c r="H2004" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2004" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2004">
+        <v>1</v>
+      </c>
+      <c r="K2004">
+        <v>480</v>
+      </c>
+      <c r="L2004">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="2005" spans="1:12">
+      <c r="A2005">
+        <v>2002</v>
+      </c>
+      <c r="B2005">
+        <v>626402</v>
+      </c>
+      <c r="C2005" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2005" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E2005" t="s">
+        <v>2955</v>
+      </c>
+      <c r="F2005" t="s">
+        <v>2956</v>
+      </c>
+      <c r="G2005" t="s">
+        <v>2957</v>
+      </c>
+      <c r="H2005" t="s">
+        <v>48</v>
+      </c>
+      <c r="I2005" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2005">
+        <v>1</v>
+      </c>
+      <c r="K2005">
+        <v>225520</v>
+      </c>
+      <c r="L2005">
+        <v>225520</v>
+      </c>
+    </row>
+    <row r="2006" spans="1:12">
+      <c r="A2006">
+        <v>2003</v>
+      </c>
+      <c r="B2006">
+        <v>626402</v>
+      </c>
+      <c r="C2006" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2006" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E2006" t="s">
+        <v>2955</v>
+      </c>
+      <c r="F2006" t="s">
+        <v>2956</v>
+      </c>
+      <c r="G2006" t="s">
+        <v>2957</v>
+      </c>
+      <c r="H2006" t="s">
+        <v>49</v>
+      </c>
+      <c r="I2006" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2006">
+        <v>1</v>
+      </c>
+      <c r="K2006">
+        <v>79848</v>
+      </c>
+      <c r="L2006">
+        <v>79848</v>
+      </c>
+    </row>
+    <row r="2007" spans="1:12">
+      <c r="A2007">
+        <v>2004</v>
+      </c>
+      <c r="B2007">
+        <v>626402</v>
+      </c>
+      <c r="C2007" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2007" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E2007" t="s">
+        <v>2955</v>
+      </c>
+      <c r="F2007" t="s">
+        <v>2956</v>
+      </c>
+      <c r="G2007" t="s">
+        <v>2957</v>
+      </c>
+      <c r="H2007" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2007" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2007">
+        <v>1</v>
+      </c>
+      <c r="K2007">
+        <v>174369</v>
+      </c>
+      <c r="L2007">
+        <v>174369</v>
+      </c>
+    </row>
+    <row r="2008" spans="1:12">
+      <c r="A2008">
+        <v>2005</v>
+      </c>
+      <c r="B2008">
+        <v>626402</v>
+      </c>
+      <c r="C2008" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2008" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E2008" t="s">
+        <v>2958</v>
+      </c>
+      <c r="F2008" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G2008" t="s">
+        <v>2960</v>
+      </c>
+      <c r="H2008" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2008" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2008">
+        <v>1</v>
+      </c>
+      <c r="K2008">
+        <v>240</v>
+      </c>
+      <c r="L2008">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="2009" spans="1:12">
+      <c r="A2009">
+        <v>2006</v>
+      </c>
+      <c r="B2009">
+        <v>626402</v>
+      </c>
+      <c r="C2009" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2009" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E2009" t="s">
+        <v>2958</v>
+      </c>
+      <c r="F2009" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G2009" t="s">
+        <v>2960</v>
+      </c>
+      <c r="H2009" t="s">
+        <v>23</v>
+      </c>
+      <c r="I2009" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2009">
+        <v>1</v>
+      </c>
+      <c r="K2009">
+        <v>4206000</v>
+      </c>
+      <c r="L2009">
+        <v>4206000</v>
+      </c>
+    </row>
+    <row r="2010" spans="1:12">
+      <c r="A2010">
+        <v>2007</v>
+      </c>
+      <c r="B2010">
+        <v>626402</v>
+      </c>
+      <c r="C2010" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2010" t="s">
+        <v>2779</v>
+      </c>
+      <c r="E2010" t="s">
+        <v>2958</v>
+      </c>
+      <c r="F2010" t="s">
+        <v>2959</v>
+      </c>
+      <c r="G2010" t="s">
+        <v>2960</v>
+      </c>
+      <c r="H2010" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2010" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2010">
+        <v>1</v>
+      </c>
+      <c r="K2010">
+        <v>104335</v>
+      </c>
+      <c r="L2010">
+        <v>104335</v>
+      </c>
+    </row>
+    <row r="2011" spans="1:12">
+      <c r="A2011">
+        <v>2008</v>
+      </c>
+      <c r="B2011">
+        <v>626402</v>
+      </c>
+      <c r="C2011" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2011" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2011" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F2011" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G2011" t="s">
+        <v>2963</v>
+      </c>
+      <c r="H2011" t="s">
+        <v>2710</v>
+      </c>
+      <c r="I2011" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2011">
+        <v>1</v>
+      </c>
+      <c r="K2011">
+        <v>1720000</v>
+      </c>
+      <c r="L2011">
+        <v>1720000</v>
+      </c>
+    </row>
+    <row r="2012" spans="1:12">
+      <c r="A2012">
+        <v>2009</v>
+      </c>
+      <c r="B2012">
+        <v>626402</v>
+      </c>
+      <c r="C2012" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2012" t="s">
+        <v>2919</v>
+      </c>
+      <c r="E2012" t="s">
+        <v>2961</v>
+      </c>
+      <c r="F2012" t="s">
+        <v>2962</v>
+      </c>
+      <c r="G2012" t="s">
+        <v>2963</v>
+      </c>
+      <c r="H2012" t="s">
+        <v>2711</v>
+      </c>
+      <c r="I2012" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2012">
+        <v>1</v>
+      </c>
+      <c r="K2012">
+        <v>910500</v>
+      </c>
+      <c r="L2012">
+        <v>910500</v>
       </c>
     </row>
   </sheetData>
